--- a/TDStore/NhapXuatLaptop.xlsx
+++ b/TDStore/NhapXuatLaptop.xlsx
@@ -1,46 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\04.Private\BanLaptop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A8C6C1-C72F-4D27-98F7-071F36FB7B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB51B3C-CBD1-4ADD-A485-FD2043AA17EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NhapXuat" sheetId="1" r:id="rId1"/>
     <sheet name="CTV" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NhapXuat!$L$1:$L$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NhapXuat!$L$1:$L$57</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="156">
   <si>
     <t>ID máy</t>
   </si>
@@ -393,12 +382,6 @@
     <t>10tr</t>
   </si>
   <si>
-    <t>9tr5</t>
-  </si>
-  <si>
-    <t>12tr</t>
-  </si>
-  <si>
     <t>12tr5</t>
   </si>
   <si>
@@ -487,6 +470,36 @@
   </si>
   <si>
     <t>5tr5</t>
+  </si>
+  <si>
+    <t>16tr</t>
+  </si>
+  <si>
+    <t>6rt</t>
+  </si>
+  <si>
+    <t>XPS 9370 i5 8350U/8/  142$</t>
+  </si>
+  <si>
+    <t>398700747493</t>
+  </si>
+  <si>
+    <t>7400 i5-8365U/8/256 160$</t>
+  </si>
+  <si>
+    <t>398611074172</t>
+  </si>
+  <si>
+    <t>7400 2in1 i5-8356U/8/256  168$</t>
+  </si>
+  <si>
+    <t>398967928661</t>
+  </si>
+  <si>
+    <t>inspiron 5502 i5 -1135G7/8/256 274$</t>
+  </si>
+  <si>
+    <t>398975238878</t>
   </si>
 </sst>
 </file>
@@ -656,7 +669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -822,7 +835,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1126,11 +1151,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,7 +1165,7 @@
     <col min="5" max="5" width="9.7109375" style="2" customWidth="1"/>
     <col min="6" max="7" width="10.5703125" style="2" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.140625" style="2" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" style="2" customWidth="1"/>
     <col min="12" max="12" width="15.28515625" customWidth="1"/>
@@ -1172,7 +1197,7 @@
         <v>49</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>5</v>
@@ -1940,7 +1965,7 @@
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4">
-        <f t="shared" ref="K18:K48" si="4">I18-J18-F18</f>
+        <f t="shared" ref="K18:K53" si="4">I18-J18-F18</f>
         <v>500000</v>
       </c>
       <c r="L18" s="3" t="s">
@@ -2397,7 +2422,7 @@
       </c>
       <c r="R27" s="59"/>
     </row>
-    <row r="28" spans="1:18" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="62">
         <v>27</v>
       </c>
@@ -2423,18 +2448,18 @@
         <f t="shared" si="6"/>
         <v>12109823.75</v>
       </c>
-      <c r="I28" s="47">
-        <v>16700000</v>
+      <c r="I28" s="47" t="s">
+        <v>146</v>
       </c>
       <c r="J28" s="47"/>
-      <c r="K28" s="47">
+      <c r="K28" s="47" t="e">
         <f t="shared" si="4"/>
-        <v>7012141</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L28" s="48"/>
       <c r="M28" s="48"/>
       <c r="N28" s="48" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O28" s="49" t="s">
         <v>76</v>
@@ -2446,7 +2471,7 @@
         <v>45016</v>
       </c>
       <c r="R28" s="48" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="38" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -2531,7 +2556,7 @@
         <v>-167935</v>
       </c>
       <c r="L30" s="53" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O30" s="54" t="s">
         <v>85</v>
@@ -2663,7 +2688,7 @@
         <v>6948677.5</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4" t="e">
@@ -2680,7 +2705,7 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="64">
         <v>33</v>
       </c>
@@ -2706,13 +2731,13 @@
         <f t="shared" si="6"/>
         <v>12686378.75</v>
       </c>
-      <c r="I34" s="4" t="s">
-        <v>118</v>
+      <c r="I34" s="4">
+        <v>11000000</v>
       </c>
       <c r="J34" s="4"/>
-      <c r="K34" s="4" t="e">
+      <c r="K34" s="4">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
+        <v>850897</v>
       </c>
       <c r="O34" s="15" t="s">
         <v>100</v>
@@ -2724,7 +2749,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="64">
         <v>34</v>
       </c>
@@ -2750,13 +2775,13 @@
         <f t="shared" si="6"/>
         <v>11187365</v>
       </c>
-      <c r="I35" s="4" t="s">
-        <v>117</v>
+      <c r="I35" s="4">
+        <v>9000000</v>
       </c>
       <c r="J35" s="4"/>
-      <c r="K35" s="4" t="e">
+      <c r="K35" s="4">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
+        <v>50108</v>
       </c>
       <c r="O35" s="15" t="s">
         <v>90</v>
@@ -2803,7 +2828,7 @@
         <v>2178000</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O36" s="15" t="s">
         <v>101</v>
@@ -2837,7 +2862,7 @@
         <v>11646250</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4" t="e">
@@ -2860,23 +2885,23 @@
         <v>3178000</v>
       </c>
       <c r="D38" s="33">
-        <v>1220000</v>
+        <v>1370000</v>
       </c>
       <c r="E38" s="33"/>
       <c r="F38" s="33">
         <f t="shared" si="1"/>
-        <v>4398000</v>
+        <v>4548000</v>
       </c>
       <c r="G38" s="47">
         <f t="shared" si="7"/>
-        <v>5057700</v>
+        <v>5230200</v>
       </c>
       <c r="H38" s="4">
         <f>(F38*25%)+F38</f>
-        <v>5497500</v>
+        <v>5685000</v>
       </c>
       <c r="I38" s="33" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="J38" s="33"/>
       <c r="K38" s="33" t="e">
@@ -2923,7 +2948,7 @@
         <v>1590000</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O39" s="23" t="s">
         <v>104</v>
@@ -2932,7 +2957,7 @@
         <v>45265</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" s="3" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="67">
         <v>39</v>
       </c>
@@ -2958,13 +2983,13 @@
         <f t="shared" si="6"/>
         <v>8757500</v>
       </c>
-      <c r="I40" s="4" t="s">
-        <v>116</v>
+      <c r="I40" s="4">
+        <v>8500000</v>
       </c>
       <c r="J40" s="4"/>
-      <c r="K40" s="4" t="e">
+      <c r="K40" s="4">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
+        <v>1494000</v>
       </c>
       <c r="O40" s="15" t="s">
         <v>110</v>
@@ -2982,23 +3007,23 @@
         <v>4126000</v>
       </c>
       <c r="D41" s="33">
-        <v>850000</v>
+        <v>1450000</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4">
         <f t="shared" si="1"/>
-        <v>4976000</v>
+        <v>5576000</v>
       </c>
       <c r="G41" s="47">
         <f t="shared" si="7"/>
-        <v>5722400</v>
+        <v>6412400</v>
       </c>
       <c r="H41" s="4">
         <f t="shared" si="6"/>
-        <v>6220000</v>
+        <v>6970000</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4" t="e">
@@ -3010,7 +3035,7 @@
       </c>
       <c r="Q41" s="5"/>
     </row>
-    <row r="42" spans="1:17" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="67">
         <v>41</v>
       </c>
@@ -3036,16 +3061,16 @@
         <f t="shared" si="6"/>
         <v>5052500</v>
       </c>
-      <c r="I42" s="4" t="s">
-        <v>127</v>
+      <c r="I42" s="4">
+        <v>5500000</v>
       </c>
       <c r="J42" s="4"/>
-      <c r="K42" s="4" t="e">
+      <c r="K42" s="4">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
+        <v>1458000</v>
       </c>
       <c r="O42" s="23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q42" s="24"/>
     </row>
@@ -3084,7 +3109,7 @@
         <v>1585000</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O43" s="23" t="s">
         <v>113</v>
@@ -3096,7 +3121,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C44" s="31">
         <v>3268000</v>
@@ -3118,7 +3143,7 @@
         <v>5147500</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4" t="e">
@@ -3126,58 +3151,157 @@
         <v>#VALUE!</v>
       </c>
       <c r="O44" s="70" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P44" s="24"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="26">
+    <row r="45" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="78"/>
+      <c r="B45" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="79">
+        <v>3223000</v>
+      </c>
+      <c r="D45" s="80"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="80"/>
+      <c r="G45" s="81"/>
+      <c r="H45" s="80"/>
+      <c r="I45" s="80"/>
+      <c r="J45" s="80"/>
+      <c r="K45" s="69"/>
+      <c r="O45" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="P45" s="83"/>
+    </row>
+    <row r="46" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="78"/>
+      <c r="B46" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46" s="79">
+        <v>3632000</v>
+      </c>
+      <c r="D46" s="80"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="81"/>
+      <c r="H46" s="80"/>
+      <c r="I46" s="80"/>
+      <c r="J46" s="80"/>
+      <c r="K46" s="69"/>
+      <c r="O46" s="70" t="s">
+        <v>151</v>
+      </c>
+      <c r="P46" s="83"/>
+    </row>
+    <row r="47" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="78"/>
+      <c r="B47" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" s="79">
+        <v>3813000</v>
+      </c>
+      <c r="D47" s="80"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="81"/>
+      <c r="H47" s="80"/>
+      <c r="I47" s="80"/>
+      <c r="J47" s="80"/>
+      <c r="K47" s="69"/>
+      <c r="O47" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="P47" s="83"/>
+    </row>
+    <row r="48" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="78"/>
+      <c r="B48" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" s="79">
+        <v>6219000</v>
+      </c>
+      <c r="D48" s="80"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="81"/>
+      <c r="H48" s="80"/>
+      <c r="I48" s="80"/>
+      <c r="J48" s="80"/>
+      <c r="K48" s="69"/>
+      <c r="O48" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="P48" s="83"/>
+    </row>
+    <row r="49" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="78"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="80"/>
+      <c r="G49" s="81"/>
+      <c r="H49" s="80"/>
+      <c r="I49" s="80"/>
+      <c r="J49" s="80"/>
+      <c r="K49" s="69"/>
+      <c r="O49" s="70"/>
+      <c r="P49" s="83"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="26">
         <v>40</v>
       </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="32"/>
-      <c r="K45" s="69"/>
-      <c r="O45" s="29"/>
-      <c r="Q45" s="30"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
-      <c r="C46" s="32"/>
-      <c r="O46" s="29"/>
-      <c r="Q46" s="30"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K47" s="2">
+      <c r="B50" s="27"/>
+      <c r="C50" s="32"/>
+      <c r="K50" s="69"/>
+      <c r="O50" s="29"/>
+      <c r="Q50" s="30"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="26"/>
+      <c r="C51" s="32"/>
+      <c r="O51" s="29"/>
+      <c r="Q51" s="30"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K52" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C48" s="2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C53" s="2">
         <f>SUM(C2:C8)</f>
         <v>46150000</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I53" s="2">
         <f>SUM(I2:I8)</f>
         <v>50200000</v>
       </c>
-      <c r="K48" s="2">
+      <c r="K53" s="2">
         <f t="shared" si="4"/>
         <v>50200000</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M53" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D52" s="2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D57" s="2">
         <f>SUM(C20:C25)</f>
         <v>37301557</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="L1:L52" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="C2:G2 H2:N17 O2:Q22 B2:B25 R2:R39 C3:E25 F3:G28 K3:K38 H18:J35 L18:N38 P23:Q25 O26:Q26 D26:E38 P26:P39 O29:Q38 I36:J38 H36:H42 D39:F39 I39:N39 C40:F41 I40:R41 I42:J42 P42:P43 R42:R43 L42:N46 K42:K48 Q44 P45:P46 R45:R46 D45:J46 D42:F44 H43:J44 C29:F38 G29:G44">
+  <autoFilter ref="L1:L57" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="C2:G2 H2:N17 O2:Q22 B2:B25 R2:R39 C3:E25 F3:G28 K3:K38 H18:J35 L18:N38 P23:Q25 O26:Q26 D26:E38 P26:P39 O29:Q38 I36:J38 H36:H42 D39:F39 I39:N39 C40:F41 I40:R41 I42:J42 P42:P43 R42:R43 L42:N51 K42:K53 Q44:Q49 P50:P51 R50:R51 D50:J51 D42:F49 H43:J49 C29:F38 G29:G49">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>MOD(ROW(),2)&gt;0</formula>
     </cfRule>
@@ -3201,7 +3325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3777B8E6-A987-471D-8EED-3DECBE1A9A65}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -3227,7 +3351,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="75" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E1" s="75" t="s">
         <v>26</v>
@@ -3252,10 +3376,10 @@
         <v>9143705.1999999993</v>
       </c>
       <c r="E2" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3271,16 +3395,16 @@
         <v>6392783.2999999998</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="72" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C4" s="4">
         <v>10149103</v>
@@ -3290,16 +3414,16 @@
         <v>11671468.449999999</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="72" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C5" s="4">
         <v>8949892</v>
@@ -3309,16 +3433,16 @@
         <v>10292375.800000001</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="68" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C6" s="33">
         <v>4398000</v>
@@ -3328,16 +3452,16 @@
         <v>5057700</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="68" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C7" s="4">
         <v>7006000</v>
@@ -3347,7 +3471,7 @@
         <v>8056900</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>115</v>
@@ -3356,7 +3480,7 @@
     <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="68" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C8" s="4">
         <v>4976000</v>
@@ -3366,16 +3490,16 @@
         <v>5722400</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="73" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C9" s="4">
         <v>4042000</v>
@@ -3385,16 +3509,16 @@
         <v>4648300</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="77" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C10" s="4">
         <v>4118000</v>
@@ -3404,10 +3528,10 @@
         <v>4735700</v>
       </c>
       <c r="E10" s="47" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">

--- a/TDStore/NhapXuatLaptop.xlsx
+++ b/TDStore/NhapXuatLaptop.xlsx
@@ -1,35 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.Private\TDStore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB51B3C-CBD1-4ADD-A485-FD2043AA17EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758E3BC7-0CA9-439D-A3C8-57F191BB0FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NhapXuat" sheetId="1" r:id="rId1"/>
     <sheet name="CTV" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NhapXuat!$L$1:$L$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NhapXuat!$L$1:$L$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="169">
   <si>
     <t>ID máy</t>
   </si>
@@ -475,9 +486,6 @@
     <t>16tr</t>
   </si>
   <si>
-    <t>6rt</t>
-  </si>
-  <si>
     <t>XPS 9370 i5 8350U/8/  142$</t>
   </si>
   <si>
@@ -500,6 +508,48 @@
   </si>
   <si>
     <t>398975238878</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7400 Touch 14" Intel Core i5-8365U 1.6Ghz 8GB RAM 256GB SSD C5</t>
+  </si>
+  <si>
+    <t>399231698060</t>
+  </si>
+  <si>
+    <t>HP EliteBook 830 (G5) Laptop i5-8350U 1.7GHz 256GB SSD 8GB RAM 13.3" W10P 160$</t>
+  </si>
+  <si>
+    <t>9405508205496832760072</t>
+  </si>
+  <si>
+    <t>Microsoft Surface Laptop Go 12.4" (128 GB, Intel Core i5, 8GB) - Silver</t>
+  </si>
+  <si>
+    <t>9405508205499003388228</t>
+  </si>
+  <si>
+    <t>HP ProBook 440 G6 14” Core i7-8565U, 16GB RAM,512GB SSD Laptop Win 11 Pro</t>
+  </si>
+  <si>
+    <t>1Z14V49E4211136952</t>
+  </si>
+  <si>
+    <t>Dell Latitude 3410 i5 10210U 1.6Ghz 8GB 256SSD 10Pro LCD SCRATCH</t>
+  </si>
+  <si>
+    <t>1Z23Y5A30399359174</t>
+  </si>
+  <si>
+    <t>HP EliteBook 840 G6 i5-8365u 1.6GHz 8GB 256GB SSD</t>
+  </si>
+  <si>
+    <t>9405508205499006396619</t>
+  </si>
+  <si>
+    <t>DELL XPS 13 9380, 13.3" Laptop, i5-8365U, 8GB, 256GB, Win10, VPRO, No Batt/AC</t>
+  </si>
+  <si>
+    <t>399374789020</t>
   </si>
 </sst>
 </file>
@@ -604,7 +654,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -648,17 +698,32 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -669,7 +734,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -727,16 +792,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -786,41 +842,13 @@
     <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -832,22 +860,42 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1151,11 +1199,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R57"/>
+  <dimension ref="A1:S68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O49" sqref="O49"/>
+      <selection pane="bottomLeft" activeCell="B58" sqref="A58:XFD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1898,7 +1946,7 @@
       <c r="Q16" s="5"/>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <v>16</v>
       </c>
@@ -1939,7 +1987,7 @@
       <c r="Q17" s="5"/>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>17</v>
       </c>
@@ -1965,7 +2013,7 @@
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4">
-        <f t="shared" ref="K18:K53" si="4">I18-J18-F18</f>
+        <f t="shared" ref="K18:K64" si="4">I18-J18-F18</f>
         <v>500000</v>
       </c>
       <c r="L18" s="3" t="s">
@@ -1984,7 +2032,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>18</v>
       </c>
@@ -2027,7 +2075,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>19</v>
       </c>
@@ -2074,7 +2122,7 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>20</v>
       </c>
@@ -2125,7 +2173,7 @@
         <v>45017</v>
       </c>
     </row>
-    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <v>21</v>
       </c>
@@ -2174,451 +2222,455 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="41" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35">
+    <row r="23" spans="1:19" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="32">
         <v>22</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="34">
         <f>5182073+150000</f>
         <v>5332073</v>
       </c>
-      <c r="D23" s="37">
+      <c r="D23" s="34">
         <v>1375000</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="34">
         <v>-1000000</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="34">
         <f>C23+D23+E23</f>
         <v>5707073</v>
       </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37">
+      <c r="G23" s="34"/>
+      <c r="H23" s="34">
         <f>(F23*25%)+F23</f>
         <v>7133841.25</v>
       </c>
-      <c r="I23" s="37">
+      <c r="I23" s="34">
         <v>8200000</v>
       </c>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37">
+      <c r="J23" s="34"/>
+      <c r="K23" s="34">
         <f t="shared" si="4"/>
         <v>2492927</v>
       </c>
-      <c r="L23" s="38" t="s">
+      <c r="L23" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38" t="s">
+      <c r="M23" s="35"/>
+      <c r="N23" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="O23" s="43" t="s">
+      <c r="O23" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="P23" s="38" t="s">
+      <c r="P23" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="Q23" s="40">
+      <c r="Q23" s="37">
         <v>45010</v>
       </c>
-      <c r="R23" s="38"/>
-    </row>
-    <row r="24" spans="1:18" s="41" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="35">
+      <c r="R23" s="35"/>
+    </row>
+    <row r="24" spans="1:19" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="32">
         <v>23</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="34">
         <v>3281172</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D24" s="34">
         <v>1075000</v>
       </c>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37">
+      <c r="E24" s="34"/>
+      <c r="F24" s="34">
         <f t="shared" si="1"/>
         <v>4356172</v>
       </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37">
+      <c r="G24" s="34"/>
+      <c r="H24" s="34">
         <f t="shared" si="6"/>
         <v>5445215</v>
       </c>
-      <c r="I24" s="37">
+      <c r="I24" s="34">
         <v>6400000</v>
       </c>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37">
+      <c r="J24" s="34"/>
+      <c r="K24" s="34">
         <f t="shared" si="4"/>
         <v>2043828</v>
       </c>
-      <c r="L24" s="38" t="s">
+      <c r="L24" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="43" t="s">
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="P24" s="38" t="s">
+      <c r="P24" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="Q24" s="40">
+      <c r="Q24" s="37">
         <v>45011</v>
       </c>
-      <c r="R24" s="38"/>
-    </row>
-    <row r="25" spans="1:18" s="41" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="35">
+      <c r="R24" s="35"/>
+    </row>
+    <row r="25" spans="1:19" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="32">
         <v>24</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="34">
         <v>4493148</v>
       </c>
-      <c r="D25" s="37">
+      <c r="D25" s="34">
         <v>1075000</v>
       </c>
-      <c r="E25" s="37">
+      <c r="E25" s="34">
         <v>490000</v>
       </c>
-      <c r="F25" s="37">
+      <c r="F25" s="34">
         <f t="shared" si="1"/>
         <v>6058148</v>
       </c>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37">
+      <c r="G25" s="34"/>
+      <c r="H25" s="34">
         <f t="shared" si="6"/>
         <v>7572685</v>
       </c>
-      <c r="I25" s="37">
+      <c r="I25" s="34">
         <v>8000000</v>
       </c>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37">
+      <c r="J25" s="34"/>
+      <c r="K25" s="34">
         <f t="shared" si="4"/>
         <v>1941852</v>
       </c>
-      <c r="L25" s="38" t="s">
+      <c r="L25" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38" t="s">
+      <c r="M25" s="35"/>
+      <c r="N25" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="O25" s="43" t="s">
+      <c r="O25" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="P25" s="38" t="s">
+      <c r="P25" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="Q25" s="40">
+      <c r="Q25" s="37">
         <v>45012</v>
       </c>
-      <c r="R25" s="38"/>
-    </row>
-    <row r="26" spans="1:18" s="41" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="35">
+      <c r="R25" s="35"/>
+    </row>
+    <row r="26" spans="1:19" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="32">
         <v>25</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="44">
+      <c r="C26" s="41">
         <v>3801801</v>
       </c>
-      <c r="D26" s="37">
+      <c r="D26" s="34">
         <v>1075000</v>
       </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37">
+      <c r="E26" s="34"/>
+      <c r="F26" s="34">
         <f t="shared" si="1"/>
         <v>4876801</v>
       </c>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37">
+      <c r="G26" s="34"/>
+      <c r="H26" s="34">
         <f t="shared" si="6"/>
         <v>6096001.25</v>
       </c>
-      <c r="I26" s="37">
+      <c r="I26" s="34">
         <v>7950000</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37">
+      <c r="J26" s="34"/>
+      <c r="K26" s="34">
         <f t="shared" si="4"/>
         <v>3073199</v>
       </c>
-      <c r="L26" s="38" t="s">
+      <c r="L26" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="39" t="s">
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="P26" s="38" t="s">
+      <c r="P26" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="Q26" s="40">
+      <c r="Q26" s="37">
         <v>45017</v>
       </c>
-      <c r="R26" s="38"/>
-    </row>
-    <row r="27" spans="1:18" s="41" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="35">
+      <c r="R26" s="35"/>
+    </row>
+    <row r="27" spans="1:19" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="32">
         <v>26</v>
       </c>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="57">
+      <c r="C27" s="73">
         <v>6537888</v>
       </c>
-      <c r="D27" s="58">
+      <c r="D27" s="34">
         <v>1050000</v>
       </c>
-      <c r="E27" s="58">
+      <c r="E27" s="34">
         <v>200000</v>
       </c>
-      <c r="F27" s="58">
+      <c r="F27" s="34">
         <f t="shared" si="1"/>
         <v>7787888</v>
       </c>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58">
+      <c r="G27" s="34"/>
+      <c r="H27" s="34">
         <f t="shared" si="6"/>
         <v>9734860</v>
       </c>
-      <c r="I27" s="58">
+      <c r="I27" s="34">
         <v>9500000</v>
       </c>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58">
+      <c r="J27" s="34"/>
+      <c r="K27" s="34">
         <f t="shared" si="4"/>
         <v>1712112</v>
       </c>
-      <c r="L27" s="59" t="s">
+      <c r="L27" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59" t="s">
+      <c r="M27" s="35"/>
+      <c r="N27" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="O27" s="60" t="s">
+      <c r="O27" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="P27" s="59" t="s">
+      <c r="P27" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="Q27" s="61">
+      <c r="Q27" s="75">
         <v>45015</v>
       </c>
-      <c r="R27" s="59"/>
-    </row>
-    <row r="28" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="62">
+      <c r="R27" s="35"/>
+    </row>
+    <row r="28" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="65">
         <v>27</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="46">
+      <c r="C28" s="43">
         <v>7887859</v>
       </c>
-      <c r="D28" s="47">
+      <c r="D28" s="44">
         <v>1800000</v>
       </c>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47">
+      <c r="E28" s="44"/>
+      <c r="F28" s="44">
         <f t="shared" si="1"/>
         <v>9687859</v>
       </c>
-      <c r="G28" s="47">
+      <c r="G28" s="44">
         <f>(F28*15%)+F28</f>
         <v>11141037.85</v>
       </c>
-      <c r="H28" s="47">
+      <c r="H28" s="44">
         <f t="shared" si="6"/>
         <v>12109823.75</v>
       </c>
-      <c r="I28" s="47" t="s">
+      <c r="I28" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47" t="e">
+      <c r="J28" s="44"/>
+      <c r="K28" s="44" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48" t="s">
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="O28" s="49" t="s">
+      <c r="O28" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="P28" s="48" t="s">
+      <c r="P28" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="Q28" s="50">
+      <c r="Q28" s="47">
         <v>45016</v>
       </c>
-      <c r="R28" s="48" t="s">
+      <c r="R28" s="45" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" s="38" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="62">
+      <c r="S28" s="69"/>
+    </row>
+    <row r="29" spans="1:19" s="35" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="65">
         <v>28</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="37">
+      <c r="C29" s="34">
         <v>4850950</v>
       </c>
-      <c r="D29" s="37">
+      <c r="D29" s="34">
         <v>1000000</v>
       </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37">
+      <c r="E29" s="34"/>
+      <c r="F29" s="34">
         <f t="shared" si="1"/>
         <v>5850950</v>
       </c>
-      <c r="G29" s="47">
+      <c r="G29" s="44">
         <f t="shared" ref="G29:G44" si="7">(F29*15%)+F29</f>
         <v>6728592.5</v>
       </c>
-      <c r="H29" s="37">
+      <c r="H29" s="34">
         <f t="shared" si="6"/>
         <v>7313687.5</v>
       </c>
-      <c r="I29" s="37">
+      <c r="I29" s="34">
         <v>8500000</v>
       </c>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37">
+      <c r="J29" s="34"/>
+      <c r="K29" s="34">
         <f t="shared" si="4"/>
         <v>2649050</v>
       </c>
-      <c r="L29" s="38" t="s">
+      <c r="L29" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="O29" s="39" t="s">
+      <c r="O29" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="P29" s="38" t="s">
+      <c r="P29" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="Q29" s="40">
+      <c r="Q29" s="37">
         <v>45019</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" s="53" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="63">
+      <c r="S29" s="69"/>
+    </row>
+    <row r="30" spans="1:19" s="50" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="66">
         <v>29</v>
       </c>
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="52">
+      <c r="C30" s="49">
         <v>8317935</v>
       </c>
-      <c r="D30" s="52">
+      <c r="D30" s="49">
         <v>850000</v>
       </c>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52">
+      <c r="E30" s="49"/>
+      <c r="F30" s="49">
         <f t="shared" si="1"/>
         <v>9167935</v>
       </c>
-      <c r="G30" s="47">
+      <c r="G30" s="44">
         <f t="shared" si="7"/>
         <v>10543125.25</v>
       </c>
-      <c r="H30" s="52">
+      <c r="H30" s="49">
         <f t="shared" si="6"/>
         <v>11459918.75</v>
       </c>
-      <c r="I30" s="52">
+      <c r="I30" s="49">
         <v>9000000</v>
       </c>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52">
+      <c r="J30" s="49"/>
+      <c r="K30" s="49">
         <f t="shared" si="4"/>
         <v>-167935</v>
       </c>
-      <c r="L30" s="53" t="s">
+      <c r="L30" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="O30" s="54" t="s">
+      <c r="O30" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="P30" s="53" t="s">
+      <c r="P30" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="Q30" s="55">
+      <c r="Q30" s="52">
         <v>45020</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" s="38" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="62">
+      <c r="S30" s="70"/>
+    </row>
+    <row r="31" spans="1:19" s="35" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="65">
         <v>30</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="37">
+      <c r="C31" s="34">
         <v>4258422</v>
       </c>
-      <c r="D31" s="37">
+      <c r="D31" s="34">
         <v>1064000</v>
       </c>
-      <c r="E31" s="37">
+      <c r="E31" s="34">
         <v>-1000000</v>
       </c>
-      <c r="F31" s="37">
+      <c r="F31" s="34">
         <f t="shared" si="1"/>
         <v>4322422</v>
       </c>
-      <c r="G31" s="47">
+      <c r="G31" s="44">
         <f t="shared" si="7"/>
         <v>4970785.3</v>
       </c>
-      <c r="H31" s="37">
+      <c r="H31" s="34">
         <f t="shared" si="6"/>
         <v>5403027.5</v>
       </c>
-      <c r="I31" s="37">
+      <c r="I31" s="34">
         <v>5500000</v>
       </c>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37">
+      <c r="J31" s="34"/>
+      <c r="K31" s="34">
         <f t="shared" si="4"/>
         <v>1177578</v>
       </c>
-      <c r="L31" s="38" t="s">
+      <c r="L31" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="O31" s="39" t="s">
+      <c r="O31" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="P31" s="38" t="s">
+      <c r="P31" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="Q31" s="40">
+      <c r="Q31" s="37">
         <v>45021</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="64">
+      <c r="S31" s="69"/>
+    </row>
+    <row r="32" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="67">
         <v>31</v>
       </c>
       <c r="B32" s="22" t="s">
@@ -2635,7 +2687,7 @@
         <f t="shared" si="1"/>
         <v>7951048</v>
       </c>
-      <c r="G32" s="47">
+      <c r="G32" s="44">
         <f t="shared" si="7"/>
         <v>9143705.1999999993</v>
       </c>
@@ -2660,12 +2712,13 @@
       <c r="Q32" s="5">
         <v>45022</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="64">
+      <c r="S32" s="71"/>
+    </row>
+    <row r="33" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="67">
         <v>32</v>
       </c>
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="53" t="s">
         <v>81</v>
       </c>
       <c r="C33" s="4">
@@ -2679,7 +2732,7 @@
         <f t="shared" si="1"/>
         <v>5558942</v>
       </c>
-      <c r="G33" s="47">
+      <c r="G33" s="44">
         <f t="shared" si="7"/>
         <v>6392783.2999999998</v>
       </c>
@@ -2687,13 +2740,13 @@
         <f t="shared" si="6"/>
         <v>6948677.5</v>
       </c>
-      <c r="I33" s="4" t="s">
-        <v>119</v>
+      <c r="I33" s="4">
+        <v>6000000</v>
       </c>
       <c r="J33" s="4"/>
-      <c r="K33" s="4" t="e">
+      <c r="K33" s="4">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
+        <v>441058</v>
       </c>
       <c r="O33" s="15" t="s">
         <v>83</v>
@@ -2704,9 +2757,10 @@
       <c r="Q33" s="5">
         <v>45022</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="64">
+      <c r="S33" s="71"/>
+    </row>
+    <row r="34" spans="1:19" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="67">
         <v>33</v>
       </c>
       <c r="B34" s="22" t="s">
@@ -2723,7 +2777,7 @@
         <f t="shared" si="1"/>
         <v>10149103</v>
       </c>
-      <c r="G34" s="47">
+      <c r="G34" s="44">
         <f t="shared" si="7"/>
         <v>11671468.449999999</v>
       </c>
@@ -2748,9 +2802,10 @@
       <c r="Q34" s="5">
         <v>45027</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="64">
+      <c r="S34" s="71"/>
+    </row>
+    <row r="35" spans="1:19" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="67">
         <v>34</v>
       </c>
       <c r="B35" s="22" t="s">
@@ -2767,7 +2822,7 @@
         <f t="shared" si="1"/>
         <v>8949892</v>
       </c>
-      <c r="G35" s="47">
+      <c r="G35" s="44">
         <f t="shared" si="7"/>
         <v>10292375.800000001</v>
       </c>
@@ -2792,9 +2847,10 @@
       <c r="Q35" s="5">
         <v>45027</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="64">
+      <c r="S35" s="71"/>
+    </row>
+    <row r="36" spans="1:19" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="67">
         <v>35</v>
       </c>
       <c r="B36" s="22" t="s">
@@ -2811,7 +2867,7 @@
         <f t="shared" si="1"/>
         <v>4822000</v>
       </c>
-      <c r="G36" s="47">
+      <c r="G36" s="44">
         <f t="shared" si="7"/>
         <v>5545300</v>
       </c>
@@ -2834,12 +2890,13 @@
         <v>101</v>
       </c>
       <c r="Q36" s="5"/>
-    </row>
-    <row r="37" spans="1:17" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="64">
+      <c r="S36" s="71"/>
+    </row>
+    <row r="37" spans="1:19" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="67">
         <v>36</v>
       </c>
-      <c r="B37" s="66" t="s">
+      <c r="B37" s="54" t="s">
         <v>94</v>
       </c>
       <c r="C37" s="4">
@@ -2853,7 +2910,7 @@
         <f t="shared" si="1"/>
         <v>9317000</v>
       </c>
-      <c r="G37" s="47">
+      <c r="G37" s="44">
         <f t="shared" si="7"/>
         <v>10714550</v>
       </c>
@@ -2873,26 +2930,27 @@
         <v>102</v>
       </c>
       <c r="Q37" s="5"/>
-    </row>
-    <row r="38" spans="1:17" s="19" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="67">
+      <c r="S37" s="71"/>
+    </row>
+    <row r="38" spans="1:19" s="19" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="68">
         <v>37</v>
       </c>
-      <c r="B38" s="68" t="s">
+      <c r="B38" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="C38" s="33">
+      <c r="C38" s="30">
         <v>3178000</v>
       </c>
-      <c r="D38" s="33">
+      <c r="D38" s="30">
         <v>1370000</v>
       </c>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33">
+      <c r="E38" s="30"/>
+      <c r="F38" s="30">
         <f t="shared" si="1"/>
         <v>4548000</v>
       </c>
-      <c r="G38" s="47">
+      <c r="G38" s="44">
         <f t="shared" si="7"/>
         <v>5230200</v>
       </c>
@@ -2900,30 +2958,31 @@
         <f>(F38*25%)+F38</f>
         <v>5685000</v>
       </c>
-      <c r="I38" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33" t="e">
+      <c r="I38" s="30">
+        <v>5800000</v>
+      </c>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
+        <v>1252000</v>
       </c>
       <c r="O38" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="Q38" s="34"/>
-    </row>
-    <row r="39" spans="1:17" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="67">
+      <c r="Q38" s="31"/>
+      <c r="S38" s="72"/>
+    </row>
+    <row r="39" spans="1:19" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="68">
         <v>38</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="31">
+      <c r="C39" s="29">
         <v>4560000</v>
       </c>
-      <c r="D39" s="33">
+      <c r="D39" s="30">
         <v>850000</v>
       </c>
       <c r="E39" s="4"/>
@@ -2931,7 +2990,7 @@
         <f t="shared" si="1"/>
         <v>5410000</v>
       </c>
-      <c r="G39" s="47">
+      <c r="G39" s="44">
         <f t="shared" si="7"/>
         <v>6221500</v>
       </c>
@@ -2956,18 +3015,19 @@
       <c r="Q39" s="24">
         <v>45265</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" s="3" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="67">
+      <c r="S39" s="71"/>
+    </row>
+    <row r="40" spans="1:19" s="3" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="68">
         <v>39</v>
       </c>
-      <c r="B40" s="68" t="s">
+      <c r="B40" s="55" t="s">
         <v>107</v>
       </c>
       <c r="C40" s="4">
         <v>6156000</v>
       </c>
-      <c r="D40" s="33">
+      <c r="D40" s="30">
         <v>850000</v>
       </c>
       <c r="E40" s="4"/>
@@ -2975,7 +3035,7 @@
         <f t="shared" si="1"/>
         <v>7006000</v>
       </c>
-      <c r="G40" s="47">
+      <c r="G40" s="44">
         <f t="shared" si="7"/>
         <v>8056900</v>
       </c>
@@ -2995,18 +3055,19 @@
         <v>110</v>
       </c>
       <c r="Q40" s="5"/>
-    </row>
-    <row r="41" spans="1:17" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="67">
+      <c r="S40" s="71"/>
+    </row>
+    <row r="41" spans="1:19" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="68">
         <v>40</v>
       </c>
-      <c r="B41" s="68" t="s">
+      <c r="B41" s="55" t="s">
         <v>108</v>
       </c>
       <c r="C41" s="4">
         <v>4126000</v>
       </c>
-      <c r="D41" s="33">
+      <c r="D41" s="30">
         <v>1450000</v>
       </c>
       <c r="E41" s="4"/>
@@ -3014,7 +3075,7 @@
         <f t="shared" si="1"/>
         <v>5576000</v>
       </c>
-      <c r="G41" s="47">
+      <c r="G41" s="44">
         <f t="shared" si="7"/>
         <v>6412400</v>
       </c>
@@ -3022,30 +3083,31 @@
         <f t="shared" si="6"/>
         <v>6970000</v>
       </c>
-      <c r="I41" s="4" t="s">
-        <v>119</v>
+      <c r="I41" s="4">
+        <v>7500000</v>
       </c>
       <c r="J41" s="4"/>
-      <c r="K41" s="4" t="e">
+      <c r="K41" s="4">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
+        <v>1924000</v>
       </c>
       <c r="O41" s="15" t="s">
         <v>109</v>
       </c>
       <c r="Q41" s="5"/>
-    </row>
-    <row r="42" spans="1:17" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="67">
+      <c r="S41" s="71"/>
+    </row>
+    <row r="42" spans="1:19" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="68">
         <v>41</v>
       </c>
       <c r="B42" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C42" s="31">
+      <c r="C42" s="29">
         <v>3192000</v>
       </c>
-      <c r="D42" s="33">
+      <c r="D42" s="30">
         <v>850000</v>
       </c>
       <c r="E42" s="4"/>
@@ -3053,7 +3115,7 @@
         <f t="shared" si="1"/>
         <v>4042000</v>
       </c>
-      <c r="G42" s="47">
+      <c r="G42" s="44">
         <f t="shared" si="7"/>
         <v>4648300</v>
       </c>
@@ -3073,15 +3135,16 @@
         <v>122</v>
       </c>
       <c r="Q42" s="24"/>
-    </row>
-    <row r="43" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="67">
+      <c r="S42" s="71"/>
+    </row>
+    <row r="43" spans="1:19" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="68">
         <v>42</v>
       </c>
-      <c r="B43" s="66" t="s">
+      <c r="B43" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="C43" s="31">
+      <c r="C43" s="29">
         <v>6065000</v>
       </c>
       <c r="D43" s="4">
@@ -3092,7 +3155,7 @@
         <f t="shared" si="1"/>
         <v>6915000</v>
       </c>
-      <c r="G43" s="47">
+      <c r="G43" s="44">
         <f t="shared" si="7"/>
         <v>7952250</v>
       </c>
@@ -3115,15 +3178,16 @@
         <v>113</v>
       </c>
       <c r="Q43" s="24"/>
-    </row>
-    <row r="44" spans="1:17" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="67">
+      <c r="S43" s="71"/>
+    </row>
+    <row r="44" spans="1:19" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="68">
         <v>43</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="C44" s="31">
+      <c r="C44" s="29">
         <v>3268000</v>
       </c>
       <c r="D44" s="4">
@@ -3134,7 +3198,7 @@
         <f t="shared" si="1"/>
         <v>4118000</v>
       </c>
-      <c r="G44" s="47">
+      <c r="G44" s="44">
         <f t="shared" si="7"/>
         <v>4735700</v>
       </c>
@@ -3142,166 +3206,496 @@
         <f t="shared" si="6"/>
         <v>5147500</v>
       </c>
-      <c r="I44" s="4" t="s">
-        <v>119</v>
+      <c r="I44" s="4">
+        <v>4700000</v>
       </c>
       <c r="J44" s="4"/>
-      <c r="K44" s="4" t="e">
+      <c r="K44" s="4">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O44" s="70" t="s">
+        <v>582000</v>
+      </c>
+      <c r="O44" s="76" t="s">
         <v>118</v>
       </c>
       <c r="P44" s="24"/>
-    </row>
-    <row r="45" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="78"/>
-      <c r="B45" s="28" t="s">
+      <c r="S44" s="71"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="63"/>
+      <c r="B45" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" s="29">
+        <v>3223000</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="C45" s="79">
-        <v>3223000</v>
-      </c>
-      <c r="D45" s="80"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="80"/>
-      <c r="G45" s="81"/>
-      <c r="H45" s="80"/>
-      <c r="I45" s="80"/>
-      <c r="J45" s="80"/>
-      <c r="K45" s="69"/>
-      <c r="O45" s="70" t="s">
+      <c r="P45" s="24"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="63"/>
+      <c r="B46" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="P45" s="83"/>
-    </row>
-    <row r="46" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="78"/>
-      <c r="B46" s="28" t="s">
+      <c r="C46" s="29">
+        <v>3632000</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="C46" s="79">
-        <v>3632000</v>
-      </c>
-      <c r="D46" s="80"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="81"/>
-      <c r="H46" s="80"/>
-      <c r="I46" s="80"/>
-      <c r="J46" s="80"/>
-      <c r="K46" s="69"/>
-      <c r="O46" s="70" t="s">
+      <c r="P46" s="24"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="63"/>
+      <c r="B47" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="P46" s="83"/>
-    </row>
-    <row r="47" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="78"/>
-      <c r="B47" s="28" t="s">
+      <c r="C47" s="29">
+        <v>3813000</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="C47" s="79">
-        <v>3813000</v>
-      </c>
-      <c r="D47" s="80"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="80"/>
-      <c r="G47" s="81"/>
-      <c r="H47" s="80"/>
-      <c r="I47" s="80"/>
-      <c r="J47" s="80"/>
-      <c r="K47" s="69"/>
-      <c r="O47" s="70" t="s">
+      <c r="P47" s="24"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="63"/>
+      <c r="B48" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="P47" s="83"/>
-    </row>
-    <row r="48" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="78"/>
-      <c r="B48" s="28" t="s">
+      <c r="C48" s="29">
+        <v>6219000</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="76" t="s">
         <v>154</v>
       </c>
-      <c r="C48" s="79">
-        <v>6219000</v>
-      </c>
-      <c r="D48" s="80"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="80"/>
-      <c r="G48" s="81"/>
-      <c r="H48" s="80"/>
-      <c r="I48" s="80"/>
-      <c r="J48" s="80"/>
-      <c r="K48" s="69"/>
-      <c r="O48" s="70" t="s">
+      <c r="P48" s="24"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="63"/>
+      <c r="B49" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="P48" s="83"/>
-    </row>
-    <row r="49" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="78"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="79"/>
-      <c r="D49" s="80"/>
-      <c r="E49" s="80"/>
-      <c r="F49" s="80"/>
-      <c r="G49" s="81"/>
-      <c r="H49" s="80"/>
-      <c r="I49" s="80"/>
-      <c r="J49" s="80"/>
-      <c r="K49" s="69"/>
-      <c r="O49" s="70"/>
-      <c r="P49" s="83"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C49" s="29">
+        <v>4149000</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="76" t="s">
+        <v>156</v>
+      </c>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+    </row>
+    <row r="50" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="26">
         <v>40</v>
       </c>
-      <c r="B50" s="27"/>
-      <c r="C50" s="32"/>
-      <c r="K50" s="69"/>
-      <c r="O50" s="29"/>
-      <c r="Q50" s="30"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B50" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C50" s="29">
+        <v>3648000</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="24"/>
+      <c r="R50" s="3"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="26"/>
-      <c r="C51" s="32"/>
-      <c r="O51" s="29"/>
-      <c r="Q51" s="30"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K52" s="2">
+      <c r="B51" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" s="29">
+        <v>4560000</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="3"/>
+    </row>
+    <row r="52" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="26"/>
+      <c r="B52" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C52" s="29">
+        <v>4560000</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="3"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="26"/>
+      <c r="B53" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" s="29">
+        <v>3192000</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="3"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="26"/>
+      <c r="B54" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54" s="29">
+        <v>4149000</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="24"/>
+      <c r="R54" s="3"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="26"/>
+      <c r="B55" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" s="29">
+        <v>4104000</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="26"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="23"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="24"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="26"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="23"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="24"/>
+      <c r="R57" s="3"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="26"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="23"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="24"/>
+      <c r="R58" s="3"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" s="26"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="23"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="24"/>
+      <c r="R59" s="3"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" s="26"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="23"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="24"/>
+      <c r="R60" s="3"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" s="26"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="23"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="24"/>
+      <c r="R61" s="3"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" s="26"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="23"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="24"/>
+      <c r="R62" s="3"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B63" s="19"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C53" s="2">
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="3"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C64" s="2">
         <f>SUM(C2:C8)</f>
         <v>46150000</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I64" s="2">
         <f>SUM(I2:I8)</f>
         <v>50200000</v>
       </c>
-      <c r="K53" s="2">
+      <c r="K64" s="2">
         <f t="shared" si="4"/>
         <v>50200000</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M64" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D57" s="2">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D68" s="2">
         <f>SUM(C20:C25)</f>
         <v>37301557</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="L1:L57" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="C2:G2 H2:N17 O2:Q22 B2:B25 R2:R39 C3:E25 F3:G28 K3:K38 H18:J35 L18:N38 P23:Q25 O26:Q26 D26:E38 P26:P39 O29:Q38 I36:J38 H36:H42 D39:F39 I39:N39 C40:F41 I40:R41 I42:J42 P42:P43 R42:R43 L42:N51 K42:K53 Q44:Q49 P50:P51 R50:R51 D50:J51 D42:F49 H43:J49 C29:F38 G29:G49">
+  <autoFilter ref="L1:L68" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="C2:G2 H2:N17 O2:Q22 B2:B25 R2:R39 C3:E25 F3:G28 K3:K38 H18:J35 L18:N38 P23:Q25 O26:Q26 D26:E38 P26:P39 O29:Q38 I36:J38 H36:H42 D39:F39 I39:N39 C40:F41 I40:R41 I42:J42 P42:P43 R42:R43 L42:N62 K42:K64 Q44:Q49 P50:P62 R50:R62 D50:J62 D42:F49 H43:J49 C29:F38 G29:G49">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>MOD(ROW(),2)&gt;0</formula>
     </cfRule>
@@ -3315,9 +3709,14 @@
     <hyperlink ref="B37" r:id="rId6" display="https://www.ebay.com/itm/175682167857" xr:uid="{7381F593-AD6B-483E-BEA5-4F4B3E158710}"/>
     <hyperlink ref="B43" r:id="rId7" display="https://www.ebay.com/itm/325621957398" xr:uid="{832D9D99-E47E-4352-84FD-C0C45F47A02E}"/>
     <hyperlink ref="B44" r:id="rId8" display="https://www.ebay.com/itm/385562880266" xr:uid="{474ADD77-2AA8-401D-8609-74DE3B8AF3AC}"/>
+    <hyperlink ref="B49" r:id="rId9" display="https://www.ebay.com/itm/354732536769" xr:uid="{CFD8A343-848F-408F-BC56-BF227A4340A3}"/>
+    <hyperlink ref="B50" r:id="rId10" display="https://www.ebay.com/itm/364141332872" xr:uid="{7D5BE5DD-4CF6-47A4-AC3F-3720825AE242}"/>
+    <hyperlink ref="B53" r:id="rId11" display="https://www.ebay.com/itm/166100964107" xr:uid="{5F28777A-053B-45B1-9E1E-EDF7F12BAE82}"/>
+    <hyperlink ref="B54" r:id="rId12" display="https://www.ebay.com/itm/195795523882" xr:uid="{4581C37E-2BF1-4CF8-8F26-41D251D7E1EC}"/>
+    <hyperlink ref="B55" r:id="rId13" display="https://www.ebay.com/itm/155595090133" xr:uid="{44A710A0-3828-4831-8F0A-7A59D05D8D8A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -3341,19 +3740,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="60" t="s">
         <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -3365,17 +3764,17 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="57" t="s">
         <v>80</v>
       </c>
       <c r="C2" s="4">
         <v>7951048</v>
       </c>
-      <c r="D2" s="47">
+      <c r="D2" s="44">
         <f>(C2*15%)+C2</f>
         <v>9143705.1999999993</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="44" t="s">
         <v>140</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -3384,17 +3783,17 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="62" t="s">
         <v>81</v>
       </c>
       <c r="C3" s="4">
         <v>5558942</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D3" s="44">
         <f t="shared" ref="D3:D10" si="0">(C3*15%)+C3</f>
         <v>6392783.2999999998</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="44" t="s">
         <v>120</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -3403,17 +3802,17 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="57" t="s">
         <v>133</v>
       </c>
       <c r="C4" s="4">
         <v>10149103</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="44">
         <f t="shared" si="0"/>
         <v>11671468.449999999</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="44" t="s">
         <v>143</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -3422,17 +3821,17 @@
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="57" t="s">
         <v>134</v>
       </c>
       <c r="C5" s="4">
         <v>8949892</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="44">
         <f t="shared" si="0"/>
         <v>10292375.800000001</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="44" t="s">
         <v>131</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -3441,17 +3840,17 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="30">
         <v>4398000</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="44">
         <f t="shared" si="0"/>
         <v>5057700</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="44" t="s">
         <v>141</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -3460,17 +3859,17 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="55" t="s">
         <v>135</v>
       </c>
       <c r="C7" s="4">
         <v>7006000</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="44">
         <f t="shared" si="0"/>
         <v>8056900</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="44" t="s">
         <v>144</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -3479,17 +3878,17 @@
     </row>
     <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="55" t="s">
         <v>136</v>
       </c>
       <c r="C8" s="4">
         <v>4976000</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="44">
         <f t="shared" si="0"/>
         <v>5722400</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="44" t="s">
         <v>120</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -3498,17 +3897,17 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="58" t="s">
         <v>137</v>
       </c>
       <c r="C9" s="4">
         <v>4042000</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="44">
         <f t="shared" si="0"/>
         <v>4648300</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="44" t="s">
         <v>141</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -3517,17 +3916,17 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="62" t="s">
         <v>138</v>
       </c>
       <c r="C10" s="4">
         <v>4118000</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="44">
         <f t="shared" si="0"/>
         <v>4735700</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="44" t="s">
         <v>145</v>
       </c>
       <c r="F10" s="4" t="s">
@@ -3538,12 +3937,12 @@
       <c r="A11" s="3"/>
       <c r="B11" s="19"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="76"/>
+      <c r="B12" s="61"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="28"/>

--- a/TDStore/NhapXuatLaptop.xlsx
+++ b/TDStore/NhapXuatLaptop.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758E3BC7-0CA9-439D-A3C8-57F191BB0FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5CFC0F-392B-4CAF-BDFF-ED7111FF62FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NhapXuat" sheetId="1" r:id="rId1"/>
     <sheet name="CTV" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NhapXuat!$L$1:$L$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NhapXuat!$L$1:$L$73</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="191">
   <si>
     <t>ID máy</t>
   </si>
@@ -550,6 +550,72 @@
   </si>
   <si>
     <t>399374789020</t>
+  </si>
+  <si>
+    <t>DELL LATITUDE 3410 INTEL CORE I5 10GEN NO RAM NO HD US $70.00</t>
+  </si>
+  <si>
+    <t>399578580006</t>
+  </si>
+  <si>
+    <t>Dell XPS 9370 13.3" Intel Core i5-8350U 1.70GHz 8GB RAM 256GB SSD Win11 BAD BATT</t>
+  </si>
+  <si>
+    <t>1Z13V17V0294549253</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 15 3511 15.6 FHD Touchscreen Laptop i5-1135G7 8GB Ram 256GB</t>
+  </si>
+  <si>
+    <t>9405508205496853132070</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 15 3511 Intel Core i5-1135G7 2.40GHz 8GB RAM 256GB SSD 15.6</t>
+  </si>
+  <si>
+    <t>1ZAC98180376321238</t>
+  </si>
+  <si>
+    <t>Dell Latitude 5400 14", i5 8th Gen, 8GB Ram, Excellent Battery, No HDD or OS</t>
+  </si>
+  <si>
+    <t>399716263193</t>
+  </si>
+  <si>
+    <t>DELL Inspiron 15 3511, 15.6" Touchscreen, i5-11, 8GB RAM, 256GB, Iris Xe Graphic</t>
+  </si>
+  <si>
+    <t>1Z5RY3176842786958</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7400 i7-8665U 1.9GHz 256GB SSD 16GB RAM WIN11 14" NO BATTERY PC</t>
+  </si>
+  <si>
+    <t>1Z373E404290558700</t>
+  </si>
+  <si>
+    <t>Dell Latitude 3410 Intel Core i5-10210u 1.60 GHz 8GB RAM 14.0" No HDD</t>
+  </si>
+  <si>
+    <t>9405508205499025278118</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 15 3511 15.6 FHD Core i5-1135G7 2.4GHz 8GB RAM 256GB W11H NO PA</t>
+  </si>
+  <si>
+    <t>399693776218</t>
+  </si>
+  <si>
+    <t>USED Dell Latitude 5400 - i5-8265U, 8GB RAM, 256GB SSD, W10 Pro</t>
+  </si>
+  <si>
+    <t>9405508205496861332332</t>
+  </si>
+  <si>
+    <t>Apple AirPods Pro In Ear Bluetooth Wireless Earbuds with Noise Cancellation USED</t>
+  </si>
+  <si>
+    <t>9400108205499027966065</t>
   </si>
 </sst>
 </file>
@@ -560,7 +626,7 @@
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -602,6 +668,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111820"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -734,7 +806,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -896,6 +968,7 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -934,6 +1007,60 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="AutoShape 1" descr="Dell Latitude 5400 14&quot;, i5 8th Gen, 8GB Ram, Excellent Battery, No HDD or OS">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E960488-9102-518A-DA52-6D3B4EF9529C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="3962400"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1199,11 +1326,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S68"/>
+  <dimension ref="A1:S73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="A58:XFD58"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O72" sqref="O72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1339,7 +1466,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4">
-        <f t="shared" ref="F3:F44" si="1">C3+D3+E3</f>
+        <f t="shared" ref="F3:F43" si="1">C3+D3+E3</f>
         <v>6500000</v>
       </c>
       <c r="G3" s="4"/>
@@ -2013,7 +2140,7 @@
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4">
-        <f t="shared" ref="K18:K64" si="4">I18-J18-F18</f>
+        <f t="shared" ref="K18:K69" si="4">I18-J18-F18</f>
         <v>500000</v>
       </c>
       <c r="L18" s="3" t="s">
@@ -2095,7 +2222,7 @@
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="13">
-        <f t="shared" ref="H20:H44" si="6">(F20*25%)+F20</f>
+        <f t="shared" ref="H20:H43" si="6">(F20*25%)+F20</f>
         <v>9979862.5</v>
       </c>
       <c r="I20" s="13">
@@ -2542,7 +2669,7 @@
         <v>5850950</v>
       </c>
       <c r="G29" s="44">
-        <f t="shared" ref="G29:G44" si="7">(F29*15%)+F29</f>
+        <f t="shared" ref="G29:G49" si="7">(F29*15%)+F29</f>
         <v>6728592.5</v>
       </c>
       <c r="H29" s="34">
@@ -2714,7 +2841,7 @@
       </c>
       <c r="S32" s="71"/>
     </row>
-    <row r="33" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="67">
         <v>32</v>
       </c>
@@ -2932,7 +3059,7 @@
       <c r="Q37" s="5"/>
       <c r="S37" s="71"/>
     </row>
-    <row r="38" spans="1:19" s="19" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" s="19" customFormat="1" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="68">
         <v>37</v>
       </c>
@@ -3057,7 +3184,7 @@
       <c r="Q40" s="5"/>
       <c r="S40" s="71"/>
     </row>
-    <row r="41" spans="1:19" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" s="3" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="68">
         <v>40</v>
       </c>
@@ -3180,7 +3307,7 @@
       <c r="Q43" s="24"/>
       <c r="S43" s="71"/>
     </row>
-    <row r="44" spans="1:19" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="68">
         <v>43</v>
       </c>
@@ -3195,15 +3322,15 @@
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4">
-        <f t="shared" si="1"/>
+        <f>C44+D44+E44</f>
         <v>4118000</v>
       </c>
       <c r="G44" s="44">
-        <f t="shared" si="7"/>
+        <f>(F44*15%)+F44</f>
         <v>4735700</v>
       </c>
       <c r="H44" s="4">
-        <f t="shared" si="6"/>
+        <f>(F44*25%)+F44</f>
         <v>5147500</v>
       </c>
       <c r="I44" s="4">
@@ -3211,7 +3338,7 @@
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4">
-        <f t="shared" si="4"/>
+        <f>I44-J44-F44</f>
         <v>582000</v>
       </c>
       <c r="O44" s="76" t="s">
@@ -3230,9 +3357,18 @@
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="4"/>
+      <c r="F45" s="4">
+        <f t="shared" ref="F45:F49" si="8">C45+D45+E45</f>
+        <v>3223000</v>
+      </c>
+      <c r="G45" s="44">
+        <f t="shared" si="7"/>
+        <v>3706450</v>
+      </c>
+      <c r="H45" s="4">
+        <f t="shared" ref="H45:H49" si="9">(F45*25%)+F45</f>
+        <v>4028750</v>
+      </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -3256,9 +3392,18 @@
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="4"/>
+      <c r="F46" s="4">
+        <f t="shared" si="8"/>
+        <v>3632000</v>
+      </c>
+      <c r="G46" s="44">
+        <f>(F46*15%)+F46</f>
+        <v>4176800</v>
+      </c>
+      <c r="H46" s="4">
+        <f t="shared" si="9"/>
+        <v>4540000</v>
+      </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -3280,11 +3425,24 @@
       <c r="C47" s="29">
         <v>3813000</v>
       </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="4"/>
+      <c r="D47" s="4">
+        <v>842000</v>
+      </c>
+      <c r="E47" s="4">
+        <v>250000</v>
+      </c>
+      <c r="F47" s="4">
+        <f t="shared" si="8"/>
+        <v>4905000</v>
+      </c>
+      <c r="G47" s="44">
+        <f t="shared" si="7"/>
+        <v>5640750</v>
+      </c>
+      <c r="H47" s="4">
+        <f t="shared" si="9"/>
+        <v>6131250</v>
+      </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -3308,9 +3466,18 @@
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="4"/>
+      <c r="F48" s="4">
+        <f t="shared" si="8"/>
+        <v>6219000</v>
+      </c>
+      <c r="G48" s="44">
+        <f t="shared" si="7"/>
+        <v>7151850</v>
+      </c>
+      <c r="H48" s="4">
+        <f t="shared" si="9"/>
+        <v>7773750</v>
+      </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -3332,11 +3499,22 @@
       <c r="C49" s="29">
         <v>4149000</v>
       </c>
-      <c r="D49" s="4"/>
+      <c r="D49" s="4">
+        <v>900000</v>
+      </c>
       <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="4"/>
+      <c r="F49" s="4">
+        <f t="shared" si="8"/>
+        <v>5049000</v>
+      </c>
+      <c r="G49" s="44">
+        <f t="shared" si="7"/>
+        <v>5806350</v>
+      </c>
+      <c r="H49" s="4">
+        <f t="shared" si="9"/>
+        <v>6311250</v>
+      </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -3510,8 +3688,12 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="26"/>
-      <c r="B56" s="64"/>
-      <c r="C56" s="29"/>
+      <c r="B56" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" s="29">
+        <v>1960000</v>
+      </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
@@ -3523,15 +3705,21 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-      <c r="O56" s="23"/>
+      <c r="O56" s="23" t="s">
+        <v>170</v>
+      </c>
       <c r="P56" s="3"/>
       <c r="Q56" s="24"/>
       <c r="R56" s="3"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A57" s="26"/>
-      <c r="B57" s="64"/>
-      <c r="C57" s="29"/>
+      <c r="B57" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57" s="29">
+        <v>3762000</v>
+      </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -3543,15 +3731,21 @@
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
-      <c r="O57" s="23"/>
+      <c r="O57" s="23" t="s">
+        <v>172</v>
+      </c>
       <c r="P57" s="3"/>
       <c r="Q57" s="24"/>
       <c r="R57" s="3"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="26"/>
-      <c r="B58" s="64"/>
-      <c r="C58" s="29"/>
+      <c r="B58" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="C58" s="29">
+        <v>6441000</v>
+      </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -3563,15 +3757,21 @@
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
-      <c r="O58" s="23"/>
+      <c r="O58" s="23" t="s">
+        <v>174</v>
+      </c>
       <c r="P58" s="3"/>
       <c r="Q58" s="24"/>
       <c r="R58" s="3"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="26"/>
-      <c r="B59" s="64"/>
-      <c r="C59" s="29"/>
+      <c r="B59" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" s="29">
+        <v>7435000</v>
+      </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -3583,15 +3783,21 @@
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
-      <c r="O59" s="23"/>
+      <c r="O59" s="77" t="s">
+        <v>176</v>
+      </c>
       <c r="P59" s="3"/>
       <c r="Q59" s="24"/>
       <c r="R59" s="3"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="26"/>
-      <c r="B60" s="64"/>
-      <c r="C60" s="29"/>
+      <c r="B60" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="C60" s="29">
+        <v>1824000</v>
+      </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -3603,15 +3809,21 @@
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
-      <c r="O60" s="23"/>
+      <c r="O60" s="23" t="s">
+        <v>178</v>
+      </c>
       <c r="P60" s="3"/>
       <c r="Q60" s="24"/>
       <c r="R60" s="3"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="26"/>
-      <c r="B61" s="64"/>
-      <c r="C61" s="29"/>
+      <c r="B61" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="C61" s="29">
+        <v>6328000</v>
+      </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -3623,15 +3835,21 @@
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
-      <c r="O61" s="23"/>
+      <c r="O61" s="23" t="s">
+        <v>180</v>
+      </c>
       <c r="P61" s="3"/>
       <c r="Q61" s="24"/>
       <c r="R61" s="3"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="26"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="29"/>
+      <c r="B62" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" s="29">
+        <v>3762000</v>
+      </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
@@ -3643,14 +3861,21 @@
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
-      <c r="O62" s="23"/>
+      <c r="O62" s="23" t="s">
+        <v>182</v>
+      </c>
       <c r="P62" s="3"/>
       <c r="Q62" s="24"/>
       <c r="R62" s="3"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B63" s="19"/>
-      <c r="C63" s="4"/>
+    <row r="63" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="26"/>
+      <c r="B63" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" s="29">
+        <v>4000000</v>
+      </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
@@ -3658,44 +3883,163 @@
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
-      <c r="K63" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="K63" s="4"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
-      <c r="O63" s="15"/>
+      <c r="O63" s="23" t="s">
+        <v>184</v>
+      </c>
       <c r="P63" s="3"/>
-      <c r="Q63" s="5"/>
+      <c r="Q63" s="24"/>
       <c r="R63" s="3"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C64" s="2">
+    <row r="64" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="26"/>
+      <c r="B64" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C64" s="29">
+        <v>6350000</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="24"/>
+      <c r="R64" s="3"/>
+    </row>
+    <row r="65" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="26"/>
+      <c r="B65" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="C65" s="29">
+        <v>2712000</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="24"/>
+      <c r="R65" s="3"/>
+    </row>
+    <row r="66" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="26"/>
+      <c r="B66" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C66" s="29">
+        <v>2440000</v>
+      </c>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="24"/>
+      <c r="R66" s="3"/>
+    </row>
+    <row r="67" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="26"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="23"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="24"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="19"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="3"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C69" s="2">
         <f>SUM(C2:C8)</f>
         <v>46150000</v>
       </c>
-      <c r="I64" s="2">
+      <c r="I69" s="2">
         <f>SUM(I2:I8)</f>
         <v>50200000</v>
       </c>
-      <c r="K64" s="2">
+      <c r="K69" s="2">
         <f t="shared" si="4"/>
         <v>50200000</v>
       </c>
-      <c r="M64" t="s">
+      <c r="M69" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D68" s="2">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D73" s="2">
         <f>SUM(C20:C25)</f>
         <v>37301557</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="L1:L68" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="C2:G2 H2:N17 O2:Q22 B2:B25 R2:R39 C3:E25 F3:G28 K3:K38 H18:J35 L18:N38 P23:Q25 O26:Q26 D26:E38 P26:P39 O29:Q38 I36:J38 H36:H42 D39:F39 I39:N39 C40:F41 I40:R41 I42:J42 P42:P43 R42:R43 L42:N62 K42:K64 Q44:Q49 P50:P62 R50:R62 D50:J62 D42:F49 H43:J49 C29:F38 G29:G49">
+  <autoFilter ref="L1:L73" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="C2:G2 H2:N17 O2:Q22 B2:B25 R2:R39 C3:E25 F3:G28 K3:K38 H18:J35 L18:N38 P23:Q25 O26:Q26 D26:E38 P26:P39 O29:Q38 I36:J38 H36:H42 D39:F39 I39:N39 C40:F41 I40:R41 I42:J42 P42:P43 R42:R43 Q44:Q49 C29:F38 G29:G49 D42:F49 H43:J49 L42:N67 K42:K69 P50:P67 R50:R67 D50:J67">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>MOD(ROW(),2)&gt;0</formula>
     </cfRule>
@@ -3714,9 +4058,12 @@
     <hyperlink ref="B53" r:id="rId11" display="https://www.ebay.com/itm/166100964107" xr:uid="{5F28777A-053B-45B1-9E1E-EDF7F12BAE82}"/>
     <hyperlink ref="B54" r:id="rId12" display="https://www.ebay.com/itm/195795523882" xr:uid="{4581C37E-2BF1-4CF8-8F26-41D251D7E1EC}"/>
     <hyperlink ref="B55" r:id="rId13" display="https://www.ebay.com/itm/155595090133" xr:uid="{44A710A0-3828-4831-8F0A-7A59D05D8D8A}"/>
+    <hyperlink ref="B56" r:id="rId14" display="https://www.ebay.com/itm/334896935387" xr:uid="{1F8ABB87-7CF5-4D05-8AFF-DF653CDD1C6B}"/>
+    <hyperlink ref="B60" r:id="rId15" display="https://www.ebay.com/itm/275902005071" xr:uid="{2A0D7E83-DF05-4104-82EF-8CE660F030A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
+  <drawing r:id="rId17"/>
 </worksheet>
 </file>
 

--- a/TDStore/NhapXuatLaptop.xlsx
+++ b/TDStore/NhapXuatLaptop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5CFC0F-392B-4CAF-BDFF-ED7111FF62FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3938EA4F-C2C6-42E1-B65C-AF531EB8DD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="CTV" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NhapXuat!$L$1:$L$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NhapXuat!$L$1:$L$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="200">
   <si>
     <t>ID máy</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>Thinkpad L580 US 8/256/FHD</t>
-  </si>
-  <si>
-    <t>Tổng</t>
   </si>
   <si>
     <t>8LHQK13</t>
@@ -616,6 +613,36 @@
   </si>
   <si>
     <t>9400108205499027966065</t>
+  </si>
+  <si>
+    <t>57SLPQ2</t>
+  </si>
+  <si>
+    <t>Bạn Đạt</t>
+  </si>
+  <si>
+    <t>Khách Hảo</t>
+  </si>
+  <si>
+    <t>Hảo</t>
+  </si>
+  <si>
+    <t>Dell Latitude 3410 14 inch (256GB, Intel Core i5 10th Gen., 1.60GHz, 8GB)</t>
+  </si>
+  <si>
+    <t>9461509205568497850832</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7400 14" i5-8365U @ 1.6GHz 8GB DDR4 RAM 256GB SSD No OS/AC</t>
+  </si>
+  <si>
+    <t>9405508205499040151304</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 13 7000 13.3 inch (Intel Core i5 11th Gen., NO CHARGER</t>
+  </si>
+  <si>
+    <t>780258564951</t>
   </si>
 </sst>
 </file>
@@ -806,7 +833,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -914,7 +941,6 @@
     <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -936,9 +962,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -948,9 +971,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -974,7 +994,14 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1326,18 +1353,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S73"/>
+  <dimension ref="A1:S97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O72" sqref="O72"/>
+      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="74.140625" style="21" customWidth="1"/>
     <col min="3" max="4" width="12.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17" style="2" customWidth="1"/>
     <col min="6" max="7" width="10.5703125" style="2" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
     <col min="9" max="9" width="11.140625" style="2" bestFit="1" customWidth="1"/>
@@ -1354,7 +1381,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>1</v>
@@ -1363,16 +1390,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>5</v>
@@ -1387,19 +1414,19 @@
         <v>8</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="Q1" s="9" t="s">
         <v>2</v>
@@ -1438,7 +1465,7 @@
         <v>900000</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3">
@@ -1485,7 +1512,7 @@
         <v>745000</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -1528,7 +1555,7 @@
         <v>500000</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="s">
@@ -1575,7 +1602,7 @@
         <v>480000</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="s">
@@ -1595,7 +1622,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4">
         <v>7150000</v>
@@ -1620,11 +1647,11 @@
         <v>350000</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="3"/>
@@ -1638,7 +1665,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4">
         <v>7500000</v>
@@ -1665,11 +1692,11 @@
         <v>-10000</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O7" s="15"/>
       <c r="P7" s="3"/>
@@ -1710,7 +1737,7 @@
         <v>640000</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -1728,7 +1755,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4">
         <v>11500000</v>
@@ -1753,11 +1780,11 @@
         <v>500000</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O9" s="15"/>
       <c r="P9" s="3"/>
@@ -1765,7 +1792,7 @@
         <v>44876</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -1773,7 +1800,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="4">
         <v>6500000</v>
@@ -1798,7 +1825,7 @@
         <v>1000000</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -1814,7 +1841,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4">
         <v>6500000</v>
@@ -1841,11 +1868,11 @@
         <v>300000</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="15"/>
       <c r="P11" s="3"/>
@@ -1859,7 +1886,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="4">
         <v>5000000</v>
@@ -1886,10 +1913,10 @@
         <v>795000</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="15"/>
@@ -1906,7 +1933,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="4">
         <v>5500000</v>
@@ -1931,10 +1958,10 @@
         <v>800000</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="15"/>
@@ -1951,7 +1978,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="4">
         <v>5500000</v>
@@ -1976,7 +2003,7 @@
         <v>1100000</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -1994,7 +2021,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="4">
         <v>5700000</v>
@@ -2019,10 +2046,10 @@
         <v>500000</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="15"/>
@@ -2039,7 +2066,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="4">
         <v>8000000</v>
@@ -2064,7 +2091,7 @@
         <v>2500000</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -2078,7 +2105,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="4">
         <v>9693017</v>
@@ -2105,7 +2132,7 @@
         <v>3164413</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -2119,7 +2146,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="4">
         <v>5000000</v>
@@ -2140,23 +2167,23 @@
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4">
-        <f t="shared" ref="K18:K69" si="4">I18-J18-F18</f>
+        <f t="shared" ref="K18:K70" si="4">I18-J18-F18</f>
         <v>500000</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O18" s="15"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -2164,7 +2191,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="4">
         <v>4500000</v>
@@ -2189,17 +2216,17 @@
         <v>1000000</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N19" s="3"/>
       <c r="O19" s="15"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -2207,7 +2234,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="13">
         <v>6794437</v>
@@ -2236,11 +2263,11 @@
         <v>1466110</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O20" s="16"/>
       <c r="P20" s="11"/>
@@ -2254,7 +2281,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="4">
         <v>7839722</v>
@@ -2285,11 +2312,11 @@
         <v>1251195</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O21" s="15"/>
       <c r="P21" s="3"/>
@@ -2305,7 +2332,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" s="4">
         <v>9561005</v>
@@ -2334,16 +2361,16 @@
         <v>538995</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="15"/>
       <c r="P22" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R22" s="5">
         <v>45016</v>
@@ -2354,7 +2381,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" s="34">
         <f>5182073+150000</f>
@@ -2384,17 +2411,17 @@
         <v>2492927</v>
       </c>
       <c r="L23" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M23" s="35"/>
       <c r="N23" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O23" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="P23" s="35" t="s">
         <v>58</v>
-      </c>
-      <c r="P23" s="35" t="s">
-        <v>59</v>
       </c>
       <c r="Q23" s="37">
         <v>45010</v>
@@ -2406,7 +2433,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="34">
         <v>3281172</v>
@@ -2433,15 +2460,15 @@
         <v>2043828</v>
       </c>
       <c r="L24" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M24" s="35"/>
       <c r="N24" s="35"/>
       <c r="O24" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P24" s="35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q24" s="37">
         <v>45011</v>
@@ -2453,7 +2480,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="34">
         <v>4493148</v>
@@ -2482,17 +2509,17 @@
         <v>1941852</v>
       </c>
       <c r="L25" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M25" s="35"/>
       <c r="N25" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O25" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P25" s="35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q25" s="37">
         <v>45012</v>
@@ -2503,8 +2530,8 @@
       <c r="A26" s="32">
         <v>25</v>
       </c>
-      <c r="B26" s="33" t="s">
-        <v>66</v>
+      <c r="B26" t="s">
+        <v>65</v>
       </c>
       <c r="C26" s="41">
         <v>3801801</v>
@@ -2531,15 +2558,15 @@
         <v>3073199</v>
       </c>
       <c r="L26" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M26" s="35"/>
       <c r="N26" s="35"/>
       <c r="O26" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P26" s="35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q26" s="37">
         <v>45017</v>
@@ -2551,9 +2578,9 @@
         <v>26</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="73">
+        <v>69</v>
+      </c>
+      <c r="C27" s="70">
         <v>6537888</v>
       </c>
       <c r="D27" s="34">
@@ -2580,51 +2607,53 @@
         <v>1712112</v>
       </c>
       <c r="L27" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M27" s="35"/>
       <c r="N27" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="O27" s="74" t="s">
-        <v>72</v>
+        <v>90</v>
+      </c>
+      <c r="O27" s="71" t="s">
+        <v>71</v>
       </c>
       <c r="P27" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q27" s="75">
+        <v>58</v>
+      </c>
+      <c r="Q27" s="72">
         <v>45015</v>
       </c>
       <c r="R27" s="35"/>
     </row>
     <row r="28" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="65">
+      <c r="A28" s="63">
         <v>27</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" s="43">
         <v>7887859</v>
       </c>
       <c r="D28" s="44">
-        <v>1800000</v>
-      </c>
-      <c r="E28" s="44"/>
+        <v>850000</v>
+      </c>
+      <c r="E28" s="44">
+        <v>350000</v>
+      </c>
       <c r="F28" s="44">
         <f t="shared" si="1"/>
-        <v>9687859</v>
+        <v>9087859</v>
       </c>
       <c r="G28" s="44">
-        <f>(F28*15%)+F28</f>
-        <v>11141037.85</v>
+        <f t="shared" ref="G28:G66" si="7">(F28*20%)+F28</f>
+        <v>10905430.800000001</v>
       </c>
       <c r="H28" s="44">
         <f t="shared" si="6"/>
-        <v>12109823.75</v>
+        <v>11359823.75</v>
       </c>
       <c r="I28" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J28" s="44"/>
       <c r="K28" s="44" t="e">
@@ -2634,28 +2663,28 @@
       <c r="L28" s="45"/>
       <c r="M28" s="45"/>
       <c r="N28" s="45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O28" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P28" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q28" s="47">
         <v>45016</v>
       </c>
       <c r="R28" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="S28" s="69"/>
-    </row>
-    <row r="29" spans="1:19" s="35" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="65">
+        <v>126</v>
+      </c>
+      <c r="S28" s="66"/>
+    </row>
+    <row r="29" spans="1:19" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="63">
         <v>28</v>
       </c>
-      <c r="B29" s="33" t="s">
-        <v>73</v>
+      <c r="B29" t="s">
+        <v>72</v>
       </c>
       <c r="C29" s="34">
         <v>4850950</v>
@@ -2669,8 +2698,8 @@
         <v>5850950</v>
       </c>
       <c r="G29" s="44">
-        <f t="shared" ref="G29:G49" si="7">(F29*15%)+F29</f>
-        <v>6728592.5</v>
+        <f t="shared" si="7"/>
+        <v>7021140</v>
       </c>
       <c r="H29" s="34">
         <f t="shared" si="6"/>
@@ -2685,25 +2714,25 @@
         <v>2649050</v>
       </c>
       <c r="L29" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O29" s="36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P29" s="35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q29" s="37">
         <v>45019</v>
       </c>
-      <c r="S29" s="69"/>
+      <c r="S29" s="66"/>
     </row>
     <row r="30" spans="1:19" s="50" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="66">
+      <c r="A30" s="64">
         <v>29</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="49">
         <v>8317935</v>
@@ -2718,7 +2747,7 @@
       </c>
       <c r="G30" s="44">
         <f t="shared" si="7"/>
-        <v>10543125.25</v>
+        <v>11001522</v>
       </c>
       <c r="H30" s="49">
         <f t="shared" si="6"/>
@@ -2733,25 +2762,25 @@
         <v>-167935</v>
       </c>
       <c r="L30" s="50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O30" s="51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P30" s="50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q30" s="52">
         <v>45020</v>
       </c>
-      <c r="S30" s="70"/>
+      <c r="S30" s="67"/>
     </row>
     <row r="31" spans="1:19" s="35" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="65">
+      <c r="A31" s="63">
         <v>30</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" s="34">
         <v>4258422</v>
@@ -2768,7 +2797,7 @@
       </c>
       <c r="G31" s="44">
         <f t="shared" si="7"/>
-        <v>4970785.3</v>
+        <v>5186906.4000000004</v>
       </c>
       <c r="H31" s="34">
         <f t="shared" si="6"/>
@@ -2783,47 +2812,49 @@
         <v>1177578</v>
       </c>
       <c r="L31" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O31" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P31" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q31" s="37">
         <v>45021</v>
       </c>
-      <c r="S31" s="69"/>
+      <c r="S31" s="66"/>
     </row>
     <row r="32" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="67">
+      <c r="A32" s="65">
         <v>31</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C32" s="4">
         <v>6651048</v>
       </c>
       <c r="D32" s="4">
-        <v>1300000</v>
-      </c>
-      <c r="E32" s="4"/>
+        <v>833000</v>
+      </c>
+      <c r="E32" s="4">
+        <v>300000</v>
+      </c>
       <c r="F32" s="4">
         <f t="shared" si="1"/>
-        <v>7951048</v>
+        <v>7784048</v>
       </c>
       <c r="G32" s="44">
         <f t="shared" si="7"/>
-        <v>9143705.1999999993</v>
+        <v>9340857.5999999996</v>
       </c>
       <c r="H32" s="4">
         <f t="shared" si="6"/>
-        <v>9938810</v>
+        <v>9730060</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4" t="e">
@@ -2831,22 +2862,22 @@
         <v>#VALUE!</v>
       </c>
       <c r="O32" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q32" s="5">
         <v>45022</v>
       </c>
-      <c r="S32" s="71"/>
+      <c r="S32" s="68"/>
     </row>
     <row r="33" spans="1:19" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="67">
+      <c r="A33" s="65">
         <v>32</v>
       </c>
-      <c r="B33" s="53" t="s">
-        <v>81</v>
+      <c r="B33" t="s">
+        <v>80</v>
       </c>
       <c r="C33" s="4">
         <v>3558942</v>
@@ -2861,7 +2892,7 @@
       </c>
       <c r="G33" s="44">
         <f t="shared" si="7"/>
-        <v>6392783.2999999998</v>
+        <v>6670730.4000000004</v>
       </c>
       <c r="H33" s="4">
         <f t="shared" si="6"/>
@@ -2876,22 +2907,22 @@
         <v>441058</v>
       </c>
       <c r="O33" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q33" s="5">
         <v>45022</v>
       </c>
-      <c r="S33" s="71"/>
+      <c r="S33" s="68"/>
     </row>
     <row r="34" spans="1:19" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="67">
+      <c r="A34" s="65">
         <v>33</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C34" s="4">
         <v>9299103</v>
@@ -2906,7 +2937,7 @@
       </c>
       <c r="G34" s="44">
         <f t="shared" si="7"/>
-        <v>11671468.449999999</v>
+        <v>12178923.6</v>
       </c>
       <c r="H34" s="4">
         <f t="shared" si="6"/>
@@ -2921,22 +2952,22 @@
         <v>850897</v>
       </c>
       <c r="O34" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q34" s="5">
         <v>45027</v>
       </c>
-      <c r="S34" s="71"/>
+      <c r="S34" s="68"/>
     </row>
     <row r="35" spans="1:19" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="67">
+      <c r="A35" s="65">
         <v>34</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C35" s="4">
         <v>7849892</v>
@@ -2951,7 +2982,7 @@
       </c>
       <c r="G35" s="44">
         <f t="shared" si="7"/>
-        <v>10292375.800000001</v>
+        <v>10739870.4</v>
       </c>
       <c r="H35" s="4">
         <f t="shared" si="6"/>
@@ -2966,22 +2997,22 @@
         <v>50108</v>
       </c>
       <c r="O35" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q35" s="5">
         <v>45027</v>
       </c>
-      <c r="S35" s="71"/>
+      <c r="S35" s="68"/>
     </row>
     <row r="36" spans="1:19" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="67">
+      <c r="A36" s="65">
         <v>35</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="4">
         <v>3972000</v>
@@ -2996,7 +3027,7 @@
       </c>
       <c r="G36" s="44">
         <f t="shared" si="7"/>
-        <v>5545300</v>
+        <v>5786400</v>
       </c>
       <c r="H36" s="4">
         <f t="shared" si="6"/>
@@ -3011,20 +3042,20 @@
         <v>2178000</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O36" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q36" s="5"/>
-      <c r="S36" s="71"/>
-    </row>
-    <row r="37" spans="1:19" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="67">
+      <c r="S36" s="68"/>
+    </row>
+    <row r="37" spans="1:19" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="65">
         <v>36</v>
       </c>
-      <c r="B37" s="54" t="s">
-        <v>94</v>
+      <c r="B37" t="s">
+        <v>93</v>
       </c>
       <c r="C37" s="4">
         <v>8467000</v>
@@ -3039,14 +3070,14 @@
       </c>
       <c r="G37" s="44">
         <f t="shared" si="7"/>
-        <v>10714550</v>
+        <v>11180400</v>
       </c>
       <c r="H37" s="4">
         <f t="shared" si="6"/>
         <v>11646250</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4" t="e">
@@ -3054,17 +3085,17 @@
         <v>#VALUE!</v>
       </c>
       <c r="O37" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q37" s="5"/>
-      <c r="S37" s="71"/>
+      <c r="S37" s="68"/>
     </row>
     <row r="38" spans="1:19" s="19" customFormat="1" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="68">
+      <c r="A38" s="65">
         <v>37</v>
       </c>
-      <c r="B38" s="55" t="s">
-        <v>105</v>
+      <c r="B38" s="54" t="s">
+        <v>104</v>
       </c>
       <c r="C38" s="30">
         <v>3178000</v>
@@ -3079,7 +3110,7 @@
       </c>
       <c r="G38" s="44">
         <f t="shared" si="7"/>
-        <v>5230200</v>
+        <v>5457600</v>
       </c>
       <c r="H38" s="4">
         <f>(F38*25%)+F38</f>
@@ -3089,22 +3120,22 @@
         <v>5800000</v>
       </c>
       <c r="J38" s="30"/>
-      <c r="K38" s="30">
+      <c r="K38" s="4">
         <f t="shared" si="4"/>
         <v>1252000</v>
       </c>
       <c r="O38" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q38" s="31"/>
-      <c r="S38" s="72"/>
+      <c r="S38" s="69"/>
     </row>
     <row r="39" spans="1:19" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="68">
+      <c r="A39" s="65">
         <v>38</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C39" s="29">
         <v>4560000</v>
@@ -3119,7 +3150,7 @@
       </c>
       <c r="G39" s="44">
         <f t="shared" si="7"/>
-        <v>6221500</v>
+        <v>6492000</v>
       </c>
       <c r="H39" s="4">
         <f t="shared" si="6"/>
@@ -3134,22 +3165,22 @@
         <v>1590000</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O39" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q39" s="24">
         <v>45265</v>
       </c>
-      <c r="S39" s="71"/>
+      <c r="S39" s="68"/>
     </row>
     <row r="40" spans="1:19" s="3" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="68">
+      <c r="A40" s="65">
         <v>39</v>
       </c>
-      <c r="B40" s="55" t="s">
-        <v>107</v>
+      <c r="B40" s="54" t="s">
+        <v>106</v>
       </c>
       <c r="C40" s="4">
         <v>6156000</v>
@@ -3164,7 +3195,7 @@
       </c>
       <c r="G40" s="44">
         <f t="shared" si="7"/>
-        <v>8056900</v>
+        <v>8407200</v>
       </c>
       <c r="H40" s="4">
         <f t="shared" si="6"/>
@@ -3179,17 +3210,17 @@
         <v>1494000</v>
       </c>
       <c r="O40" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q40" s="5"/>
-      <c r="S40" s="71"/>
+      <c r="S40" s="68"/>
     </row>
     <row r="41" spans="1:19" s="3" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="68">
+      <c r="A41" s="65">
         <v>40</v>
       </c>
-      <c r="B41" s="55" t="s">
-        <v>108</v>
+      <c r="B41" s="54" t="s">
+        <v>107</v>
       </c>
       <c r="C41" s="4">
         <v>4126000</v>
@@ -3204,7 +3235,7 @@
       </c>
       <c r="G41" s="44">
         <f t="shared" si="7"/>
-        <v>6412400</v>
+        <v>6691200</v>
       </c>
       <c r="H41" s="4">
         <f t="shared" si="6"/>
@@ -3219,17 +3250,17 @@
         <v>1924000</v>
       </c>
       <c r="O41" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q41" s="5"/>
-      <c r="S41" s="71"/>
+      <c r="S41" s="68"/>
     </row>
     <row r="42" spans="1:19" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="68">
+      <c r="A42" s="65">
         <v>41</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C42" s="29">
         <v>3192000</v>
@@ -3244,7 +3275,7 @@
       </c>
       <c r="G42" s="44">
         <f t="shared" si="7"/>
-        <v>4648300</v>
+        <v>4850400</v>
       </c>
       <c r="H42" s="4">
         <f t="shared" si="6"/>
@@ -3259,17 +3290,17 @@
         <v>1458000</v>
       </c>
       <c r="O42" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q42" s="24"/>
-      <c r="S42" s="71"/>
+      <c r="S42" s="68"/>
     </row>
     <row r="43" spans="1:19" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="68">
+      <c r="A43" s="65">
         <v>42</v>
       </c>
-      <c r="B43" s="54" t="s">
-        <v>112</v>
+      <c r="B43" t="s">
+        <v>111</v>
       </c>
       <c r="C43" s="29">
         <v>6065000</v>
@@ -3284,7 +3315,7 @@
       </c>
       <c r="G43" s="44">
         <f t="shared" si="7"/>
-        <v>7952250</v>
+        <v>8298000</v>
       </c>
       <c r="H43" s="4">
         <f t="shared" si="6"/>
@@ -3299,20 +3330,20 @@
         <v>1585000</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O43" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q43" s="24"/>
-      <c r="S43" s="71"/>
-    </row>
-    <row r="44" spans="1:19" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="68">
+      <c r="S43" s="68"/>
+    </row>
+    <row r="44" spans="1:19" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="65">
         <v>43</v>
       </c>
-      <c r="B44" s="54" t="s">
-        <v>117</v>
+      <c r="B44" t="s">
+        <v>116</v>
       </c>
       <c r="C44" s="29">
         <v>3268000</v>
@@ -3326,8 +3357,8 @@
         <v>4118000</v>
       </c>
       <c r="G44" s="44">
-        <f>(F44*15%)+F44</f>
-        <v>4735700</v>
+        <f t="shared" si="7"/>
+        <v>4941600</v>
       </c>
       <c r="H44" s="4">
         <f>(F44*25%)+F44</f>
@@ -3338,89 +3369,115 @@
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4">
-        <f>I44-J44-F44</f>
+        <f t="shared" si="4"/>
         <v>582000</v>
       </c>
-      <c r="O44" s="76" t="s">
-        <v>118</v>
+      <c r="O44" s="73" t="s">
+        <v>117</v>
       </c>
       <c r="P44" s="24"/>
-      <c r="S44" s="71"/>
+      <c r="S44" s="68"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="63"/>
-      <c r="B45" s="54" t="s">
-        <v>147</v>
+      <c r="A45" s="65">
+        <v>44</v>
+      </c>
+      <c r="B45" s="53" t="s">
+        <v>146</v>
       </c>
       <c r="C45" s="29">
         <v>3223000</v>
       </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
+      <c r="D45" s="4">
+        <v>644000</v>
+      </c>
+      <c r="E45" s="4">
+        <v>800000</v>
+      </c>
       <c r="F45" s="4">
-        <f t="shared" ref="F45:F49" si="8">C45+D45+E45</f>
-        <v>3223000</v>
+        <f t="shared" ref="F45:F69" si="8">C45+D45+E45</f>
+        <v>4667000</v>
       </c>
       <c r="G45" s="44">
         <f t="shared" si="7"/>
-        <v>3706450</v>
+        <v>5600400</v>
       </c>
       <c r="H45" s="4">
-        <f t="shared" ref="H45:H49" si="9">(F45*25%)+F45</f>
-        <v>4028750</v>
-      </c>
-      <c r="I45" s="4"/>
+        <f t="shared" ref="H45:H66" si="9">(F45*25%)+F45</f>
+        <v>5833750</v>
+      </c>
+      <c r="I45" s="4">
+        <v>7500000</v>
+      </c>
       <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="3"/>
+      <c r="K45" s="4">
+        <f t="shared" si="4"/>
+        <v>2833000</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
-      <c r="O45" s="76" t="s">
-        <v>148</v>
+      <c r="O45" s="73" t="s">
+        <v>147</v>
       </c>
       <c r="P45" s="24"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="63"/>
-      <c r="B46" s="54" t="s">
-        <v>149</v>
+      <c r="A46" s="65">
+        <v>45</v>
+      </c>
+      <c r="B46" s="53" t="s">
+        <v>148</v>
       </c>
       <c r="C46" s="29">
         <v>3632000</v>
       </c>
-      <c r="D46" s="4"/>
+      <c r="D46" s="4">
+        <v>896000</v>
+      </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4">
         <f t="shared" si="8"/>
-        <v>3632000</v>
+        <v>4528000</v>
       </c>
       <c r="G46" s="44">
-        <f>(F46*15%)+F46</f>
-        <v>4176800</v>
+        <f t="shared" si="7"/>
+        <v>5433600</v>
       </c>
       <c r="H46" s="4">
         <f t="shared" si="9"/>
-        <v>4540000</v>
-      </c>
-      <c r="I46" s="4"/>
+        <v>5660000</v>
+      </c>
+      <c r="I46" s="4">
+        <v>5800000</v>
+      </c>
       <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="3"/>
+      <c r="K46" s="4">
+        <f t="shared" si="4"/>
+        <v>1272000</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
-      <c r="O46" s="76" t="s">
-        <v>150</v>
+      <c r="O46" s="73" t="s">
+        <v>149</v>
       </c>
       <c r="P46" s="24"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="63"/>
-      <c r="B47" s="54" t="s">
-        <v>151</v>
+      <c r="A47" s="65">
+        <v>46</v>
+      </c>
+      <c r="B47" s="53" t="s">
+        <v>150</v>
       </c>
       <c r="C47" s="29">
         <v>3813000</v>
@@ -3429,544 +3486,837 @@
         <v>842000</v>
       </c>
       <c r="E47" s="4">
-        <v>250000</v>
+        <v>450000</v>
       </c>
       <c r="F47" s="4">
         <f t="shared" si="8"/>
-        <v>4905000</v>
+        <v>5105000</v>
       </c>
       <c r="G47" s="44">
         <f t="shared" si="7"/>
-        <v>5640750</v>
+        <v>6126000</v>
       </c>
       <c r="H47" s="4">
         <f t="shared" si="9"/>
-        <v>6131250</v>
-      </c>
-      <c r="I47" s="4"/>
+        <v>6381250</v>
+      </c>
+      <c r="I47" s="4">
+        <v>6000000</v>
+      </c>
       <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="3"/>
+      <c r="K47" s="4">
+        <f t="shared" si="4"/>
+        <v>895000</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
-      <c r="O47" s="76" t="s">
-        <v>152</v>
+      <c r="O47" s="73" t="s">
+        <v>151</v>
       </c>
       <c r="P47" s="24"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="63"/>
-      <c r="B48" s="54" t="s">
-        <v>153</v>
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="65">
+        <v>47</v>
+      </c>
+      <c r="B48" s="53" t="s">
+        <v>152</v>
       </c>
       <c r="C48" s="29">
         <v>6219000</v>
       </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
+      <c r="D48" s="4">
+        <v>842000</v>
+      </c>
+      <c r="E48" s="4">
+        <v>150000</v>
+      </c>
       <c r="F48" s="4">
         <f t="shared" si="8"/>
-        <v>6219000</v>
+        <v>7211000</v>
       </c>
       <c r="G48" s="44">
         <f t="shared" si="7"/>
-        <v>7151850</v>
+        <v>8653200</v>
       </c>
       <c r="H48" s="4">
         <f t="shared" si="9"/>
-        <v>7773750</v>
-      </c>
-      <c r="I48" s="4"/>
+        <v>9013750</v>
+      </c>
+      <c r="I48" s="4">
+        <v>8400000</v>
+      </c>
       <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="3"/>
+      <c r="K48" s="4">
+        <f t="shared" si="4"/>
+        <v>1189000</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
-      <c r="O48" s="76" t="s">
-        <v>154</v>
+      <c r="O48" s="73" t="s">
+        <v>153</v>
       </c>
       <c r="P48" s="24"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="63"/>
-      <c r="B49" s="53" t="s">
-        <v>155</v>
+      <c r="A49" s="65">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>154</v>
       </c>
       <c r="C49" s="29">
         <v>4149000</v>
       </c>
       <c r="D49" s="4">
-        <v>900000</v>
-      </c>
-      <c r="E49" s="4"/>
+        <v>821000</v>
+      </c>
+      <c r="E49" s="4">
+        <v>300000</v>
+      </c>
       <c r="F49" s="4">
         <f t="shared" si="8"/>
-        <v>5049000</v>
+        <v>5270000</v>
       </c>
       <c r="G49" s="44">
         <f t="shared" si="7"/>
-        <v>5806350</v>
+        <v>6324000</v>
       </c>
       <c r="H49" s="4">
         <f t="shared" si="9"/>
-        <v>6311250</v>
-      </c>
-      <c r="I49" s="4"/>
+        <v>6587500</v>
+      </c>
+      <c r="I49" s="4">
+        <v>6200000</v>
+      </c>
       <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="3"/>
+      <c r="K49" s="4">
+        <f t="shared" si="4"/>
+        <v>930000</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
-      <c r="O49" s="76" t="s">
-        <v>156</v>
+      <c r="O49" s="73" t="s">
+        <v>155</v>
       </c>
       <c r="P49" s="24"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
     </row>
-    <row r="50" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="26">
-        <v>40</v>
-      </c>
-      <c r="B50" s="28" t="s">
-        <v>157</v>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="65">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>156</v>
       </c>
       <c r="C50" s="29">
         <v>3648000</v>
       </c>
-      <c r="D50" s="4"/>
+      <c r="D50" s="4">
+        <v>883000</v>
+      </c>
       <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
+      <c r="F50" s="4">
+        <f t="shared" si="8"/>
+        <v>4531000</v>
+      </c>
+      <c r="G50" s="44">
+        <f t="shared" si="7"/>
+        <v>5437200</v>
+      </c>
+      <c r="H50" s="4">
+        <f t="shared" si="9"/>
+        <v>5663750</v>
+      </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
+      <c r="K50" s="4">
+        <f t="shared" si="4"/>
+        <v>-4531000</v>
+      </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="24"/>
       <c r="R50" s="3"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="26"/>
+      <c r="A51" s="65">
+        <v>50</v>
+      </c>
       <c r="B51" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C51" s="29">
         <v>4560000</v>
       </c>
-      <c r="D51" s="4"/>
+      <c r="D51" s="4">
+        <v>698500</v>
+      </c>
       <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
+      <c r="F51" s="4">
+        <f t="shared" si="8"/>
+        <v>5258500</v>
+      </c>
+      <c r="G51" s="44">
+        <f t="shared" si="7"/>
+        <v>6310200</v>
+      </c>
+      <c r="H51" s="4">
+        <f t="shared" si="9"/>
+        <v>6573125</v>
+      </c>
+      <c r="I51" s="4">
+        <v>7600000</v>
+      </c>
       <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="3"/>
+      <c r="K51" s="4">
+        <f t="shared" si="4"/>
+        <v>2341500</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P51" s="3"/>
       <c r="Q51" s="24"/>
       <c r="R51" s="3"/>
     </row>
     <row r="52" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="26"/>
+      <c r="A52" s="65">
+        <v>51</v>
+      </c>
       <c r="B52" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C52" s="29">
         <v>4560000</v>
       </c>
-      <c r="D52" s="4"/>
+      <c r="D52" s="4">
+        <v>985000</v>
+      </c>
       <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
+      <c r="F52" s="4">
+        <f t="shared" si="8"/>
+        <v>5545000</v>
+      </c>
+      <c r="G52" s="44">
+        <f t="shared" si="7"/>
+        <v>6654000</v>
+      </c>
+      <c r="H52" s="4">
+        <f t="shared" si="9"/>
+        <v>6931250</v>
+      </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
+      <c r="K52" s="4">
+        <f t="shared" si="4"/>
+        <v>-5545000</v>
+      </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="24"/>
       <c r="R52" s="3"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
-      <c r="B53" s="64" t="s">
-        <v>163</v>
+      <c r="A53" s="65">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>162</v>
       </c>
       <c r="C53" s="29">
         <v>3192000</v>
       </c>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
+      <c r="D53" s="4">
+        <v>903000</v>
+      </c>
+      <c r="E53" s="4">
+        <v>200000</v>
+      </c>
+      <c r="F53" s="4">
+        <f t="shared" si="8"/>
+        <v>4295000</v>
+      </c>
+      <c r="G53" s="44">
+        <f t="shared" si="7"/>
+        <v>5154000</v>
+      </c>
+      <c r="H53" s="4">
+        <f t="shared" si="9"/>
+        <v>5368750</v>
+      </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
+      <c r="K53" s="4">
+        <f t="shared" si="4"/>
+        <v>-4295000</v>
+      </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P53" s="3"/>
       <c r="Q53" s="24"/>
       <c r="R53" s="3"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
-      <c r="B54" s="64" t="s">
-        <v>165</v>
+      <c r="A54" s="65">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>164</v>
       </c>
       <c r="C54" s="29">
         <v>4149000</v>
       </c>
-      <c r="D54" s="4"/>
+      <c r="D54" s="4">
+        <v>739000</v>
+      </c>
       <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
+      <c r="F54" s="4">
+        <f t="shared" si="8"/>
+        <v>4888000</v>
+      </c>
+      <c r="G54" s="44">
+        <f t="shared" si="7"/>
+        <v>5865600</v>
+      </c>
+      <c r="H54" s="4">
+        <f t="shared" si="9"/>
+        <v>6110000</v>
+      </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
+      <c r="K54" s="4">
+        <f t="shared" si="4"/>
+        <v>-4888000</v>
+      </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P54" s="3"/>
       <c r="Q54" s="24"/>
       <c r="R54" s="3"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="26"/>
-      <c r="B55" s="64" t="s">
-        <v>167</v>
+      <c r="A55" s="65">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>166</v>
       </c>
       <c r="C55" s="29">
         <v>4104000</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
+      <c r="F55" s="4">
+        <f t="shared" si="8"/>
+        <v>4104000</v>
+      </c>
+      <c r="G55" s="44">
+        <f t="shared" si="7"/>
+        <v>4924800</v>
+      </c>
+      <c r="H55" s="4">
+        <f t="shared" si="9"/>
+        <v>5130000</v>
+      </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
+      <c r="K55" s="4">
+        <f t="shared" si="4"/>
+        <v>-4104000</v>
+      </c>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P55" s="3"/>
       <c r="Q55" s="24"/>
       <c r="R55" s="3"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="26"/>
-      <c r="B56" s="28" t="s">
-        <v>169</v>
+      <c r="A56" s="65">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>168</v>
       </c>
       <c r="C56" s="29">
         <v>1960000</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
+      <c r="F56" s="4">
+        <f t="shared" si="8"/>
+        <v>1960000</v>
+      </c>
+      <c r="G56" s="44">
+        <f t="shared" si="7"/>
+        <v>2352000</v>
+      </c>
+      <c r="H56" s="4">
+        <f t="shared" si="9"/>
+        <v>2450000</v>
+      </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
+      <c r="K56" s="4">
+        <f t="shared" si="4"/>
+        <v>-1960000</v>
+      </c>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P56" s="3"/>
       <c r="Q56" s="24"/>
       <c r="R56" s="3"/>
     </row>
-    <row r="57" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
+    <row r="57" spans="1:18" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="65">
+        <v>56</v>
+      </c>
       <c r="B57" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C57" s="29">
         <v>3762000</v>
       </c>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
+      <c r="D57" s="4">
+        <v>760000</v>
+      </c>
+      <c r="E57" s="4">
+        <v>800000</v>
+      </c>
+      <c r="F57" s="4">
+        <f t="shared" si="8"/>
+        <v>5322000</v>
+      </c>
+      <c r="G57" s="44">
+        <f t="shared" si="7"/>
+        <v>6386400</v>
+      </c>
+      <c r="H57" s="4">
+        <f>(F57*25%)+F57</f>
+        <v>6652500</v>
+      </c>
+      <c r="I57" s="4">
+        <v>6300000</v>
+      </c>
       <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="3"/>
+      <c r="K57" s="4">
+        <f t="shared" si="4"/>
+        <v>978000</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
+      <c r="N57" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="O57" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P57" s="3"/>
       <c r="Q57" s="24"/>
       <c r="R57" s="3"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="26"/>
-      <c r="B58" s="64" t="s">
-        <v>173</v>
+      <c r="A58" s="65">
+        <v>57</v>
+      </c>
+      <c r="B58" s="62" t="s">
+        <v>172</v>
       </c>
       <c r="C58" s="29">
         <v>6441000</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
+      <c r="F58" s="4">
+        <f t="shared" si="8"/>
+        <v>6441000</v>
+      </c>
+      <c r="G58" s="44">
+        <f t="shared" si="7"/>
+        <v>7729200</v>
+      </c>
+      <c r="H58" s="4">
+        <f t="shared" si="9"/>
+        <v>8051250</v>
+      </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
+      <c r="K58" s="4">
+        <f t="shared" si="4"/>
+        <v>-6441000</v>
+      </c>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P58" s="3"/>
       <c r="Q58" s="24"/>
       <c r="R58" s="3"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
-      <c r="B59" s="64" t="s">
-        <v>175</v>
+      <c r="A59" s="65">
+        <v>58</v>
+      </c>
+      <c r="B59" s="62" t="s">
+        <v>174</v>
       </c>
       <c r="C59" s="29">
         <v>7435000</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
+      <c r="F59" s="4">
+        <f t="shared" si="8"/>
+        <v>7435000</v>
+      </c>
+      <c r="G59" s="44">
+        <f t="shared" si="7"/>
+        <v>8922000</v>
+      </c>
+      <c r="H59" s="4">
+        <f t="shared" si="9"/>
+        <v>9293750</v>
+      </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
+      <c r="K59" s="4">
+        <f t="shared" si="4"/>
+        <v>-7435000</v>
+      </c>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
-      <c r="O59" s="77" t="s">
-        <v>176</v>
+      <c r="O59" s="74" t="s">
+        <v>175</v>
       </c>
       <c r="P59" s="3"/>
       <c r="Q59" s="24"/>
       <c r="R59" s="3"/>
     </row>
     <row r="60" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="26"/>
-      <c r="B60" s="28" t="s">
-        <v>177</v>
+      <c r="A60" s="65">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>176</v>
       </c>
       <c r="C60" s="29">
         <v>1824000</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
+      <c r="F60" s="4">
+        <f t="shared" si="8"/>
+        <v>1824000</v>
+      </c>
+      <c r="G60" s="44">
+        <f t="shared" si="7"/>
+        <v>2188800</v>
+      </c>
+      <c r="H60" s="4">
+        <f t="shared" si="9"/>
+        <v>2280000</v>
+      </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
+      <c r="K60" s="4">
+        <f t="shared" si="4"/>
+        <v>-1824000</v>
+      </c>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P60" s="3"/>
       <c r="Q60" s="24"/>
       <c r="R60" s="3"/>
     </row>
     <row r="61" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="26"/>
+      <c r="A61" s="65">
+        <v>60</v>
+      </c>
       <c r="B61" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C61" s="29">
         <v>6328000</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
+      <c r="F61" s="4">
+        <f t="shared" si="8"/>
+        <v>6328000</v>
+      </c>
+      <c r="G61" s="44">
+        <f t="shared" si="7"/>
+        <v>7593600</v>
+      </c>
+      <c r="H61" s="4">
+        <f t="shared" si="9"/>
+        <v>7910000</v>
+      </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
+      <c r="K61" s="4">
+        <f t="shared" si="4"/>
+        <v>-6328000</v>
+      </c>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P61" s="3"/>
       <c r="Q61" s="24"/>
       <c r="R61" s="3"/>
     </row>
     <row r="62" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="26"/>
+      <c r="A62" s="65">
+        <v>61</v>
+      </c>
       <c r="B62" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C62" s="29">
         <v>3762000</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
+      <c r="F62" s="4">
+        <f t="shared" si="8"/>
+        <v>3762000</v>
+      </c>
+      <c r="G62" s="44">
+        <f t="shared" si="7"/>
+        <v>4514400</v>
+      </c>
+      <c r="H62" s="4">
+        <f t="shared" si="9"/>
+        <v>4702500</v>
+      </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
+      <c r="K62" s="4">
+        <f t="shared" si="4"/>
+        <v>-3762000</v>
+      </c>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P62" s="3"/>
       <c r="Q62" s="24"/>
       <c r="R62" s="3"/>
     </row>
     <row r="63" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="26"/>
+      <c r="A63" s="65">
+        <v>62</v>
+      </c>
       <c r="B63" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C63" s="29">
         <v>4000000</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
+      <c r="F63" s="4">
+        <f t="shared" si="8"/>
+        <v>4000000</v>
+      </c>
+      <c r="G63" s="44">
+        <f t="shared" si="7"/>
+        <v>4800000</v>
+      </c>
+      <c r="H63" s="4">
+        <f t="shared" si="9"/>
+        <v>5000000</v>
+      </c>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
+      <c r="K63" s="4">
+        <f t="shared" si="4"/>
+        <v>-4000000</v>
+      </c>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P63" s="3"/>
       <c r="Q63" s="24"/>
       <c r="R63" s="3"/>
     </row>
     <row r="64" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="26"/>
+      <c r="A64" s="65">
+        <v>63</v>
+      </c>
       <c r="B64" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C64" s="29">
         <v>6350000</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
+      <c r="F64" s="4">
+        <f t="shared" si="8"/>
+        <v>6350000</v>
+      </c>
+      <c r="G64" s="44">
+        <f t="shared" si="7"/>
+        <v>7620000</v>
+      </c>
+      <c r="H64" s="4">
+        <f t="shared" si="9"/>
+        <v>7937500</v>
+      </c>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
+      <c r="K64" s="4">
+        <f t="shared" si="4"/>
+        <v>-6350000</v>
+      </c>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P64" s="3"/>
       <c r="Q64" s="24"/>
       <c r="R64" s="3"/>
     </row>
     <row r="65" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="26"/>
+      <c r="A65" s="65">
+        <v>64</v>
+      </c>
       <c r="B65" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C65" s="29">
         <v>2712000</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
+      <c r="F65" s="4">
+        <f t="shared" si="8"/>
+        <v>2712000</v>
+      </c>
+      <c r="G65" s="44">
+        <f t="shared" si="7"/>
+        <v>3254400</v>
+      </c>
+      <c r="H65" s="4">
+        <f t="shared" si="9"/>
+        <v>3390000</v>
+      </c>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
+      <c r="K65" s="4">
+        <f t="shared" si="4"/>
+        <v>-2712000</v>
+      </c>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P65" s="3"/>
       <c r="Q65" s="24"/>
       <c r="R65" s="3"/>
     </row>
     <row r="66" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="26"/>
+      <c r="A66" s="65">
+        <v>65</v>
+      </c>
       <c r="B66" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C66" s="29">
         <v>2440000</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
+      <c r="F66" s="4">
+        <f t="shared" si="8"/>
+        <v>2440000</v>
+      </c>
+      <c r="G66" s="44">
+        <f t="shared" si="7"/>
+        <v>2928000</v>
+      </c>
+      <c r="H66" s="4">
+        <f t="shared" si="9"/>
+        <v>3050000</v>
+      </c>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
+      <c r="K66" s="4">
+        <f t="shared" si="4"/>
+        <v>-2440000</v>
+      </c>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P66" s="3"/>
       <c r="Q66" s="24"/>
@@ -3974,96 +4324,322 @@
     </row>
     <row r="67" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="26"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="29"/>
+      <c r="B67" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C67" s="29">
+        <v>3351000</v>
+      </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
+      <c r="F67" s="4">
+        <f t="shared" si="8"/>
+        <v>3351000</v>
+      </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
+      <c r="K67" s="4">
+        <f t="shared" si="4"/>
+        <v>-3351000</v>
+      </c>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-      <c r="O67" s="23"/>
+      <c r="O67" s="23" t="s">
+        <v>195</v>
+      </c>
       <c r="P67" s="3"/>
       <c r="Q67" s="24"/>
       <c r="R67" s="3"/>
     </row>
     <row r="68" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="19"/>
-      <c r="C68" s="4"/>
+      <c r="A68" s="26"/>
+      <c r="B68" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="C68" s="29">
+        <v>3511000</v>
+      </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
+      <c r="F68" s="4">
+        <f t="shared" si="8"/>
+        <v>3511000</v>
+      </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-3511000</v>
       </c>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
-      <c r="O68" s="15"/>
+      <c r="O68" s="23" t="s">
+        <v>197</v>
+      </c>
       <c r="P68" s="3"/>
-      <c r="Q68" s="5"/>
+      <c r="Q68" s="24"/>
       <c r="R68" s="3"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C69" s="2">
-        <f>SUM(C2:C8)</f>
-        <v>46150000</v>
-      </c>
-      <c r="I69" s="2">
-        <f>SUM(I2:I8)</f>
-        <v>50200000</v>
-      </c>
-      <c r="K69" s="2">
-        <f t="shared" si="4"/>
-        <v>50200000</v>
-      </c>
-      <c r="M69" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D73" s="2">
-        <f>SUM(C20:C25)</f>
-        <v>37301557</v>
+    <row r="69" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="26"/>
+      <c r="B69" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C69" s="29">
+        <v>7204000</v>
+      </c>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4">
+        <f t="shared" si="8"/>
+        <v>7204000</v>
+      </c>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4">
+        <f t="shared" si="4"/>
+        <v>-7204000</v>
+      </c>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="24"/>
+      <c r="R69" s="3"/>
+    </row>
+    <row r="70" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="19"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="3"/>
+    </row>
+    <row r="71" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="26"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="23"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="24"/>
+      <c r="R71" s="3"/>
+    </row>
+    <row r="72" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="26"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="23"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="24"/>
+      <c r="R72" s="3"/>
+    </row>
+    <row r="73" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="19"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4">
+        <f t="shared" ref="K73" si="10">I73-J73-F73</f>
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="15"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="3"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F75" s="44">
+        <v>9087859</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F76" s="4">
+        <v>7784048</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F77" s="4">
+        <v>4667000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E78" s="2">
+        <f>SUM(F75:F97)-F45-F47</f>
+        <v>105604407</v>
+      </c>
+      <c r="F78" s="4">
+        <v>4528000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F79" s="4">
+        <v>5105000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F80" s="4">
+        <v>7061000</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F81" s="4">
+        <v>5270000</v>
+      </c>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F82" s="4">
+        <v>4531000</v>
+      </c>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F83" s="4">
+        <v>5258500</v>
+      </c>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F84" s="4">
+        <v>5545000</v>
+      </c>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F85" s="4">
+        <v>4295000</v>
+      </c>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F86" s="4">
+        <v>4888000</v>
+      </c>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F87" s="4">
+        <v>4104000</v>
+      </c>
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F88" s="4">
+        <v>1960000</v>
+      </c>
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F89" s="4">
+        <v>6441000</v>
+      </c>
+    </row>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F90" s="4">
+        <v>7435000</v>
+      </c>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F91" s="4">
+        <v>1824000</v>
+      </c>
+    </row>
+    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F92" s="4">
+        <v>6328000</v>
+      </c>
+    </row>
+    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F93" s="4">
+        <v>3762000</v>
+      </c>
+    </row>
+    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F94" s="4">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F95" s="4">
+        <v>6350000</v>
+      </c>
+    </row>
+    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F96" s="4">
+        <v>2712000</v>
+      </c>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F97" s="4">
+        <v>2440000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="L1:L73" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="C2:G2 H2:N17 O2:Q22 B2:B25 R2:R39 C3:E25 F3:G28 K3:K38 H18:J35 L18:N38 P23:Q25 O26:Q26 D26:E38 P26:P39 O29:Q38 I36:J38 H36:H42 D39:F39 I39:N39 C40:F41 I40:R41 I42:J42 P42:P43 R42:R43 Q44:Q49 C29:F38 G29:G49 D42:F49 H43:J49 L42:N67 K42:K69 P50:P67 R50:R67 D50:J67">
+  <autoFilter ref="L1:L75" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="C2:G2 H2:N17 O2:Q22 B2:B25 R2:R39 C3:E25 F3:G27 P23:Q25 O26:Q26 D26:E38 P26:P39 O29:Q38 D39:F39 C40:F41 P42:P43 R42:R43 Q44:Q49 C29:F38 L42:N69 P50:P69 R50:R69 L40:R41 L18:N39 D67:J69 D42:F66 H18:J66 F28 G28:G66 L71:N72 P71:P72 R71:R72 D71:J72 K3:K73">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>MOD(ROW(),2)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F75:F97">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>MOD(ROW(),2)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="O23" r:id="rId1" display="https://www.ebay.com/ship/trk/tracking-details?transid=2201839708010&amp;itemid=204283961060" xr:uid="{6F8BFF36-4018-4EC5-AB4D-4659A4D8A44B}"/>
-    <hyperlink ref="B26" r:id="rId2" display="https://www.ebay.com/itm/334809987318" xr:uid="{19E8C091-88D6-4919-B8E7-96C96784B012}"/>
-    <hyperlink ref="O24" r:id="rId3" display="https://www.ebay.com/ship/trk/tracking-details?transid=0&amp;itemid=394522922692" xr:uid="{33A4F9FB-78A6-4311-9764-2BC4A4E1AFF3}"/>
-    <hyperlink ref="B29" r:id="rId4" display="https://www.ebay.com/itm/314434790481" xr:uid="{85980ED6-45D8-4091-8276-909E0D9EE162}"/>
-    <hyperlink ref="B33" r:id="rId5" display="https://www.ebay.com/itm/256028369435" xr:uid="{C70628C0-D734-4DC0-963A-20DE1823E713}"/>
-    <hyperlink ref="B37" r:id="rId6" display="https://www.ebay.com/itm/175682167857" xr:uid="{7381F593-AD6B-483E-BEA5-4F4B3E158710}"/>
-    <hyperlink ref="B43" r:id="rId7" display="https://www.ebay.com/itm/325621957398" xr:uid="{832D9D99-E47E-4352-84FD-C0C45F47A02E}"/>
-    <hyperlink ref="B44" r:id="rId8" display="https://www.ebay.com/itm/385562880266" xr:uid="{474ADD77-2AA8-401D-8609-74DE3B8AF3AC}"/>
-    <hyperlink ref="B49" r:id="rId9" display="https://www.ebay.com/itm/354732536769" xr:uid="{CFD8A343-848F-408F-BC56-BF227A4340A3}"/>
-    <hyperlink ref="B50" r:id="rId10" display="https://www.ebay.com/itm/364141332872" xr:uid="{7D5BE5DD-4CF6-47A4-AC3F-3720825AE242}"/>
-    <hyperlink ref="B53" r:id="rId11" display="https://www.ebay.com/itm/166100964107" xr:uid="{5F28777A-053B-45B1-9E1E-EDF7F12BAE82}"/>
-    <hyperlink ref="B54" r:id="rId12" display="https://www.ebay.com/itm/195795523882" xr:uid="{4581C37E-2BF1-4CF8-8F26-41D251D7E1EC}"/>
-    <hyperlink ref="B55" r:id="rId13" display="https://www.ebay.com/itm/155595090133" xr:uid="{44A710A0-3828-4831-8F0A-7A59D05D8D8A}"/>
-    <hyperlink ref="B56" r:id="rId14" display="https://www.ebay.com/itm/334896935387" xr:uid="{1F8ABB87-7CF5-4D05-8AFF-DF653CDD1C6B}"/>
-    <hyperlink ref="B60" r:id="rId15" display="https://www.ebay.com/itm/275902005071" xr:uid="{2A0D7E83-DF05-4104-82EF-8CE660F030A1}"/>
+    <hyperlink ref="O24" r:id="rId2" display="https://www.ebay.com/ship/trk/tracking-details?transid=0&amp;itemid=394522922692" xr:uid="{33A4F9FB-78A6-4311-9764-2BC4A4E1AFF3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
-  <drawing r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -4087,32 +4663,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="60" t="s">
-        <v>139</v>
-      </c>
-      <c r="E1" s="60" t="s">
-        <v>26</v>
+      <c r="D1" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="57" t="s">
-        <v>80</v>
+      <c r="B2" s="56" t="s">
+        <v>79</v>
       </c>
       <c r="C2" s="4">
         <v>7951048</v>
@@ -4122,16 +4698,16 @@
         <v>9143705.1999999993</v>
       </c>
       <c r="E2" s="44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="62" t="s">
-        <v>81</v>
+      <c r="B3" s="61" t="s">
+        <v>80</v>
       </c>
       <c r="C3" s="4">
         <v>5558942</v>
@@ -4141,16 +4717,16 @@
         <v>6392783.2999999998</v>
       </c>
       <c r="E3" s="44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="57" t="s">
-        <v>133</v>
+      <c r="B4" s="56" t="s">
+        <v>132</v>
       </c>
       <c r="C4" s="4">
         <v>10149103</v>
@@ -4160,16 +4736,16 @@
         <v>11671468.449999999</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="57" t="s">
-        <v>134</v>
+      <c r="B5" s="56" t="s">
+        <v>133</v>
       </c>
       <c r="C5" s="4">
         <v>8949892</v>
@@ -4179,16 +4755,16 @@
         <v>10292375.800000001</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="55" t="s">
-        <v>129</v>
+      <c r="B6" s="54" t="s">
+        <v>128</v>
       </c>
       <c r="C6" s="30">
         <v>4398000</v>
@@ -4198,16 +4774,16 @@
         <v>5057700</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="55" t="s">
-        <v>135</v>
+      <c r="B7" s="54" t="s">
+        <v>134</v>
       </c>
       <c r="C7" s="4">
         <v>7006000</v>
@@ -4217,16 +4793,16 @@
         <v>8056900</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="55" t="s">
-        <v>136</v>
+      <c r="B8" s="54" t="s">
+        <v>135</v>
       </c>
       <c r="C8" s="4">
         <v>4976000</v>
@@ -4236,16 +4812,16 @@
         <v>5722400</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="58" t="s">
-        <v>137</v>
+      <c r="B9" s="57" t="s">
+        <v>136</v>
       </c>
       <c r="C9" s="4">
         <v>4042000</v>
@@ -4255,16 +4831,16 @@
         <v>4648300</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="62" t="s">
-        <v>138</v>
+      <c r="B10" s="61" t="s">
+        <v>137</v>
       </c>
       <c r="C10" s="4">
         <v>4118000</v>
@@ -4274,10 +4850,10 @@
         <v>4735700</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -4289,7 +4865,7 @@
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="61"/>
+      <c r="B12" s="60"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="28"/>

--- a/TDStore/NhapXuatLaptop.xlsx
+++ b/TDStore/NhapXuatLaptop.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3938EA4F-C2C6-42E1-B65C-AF531EB8DD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76035B60-72E4-473E-ABF4-A3433C1020C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NhapXuat" sheetId="1" r:id="rId1"/>
-    <sheet name="CTV" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NhapXuat!$L$1:$L$75</definedName>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="186">
   <si>
     <t>ID máy</t>
   </si>
@@ -115,9 +114,6 @@
   </si>
   <si>
     <t>A Công Yên Sở</t>
-  </si>
-  <si>
-    <t>Giá bán ctv</t>
   </si>
   <si>
     <t>CFLCS73</t>
@@ -399,12 +395,6 @@
     <t>9536213006853116046674</t>
   </si>
   <si>
-    <t>7tr</t>
-  </si>
-  <si>
-    <t>6tr</t>
-  </si>
-  <si>
     <t>Chú Kiểm Nha Trang</t>
   </si>
   <si>
@@ -417,9 +407,6 @@
     <t>Hiếu</t>
   </si>
   <si>
-    <t>6tr5</t>
-  </si>
-  <si>
     <t>HNBRS93</t>
   </si>
   <si>
@@ -429,57 +416,9 @@
     <t>Giá CTV</t>
   </si>
   <si>
-    <t>Dell Latitude 7390 2-in-1 Laptop</t>
-  </si>
-  <si>
     <t>A Minh béo</t>
   </si>
   <si>
-    <t>10tr5</t>
-  </si>
-  <si>
-    <t>13tr5</t>
-  </si>
-  <si>
-    <t>Dell Inspiron 13 5310 13.3" (512GB SSD, Intel Core i5-11320H, 2.50GHz, 16GB RAM) Like new</t>
-  </si>
-  <si>
-    <t>Dell Inspiron 13 5310 13.3 " Core i5-11320H/16GB/512GB SSD  Cấn nhẹ mặt trên, mất nhựa che camera</t>
-  </si>
-  <si>
-    <t>Dell Latitude 7400 2in1 (512GB SSD, Intel Core i7, 1.90GHz, 16GB) Máy đẹp</t>
-  </si>
-  <si>
-    <t>Dell Latitude 7400 14" Intel i5-8265U@1.60GHz 8GB RAM 256GB SSD WiFi HDMI Win11US Xước đít</t>
-  </si>
-  <si>
-    <t>Dell Latitude 5400 14" (256GB SSD, Intel Core i5-8265u 1.6GHz, 8GB) máy đẹp</t>
-  </si>
-  <si>
-    <t>Dell Latitude 5400 Laptop: Work, School (256 GB SSD, Intel Core i5, 16GB RAM)  Máy đẹp</t>
-  </si>
-  <si>
-    <t>Giá bán ctv Công thức</t>
-  </si>
-  <si>
-    <t>9tr</t>
-  </si>
-  <si>
-    <t>5tr</t>
-  </si>
-  <si>
-    <t>10tr-10tr5</t>
-  </si>
-  <si>
-    <t>11tr5</t>
-  </si>
-  <si>
-    <t>8tr5</t>
-  </si>
-  <si>
-    <t>5tr5</t>
-  </si>
-  <si>
     <t>16tr</t>
   </si>
   <si>
@@ -643,6 +582,24 @@
   </si>
   <si>
     <t>780258564951</t>
+  </si>
+  <si>
+    <t>Lâm</t>
+  </si>
+  <si>
+    <t>Lượng</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7400 I5-8365U 1.6GHz 16GB RAM 256GB SSD</t>
+  </si>
+  <si>
+    <t>1ZE531070398266540</t>
+  </si>
+  <si>
+    <t>DELL LATITUDE 7410 Intel Core i7-10610U 2.3GHz 16GB RAM 256GB SSD No Charge</t>
+  </si>
+  <si>
+    <t>9405508205496888194005</t>
   </si>
 </sst>
 </file>
@@ -653,7 +610,7 @@
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -684,37 +641,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF111820"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -753,7 +696,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -771,32 +714,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -833,9 +750,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -846,27 +762,27 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -881,7 +797,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -900,45 +816,45 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -947,68 +863,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -1357,3531 +1245,3290 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
+      <selection pane="bottomLeft" activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="74.140625" style="21" customWidth="1"/>
-    <col min="3" max="4" width="12.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17" style="2" customWidth="1"/>
-    <col min="6" max="7" width="10.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="74.140625" style="20" customWidth="1"/>
+    <col min="3" max="4" width="12.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="15.28515625" customWidth="1"/>
     <col min="13" max="13" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.28515625" style="17" customWidth="1"/>
+    <col min="15" max="15" width="27.28515625" style="16" customWidth="1"/>
     <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="14" t="s">
+      <c r="P1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>6700000</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3">
         <f>C2+D2+E2</f>
         <v>6700000</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3">
         <f t="shared" ref="H2:H17" si="0">(F2*25%)+F2</f>
         <v>8375000</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>7600000</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3">
         <f>I2-J2-F2</f>
         <v>900000</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3">
+      <c r="M2" s="2"/>
+      <c r="N2" s="2">
         <v>34534861886</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="5">
+      <c r="O2" s="14"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="4">
         <v>44835</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2" s="5">
         <v>44835</v>
       </c>
     </row>
     <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26">
+      <c r="A3" s="25">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>6500000</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3">
         <f t="shared" ref="F3:F43" si="1">C3+D3+E3</f>
         <v>6500000</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
         <f t="shared" si="0"/>
         <v>8125000</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>7250000</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>5000</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <f t="shared" ref="K3:K17" si="2">I3-J3-F3</f>
         <v>745000</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="5">
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="4">
         <v>44835</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="5">
         <v>44835</v>
       </c>
     </row>
     <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26">
+      <c r="A4" s="25">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>4900000</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
         <f t="shared" si="1"/>
         <v>4900000</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
         <f t="shared" si="0"/>
         <v>6125000</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>5400000</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4">
+      <c r="J4" s="3"/>
+      <c r="K4" s="3">
         <f t="shared" si="2"/>
         <v>500000</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3" t="s">
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="5">
+      <c r="O4" s="14"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="4">
         <v>44841</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="5">
         <v>44814</v>
       </c>
     </row>
     <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
+      <c r="A5" s="25">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>6700000</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
         <f t="shared" si="1"/>
         <v>6700000</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
         <f t="shared" si="0"/>
         <v>8375000</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>7600000</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>420000</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <f t="shared" si="2"/>
         <v>480000</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3" t="s">
+      <c r="L5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="5">
+      <c r="O5" s="14"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="4">
         <v>44841</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="5">
         <v>44841</v>
       </c>
     </row>
     <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
+      <c r="A6" s="25">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>7150000</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
         <f t="shared" si="1"/>
         <v>7150000</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
         <f t="shared" si="0"/>
         <v>8937500</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>7500000</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4">
+      <c r="J6" s="3"/>
+      <c r="K6" s="3">
         <f t="shared" si="2"/>
         <v>350000</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3" t="s">
+      <c r="L6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="5">
+      <c r="O6" s="14"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="4">
         <v>44842</v>
       </c>
-      <c r="R6" s="3"/>
+      <c r="R6" s="2"/>
     </row>
     <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26">
+      <c r="A7" s="25">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>7500000</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
         <f t="shared" si="1"/>
         <v>7500000</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
         <f t="shared" si="0"/>
         <v>9375000</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>7500000</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>10000</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <f t="shared" si="2"/>
         <v>-10000</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3" t="s">
+      <c r="L7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="5">
+      <c r="O7" s="14"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="4">
         <v>44845</v>
       </c>
-      <c r="R7" s="3"/>
+      <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
+      <c r="A8" s="25">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>6700000</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
         <f t="shared" si="1"/>
         <v>6700000</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
         <f t="shared" si="0"/>
         <v>8375000</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>7350000</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>10000</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <f t="shared" si="2"/>
         <v>640000</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="5">
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="4">
         <v>44841</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="5">
         <v>44841</v>
       </c>
     </row>
     <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
+      <c r="A9" s="25">
         <v>8</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="B9" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3">
         <v>11500000</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
         <f t="shared" si="1"/>
         <v>11500000</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
         <f t="shared" si="0"/>
         <v>14375000</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>12000000</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4">
+      <c r="J9" s="3"/>
+      <c r="K9" s="3">
         <f t="shared" si="2"/>
         <v>500000</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="14"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="4">
+        <v>44876</v>
+      </c>
+      <c r="R9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O9" s="15"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="5">
-        <v>44876</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
+      <c r="A10" s="25">
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3">
         <v>6500000</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3">
         <f t="shared" si="1"/>
         <v>6500000</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
         <f t="shared" si="0"/>
         <v>8125000</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>7500000</v>
       </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4">
+      <c r="J10" s="3"/>
+      <c r="K10" s="3">
         <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="5">
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="4">
         <v>44883</v>
       </c>
-      <c r="R10" s="3"/>
+      <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
+      <c r="A11" s="25">
         <v>10</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="B11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="3">
         <v>6500000</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3">
         <f t="shared" si="1"/>
         <v>6500000</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3">
         <f t="shared" si="0"/>
         <v>8125000</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>6900000</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>100000</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3" t="s">
+      <c r="L11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="14"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="4">
+        <v>44883</v>
+      </c>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25">
+        <v>11</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="15"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="5">
-        <v>44883</v>
-      </c>
-      <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
-        <v>11</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>5000000</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3">
         <f t="shared" si="1"/>
         <v>5000000</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3">
         <f t="shared" si="0"/>
         <v>6250000</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>5800000</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>5000</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <f t="shared" si="2"/>
         <v>795000</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="5">
+      <c r="L12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="4">
         <v>44896</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12" s="5">
         <v>44841</v>
       </c>
     </row>
     <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26">
+      <c r="A13" s="25">
         <v>12</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="B13" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="3">
         <v>5500000</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3">
         <f t="shared" si="1"/>
         <v>5500000</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3">
         <f t="shared" si="0"/>
         <v>6875000</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>6300000</v>
       </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4">
+      <c r="J13" s="3"/>
+      <c r="K13" s="3">
         <f t="shared" si="2"/>
         <v>800000</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="5">
+      <c r="L13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="4">
         <v>44937</v>
       </c>
-      <c r="R13" s="5">
+      <c r="R13" s="4">
         <v>44938</v>
       </c>
     </row>
     <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
+      <c r="A14" s="25">
         <v>13</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="B14" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="3">
         <v>5500000</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3">
         <f t="shared" si="1"/>
         <v>5500000</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3">
         <f t="shared" si="0"/>
         <v>6875000</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>6600000</v>
       </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4">
+      <c r="J14" s="3"/>
+      <c r="K14" s="3">
         <f t="shared" si="2"/>
         <v>1100000</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="5">
+      <c r="L14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="4">
         <v>44938</v>
       </c>
-      <c r="R14" s="5">
+      <c r="R14" s="4">
         <v>44939</v>
       </c>
     </row>
     <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26">
+      <c r="A15" s="25">
         <v>14</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="4">
+      <c r="B15" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="3">
         <v>5700000</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3">
         <f t="shared" si="1"/>
         <v>5700000</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3">
         <f t="shared" si="0"/>
         <v>7125000</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>6200000</v>
       </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4">
+      <c r="J15" s="3"/>
+      <c r="K15" s="3">
         <f t="shared" si="2"/>
         <v>500000</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="5">
+      <c r="L15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="4">
         <v>44957</v>
       </c>
-      <c r="R15" s="5">
+      <c r="R15" s="4">
         <v>44957</v>
       </c>
     </row>
     <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26">
+      <c r="A16" s="25">
         <v>15</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="4">
+      <c r="B16" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="3">
         <v>8000000</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3">
         <f t="shared" si="1"/>
         <v>8000000</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
         <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>10500000</v>
       </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4">
+      <c r="J16" s="3"/>
+      <c r="K16" s="3">
         <f t="shared" si="2"/>
         <v>2500000</v>
       </c>
-      <c r="L16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="3"/>
+      <c r="L16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="2"/>
     </row>
     <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26">
+      <c r="A17" s="25">
         <v>16</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="4">
+      <c r="B17" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="3">
         <v>9693017</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>1142570</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3">
         <f t="shared" si="1"/>
         <v>10835587</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
         <f t="shared" si="0"/>
         <v>13544483.75</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>14000000</v>
       </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4">
+      <c r="J17" s="3"/>
+      <c r="K17" s="3">
         <f t="shared" si="2"/>
         <v>3164413</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="3"/>
+      <c r="L17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="2"/>
     </row>
     <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26">
+      <c r="A18" s="25">
         <v>17</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="B18" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="3">
         <v>5000000</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3">
         <f t="shared" si="1"/>
         <v>5000000</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
         <f t="shared" ref="H18" si="3">(F18*25%)+F18</f>
         <v>6250000</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>5500000</v>
       </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4">
-        <f t="shared" ref="K18:K70" si="4">I18-J18-F18</f>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3">
+        <f t="shared" ref="K18:K71" si="4">I18-J18-F18</f>
         <v>500000</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O18" s="15"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="3" t="s">
+      <c r="L18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="O18" s="14"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26">
+      <c r="A19" s="25">
         <v>18</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="4">
+      <c r="B19" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="3">
         <v>4500000</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3">
         <f t="shared" si="1"/>
         <v>4500000</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4">
+      <c r="G19" s="3"/>
+      <c r="H19" s="3">
         <f t="shared" ref="H19" si="5">(F19*25%)+F19</f>
         <v>5625000</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <v>5500000</v>
       </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4">
+      <c r="J19" s="3"/>
+      <c r="K19" s="3">
         <f t="shared" si="4"/>
         <v>1000000</v>
       </c>
-      <c r="L19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N19" s="3"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="3" t="s">
-        <v>53</v>
+      <c r="L19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26">
+      <c r="A20" s="25">
         <v>19</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="13">
+      <c r="B20" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="12">
         <v>6794437</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="12">
         <v>1189453</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="4">
+      <c r="E20" s="12"/>
+      <c r="F20" s="3">
         <f t="shared" si="1"/>
         <v>7983890</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="13">
+      <c r="G20" s="3"/>
+      <c r="H20" s="12">
         <f t="shared" ref="H20:H43" si="6">(F20*25%)+F20</f>
         <v>9979862.5</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="12">
         <v>9500000</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="12">
         <v>50000</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="3">
         <f t="shared" si="4"/>
         <v>1466110</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="O20" s="16"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="5">
+      <c r="L20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O20" s="15"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="4">
         <v>45019</v>
       </c>
     </row>
     <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26">
+      <c r="A21" s="25">
         <v>20</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="4">
+      <c r="B21" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="3">
         <v>7839722</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>1109083</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>300000</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <f t="shared" si="1"/>
         <v>9248805</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4">
+      <c r="G21" s="3"/>
+      <c r="H21" s="3">
         <f t="shared" si="6"/>
         <v>11561006.25</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>12000000</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3">
         <v>1500000</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <f t="shared" si="4"/>
         <v>1251195</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="O21" s="15"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="5">
+      <c r="L21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O21" s="14"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="4">
         <v>45049</v>
       </c>
-      <c r="R21" s="5">
+      <c r="R21" s="4">
         <v>45017</v>
       </c>
     </row>
     <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26">
+      <c r="A22" s="25">
         <v>21</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="4">
+      <c r="B22" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="3">
         <v>9561005</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>1000000</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3">
         <f t="shared" si="1"/>
         <v>10561005</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4">
+      <c r="G22" s="3"/>
+      <c r="H22" s="3">
         <f t="shared" si="6"/>
         <v>13201256.25</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>12000000</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="3">
         <v>900000</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="3">
         <f t="shared" si="4"/>
         <v>538995</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q22" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="R22" s="5">
+      <c r="L22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="R22" s="4">
         <v>45016</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32">
+    <row r="23" spans="1:19" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="31">
         <v>22</v>
       </c>
-      <c r="B23" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="34">
+      <c r="B23" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="33">
         <f>5182073+150000</f>
         <v>5332073</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="33">
         <v>1375000</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="33">
         <v>-1000000</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="33">
         <f>C23+D23+E23</f>
         <v>5707073</v>
       </c>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34">
+      <c r="G23" s="33"/>
+      <c r="H23" s="33">
         <f>(F23*25%)+F23</f>
         <v>7133841.25</v>
       </c>
-      <c r="I23" s="34">
+      <c r="I23" s="33">
         <v>8200000</v>
       </c>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34">
+      <c r="J23" s="33"/>
+      <c r="K23" s="33">
         <f t="shared" si="4"/>
         <v>2492927</v>
       </c>
-      <c r="L23" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="O23" s="40" t="s">
+      <c r="L23" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="O23" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="P23" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="P23" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q23" s="37">
+      <c r="Q23" s="36">
         <v>45010</v>
       </c>
-      <c r="R23" s="35"/>
-    </row>
-    <row r="24" spans="1:19" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="32">
+      <c r="R23" s="34"/>
+    </row>
+    <row r="24" spans="1:19" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="31">
         <v>23</v>
       </c>
-      <c r="B24" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="34">
+      <c r="B24" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="33">
         <v>3281172</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="33">
         <v>1075000</v>
       </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34">
+      <c r="E24" s="33"/>
+      <c r="F24" s="33">
         <f t="shared" si="1"/>
         <v>4356172</v>
       </c>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34">
+      <c r="G24" s="33"/>
+      <c r="H24" s="33">
         <f t="shared" si="6"/>
         <v>5445215</v>
       </c>
-      <c r="I24" s="34">
+      <c r="I24" s="33">
         <v>6400000</v>
       </c>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34">
+      <c r="J24" s="33"/>
+      <c r="K24" s="33">
         <f t="shared" si="4"/>
         <v>2043828</v>
       </c>
-      <c r="L24" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="P24" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q24" s="37">
+      <c r="L24" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="P24" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q24" s="36">
         <v>45011</v>
       </c>
-      <c r="R24" s="35"/>
-    </row>
-    <row r="25" spans="1:19" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="32">
+      <c r="R24" s="34"/>
+    </row>
+    <row r="25" spans="1:19" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="31">
         <v>24</v>
       </c>
-      <c r="B25" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="34">
+      <c r="B25" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="33">
         <v>4493148</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="33">
         <v>1075000</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E25" s="33">
         <v>490000</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25" s="33">
         <f t="shared" si="1"/>
         <v>6058148</v>
       </c>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34">
+      <c r="G25" s="33"/>
+      <c r="H25" s="33">
         <f t="shared" si="6"/>
         <v>7572685</v>
       </c>
-      <c r="I25" s="34">
+      <c r="I25" s="33">
         <v>8000000</v>
       </c>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34">
+      <c r="J25" s="33"/>
+      <c r="K25" s="33">
         <f t="shared" si="4"/>
         <v>1941852</v>
       </c>
-      <c r="L25" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="O25" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="P25" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q25" s="37">
+      <c r="L25" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="O25" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="P25" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q25" s="36">
         <v>45012</v>
       </c>
-      <c r="R25" s="35"/>
-    </row>
-    <row r="26" spans="1:19" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="32">
+      <c r="R25" s="34"/>
+    </row>
+    <row r="26" spans="1:19" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="31">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="41">
+        <v>64</v>
+      </c>
+      <c r="C26" s="40">
         <v>3801801</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26" s="33">
         <v>1075000</v>
       </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34">
+      <c r="E26" s="33"/>
+      <c r="F26" s="33">
         <f t="shared" si="1"/>
         <v>4876801</v>
       </c>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34">
+      <c r="G26" s="33"/>
+      <c r="H26" s="33">
         <f t="shared" si="6"/>
         <v>6096001.25</v>
       </c>
-      <c r="I26" s="34">
+      <c r="I26" s="33">
         <v>7950000</v>
       </c>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34">
+      <c r="J26" s="33"/>
+      <c r="K26" s="33">
         <f t="shared" si="4"/>
         <v>3073199</v>
       </c>
-      <c r="L26" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="36" t="s">
+      <c r="L26" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="P26" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q26" s="36">
+        <v>45017</v>
+      </c>
+      <c r="R26" s="34"/>
+    </row>
+    <row r="27" spans="1:19" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="31">
+        <v>26</v>
+      </c>
+      <c r="B27" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="P26" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q26" s="37">
-        <v>45017</v>
-      </c>
-      <c r="R26" s="35"/>
-    </row>
-    <row r="27" spans="1:19" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="32">
-        <v>26</v>
-      </c>
-      <c r="B27" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="70">
+      <c r="C27" s="62">
         <v>6537888</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D27" s="33">
         <v>1050000</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="33">
         <v>200000</v>
       </c>
-      <c r="F27" s="34">
+      <c r="F27" s="33">
         <f t="shared" si="1"/>
         <v>7787888</v>
       </c>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34">
+      <c r="G27" s="33"/>
+      <c r="H27" s="33">
         <f t="shared" si="6"/>
         <v>9734860</v>
       </c>
-      <c r="I27" s="34">
+      <c r="I27" s="33">
         <v>9500000</v>
       </c>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34">
+      <c r="J27" s="33"/>
+      <c r="K27" s="33">
         <f t="shared" si="4"/>
         <v>1712112</v>
       </c>
-      <c r="L27" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35" t="s">
+      <c r="L27" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="O27" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="P27" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q27" s="72">
+      <c r="M27" s="34"/>
+      <c r="N27" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="O27" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="P27" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q27" s="64">
         <v>45015</v>
       </c>
-      <c r="R27" s="35"/>
-    </row>
-    <row r="28" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="63">
+      <c r="R27" s="34"/>
+    </row>
+    <row r="28" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="55">
         <v>27</v>
       </c>
-      <c r="B28" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="43">
+      <c r="B28" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="42">
         <v>7887859</v>
       </c>
-      <c r="D28" s="44">
+      <c r="D28" s="43">
         <v>850000</v>
       </c>
-      <c r="E28" s="44">
+      <c r="E28" s="43">
         <v>350000</v>
       </c>
-      <c r="F28" s="44">
+      <c r="F28" s="43">
         <f t="shared" si="1"/>
         <v>9087859</v>
       </c>
-      <c r="G28" s="44">
+      <c r="G28" s="43">
         <f t="shared" ref="G28:G66" si="7">(F28*20%)+F28</f>
         <v>10905430.800000001</v>
       </c>
-      <c r="H28" s="44">
+      <c r="H28" s="43">
         <f t="shared" si="6"/>
         <v>11359823.75</v>
       </c>
-      <c r="I28" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44" t="e">
+      <c r="I28" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="O28" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="P28" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q28" s="47">
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="O28" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="P28" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q28" s="46">
         <v>45016</v>
       </c>
-      <c r="R28" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="S28" s="66"/>
-    </row>
-    <row r="29" spans="1:19" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="63">
+      <c r="R28" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="S28" s="58"/>
+    </row>
+    <row r="29" spans="1:19" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="55">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="34">
+        <v>71</v>
+      </c>
+      <c r="C29" s="33">
         <v>4850950</v>
       </c>
-      <c r="D29" s="34">
+      <c r="D29" s="33">
         <v>1000000</v>
       </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34">
+      <c r="E29" s="33"/>
+      <c r="F29" s="33">
         <f t="shared" si="1"/>
         <v>5850950</v>
       </c>
-      <c r="G29" s="44">
+      <c r="G29" s="43">
         <f t="shared" si="7"/>
         <v>7021140</v>
       </c>
-      <c r="H29" s="34">
+      <c r="H29" s="33">
         <f t="shared" si="6"/>
         <v>7313687.5</v>
       </c>
-      <c r="I29" s="34">
+      <c r="I29" s="33">
         <v>8500000</v>
       </c>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34">
+      <c r="J29" s="33"/>
+      <c r="K29" s="33">
         <f t="shared" si="4"/>
         <v>2649050</v>
       </c>
-      <c r="L29" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="O29" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="P29" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q29" s="37">
+      <c r="L29" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="O29" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="P29" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q29" s="36">
         <v>45019</v>
       </c>
-      <c r="S29" s="66"/>
-    </row>
-    <row r="30" spans="1:19" s="50" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="64">
+      <c r="S29" s="58"/>
+    </row>
+    <row r="30" spans="1:19" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="56">
         <v>29</v>
       </c>
-      <c r="B30" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="49">
+      <c r="B30" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="48">
         <v>8317935</v>
       </c>
-      <c r="D30" s="49">
+      <c r="D30" s="48">
         <v>850000</v>
       </c>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49">
+      <c r="E30" s="48"/>
+      <c r="F30" s="48">
         <f t="shared" si="1"/>
         <v>9167935</v>
       </c>
-      <c r="G30" s="44">
+      <c r="G30" s="43">
         <f t="shared" si="7"/>
         <v>11001522</v>
       </c>
-      <c r="H30" s="49">
+      <c r="H30" s="48">
         <f t="shared" si="6"/>
         <v>11459918.75</v>
       </c>
-      <c r="I30" s="49">
+      <c r="I30" s="48">
         <v>9000000</v>
       </c>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49">
+      <c r="J30" s="48"/>
+      <c r="K30" s="48">
         <f t="shared" si="4"/>
         <v>-167935</v>
       </c>
-      <c r="L30" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="O30" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="P30" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q30" s="52">
+      <c r="L30" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="O30" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="P30" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q30" s="51">
         <v>45020</v>
       </c>
-      <c r="S30" s="67"/>
-    </row>
-    <row r="31" spans="1:19" s="35" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="63">
+      <c r="S30" s="59"/>
+    </row>
+    <row r="31" spans="1:19" s="34" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="55">
         <v>30</v>
       </c>
-      <c r="B31" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="34">
+      <c r="B31" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="33">
         <v>4258422</v>
       </c>
-      <c r="D31" s="34">
+      <c r="D31" s="33">
         <v>1064000</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E31" s="33">
         <v>-1000000</v>
       </c>
-      <c r="F31" s="34">
+      <c r="F31" s="33">
         <f t="shared" si="1"/>
         <v>4322422</v>
       </c>
-      <c r="G31" s="44">
+      <c r="G31" s="43">
         <f t="shared" si="7"/>
         <v>5186906.4000000004</v>
       </c>
-      <c r="H31" s="34">
+      <c r="H31" s="33">
         <f t="shared" si="6"/>
         <v>5403027.5</v>
       </c>
-      <c r="I31" s="34">
+      <c r="I31" s="33">
         <v>5500000</v>
       </c>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34">
+      <c r="J31" s="33"/>
+      <c r="K31" s="33">
         <f t="shared" si="4"/>
         <v>1177578</v>
       </c>
-      <c r="L31" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="O31" s="36" t="s">
+      <c r="L31" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="O31" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="P31" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q31" s="36">
+        <v>45021</v>
+      </c>
+      <c r="S31" s="58"/>
+    </row>
+    <row r="32" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="57">
+        <v>31</v>
+      </c>
+      <c r="B32" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="P31" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q31" s="37">
-        <v>45021</v>
-      </c>
-      <c r="S31" s="66"/>
-    </row>
-    <row r="32" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="65">
-        <v>31</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>6651048</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>833000</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <v>300000</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="3">
         <f t="shared" si="1"/>
         <v>7784048</v>
       </c>
-      <c r="G32" s="44">
+      <c r="G32" s="43">
         <f t="shared" si="7"/>
         <v>9340857.5999999996</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="3">
         <f t="shared" si="6"/>
         <v>9730060</v>
       </c>
-      <c r="I32" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4" t="e">
+      <c r="I32" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O32" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q32" s="5">
+      <c r="O32" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q32" s="4">
         <v>45022</v>
       </c>
-      <c r="S32" s="68"/>
-    </row>
-    <row r="33" spans="1:19" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="65">
+      <c r="S32" s="60"/>
+    </row>
+    <row r="33" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="57">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="4">
+        <v>79</v>
+      </c>
+      <c r="C33" s="3">
         <v>3558942</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>2000000</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4">
+      <c r="E33" s="3"/>
+      <c r="F33" s="3">
         <f t="shared" si="1"/>
         <v>5558942</v>
       </c>
-      <c r="G33" s="44">
+      <c r="G33" s="43">
         <f t="shared" si="7"/>
         <v>6670730.4000000004</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="3">
         <f t="shared" si="6"/>
         <v>6948677.5</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="3">
         <v>6000000</v>
       </c>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4">
+      <c r="J33" s="3"/>
+      <c r="K33" s="3">
         <f t="shared" si="4"/>
         <v>441058</v>
       </c>
-      <c r="O33" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="P33" s="3" t="s">
+      <c r="O33" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="Q33" s="5">
+      <c r="P33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q33" s="4">
         <v>45022</v>
       </c>
-      <c r="S33" s="68"/>
-    </row>
-    <row r="34" spans="1:19" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="65">
+      <c r="S33" s="60"/>
+    </row>
+    <row r="34" spans="1:19" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="57">
         <v>33</v>
       </c>
-      <c r="B34" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="4">
+      <c r="B34" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="3">
         <v>9299103</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <v>850000</v>
       </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4">
+      <c r="E34" s="3"/>
+      <c r="F34" s="3">
         <f t="shared" si="1"/>
         <v>10149103</v>
       </c>
-      <c r="G34" s="44">
+      <c r="G34" s="43">
         <f t="shared" si="7"/>
         <v>12178923.6</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="3">
         <f t="shared" si="6"/>
         <v>12686378.75</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="3">
         <v>11000000</v>
       </c>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4">
+      <c r="J34" s="3"/>
+      <c r="K34" s="3">
         <f t="shared" si="4"/>
         <v>850897</v>
       </c>
-      <c r="O34" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="P34" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q34" s="5">
+      <c r="O34" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q34" s="4">
         <v>45027</v>
       </c>
-      <c r="S34" s="68"/>
-    </row>
-    <row r="35" spans="1:19" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="65">
+      <c r="S34" s="60"/>
+    </row>
+    <row r="35" spans="1:19" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="57">
         <v>34</v>
       </c>
-      <c r="B35" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" s="4">
+      <c r="B35" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="3">
         <v>7849892</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <v>1100000</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4">
+      <c r="E35" s="3"/>
+      <c r="F35" s="3">
         <f t="shared" si="1"/>
         <v>8949892</v>
       </c>
-      <c r="G35" s="44">
+      <c r="G35" s="43">
         <f t="shared" si="7"/>
         <v>10739870.4</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="3">
         <f t="shared" si="6"/>
         <v>11187365</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="3">
         <v>9000000</v>
       </c>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4">
+      <c r="J35" s="3"/>
+      <c r="K35" s="3">
         <f t="shared" si="4"/>
         <v>50108</v>
       </c>
-      <c r="O35" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q35" s="5">
+      <c r="O35" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q35" s="4">
         <v>45027</v>
       </c>
-      <c r="S35" s="68"/>
-    </row>
-    <row r="36" spans="1:19" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="65">
+      <c r="S35" s="60"/>
+    </row>
+    <row r="36" spans="1:19" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="57">
         <v>35</v>
       </c>
-      <c r="B36" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="4">
+      <c r="B36" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="3">
         <v>3972000</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <v>850000</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4">
+      <c r="E36" s="3"/>
+      <c r="F36" s="3">
         <f t="shared" si="1"/>
         <v>4822000</v>
       </c>
-      <c r="G36" s="44">
+      <c r="G36" s="43">
         <f t="shared" si="7"/>
         <v>5786400</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="3">
         <f t="shared" si="6"/>
         <v>6027500</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="3">
         <v>7000000</v>
       </c>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4">
+      <c r="J36" s="3"/>
+      <c r="K36" s="3">
         <f t="shared" si="4"/>
         <v>2178000</v>
       </c>
-      <c r="L36" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="O36" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q36" s="5"/>
-      <c r="S36" s="68"/>
-    </row>
-    <row r="37" spans="1:19" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="65">
+      <c r="L36" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="O36" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q36" s="4"/>
+      <c r="S36" s="60"/>
+    </row>
+    <row r="37" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="57">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="4">
+        <v>92</v>
+      </c>
+      <c r="C37" s="3">
         <v>8467000</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="3">
         <v>850000</v>
       </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4">
+      <c r="E37" s="3"/>
+      <c r="F37" s="3">
         <f t="shared" si="1"/>
         <v>9317000</v>
       </c>
-      <c r="G37" s="44">
+      <c r="G37" s="43">
         <f t="shared" si="7"/>
         <v>11180400</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="3">
         <f t="shared" si="6"/>
         <v>11646250</v>
       </c>
-      <c r="I37" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4" t="e">
+      <c r="I37" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O37" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q37" s="5"/>
-      <c r="S37" s="68"/>
-    </row>
-    <row r="38" spans="1:19" s="19" customFormat="1" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="65">
+      <c r="O37" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q37" s="4"/>
+      <c r="S37" s="60"/>
+    </row>
+    <row r="38" spans="1:19" s="18" customFormat="1" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="57">
         <v>37</v>
       </c>
-      <c r="B38" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" s="30">
+      <c r="B38" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="29">
         <v>3178000</v>
       </c>
-      <c r="D38" s="30">
+      <c r="D38" s="29">
         <v>1370000</v>
       </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30">
+      <c r="E38" s="29"/>
+      <c r="F38" s="29">
         <f t="shared" si="1"/>
         <v>4548000</v>
       </c>
-      <c r="G38" s="44">
+      <c r="G38" s="43">
         <f t="shared" si="7"/>
         <v>5457600</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="3">
         <f>(F38*25%)+F38</f>
         <v>5685000</v>
       </c>
-      <c r="I38" s="30">
+      <c r="I38" s="29">
         <v>5800000</v>
       </c>
-      <c r="J38" s="30"/>
-      <c r="K38" s="4">
+      <c r="J38" s="29"/>
+      <c r="K38" s="3">
         <f t="shared" si="4"/>
         <v>1252000</v>
       </c>
-      <c r="O38" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q38" s="31"/>
-      <c r="S38" s="69"/>
-    </row>
-    <row r="39" spans="1:19" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="65">
+      <c r="O38" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q38" s="30"/>
+      <c r="S38" s="61"/>
+    </row>
+    <row r="39" spans="1:19" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="57">
         <v>38</v>
       </c>
-      <c r="B39" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="C39" s="29">
+      <c r="B39" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="28">
         <v>4560000</v>
       </c>
-      <c r="D39" s="30">
+      <c r="D39" s="29">
         <v>850000</v>
       </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4">
+      <c r="E39" s="3"/>
+      <c r="F39" s="3">
         <f t="shared" si="1"/>
         <v>5410000</v>
       </c>
-      <c r="G39" s="44">
+      <c r="G39" s="43">
         <f t="shared" si="7"/>
         <v>6492000</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="3">
         <f t="shared" si="6"/>
         <v>6762500</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="3">
         <v>7000000</v>
       </c>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4">
+      <c r="J39" s="3"/>
+      <c r="K39" s="3">
         <f t="shared" si="4"/>
         <v>1590000</v>
       </c>
-      <c r="L39" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="O39" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q39" s="24">
+      <c r="L39" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="O39" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q39" s="23">
         <v>45265</v>
       </c>
-      <c r="S39" s="68"/>
-    </row>
-    <row r="40" spans="1:19" s="3" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="65">
+      <c r="S39" s="60"/>
+    </row>
+    <row r="40" spans="1:19" s="2" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="57">
         <v>39</v>
       </c>
-      <c r="B40" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="C40" s="4">
+      <c r="B40" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="3">
         <v>6156000</v>
       </c>
-      <c r="D40" s="30">
+      <c r="D40" s="29">
         <v>850000</v>
       </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4">
+      <c r="E40" s="3"/>
+      <c r="F40" s="3">
         <f t="shared" si="1"/>
         <v>7006000</v>
       </c>
-      <c r="G40" s="44">
+      <c r="G40" s="43">
         <f t="shared" si="7"/>
         <v>8407200</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="3">
         <f t="shared" si="6"/>
         <v>8757500</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40" s="3">
         <v>8500000</v>
       </c>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4">
+      <c r="J40" s="3"/>
+      <c r="K40" s="3">
         <f t="shared" si="4"/>
         <v>1494000</v>
       </c>
-      <c r="O40" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q40" s="5"/>
-      <c r="S40" s="68"/>
-    </row>
-    <row r="41" spans="1:19" s="3" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="65">
+      <c r="O40" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q40" s="4"/>
+      <c r="S40" s="60"/>
+    </row>
+    <row r="41" spans="1:19" s="2" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="57">
         <v>40</v>
       </c>
-      <c r="B41" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="C41" s="4">
+      <c r="B41" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="3">
         <v>4126000</v>
       </c>
-      <c r="D41" s="30">
+      <c r="D41" s="29">
         <v>1450000</v>
       </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4">
+      <c r="E41" s="3"/>
+      <c r="F41" s="3">
         <f t="shared" si="1"/>
         <v>5576000</v>
       </c>
-      <c r="G41" s="44">
+      <c r="G41" s="43">
         <f t="shared" si="7"/>
         <v>6691200</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="3">
         <f t="shared" si="6"/>
         <v>6970000</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I41" s="3">
         <v>7500000</v>
       </c>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4">
+      <c r="J41" s="3"/>
+      <c r="K41" s="3">
         <f t="shared" si="4"/>
         <v>1924000</v>
       </c>
-      <c r="O41" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q41" s="5"/>
-      <c r="S41" s="68"/>
-    </row>
-    <row r="42" spans="1:19" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="65">
+      <c r="O41" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q41" s="4"/>
+      <c r="S41" s="60"/>
+    </row>
+    <row r="42" spans="1:19" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="57">
         <v>41</v>
       </c>
-      <c r="B42" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" s="29">
+      <c r="B42" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="28">
         <v>3192000</v>
       </c>
-      <c r="D42" s="30">
+      <c r="D42" s="29">
         <v>850000</v>
       </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4">
+      <c r="E42" s="3"/>
+      <c r="F42" s="3">
         <f t="shared" si="1"/>
         <v>4042000</v>
       </c>
-      <c r="G42" s="44">
+      <c r="G42" s="43">
         <f t="shared" si="7"/>
         <v>4850400</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" s="3">
         <f t="shared" si="6"/>
         <v>5052500</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I42" s="3">
         <v>5500000</v>
       </c>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4">
+      <c r="J42" s="3"/>
+      <c r="K42" s="3">
         <f t="shared" si="4"/>
         <v>1458000</v>
       </c>
-      <c r="O42" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q42" s="24"/>
-      <c r="S42" s="68"/>
-    </row>
-    <row r="43" spans="1:19" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="65">
+      <c r="O42" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q42" s="23"/>
+      <c r="S42" s="60"/>
+    </row>
+    <row r="43" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="57">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
-      </c>
-      <c r="C43" s="29">
+        <v>110</v>
+      </c>
+      <c r="C43" s="28">
         <v>6065000</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="3">
         <v>850000</v>
       </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4">
+      <c r="E43" s="3"/>
+      <c r="F43" s="3">
         <f t="shared" si="1"/>
         <v>6915000</v>
       </c>
-      <c r="G43" s="44">
+      <c r="G43" s="43">
         <f t="shared" si="7"/>
         <v>8298000</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="3">
         <f t="shared" si="6"/>
         <v>8643750</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I43" s="3">
         <v>8500000</v>
       </c>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4">
+      <c r="J43" s="3"/>
+      <c r="K43" s="3">
         <f t="shared" si="4"/>
         <v>1585000</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="O43" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q43" s="24"/>
-      <c r="S43" s="68"/>
-    </row>
-    <row r="44" spans="1:19" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="65">
+      <c r="L43" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="O43" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q43" s="23"/>
+      <c r="S43" s="60"/>
+    </row>
+    <row r="44" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="57">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>116</v>
-      </c>
-      <c r="C44" s="29">
+        <v>115</v>
+      </c>
+      <c r="C44" s="28">
         <v>3268000</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="3">
         <v>850000</v>
       </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4">
+      <c r="E44" s="3"/>
+      <c r="F44" s="3">
         <f>C44+D44+E44</f>
         <v>4118000</v>
       </c>
-      <c r="G44" s="44">
+      <c r="G44" s="43">
         <f t="shared" si="7"/>
         <v>4941600</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="3">
         <f>(F44*25%)+F44</f>
         <v>5147500</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I44" s="3">
         <v>4700000</v>
       </c>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4">
+      <c r="J44" s="3"/>
+      <c r="K44" s="3">
         <f t="shared" si="4"/>
         <v>582000</v>
       </c>
-      <c r="O44" s="73" t="s">
-        <v>117</v>
-      </c>
-      <c r="P44" s="24"/>
-      <c r="S44" s="68"/>
+      <c r="O44" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="P44" s="23"/>
+      <c r="S44" s="60"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="65">
+      <c r="A45" s="57">
         <v>44</v>
       </c>
-      <c r="B45" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="C45" s="29">
+      <c r="B45" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" s="28">
         <v>3223000</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="3">
         <v>644000</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="3">
         <v>800000</v>
       </c>
-      <c r="F45" s="4">
-        <f t="shared" ref="F45:F69" si="8">C45+D45+E45</f>
+      <c r="F45" s="3">
+        <f t="shared" ref="F45:F71" si="8">C45+D45+E45</f>
         <v>4667000</v>
       </c>
-      <c r="G45" s="44">
+      <c r="G45" s="43">
         <f t="shared" si="7"/>
         <v>5600400</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="3">
         <f t="shared" ref="H45:H66" si="9">(F45*25%)+F45</f>
         <v>5833750</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I45" s="3">
         <v>7500000</v>
       </c>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4">
+      <c r="J45" s="3"/>
+      <c r="K45" s="3">
         <f t="shared" si="4"/>
         <v>2833000</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="73" t="s">
-        <v>147</v>
-      </c>
-      <c r="P45" s="24"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
+      <c r="L45" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="65">
+      <c r="A46" s="57">
         <v>45</v>
       </c>
-      <c r="B46" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="C46" s="29">
+      <c r="B46" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" s="28">
         <v>3632000</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="3">
         <v>896000</v>
       </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4">
+      <c r="E46" s="3"/>
+      <c r="F46" s="3">
         <f t="shared" si="8"/>
         <v>4528000</v>
       </c>
-      <c r="G46" s="44">
+      <c r="G46" s="43">
         <f t="shared" si="7"/>
         <v>5433600</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="3">
         <f t="shared" si="9"/>
         <v>5660000</v>
       </c>
-      <c r="I46" s="4">
+      <c r="I46" s="3">
         <v>5800000</v>
       </c>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4">
+      <c r="J46" s="3"/>
+      <c r="K46" s="3">
         <f t="shared" si="4"/>
         <v>1272000</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="73" t="s">
-        <v>149</v>
-      </c>
-      <c r="P46" s="24"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
+      <c r="L46" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="P46" s="23"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="65">
+      <c r="A47" s="57">
         <v>46</v>
       </c>
-      <c r="B47" s="53" t="s">
-        <v>150</v>
-      </c>
-      <c r="C47" s="29">
+      <c r="B47" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="28">
         <v>3813000</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="3">
         <v>842000</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="3">
         <v>450000</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="3">
         <f t="shared" si="8"/>
         <v>5105000</v>
       </c>
-      <c r="G47" s="44">
+      <c r="G47" s="43">
         <f t="shared" si="7"/>
         <v>6126000</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="3">
         <f t="shared" si="9"/>
         <v>6381250</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I47" s="3">
         <v>6000000</v>
       </c>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4">
+      <c r="J47" s="3"/>
+      <c r="K47" s="3">
         <f t="shared" si="4"/>
         <v>895000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="73" t="s">
-        <v>151</v>
-      </c>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
+      <c r="L47" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="P47" s="23"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
     </row>
     <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="65">
+      <c r="A48" s="57">
         <v>47</v>
       </c>
-      <c r="B48" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="C48" s="29">
+      <c r="B48" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" s="28">
         <v>6219000</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="3">
         <v>842000</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="3">
         <v>150000</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="3">
         <f t="shared" si="8"/>
         <v>7211000</v>
       </c>
-      <c r="G48" s="44">
+      <c r="G48" s="43">
         <f t="shared" si="7"/>
         <v>8653200</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48" s="3">
         <f t="shared" si="9"/>
         <v>9013750</v>
       </c>
-      <c r="I48" s="4">
+      <c r="I48" s="3">
         <v>8400000</v>
       </c>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4">
+      <c r="J48" s="3"/>
+      <c r="K48" s="3">
         <f t="shared" si="4"/>
         <v>1189000</v>
       </c>
-      <c r="L48" s="3" t="s">
+      <c r="L48" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="73" t="s">
-        <v>153</v>
-      </c>
-      <c r="P48" s="24"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="P48" s="23"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="65">
+      <c r="A49" s="57">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>154</v>
-      </c>
-      <c r="C49" s="29">
+        <v>134</v>
+      </c>
+      <c r="C49" s="28">
         <v>4149000</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="3">
         <v>821000</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="3">
         <v>300000</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="3">
         <f t="shared" si="8"/>
         <v>5270000</v>
       </c>
-      <c r="G49" s="44">
+      <c r="G49" s="43">
         <f t="shared" si="7"/>
         <v>6324000</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="3">
         <f t="shared" si="9"/>
         <v>6587500</v>
       </c>
-      <c r="I49" s="4">
+      <c r="I49" s="3">
         <v>6200000</v>
       </c>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4">
+      <c r="J49" s="3"/>
+      <c r="K49" s="3">
         <f t="shared" si="4"/>
         <v>930000</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
+      <c r="L49" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="P49" s="23"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="65">
+      <c r="A50" s="57">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>156</v>
-      </c>
-      <c r="C50" s="29">
+        <v>136</v>
+      </c>
+      <c r="C50" s="28">
         <v>3648000</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="3">
         <v>883000</v>
       </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4">
+      <c r="E50" s="3"/>
+      <c r="F50" s="3">
         <f t="shared" si="8"/>
         <v>4531000</v>
       </c>
-      <c r="G50" s="44">
+      <c r="G50" s="43">
         <f t="shared" si="7"/>
         <v>5437200</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="3">
         <f t="shared" si="9"/>
         <v>5663750</v>
       </c>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4">
-        <f t="shared" si="4"/>
-        <v>-4531000</v>
-      </c>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="24"/>
-      <c r="R50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="23"/>
+      <c r="R50" s="2"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="65">
+      <c r="A51" s="57">
         <v>50</v>
       </c>
-      <c r="B51" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="C51" s="29">
+      <c r="B51" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" s="28">
         <v>4560000</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="3">
         <v>698500</v>
       </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4">
+      <c r="E51" s="3"/>
+      <c r="F51" s="3">
         <f t="shared" si="8"/>
         <v>5258500</v>
       </c>
-      <c r="G51" s="44">
+      <c r="G51" s="43">
         <f t="shared" si="7"/>
         <v>6310200</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="3">
         <f t="shared" si="9"/>
         <v>6573125</v>
       </c>
-      <c r="I51" s="4">
+      <c r="I51" s="3">
         <v>7600000</v>
       </c>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4">
+      <c r="J51" s="3"/>
+      <c r="K51" s="3">
         <f t="shared" si="4"/>
         <v>2341500</v>
       </c>
-      <c r="L51" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="24"/>
-      <c r="R51" s="3"/>
+      <c r="L51" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="2"/>
     </row>
     <row r="52" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="65">
+      <c r="A52" s="57">
         <v>51</v>
       </c>
-      <c r="B52" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="C52" s="29">
+      <c r="B52" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" s="28">
         <v>4560000</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="3">
         <v>985000</v>
       </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4">
+      <c r="E52" s="3"/>
+      <c r="F52" s="3">
         <f t="shared" si="8"/>
         <v>5545000</v>
       </c>
-      <c r="G52" s="44">
+      <c r="G52" s="43">
         <f t="shared" si="7"/>
         <v>6654000</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="3">
         <f t="shared" si="9"/>
         <v>6931250</v>
       </c>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4">
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3">
         <f t="shared" si="4"/>
         <v>-5545000</v>
       </c>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="24"/>
-      <c r="R52" s="3"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="23"/>
+      <c r="R52" s="2"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="65">
+      <c r="A53" s="57">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>162</v>
-      </c>
-      <c r="C53" s="29">
+        <v>142</v>
+      </c>
+      <c r="C53" s="28">
         <v>3192000</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="3">
         <v>903000</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="3">
         <v>200000</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="3">
         <f t="shared" si="8"/>
         <v>4295000</v>
       </c>
-      <c r="G53" s="44">
+      <c r="G53" s="43">
         <f t="shared" si="7"/>
         <v>5154000</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="3">
         <f t="shared" si="9"/>
         <v>5368750</v>
       </c>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4">
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3">
         <f t="shared" si="4"/>
         <v>-4295000</v>
       </c>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="24"/>
-      <c r="R53" s="3"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="23"/>
+      <c r="R53" s="2"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="65">
+      <c r="A54" s="57">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>164</v>
-      </c>
-      <c r="C54" s="29">
+        <v>144</v>
+      </c>
+      <c r="C54" s="28">
         <v>4149000</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="3">
         <v>739000</v>
       </c>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4">
+      <c r="E54" s="3"/>
+      <c r="F54" s="3">
         <f t="shared" si="8"/>
         <v>4888000</v>
       </c>
-      <c r="G54" s="44">
+      <c r="G54" s="43">
         <f t="shared" si="7"/>
         <v>5865600</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H54" s="3">
         <f t="shared" si="9"/>
         <v>6110000</v>
       </c>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4">
-        <f t="shared" si="4"/>
-        <v>-4888000</v>
-      </c>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="24"/>
-      <c r="R54" s="3"/>
+      <c r="I54" s="3">
+        <v>6200000</v>
+      </c>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3">
+        <f t="shared" si="4"/>
+        <v>1312000</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="23"/>
+      <c r="R54" s="2"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="65">
+      <c r="A55" s="57">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>166</v>
-      </c>
-      <c r="C55" s="29">
+        <v>146</v>
+      </c>
+      <c r="C55" s="28">
         <v>4104000</v>
       </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4">
+      <c r="D55" s="3">
+        <v>607500</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3">
         <f t="shared" si="8"/>
-        <v>4104000</v>
-      </c>
-      <c r="G55" s="44">
+        <v>4711500</v>
+      </c>
+      <c r="G55" s="43">
         <f t="shared" si="7"/>
-        <v>4924800</v>
-      </c>
-      <c r="H55" s="4">
+        <v>5653800</v>
+      </c>
+      <c r="H55" s="3">
         <f t="shared" si="9"/>
-        <v>5130000</v>
-      </c>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4">
-        <f t="shared" si="4"/>
-        <v>-4104000</v>
-      </c>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="24"/>
-      <c r="R55" s="3"/>
+        <v>5889375</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3">
+        <f t="shared" si="4"/>
+        <v>-4711500</v>
+      </c>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="23"/>
+      <c r="R55" s="2"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="65">
+      <c r="A56" s="57">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>168</v>
-      </c>
-      <c r="C56" s="29">
+        <v>148</v>
+      </c>
+      <c r="C56" s="28">
         <v>1960000</v>
       </c>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4">
+      <c r="D56" s="3">
+        <v>833000</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3">
         <f t="shared" si="8"/>
-        <v>1960000</v>
-      </c>
-      <c r="G56" s="44">
+        <v>2793000</v>
+      </c>
+      <c r="G56" s="43">
         <f t="shared" si="7"/>
-        <v>2352000</v>
-      </c>
-      <c r="H56" s="4">
+        <v>3351600</v>
+      </c>
+      <c r="H56" s="3">
         <f t="shared" si="9"/>
-        <v>2450000</v>
-      </c>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4">
-        <f t="shared" si="4"/>
-        <v>-1960000</v>
-      </c>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="24"/>
-      <c r="R56" s="3"/>
+        <v>3491250</v>
+      </c>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3">
+        <f t="shared" si="4"/>
+        <v>-2793000</v>
+      </c>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="23"/>
+      <c r="R56" s="2"/>
     </row>
     <row r="57" spans="1:18" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="65">
+      <c r="A57" s="57">
         <v>56</v>
       </c>
-      <c r="B57" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="C57" s="29">
+      <c r="B57" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C57" s="28">
         <v>3762000</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="3">
         <v>760000</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="3">
         <v>800000</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="3">
         <f t="shared" si="8"/>
         <v>5322000</v>
       </c>
-      <c r="G57" s="44">
+      <c r="G57" s="43">
         <f t="shared" si="7"/>
         <v>6386400</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H57" s="3">
         <f>(F57*25%)+F57</f>
         <v>6652500</v>
       </c>
-      <c r="I57" s="4">
+      <c r="I57" s="3">
         <v>6300000</v>
       </c>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4">
+      <c r="J57" s="3"/>
+      <c r="K57" s="3">
         <f t="shared" si="4"/>
         <v>978000</v>
       </c>
-      <c r="L57" s="3" t="s">
+      <c r="L57" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="O57" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="24"/>
-      <c r="R57" s="3"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="65">
+      <c r="M57" s="2"/>
+      <c r="N57" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="O57" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="23"/>
+      <c r="R57" s="2"/>
+    </row>
+    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="57">
         <v>57</v>
       </c>
-      <c r="B58" s="62" t="s">
-        <v>172</v>
-      </c>
-      <c r="C58" s="29">
+      <c r="B58" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="C58" s="28">
         <v>6441000</v>
       </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4">
+      <c r="D58" s="67">
+        <v>771500</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3">
         <f t="shared" si="8"/>
-        <v>6441000</v>
-      </c>
-      <c r="G58" s="44">
+        <v>7212500</v>
+      </c>
+      <c r="G58" s="43">
         <f t="shared" si="7"/>
-        <v>7729200</v>
-      </c>
-      <c r="H58" s="4">
+        <v>8655000</v>
+      </c>
+      <c r="H58" s="3">
         <f t="shared" si="9"/>
-        <v>8051250</v>
-      </c>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4">
-        <f t="shared" si="4"/>
-        <v>-6441000</v>
-      </c>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="24"/>
-      <c r="R58" s="3"/>
+        <v>9015625</v>
+      </c>
+      <c r="I58" s="3">
+        <v>9300000</v>
+      </c>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3">
+        <f t="shared" si="4"/>
+        <v>2087500</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="23"/>
+      <c r="R58" s="2"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="65">
+      <c r="A59" s="57">
         <v>58</v>
       </c>
-      <c r="B59" s="62" t="s">
-        <v>174</v>
-      </c>
-      <c r="C59" s="29">
+      <c r="B59" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" s="28">
         <v>7435000</v>
       </c>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4">
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3">
         <f t="shared" si="8"/>
         <v>7435000</v>
       </c>
-      <c r="G59" s="44">
+      <c r="G59" s="43">
         <f t="shared" si="7"/>
         <v>8922000</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H59" s="3">
         <f t="shared" si="9"/>
         <v>9293750</v>
       </c>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4">
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3">
         <f t="shared" si="4"/>
         <v>-7435000</v>
       </c>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="74" t="s">
-        <v>175</v>
-      </c>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="24"/>
-      <c r="R59" s="3"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="23"/>
+      <c r="R59" s="2"/>
     </row>
     <row r="60" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="65">
+      <c r="A60" s="57">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>176</v>
-      </c>
-      <c r="C60" s="29">
+        <v>156</v>
+      </c>
+      <c r="C60" s="28">
         <v>1824000</v>
       </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4">
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3">
         <f t="shared" si="8"/>
         <v>1824000</v>
       </c>
-      <c r="G60" s="44">
+      <c r="G60" s="43">
         <f t="shared" si="7"/>
         <v>2188800</v>
       </c>
-      <c r="H60" s="4">
+      <c r="H60" s="3">
         <f t="shared" si="9"/>
         <v>2280000</v>
       </c>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4">
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3">
         <f t="shared" si="4"/>
         <v>-1824000</v>
       </c>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="24"/>
-      <c r="R60" s="3"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="23"/>
+      <c r="R60" s="2"/>
     </row>
     <row r="61" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="65">
+      <c r="A61" s="57">
         <v>60</v>
       </c>
-      <c r="B61" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="C61" s="29">
+      <c r="B61" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C61" s="28">
         <v>6328000</v>
       </c>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4">
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3">
         <f t="shared" si="8"/>
         <v>6328000</v>
       </c>
-      <c r="G61" s="44">
+      <c r="G61" s="43">
         <f t="shared" si="7"/>
         <v>7593600</v>
       </c>
-      <c r="H61" s="4">
+      <c r="H61" s="3">
         <f t="shared" si="9"/>
         <v>7910000</v>
       </c>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4">
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3">
         <f t="shared" si="4"/>
         <v>-6328000</v>
       </c>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="24"/>
-      <c r="R61" s="3"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="23"/>
+      <c r="R61" s="2"/>
     </row>
     <row r="62" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="65">
+      <c r="A62" s="57">
         <v>61</v>
       </c>
-      <c r="B62" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="C62" s="29">
+      <c r="B62" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62" s="28">
         <v>3762000</v>
       </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4">
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3">
         <f t="shared" si="8"/>
         <v>3762000</v>
       </c>
-      <c r="G62" s="44">
+      <c r="G62" s="43">
         <f t="shared" si="7"/>
         <v>4514400</v>
       </c>
-      <c r="H62" s="4">
+      <c r="H62" s="3">
         <f t="shared" si="9"/>
         <v>4702500</v>
       </c>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4">
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3">
         <f t="shared" si="4"/>
         <v>-3762000</v>
       </c>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="23" t="s">
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="23"/>
+      <c r="R62" s="2"/>
+    </row>
+    <row r="63" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="57">
+        <v>62</v>
+      </c>
+      <c r="B63" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C63" s="28">
+        <v>4000000</v>
+      </c>
+      <c r="D63" s="3">
+        <v>730500</v>
+      </c>
+      <c r="E63" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F63" s="3">
+        <f t="shared" si="8"/>
+        <v>5030500</v>
+      </c>
+      <c r="G63" s="43">
+        <f t="shared" si="7"/>
+        <v>6036600</v>
+      </c>
+      <c r="H63" s="3">
+        <f t="shared" si="9"/>
+        <v>6288125</v>
+      </c>
+      <c r="I63" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3">
+        <f t="shared" si="4"/>
+        <v>969500</v>
+      </c>
+      <c r="L63" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="24"/>
-      <c r="R62" s="3"/>
-    </row>
-    <row r="63" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="65">
-        <v>62</v>
-      </c>
-      <c r="B63" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="C63" s="29">
-        <v>4000000</v>
-      </c>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4">
-        <f t="shared" si="8"/>
-        <v>4000000</v>
-      </c>
-      <c r="G63" s="44">
-        <f t="shared" si="7"/>
-        <v>4800000</v>
-      </c>
-      <c r="H63" s="4">
-        <f t="shared" si="9"/>
-        <v>5000000</v>
-      </c>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4">
-        <f t="shared" si="4"/>
-        <v>-4000000</v>
-      </c>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="24"/>
-      <c r="R63" s="3"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="23"/>
+      <c r="R63" s="2"/>
     </row>
     <row r="64" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="65">
+      <c r="A64" s="57">
         <v>63</v>
       </c>
-      <c r="B64" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="C64" s="29">
+      <c r="B64" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C64" s="28">
         <v>6350000</v>
       </c>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4">
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3">
         <f t="shared" si="8"/>
         <v>6350000</v>
       </c>
-      <c r="G64" s="44">
+      <c r="G64" s="43">
         <f t="shared" si="7"/>
         <v>7620000</v>
       </c>
-      <c r="H64" s="4">
+      <c r="H64" s="3">
         <f t="shared" si="9"/>
         <v>7937500</v>
       </c>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4">
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3">
         <f t="shared" si="4"/>
         <v>-6350000</v>
       </c>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="24"/>
-      <c r="R64" s="3"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="23"/>
+      <c r="R64" s="2"/>
     </row>
     <row r="65" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="65">
+      <c r="A65" s="57">
         <v>64</v>
       </c>
-      <c r="B65" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="C65" s="29">
+      <c r="B65" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C65" s="28">
         <v>2712000</v>
       </c>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4">
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3">
         <f t="shared" si="8"/>
         <v>2712000</v>
       </c>
-      <c r="G65" s="44">
+      <c r="G65" s="43">
         <f t="shared" si="7"/>
         <v>3254400</v>
       </c>
-      <c r="H65" s="4">
+      <c r="H65" s="3">
         <f t="shared" si="9"/>
         <v>3390000</v>
       </c>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4">
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3">
         <f t="shared" si="4"/>
         <v>-2712000</v>
       </c>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
-      <c r="O65" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="24"/>
-      <c r="R65" s="3"/>
-    </row>
-    <row r="66" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="65">
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="23"/>
+      <c r="R65" s="2"/>
+    </row>
+    <row r="66" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="57">
         <v>65</v>
       </c>
-      <c r="B66" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="C66" s="29">
+      <c r="B66" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C66" s="28">
         <v>2440000</v>
       </c>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4">
+      <c r="D66" s="3">
+        <v>71750</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3">
         <f t="shared" si="8"/>
-        <v>2440000</v>
-      </c>
-      <c r="G66" s="44">
+        <v>2511750</v>
+      </c>
+      <c r="G66" s="43">
         <f t="shared" si="7"/>
-        <v>2928000</v>
-      </c>
-      <c r="H66" s="4">
+        <v>3014100</v>
+      </c>
+      <c r="H66" s="3">
         <f t="shared" si="9"/>
-        <v>3050000</v>
-      </c>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4">
-        <f t="shared" si="4"/>
-        <v>-2440000</v>
-      </c>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
-      <c r="O66" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="24"/>
-      <c r="R66" s="3"/>
+        <v>3139687.5</v>
+      </c>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3">
+        <f t="shared" si="4"/>
+        <v>-2511750</v>
+      </c>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="23"/>
+      <c r="R66" s="2"/>
     </row>
     <row r="67" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="26"/>
-      <c r="B67" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="C67" s="29">
+      <c r="A67" s="57">
+        <v>66</v>
+      </c>
+      <c r="B67" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="C67" s="28">
         <v>3351000</v>
       </c>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4">
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3">
         <f t="shared" si="8"/>
         <v>3351000</v>
       </c>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4">
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3">
         <f t="shared" si="4"/>
         <v>-3351000</v>
       </c>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-      <c r="O67" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="24"/>
-      <c r="R67" s="3"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="23"/>
+      <c r="R67" s="2"/>
     </row>
     <row r="68" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="26"/>
-      <c r="B68" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="C68" s="29">
+      <c r="A68" s="57">
+        <v>67</v>
+      </c>
+      <c r="B68" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C68" s="28">
         <v>3511000</v>
       </c>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4">
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3">
         <f t="shared" si="8"/>
         <v>3511000</v>
       </c>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4">
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3">
         <f t="shared" si="4"/>
         <v>-3511000</v>
       </c>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
-      <c r="O68" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="24"/>
-      <c r="R68" s="3"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="23"/>
+      <c r="R68" s="2"/>
     </row>
     <row r="69" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="26"/>
-      <c r="B69" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="C69" s="29">
+      <c r="A69" s="57">
+        <v>68</v>
+      </c>
+      <c r="B69" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C69" s="28">
         <v>7204000</v>
       </c>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4">
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3">
         <f t="shared" si="8"/>
         <v>7204000</v>
       </c>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4">
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3">
         <f t="shared" si="4"/>
         <v>-7204000</v>
       </c>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
-      <c r="O69" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="24"/>
-      <c r="R69" s="3"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="23"/>
+      <c r="R69" s="2"/>
     </row>
     <row r="70" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="19"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
-      <c r="O70" s="15"/>
-      <c r="P70" s="3"/>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="3"/>
+      <c r="A70" s="57">
+        <v>69</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C70" s="3">
+        <v>2964000</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3">
+        <f t="shared" si="8"/>
+        <v>2964000</v>
+      </c>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3">
+        <f t="shared" si="4"/>
+        <v>-2964000</v>
+      </c>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="2"/>
     </row>
     <row r="71" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="26"/>
-      <c r="B71" s="28"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
-      <c r="O71" s="23"/>
-      <c r="P71" s="3"/>
-      <c r="Q71" s="24"/>
-      <c r="R71" s="3"/>
+      <c r="A71" s="25"/>
+      <c r="B71" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="C71" s="28">
+        <v>4423000</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3">
+        <f t="shared" si="8"/>
+        <v>4423000</v>
+      </c>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3">
+        <f t="shared" si="4"/>
+        <v>-4423000</v>
+      </c>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="23"/>
+      <c r="R71" s="2"/>
     </row>
     <row r="72" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="26"/>
-      <c r="B72" s="28"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
-      <c r="N72" s="3"/>
-      <c r="O72" s="23"/>
-      <c r="P72" s="3"/>
-      <c r="Q72" s="24"/>
-      <c r="R72" s="3"/>
+      <c r="A72" s="25"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="22"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="23"/>
+      <c r="R72" s="2"/>
     </row>
     <row r="73" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="19"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4">
+      <c r="B73" s="18"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3">
         <f t="shared" ref="K73" si="10">I73-J73-F73</f>
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3"/>
-      <c r="O73" s="15"/>
-      <c r="P73" s="3"/>
-      <c r="Q73" s="5"/>
-      <c r="R73" s="3"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="14"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="2"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F75" s="44">
-        <v>9087859</v>
-      </c>
+      <c r="F75" s="43"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F76" s="4">
-        <v>7784048</v>
-      </c>
+      <c r="F76" s="3"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F77" s="4">
-        <v>4667000</v>
-      </c>
+      <c r="F77" s="3"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E78" s="2">
-        <f>SUM(F75:F97)-F45-F47</f>
-        <v>105604407</v>
-      </c>
-      <c r="F78" s="4">
-        <v>4528000</v>
-      </c>
+      <c r="F78" s="3"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F79" s="4">
-        <v>5105000</v>
-      </c>
+      <c r="F79" s="3"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F80" s="4">
-        <v>7061000</v>
-      </c>
+      <c r="F80" s="3"/>
     </row>
     <row r="81" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F81" s="4">
-        <v>5270000</v>
-      </c>
+      <c r="F81" s="3"/>
     </row>
     <row r="82" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F82" s="4">
-        <v>4531000</v>
-      </c>
+      <c r="F82" s="3"/>
     </row>
     <row r="83" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F83" s="4">
-        <v>5258500</v>
-      </c>
+      <c r="F83" s="3"/>
     </row>
     <row r="84" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F84" s="4">
-        <v>5545000</v>
-      </c>
+      <c r="F84" s="3"/>
     </row>
     <row r="85" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F85" s="4">
-        <v>4295000</v>
-      </c>
+      <c r="F85" s="3"/>
     </row>
     <row r="86" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F86" s="4">
-        <v>4888000</v>
-      </c>
+      <c r="F86" s="3"/>
     </row>
     <row r="87" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F87" s="4">
-        <v>4104000</v>
-      </c>
+      <c r="F87" s="3"/>
     </row>
     <row r="88" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F88" s="4">
-        <v>1960000</v>
-      </c>
+      <c r="F88" s="3"/>
     </row>
     <row r="89" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F89" s="4">
-        <v>6441000</v>
-      </c>
+      <c r="F89" s="3"/>
     </row>
     <row r="90" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F90" s="4">
-        <v>7435000</v>
-      </c>
+      <c r="F90" s="3"/>
     </row>
     <row r="91" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F91" s="4">
-        <v>1824000</v>
-      </c>
+      <c r="F91" s="3"/>
     </row>
     <row r="92" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F92" s="4">
-        <v>6328000</v>
-      </c>
+      <c r="F92" s="3"/>
     </row>
     <row r="93" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F93" s="4">
-        <v>3762000</v>
-      </c>
+      <c r="F93" s="3"/>
     </row>
     <row r="94" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F94" s="4">
-        <v>4000000</v>
-      </c>
+      <c r="F94" s="3"/>
     </row>
     <row r="95" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F95" s="4">
-        <v>6350000</v>
-      </c>
+      <c r="F95" s="3"/>
     </row>
     <row r="96" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F96" s="4">
-        <v>2712000</v>
-      </c>
+      <c r="F96" s="3"/>
     </row>
     <row r="97" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F97" s="4">
-        <v>2440000</v>
-      </c>
+      <c r="F97" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="L1:L75" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="C2:G2 H2:N17 O2:Q22 B2:B25 R2:R39 C3:E25 F3:G27 P23:Q25 O26:Q26 D26:E38 P26:P39 O29:Q38 D39:F39 C40:F41 P42:P43 R42:R43 Q44:Q49 C29:F38 L42:N69 P50:P69 R50:R69 L40:R41 L18:N39 D67:J69 D42:F66 H18:J66 F28 G28:G66 L71:N72 P71:P72 R71:R72 D71:J72 K3:K73">
-    <cfRule type="expression" dxfId="3" priority="2">
+  <conditionalFormatting sqref="C2:G2 H2:N17 O2:Q22 B2:B25 R2:R39 C3:E25 F3:G27 P23:Q25 O26:Q26 D26:E38 P26:P39 O29:Q38 D39:F39 C40:F41 P42:P43 R42:R43 Q44:Q49 C29:F38 L42:N69 P50:P69 R50:R69 L40:R41 L18:N39 D67:J69 D42:F57 H18:J66 F28 G28:G66 L71:N72 P71:P72 R71:R72 D71:J72 K3:K73 D59:F66 E58:F58">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75:F97">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="O23" r:id="rId1" display="https://www.ebay.com/ship/trk/tracking-details?transid=2201839708010&amp;itemid=204283961060" xr:uid="{6F8BFF36-4018-4EC5-AB4D-4659A4D8A44B}"/>
     <hyperlink ref="O24" r:id="rId2" display="https://www.ebay.com/ship/trk/tracking-details?transid=0&amp;itemid=394522922692" xr:uid="{33A4F9FB-78A6-4311-9764-2BC4A4E1AFF3}"/>
+    <hyperlink ref="B71" r:id="rId3" display="https://www.ebay.com/itm/235062483881" xr:uid="{3D221827-67B8-45F0-835D-DC6EF409D68C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3777B8E6-A987-471D-8EED-3DECBE1A9A65}">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="74.140625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="59" t="s">
-        <v>138</v>
-      </c>
-      <c r="E1" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="4">
-        <v>7951048</v>
-      </c>
-      <c r="D2" s="44">
-        <f>(C2*15%)+C2</f>
-        <v>9143705.1999999993</v>
-      </c>
-      <c r="E2" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="4">
-        <v>5558942</v>
-      </c>
-      <c r="D3" s="44">
-        <f t="shared" ref="D3:D10" si="0">(C3*15%)+C3</f>
-        <v>6392783.2999999998</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10149103</v>
-      </c>
-      <c r="D4" s="44">
-        <f t="shared" si="0"/>
-        <v>11671468.449999999</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="4">
-        <v>8949892</v>
-      </c>
-      <c r="D5" s="44">
-        <f t="shared" si="0"/>
-        <v>10292375.800000001</v>
-      </c>
-      <c r="E5" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" s="30">
-        <v>4398000</v>
-      </c>
-      <c r="D6" s="44">
-        <f t="shared" si="0"/>
-        <v>5057700</v>
-      </c>
-      <c r="E6" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="4">
-        <v>7006000</v>
-      </c>
-      <c r="D7" s="44">
-        <f t="shared" si="0"/>
-        <v>8056900</v>
-      </c>
-      <c r="E7" s="44" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="54" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="4">
-        <v>4976000</v>
-      </c>
-      <c r="D8" s="44">
-        <f t="shared" si="0"/>
-        <v>5722400</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="4">
-        <v>4042000</v>
-      </c>
-      <c r="D9" s="44">
-        <f t="shared" si="0"/>
-        <v>4648300</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="4">
-        <v>4118000</v>
-      </c>
-      <c r="D10" s="44">
-        <f t="shared" si="0"/>
-        <v>4735700</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="60"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="28"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C2:C10 D2:E11">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>MOD(ROW(),2)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>MOD(ROW(),2)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/TDStore/NhapXuatLaptop.xlsx
+++ b/TDStore/NhapXuatLaptop.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76035B60-72E4-473E-ABF4-A3433C1020C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B13192-A874-4591-A337-BD87444AFC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NhapXuat" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NhapXuat!$L$1:$L$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NhapXuat!$L$1:$L$80</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="211">
   <si>
     <t>ID máy</t>
   </si>
@@ -419,9 +420,6 @@
     <t>A Minh béo</t>
   </si>
   <si>
-    <t>16tr</t>
-  </si>
-  <si>
     <t>XPS 9370 i5 8350U/8/  142$</t>
   </si>
   <si>
@@ -488,9 +486,6 @@
     <t>399374789020</t>
   </si>
   <si>
-    <t>DELL LATITUDE 3410 INTEL CORE I5 10GEN NO RAM NO HD US $70.00</t>
-  </si>
-  <si>
     <t>399578580006</t>
   </si>
   <si>
@@ -600,6 +595,87 @@
   </si>
   <si>
     <t>9405508205496888194005</t>
+  </si>
+  <si>
+    <t>Sạc</t>
+  </si>
+  <si>
+    <t>Giá</t>
+  </si>
+  <si>
+    <t>Dell type C</t>
+  </si>
+  <si>
+    <t>Dell Chân nhỏ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hp </t>
+  </si>
+  <si>
+    <t>Dell oval</t>
+  </si>
+  <si>
+    <t>SSD 256</t>
+  </si>
+  <si>
+    <t>SSD 512</t>
+  </si>
+  <si>
+    <t>5tr3</t>
+  </si>
+  <si>
+    <t>DELL LATITUDE 3410 INTEL CORE I5 10GEN NO RAM NO HD US $70.00 Chết main</t>
+  </si>
+  <si>
+    <t>Hiền thỏ</t>
+  </si>
+  <si>
+    <t>9tr</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7400 14" Intel Core i5-8365U 1.6Ghz 16GB RAM 256GB SSD C4</t>
+  </si>
+  <si>
+    <t>780371946703</t>
+  </si>
+  <si>
+    <t>HP Envy 13-ba1047wm 13.3" i5-1135G7 2.40GHz 8GB DDR4 256GB SSD Windows 10 US $305.91</t>
+  </si>
+  <si>
+    <t>780357182669</t>
+  </si>
+  <si>
+    <t>Apple AirPods (3rd Generation) w/ Lightning Charging Case MPNY3AM/A</t>
+  </si>
+  <si>
+    <t>780343420055</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7420 Laptop BOOTS Core i5-1145G7 @2.60 16GB RAM 512GB HDD</t>
+  </si>
+  <si>
+    <t>780398924565</t>
+  </si>
+  <si>
+    <t>Dell XPS 13 9370 13.3" / i5-8250U 1.60GHz / 8GB RAM / 128 GB SSD</t>
+  </si>
+  <si>
+    <t>LOT OF 10: 256GB NVMe PCIe M.2 2280 SSD - Solid State Drives Major Brands</t>
+  </si>
+  <si>
+    <t>9400111206215528357770</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 13 5310 FHD i5-11320H 2.5GHz 16 GB RAM 512GB W11H NO PA FG3 US $303.96</t>
+  </si>
+  <si>
+    <t>780571299519</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 13 5310 FHD i5-11320H 2.5GHz 16 GB RAM 512GB W11H NO PA RL3</t>
+  </si>
+  <si>
+    <t>780572009202</t>
   </si>
 </sst>
 </file>
@@ -610,7 +686,7 @@
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -635,12 +711,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF191919"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF111820"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -651,8 +721,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF191919"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -695,8 +782,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -745,12 +856,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -776,19 +924,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -801,12 +937,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -818,9 +948,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -829,14 +956,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -847,9 +968,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -857,13 +975,6 @@
     <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -889,21 +1000,137 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -1241,16 +1468,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S97"/>
+  <dimension ref="A1:S82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K69" sqref="K69"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L85" sqref="L85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="74.140625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="80.42578125" style="83" customWidth="1"/>
     <col min="3" max="4" width="12.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" customWidth="1"/>
     <col min="6" max="7" width="10.5703125" style="1" customWidth="1"/>
@@ -1268,10 +1495,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="75" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -1324,10 +1551,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="76" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="3">
@@ -1349,7 +1576,7 @@
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3">
-        <f>I2-J2-F2</f>
+        <f t="shared" ref="K2:K33" si="1">I2-J2-F2</f>
         <v>900000</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -1369,10 +1596,10 @@
       </c>
     </row>
     <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25">
+      <c r="A3" s="21">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="76" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="3">
@@ -1381,7 +1608,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3">
-        <f t="shared" ref="F3:F43" si="1">C3+D3+E3</f>
+        <f t="shared" ref="F3:F43" si="2">C3+D3+E3</f>
         <v>6500000</v>
       </c>
       <c r="G3" s="3"/>
@@ -1396,7 +1623,7 @@
         <v>5000</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" ref="K3:K17" si="2">I3-J3-F3</f>
+        <f t="shared" si="1"/>
         <v>745000</v>
       </c>
       <c r="L3" s="2" t="s">
@@ -1414,10 +1641,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
+      <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="76" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3">
@@ -1426,7 +1653,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4900000</v>
       </c>
       <c r="G4" s="3"/>
@@ -1439,7 +1666,7 @@
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>500000</v>
       </c>
       <c r="L4" s="2" t="s">
@@ -1459,10 +1686,10 @@
       </c>
     </row>
     <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
+      <c r="A5" s="21">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="76" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="3">
@@ -1471,7 +1698,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6700000</v>
       </c>
       <c r="G5" s="3"/>
@@ -1486,7 +1713,7 @@
         <v>420000</v>
       </c>
       <c r="K5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>480000</v>
       </c>
       <c r="L5" s="2" t="s">
@@ -1506,10 +1733,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+      <c r="A6" s="21">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="76" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="3">
@@ -1518,7 +1745,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7150000</v>
       </c>
       <c r="G6" s="3"/>
@@ -1531,7 +1758,7 @@
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>350000</v>
       </c>
       <c r="L6" s="2" t="s">
@@ -1549,10 +1776,10 @@
       <c r="R6" s="2"/>
     </row>
     <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+      <c r="A7" s="21">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="76" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="3">
@@ -1561,7 +1788,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7500000</v>
       </c>
       <c r="G7" s="3"/>
@@ -1576,7 +1803,7 @@
         <v>10000</v>
       </c>
       <c r="K7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-10000</v>
       </c>
       <c r="L7" s="2" t="s">
@@ -1594,10 +1821,10 @@
       <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
+      <c r="A8" s="21">
         <v>7</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="76" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="3">
@@ -1606,7 +1833,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6700000</v>
       </c>
       <c r="G8" s="3"/>
@@ -1621,7 +1848,7 @@
         <v>10000</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>640000</v>
       </c>
       <c r="L8" s="2" t="s">
@@ -1639,10 +1866,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
+      <c r="A9" s="21">
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="76" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="3">
@@ -1651,7 +1878,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11500000</v>
       </c>
       <c r="G9" s="3"/>
@@ -1664,7 +1891,7 @@
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>500000</v>
       </c>
       <c r="L9" s="2" t="s">
@@ -1684,10 +1911,10 @@
       </c>
     </row>
     <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="A10" s="21">
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="76" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="3">
@@ -1696,7 +1923,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6500000</v>
       </c>
       <c r="G10" s="3"/>
@@ -1709,7 +1936,7 @@
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
       <c r="L10" s="2" t="s">
@@ -1725,10 +1952,10 @@
       <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25">
+      <c r="A11" s="21">
         <v>10</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="76" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="3">
@@ -1737,7 +1964,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6500000</v>
       </c>
       <c r="G11" s="3"/>
@@ -1752,7 +1979,7 @@
         <v>100000</v>
       </c>
       <c r="K11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>300000</v>
       </c>
       <c r="L11" s="2" t="s">
@@ -1770,10 +1997,10 @@
       <c r="R11" s="2"/>
     </row>
     <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25">
+      <c r="A12" s="21">
         <v>11</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="76" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="3">
@@ -1782,7 +2009,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5000000</v>
       </c>
       <c r="G12" s="3"/>
@@ -1797,7 +2024,7 @@
         <v>5000</v>
       </c>
       <c r="K12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>795000</v>
       </c>
       <c r="L12" s="2" t="s">
@@ -1817,10 +2044,10 @@
       </c>
     </row>
     <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25">
+      <c r="A13" s="21">
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="76" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="3">
@@ -1829,7 +2056,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5500000</v>
       </c>
       <c r="G13" s="3"/>
@@ -1842,7 +2069,7 @@
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>800000</v>
       </c>
       <c r="L13" s="2" t="s">
@@ -1862,10 +2089,10 @@
       </c>
     </row>
     <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
+      <c r="A14" s="21">
         <v>13</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="76" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="3">
@@ -1874,7 +2101,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5500000</v>
       </c>
       <c r="G14" s="3"/>
@@ -1887,7 +2114,7 @@
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1100000</v>
       </c>
       <c r="L14" s="2" t="s">
@@ -1905,10 +2132,10 @@
       </c>
     </row>
     <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25">
+      <c r="A15" s="21">
         <v>14</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="76" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="3">
@@ -1917,7 +2144,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5700000</v>
       </c>
       <c r="G15" s="3"/>
@@ -1930,7 +2157,7 @@
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>500000</v>
       </c>
       <c r="L15" s="2" t="s">
@@ -1950,10 +2177,10 @@
       </c>
     </row>
     <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25">
+      <c r="A16" s="21">
         <v>15</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="76" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="3">
@@ -1962,7 +2189,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8000000</v>
       </c>
       <c r="G16" s="3"/>
@@ -1975,7 +2202,7 @@
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2500000</v>
       </c>
       <c r="L16" s="2" t="s">
@@ -1989,10 +2216,10 @@
       <c r="R16" s="2"/>
     </row>
     <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25">
+      <c r="A17" s="21">
         <v>16</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="76" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="3">
@@ -2003,7 +2230,7 @@
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10835587</v>
       </c>
       <c r="G17" s="3"/>
@@ -2016,7 +2243,7 @@
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3164413</v>
       </c>
       <c r="L17" s="2" t="s">
@@ -2030,10 +2257,10 @@
       <c r="R17" s="2"/>
     </row>
     <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
+      <c r="A18" s="21">
         <v>17</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="76" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="3">
@@ -2042,7 +2269,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5000000</v>
       </c>
       <c r="G18" s="3"/>
@@ -2055,7 +2282,7 @@
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3">
-        <f t="shared" ref="K18:K71" si="4">I18-J18-F18</f>
+        <f t="shared" si="1"/>
         <v>500000</v>
       </c>
       <c r="L18" s="2" t="s">
@@ -2075,10 +2302,10 @@
       </c>
     </row>
     <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25">
+      <c r="A19" s="21">
         <v>18</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="76" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="3">
@@ -2087,12 +2314,12 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4500000</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3">
-        <f t="shared" ref="H19" si="5">(F19*25%)+F19</f>
+        <f t="shared" ref="H19" si="4">(F19*25%)+F19</f>
         <v>5625000</v>
       </c>
       <c r="I19" s="3">
@@ -2100,7 +2327,7 @@
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
       <c r="L19" s="2" t="s">
@@ -2118,10 +2345,10 @@
       </c>
     </row>
     <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25">
+      <c r="A20" s="21">
         <v>19</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="77" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="12">
@@ -2132,12 +2359,12 @@
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7983890</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="12">
-        <f t="shared" ref="H20:H43" si="6">(F20*25%)+F20</f>
+        <f t="shared" ref="H20:H43" si="5">(F20*25%)+F20</f>
         <v>9979862.5</v>
       </c>
       <c r="I20" s="12">
@@ -2147,7 +2374,7 @@
         <v>50000</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1466110</v>
       </c>
       <c r="L20" s="2" t="s">
@@ -2165,10 +2392,10 @@
       </c>
     </row>
     <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25">
+      <c r="A21" s="21">
         <v>20</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="76" t="s">
         <v>58</v>
       </c>
       <c r="C21" s="3">
@@ -2181,12 +2408,12 @@
         <v>300000</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9248805</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>11561006.25</v>
       </c>
       <c r="I21" s="3">
@@ -2196,7 +2423,7 @@
         <v>1500000</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1251195</v>
       </c>
       <c r="L21" s="2" t="s">
@@ -2216,10 +2443,10 @@
       </c>
     </row>
     <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25">
+      <c r="A22" s="21">
         <v>21</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="76" t="s">
         <v>59</v>
       </c>
       <c r="C22" s="3">
@@ -2230,12 +2457,12 @@
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10561005</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>13201256.25</v>
       </c>
       <c r="I22" s="3">
@@ -2245,7 +2472,7 @@
         <v>900000</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>538995</v>
       </c>
       <c r="L22" s="2" t="s">
@@ -2264,460 +2491,462 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="31">
+    <row r="23" spans="1:19" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="25">
         <v>22</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="26">
         <f>5182073+150000</f>
         <v>5332073</v>
       </c>
-      <c r="D23" s="33">
+      <c r="D23" s="26">
         <v>1375000</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="26">
         <v>-1000000</v>
       </c>
-      <c r="F23" s="33">
+      <c r="F23" s="26">
         <f>C23+D23+E23</f>
         <v>5707073</v>
       </c>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33">
+      <c r="G23" s="26"/>
+      <c r="H23" s="26">
         <f>(F23*25%)+F23</f>
         <v>7133841.25</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="26">
         <v>8200000</v>
       </c>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33">
-        <f t="shared" si="4"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26">
+        <f t="shared" si="1"/>
         <v>2492927</v>
       </c>
-      <c r="L23" s="34" t="s">
+      <c r="L23" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34" t="s">
+      <c r="M23" s="27"/>
+      <c r="N23" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="O23" s="39" t="s">
+      <c r="O23" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="P23" s="34" t="s">
+      <c r="P23" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="Q23" s="36">
+      <c r="Q23" s="29">
         <v>45010</v>
       </c>
-      <c r="R23" s="34"/>
-    </row>
-    <row r="24" spans="1:19" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="31">
+      <c r="R23" s="27"/>
+    </row>
+    <row r="24" spans="1:19" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="25">
         <v>23</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="26">
         <v>3281172</v>
       </c>
-      <c r="D24" s="33">
+      <c r="D24" s="26">
         <v>1075000</v>
       </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33">
+      <c r="E24" s="26"/>
+      <c r="F24" s="26">
+        <f t="shared" si="2"/>
+        <v>4356172</v>
+      </c>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26">
+        <f t="shared" si="5"/>
+        <v>5445215</v>
+      </c>
+      <c r="I24" s="26">
+        <v>6400000</v>
+      </c>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26">
         <f t="shared" si="1"/>
-        <v>4356172</v>
-      </c>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33">
+        <v>2043828</v>
+      </c>
+      <c r="L24" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="P24" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q24" s="29">
+        <v>45011</v>
+      </c>
+      <c r="R24" s="27"/>
+    </row>
+    <row r="25" spans="1:19" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="26">
+        <v>4493148</v>
+      </c>
+      <c r="D25" s="26">
+        <v>1075000</v>
+      </c>
+      <c r="E25" s="26">
+        <v>490000</v>
+      </c>
+      <c r="F25" s="26">
+        <f t="shared" si="2"/>
+        <v>6058148</v>
+      </c>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26">
+        <f t="shared" si="5"/>
+        <v>7572685</v>
+      </c>
+      <c r="I25" s="26">
+        <v>8000000</v>
+      </c>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26">
+        <f t="shared" si="1"/>
+        <v>1941852</v>
+      </c>
+      <c r="L25" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="O25" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="P25" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q25" s="29">
+        <v>45012</v>
+      </c>
+      <c r="R25" s="27"/>
+    </row>
+    <row r="26" spans="1:19" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="25">
+        <v>25</v>
+      </c>
+      <c r="B26" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="32">
+        <v>3801801</v>
+      </c>
+      <c r="D26" s="26">
+        <v>1075000</v>
+      </c>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26">
+        <f t="shared" si="2"/>
+        <v>4876801</v>
+      </c>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26">
+        <f t="shared" si="5"/>
+        <v>6096001.25</v>
+      </c>
+      <c r="I26" s="26">
+        <v>7950000</v>
+      </c>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26">
+        <f t="shared" si="1"/>
+        <v>3073199</v>
+      </c>
+      <c r="L26" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="P26" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q26" s="29">
+        <v>45017</v>
+      </c>
+      <c r="R26" s="27"/>
+    </row>
+    <row r="27" spans="1:19" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="25">
+        <v>26</v>
+      </c>
+      <c r="B27" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="49">
+        <v>6537888</v>
+      </c>
+      <c r="D27" s="26">
+        <v>1050000</v>
+      </c>
+      <c r="E27" s="26">
+        <v>200000</v>
+      </c>
+      <c r="F27" s="26">
+        <f t="shared" si="2"/>
+        <v>7787888</v>
+      </c>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26">
+        <f t="shared" si="5"/>
+        <v>9734860</v>
+      </c>
+      <c r="I27" s="26">
+        <v>9500000</v>
+      </c>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26">
+        <f t="shared" si="1"/>
+        <v>1712112</v>
+      </c>
+      <c r="L27" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="O27" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="P27" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q27" s="51">
+        <v>45015</v>
+      </c>
+      <c r="R27" s="27"/>
+    </row>
+    <row r="28" spans="1:19" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="42">
+        <v>27</v>
+      </c>
+      <c r="B28" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="33">
+        <v>7887859</v>
+      </c>
+      <c r="D28" s="34">
+        <v>850000</v>
+      </c>
+      <c r="E28" s="34">
+        <v>650000</v>
+      </c>
+      <c r="F28" s="34">
+        <f t="shared" si="2"/>
+        <v>9387859</v>
+      </c>
+      <c r="G28" s="34">
+        <f t="shared" ref="G28:G72" si="6">(F28*20%)+F28</f>
+        <v>11265430.800000001</v>
+      </c>
+      <c r="H28" s="34">
+        <f t="shared" si="5"/>
+        <v>11734823.75</v>
+      </c>
+      <c r="I28" s="34">
+        <v>10500000</v>
+      </c>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34">
+        <f t="shared" si="1"/>
+        <v>1112141</v>
+      </c>
+      <c r="L28" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="O28" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="P28" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q28" s="37">
+        <v>45016</v>
+      </c>
+      <c r="R28" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="S28" s="45"/>
+    </row>
+    <row r="29" spans="1:19" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="42">
+        <v>28</v>
+      </c>
+      <c r="B29" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="26">
+        <v>4850950</v>
+      </c>
+      <c r="D29" s="26">
+        <v>1000000</v>
+      </c>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26">
+        <f t="shared" si="2"/>
+        <v>5850950</v>
+      </c>
+      <c r="G29" s="34">
         <f t="shared" si="6"/>
-        <v>5445215</v>
-      </c>
-      <c r="I24" s="33">
-        <v>6400000</v>
-      </c>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33">
-        <f t="shared" si="4"/>
-        <v>2043828</v>
-      </c>
-      <c r="L24" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="P24" s="34" t="s">
+        <v>7021140</v>
+      </c>
+      <c r="H29" s="26">
+        <f t="shared" si="5"/>
+        <v>7313687.5</v>
+      </c>
+      <c r="I29" s="26">
+        <v>8500000</v>
+      </c>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26">
+        <f t="shared" si="1"/>
+        <v>2649050</v>
+      </c>
+      <c r="L29" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="O29" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="P29" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="Q24" s="36">
-        <v>45011</v>
-      </c>
-      <c r="R24" s="34"/>
-    </row>
-    <row r="25" spans="1:19" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31">
-        <v>24</v>
-      </c>
-      <c r="B25" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="33">
-        <v>4493148</v>
-      </c>
-      <c r="D25" s="33">
-        <v>1075000</v>
-      </c>
-      <c r="E25" s="33">
-        <v>490000</v>
-      </c>
-      <c r="F25" s="33">
+      <c r="Q29" s="29">
+        <v>45019</v>
+      </c>
+      <c r="S29" s="45"/>
+    </row>
+    <row r="30" spans="1:19" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="43">
+        <v>29</v>
+      </c>
+      <c r="B30" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="38">
+        <v>8317935</v>
+      </c>
+      <c r="D30" s="38">
+        <v>850000</v>
+      </c>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38">
+        <f t="shared" si="2"/>
+        <v>9167935</v>
+      </c>
+      <c r="G30" s="34">
+        <f t="shared" si="6"/>
+        <v>11001522</v>
+      </c>
+      <c r="H30" s="38">
+        <f t="shared" si="5"/>
+        <v>11459918.75</v>
+      </c>
+      <c r="I30" s="38">
+        <v>9000000</v>
+      </c>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38">
         <f t="shared" si="1"/>
-        <v>6058148</v>
-      </c>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33">
+        <v>-167935</v>
+      </c>
+      <c r="L30" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="O30" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="P30" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q30" s="41">
+        <v>45020</v>
+      </c>
+      <c r="S30" s="46"/>
+    </row>
+    <row r="31" spans="1:19" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="42">
+        <v>30</v>
+      </c>
+      <c r="B31" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="26">
+        <v>4258422</v>
+      </c>
+      <c r="D31" s="26">
+        <v>1064000</v>
+      </c>
+      <c r="E31" s="26">
+        <v>-1000000</v>
+      </c>
+      <c r="F31" s="26">
+        <f t="shared" si="2"/>
+        <v>4322422</v>
+      </c>
+      <c r="G31" s="34">
         <f t="shared" si="6"/>
-        <v>7572685</v>
-      </c>
-      <c r="I25" s="33">
-        <v>8000000</v>
-      </c>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33">
-        <f t="shared" si="4"/>
-        <v>1941852</v>
-      </c>
-      <c r="L25" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="O25" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="P25" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q25" s="36">
-        <v>45012</v>
-      </c>
-      <c r="R25" s="34"/>
-    </row>
-    <row r="26" spans="1:19" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="31">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="40">
-        <v>3801801</v>
-      </c>
-      <c r="D26" s="33">
-        <v>1075000</v>
-      </c>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33">
+        <v>5186906.4000000004</v>
+      </c>
+      <c r="H31" s="26">
+        <f t="shared" si="5"/>
+        <v>5403027.5</v>
+      </c>
+      <c r="I31" s="26">
+        <v>5500000</v>
+      </c>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26">
         <f t="shared" si="1"/>
-        <v>4876801</v>
-      </c>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33">
-        <f t="shared" si="6"/>
-        <v>6096001.25</v>
-      </c>
-      <c r="I26" s="33">
-        <v>7950000</v>
-      </c>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33">
-        <f t="shared" si="4"/>
-        <v>3073199</v>
-      </c>
-      <c r="L26" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="P26" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q26" s="36">
-        <v>45017</v>
-      </c>
-      <c r="R26" s="34"/>
-    </row>
-    <row r="27" spans="1:19" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="31">
-        <v>26</v>
-      </c>
-      <c r="B27" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="62">
-        <v>6537888</v>
-      </c>
-      <c r="D27" s="33">
-        <v>1050000</v>
-      </c>
-      <c r="E27" s="33">
-        <v>200000</v>
-      </c>
-      <c r="F27" s="33">
-        <f t="shared" si="1"/>
-        <v>7787888</v>
-      </c>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33">
-        <f t="shared" si="6"/>
-        <v>9734860</v>
-      </c>
-      <c r="I27" s="33">
-        <v>9500000</v>
-      </c>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33">
-        <f t="shared" si="4"/>
-        <v>1712112</v>
-      </c>
-      <c r="L27" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="O27" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="P27" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q27" s="64">
-        <v>45015</v>
-      </c>
-      <c r="R27" s="34"/>
-    </row>
-    <row r="28" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="55">
-        <v>27</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="42">
-        <v>7887859</v>
-      </c>
-      <c r="D28" s="43">
-        <v>850000</v>
-      </c>
-      <c r="E28" s="43">
-        <v>350000</v>
-      </c>
-      <c r="F28" s="43">
-        <f t="shared" si="1"/>
-        <v>9087859</v>
-      </c>
-      <c r="G28" s="43">
-        <f t="shared" ref="G28:G66" si="7">(F28*20%)+F28</f>
-        <v>10905430.800000001</v>
-      </c>
-      <c r="H28" s="43">
-        <f t="shared" si="6"/>
-        <v>11359823.75</v>
-      </c>
-      <c r="I28" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="O28" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="P28" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q28" s="46">
-        <v>45016</v>
-      </c>
-      <c r="R28" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="S28" s="58"/>
-    </row>
-    <row r="29" spans="1:19" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="55">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="33">
-        <v>4850950</v>
-      </c>
-      <c r="D29" s="33">
-        <v>1000000</v>
-      </c>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33">
-        <f t="shared" si="1"/>
-        <v>5850950</v>
-      </c>
-      <c r="G29" s="43">
-        <f t="shared" si="7"/>
-        <v>7021140</v>
-      </c>
-      <c r="H29" s="33">
-        <f t="shared" si="6"/>
-        <v>7313687.5</v>
-      </c>
-      <c r="I29" s="33">
-        <v>8500000</v>
-      </c>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33">
-        <f t="shared" si="4"/>
-        <v>2649050</v>
-      </c>
-      <c r="L29" s="34" t="s">
+        <v>1177578</v>
+      </c>
+      <c r="L31" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="O29" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="P29" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q29" s="36">
-        <v>45019</v>
-      </c>
-      <c r="S29" s="58"/>
-    </row>
-    <row r="30" spans="1:19" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="56">
-        <v>29</v>
-      </c>
-      <c r="B30" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="48">
-        <v>8317935</v>
-      </c>
-      <c r="D30" s="48">
-        <v>850000</v>
-      </c>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48">
-        <f t="shared" si="1"/>
-        <v>9167935</v>
-      </c>
-      <c r="G30" s="43">
-        <f t="shared" si="7"/>
-        <v>11001522</v>
-      </c>
-      <c r="H30" s="48">
-        <f t="shared" si="6"/>
-        <v>11459918.75</v>
-      </c>
-      <c r="I30" s="48">
-        <v>9000000</v>
-      </c>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48">
-        <f t="shared" si="4"/>
-        <v>-167935</v>
-      </c>
-      <c r="L30" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="O30" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="P30" s="49" t="s">
+      <c r="O31" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="P31" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="Q30" s="51">
-        <v>45020</v>
-      </c>
-      <c r="S30" s="59"/>
-    </row>
-    <row r="31" spans="1:19" s="34" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="55">
-        <v>30</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="33">
-        <v>4258422</v>
-      </c>
-      <c r="D31" s="33">
-        <v>1064000</v>
-      </c>
-      <c r="E31" s="33">
-        <v>-1000000</v>
-      </c>
-      <c r="F31" s="33">
-        <f t="shared" si="1"/>
-        <v>4322422</v>
-      </c>
-      <c r="G31" s="43">
-        <f t="shared" si="7"/>
-        <v>5186906.4000000004</v>
-      </c>
-      <c r="H31" s="33">
-        <f t="shared" si="6"/>
-        <v>5403027.5</v>
-      </c>
-      <c r="I31" s="33">
-        <v>5500000</v>
-      </c>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33">
-        <f t="shared" si="4"/>
-        <v>1177578</v>
-      </c>
-      <c r="L31" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="O31" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="P31" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q31" s="36">
+      <c r="Q31" s="29">
         <v>45021</v>
       </c>
-      <c r="S31" s="58"/>
+      <c r="S31" s="45"/>
     </row>
     <row r="32" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="57">
+      <c r="A32" s="44">
         <v>31</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="86" t="s">
         <v>78</v>
       </c>
       <c r="C32" s="3">
@@ -2730,15 +2959,15 @@
         <v>300000</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7784048</v>
       </c>
-      <c r="G32" s="43">
-        <f t="shared" si="7"/>
+      <c r="G32" s="34">
+        <f t="shared" si="6"/>
         <v>9340857.5999999996</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9730060</v>
       </c>
       <c r="I32" s="3" t="s">
@@ -2746,7 +2975,7 @@
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="O32" s="14" t="s">
@@ -2758,13 +2987,13 @@
       <c r="Q32" s="4">
         <v>45022</v>
       </c>
-      <c r="S32" s="60"/>
+      <c r="S32" s="47"/>
     </row>
     <row r="33" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="57">
+      <c r="A33" s="44">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="79" t="s">
         <v>79</v>
       </c>
       <c r="C33" s="3">
@@ -2775,15 +3004,15 @@
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5558942</v>
       </c>
-      <c r="G33" s="43">
-        <f t="shared" si="7"/>
+      <c r="G33" s="34">
+        <f t="shared" si="6"/>
         <v>6670730.4000000004</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6948677.5</v>
       </c>
       <c r="I33" s="3">
@@ -2791,7 +3020,7 @@
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>441058</v>
       </c>
       <c r="O33" s="14" t="s">
@@ -2803,13 +3032,13 @@
       <c r="Q33" s="4">
         <v>45022</v>
       </c>
-      <c r="S33" s="60"/>
+      <c r="S33" s="47"/>
     </row>
     <row r="34" spans="1:19" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="57">
+      <c r="A34" s="44">
         <v>33</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="86" t="s">
         <v>86</v>
       </c>
       <c r="C34" s="3">
@@ -2820,15 +3049,15 @@
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10149103</v>
       </c>
-      <c r="G34" s="43">
-        <f t="shared" si="7"/>
+      <c r="G34" s="34">
+        <f t="shared" si="6"/>
         <v>12178923.6</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>12686378.75</v>
       </c>
       <c r="I34" s="3">
@@ -2836,7 +3065,7 @@
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="K34:K65" si="7">I34-J34-F34</f>
         <v>850897</v>
       </c>
       <c r="O34" s="14" t="s">
@@ -2848,13 +3077,13 @@
       <c r="Q34" s="4">
         <v>45027</v>
       </c>
-      <c r="S34" s="60"/>
-    </row>
-    <row r="35" spans="1:19" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="57">
+      <c r="S34" s="47"/>
+    </row>
+    <row r="35" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="44">
         <v>34</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="86" t="s">
         <v>87</v>
       </c>
       <c r="C35" s="3">
@@ -2865,15 +3094,15 @@
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8949892</v>
       </c>
-      <c r="G35" s="43">
-        <f t="shared" si="7"/>
+      <c r="G35" s="34">
+        <f t="shared" si="6"/>
         <v>10739870.4</v>
       </c>
       <c r="H35" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>11187365</v>
       </c>
       <c r="I35" s="3">
@@ -2881,7 +3110,7 @@
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>50108</v>
       </c>
       <c r="O35" s="14" t="s">
@@ -2893,13 +3122,13 @@
       <c r="Q35" s="4">
         <v>45027</v>
       </c>
-      <c r="S35" s="60"/>
+      <c r="S35" s="47"/>
     </row>
     <row r="36" spans="1:19" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="57">
+      <c r="A36" s="44">
         <v>35</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="86" t="s">
         <v>91</v>
       </c>
       <c r="C36" s="3">
@@ -2910,15 +3139,15 @@
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4822000</v>
       </c>
-      <c r="G36" s="43">
-        <f t="shared" si="7"/>
+      <c r="G36" s="34">
+        <f t="shared" si="6"/>
         <v>5786400</v>
       </c>
       <c r="H36" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6027500</v>
       </c>
       <c r="I36" s="3">
@@ -2926,7 +3155,7 @@
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2178000</v>
       </c>
       <c r="L36" s="2" t="s">
@@ -2936,13 +3165,13 @@
         <v>99</v>
       </c>
       <c r="Q36" s="4"/>
-      <c r="S36" s="60"/>
+      <c r="S36" s="47"/>
     </row>
     <row r="37" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="57">
+      <c r="A37" s="44">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="79" t="s">
         <v>92</v>
       </c>
       <c r="C37" s="3">
@@ -2953,15 +3182,15 @@
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9317000</v>
       </c>
-      <c r="G37" s="43">
-        <f t="shared" si="7"/>
+      <c r="G37" s="34">
+        <f t="shared" si="6"/>
         <v>11180400</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>11646250</v>
       </c>
       <c r="I37" s="3" t="s">
@@ -2969,79 +3198,79 @@
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="O37" s="14" t="s">
         <v>100</v>
       </c>
       <c r="Q37" s="4"/>
-      <c r="S37" s="60"/>
-    </row>
-    <row r="38" spans="1:19" s="18" customFormat="1" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="57">
+      <c r="S37" s="47"/>
+    </row>
+    <row r="38" spans="1:19" s="17" customFormat="1" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="44">
         <v>37</v>
       </c>
-      <c r="B38" s="53" t="s">
+      <c r="B38" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="29">
+      <c r="C38" s="23">
         <v>3178000</v>
       </c>
-      <c r="D38" s="29">
+      <c r="D38" s="23">
         <v>1370000</v>
       </c>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29">
-        <f t="shared" si="1"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23">
+        <f t="shared" si="2"/>
         <v>4548000</v>
       </c>
-      <c r="G38" s="43">
-        <f t="shared" si="7"/>
+      <c r="G38" s="34">
+        <f t="shared" si="6"/>
         <v>5457600</v>
       </c>
       <c r="H38" s="3">
         <f>(F38*25%)+F38</f>
         <v>5685000</v>
       </c>
-      <c r="I38" s="29">
+      <c r="I38" s="23">
         <v>5800000</v>
       </c>
-      <c r="J38" s="29"/>
+      <c r="J38" s="23"/>
       <c r="K38" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1252000</v>
       </c>
-      <c r="O38" s="22" t="s">
+      <c r="O38" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="Q38" s="30"/>
-      <c r="S38" s="61"/>
+      <c r="Q38" s="24"/>
+      <c r="S38" s="48"/>
     </row>
     <row r="39" spans="1:19" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="57">
+      <c r="A39" s="44">
         <v>38</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="28">
+      <c r="C39" s="22">
         <v>4560000</v>
       </c>
-      <c r="D39" s="29">
+      <c r="D39" s="23">
         <v>850000</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5410000</v>
       </c>
-      <c r="G39" s="43">
-        <f t="shared" si="7"/>
+      <c r="G39" s="34">
+        <f t="shared" si="6"/>
         <v>6492000</v>
       </c>
       <c r="H39" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6762500</v>
       </c>
       <c r="I39" s="3">
@@ -3049,44 +3278,44 @@
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1590000</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="O39" s="22" t="s">
+      <c r="O39" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="Q39" s="23">
+      <c r="Q39" s="19">
         <v>45265</v>
       </c>
-      <c r="S39" s="60"/>
+      <c r="S39" s="47"/>
     </row>
     <row r="40" spans="1:19" s="2" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="57">
+      <c r="A40" s="44">
         <v>39</v>
       </c>
-      <c r="B40" s="53" t="s">
+      <c r="B40" s="81" t="s">
         <v>105</v>
       </c>
       <c r="C40" s="3">
         <v>6156000</v>
       </c>
-      <c r="D40" s="29">
+      <c r="D40" s="23">
         <v>850000</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7006000</v>
       </c>
-      <c r="G40" s="43">
-        <f t="shared" si="7"/>
+      <c r="G40" s="34">
+        <f t="shared" si="6"/>
         <v>8407200</v>
       </c>
       <c r="H40" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8757500</v>
       </c>
       <c r="I40" s="3">
@@ -3094,39 +3323,39 @@
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1494000</v>
       </c>
       <c r="O40" s="14" t="s">
         <v>108</v>
       </c>
       <c r="Q40" s="4"/>
-      <c r="S40" s="60"/>
+      <c r="S40" s="47"/>
     </row>
     <row r="41" spans="1:19" s="2" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="57">
+      <c r="A41" s="44">
         <v>40</v>
       </c>
-      <c r="B41" s="53" t="s">
+      <c r="B41" s="81" t="s">
         <v>106</v>
       </c>
       <c r="C41" s="3">
         <v>4126000</v>
       </c>
-      <c r="D41" s="29">
+      <c r="D41" s="23">
         <v>1450000</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5576000</v>
       </c>
-      <c r="G41" s="43">
-        <f t="shared" si="7"/>
+      <c r="G41" s="34">
+        <f t="shared" si="6"/>
         <v>6691200</v>
       </c>
       <c r="H41" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6970000</v>
       </c>
       <c r="I41" s="3">
@@ -3134,39 +3363,39 @@
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1924000</v>
       </c>
       <c r="O41" s="14" t="s">
         <v>107</v>
       </c>
       <c r="Q41" s="4"/>
-      <c r="S41" s="60"/>
-    </row>
-    <row r="42" spans="1:19" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="57">
+      <c r="S41" s="47"/>
+    </row>
+    <row r="42" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="44">
         <v>41</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="28">
+      <c r="C42" s="22">
         <v>3192000</v>
       </c>
-      <c r="D42" s="29">
+      <c r="D42" s="23">
         <v>850000</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4042000</v>
       </c>
-      <c r="G42" s="43">
-        <f t="shared" si="7"/>
+      <c r="G42" s="34">
+        <f t="shared" si="6"/>
         <v>4850400</v>
       </c>
       <c r="H42" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5052500</v>
       </c>
       <c r="I42" s="3">
@@ -3174,23 +3403,23 @@
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1458000</v>
       </c>
-      <c r="O42" s="22" t="s">
+      <c r="O42" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="Q42" s="23"/>
-      <c r="S42" s="60"/>
+      <c r="Q42" s="19"/>
+      <c r="S42" s="47"/>
     </row>
     <row r="43" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="57">
+      <c r="A43" s="44">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="C43" s="28">
+      <c r="C43" s="22">
         <v>6065000</v>
       </c>
       <c r="D43" s="3">
@@ -3198,15 +3427,15 @@
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6915000</v>
       </c>
-      <c r="G43" s="43">
-        <f t="shared" si="7"/>
+      <c r="G43" s="34">
+        <f t="shared" si="6"/>
         <v>8298000</v>
       </c>
       <c r="H43" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8643750</v>
       </c>
       <c r="I43" s="3">
@@ -3214,26 +3443,26 @@
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1585000</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="O43" s="22" t="s">
+      <c r="O43" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="Q43" s="23"/>
-      <c r="S43" s="60"/>
-    </row>
-    <row r="44" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="57">
+      <c r="Q43" s="19"/>
+      <c r="S43" s="47"/>
+    </row>
+    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="44">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="28">
+      <c r="C44" s="22">
         <v>3268000</v>
       </c>
       <c r="D44" s="3">
@@ -3244,8 +3473,8 @@
         <f>C44+D44+E44</f>
         <v>4118000</v>
       </c>
-      <c r="G44" s="43">
-        <f t="shared" si="7"/>
+      <c r="G44" s="34">
+        <f t="shared" si="6"/>
         <v>4941600</v>
       </c>
       <c r="H44" s="3">
@@ -3253,27 +3482,30 @@
         <v>5147500</v>
       </c>
       <c r="I44" s="3">
-        <v>4700000</v>
+        <v>4400000</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3">
-        <f t="shared" si="4"/>
-        <v>582000</v>
-      </c>
-      <c r="O44" s="65" t="s">
+        <f t="shared" si="7"/>
+        <v>282000</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="O44" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="P44" s="23"/>
-      <c r="S44" s="60"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="57">
+      <c r="P44" s="19"/>
+      <c r="S44" s="47"/>
+    </row>
+    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="44">
         <v>44</v>
       </c>
-      <c r="B45" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="C45" s="28">
+      <c r="B45" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="22">
         <v>3223000</v>
       </c>
       <c r="D45" s="3">
@@ -3283,15 +3515,15 @@
         <v>800000</v>
       </c>
       <c r="F45" s="3">
-        <f t="shared" ref="F45:F71" si="8">C45+D45+E45</f>
+        <f t="shared" ref="F45:F72" si="8">C45+D45+E45</f>
         <v>4667000</v>
       </c>
-      <c r="G45" s="43">
-        <f t="shared" si="7"/>
+      <c r="G45" s="34">
+        <f t="shared" si="6"/>
         <v>5600400</v>
       </c>
       <c r="H45" s="3">
-        <f t="shared" ref="H45:H66" si="9">(F45*25%)+F45</f>
+        <f t="shared" ref="H45:H72" si="9">(F45*25%)+F45</f>
         <v>5833750</v>
       </c>
       <c r="I45" s="3">
@@ -3299,29 +3531,29 @@
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2833000</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
-      <c r="O45" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="P45" s="23"/>
+      <c r="O45" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="P45" s="19"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="57">
+      <c r="A46" s="44">
         <v>45</v>
       </c>
-      <c r="B46" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46" s="28">
+      <c r="B46" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="22">
         <v>3632000</v>
       </c>
       <c r="D46" s="3">
@@ -3332,8 +3564,8 @@
         <f t="shared" si="8"/>
         <v>4528000</v>
       </c>
-      <c r="G46" s="43">
-        <f t="shared" si="7"/>
+      <c r="G46" s="34">
+        <f t="shared" si="6"/>
         <v>5433600</v>
       </c>
       <c r="H46" s="3">
@@ -3345,7 +3577,7 @@
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1272000</v>
       </c>
       <c r="L46" s="2" t="s">
@@ -3353,21 +3585,21 @@
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
-      <c r="O46" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="P46" s="23"/>
+      <c r="O46" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="P46" s="19"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="57">
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="44">
         <v>46</v>
       </c>
-      <c r="B47" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="C47" s="28">
+      <c r="B47" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="22">
         <v>3813000</v>
       </c>
       <c r="D47" s="3">
@@ -3380,8 +3612,8 @@
         <f t="shared" si="8"/>
         <v>5105000</v>
       </c>
-      <c r="G47" s="43">
-        <f t="shared" si="7"/>
+      <c r="G47" s="34">
+        <f t="shared" si="6"/>
         <v>6126000</v>
       </c>
       <c r="H47" s="3">
@@ -3393,29 +3625,29 @@
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>895000</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
-      <c r="O47" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="P47" s="23"/>
+      <c r="O47" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="P47" s="19"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
     </row>
     <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="57">
+      <c r="A48" s="44">
         <v>47</v>
       </c>
-      <c r="B48" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="C48" s="28">
+      <c r="B48" s="87" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="22">
         <v>6219000</v>
       </c>
       <c r="D48" s="3">
@@ -3428,8 +3660,8 @@
         <f t="shared" si="8"/>
         <v>7211000</v>
       </c>
-      <c r="G48" s="43">
-        <f t="shared" si="7"/>
+      <c r="G48" s="34">
+        <f t="shared" si="6"/>
         <v>8653200</v>
       </c>
       <c r="H48" s="3">
@@ -3441,7 +3673,7 @@
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1189000</v>
       </c>
       <c r="L48" s="2" t="s">
@@ -3449,21 +3681,21 @@
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
-      <c r="O48" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="P48" s="23"/>
+      <c r="O48" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="P48" s="19"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="57">
+    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="44">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
-        <v>134</v>
-      </c>
-      <c r="C49" s="28">
+      <c r="B49" s="79" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" s="22">
         <v>4149000</v>
       </c>
       <c r="D49" s="3">
@@ -3476,8 +3708,8 @@
         <f t="shared" si="8"/>
         <v>5270000</v>
       </c>
-      <c r="G49" s="43">
-        <f t="shared" si="7"/>
+      <c r="G49" s="34">
+        <f t="shared" si="6"/>
         <v>6324000</v>
       </c>
       <c r="H49" s="3">
@@ -3489,29 +3721,29 @@
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>930000</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
-      <c r="O49" s="65" t="s">
-        <v>135</v>
-      </c>
-      <c r="P49" s="23"/>
+      <c r="O49" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="P49" s="19"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="57">
+      <c r="A50" s="44">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>136</v>
-      </c>
-      <c r="C50" s="28">
+      <c r="B50" s="79" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="22">
         <v>3648000</v>
       </c>
       <c r="D50" s="3">
@@ -3522,35 +3754,40 @@
         <f t="shared" si="8"/>
         <v>4531000</v>
       </c>
-      <c r="G50" s="43">
-        <f t="shared" si="7"/>
+      <c r="G50" s="34">
+        <f t="shared" si="6"/>
         <v>5437200</v>
       </c>
       <c r="H50" s="3">
         <f t="shared" si="9"/>
         <v>5663750</v>
       </c>
-      <c r="I50" s="3"/>
+      <c r="I50" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
+      <c r="K50" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
-      <c r="O50" s="22" t="s">
+      <c r="O50" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="2"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="44">
+        <v>50</v>
+      </c>
+      <c r="B51" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="23"/>
-      <c r="R50" s="2"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="57">
-        <v>50</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="C51" s="28">
+      <c r="C51" s="22">
         <v>4560000</v>
       </c>
       <c r="D51" s="3">
@@ -3561,8 +3798,8 @@
         <f t="shared" si="8"/>
         <v>5258500</v>
       </c>
-      <c r="G51" s="43">
-        <f t="shared" si="7"/>
+      <c r="G51" s="34">
+        <f t="shared" si="6"/>
         <v>6310200</v>
       </c>
       <c r="H51" s="3">
@@ -3574,29 +3811,29 @@
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2341500</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
-      <c r="O51" s="22" t="s">
+      <c r="O51" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="2"/>
+    </row>
+    <row r="52" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="44">
+        <v>51</v>
+      </c>
+      <c r="B52" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="2"/>
-    </row>
-    <row r="52" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="57">
-        <v>51</v>
-      </c>
-      <c r="B52" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="C52" s="28">
+      <c r="C52" s="22">
         <v>4560000</v>
       </c>
       <c r="D52" s="3">
@@ -3607,82 +3844,84 @@
         <f t="shared" si="8"/>
         <v>5545000</v>
       </c>
-      <c r="G52" s="43">
-        <f t="shared" si="7"/>
+      <c r="G52" s="34">
+        <f t="shared" si="6"/>
         <v>6654000</v>
       </c>
       <c r="H52" s="3">
         <f t="shared" si="9"/>
         <v>6931250</v>
       </c>
-      <c r="I52" s="3"/>
+      <c r="I52" s="3">
+        <v>7500000</v>
+      </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3">
-        <f t="shared" si="4"/>
-        <v>-5545000</v>
+        <f t="shared" si="7"/>
+        <v>1955000</v>
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
-      <c r="O52" s="22" t="s">
+      <c r="O52" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="2"/>
+    </row>
+    <row r="53" spans="1:18" s="100" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="93">
+        <v>52</v>
+      </c>
+      <c r="B53" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="23"/>
-      <c r="R52" s="2"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="57">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>142</v>
-      </c>
-      <c r="C53" s="28">
+      <c r="C53" s="95">
         <v>3192000</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="96">
         <v>903000</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="96">
         <v>200000</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="96">
         <f t="shared" si="8"/>
         <v>4295000</v>
       </c>
-      <c r="G53" s="43">
-        <f t="shared" si="7"/>
+      <c r="G53" s="96">
+        <f t="shared" si="6"/>
         <v>5154000</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="96">
         <f t="shared" si="9"/>
         <v>5368750</v>
       </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3">
-        <f t="shared" si="4"/>
+      <c r="I53" s="96"/>
+      <c r="J53" s="96"/>
+      <c r="K53" s="96">
+        <f t="shared" si="7"/>
         <v>-4295000</v>
       </c>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="22" t="s">
+      <c r="L53" s="97"/>
+      <c r="M53" s="97"/>
+      <c r="N53" s="97"/>
+      <c r="O53" s="98" t="s">
+        <v>142</v>
+      </c>
+      <c r="P53" s="97"/>
+      <c r="Q53" s="99"/>
+      <c r="R53" s="97"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="44">
+        <v>53</v>
+      </c>
+      <c r="B54" s="79" t="s">
         <v>143</v>
       </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="23"/>
-      <c r="R53" s="2"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="57">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>144</v>
-      </c>
-      <c r="C54" s="28">
+      <c r="C54" s="22">
         <v>4149000</v>
       </c>
       <c r="D54" s="3">
@@ -3693,8 +3932,8 @@
         <f t="shared" si="8"/>
         <v>4888000</v>
       </c>
-      <c r="G54" s="43">
-        <f t="shared" si="7"/>
+      <c r="G54" s="34">
+        <f t="shared" si="6"/>
         <v>5865600</v>
       </c>
       <c r="H54" s="3">
@@ -3706,113 +3945,121 @@
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1312000</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
-      <c r="O54" s="22" t="s">
+      <c r="O54" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="2"/>
+    </row>
+    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="44">
+        <v>54</v>
+      </c>
+      <c r="B55" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="23"/>
-      <c r="R54" s="2"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="57">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>146</v>
-      </c>
-      <c r="C55" s="28">
+      <c r="C55" s="22">
         <v>4104000</v>
       </c>
       <c r="D55" s="3">
         <v>607500</v>
       </c>
-      <c r="E55" s="3"/>
+      <c r="E55" s="3">
+        <v>650000</v>
+      </c>
       <c r="F55" s="3">
         <f t="shared" si="8"/>
-        <v>4711500</v>
-      </c>
-      <c r="G55" s="43">
-        <f t="shared" si="7"/>
-        <v>5653800</v>
+        <v>5361500</v>
+      </c>
+      <c r="G55" s="34">
+        <f t="shared" si="6"/>
+        <v>6433800</v>
       </c>
       <c r="H55" s="3">
         <f t="shared" si="9"/>
-        <v>5889375</v>
-      </c>
-      <c r="I55" s="3"/>
+        <v>6701875</v>
+      </c>
+      <c r="I55" s="3">
+        <v>6750000</v>
+      </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3">
-        <f t="shared" si="4"/>
-        <v>-4711500</v>
-      </c>
-      <c r="L55" s="2"/>
+        <f t="shared" si="7"/>
+        <v>1388500</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
-      <c r="O55" s="22" t="s">
+      <c r="O55" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="2"/>
+    </row>
+    <row r="56" spans="1:18" s="100" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="93">
+        <v>55</v>
+      </c>
+      <c r="B56" s="94" t="s">
+        <v>193</v>
+      </c>
+      <c r="C56" s="95">
+        <v>1960000</v>
+      </c>
+      <c r="D56" s="96">
+        <v>833000</v>
+      </c>
+      <c r="E56" s="96">
+        <v>900000</v>
+      </c>
+      <c r="F56" s="96">
+        <f t="shared" si="8"/>
+        <v>3693000</v>
+      </c>
+      <c r="G56" s="96">
+        <f t="shared" si="6"/>
+        <v>4431600</v>
+      </c>
+      <c r="H56" s="96">
+        <f t="shared" si="9"/>
+        <v>4616250</v>
+      </c>
+      <c r="I56" s="96"/>
+      <c r="J56" s="96"/>
+      <c r="K56" s="96">
+        <f t="shared" si="7"/>
+        <v>-3693000</v>
+      </c>
+      <c r="L56" s="97"/>
+      <c r="M56" s="97"/>
+      <c r="N56" s="97"/>
+      <c r="O56" s="98" t="s">
         <v>147</v>
       </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="23"/>
-      <c r="R55" s="2"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="57">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="P56" s="97"/>
+      <c r="Q56" s="99"/>
+      <c r="R56" s="97"/>
+    </row>
+    <row r="57" spans="1:18" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="44">
+        <v>56</v>
+      </c>
+      <c r="B57" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="C56" s="28">
-        <v>1960000</v>
-      </c>
-      <c r="D56" s="3">
-        <v>833000</v>
-      </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3">
-        <f t="shared" si="8"/>
-        <v>2793000</v>
-      </c>
-      <c r="G56" s="43">
-        <f t="shared" si="7"/>
-        <v>3351600</v>
-      </c>
-      <c r="H56" s="3">
-        <f t="shared" si="9"/>
-        <v>3491250</v>
-      </c>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3">
-        <f t="shared" si="4"/>
-        <v>-2793000</v>
-      </c>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="23"/>
-      <c r="R56" s="2"/>
-    </row>
-    <row r="57" spans="1:18" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="57">
-        <v>56</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="C57" s="28">
+      <c r="C57" s="22">
         <v>3762000</v>
       </c>
       <c r="D57" s="3">
@@ -3825,8 +4072,8 @@
         <f t="shared" si="8"/>
         <v>5322000</v>
       </c>
-      <c r="G57" s="43">
-        <f t="shared" si="7"/>
+      <c r="G57" s="34">
+        <f t="shared" si="6"/>
         <v>6386400</v>
       </c>
       <c r="H57" s="3">
@@ -3838,7 +4085,7 @@
       </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>978000</v>
       </c>
       <c r="L57" s="2" t="s">
@@ -3846,26 +4093,26 @@
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="O57" s="22" t="s">
-        <v>151</v>
+        <v>168</v>
+      </c>
+      <c r="O57" s="18" t="s">
+        <v>149</v>
       </c>
       <c r="P57" s="2"/>
-      <c r="Q57" s="23"/>
+      <c r="Q57" s="19"/>
       <c r="R57" s="2"/>
     </row>
     <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="57">
+      <c r="A58" s="44">
         <v>57</v>
       </c>
-      <c r="B58" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="C58" s="28">
+      <c r="B58" s="88" t="s">
+        <v>150</v>
+      </c>
+      <c r="C58" s="22">
         <v>6441000</v>
       </c>
-      <c r="D58" s="67">
+      <c r="D58" s="54">
         <v>771500</v>
       </c>
       <c r="E58" s="3"/>
@@ -3873,8 +4120,8 @@
         <f t="shared" si="8"/>
         <v>7212500</v>
       </c>
-      <c r="G58" s="43">
-        <f t="shared" si="7"/>
+      <c r="G58" s="34">
+        <f t="shared" si="6"/>
         <v>8655000</v>
       </c>
       <c r="H58" s="3">
@@ -3886,317 +4133,335 @@
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2087500</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
-      <c r="O58" s="22" t="s">
+      <c r="O58" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="2"/>
+    </row>
+    <row r="59" spans="1:18" s="74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="68">
+        <v>58</v>
+      </c>
+      <c r="B59" s="89" t="s">
+        <v>152</v>
+      </c>
+      <c r="C59" s="69">
+        <v>7435000</v>
+      </c>
+      <c r="D59" s="70">
+        <v>924000</v>
+      </c>
+      <c r="E59" s="70"/>
+      <c r="F59" s="70">
+        <f t="shared" si="8"/>
+        <v>8359000</v>
+      </c>
+      <c r="G59" s="70">
+        <f t="shared" si="6"/>
+        <v>10030800</v>
+      </c>
+      <c r="H59" s="70">
+        <f t="shared" si="9"/>
+        <v>10448750</v>
+      </c>
+      <c r="I59" s="70" t="s">
+        <v>195</v>
+      </c>
+      <c r="J59" s="70"/>
+      <c r="K59" s="70" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L59" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="M59" s="71"/>
+      <c r="N59" s="71"/>
+      <c r="O59" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="23"/>
-      <c r="R58" s="2"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="57">
-        <v>58</v>
-      </c>
-      <c r="B59" s="54" t="s">
+      <c r="P59" s="71"/>
+      <c r="Q59" s="73"/>
+      <c r="R59" s="71"/>
+    </row>
+    <row r="60" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="44">
+        <v>59</v>
+      </c>
+      <c r="B60" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="C59" s="28">
-        <v>7435000</v>
-      </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3">
-        <f t="shared" si="8"/>
-        <v>7435000</v>
-      </c>
-      <c r="G59" s="43">
-        <f t="shared" si="7"/>
-        <v>8922000</v>
-      </c>
-      <c r="H59" s="3">
-        <f t="shared" si="9"/>
-        <v>9293750</v>
-      </c>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3">
-        <f t="shared" si="4"/>
-        <v>-7435000</v>
-      </c>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="66" t="s">
-        <v>155</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="23"/>
-      <c r="R59" s="2"/>
-    </row>
-    <row r="60" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="57">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>156</v>
-      </c>
-      <c r="C60" s="28">
+      <c r="C60" s="22">
         <v>1824000</v>
       </c>
-      <c r="D60" s="3"/>
+      <c r="D60" s="3">
+        <v>739500</v>
+      </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3">
         <f t="shared" si="8"/>
-        <v>1824000</v>
-      </c>
-      <c r="G60" s="43">
-        <f t="shared" si="7"/>
-        <v>2188800</v>
+        <v>2563500</v>
+      </c>
+      <c r="G60" s="34">
+        <f t="shared" si="6"/>
+        <v>3076200</v>
       </c>
       <c r="H60" s="3">
         <f t="shared" si="9"/>
-        <v>2280000</v>
+        <v>3204375</v>
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3">
-        <f t="shared" si="4"/>
-        <v>-1824000</v>
+        <f t="shared" si="7"/>
+        <v>-2563500</v>
       </c>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
-      <c r="O60" s="22" t="s">
+      <c r="O60" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="2"/>
+    </row>
+    <row r="61" spans="1:18" s="67" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="90" t="s">
+        <v>156</v>
+      </c>
+      <c r="C61" s="62">
+        <v>6328000</v>
+      </c>
+      <c r="D61" s="63">
+        <v>985000</v>
+      </c>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63">
+        <f t="shared" si="8"/>
+        <v>7313000</v>
+      </c>
+      <c r="G61" s="63">
+        <f t="shared" si="6"/>
+        <v>8775600</v>
+      </c>
+      <c r="H61" s="63">
+        <f t="shared" si="9"/>
+        <v>9141250</v>
+      </c>
+      <c r="I61" s="63"/>
+      <c r="J61" s="63"/>
+      <c r="K61" s="63">
+        <f t="shared" si="7"/>
+        <v>-7313000</v>
+      </c>
+      <c r="L61" s="64"/>
+      <c r="M61" s="64"/>
+      <c r="N61" s="64"/>
+      <c r="O61" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="23"/>
-      <c r="R60" s="2"/>
-    </row>
-    <row r="61" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="57">
-        <v>60</v>
-      </c>
-      <c r="B61" s="27" t="s">
+      <c r="P61" s="64"/>
+      <c r="Q61" s="66"/>
+      <c r="R61" s="64"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" s="44">
+        <v>61</v>
+      </c>
+      <c r="B62" s="91" t="s">
         <v>158</v>
       </c>
-      <c r="C61" s="28">
-        <v>6328000</v>
-      </c>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3">
-        <f t="shared" si="8"/>
-        <v>6328000</v>
-      </c>
-      <c r="G61" s="43">
-        <f t="shared" si="7"/>
-        <v>7593600</v>
-      </c>
-      <c r="H61" s="3">
-        <f t="shared" si="9"/>
-        <v>7910000</v>
-      </c>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3">
-        <f t="shared" si="4"/>
-        <v>-6328000</v>
-      </c>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="23"/>
-      <c r="R61" s="2"/>
-    </row>
-    <row r="62" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="57">
-        <v>61</v>
-      </c>
-      <c r="B62" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="C62" s="28">
+      <c r="C62" s="22">
         <v>3762000</v>
       </c>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
+      <c r="D62" s="3">
+        <v>699000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1000000</v>
+      </c>
       <c r="F62" s="3">
         <f t="shared" si="8"/>
-        <v>3762000</v>
-      </c>
-      <c r="G62" s="43">
-        <f t="shared" si="7"/>
-        <v>4514400</v>
+        <v>5461000</v>
+      </c>
+      <c r="G62" s="34">
+        <f t="shared" si="6"/>
+        <v>6553200</v>
       </c>
       <c r="H62" s="3">
         <f t="shared" si="9"/>
-        <v>4702500</v>
+        <v>6826250</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3">
-        <f t="shared" si="4"/>
-        <v>-3762000</v>
+        <f t="shared" si="7"/>
+        <v>-5461000</v>
       </c>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
-      <c r="O62" s="22" t="s">
-        <v>161</v>
+      <c r="O62" s="18" t="s">
+        <v>159</v>
       </c>
       <c r="P62" s="2"/>
-      <c r="Q62" s="23"/>
+      <c r="Q62" s="19"/>
       <c r="R62" s="2"/>
     </row>
-    <row r="63" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="57">
+    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="44">
         <v>62</v>
       </c>
-      <c r="B63" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="C63" s="28">
+      <c r="B63" s="91" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63" s="22">
         <v>4000000</v>
       </c>
       <c r="D63" s="3">
-        <v>730500</v>
+        <v>780500</v>
       </c>
       <c r="E63" s="3">
         <v>300000</v>
       </c>
       <c r="F63" s="3">
         <f t="shared" si="8"/>
-        <v>5030500</v>
-      </c>
-      <c r="G63" s="43">
-        <f t="shared" si="7"/>
-        <v>6036600</v>
+        <v>5080500</v>
+      </c>
+      <c r="G63" s="34">
+        <f t="shared" si="6"/>
+        <v>6096600</v>
       </c>
       <c r="H63" s="3">
         <f t="shared" si="9"/>
-        <v>6288125</v>
+        <v>6350625</v>
       </c>
       <c r="I63" s="3">
-        <v>6000000</v>
+        <v>5700000</v>
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3">
-        <f t="shared" si="4"/>
-        <v>969500</v>
+        <f t="shared" si="7"/>
+        <v>619500</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
-      <c r="O63" s="22" t="s">
+      <c r="O63" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="19"/>
+      <c r="R63" s="2"/>
+    </row>
+    <row r="64" spans="1:18" s="59" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="43">
+        <v>63</v>
+      </c>
+      <c r="B64" s="92" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64" s="57">
+        <v>6350000</v>
+      </c>
+      <c r="D64" s="38">
+        <v>900000</v>
+      </c>
+      <c r="E64" s="38"/>
+      <c r="F64" s="38">
+        <f t="shared" si="8"/>
+        <v>7250000</v>
+      </c>
+      <c r="G64" s="38">
+        <f t="shared" si="6"/>
+        <v>8700000</v>
+      </c>
+      <c r="H64" s="38">
+        <f t="shared" si="9"/>
+        <v>9062500</v>
+      </c>
+      <c r="I64" s="38"/>
+      <c r="J64" s="38"/>
+      <c r="K64" s="38">
+        <f t="shared" si="7"/>
+        <v>-7250000</v>
+      </c>
+      <c r="L64" s="39"/>
+      <c r="M64" s="39"/>
+      <c r="N64" s="39"/>
+      <c r="O64" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="23"/>
-      <c r="R63" s="2"/>
-    </row>
-    <row r="64" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="57">
-        <v>63</v>
-      </c>
-      <c r="B64" s="27" t="s">
+      <c r="P64" s="39"/>
+      <c r="Q64" s="58"/>
+      <c r="R64" s="39"/>
+    </row>
+    <row r="65" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="44">
+        <v>64</v>
+      </c>
+      <c r="B65" s="91" t="s">
         <v>164</v>
       </c>
-      <c r="C64" s="28">
-        <v>6350000</v>
-      </c>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3">
-        <f t="shared" si="8"/>
-        <v>6350000</v>
-      </c>
-      <c r="G64" s="43">
-        <f t="shared" si="7"/>
-        <v>7620000</v>
-      </c>
-      <c r="H64" s="3">
-        <f t="shared" si="9"/>
-        <v>7937500</v>
-      </c>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3">
-        <f t="shared" si="4"/>
-        <v>-6350000</v>
-      </c>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="23"/>
-      <c r="R64" s="2"/>
-    </row>
-    <row r="65" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="57">
-        <v>64</v>
-      </c>
-      <c r="B65" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="C65" s="28">
+      <c r="C65" s="22">
         <v>2712000</v>
       </c>
-      <c r="D65" s="3"/>
+      <c r="D65" s="3">
+        <v>821000</v>
+      </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3">
         <f t="shared" si="8"/>
-        <v>2712000</v>
-      </c>
-      <c r="G65" s="43">
-        <f t="shared" si="7"/>
-        <v>3254400</v>
+        <v>3533000</v>
+      </c>
+      <c r="G65" s="34">
+        <f t="shared" si="6"/>
+        <v>4239600</v>
       </c>
       <c r="H65" s="3">
         <f t="shared" si="9"/>
-        <v>3390000</v>
+        <v>4416250</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3">
-        <f t="shared" si="4"/>
-        <v>-2712000</v>
+        <f t="shared" si="7"/>
+        <v>-3533000</v>
       </c>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
-      <c r="O65" s="22" t="s">
-        <v>167</v>
+      <c r="O65" s="18" t="s">
+        <v>165</v>
       </c>
       <c r="P65" s="2"/>
-      <c r="Q65" s="23"/>
+      <c r="Q65" s="19"/>
       <c r="R65" s="2"/>
     </row>
-    <row r="66" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="57">
+    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="44">
         <v>65</v>
       </c>
-      <c r="B66" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="C66" s="28">
+      <c r="B66" s="91" t="s">
+        <v>166</v>
+      </c>
+      <c r="C66" s="22">
         <v>2440000</v>
       </c>
       <c r="D66" s="3">
@@ -4207,8 +4472,8 @@
         <f t="shared" si="8"/>
         <v>2511750</v>
       </c>
-      <c r="G66" s="43">
-        <f t="shared" si="7"/>
+      <c r="G66" s="34">
+        <f t="shared" si="6"/>
         <v>3014100</v>
       </c>
       <c r="H66" s="3">
@@ -4218,61 +4483,69 @@
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="K66:K72" si="10">I66-J66-F66</f>
         <v>-2511750</v>
       </c>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
-      <c r="O66" s="22" t="s">
-        <v>169</v>
+      <c r="O66" s="18" t="s">
+        <v>167</v>
       </c>
       <c r="P66" s="2"/>
-      <c r="Q66" s="23"/>
+      <c r="Q66" s="19"/>
       <c r="R66" s="2"/>
     </row>
-    <row r="67" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="57">
+    <row r="67" spans="1:18" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="93">
         <v>66</v>
       </c>
-      <c r="B67" s="27" t="s">
+      <c r="B67" s="101" t="s">
+        <v>172</v>
+      </c>
+      <c r="C67" s="95">
+        <v>3351000</v>
+      </c>
+      <c r="D67" s="96">
+        <v>760000</v>
+      </c>
+      <c r="E67" s="96"/>
+      <c r="F67" s="96">
+        <f t="shared" si="8"/>
+        <v>4111000</v>
+      </c>
+      <c r="G67" s="96">
+        <f t="shared" si="6"/>
+        <v>4933200</v>
+      </c>
+      <c r="H67" s="96">
+        <f t="shared" si="9"/>
+        <v>5138750</v>
+      </c>
+      <c r="I67" s="96"/>
+      <c r="J67" s="96"/>
+      <c r="K67" s="96">
+        <f t="shared" si="10"/>
+        <v>-4111000</v>
+      </c>
+      <c r="L67" s="97"/>
+      <c r="M67" s="97"/>
+      <c r="N67" s="97"/>
+      <c r="O67" s="98" t="s">
+        <v>173</v>
+      </c>
+      <c r="P67" s="97"/>
+      <c r="Q67" s="99"/>
+      <c r="R67" s="97"/>
+    </row>
+    <row r="68" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="44">
+        <v>67</v>
+      </c>
+      <c r="B68" s="91" t="s">
         <v>174</v>
       </c>
-      <c r="C67" s="28">
-        <v>3351000</v>
-      </c>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3">
-        <f t="shared" si="8"/>
-        <v>3351000</v>
-      </c>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3">
-        <f t="shared" si="4"/>
-        <v>-3351000</v>
-      </c>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="23"/>
-      <c r="R67" s="2"/>
-    </row>
-    <row r="68" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="57">
-        <v>67</v>
-      </c>
-      <c r="B68" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="C68" s="28">
+      <c r="C68" s="22">
         <v>3511000</v>
       </c>
       <c r="D68" s="3"/>
@@ -4281,32 +4554,38 @@
         <f t="shared" si="8"/>
         <v>3511000</v>
       </c>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
+      <c r="G68" s="34">
+        <f t="shared" si="6"/>
+        <v>4213200</v>
+      </c>
+      <c r="H68" s="3">
+        <f t="shared" si="9"/>
+        <v>4388750</v>
+      </c>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-3511000</v>
       </c>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
-      <c r="O68" s="22" t="s">
-        <v>177</v>
+      <c r="O68" s="18" t="s">
+        <v>175</v>
       </c>
       <c r="P68" s="2"/>
-      <c r="Q68" s="23"/>
+      <c r="Q68" s="19"/>
       <c r="R68" s="2"/>
     </row>
     <row r="69" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="57">
+      <c r="A69" s="44">
         <v>68</v>
       </c>
-      <c r="B69" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="C69" s="28">
+      <c r="B69" s="91" t="s">
+        <v>176</v>
+      </c>
+      <c r="C69" s="22">
         <v>7204000</v>
       </c>
       <c r="D69" s="3"/>
@@ -4315,30 +4594,36 @@
         <f t="shared" si="8"/>
         <v>7204000</v>
       </c>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
+      <c r="G69" s="34">
+        <f t="shared" si="6"/>
+        <v>8644800</v>
+      </c>
+      <c r="H69" s="3">
+        <f t="shared" si="9"/>
+        <v>9005000</v>
+      </c>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-7204000</v>
       </c>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
-      <c r="O69" s="22" t="s">
-        <v>179</v>
+      <c r="O69" s="18" t="s">
+        <v>177</v>
       </c>
       <c r="P69" s="2"/>
-      <c r="Q69" s="23"/>
+      <c r="Q69" s="19"/>
       <c r="R69" s="2"/>
     </row>
     <row r="70" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="57">
+      <c r="A70" s="44">
         <v>69</v>
       </c>
-      <c r="B70" s="18" t="s">
-        <v>182</v>
+      <c r="B70" s="76" t="s">
+        <v>180</v>
       </c>
       <c r="C70" s="3">
         <v>2964000</v>
@@ -4349,30 +4634,36 @@
         <f t="shared" si="8"/>
         <v>2964000</v>
       </c>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
+      <c r="G70" s="34">
+        <f t="shared" si="6"/>
+        <v>3556800</v>
+      </c>
+      <c r="H70" s="3">
+        <f t="shared" si="9"/>
+        <v>3705000</v>
+      </c>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-2964000</v>
       </c>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
-      <c r="O70" s="66" t="s">
-        <v>183</v>
+      <c r="O70" s="53" t="s">
+        <v>181</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" s="4"/>
       <c r="R70" s="2"/>
     </row>
     <row r="71" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="25"/>
-      <c r="B71" s="54" t="s">
-        <v>184</v>
-      </c>
-      <c r="C71" s="28">
+      <c r="A71" s="21"/>
+      <c r="B71" s="79" t="s">
+        <v>182</v>
+      </c>
+      <c r="C71" s="22">
         <v>4423000</v>
       </c>
       <c r="D71" s="3"/>
@@ -4381,154 +4672,468 @@
         <f t="shared" si="8"/>
         <v>4423000</v>
       </c>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
+      <c r="G71" s="34">
+        <f t="shared" si="6"/>
+        <v>5307600</v>
+      </c>
+      <c r="H71" s="3">
+        <f t="shared" si="9"/>
+        <v>5528750</v>
+      </c>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-4423000</v>
       </c>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
-      <c r="O71" s="22" t="s">
-        <v>185</v>
+      <c r="O71" s="18" t="s">
+        <v>183</v>
       </c>
       <c r="P71" s="2"/>
-      <c r="Q71" s="23"/>
+      <c r="Q71" s="19"/>
       <c r="R71" s="2"/>
     </row>
     <row r="72" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="25"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="28"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="C72" s="22">
+        <v>3306000</v>
+      </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
+      <c r="F72" s="3">
+        <f t="shared" si="8"/>
+        <v>3306000</v>
+      </c>
+      <c r="G72" s="34">
+        <f t="shared" si="6"/>
+        <v>3967200</v>
+      </c>
+      <c r="H72" s="3">
+        <f t="shared" si="9"/>
+        <v>4132500</v>
+      </c>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
+      <c r="K72" s="3">
+        <f t="shared" si="10"/>
+        <v>-3306000</v>
+      </c>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
-      <c r="O72" s="22"/>
+      <c r="O72" s="103" t="s">
+        <v>197</v>
+      </c>
       <c r="P72" s="2"/>
-      <c r="Q72" s="23"/>
+      <c r="Q72" s="19"/>
       <c r="R72" s="2"/>
     </row>
     <row r="73" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="18"/>
-      <c r="C73" s="3"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="C73" s="22">
+        <v>3306000</v>
+      </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
+      <c r="F73" s="3">
+        <f t="shared" ref="F73:F80" si="11">C73+D73+E73</f>
+        <v>3306000</v>
+      </c>
+      <c r="G73" s="34">
+        <f t="shared" ref="G73:G80" si="12">(F73*20%)+F73</f>
+        <v>3967200</v>
+      </c>
+      <c r="H73" s="3">
+        <f t="shared" ref="H73:H80" si="13">(F73*25%)+F73</f>
+        <v>4132500</v>
+      </c>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3">
-        <f t="shared" ref="K73" si="10">I73-J73-F73</f>
-        <v>0</v>
+        <f t="shared" ref="K73:K78" si="14">I73-J73-F73</f>
+        <v>-3306000</v>
       </c>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
-      <c r="O73" s="14"/>
+      <c r="O73" s="104"/>
       <c r="P73" s="2"/>
-      <c r="Q73" s="4"/>
+      <c r="Q73" s="19"/>
       <c r="R73" s="2"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F75" s="43"/>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F76" s="3"/>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F77" s="3"/>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F78" s="3"/>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F79" s="3"/>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F80" s="3"/>
-    </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F81" s="3"/>
-    </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F82" s="3"/>
-    </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F83" s="3"/>
-    </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F84" s="3"/>
-    </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F85" s="3"/>
-    </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F86" s="3"/>
-    </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F87" s="3"/>
-    </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F88" s="3"/>
-    </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F89" s="3"/>
-    </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F90" s="3"/>
-    </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F91" s="3"/>
-    </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F92" s="3"/>
-    </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F93" s="3"/>
-    </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F94" s="3"/>
-    </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F95" s="3"/>
-    </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F96" s="3"/>
-    </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F97" s="3"/>
+    <row r="74" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="21"/>
+      <c r="B74" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="C74" s="22">
+        <v>3306000</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3">
+        <f t="shared" si="11"/>
+        <v>3306000</v>
+      </c>
+      <c r="G74" s="34">
+        <f t="shared" si="12"/>
+        <v>3967200</v>
+      </c>
+      <c r="H74" s="3">
+        <f t="shared" si="13"/>
+        <v>4132500</v>
+      </c>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3">
+        <f t="shared" si="14"/>
+        <v>-3306000</v>
+      </c>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="105"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="19"/>
+      <c r="R74" s="2"/>
+    </row>
+    <row r="75" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="21"/>
+      <c r="B75" s="79" t="s">
+        <v>198</v>
+      </c>
+      <c r="C75" s="22">
+        <v>6974748</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3">
+        <f t="shared" si="11"/>
+        <v>6974748</v>
+      </c>
+      <c r="G75" s="34">
+        <f t="shared" si="12"/>
+        <v>8369697.5999999996</v>
+      </c>
+      <c r="H75" s="3">
+        <f t="shared" si="13"/>
+        <v>8718435</v>
+      </c>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3">
+        <f t="shared" si="14"/>
+        <v>-6974748</v>
+      </c>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="19"/>
+      <c r="R75" s="2"/>
+    </row>
+    <row r="76" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="21"/>
+      <c r="B76" s="107" t="s">
+        <v>200</v>
+      </c>
+      <c r="C76" s="22">
+        <v>2188000</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3">
+        <f t="shared" si="11"/>
+        <v>2188000</v>
+      </c>
+      <c r="G76" s="34">
+        <f t="shared" si="12"/>
+        <v>2625600</v>
+      </c>
+      <c r="H76" s="3">
+        <f t="shared" si="13"/>
+        <v>2735000</v>
+      </c>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3">
+        <f t="shared" si="14"/>
+        <v>-2188000</v>
+      </c>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="19"/>
+      <c r="R76" s="2"/>
+    </row>
+    <row r="77" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="21"/>
+      <c r="B77" s="107" t="s">
+        <v>202</v>
+      </c>
+      <c r="C77" s="22">
+        <v>5706000</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3">
+        <f t="shared" si="11"/>
+        <v>5706000</v>
+      </c>
+      <c r="G77" s="34">
+        <f t="shared" si="12"/>
+        <v>6847200</v>
+      </c>
+      <c r="H77" s="3">
+        <f t="shared" si="13"/>
+        <v>7132500</v>
+      </c>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3">
+        <f t="shared" si="14"/>
+        <v>-5706000</v>
+      </c>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="19"/>
+      <c r="R77" s="2"/>
+    </row>
+    <row r="78" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="21"/>
+      <c r="B78" s="107" t="s">
+        <v>204</v>
+      </c>
+      <c r="C78" s="22">
+        <v>5244000</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3">
+        <f t="shared" si="11"/>
+        <v>5244000</v>
+      </c>
+      <c r="G78" s="3">
+        <f t="shared" si="12"/>
+        <v>6292800</v>
+      </c>
+      <c r="H78" s="3">
+        <f t="shared" si="13"/>
+        <v>6555000</v>
+      </c>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3">
+        <f t="shared" si="14"/>
+        <v>-5244000</v>
+      </c>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="18"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="19"/>
+      <c r="R78" s="2"/>
+    </row>
+    <row r="79" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="102" t="s">
+        <v>205</v>
+      </c>
+      <c r="C79" s="3">
+        <v>2508000</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3">
+        <f t="shared" si="11"/>
+        <v>2508000</v>
+      </c>
+      <c r="G79" s="3">
+        <f t="shared" si="12"/>
+        <v>3009600</v>
+      </c>
+      <c r="H79" s="3">
+        <f t="shared" si="13"/>
+        <v>3135000</v>
+      </c>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3">
+        <f>I79-J79-F79</f>
+        <v>-2508000</v>
+      </c>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="2"/>
+    </row>
+    <row r="80" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="B80" s="83" t="s">
+        <v>207</v>
+      </c>
+      <c r="C80" s="1">
+        <v>7410000</v>
+      </c>
+      <c r="F80" s="1">
+        <f t="shared" si="11"/>
+        <v>7410000</v>
+      </c>
+      <c r="G80" s="1">
+        <f t="shared" si="12"/>
+        <v>8892000</v>
+      </c>
+      <c r="H80" s="1">
+        <f t="shared" si="13"/>
+        <v>9262500</v>
+      </c>
+      <c r="K80" s="1">
+        <f>I80-J80-F80</f>
+        <v>-7410000</v>
+      </c>
+      <c r="O80" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B81" s="107" t="s">
+        <v>209</v>
+      </c>
+      <c r="C81" s="1">
+        <v>7410000</v>
+      </c>
+      <c r="O81" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B82" s="106"/>
     </row>
   </sheetData>
-  <autoFilter ref="L1:L75" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="C2:G2 H2:N17 O2:Q22 B2:B25 R2:R39 C3:E25 F3:G27 P23:Q25 O26:Q26 D26:E38 P26:P39 O29:Q38 D39:F39 C40:F41 P42:P43 R42:R43 Q44:Q49 C29:F38 L42:N69 P50:P69 R50:R69 L40:R41 L18:N39 D67:J69 D42:F57 H18:J66 F28 G28:G66 L71:N72 P71:P72 R71:R72 D71:J72 K3:K73 D59:F66 E58:F58">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>MOD(ROW(),2)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F75:F97">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <autoFilter ref="L1:L80" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="1">
+    <mergeCell ref="O72:O74"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C2:G2 H2:N17 O2:Q22 B2:B25 R2:R39 C3:E25 F3:G27 P23:Q25 O26:Q26 D26:E38 P26:P39 O29:Q38 D39:F39 C40:F41 P42:P43 R42:R43 Q44:Q49 C29:F38 L42:N69 P50:P69 R50:R69 L40:R41 L18:N39 D42:F57 F28 L71:N72 K3:K72 D59:F69 E58:F58 D71:F72 I71:J72 H18:J65 G28:G72 I66:J69 H66:H72 D75:J78 K75:K79 L75:N78 D73:N74 P71:P78 R71:R78">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>MOD(ROW(),2)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="O23" r:id="rId1" display="https://www.ebay.com/ship/trk/tracking-details?transid=2201839708010&amp;itemid=204283961060" xr:uid="{6F8BFF36-4018-4EC5-AB4D-4659A4D8A44B}"/>
     <hyperlink ref="O24" r:id="rId2" display="https://www.ebay.com/ship/trk/tracking-details?transid=0&amp;itemid=394522922692" xr:uid="{33A4F9FB-78A6-4311-9764-2BC4A4E1AFF3}"/>
-    <hyperlink ref="B71" r:id="rId3" display="https://www.ebay.com/itm/235062483881" xr:uid="{3D221827-67B8-45F0-835D-DC6EF409D68C}"/>
+    <hyperlink ref="B72" r:id="rId3" display="https://www.ebay.com/itm/354732531346" xr:uid="{4915D9C4-56C7-4EF7-8105-01A3BF9C8EC8}"/>
+    <hyperlink ref="B73" r:id="rId4" display="https://www.ebay.com/itm/354732531346" xr:uid="{C32FAD5E-7865-4D11-801C-BD8C8D531E83}"/>
+    <hyperlink ref="B74" r:id="rId5" display="https://www.ebay.com/itm/354732531346" xr:uid="{D5E65E5A-1824-4D9C-A5F0-A0AE7A78AB8C}"/>
+    <hyperlink ref="B76" r:id="rId6" display="https://www.ebay.com/itm/334919189281" xr:uid="{6143C9D4-20E2-41DE-9C6E-2B75F889947A}"/>
+    <hyperlink ref="B77" r:id="rId7" display="https://www.ebay.com/itm/195833979238" xr:uid="{9A90E901-DF82-4A99-9402-DB5B4C1C69BC}"/>
+    <hyperlink ref="B78" r:id="rId8" display="https://www.ebay.com/itm/325700792544" xr:uid="{476CE84C-A3E9-44DB-AB05-8B0C468F97A0}"/>
+    <hyperlink ref="B79" r:id="rId9" display="https://www.ebay.com/itm/235007286077" xr:uid="{3B676937-3929-423F-8D5F-009E9E7065CA}"/>
+    <hyperlink ref="B81" r:id="rId10" display="https://www.ebay.com/itm/285290543317" xr:uid="{947CCBB1-E8EA-4D30-B347-25658F9843F5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
+  <drawing r:id="rId12"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7319406-98BD-447D-8271-4689041D1616}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="1">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="1">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="1">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" s="1">
+        <v>600000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TDStore/NhapXuatLaptop.xlsx
+++ b/TDStore/NhapXuatLaptop.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B13192-A874-4591-A337-BD87444AFC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432517FD-3C98-4F0B-B25A-2505E3E321C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NhapXuat" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Linh Kiện" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NhapXuat!$L$1:$L$80</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="225">
   <si>
     <t>ID máy</t>
   </si>
@@ -207,15 +207,9 @@
     <t>Mã vận đơn Ebay</t>
   </si>
   <si>
-    <t>Kho</t>
-  </si>
-  <si>
     <t>9405508205497765140566</t>
   </si>
   <si>
-    <t>ITGreen</t>
-  </si>
-  <si>
     <t>Dell Inspiron 5310 i5-11th/16/512 Xước</t>
   </si>
   <si>
@@ -280,9 +274,6 @@
   </si>
   <si>
     <t>Dell Latitude 3410 Intel Core i5-10210u 1.60 GHz 8GB RAM 14.0" No HDD No OS</t>
-  </si>
-  <si>
-    <t>CAM</t>
   </si>
   <si>
     <t>396715081401</t>
@@ -585,9 +576,6 @@
     <t>Lượng</t>
   </si>
   <si>
-    <t>Dell Latitude 7400 I5-8365U 1.6GHz 16GB RAM 256GB SSD</t>
-  </si>
-  <si>
     <t>1ZE531070398266540</t>
   </si>
   <si>
@@ -676,6 +664,60 @@
   </si>
   <si>
     <t>780572009202</t>
+  </si>
+  <si>
+    <t>5tr2</t>
+  </si>
+  <si>
+    <t>8tr5</t>
+  </si>
+  <si>
+    <t>9405508205499079423557</t>
+  </si>
+  <si>
+    <t>HP ENVY 13-ah0051wm i5-8250U 8GB 512 GB SSD 13.3" Full-HD</t>
+  </si>
+  <si>
+    <t>9405508205499076008542</t>
+  </si>
+  <si>
+    <t>Surface Laptop 2 -8gb, i5 , 256 Storage</t>
+  </si>
+  <si>
+    <t>9400108205496920227460</t>
+  </si>
+  <si>
+    <t>GARMIN VIVOSMART 5</t>
+  </si>
+  <si>
+    <t>780782993957</t>
+  </si>
+  <si>
+    <t>Dell XPS 13 9370 13.3" Core i5-8250U 1.60GHz 8GB RAM 240GB SSD Win 11 Pro</t>
+  </si>
+  <si>
+    <t>1Z13V17V0295970250</t>
+  </si>
+  <si>
+    <t>Dell XPS 13 9370 13.3" FHD i5-8350U 1.70GHz 8GB RAM 256GB SSD Win11Pro BAD BATT.</t>
+  </si>
+  <si>
+    <t>Microsoft Surface Laptop Go 2 12.4" (128GB SSD, Intel Core i5 11th Gen)</t>
+  </si>
+  <si>
+    <t>Dương Bắc Giang</t>
+  </si>
+  <si>
+    <t>Ram 8GB</t>
+  </si>
+  <si>
+    <t>Lợi</t>
+  </si>
+  <si>
+    <t>Em gái anh Dũng</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7400 I5-8365U 1.6GHz 16GB RAM 256GB SSD HD</t>
   </si>
 </sst>
 </file>
@@ -686,7 +728,7 @@
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -738,8 +780,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF111820"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -806,8 +855,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -830,75 +885,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -907,9 +899,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -923,7 +912,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -933,10 +921,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -945,9 +929,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -955,7 +936,6 @@
     <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -975,21 +955,6 @@
     <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1001,7 +966,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1010,12 +974,8 @@
     <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1028,20 +988,14 @@
     <xf numFmtId="14" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1054,19 +1008,12 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1079,21 +1026,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1105,25 +1037,64 @@
     <xf numFmtId="14" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1183,6 +1154,55 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="609600" y="3962400"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1" descr="Dell XPS 13 9370 13.3&quot; FHD i5-8350U 1.70GHz 8GB RAM 256GB SSD Win11Pro BAD BATT.">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EED9A6C6-09BE-39EE-145E-F4D719A39BEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="6867525"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1468,105 +1488,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S82"/>
+  <dimension ref="A1:Q91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L85" sqref="L85"/>
+      <selection pane="bottomLeft" activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="80.42578125" style="83" customWidth="1"/>
-    <col min="3" max="4" width="12.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.28515625" style="16" customWidth="1"/>
-    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="80.42578125" style="56" customWidth="1"/>
+    <col min="3" max="4" width="12.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17" style="3" customWidth="1"/>
+    <col min="6" max="7" width="10.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.28515625" style="13" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="75" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="G1" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="12" t="s">
         <v>54</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21">
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="71">
         <v>1</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="56" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="3">
         <v>6700000</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
       <c r="F2" s="3">
         <f>C2+D2+E2</f>
         <v>6700000</v>
       </c>
-      <c r="G2" s="3"/>
       <c r="H2" s="3">
         <f t="shared" ref="H2:H17" si="0">(F2*25%)+F2</f>
         <v>8375000</v>
@@ -1574,7 +1589,6 @@
       <c r="I2" s="3">
         <v>7600000</v>
       </c>
-      <c r="J2" s="3"/>
       <c r="K2" s="3">
         <f t="shared" ref="K2:K33" si="1">I2-J2-F2</f>
         <v>900000</v>
@@ -1582,36 +1596,30 @@
       <c r="L2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="2"/>
       <c r="N2" s="2">
         <v>34534861886</v>
       </c>
-      <c r="O2" s="14"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="4">
+      <c r="P2" s="4">
         <v>44835</v>
       </c>
-      <c r="R2" s="5">
+      <c r="Q2" s="5">
         <v>44835</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="71">
         <v>2</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="56" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="3">
         <v>6500000</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
       <c r="F3" s="3">
         <f t="shared" ref="F3:F43" si="2">C3+D3+E3</f>
         <v>6500000</v>
       </c>
-      <c r="G3" s="3"/>
       <c r="H3" s="3">
         <f t="shared" si="0"/>
         <v>8125000</v>
@@ -1629,34 +1637,27 @@
       <c r="L3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="4">
+      <c r="P3" s="4">
         <v>44835</v>
       </c>
-      <c r="R3" s="5">
+      <c r="Q3" s="5">
         <v>44835</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="71">
         <v>3</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="56" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3">
         <v>4900000</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
       <c r="F4" s="3">
         <f t="shared" si="2"/>
         <v>4900000</v>
       </c>
-      <c r="G4" s="3"/>
       <c r="H4" s="3">
         <f t="shared" si="0"/>
         <v>6125000</v>
@@ -1664,7 +1665,6 @@
       <c r="I4" s="3">
         <v>5400000</v>
       </c>
-      <c r="J4" s="3"/>
       <c r="K4" s="3">
         <f t="shared" si="1"/>
         <v>500000</v>
@@ -1672,36 +1672,30 @@
       <c r="L4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="2"/>
       <c r="N4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="4">
+      <c r="P4" s="4">
         <v>44841</v>
       </c>
-      <c r="R4" s="5">
+      <c r="Q4" s="5">
         <v>44814</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="71">
         <v>4</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="56" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="3">
         <v>6700000</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
       <c r="F5" s="3">
         <f t="shared" si="2"/>
         <v>6700000</v>
       </c>
-      <c r="G5" s="3"/>
       <c r="H5" s="3">
         <f t="shared" si="0"/>
         <v>8375000</v>
@@ -1717,38 +1711,32 @@
         <v>480000</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>90</v>
+      </c>
       <c r="N5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="4">
+      <c r="P5" s="4">
         <v>44841</v>
       </c>
-      <c r="R5" s="5">
+      <c r="Q5" s="5">
         <v>44841</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="71">
         <v>5</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="56" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="3">
         <v>7150000</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
       <c r="F6" s="3">
         <f t="shared" si="2"/>
         <v>7150000</v>
       </c>
-      <c r="G6" s="3"/>
       <c r="H6" s="3">
         <f t="shared" si="0"/>
         <v>8937500</v>
@@ -1756,7 +1744,6 @@
       <c r="I6" s="3">
         <v>7500000</v>
       </c>
-      <c r="J6" s="3"/>
       <c r="K6" s="3">
         <f t="shared" si="1"/>
         <v>350000</v>
@@ -1764,34 +1751,27 @@
       <c r="L6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="2"/>
       <c r="N6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="4">
+      <c r="P6" s="4">
         <v>44842</v>
       </c>
-      <c r="R6" s="2"/>
-    </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
+    </row>
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="71">
         <v>6</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="56" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="3">
         <v>7500000</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
       <c r="F7" s="3">
         <f t="shared" si="2"/>
         <v>7500000</v>
       </c>
-      <c r="G7" s="3"/>
       <c r="H7" s="3">
         <f t="shared" si="0"/>
         <v>9375000</v>
@@ -1809,34 +1789,27 @@
       <c r="L7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="2"/>
       <c r="N7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="14"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="4">
+      <c r="P7" s="4">
         <v>44845</v>
       </c>
-      <c r="R7" s="2"/>
-    </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
+    </row>
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="71">
         <v>7</v>
       </c>
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="56" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="3">
         <v>6700000</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
       <c r="F8" s="3">
         <f t="shared" si="2"/>
         <v>6700000</v>
       </c>
-      <c r="G8" s="3"/>
       <c r="H8" s="3">
         <f t="shared" si="0"/>
         <v>8375000</v>
@@ -1854,34 +1827,27 @@
       <c r="L8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="4">
+      <c r="P8" s="4">
         <v>44841</v>
       </c>
-      <c r="R8" s="5">
+      <c r="Q8" s="5">
         <v>44841</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="71">
         <v>8</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="56" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="3">
         <v>11500000</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
       <c r="F9" s="3">
         <f t="shared" si="2"/>
         <v>11500000</v>
       </c>
-      <c r="G9" s="3"/>
       <c r="H9" s="3">
         <f t="shared" si="0"/>
         <v>14375000</v>
@@ -1889,7 +1855,6 @@
       <c r="I9" s="3">
         <v>12000000</v>
       </c>
-      <c r="J9" s="3"/>
       <c r="K9" s="3">
         <f t="shared" si="1"/>
         <v>500000</v>
@@ -1897,36 +1862,30 @@
       <c r="L9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="2"/>
       <c r="N9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O9" s="14"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="4">
+      <c r="P9" s="4">
         <v>44876</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="71">
         <v>9</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="56" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="3">
         <v>6500000</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
       <c r="F10" s="3">
         <f t="shared" si="2"/>
         <v>6500000</v>
       </c>
-      <c r="G10" s="3"/>
       <c r="H10" s="3">
         <f t="shared" si="0"/>
         <v>8125000</v>
@@ -1934,7 +1893,6 @@
       <c r="I10" s="3">
         <v>7500000</v>
       </c>
-      <c r="J10" s="3"/>
       <c r="K10" s="3">
         <f t="shared" si="1"/>
         <v>1000000</v>
@@ -1942,32 +1900,24 @@
       <c r="L10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="4">
+      <c r="P10" s="4">
         <v>44883</v>
       </c>
-      <c r="R10" s="2"/>
-    </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
+    </row>
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="71">
         <v>10</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="56" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="3">
         <v>6500000</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
       <c r="F11" s="3">
         <f t="shared" si="2"/>
         <v>6500000</v>
       </c>
-      <c r="G11" s="3"/>
       <c r="H11" s="3">
         <f t="shared" si="0"/>
         <v>8125000</v>
@@ -1983,36 +1933,29 @@
         <v>300000</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>91</v>
+      </c>
       <c r="N11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O11" s="14"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="4">
+      <c r="P11" s="4">
         <v>44883</v>
       </c>
-      <c r="R11" s="2"/>
-    </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
+    </row>
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="71">
         <v>11</v>
       </c>
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="56" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="3">
         <v>5000000</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
       <c r="F12" s="3">
         <f t="shared" si="2"/>
         <v>5000000</v>
       </c>
-      <c r="G12" s="3"/>
       <c r="H12" s="3">
         <f t="shared" si="0"/>
         <v>6250000</v>
@@ -2033,33 +1976,27 @@
       <c r="M12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="4">
+      <c r="P12" s="4">
         <v>44896</v>
       </c>
-      <c r="R12" s="5">
+      <c r="Q12" s="5">
         <v>44841</v>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="71">
         <v>12</v>
       </c>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="56" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="3">
         <v>5500000</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
       <c r="F13" s="3">
         <f t="shared" si="2"/>
         <v>5500000</v>
       </c>
-      <c r="G13" s="3"/>
       <c r="H13" s="3">
         <f t="shared" si="0"/>
         <v>6875000</v>
@@ -2067,7 +2004,6 @@
       <c r="I13" s="3">
         <v>6300000</v>
       </c>
-      <c r="J13" s="3"/>
       <c r="K13" s="3">
         <f t="shared" si="1"/>
         <v>800000</v>
@@ -2078,33 +2014,27 @@
       <c r="M13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="2"/>
+      <c r="P13" s="4">
+        <v>44937</v>
+      </c>
       <c r="Q13" s="4">
-        <v>44937</v>
-      </c>
-      <c r="R13" s="4">
         <v>44938</v>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="71">
         <v>13</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="56" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="3">
         <v>5500000</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
       <c r="F14" s="3">
         <f t="shared" si="2"/>
         <v>5500000</v>
       </c>
-      <c r="G14" s="3"/>
       <c r="H14" s="3">
         <f t="shared" si="0"/>
         <v>6875000</v>
@@ -2112,42 +2042,34 @@
       <c r="I14" s="3">
         <v>6600000</v>
       </c>
-      <c r="J14" s="3"/>
       <c r="K14" s="3">
         <f t="shared" si="1"/>
         <v>1100000</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="P14" s="4">
+        <v>44938</v>
+      </c>
       <c r="Q14" s="4">
-        <v>44938</v>
-      </c>
-      <c r="R14" s="4">
         <v>44939</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="71">
         <v>14</v>
       </c>
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="56" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="3">
         <v>5700000</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
       <c r="F15" s="3">
         <f t="shared" si="2"/>
         <v>5700000</v>
       </c>
-      <c r="G15" s="3"/>
       <c r="H15" s="3">
         <f t="shared" si="0"/>
         <v>7125000</v>
@@ -2155,7 +2077,6 @@
       <c r="I15" s="3">
         <v>6200000</v>
       </c>
-      <c r="J15" s="3"/>
       <c r="K15" s="3">
         <f t="shared" si="1"/>
         <v>500000</v>
@@ -2166,33 +2087,27 @@
       <c r="M15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="2"/>
+      <c r="P15" s="4">
+        <v>44957</v>
+      </c>
       <c r="Q15" s="4">
         <v>44957</v>
       </c>
-      <c r="R15" s="4">
-        <v>44957</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21">
+    </row>
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="71">
         <v>15</v>
       </c>
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="56" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="3">
         <v>8000000</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
       <c r="F16" s="3">
         <f t="shared" si="2"/>
         <v>8000000</v>
       </c>
-      <c r="G16" s="3"/>
       <c r="H16" s="3">
         <f t="shared" si="0"/>
         <v>10000000</v>
@@ -2200,7 +2115,6 @@
       <c r="I16" s="3">
         <v>10500000</v>
       </c>
-      <c r="J16" s="3"/>
       <c r="K16" s="3">
         <f t="shared" si="1"/>
         <v>2500000</v>
@@ -2208,18 +2122,12 @@
       <c r="L16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="2"/>
-    </row>
-    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21">
+    </row>
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="71">
         <v>16</v>
       </c>
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="56" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="3">
@@ -2228,12 +2136,10 @@
       <c r="D17" s="3">
         <v>1142570</v>
       </c>
-      <c r="E17" s="3"/>
       <c r="F17" s="3">
         <f t="shared" si="2"/>
         <v>10835587</v>
       </c>
-      <c r="G17" s="3"/>
       <c r="H17" s="3">
         <f t="shared" si="0"/>
         <v>13544483.75</v>
@@ -2241,7 +2147,6 @@
       <c r="I17" s="3">
         <v>14000000</v>
       </c>
-      <c r="J17" s="3"/>
       <c r="K17" s="3">
         <f t="shared" si="1"/>
         <v>3164413</v>
@@ -2249,30 +2154,21 @@
       <c r="L17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="2"/>
-    </row>
-    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21">
+    </row>
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="71">
         <v>17</v>
       </c>
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="56" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="3">
         <v>5000000</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
       <c r="F18" s="3">
         <f t="shared" si="2"/>
         <v>5000000</v>
       </c>
-      <c r="G18" s="3"/>
       <c r="H18" s="3">
         <f t="shared" ref="H18" si="3">(F18*25%)+F18</f>
         <v>6250000</v>
@@ -2280,7 +2176,6 @@
       <c r="I18" s="3">
         <v>5500000</v>
       </c>
-      <c r="J18" s="3"/>
       <c r="K18" s="3">
         <f t="shared" si="1"/>
         <v>500000</v>
@@ -2294,30 +2189,24 @@
       <c r="N18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O18" s="14"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="2" t="s">
+      <c r="Q18" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="71">
         <v>18</v>
       </c>
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="56" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="3">
         <v>4500000</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
       <c r="F19" s="3">
         <f t="shared" si="2"/>
         <v>4500000</v>
       </c>
-      <c r="G19" s="3"/>
       <c r="H19" s="3">
         <f t="shared" ref="H19" si="4">(F19*25%)+F19</f>
         <v>5625000</v>
@@ -2325,7 +2214,6 @@
       <c r="I19" s="3">
         <v>5500000</v>
       </c>
-      <c r="J19" s="3"/>
       <c r="K19" s="3">
         <f t="shared" si="1"/>
         <v>1000000</v>
@@ -2336,41 +2224,36 @@
       <c r="M19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="2" t="s">
+      <c r="Q19" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="71">
         <v>19</v>
       </c>
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>6794437</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <v>1189453</v>
       </c>
-      <c r="E20" s="12"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="3">
         <f t="shared" si="2"/>
         <v>7983890</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="12">
+      <c r="H20" s="11">
         <f t="shared" ref="H20:H43" si="5">(F20*25%)+F20</f>
         <v>9979862.5</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="11">
         <v>9500000</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="11">
         <v>50000</v>
       </c>
       <c r="K20" s="3">
@@ -2380,23 +2263,22 @@
       <c r="L20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="O20" s="15"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O20" s="14"/>
       <c r="P20" s="10"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="4">
+      <c r="Q20" s="4">
         <v>45019</v>
       </c>
     </row>
-    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="71">
         <v>20</v>
       </c>
-      <c r="B21" s="76" t="s">
-        <v>58</v>
+      <c r="B21" s="56" t="s">
+        <v>56</v>
       </c>
       <c r="C21" s="3">
         <v>7839722</v>
@@ -2411,7 +2293,6 @@
         <f t="shared" si="2"/>
         <v>9248805</v>
       </c>
-      <c r="G21" s="3"/>
       <c r="H21" s="3">
         <f t="shared" si="5"/>
         <v>11561006.25</v>
@@ -2427,27 +2308,24 @@
         <v>1251195</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>61</v>
+      </c>
       <c r="N21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O21" s="14"/>
-      <c r="P21" s="2"/>
+      <c r="P21" s="4">
+        <v>45049</v>
+      </c>
       <c r="Q21" s="4">
-        <v>45049</v>
-      </c>
-      <c r="R21" s="4">
         <v>45017</v>
       </c>
     </row>
-    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21">
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="71">
         <v>21</v>
       </c>
-      <c r="B22" s="76" t="s">
-        <v>59</v>
+      <c r="B22" s="56" t="s">
+        <v>57</v>
       </c>
       <c r="C22" s="3">
         <v>9561005</v>
@@ -2455,12 +2333,10 @@
       <c r="D22" s="3">
         <v>1000000</v>
       </c>
-      <c r="E22" s="3"/>
       <c r="F22" s="3">
         <f t="shared" si="2"/>
         <v>10561005</v>
       </c>
-      <c r="G22" s="3"/>
       <c r="H22" s="3">
         <f t="shared" si="5"/>
         <v>13201256.25</v>
@@ -2476,478 +2352,429 @@
         <v>538995</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="R22" s="4">
+      <c r="Q22" s="4">
         <v>45016</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25">
+    <row r="23" spans="1:17" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="72">
         <v>22</v>
       </c>
-      <c r="B23" s="78" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="26">
+      <c r="B23" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="21">
         <f>5182073+150000</f>
         <v>5332073</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="21">
         <v>1375000</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="21">
         <v>-1000000</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="21">
         <f>C23+D23+E23</f>
         <v>5707073</v>
       </c>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26">
+      <c r="G23" s="21"/>
+      <c r="H23" s="21">
         <f>(F23*25%)+F23</f>
         <v>7133841.25</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I23" s="21">
         <v>8200000</v>
       </c>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26">
+      <c r="J23" s="21"/>
+      <c r="K23" s="21">
         <f t="shared" si="1"/>
         <v>2492927</v>
       </c>
-      <c r="L23" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="O23" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="P23" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q23" s="29">
+      <c r="L23" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="N23" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="O23" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="P23" s="24">
         <v>45010</v>
       </c>
-      <c r="R23" s="27"/>
-    </row>
-    <row r="24" spans="1:19" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25">
+    </row>
+    <row r="24" spans="1:17" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="72">
         <v>23</v>
       </c>
-      <c r="B24" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="26">
+      <c r="B24" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="21">
         <v>3281172</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="21">
         <v>1075000</v>
       </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26">
+      <c r="E24" s="21"/>
+      <c r="F24" s="21">
         <f t="shared" si="2"/>
         <v>4356172</v>
       </c>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26">
+      <c r="G24" s="21"/>
+      <c r="H24" s="21">
         <f t="shared" si="5"/>
         <v>5445215</v>
       </c>
-      <c r="I24" s="26">
+      <c r="I24" s="21">
         <v>6400000</v>
       </c>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26">
+      <c r="J24" s="21"/>
+      <c r="K24" s="21">
         <f t="shared" si="1"/>
         <v>2043828</v>
       </c>
-      <c r="L24" s="27" t="s">
+      <c r="L24" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="O24" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="P24" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q24" s="29">
+      <c r="P24" s="24">
         <v>45011</v>
       </c>
-      <c r="R24" s="27"/>
-    </row>
-    <row r="25" spans="1:19" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25">
+    </row>
+    <row r="25" spans="1:17" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="72">
         <v>24</v>
       </c>
-      <c r="B25" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="26">
+      <c r="B25" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="21">
         <v>4493148</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="21">
         <v>1075000</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="21">
         <v>490000</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="21">
         <f t="shared" si="2"/>
         <v>6058148</v>
       </c>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26">
+      <c r="G25" s="21"/>
+      <c r="H25" s="21">
         <f t="shared" si="5"/>
         <v>7572685</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I25" s="21">
         <v>8000000</v>
       </c>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26">
+      <c r="J25" s="21"/>
+      <c r="K25" s="21">
         <f t="shared" si="1"/>
         <v>1941852</v>
       </c>
-      <c r="L25" s="27" t="s">
+      <c r="L25" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="O25" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="P25" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q25" s="29">
+      <c r="N25" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="O25" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="P25" s="24">
         <v>45012</v>
       </c>
-      <c r="R25" s="27"/>
-    </row>
-    <row r="26" spans="1:19" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25">
+    </row>
+    <row r="26" spans="1:17" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="72">
         <v>25</v>
       </c>
-      <c r="B26" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="32">
+      <c r="B26" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="26">
         <v>3801801</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="21">
         <v>1075000</v>
       </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26">
+      <c r="E26" s="21"/>
+      <c r="F26" s="21">
         <f t="shared" si="2"/>
         <v>4876801</v>
       </c>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26">
+      <c r="G26" s="21"/>
+      <c r="H26" s="21">
         <f t="shared" si="5"/>
         <v>6096001.25</v>
       </c>
-      <c r="I26" s="26">
+      <c r="I26" s="21">
         <v>7950000</v>
       </c>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26">
+      <c r="J26" s="21"/>
+      <c r="K26" s="21">
         <f t="shared" si="1"/>
         <v>3073199</v>
       </c>
-      <c r="L26" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="P26" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q26" s="29">
+      <c r="L26" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="O26" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="P26" s="24">
         <v>45017</v>
       </c>
-      <c r="R26" s="27"/>
-    </row>
-    <row r="27" spans="1:19" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25">
+    </row>
+    <row r="27" spans="1:17" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="72">
         <v>26</v>
       </c>
-      <c r="B27" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="49">
+      <c r="B27" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="36">
         <v>6537888</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="21">
         <v>1050000</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="21">
         <v>200000</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="21">
         <f t="shared" si="2"/>
         <v>7787888</v>
       </c>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26">
+      <c r="G27" s="21"/>
+      <c r="H27" s="21">
         <f t="shared" si="5"/>
         <v>9734860</v>
       </c>
-      <c r="I27" s="26">
+      <c r="I27" s="21">
         <v>9500000</v>
       </c>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26">
+      <c r="J27" s="21"/>
+      <c r="K27" s="21">
         <f t="shared" si="1"/>
         <v>1712112</v>
       </c>
-      <c r="L27" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="O27" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="P27" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q27" s="51">
+      <c r="L27" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="N27" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="O27" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="P27" s="38">
         <v>45015</v>
       </c>
-      <c r="R27" s="27"/>
-    </row>
-    <row r="28" spans="1:19" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="42">
+    </row>
+    <row r="28" spans="1:17" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="72">
         <v>27</v>
       </c>
-      <c r="B28" s="80" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="33">
+      <c r="B28" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="27">
         <v>7887859</v>
       </c>
-      <c r="D28" s="34">
+      <c r="D28" s="28">
         <v>850000</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E28" s="28">
         <v>650000</v>
       </c>
-      <c r="F28" s="34">
+      <c r="F28" s="28">
         <f t="shared" si="2"/>
         <v>9387859</v>
       </c>
-      <c r="G28" s="34">
+      <c r="G28" s="28">
         <f t="shared" ref="G28:G72" si="6">(F28*20%)+F28</f>
         <v>11265430.800000001</v>
       </c>
-      <c r="H28" s="34">
+      <c r="H28" s="28">
         <f t="shared" si="5"/>
         <v>11734823.75</v>
       </c>
-      <c r="I28" s="34">
+      <c r="I28" s="28">
         <v>10500000</v>
       </c>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34">
+      <c r="J28" s="28"/>
+      <c r="K28" s="28">
         <f t="shared" si="1"/>
         <v>1112141</v>
       </c>
-      <c r="L28" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="O28" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="P28" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q28" s="37">
+      <c r="L28" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="O28" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="P28" s="31">
         <v>45016</v>
       </c>
-      <c r="R28" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="S28" s="45"/>
-    </row>
-    <row r="29" spans="1:19" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="42">
+      <c r="Q28" s="29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="72">
         <v>28</v>
       </c>
-      <c r="B29" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="26">
+      <c r="B29" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="21">
         <v>4850950</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D29" s="21">
         <v>1000000</v>
       </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26">
+      <c r="E29" s="21"/>
+      <c r="F29" s="21">
         <f t="shared" si="2"/>
         <v>5850950</v>
       </c>
-      <c r="G29" s="34">
+      <c r="G29" s="28">
         <f t="shared" si="6"/>
         <v>7021140</v>
       </c>
-      <c r="H29" s="26">
+      <c r="H29" s="21">
         <f t="shared" si="5"/>
         <v>7313687.5</v>
       </c>
-      <c r="I29" s="26">
+      <c r="I29" s="21">
         <v>8500000</v>
       </c>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26">
+      <c r="J29" s="21"/>
+      <c r="K29" s="21">
         <f t="shared" si="1"/>
         <v>2649050</v>
       </c>
-      <c r="L29" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="O29" s="28" t="s">
+      <c r="L29" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="O29" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="P29" s="24">
+        <v>45019</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="74">
+        <v>29</v>
+      </c>
+      <c r="B30" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="P29" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q29" s="29">
-        <v>45019</v>
-      </c>
-      <c r="S29" s="45"/>
-    </row>
-    <row r="30" spans="1:19" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="43">
-        <v>29</v>
-      </c>
-      <c r="B30" s="84" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="38">
+      <c r="C30" s="32">
         <v>8317935</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30" s="32">
         <v>850000</v>
       </c>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38">
+      <c r="E30" s="32"/>
+      <c r="F30" s="32">
         <f t="shared" si="2"/>
         <v>9167935</v>
       </c>
-      <c r="G30" s="34">
+      <c r="G30" s="28">
         <f t="shared" si="6"/>
         <v>11001522</v>
       </c>
-      <c r="H30" s="38">
+      <c r="H30" s="32">
         <f t="shared" si="5"/>
         <v>11459918.75</v>
       </c>
-      <c r="I30" s="38">
+      <c r="I30" s="32">
         <v>9000000</v>
       </c>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38">
+      <c r="J30" s="32"/>
+      <c r="K30" s="32">
         <f t="shared" si="1"/>
         <v>-167935</v>
       </c>
-      <c r="L30" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="O30" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="P30" s="39" t="s">
+      <c r="L30" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="O30" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="Q30" s="41">
+      <c r="P30" s="35">
         <v>45020</v>
       </c>
-      <c r="S30" s="46"/>
-    </row>
-    <row r="31" spans="1:19" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="42">
+    </row>
+    <row r="31" spans="1:17" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="72">
         <v>30</v>
       </c>
-      <c r="B31" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="26">
+      <c r="B31" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="21">
         <v>4258422</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D31" s="21">
         <v>1064000</v>
       </c>
-      <c r="E31" s="26">
+      <c r="E31" s="21">
         <v>-1000000</v>
       </c>
-      <c r="F31" s="26">
+      <c r="F31" s="21">
         <f t="shared" si="2"/>
         <v>4322422</v>
       </c>
-      <c r="G31" s="34">
+      <c r="G31" s="28">
         <f t="shared" si="6"/>
         <v>5186906.4000000004</v>
       </c>
-      <c r="H31" s="26">
+      <c r="H31" s="21">
         <f t="shared" si="5"/>
         <v>5403027.5</v>
       </c>
-      <c r="I31" s="26">
+      <c r="I31" s="21">
         <v>5500000</v>
       </c>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26">
+      <c r="J31" s="21"/>
+      <c r="K31" s="21">
         <f t="shared" si="1"/>
         <v>1177578</v>
       </c>
-      <c r="L31" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="O31" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="P31" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q31" s="29">
+      <c r="L31" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="O31" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="P31" s="24">
         <v>45021</v>
       </c>
-      <c r="S31" s="45"/>
-    </row>
-    <row r="32" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="44">
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="71">
         <v>31</v>
       </c>
-      <c r="B32" s="86" t="s">
-        <v>78</v>
+      <c r="B32" s="63" t="s">
+        <v>76</v>
       </c>
       <c r="C32" s="3">
         <v>6651048</v>
@@ -2962,7 +2789,7 @@
         <f t="shared" si="2"/>
         <v>7784048</v>
       </c>
-      <c r="G32" s="34">
+      <c r="G32" s="28">
         <f t="shared" si="6"/>
         <v>9340857.5999999996</v>
       </c>
@@ -2971,30 +2798,25 @@
         <v>9730060</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="J32" s="3"/>
+        <v>110</v>
+      </c>
       <c r="K32" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O32" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q32" s="4">
+      <c r="O32" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="P32" s="4">
         <v>45022</v>
       </c>
-      <c r="S32" s="47"/>
-    </row>
-    <row r="33" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="44">
+    </row>
+    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="71">
         <v>32</v>
       </c>
-      <c r="B33" s="79" t="s">
-        <v>79</v>
+      <c r="B33" s="73" t="s">
+        <v>77</v>
       </c>
       <c r="C33" s="3">
         <v>3558942</v>
@@ -3002,12 +2824,11 @@
       <c r="D33" s="3">
         <v>2000000</v>
       </c>
-      <c r="E33" s="3"/>
       <c r="F33" s="3">
         <f t="shared" si="2"/>
         <v>5558942</v>
       </c>
-      <c r="G33" s="34">
+      <c r="G33" s="28">
         <f t="shared" si="6"/>
         <v>6670730.4000000004</v>
       </c>
@@ -3018,28 +2839,23 @@
       <c r="I33" s="3">
         <v>6000000</v>
       </c>
-      <c r="J33" s="3"/>
       <c r="K33" s="3">
         <f t="shared" si="1"/>
         <v>441058</v>
       </c>
-      <c r="O33" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q33" s="4">
+      <c r="O33" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="P33" s="4">
         <v>45022</v>
       </c>
-      <c r="S33" s="47"/>
-    </row>
-    <row r="34" spans="1:19" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="44">
+    </row>
+    <row r="34" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="71">
         <v>33</v>
       </c>
-      <c r="B34" s="86" t="s">
-        <v>86</v>
+      <c r="B34" s="63" t="s">
+        <v>83</v>
       </c>
       <c r="C34" s="3">
         <v>9299103</v>
@@ -3047,12 +2863,11 @@
       <c r="D34" s="3">
         <v>850000</v>
       </c>
-      <c r="E34" s="3"/>
       <c r="F34" s="3">
         <f t="shared" si="2"/>
         <v>10149103</v>
       </c>
-      <c r="G34" s="34">
+      <c r="G34" s="28">
         <f t="shared" si="6"/>
         <v>12178923.6</v>
       </c>
@@ -3063,28 +2878,23 @@
       <c r="I34" s="3">
         <v>11000000</v>
       </c>
-      <c r="J34" s="3"/>
       <c r="K34" s="3">
         <f t="shared" ref="K34:K65" si="7">I34-J34-F34</f>
         <v>850897</v>
       </c>
-      <c r="O34" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q34" s="4">
+      <c r="O34" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="P34" s="4">
         <v>45027</v>
       </c>
-      <c r="S34" s="47"/>
-    </row>
-    <row r="35" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="44">
+    </row>
+    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="71">
         <v>34</v>
       </c>
-      <c r="B35" s="86" t="s">
-        <v>87</v>
+      <c r="B35" s="63" t="s">
+        <v>84</v>
       </c>
       <c r="C35" s="3">
         <v>7849892</v>
@@ -3092,12 +2902,11 @@
       <c r="D35" s="3">
         <v>1100000</v>
       </c>
-      <c r="E35" s="3"/>
       <c r="F35" s="3">
         <f t="shared" si="2"/>
         <v>8949892</v>
       </c>
-      <c r="G35" s="34">
+      <c r="G35" s="28">
         <f t="shared" si="6"/>
         <v>10739870.4</v>
       </c>
@@ -3108,28 +2917,23 @@
       <c r="I35" s="3">
         <v>9000000</v>
       </c>
-      <c r="J35" s="3"/>
       <c r="K35" s="3">
         <f t="shared" si="7"/>
         <v>50108</v>
       </c>
-      <c r="O35" s="14" t="s">
+      <c r="O35" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="P35" s="4">
+        <v>45027</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="71">
+        <v>35</v>
+      </c>
+      <c r="B36" s="63" t="s">
         <v>88</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q35" s="4">
-        <v>45027</v>
-      </c>
-      <c r="S35" s="47"/>
-    </row>
-    <row r="36" spans="1:19" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="44">
-        <v>35</v>
-      </c>
-      <c r="B36" s="86" t="s">
-        <v>91</v>
       </c>
       <c r="C36" s="3">
         <v>3972000</v>
@@ -3137,12 +2941,11 @@
       <c r="D36" s="3">
         <v>850000</v>
       </c>
-      <c r="E36" s="3"/>
       <c r="F36" s="3">
         <f t="shared" si="2"/>
         <v>4822000</v>
       </c>
-      <c r="G36" s="34">
+      <c r="G36" s="28">
         <f t="shared" si="6"/>
         <v>5786400</v>
       </c>
@@ -3153,26 +2956,23 @@
       <c r="I36" s="3">
         <v>7000000</v>
       </c>
-      <c r="J36" s="3"/>
       <c r="K36" s="3">
         <f t="shared" si="7"/>
         <v>2178000</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="O36" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q36" s="4"/>
-      <c r="S36" s="47"/>
-    </row>
-    <row r="37" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="44">
+        <v>121</v>
+      </c>
+      <c r="O36" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="71">
         <v>36</v>
       </c>
-      <c r="B37" s="79" t="s">
-        <v>92</v>
+      <c r="B37" s="73" t="s">
+        <v>89</v>
       </c>
       <c r="C37" s="3">
         <v>8467000</v>
@@ -3180,12 +2980,11 @@
       <c r="D37" s="3">
         <v>850000</v>
       </c>
-      <c r="E37" s="3"/>
       <c r="F37" s="3">
         <f t="shared" si="2"/>
         <v>9317000</v>
       </c>
-      <c r="G37" s="34">
+      <c r="G37" s="28">
         <f t="shared" si="6"/>
         <v>11180400</v>
       </c>
@@ -3194,38 +2993,35 @@
         <v>11646250</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="J37" s="3"/>
+        <v>111</v>
+      </c>
       <c r="K37" s="3" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O37" s="14" t="s">
+      <c r="O37" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" s="15" customFormat="1" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="71">
+        <v>37</v>
+      </c>
+      <c r="B38" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="Q37" s="4"/>
-      <c r="S37" s="47"/>
-    </row>
-    <row r="38" spans="1:19" s="17" customFormat="1" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="44">
-        <v>37</v>
-      </c>
-      <c r="B38" s="81" t="s">
-        <v>103</v>
-      </c>
-      <c r="C38" s="23">
+      <c r="C38" s="19">
         <v>3178000</v>
       </c>
-      <c r="D38" s="23">
+      <c r="D38" s="19">
         <v>1370000</v>
       </c>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23">
+      <c r="E38" s="19"/>
+      <c r="F38" s="19">
         <f t="shared" si="2"/>
         <v>4548000</v>
       </c>
-      <c r="G38" s="34">
+      <c r="G38" s="28">
         <f t="shared" si="6"/>
         <v>5457600</v>
       </c>
@@ -3233,39 +3029,37 @@
         <f>(F38*25%)+F38</f>
         <v>5685000</v>
       </c>
-      <c r="I38" s="23">
+      <c r="I38" s="19">
         <v>5800000</v>
       </c>
-      <c r="J38" s="23"/>
+      <c r="J38" s="19"/>
       <c r="K38" s="3">
         <f t="shared" si="7"/>
         <v>1252000</v>
       </c>
-      <c r="O38" s="18" t="s">
+      <c r="O38" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="P38" s="20"/>
+    </row>
+    <row r="39" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="71">
+        <v>38</v>
+      </c>
+      <c r="B39" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="Q38" s="24"/>
-      <c r="S38" s="48"/>
-    </row>
-    <row r="39" spans="1:19" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="44">
-        <v>38</v>
-      </c>
-      <c r="B39" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" s="22">
+      <c r="C39" s="18">
         <v>4560000</v>
       </c>
-      <c r="D39" s="23">
+      <c r="D39" s="19">
         <v>850000</v>
       </c>
-      <c r="E39" s="3"/>
       <c r="F39" s="3">
         <f t="shared" si="2"/>
         <v>5410000</v>
       </c>
-      <c r="G39" s="34">
+      <c r="G39" s="28">
         <f t="shared" si="6"/>
         <v>6492000</v>
       </c>
@@ -3276,41 +3070,38 @@
       <c r="I39" s="3">
         <v>7000000</v>
       </c>
-      <c r="J39" s="3"/>
       <c r="K39" s="3">
         <f t="shared" si="7"/>
         <v>1590000</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="O39" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="O39" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="P39" s="17">
+        <v>45265</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="71">
+        <v>39</v>
+      </c>
+      <c r="B40" s="60" t="s">
         <v>102</v>
-      </c>
-      <c r="Q39" s="19">
-        <v>45265</v>
-      </c>
-      <c r="S39" s="47"/>
-    </row>
-    <row r="40" spans="1:19" s="2" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="44">
-        <v>39</v>
-      </c>
-      <c r="B40" s="81" t="s">
-        <v>105</v>
       </c>
       <c r="C40" s="3">
         <v>6156000</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D40" s="19">
         <v>850000</v>
       </c>
-      <c r="E40" s="3"/>
       <c r="F40" s="3">
         <f t="shared" si="2"/>
         <v>7006000</v>
       </c>
-      <c r="G40" s="34">
+      <c r="G40" s="28">
         <f t="shared" si="6"/>
         <v>8407200</v>
       </c>
@@ -3321,36 +3112,32 @@
       <c r="I40" s="3">
         <v>8500000</v>
       </c>
-      <c r="J40" s="3"/>
       <c r="K40" s="3">
         <f t="shared" si="7"/>
         <v>1494000</v>
       </c>
-      <c r="O40" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q40" s="4"/>
-      <c r="S40" s="47"/>
-    </row>
-    <row r="41" spans="1:19" s="2" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="44">
+      <c r="O40" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="71">
         <v>40</v>
       </c>
-      <c r="B41" s="81" t="s">
-        <v>106</v>
+      <c r="B41" s="60" t="s">
+        <v>103</v>
       </c>
       <c r="C41" s="3">
         <v>4126000</v>
       </c>
-      <c r="D41" s="23">
+      <c r="D41" s="19">
         <v>1450000</v>
       </c>
-      <c r="E41" s="3"/>
       <c r="F41" s="3">
         <f t="shared" si="2"/>
         <v>5576000</v>
       </c>
-      <c r="G41" s="34">
+      <c r="G41" s="28">
         <f t="shared" si="6"/>
         <v>6691200</v>
       </c>
@@ -3361,36 +3148,32 @@
       <c r="I41" s="3">
         <v>7500000</v>
       </c>
-      <c r="J41" s="3"/>
       <c r="K41" s="3">
         <f t="shared" si="7"/>
         <v>1924000</v>
       </c>
-      <c r="O41" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q41" s="4"/>
-      <c r="S41" s="47"/>
-    </row>
-    <row r="42" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="44">
+      <c r="O41" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="71">
         <v>41</v>
       </c>
-      <c r="B42" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" s="22">
+      <c r="B42" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="18">
         <v>3192000</v>
       </c>
-      <c r="D42" s="23">
+      <c r="D42" s="19">
         <v>850000</v>
       </c>
-      <c r="E42" s="3"/>
       <c r="F42" s="3">
         <f t="shared" si="2"/>
         <v>4042000</v>
       </c>
-      <c r="G42" s="34">
+      <c r="G42" s="28">
         <f t="shared" si="6"/>
         <v>4850400</v>
       </c>
@@ -3401,36 +3184,33 @@
       <c r="I42" s="3">
         <v>5500000</v>
       </c>
-      <c r="J42" s="3"/>
       <c r="K42" s="3">
         <f t="shared" si="7"/>
         <v>1458000</v>
       </c>
-      <c r="O42" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q42" s="19"/>
-      <c r="S42" s="47"/>
-    </row>
-    <row r="43" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="44">
+      <c r="O42" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="P42" s="17"/>
+    </row>
+    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="71">
         <v>42</v>
       </c>
-      <c r="B43" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" s="22">
+      <c r="B43" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="18">
         <v>6065000</v>
       </c>
       <c r="D43" s="3">
         <v>850000</v>
       </c>
-      <c r="E43" s="3"/>
       <c r="F43" s="3">
         <f t="shared" si="2"/>
         <v>6915000</v>
       </c>
-      <c r="G43" s="34">
+      <c r="G43" s="28">
         <f t="shared" si="6"/>
         <v>8298000</v>
       </c>
@@ -3441,39 +3221,36 @@
       <c r="I43" s="3">
         <v>8500000</v>
       </c>
-      <c r="J43" s="3"/>
       <c r="K43" s="3">
         <f t="shared" si="7"/>
         <v>1585000</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="O43" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q43" s="19"/>
-      <c r="S43" s="47"/>
-    </row>
-    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="44">
+        <v>114</v>
+      </c>
+      <c r="O43" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="P43" s="17"/>
+    </row>
+    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="71">
         <v>43</v>
       </c>
-      <c r="B44" s="79" t="s">
-        <v>115</v>
-      </c>
-      <c r="C44" s="22">
+      <c r="B44" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="18">
         <v>3268000</v>
       </c>
       <c r="D44" s="3">
         <v>850000</v>
       </c>
-      <c r="E44" s="3"/>
       <c r="F44" s="3">
         <f>C44+D44+E44</f>
         <v>4118000</v>
       </c>
-      <c r="G44" s="34">
+      <c r="G44" s="28">
         <f t="shared" si="6"/>
         <v>4941600</v>
       </c>
@@ -3482,30 +3259,28 @@
         <v>5147500</v>
       </c>
       <c r="I44" s="3">
-        <v>4400000</v>
-      </c>
-      <c r="J44" s="3"/>
+        <v>5000000</v>
+      </c>
       <c r="K44" s="3">
         <f t="shared" si="7"/>
-        <v>282000</v>
+        <v>882000</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="O44" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="P44" s="19"/>
-      <c r="S44" s="47"/>
-    </row>
-    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="44">
+        <v>168</v>
+      </c>
+      <c r="O44" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="P44" s="2"/>
+    </row>
+    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="71">
         <v>44</v>
       </c>
-      <c r="B45" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="C45" s="22">
+      <c r="B45" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" s="18">
         <v>3223000</v>
       </c>
       <c r="D45" s="3">
@@ -3518,7 +3293,7 @@
         <f t="shared" ref="F45:F72" si="8">C45+D45+E45</f>
         <v>4667000</v>
       </c>
-      <c r="G45" s="34">
+      <c r="G45" s="28">
         <f t="shared" si="6"/>
         <v>5600400</v>
       </c>
@@ -3529,42 +3304,36 @@
       <c r="I45" s="3">
         <v>7500000</v>
       </c>
-      <c r="J45" s="3"/>
       <c r="K45" s="3">
         <f t="shared" si="7"/>
         <v>2833000</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="44">
+        <v>166</v>
+      </c>
+      <c r="O45" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="P45" s="2"/>
+    </row>
+    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="71">
         <v>45</v>
       </c>
-      <c r="B46" s="87" t="s">
-        <v>127</v>
-      </c>
-      <c r="C46" s="22">
+      <c r="B46" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" s="18">
         <v>3632000</v>
       </c>
       <c r="D46" s="3">
         <v>896000</v>
       </c>
-      <c r="E46" s="3"/>
       <c r="F46" s="3">
         <f t="shared" si="8"/>
         <v>4528000</v>
       </c>
-      <c r="G46" s="34">
+      <c r="G46" s="28">
         <f t="shared" si="6"/>
         <v>5433600</v>
       </c>
@@ -3575,31 +3344,26 @@
       <c r="I46" s="3">
         <v>5800000</v>
       </c>
-      <c r="J46" s="3"/>
       <c r="K46" s="3">
         <f t="shared" si="7"/>
         <v>1272000</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-    </row>
-    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="44">
+        <v>109</v>
+      </c>
+      <c r="O46" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="P46" s="2"/>
+    </row>
+    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="71">
         <v>46</v>
       </c>
-      <c r="B47" s="87" t="s">
-        <v>129</v>
-      </c>
-      <c r="C47" s="22">
+      <c r="B47" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" s="18">
         <v>3813000</v>
       </c>
       <c r="D47" s="3">
@@ -3612,7 +3376,7 @@
         <f t="shared" si="8"/>
         <v>5105000</v>
       </c>
-      <c r="G47" s="34">
+      <c r="G47" s="28">
         <f t="shared" si="6"/>
         <v>6126000</v>
       </c>
@@ -3623,31 +3387,26 @@
       <c r="I47" s="3">
         <v>6000000</v>
       </c>
-      <c r="J47" s="3"/>
       <c r="K47" s="3">
         <f t="shared" si="7"/>
         <v>895000</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-    </row>
-    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="44">
+        <v>167</v>
+      </c>
+      <c r="O47" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="P47" s="2"/>
+    </row>
+    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="71">
         <v>47</v>
       </c>
-      <c r="B48" s="87" t="s">
-        <v>131</v>
-      </c>
-      <c r="C48" s="22">
+      <c r="B48" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48" s="18">
         <v>6219000</v>
       </c>
       <c r="D48" s="3">
@@ -3660,7 +3419,7 @@
         <f t="shared" si="8"/>
         <v>7211000</v>
       </c>
-      <c r="G48" s="34">
+      <c r="G48" s="28">
         <f t="shared" si="6"/>
         <v>8653200</v>
       </c>
@@ -3671,7 +3430,6 @@
       <c r="I48" s="3">
         <v>8400000</v>
       </c>
-      <c r="J48" s="3"/>
       <c r="K48" s="3">
         <f t="shared" si="7"/>
         <v>1189000</v>
@@ -3679,23 +3437,19 @@
       <c r="L48" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-    </row>
-    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="44">
+      <c r="O48" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="P48" s="2"/>
+    </row>
+    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="71">
         <v>48</v>
       </c>
-      <c r="B49" s="79" t="s">
-        <v>133</v>
-      </c>
-      <c r="C49" s="22">
+      <c r="B49" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" s="18">
         <v>4149000</v>
       </c>
       <c r="D49" s="3">
@@ -3708,7 +3462,7 @@
         <f t="shared" si="8"/>
         <v>5270000</v>
       </c>
-      <c r="G49" s="34">
+      <c r="G49" s="28">
         <f t="shared" si="6"/>
         <v>6324000</v>
       </c>
@@ -3719,42 +3473,36 @@
       <c r="I49" s="3">
         <v>6200000</v>
       </c>
-      <c r="J49" s="3"/>
       <c r="K49" s="3">
         <f t="shared" si="7"/>
         <v>930000</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="44">
+        <v>168</v>
+      </c>
+      <c r="O49" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="P49" s="2"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="71">
         <v>49</v>
       </c>
-      <c r="B50" s="79" t="s">
-        <v>135</v>
-      </c>
-      <c r="C50" s="22">
+      <c r="B50" s="73" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="18">
         <v>3648000</v>
       </c>
       <c r="D50" s="3">
         <v>883000</v>
       </c>
-      <c r="E50" s="3"/>
       <c r="F50" s="3">
         <f t="shared" si="8"/>
         <v>4531000</v>
       </c>
-      <c r="G50" s="34">
+      <c r="G50" s="28">
         <f t="shared" si="6"/>
         <v>5437200</v>
       </c>
@@ -3763,42 +3511,35 @@
         <v>5663750</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="J50" s="3"/>
+        <v>188</v>
+      </c>
       <c r="K50" s="3" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="2"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="44">
+      <c r="O50" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="P50" s="17"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="71">
         <v>50</v>
       </c>
-      <c r="B51" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="C51" s="22">
+      <c r="B51" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="18">
         <v>4560000</v>
       </c>
       <c r="D51" s="3">
         <v>698500</v>
       </c>
-      <c r="E51" s="3"/>
       <c r="F51" s="3">
         <f t="shared" si="8"/>
         <v>5258500</v>
       </c>
-      <c r="G51" s="34">
+      <c r="G51" s="28">
         <f t="shared" si="6"/>
         <v>6310200</v>
       </c>
@@ -3809,130 +3550,117 @@
       <c r="I51" s="3">
         <v>7600000</v>
       </c>
-      <c r="J51" s="3"/>
       <c r="K51" s="3">
         <f t="shared" si="7"/>
         <v>2341500</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="2"/>
-    </row>
-    <row r="52" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="44">
+        <v>168</v>
+      </c>
+      <c r="O51" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="P51" s="17"/>
+    </row>
+    <row r="52" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="71">
         <v>51</v>
       </c>
-      <c r="B52" s="82" t="s">
-        <v>139</v>
-      </c>
-      <c r="C52" s="22">
+      <c r="B52" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" s="18">
         <v>4560000</v>
       </c>
       <c r="D52" s="3">
         <v>985000</v>
       </c>
-      <c r="E52" s="3"/>
+      <c r="E52" s="3">
+        <v>200000</v>
+      </c>
       <c r="F52" s="3">
         <f t="shared" si="8"/>
-        <v>5545000</v>
-      </c>
-      <c r="G52" s="34">
+        <v>5745000</v>
+      </c>
+      <c r="G52" s="28">
         <f t="shared" si="6"/>
-        <v>6654000</v>
+        <v>6894000</v>
       </c>
       <c r="H52" s="3">
         <f t="shared" si="9"/>
-        <v>6931250</v>
+        <v>7181250</v>
       </c>
       <c r="I52" s="3">
         <v>7500000</v>
       </c>
-      <c r="J52" s="3"/>
       <c r="K52" s="3">
         <f t="shared" si="7"/>
-        <v>1955000</v>
-      </c>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="19"/>
-      <c r="R52" s="2"/>
-    </row>
-    <row r="53" spans="1:18" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="93">
+        <v>1755000</v>
+      </c>
+      <c r="O52" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="P52" s="17"/>
+    </row>
+    <row r="53" spans="1:16" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="75">
         <v>52</v>
       </c>
-      <c r="B53" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="C53" s="95">
+      <c r="B53" s="76" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="65">
         <v>3192000</v>
       </c>
-      <c r="D53" s="96">
+      <c r="D53" s="66">
         <v>903000</v>
       </c>
-      <c r="E53" s="96">
+      <c r="E53" s="66">
         <v>200000</v>
       </c>
-      <c r="F53" s="96">
+      <c r="F53" s="66">
         <f t="shared" si="8"/>
         <v>4295000</v>
       </c>
-      <c r="G53" s="96">
+      <c r="G53" s="66">
         <f t="shared" si="6"/>
         <v>5154000</v>
       </c>
-      <c r="H53" s="96">
+      <c r="H53" s="66">
         <f t="shared" si="9"/>
         <v>5368750</v>
       </c>
-      <c r="I53" s="96"/>
-      <c r="J53" s="96"/>
-      <c r="K53" s="96">
+      <c r="I53" s="66" t="s">
+        <v>207</v>
+      </c>
+      <c r="J53" s="66"/>
+      <c r="K53" s="66" t="e">
         <f t="shared" si="7"/>
-        <v>-4295000</v>
-      </c>
-      <c r="L53" s="97"/>
-      <c r="M53" s="97"/>
-      <c r="N53" s="97"/>
-      <c r="O53" s="98" t="s">
-        <v>142</v>
-      </c>
-      <c r="P53" s="97"/>
-      <c r="Q53" s="99"/>
-      <c r="R53" s="97"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="44">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O53" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="P53" s="69"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="71">
         <v>53</v>
       </c>
-      <c r="B54" s="79" t="s">
-        <v>143</v>
-      </c>
-      <c r="C54" s="22">
+      <c r="B54" s="73" t="s">
+        <v>140</v>
+      </c>
+      <c r="C54" s="18">
         <v>4149000</v>
       </c>
       <c r="D54" s="3">
         <v>739000</v>
       </c>
-      <c r="E54" s="3"/>
       <c r="F54" s="3">
         <f t="shared" si="8"/>
         <v>4888000</v>
       </c>
-      <c r="G54" s="34">
+      <c r="G54" s="28">
         <f t="shared" si="6"/>
         <v>5865600</v>
       </c>
@@ -3941,33 +3669,28 @@
         <v>6110000</v>
       </c>
       <c r="I54" s="3">
-        <v>6200000</v>
-      </c>
-      <c r="J54" s="3"/>
+        <v>6000000</v>
+      </c>
       <c r="K54" s="3">
         <f t="shared" si="7"/>
-        <v>1312000</v>
+        <v>1112000</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="19"/>
-      <c r="R54" s="2"/>
-    </row>
-    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="44">
+        <v>168</v>
+      </c>
+      <c r="O54" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="P54" s="17"/>
+    </row>
+    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="71">
         <v>54</v>
       </c>
-      <c r="B55" s="79" t="s">
-        <v>145</v>
-      </c>
-      <c r="C55" s="22">
+      <c r="B55" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="C55" s="18">
         <v>4104000</v>
       </c>
       <c r="D55" s="3">
@@ -3980,7 +3703,7 @@
         <f t="shared" si="8"/>
         <v>5361500</v>
       </c>
-      <c r="G55" s="34">
+      <c r="G55" s="28">
         <f t="shared" si="6"/>
         <v>6433800</v>
       </c>
@@ -3991,7 +3714,6 @@
       <c r="I55" s="3">
         <v>6750000</v>
       </c>
-      <c r="J55" s="3"/>
       <c r="K55" s="3">
         <f t="shared" si="7"/>
         <v>1388500</v>
@@ -3999,67 +3721,60 @@
       <c r="L55" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="19"/>
-      <c r="R55" s="2"/>
-    </row>
-    <row r="56" spans="1:18" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="93">
+      <c r="O55" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="P55" s="17"/>
+    </row>
+    <row r="56" spans="1:16" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="75">
         <v>55</v>
       </c>
-      <c r="B56" s="94" t="s">
-        <v>193</v>
-      </c>
-      <c r="C56" s="95">
+      <c r="B56" s="76" t="s">
+        <v>189</v>
+      </c>
+      <c r="C56" s="65">
         <v>1960000</v>
       </c>
-      <c r="D56" s="96">
+      <c r="D56" s="66">
         <v>833000</v>
       </c>
-      <c r="E56" s="96">
+      <c r="E56" s="66">
         <v>900000</v>
       </c>
-      <c r="F56" s="96">
+      <c r="F56" s="66">
         <f t="shared" si="8"/>
         <v>3693000</v>
       </c>
-      <c r="G56" s="96">
+      <c r="G56" s="66">
         <f t="shared" si="6"/>
         <v>4431600</v>
       </c>
-      <c r="H56" s="96">
+      <c r="H56" s="66">
         <f t="shared" si="9"/>
         <v>4616250</v>
       </c>
-      <c r="I56" s="96"/>
-      <c r="J56" s="96"/>
-      <c r="K56" s="96">
+      <c r="I56" s="66">
+        <v>5000000</v>
+      </c>
+      <c r="J56" s="66"/>
+      <c r="K56" s="66">
         <f t="shared" si="7"/>
-        <v>-3693000</v>
-      </c>
-      <c r="L56" s="97"/>
-      <c r="M56" s="97"/>
-      <c r="N56" s="97"/>
-      <c r="O56" s="98" t="s">
-        <v>147</v>
-      </c>
-      <c r="P56" s="97"/>
-      <c r="Q56" s="99"/>
-      <c r="R56" s="97"/>
-    </row>
-    <row r="57" spans="1:18" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="44">
+        <v>1307000</v>
+      </c>
+      <c r="O56" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="P56" s="69"/>
+    </row>
+    <row r="57" spans="1:16" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="71">
         <v>56</v>
       </c>
-      <c r="B57" s="82" t="s">
-        <v>148</v>
-      </c>
-      <c r="C57" s="22">
+      <c r="B57" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" s="18">
         <v>3762000</v>
       </c>
       <c r="D57" s="3">
@@ -4072,7 +3787,7 @@
         <f t="shared" si="8"/>
         <v>5322000</v>
       </c>
-      <c r="G57" s="34">
+      <c r="G57" s="28">
         <f t="shared" si="6"/>
         <v>6386400</v>
       </c>
@@ -4083,7 +3798,6 @@
       <c r="I57" s="3">
         <v>6300000</v>
       </c>
-      <c r="J57" s="3"/>
       <c r="K57" s="3">
         <f t="shared" si="7"/>
         <v>978000</v>
@@ -4091,36 +3805,32 @@
       <c r="L57" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M57" s="2"/>
       <c r="N57" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="O57" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="19"/>
-      <c r="R57" s="2"/>
-    </row>
-    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="44">
+        <v>165</v>
+      </c>
+      <c r="O57" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="P57" s="17"/>
+    </row>
+    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="71">
         <v>57</v>
       </c>
-      <c r="B58" s="88" t="s">
-        <v>150</v>
-      </c>
-      <c r="C58" s="22">
+      <c r="B58" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" s="18">
         <v>6441000</v>
       </c>
-      <c r="D58" s="54">
+      <c r="D58" s="78">
         <v>771500</v>
       </c>
-      <c r="E58" s="3"/>
       <c r="F58" s="3">
         <f t="shared" si="8"/>
         <v>7212500</v>
       </c>
-      <c r="G58" s="34">
+      <c r="G58" s="28">
         <f t="shared" si="6"/>
         <v>8655000</v>
       </c>
@@ -4131,88 +3841,78 @@
       <c r="I58" s="3">
         <v>9300000</v>
       </c>
-      <c r="J58" s="3"/>
       <c r="K58" s="3">
         <f t="shared" si="7"/>
         <v>2087500</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="19"/>
-      <c r="R58" s="2"/>
-    </row>
-    <row r="59" spans="1:18" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="68">
+        <v>175</v>
+      </c>
+      <c r="O58" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="P58" s="17"/>
+    </row>
+    <row r="59" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="79">
         <v>58</v>
       </c>
-      <c r="B59" s="89" t="s">
-        <v>152</v>
-      </c>
-      <c r="C59" s="69">
+      <c r="B59" s="80" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59" s="51">
         <v>7435000</v>
       </c>
-      <c r="D59" s="70">
+      <c r="D59" s="52">
         <v>924000</v>
       </c>
-      <c r="E59" s="70"/>
-      <c r="F59" s="70">
+      <c r="E59" s="52"/>
+      <c r="F59" s="52">
         <f t="shared" si="8"/>
         <v>8359000</v>
       </c>
-      <c r="G59" s="70">
+      <c r="G59" s="52">
         <f t="shared" si="6"/>
         <v>10030800</v>
       </c>
-      <c r="H59" s="70">
+      <c r="H59" s="52">
         <f t="shared" si="9"/>
         <v>10448750</v>
       </c>
-      <c r="I59" s="70" t="s">
-        <v>195</v>
-      </c>
-      <c r="J59" s="70"/>
-      <c r="K59" s="70" t="e">
+      <c r="I59" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="J59" s="52"/>
+      <c r="K59" s="52" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L59" s="71" t="s">
-        <v>171</v>
-      </c>
-      <c r="M59" s="71"/>
-      <c r="N59" s="71"/>
-      <c r="O59" s="72" t="s">
-        <v>153</v>
-      </c>
-      <c r="P59" s="71"/>
-      <c r="Q59" s="73"/>
-      <c r="R59" s="71"/>
-    </row>
-    <row r="60" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="44">
+      <c r="L59" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="O59" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="P59" s="54"/>
+    </row>
+    <row r="60" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="71">
         <v>59</v>
       </c>
-      <c r="B60" s="79" t="s">
-        <v>154</v>
-      </c>
-      <c r="C60" s="22">
+      <c r="B60" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" s="18">
         <v>1824000</v>
       </c>
       <c r="D60" s="3">
         <v>739500</v>
       </c>
-      <c r="E60" s="3"/>
       <c r="F60" s="3">
         <f t="shared" si="8"/>
         <v>2563500</v>
       </c>
-      <c r="G60" s="34">
+      <c r="G60" s="28">
         <f t="shared" si="6"/>
         <v>3076200</v>
       </c>
@@ -4220,72 +3920,64 @@
         <f t="shared" si="9"/>
         <v>3204375</v>
       </c>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
       <c r="K60" s="3">
         <f t="shared" si="7"/>
         <v>-2563500</v>
       </c>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="18" t="s">
+      <c r="O60" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="P60" s="17"/>
+    </row>
+    <row r="61" spans="1:16" s="48" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="82">
+        <v>60</v>
+      </c>
+      <c r="B61" s="83" t="s">
+        <v>153</v>
+      </c>
+      <c r="C61" s="46">
+        <v>6328000</v>
+      </c>
+      <c r="D61" s="47">
+        <v>985000</v>
+      </c>
+      <c r="E61" s="47">
+        <v>200000</v>
+      </c>
+      <c r="F61" s="47">
+        <f t="shared" si="8"/>
+        <v>7513000</v>
+      </c>
+      <c r="G61" s="47">
+        <f t="shared" si="6"/>
+        <v>9015600</v>
+      </c>
+      <c r="H61" s="47">
+        <f t="shared" si="9"/>
+        <v>9391250</v>
+      </c>
+      <c r="I61" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="J61" s="47"/>
+      <c r="K61" s="47" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O61" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="P61" s="50"/>
+    </row>
+    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="71">
+        <v>61</v>
+      </c>
+      <c r="B62" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="19"/>
-      <c r="R60" s="2"/>
-    </row>
-    <row r="61" spans="1:18" s="67" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="61">
-        <v>60</v>
-      </c>
-      <c r="B61" s="90" t="s">
-        <v>156</v>
-      </c>
-      <c r="C61" s="62">
-        <v>6328000</v>
-      </c>
-      <c r="D61" s="63">
-        <v>985000</v>
-      </c>
-      <c r="E61" s="63"/>
-      <c r="F61" s="63">
-        <f t="shared" si="8"/>
-        <v>7313000</v>
-      </c>
-      <c r="G61" s="63">
-        <f t="shared" si="6"/>
-        <v>8775600</v>
-      </c>
-      <c r="H61" s="63">
-        <f t="shared" si="9"/>
-        <v>9141250</v>
-      </c>
-      <c r="I61" s="63"/>
-      <c r="J61" s="63"/>
-      <c r="K61" s="63">
-        <f t="shared" si="7"/>
-        <v>-7313000</v>
-      </c>
-      <c r="L61" s="64"/>
-      <c r="M61" s="64"/>
-      <c r="N61" s="64"/>
-      <c r="O61" s="65" t="s">
-        <v>157</v>
-      </c>
-      <c r="P61" s="64"/>
-      <c r="Q61" s="66"/>
-      <c r="R61" s="64"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="44">
-        <v>61</v>
-      </c>
-      <c r="B62" s="91" t="s">
-        <v>158</v>
-      </c>
-      <c r="C62" s="22">
+      <c r="C62" s="18">
         <v>3762000</v>
       </c>
       <c r="D62" s="3">
@@ -4298,7 +3990,7 @@
         <f t="shared" si="8"/>
         <v>5461000</v>
       </c>
-      <c r="G62" s="34">
+      <c r="G62" s="28">
         <f t="shared" si="6"/>
         <v>6553200</v>
       </c>
@@ -4306,30 +3998,29 @@
         <f t="shared" si="9"/>
         <v>6826250</v>
       </c>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
+      <c r="I62" s="3">
+        <v>6000000</v>
+      </c>
       <c r="K62" s="3">
         <f t="shared" si="7"/>
-        <v>-5461000</v>
-      </c>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="19"/>
-      <c r="R62" s="2"/>
-    </row>
-    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="44">
+        <v>539000</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="O62" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="P62" s="17"/>
+    </row>
+    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="71">
         <v>62</v>
       </c>
-      <c r="B63" s="91" t="s">
-        <v>160</v>
-      </c>
-      <c r="C63" s="22">
+      <c r="B63" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="C63" s="18">
         <v>4000000</v>
       </c>
       <c r="D63" s="3">
@@ -4342,7 +4033,7 @@
         <f t="shared" si="8"/>
         <v>5080500</v>
       </c>
-      <c r="G63" s="34">
+      <c r="G63" s="28">
         <f t="shared" si="6"/>
         <v>6096600</v>
       </c>
@@ -4353,126 +4044,110 @@
       <c r="I63" s="3">
         <v>5700000</v>
       </c>
-      <c r="J63" s="3"/>
       <c r="K63" s="3">
         <f t="shared" si="7"/>
         <v>619500</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="19"/>
-      <c r="R63" s="2"/>
-    </row>
-    <row r="64" spans="1:18" s="59" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="43">
+        <v>176</v>
+      </c>
+      <c r="O63" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="P63" s="17"/>
+    </row>
+    <row r="64" spans="1:16" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="74">
         <v>63</v>
       </c>
-      <c r="B64" s="92" t="s">
-        <v>162</v>
-      </c>
-      <c r="C64" s="57">
+      <c r="B64" s="84" t="s">
+        <v>159</v>
+      </c>
+      <c r="C64" s="43">
         <v>6350000</v>
       </c>
-      <c r="D64" s="38">
+      <c r="D64" s="32">
         <v>900000</v>
       </c>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38">
+      <c r="E64" s="32"/>
+      <c r="F64" s="32">
         <f t="shared" si="8"/>
         <v>7250000</v>
       </c>
-      <c r="G64" s="38">
+      <c r="G64" s="32">
         <f t="shared" si="6"/>
         <v>8700000</v>
       </c>
-      <c r="H64" s="38">
+      <c r="H64" s="32">
         <f t="shared" si="9"/>
         <v>9062500</v>
       </c>
-      <c r="I64" s="38"/>
-      <c r="J64" s="38"/>
-      <c r="K64" s="38">
+      <c r="I64" s="32"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32">
         <f t="shared" si="7"/>
         <v>-7250000</v>
       </c>
-      <c r="L64" s="39"/>
-      <c r="M64" s="39"/>
-      <c r="N64" s="39"/>
-      <c r="O64" s="60" t="s">
-        <v>163</v>
-      </c>
-      <c r="P64" s="39"/>
-      <c r="Q64" s="58"/>
-      <c r="R64" s="39"/>
-    </row>
-    <row r="65" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="44">
+      <c r="O64" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="P64" s="44"/>
+    </row>
+    <row r="65" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="71">
         <v>64</v>
       </c>
-      <c r="B65" s="91" t="s">
-        <v>164</v>
-      </c>
-      <c r="C65" s="22">
+      <c r="B65" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="C65" s="18">
         <v>2712000</v>
       </c>
       <c r="D65" s="3">
-        <v>821000</v>
-      </c>
-      <c r="E65" s="3"/>
+        <v>842000</v>
+      </c>
+      <c r="E65" s="3">
+        <v>150000</v>
+      </c>
       <c r="F65" s="3">
         <f t="shared" si="8"/>
-        <v>3533000</v>
-      </c>
-      <c r="G65" s="34">
+        <v>3704000</v>
+      </c>
+      <c r="G65" s="28">
         <f t="shared" si="6"/>
-        <v>4239600</v>
+        <v>4444800</v>
       </c>
       <c r="H65" s="3">
         <f t="shared" si="9"/>
-        <v>4416250</v>
-      </c>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
+        <v>4630000</v>
+      </c>
       <c r="K65" s="3">
         <f t="shared" si="7"/>
-        <v>-3533000</v>
-      </c>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="19"/>
-      <c r="R65" s="2"/>
-    </row>
-    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="44">
+        <v>-3704000</v>
+      </c>
+      <c r="O65" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="P65" s="17"/>
+    </row>
+    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="71">
         <v>65</v>
       </c>
-      <c r="B66" s="91" t="s">
-        <v>166</v>
-      </c>
-      <c r="C66" s="22">
+      <c r="B66" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="C66" s="18">
         <v>2440000</v>
       </c>
       <c r="D66" s="3">
         <v>71750</v>
       </c>
-      <c r="E66" s="3"/>
       <c r="F66" s="3">
         <f t="shared" si="8"/>
         <v>2511750</v>
       </c>
-      <c r="G66" s="34">
+      <c r="G66" s="28">
         <f t="shared" si="6"/>
         <v>3014100</v>
       </c>
@@ -4480,423 +4155,387 @@
         <f t="shared" si="9"/>
         <v>3139687.5</v>
       </c>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
       <c r="K66" s="3">
         <f t="shared" ref="K66:K72" si="10">I66-J66-F66</f>
         <v>-2511750</v>
       </c>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="19"/>
-      <c r="R66" s="2"/>
-    </row>
-    <row r="67" spans="1:18" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="93">
+      <c r="O66" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="P66" s="17"/>
+    </row>
+    <row r="67" spans="1:16" s="67" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="75">
         <v>66</v>
       </c>
-      <c r="B67" s="101" t="s">
-        <v>172</v>
-      </c>
-      <c r="C67" s="95">
+      <c r="B67" s="85" t="s">
+        <v>169</v>
+      </c>
+      <c r="C67" s="65">
         <v>3351000</v>
       </c>
-      <c r="D67" s="96">
+      <c r="D67" s="66">
         <v>760000</v>
       </c>
-      <c r="E67" s="96"/>
-      <c r="F67" s="96">
+      <c r="E67" s="66">
+        <v>200000</v>
+      </c>
+      <c r="F67" s="66">
         <f t="shared" si="8"/>
-        <v>4111000</v>
-      </c>
-      <c r="G67" s="96">
+        <v>4311000</v>
+      </c>
+      <c r="G67" s="66">
         <f t="shared" si="6"/>
-        <v>4933200</v>
-      </c>
-      <c r="H67" s="96">
+        <v>5173200</v>
+      </c>
+      <c r="H67" s="66">
         <f t="shared" si="9"/>
-        <v>5138750</v>
-      </c>
-      <c r="I67" s="96"/>
-      <c r="J67" s="96"/>
-      <c r="K67" s="96">
+        <v>5388750</v>
+      </c>
+      <c r="I67" s="66"/>
+      <c r="J67" s="66"/>
+      <c r="K67" s="66">
         <f t="shared" si="10"/>
-        <v>-4111000</v>
-      </c>
-      <c r="L67" s="97"/>
-      <c r="M67" s="97"/>
-      <c r="N67" s="97"/>
-      <c r="O67" s="98" t="s">
-        <v>173</v>
-      </c>
-      <c r="P67" s="97"/>
-      <c r="Q67" s="99"/>
-      <c r="R67" s="97"/>
-    </row>
-    <row r="68" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="44">
+        <v>-4311000</v>
+      </c>
+      <c r="O67" s="68" t="s">
+        <v>170</v>
+      </c>
+      <c r="P67" s="69"/>
+    </row>
+    <row r="68" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="71">
         <v>67</v>
       </c>
-      <c r="B68" s="91" t="s">
-        <v>174</v>
-      </c>
-      <c r="C68" s="22">
+      <c r="B68" s="64" t="s">
+        <v>171</v>
+      </c>
+      <c r="C68" s="18">
         <v>3511000</v>
       </c>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
+      <c r="D68" s="3">
+        <v>719000</v>
+      </c>
       <c r="F68" s="3">
         <f t="shared" si="8"/>
-        <v>3511000</v>
-      </c>
-      <c r="G68" s="34">
+        <v>4230000</v>
+      </c>
+      <c r="G68" s="28">
         <f t="shared" si="6"/>
-        <v>4213200</v>
+        <v>5076000</v>
       </c>
       <c r="H68" s="3">
         <f t="shared" si="9"/>
-        <v>4388750</v>
-      </c>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
+        <v>5287500</v>
+      </c>
+      <c r="I68" s="3">
+        <v>5800000</v>
+      </c>
       <c r="K68" s="3">
         <f t="shared" si="10"/>
-        <v>-3511000</v>
-      </c>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="19"/>
-      <c r="R68" s="2"/>
-    </row>
-    <row r="69" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="44">
+        <v>1570000</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="O68" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="P68" s="17"/>
+    </row>
+    <row r="69" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="71">
         <v>68</v>
       </c>
-      <c r="B69" s="91" t="s">
-        <v>176</v>
-      </c>
-      <c r="C69" s="22">
+      <c r="B69" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="C69" s="18">
         <v>7204000</v>
       </c>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
+      <c r="D69" s="3">
+        <v>698500</v>
+      </c>
+      <c r="E69" s="3">
+        <v>350000</v>
+      </c>
       <c r="F69" s="3">
         <f t="shared" si="8"/>
-        <v>7204000</v>
-      </c>
-      <c r="G69" s="34">
+        <v>8252500</v>
+      </c>
+      <c r="G69" s="28">
         <f t="shared" si="6"/>
-        <v>8644800</v>
+        <v>9903000</v>
       </c>
       <c r="H69" s="3">
         <f t="shared" si="9"/>
-        <v>9005000</v>
-      </c>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
+        <v>10315625</v>
+      </c>
+      <c r="I69" s="3">
+        <v>10700000</v>
+      </c>
       <c r="K69" s="3">
         <f t="shared" si="10"/>
-        <v>-7204000</v>
-      </c>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="18" t="s">
+        <v>2447500</v>
+      </c>
+      <c r="O69" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="P69" s="17"/>
+    </row>
+    <row r="70" spans="1:16" s="48" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="82">
+        <v>69</v>
+      </c>
+      <c r="B70" s="92" t="s">
+        <v>224</v>
+      </c>
+      <c r="C70" s="47">
+        <v>2964000</v>
+      </c>
+      <c r="D70" s="47">
+        <v>821500</v>
+      </c>
+      <c r="E70" s="47"/>
+      <c r="F70" s="47">
+        <f t="shared" si="8"/>
+        <v>3785500</v>
+      </c>
+      <c r="G70" s="47">
+        <f t="shared" si="6"/>
+        <v>4542600</v>
+      </c>
+      <c r="H70" s="47">
+        <f t="shared" si="9"/>
+        <v>4731875</v>
+      </c>
+      <c r="I70" s="47"/>
+      <c r="J70" s="47"/>
+      <c r="K70" s="47">
+        <f t="shared" si="10"/>
+        <v>-3785500</v>
+      </c>
+      <c r="O70" s="93" t="s">
         <v>177</v>
       </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="19"/>
-      <c r="R69" s="2"/>
-    </row>
-    <row r="70" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="44">
-        <v>69</v>
-      </c>
-      <c r="B70" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="C70" s="3">
-        <v>2964000</v>
-      </c>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3">
-        <f t="shared" si="8"/>
-        <v>2964000</v>
-      </c>
-      <c r="G70" s="34">
-        <f t="shared" si="6"/>
-        <v>3556800</v>
-      </c>
-      <c r="H70" s="3">
-        <f t="shared" si="9"/>
-        <v>3705000</v>
-      </c>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3">
-        <f t="shared" si="10"/>
-        <v>-2964000</v>
-      </c>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" s="4"/>
-      <c r="R70" s="2"/>
-    </row>
-    <row r="71" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="21"/>
-      <c r="B71" s="79" t="s">
-        <v>182</v>
-      </c>
-      <c r="C71" s="22">
+      <c r="P70" s="94"/>
+    </row>
+    <row r="71" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="71"/>
+      <c r="B71" s="73" t="s">
+        <v>178</v>
+      </c>
+      <c r="C71" s="18">
         <v>4423000</v>
       </c>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
+      <c r="D71" s="3">
+        <v>821500</v>
+      </c>
+      <c r="E71" s="3">
+        <v>350000</v>
+      </c>
       <c r="F71" s="3">
         <f t="shared" si="8"/>
-        <v>4423000</v>
-      </c>
-      <c r="G71" s="34">
+        <v>5594500</v>
+      </c>
+      <c r="G71" s="28">
         <f t="shared" si="6"/>
-        <v>5307600</v>
+        <v>6713400</v>
       </c>
       <c r="H71" s="3">
         <f t="shared" si="9"/>
-        <v>5528750</v>
-      </c>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
+        <v>6993125</v>
+      </c>
       <c r="K71" s="3">
         <f t="shared" si="10"/>
-        <v>-4423000</v>
-      </c>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="19"/>
-      <c r="R71" s="2"/>
-    </row>
-    <row r="72" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="21"/>
-      <c r="B72" s="102" t="s">
-        <v>196</v>
-      </c>
-      <c r="C72" s="22">
+        <v>-5594500</v>
+      </c>
+      <c r="O71" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="P71" s="17"/>
+    </row>
+    <row r="72" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="71"/>
+      <c r="B72" t="s">
+        <v>192</v>
+      </c>
+      <c r="C72" s="18">
         <v>3306000</v>
       </c>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
+      <c r="D72" s="3">
+        <v>794000</v>
+      </c>
       <c r="F72" s="3">
         <f t="shared" si="8"/>
-        <v>3306000</v>
-      </c>
-      <c r="G72" s="34">
+        <v>4100000</v>
+      </c>
+      <c r="G72" s="28">
         <f t="shared" si="6"/>
-        <v>3967200</v>
+        <v>4920000</v>
       </c>
       <c r="H72" s="3">
         <f t="shared" si="9"/>
-        <v>4132500</v>
-      </c>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
+        <v>5125000</v>
+      </c>
+      <c r="I72" s="3">
+        <v>5500000</v>
+      </c>
       <c r="K72" s="3">
         <f t="shared" si="10"/>
-        <v>-3306000</v>
-      </c>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="103" t="s">
-        <v>197</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="19"/>
-      <c r="R72" s="2"/>
-    </row>
-    <row r="73" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="21"/>
-      <c r="B73" s="102" t="s">
-        <v>196</v>
-      </c>
-      <c r="C73" s="22">
+        <v>1400000</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O72" s="91" t="s">
+        <v>193</v>
+      </c>
+      <c r="P72" s="17"/>
+    </row>
+    <row r="73" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="71"/>
+      <c r="B73" t="s">
+        <v>192</v>
+      </c>
+      <c r="C73" s="18">
         <v>3306000</v>
       </c>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
+      <c r="D73" s="3">
+        <v>794000</v>
+      </c>
       <c r="F73" s="3">
-        <f t="shared" ref="F73:F80" si="11">C73+D73+E73</f>
-        <v>3306000</v>
-      </c>
-      <c r="G73" s="34">
-        <f t="shared" ref="G73:G80" si="12">(F73*20%)+F73</f>
-        <v>3967200</v>
+        <f t="shared" ref="F73:F88" si="11">C73+D73+E73</f>
+        <v>4100000</v>
+      </c>
+      <c r="G73" s="28">
+        <f t="shared" ref="G73:G88" si="12">(F73*20%)+F73</f>
+        <v>4920000</v>
       </c>
       <c r="H73" s="3">
-        <f t="shared" ref="H73:H80" si="13">(F73*25%)+F73</f>
-        <v>4132500</v>
-      </c>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
+        <f t="shared" ref="H73:H88" si="13">(F73*25%)+F73</f>
+        <v>5125000</v>
+      </c>
       <c r="K73" s="3">
         <f t="shared" ref="K73:K78" si="14">I73-J73-F73</f>
-        <v>-3306000</v>
-      </c>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" s="104"/>
-      <c r="P73" s="2"/>
-      <c r="Q73" s="19"/>
-      <c r="R73" s="2"/>
-    </row>
-    <row r="74" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="21"/>
-      <c r="B74" s="102" t="s">
-        <v>196</v>
-      </c>
-      <c r="C74" s="22">
+        <v>-4100000</v>
+      </c>
+      <c r="O73" s="91"/>
+      <c r="P73" s="17"/>
+    </row>
+    <row r="74" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="71"/>
+      <c r="B74" t="s">
+        <v>192</v>
+      </c>
+      <c r="C74" s="18">
         <v>3306000</v>
       </c>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
+      <c r="D74" s="3">
+        <v>794000</v>
+      </c>
       <c r="F74" s="3">
         <f t="shared" si="11"/>
-        <v>3306000</v>
-      </c>
-      <c r="G74" s="34">
+        <v>4100000</v>
+      </c>
+      <c r="G74" s="28">
         <f t="shared" si="12"/>
-        <v>3967200</v>
+        <v>4920000</v>
       </c>
       <c r="H74" s="3">
         <f t="shared" si="13"/>
-        <v>4132500</v>
-      </c>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
+        <v>5125000</v>
+      </c>
       <c r="K74" s="3">
         <f t="shared" si="14"/>
-        <v>-3306000</v>
-      </c>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" s="105"/>
-      <c r="P74" s="2"/>
-      <c r="Q74" s="19"/>
-      <c r="R74" s="2"/>
-    </row>
-    <row r="75" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="21"/>
-      <c r="B75" s="79" t="s">
-        <v>198</v>
-      </c>
-      <c r="C75" s="22">
+        <v>-4100000</v>
+      </c>
+      <c r="O74" s="91"/>
+      <c r="P74" s="17"/>
+    </row>
+    <row r="75" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="71"/>
+      <c r="B75" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="C75" s="18">
         <v>6974748</v>
       </c>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
+      <c r="D75" s="3">
+        <v>780000</v>
+      </c>
       <c r="F75" s="3">
         <f t="shared" si="11"/>
-        <v>6974748</v>
-      </c>
-      <c r="G75" s="34">
+        <v>7754748</v>
+      </c>
+      <c r="G75" s="28">
         <f t="shared" si="12"/>
-        <v>8369697.5999999996</v>
+        <v>9305697.5999999996</v>
       </c>
       <c r="H75" s="3">
         <f t="shared" si="13"/>
-        <v>8718435</v>
-      </c>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
+        <v>9693435</v>
+      </c>
+      <c r="I75" s="3">
+        <v>10800000</v>
+      </c>
       <c r="K75" s="3">
         <f t="shared" si="14"/>
-        <v>-6974748</v>
-      </c>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="19"/>
-      <c r="R75" s="2"/>
-    </row>
-    <row r="76" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="21"/>
-      <c r="B76" s="107" t="s">
-        <v>200</v>
-      </c>
-      <c r="C76" s="22">
+        <v>3045252</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="O75" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="P75" s="17"/>
+    </row>
+    <row r="76" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="71"/>
+      <c r="B76" t="s">
+        <v>196</v>
+      </c>
+      <c r="C76" s="18">
         <v>2188000</v>
       </c>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
+      <c r="D76" s="3">
+        <v>51250</v>
+      </c>
       <c r="F76" s="3">
         <f t="shared" si="11"/>
-        <v>2188000</v>
-      </c>
-      <c r="G76" s="34">
+        <v>2239250</v>
+      </c>
+      <c r="G76" s="28">
         <f t="shared" si="12"/>
-        <v>2625600</v>
+        <v>2687100</v>
       </c>
       <c r="H76" s="3">
         <f t="shared" si="13"/>
-        <v>2735000</v>
-      </c>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
+        <v>2799062.5</v>
+      </c>
       <c r="K76" s="3">
         <f t="shared" si="14"/>
-        <v>-2188000</v>
-      </c>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="19"/>
-      <c r="R76" s="2"/>
-    </row>
-    <row r="77" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="21"/>
-      <c r="B77" s="107" t="s">
-        <v>202</v>
-      </c>
-      <c r="C77" s="22">
+        <v>-2239250</v>
+      </c>
+      <c r="O76" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="P76" s="17"/>
+    </row>
+    <row r="77" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="71"/>
+      <c r="B77" t="s">
+        <v>198</v>
+      </c>
+      <c r="C77" s="18">
         <v>5706000</v>
       </c>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
       <c r="F77" s="3">
         <f t="shared" si="11"/>
         <v>5706000</v>
       </c>
-      <c r="G77" s="34">
+      <c r="G77" s="28">
         <f t="shared" si="12"/>
         <v>6847200</v>
       </c>
@@ -4904,32 +4543,23 @@
         <f t="shared" si="13"/>
         <v>7132500</v>
       </c>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
       <c r="K77" s="3">
         <f t="shared" si="14"/>
         <v>-5706000</v>
       </c>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="19"/>
-      <c r="R77" s="2"/>
-    </row>
-    <row r="78" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="21"/>
-      <c r="B78" s="107" t="s">
-        <v>204</v>
-      </c>
-      <c r="C78" s="22">
+      <c r="O77" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="P77" s="17"/>
+    </row>
+    <row r="78" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="71"/>
+      <c r="B78" t="s">
+        <v>200</v>
+      </c>
+      <c r="C78" s="18">
         <v>5244000</v>
       </c>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
       <c r="F78" s="3">
         <f t="shared" si="11"/>
         <v>5244000</v>
@@ -4942,104 +4572,290 @@
         <f t="shared" si="13"/>
         <v>6555000</v>
       </c>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
       <c r="K78" s="3">
         <f t="shared" si="14"/>
         <v>-5244000</v>
       </c>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" s="18"/>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="19"/>
-      <c r="R78" s="2"/>
-    </row>
-    <row r="79" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="102" t="s">
-        <v>205</v>
+      <c r="O78" s="16"/>
+      <c r="P78" s="17"/>
+    </row>
+    <row r="79" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>201</v>
       </c>
       <c r="C79" s="3">
         <v>2508000</v>
       </c>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
+      <c r="D79" s="3">
+        <v>52000</v>
+      </c>
       <c r="F79" s="3">
         <f t="shared" si="11"/>
-        <v>2508000</v>
+        <v>2560000</v>
       </c>
       <c r="G79" s="3">
         <f t="shared" si="12"/>
-        <v>3009600</v>
+        <v>3072000</v>
       </c>
       <c r="H79" s="3">
         <f t="shared" si="13"/>
-        <v>3135000</v>
-      </c>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
+        <v>3200000</v>
+      </c>
       <c r="K79" s="3">
         <f>I79-J79-F79</f>
-        <v>-2508000</v>
-      </c>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" s="4"/>
-      <c r="R79" s="2"/>
-    </row>
-    <row r="80" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="B80" s="83" t="s">
-        <v>207</v>
-      </c>
-      <c r="C80" s="1">
+        <v>-2560000</v>
+      </c>
+      <c r="O79" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="B80" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="C80" s="3">
         <v>7410000</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F80" s="3">
         <f t="shared" si="11"/>
         <v>7410000</v>
       </c>
-      <c r="G80" s="1">
+      <c r="G80" s="3">
         <f t="shared" si="12"/>
         <v>8892000</v>
       </c>
-      <c r="H80" s="1">
+      <c r="H80" s="3">
         <f t="shared" si="13"/>
         <v>9262500</v>
       </c>
-      <c r="K80" s="1">
+      <c r="K80" s="3">
         <f>I80-J80-F80</f>
         <v>-7410000</v>
       </c>
-      <c r="O80" s="16" t="s">
-        <v>208</v>
+      <c r="O80" s="13" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B81" s="107" t="s">
+      <c r="B81" t="s">
+        <v>205</v>
+      </c>
+      <c r="C81" s="3">
+        <v>7410000</v>
+      </c>
+      <c r="F81" s="3">
+        <f t="shared" si="11"/>
+        <v>7410000</v>
+      </c>
+      <c r="G81" s="3">
+        <f t="shared" si="12"/>
+        <v>8892000</v>
+      </c>
+      <c r="H81" s="3">
+        <f t="shared" si="13"/>
+        <v>9262500</v>
+      </c>
+      <c r="K81" s="3">
+        <f t="shared" ref="K81:K88" si="15">I81-J81-F81</f>
+        <v>-7410000</v>
+      </c>
+      <c r="O81" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B82" s="86" t="s">
+        <v>210</v>
+      </c>
+      <c r="C82" s="3">
+        <v>7288000</v>
+      </c>
+      <c r="F82" s="3">
+        <f t="shared" si="11"/>
+        <v>7288000</v>
+      </c>
+      <c r="G82" s="3">
+        <f t="shared" si="12"/>
+        <v>8745600</v>
+      </c>
+      <c r="H82" s="3">
+        <f t="shared" si="13"/>
+        <v>9110000</v>
+      </c>
+      <c r="K82" s="3">
+        <f t="shared" si="15"/>
+        <v>-7288000</v>
+      </c>
+      <c r="O82" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="C81" s="1">
-        <v>7410000</v>
-      </c>
-      <c r="O81" s="16" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B82" s="106"/>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B83" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="C83" s="3">
+        <v>4309000</v>
+      </c>
+      <c r="F83" s="3">
+        <f t="shared" si="11"/>
+        <v>4309000</v>
+      </c>
+      <c r="G83" s="3">
+        <f t="shared" si="12"/>
+        <v>5170800</v>
+      </c>
+      <c r="H83" s="3">
+        <f t="shared" si="13"/>
+        <v>5386250</v>
+      </c>
+      <c r="K83" s="3">
+        <f t="shared" si="15"/>
+        <v>-4309000</v>
+      </c>
+      <c r="O83" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B84" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="C84" s="3">
+        <v>2599000</v>
+      </c>
+      <c r="F84" s="3">
+        <f t="shared" si="11"/>
+        <v>2599000</v>
+      </c>
+      <c r="G84" s="3">
+        <f t="shared" si="12"/>
+        <v>3118800</v>
+      </c>
+      <c r="H84" s="3">
+        <f t="shared" si="13"/>
+        <v>3248750</v>
+      </c>
+      <c r="K84" s="3">
+        <f t="shared" si="15"/>
+        <v>-2599000</v>
+      </c>
+      <c r="O84" s="13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B85" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C85" s="3">
+        <v>4104000</v>
+      </c>
+      <c r="F85" s="3">
+        <f t="shared" si="11"/>
+        <v>4104000</v>
+      </c>
+      <c r="G85" s="3">
+        <f t="shared" si="12"/>
+        <v>4924800</v>
+      </c>
+      <c r="H85" s="3">
+        <f t="shared" si="13"/>
+        <v>5130000</v>
+      </c>
+      <c r="K85" s="3">
+        <f t="shared" si="15"/>
+        <v>-4104000</v>
+      </c>
+      <c r="O85" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>218</v>
+      </c>
+      <c r="C86" s="3">
+        <v>3990000</v>
+      </c>
+      <c r="F86" s="3">
+        <f t="shared" si="11"/>
+        <v>3990000</v>
+      </c>
+      <c r="G86" s="3">
+        <f t="shared" si="12"/>
+        <v>4788000</v>
+      </c>
+      <c r="H86" s="3">
+        <f t="shared" si="13"/>
+        <v>4987500</v>
+      </c>
+      <c r="K86" s="3">
+        <f t="shared" si="15"/>
+        <v>-3990000</v>
+      </c>
+      <c r="O86" s="40" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>219</v>
+      </c>
+      <c r="C87" s="3">
+        <v>5586000</v>
+      </c>
+      <c r="F87" s="3">
+        <f t="shared" si="11"/>
+        <v>5586000</v>
+      </c>
+      <c r="G87" s="3">
+        <f t="shared" si="12"/>
+        <v>6703200</v>
+      </c>
+      <c r="H87" s="3">
+        <f t="shared" si="13"/>
+        <v>6982500</v>
+      </c>
+      <c r="K87" s="3">
+        <f t="shared" si="15"/>
+        <v>-5586000</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B88" s="88"/>
+      <c r="F88" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G88" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H88" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K88" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B89" s="89"/>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B90" s="87"/>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B91" s="90"/>
     </row>
   </sheetData>
   <autoFilter ref="L1:L80" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="O72:O74"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:G2 H2:N17 O2:Q22 B2:B25 R2:R39 C3:E25 F3:G27 P23:Q25 O26:Q26 D26:E38 P26:P39 O29:Q38 D39:F39 C40:F41 P42:P43 R42:R43 Q44:Q49 C29:F38 L42:N69 P50:P69 R50:R69 L40:R41 L18:N39 D42:F57 F28 L71:N72 K3:K72 D59:F69 E58:F58 D71:F72 I71:J72 H18:J65 G28:G72 I66:J69 H66:H72 D75:J78 K75:K79 L75:N78 D73:N74 P71:P78 R71:R78">
+  <conditionalFormatting sqref="C2:G2 H2:N17 B2:B25 Q2:Q39 C3:E25 F3:G27 D26:E38 D39:F39 C40:F41 Q42:Q43 P44:P49 C29:F38 L42:N69 Q50:Q69 L18:N39 D42:F57 F28 L71:N72 K3:K72 D59:F69 E58:F58 D71:F72 I71:J72 H18:J65 G28:G72 I66:J69 H66:H72 D75:J78 K75:K79 L75:N78 Q71:Q78 O2:O22 P2:P25 O26:P26 O29:P38 L40:Q41 D73:N74">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>MOD(ROW(),2)&gt;0</formula>
     </cfRule>
@@ -5047,27 +4863,19 @@
   <hyperlinks>
     <hyperlink ref="O23" r:id="rId1" display="https://www.ebay.com/ship/trk/tracking-details?transid=2201839708010&amp;itemid=204283961060" xr:uid="{6F8BFF36-4018-4EC5-AB4D-4659A4D8A44B}"/>
     <hyperlink ref="O24" r:id="rId2" display="https://www.ebay.com/ship/trk/tracking-details?transid=0&amp;itemid=394522922692" xr:uid="{33A4F9FB-78A6-4311-9764-2BC4A4E1AFF3}"/>
-    <hyperlink ref="B72" r:id="rId3" display="https://www.ebay.com/itm/354732531346" xr:uid="{4915D9C4-56C7-4EF7-8105-01A3BF9C8EC8}"/>
-    <hyperlink ref="B73" r:id="rId4" display="https://www.ebay.com/itm/354732531346" xr:uid="{C32FAD5E-7865-4D11-801C-BD8C8D531E83}"/>
-    <hyperlink ref="B74" r:id="rId5" display="https://www.ebay.com/itm/354732531346" xr:uid="{D5E65E5A-1824-4D9C-A5F0-A0AE7A78AB8C}"/>
-    <hyperlink ref="B76" r:id="rId6" display="https://www.ebay.com/itm/334919189281" xr:uid="{6143C9D4-20E2-41DE-9C6E-2B75F889947A}"/>
-    <hyperlink ref="B77" r:id="rId7" display="https://www.ebay.com/itm/195833979238" xr:uid="{9A90E901-DF82-4A99-9402-DB5B4C1C69BC}"/>
-    <hyperlink ref="B78" r:id="rId8" display="https://www.ebay.com/itm/325700792544" xr:uid="{476CE84C-A3E9-44DB-AB05-8B0C468F97A0}"/>
-    <hyperlink ref="B79" r:id="rId9" display="https://www.ebay.com/itm/235007286077" xr:uid="{3B676937-3929-423F-8D5F-009E9E7065CA}"/>
-    <hyperlink ref="B81" r:id="rId10" display="https://www.ebay.com/itm/285290543317" xr:uid="{947CCBB1-E8EA-4D30-B347-25658F9843F5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
-  <drawing r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7319406-98BD-447D-8271-4689041D1616}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5077,16 +4885,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
-        <v>184</v>
-      </c>
-      <c r="B1" s="56" t="s">
-        <v>185</v>
+      <c r="A1" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B2" s="1">
         <v>300000</v>
@@ -5094,7 +4902,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B3" s="1">
         <v>150000</v>
@@ -5102,7 +4910,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B4" s="1">
         <v>150000</v>
@@ -5110,7 +4918,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B5" s="1">
         <v>160000</v>
@@ -5118,7 +4926,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B6" s="1">
         <v>300000</v>
@@ -5126,10 +4934,18 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B7" s="1">
         <v>600000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8" s="1">
+        <v>300000</v>
       </c>
     </row>
   </sheetData>

--- a/TDStore/NhapXuatLaptop.xlsx
+++ b/TDStore/NhapXuatLaptop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432517FD-3C98-4F0B-B25A-2505E3E321C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A744FE38-75C0-4B05-937A-393EEC19930D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="241">
   <si>
     <t>ID máy</t>
   </si>
@@ -498,9 +498,6 @@
     <t>1ZAC98180376321238</t>
   </si>
   <si>
-    <t>Dell Latitude 5400 14", i5 8th Gen, 8GB Ram, Excellent Battery, No HDD or OS</t>
-  </si>
-  <si>
     <t>399716263193</t>
   </si>
   <si>
@@ -609,9 +606,6 @@
     <t>SSD 512</t>
   </si>
   <si>
-    <t>5tr3</t>
-  </si>
-  <si>
     <t>DELL LATITUDE 3410 INTEL CORE I5 10GEN NO RAM NO HD US $70.00 Chết main</t>
   </si>
   <si>
@@ -666,9 +660,6 @@
     <t>780572009202</t>
   </si>
   <si>
-    <t>5tr2</t>
-  </si>
-  <si>
     <t>8tr5</t>
   </si>
   <si>
@@ -718,6 +709,63 @@
   </si>
   <si>
     <t>Dell Latitude 7400 I5-8365U 1.6GHz 16GB RAM 256GB SSD HD</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7400 14" Intel Core i5-8365U 1.6Ghz 16GB RAM 256GB SSD C4 Xước</t>
+  </si>
+  <si>
+    <t>5tr</t>
+  </si>
+  <si>
+    <t>4tr5</t>
+  </si>
+  <si>
+    <t>6tr</t>
+  </si>
+  <si>
+    <t>5tr6</t>
+  </si>
+  <si>
+    <t>780943191115</t>
+  </si>
+  <si>
+    <t>Dell XPS 13 9370 13.3" Intel i5-8350U 1.7GHz 8GB DDR3 Fair No SSD COA</t>
+  </si>
+  <si>
+    <t>9505810060783191418952</t>
+  </si>
+  <si>
+    <t>Dell XPS 13 9380 Intel i5-8265H@1.60GHz 8GB RAM 256GB SSD Win 11</t>
+  </si>
+  <si>
+    <t>1ZX1965V0398269025</t>
+  </si>
+  <si>
+    <t>Dell XPS 13 9380 Intel Core i7-8565U 1.80Ghz 8GB Ram No HDD 13.3" Laptop</t>
+  </si>
+  <si>
+    <t>9434608205499098837372</t>
+  </si>
+  <si>
+    <t>Dell XPS 13 9370 13.3" i5-8250U@1.6GHz 8GB RAM No SSD/OS *Bios* | C1752</t>
+  </si>
+  <si>
+    <t>781098972315</t>
+  </si>
+  <si>
+    <t>Dell Latitude Touch 7400 2 in 1 14" Core i7 8th Gen 16 DDR4 Ram No OS parts</t>
+  </si>
+  <si>
+    <t>9405508205499103479499</t>
+  </si>
+  <si>
+    <t>Dell XPS 13 9380 - Win11 Pro, 128GB NVMe, 8GB RAM, Intel i5 8th Gen, Webcam</t>
+  </si>
+  <si>
+    <t>Microsoft Surface Laptop 3 i5 1.20GHz | 8GB 256GB-SSD | FAIR</t>
+  </si>
+  <si>
+    <t>Dell Latitude 5400 14", i5 8th Gen, 8GB Ram, Excellent Battery, No HDD or OS Xước nhẹ</t>
   </si>
 </sst>
 </file>
@@ -728,7 +776,7 @@
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -787,8 +835,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -861,8 +922,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -885,12 +958,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1074,34 +1173,87 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1488,11 +1640,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q91"/>
+  <dimension ref="A1:Q117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I70" sqref="I70"/>
+      <selection pane="bottomLeft" sqref="A1:K92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2619,7 +2771,7 @@
         <v>1112141</v>
       </c>
       <c r="L28" s="29" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M28" s="29"/>
       <c r="N28" s="29" t="s">
@@ -2773,41 +2925,45 @@
       <c r="A32" s="71">
         <v>31</v>
       </c>
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="102">
         <v>6651048</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="102">
         <v>833000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="102">
         <v>300000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="102">
         <f t="shared" si="2"/>
         <v>7784048</v>
       </c>
-      <c r="G32" s="28">
+      <c r="G32" s="103">
         <f t="shared" si="6"/>
         <v>9340857.5999999996</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="102">
         <f t="shared" si="5"/>
         <v>9730060</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="102" t="s">
         <v>110</v>
       </c>
-      <c r="K32" s="3" t="e">
+      <c r="J32" s="102"/>
+      <c r="K32" s="102" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O32" s="13" t="s">
+      <c r="L32" s="104"/>
+      <c r="M32" s="104"/>
+      <c r="N32" s="104"/>
+      <c r="O32" s="105" t="s">
         <v>79</v>
       </c>
-      <c r="P32" s="4">
+      <c r="P32" s="106">
         <v>45022</v>
       </c>
     </row>
@@ -3266,7 +3422,7 @@
         <v>882000</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O44" s="39" t="s">
         <v>113</v>
@@ -3309,7 +3465,7 @@
         <v>2833000</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O45" s="39" t="s">
         <v>123</v>
@@ -3392,7 +3548,7 @@
         <v>895000</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O47" s="39" t="s">
         <v>127</v>
@@ -3478,14 +3634,14 @@
         <v>930000</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O49" s="39" t="s">
         <v>131</v>
       </c>
       <c r="P49" s="2"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="71">
         <v>49</v>
       </c>
@@ -3498,24 +3654,30 @@
       <c r="D50" s="3">
         <v>883000</v>
       </c>
+      <c r="E50" s="3">
+        <v>200000</v>
+      </c>
       <c r="F50" s="3">
         <f t="shared" si="8"/>
-        <v>4531000</v>
+        <v>4731000</v>
       </c>
       <c r="G50" s="28">
         <f t="shared" si="6"/>
-        <v>5437200</v>
+        <v>5677200</v>
       </c>
       <c r="H50" s="3">
         <f t="shared" si="9"/>
-        <v>5663750</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="K50" s="3" t="e">
+        <v>5913750</v>
+      </c>
+      <c r="I50" s="3">
+        <v>6500000</v>
+      </c>
+      <c r="K50" s="3">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
+        <v>1769000</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="O50" s="16" t="s">
         <v>133</v>
@@ -3547,15 +3709,9 @@
         <f t="shared" si="9"/>
         <v>6573125</v>
       </c>
-      <c r="I51" s="3">
-        <v>7600000</v>
-      </c>
       <c r="K51" s="3">
         <f t="shared" si="7"/>
-        <v>2341500</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>168</v>
+        <v>-5258500</v>
       </c>
       <c r="O51" s="16" t="s">
         <v>135</v>
@@ -3566,41 +3722,45 @@
       <c r="A52" s="71">
         <v>51</v>
       </c>
-      <c r="B52" s="60" t="s">
+      <c r="B52" s="107" t="s">
         <v>136</v>
       </c>
-      <c r="C52" s="18">
+      <c r="C52" s="108">
         <v>4560000</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="102">
         <v>985000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="102">
         <v>200000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="102">
         <f t="shared" si="8"/>
         <v>5745000</v>
       </c>
-      <c r="G52" s="28">
+      <c r="G52" s="103">
         <f t="shared" si="6"/>
         <v>6894000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="102">
         <f t="shared" si="9"/>
         <v>7181250</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="102">
         <v>7500000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="J52" s="102"/>
+      <c r="K52" s="102">
         <f t="shared" si="7"/>
         <v>1755000</v>
       </c>
-      <c r="O52" s="16" t="s">
+      <c r="L52" s="104"/>
+      <c r="M52" s="104"/>
+      <c r="N52" s="104"/>
+      <c r="O52" s="109" t="s">
         <v>137</v>
       </c>
-      <c r="P52" s="17"/>
+      <c r="P52" s="110"/>
     </row>
     <row r="53" spans="1:16" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="75">
@@ -3631,7 +3791,7 @@
         <v>5368750</v>
       </c>
       <c r="I53" s="66" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="J53" s="66"/>
       <c r="K53" s="66" t="e">
@@ -3676,7 +3836,7 @@
         <v>1112000</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O54" s="16" t="s">
         <v>141</v>
@@ -3731,7 +3891,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="76" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C56" s="65">
         <v>1960000</v>
@@ -3754,13 +3914,13 @@
         <f t="shared" si="9"/>
         <v>4616250</v>
       </c>
-      <c r="I56" s="66">
-        <v>5000000</v>
+      <c r="I56" s="66" t="s">
+        <v>223</v>
       </c>
       <c r="J56" s="66"/>
-      <c r="K56" s="66">
+      <c r="K56" s="66" t="e">
         <f t="shared" si="7"/>
-        <v>1307000</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O56" s="68" t="s">
         <v>144</v>
@@ -3806,7 +3966,7 @@
         <v>21</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O57" s="16" t="s">
         <v>146</v>
@@ -3846,7 +4006,7 @@
         <v>2087500</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O58" s="16" t="s">
         <v>148</v>
@@ -3880,7 +4040,7 @@
         <v>10448750</v>
       </c>
       <c r="I59" s="52" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J59" s="52"/>
       <c r="K59" s="52" t="e">
@@ -3888,7 +4048,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="L59" s="53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O59" s="81" t="s">
         <v>150</v>
@@ -3900,7 +4060,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="73" t="s">
-        <v>151</v>
+        <v>240</v>
       </c>
       <c r="C60" s="18">
         <v>1824000</v>
@@ -3908,24 +4068,30 @@
       <c r="D60" s="3">
         <v>739500</v>
       </c>
+      <c r="E60" s="3">
+        <v>300000</v>
+      </c>
       <c r="F60" s="3">
         <f t="shared" si="8"/>
-        <v>2563500</v>
+        <v>2863500</v>
       </c>
       <c r="G60" s="28">
         <f t="shared" si="6"/>
-        <v>3076200</v>
+        <v>3436200</v>
       </c>
       <c r="H60" s="3">
         <f t="shared" si="9"/>
-        <v>3204375</v>
-      </c>
-      <c r="K60" s="3">
+        <v>3579375</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="K60" s="3" t="e">
         <f t="shared" si="7"/>
-        <v>-2563500</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O60" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P60" s="17"/>
     </row>
@@ -3934,7 +4100,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="83" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C61" s="46">
         <v>6328000</v>
@@ -3958,7 +4124,7 @@
         <v>9391250</v>
       </c>
       <c r="I61" s="47" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J61" s="47"/>
       <c r="K61" s="47" t="e">
@@ -3966,7 +4132,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O61" s="49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P61" s="50"/>
     </row>
@@ -3975,7 +4141,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="64" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C62" s="18">
         <v>3762000</v>
@@ -4006,10 +4172,10 @@
         <v>539000</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="O62" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P62" s="17"/>
     </row>
@@ -4018,7 +4184,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="64" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C63" s="18">
         <v>4000000</v>
@@ -4049,10 +4215,10 @@
         <v>619500</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O63" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P63" s="17"/>
     </row>
@@ -4061,7 +4227,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="84" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C64" s="43">
         <v>6350000</v>
@@ -4069,36 +4235,38 @@
       <c r="D64" s="32">
         <v>900000</v>
       </c>
-      <c r="E64" s="32"/>
+      <c r="E64" s="32">
+        <v>200000</v>
+      </c>
       <c r="F64" s="32">
         <f t="shared" si="8"/>
-        <v>7250000</v>
+        <v>7450000</v>
       </c>
       <c r="G64" s="32">
         <f t="shared" si="6"/>
-        <v>8700000</v>
+        <v>8940000</v>
       </c>
       <c r="H64" s="32">
         <f t="shared" si="9"/>
-        <v>9062500</v>
+        <v>9312500</v>
       </c>
       <c r="I64" s="32"/>
       <c r="J64" s="32"/>
       <c r="K64" s="32">
         <f t="shared" si="7"/>
-        <v>-7250000</v>
+        <v>-7450000</v>
       </c>
       <c r="O64" s="45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P64" s="44"/>
     </row>
-    <row r="65" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="71">
         <v>64</v>
       </c>
       <c r="B65" s="64" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C65" s="18">
         <v>2712000</v>
@@ -4121,21 +4289,24 @@
         <f t="shared" si="9"/>
         <v>4630000</v>
       </c>
-      <c r="K65" s="3">
+      <c r="I65" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="K65" s="3" t="e">
         <f t="shared" si="7"/>
-        <v>-3704000</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O65" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P65" s="17"/>
     </row>
-    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="71">
         <v>65</v>
       </c>
       <c r="B66" s="64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C66" s="18">
         <v>2440000</v>
@@ -4160,16 +4331,16 @@
         <v>-2511750</v>
       </c>
       <c r="O66" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P66" s="17"/>
     </row>
-    <row r="67" spans="1:16" s="67" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" s="67" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="75">
         <v>66</v>
       </c>
       <c r="B67" s="85" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C67" s="65">
         <v>3351000</v>
@@ -4192,23 +4363,25 @@
         <f t="shared" si="9"/>
         <v>5388750</v>
       </c>
-      <c r="I67" s="66"/>
+      <c r="I67" s="66" t="s">
+        <v>225</v>
+      </c>
       <c r="J67" s="66"/>
-      <c r="K67" s="66">
+      <c r="K67" s="66" t="e">
         <f t="shared" si="10"/>
-        <v>-4311000</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O67" s="68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P67" s="69"/>
     </row>
-    <row r="68" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="71">
         <v>67</v>
       </c>
       <c r="B68" s="64" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C68" s="18">
         <v>3511000</v>
@@ -4239,16 +4412,16 @@
         <v>109</v>
       </c>
       <c r="O68" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P68" s="17"/>
     </row>
-    <row r="69" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="71">
         <v>68</v>
       </c>
       <c r="B69" s="64" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C69" s="18">
         <v>7204000</v>
@@ -4279,51 +4452,59 @@
         <v>2447500</v>
       </c>
       <c r="O69" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P69" s="17"/>
     </row>
-    <row r="70" spans="1:16" s="48" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" s="48" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="82">
         <v>69</v>
       </c>
-      <c r="B70" s="92" t="s">
-        <v>224</v>
-      </c>
-      <c r="C70" s="47">
+      <c r="B70" s="91" t="s">
+        <v>221</v>
+      </c>
+      <c r="C70" s="89">
         <v>2964000</v>
       </c>
-      <c r="D70" s="47">
+      <c r="D70" s="89">
         <v>821500</v>
       </c>
-      <c r="E70" s="47"/>
-      <c r="F70" s="47">
+      <c r="E70" s="89"/>
+      <c r="F70" s="89">
         <f t="shared" si="8"/>
         <v>3785500</v>
       </c>
-      <c r="G70" s="47">
+      <c r="G70" s="89">
         <f t="shared" si="6"/>
         <v>4542600</v>
       </c>
-      <c r="H70" s="47">
+      <c r="H70" s="89">
         <f t="shared" si="9"/>
         <v>4731875</v>
       </c>
-      <c r="I70" s="47"/>
-      <c r="J70" s="47"/>
-      <c r="K70" s="47">
+      <c r="I70" s="89" t="s">
+        <v>223</v>
+      </c>
+      <c r="J70" s="89"/>
+      <c r="K70" s="89" t="e">
         <f t="shared" si="10"/>
-        <v>-3785500</v>
-      </c>
-      <c r="O70" s="93" t="s">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L70" s="90"/>
+      <c r="M70" s="90"/>
+      <c r="N70" s="90"/>
+      <c r="O70" s="92" t="s">
+        <v>176</v>
+      </c>
+      <c r="P70" s="93"/>
+      <c r="Q70" s="90"/>
+    </row>
+    <row r="71" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="82">
+        <v>70</v>
+      </c>
+      <c r="B71" s="73" t="s">
         <v>177</v>
-      </c>
-      <c r="P70" s="94"/>
-    </row>
-    <row r="71" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="71"/>
-      <c r="B71" s="73" t="s">
-        <v>178</v>
       </c>
       <c r="C71" s="18">
         <v>4423000</v>
@@ -4346,19 +4527,24 @@
         <f t="shared" si="9"/>
         <v>6993125</v>
       </c>
+      <c r="I71" s="3">
+        <v>7500000</v>
+      </c>
       <c r="K71" s="3">
         <f t="shared" si="10"/>
-        <v>-5594500</v>
+        <v>1905500</v>
       </c>
       <c r="O71" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P71" s="17"/>
     </row>
-    <row r="72" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="71"/>
+    <row r="72" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="82">
+        <v>71</v>
+      </c>
       <c r="B72" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C72" s="18">
         <v>3306000</v>
@@ -4386,17 +4572,19 @@
         <v>1400000</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="O72" s="91" t="s">
-        <v>193</v>
+        <v>217</v>
+      </c>
+      <c r="O72" s="94" t="s">
+        <v>191</v>
       </c>
       <c r="P72" s="17"/>
     </row>
-    <row r="73" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="71"/>
+    <row r="73" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="82">
+        <v>72</v>
+      </c>
       <c r="B73" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C73" s="18">
         <v>3306000</v>
@@ -4404,59 +4592,79 @@
       <c r="D73" s="3">
         <v>794000</v>
       </c>
+      <c r="E73" s="3">
+        <v>150000</v>
+      </c>
       <c r="F73" s="3">
-        <f t="shared" ref="F73:F88" si="11">C73+D73+E73</f>
-        <v>4100000</v>
+        <f t="shared" ref="F73:F96" si="11">C73+D73+E73</f>
+        <v>4250000</v>
       </c>
       <c r="G73" s="28">
-        <f t="shared" ref="G73:G88" si="12">(F73*20%)+F73</f>
-        <v>4920000</v>
+        <f t="shared" ref="G73:G96" si="12">(F73*20%)+F73</f>
+        <v>5100000</v>
       </c>
       <c r="H73" s="3">
-        <f t="shared" ref="H73:H88" si="13">(F73*25%)+F73</f>
-        <v>5125000</v>
-      </c>
-      <c r="K73" s="3">
+        <f t="shared" ref="H73:H96" si="13">(F73*25%)+F73</f>
+        <v>5312500</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="K73" s="3" t="e">
         <f t="shared" ref="K73:K78" si="14">I73-J73-F73</f>
-        <v>-4100000</v>
-      </c>
-      <c r="O73" s="91"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O73" s="94"/>
       <c r="P73" s="17"/>
     </row>
-    <row r="74" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="71"/>
-      <c r="B74" t="s">
+    <row r="74" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="82">
+        <v>73</v>
+      </c>
+      <c r="B74" s="87" t="s">
+        <v>222</v>
+      </c>
+      <c r="C74" s="88">
+        <v>3306000</v>
+      </c>
+      <c r="D74" s="89">
+        <v>794000</v>
+      </c>
+      <c r="E74" s="3">
+        <v>150000</v>
+      </c>
+      <c r="F74" s="89">
+        <f t="shared" si="11"/>
+        <v>4250000</v>
+      </c>
+      <c r="G74" s="89">
+        <f t="shared" si="12"/>
+        <v>5100000</v>
+      </c>
+      <c r="H74" s="89">
+        <f t="shared" si="13"/>
+        <v>5312500</v>
+      </c>
+      <c r="I74" s="89" t="s">
+        <v>223</v>
+      </c>
+      <c r="J74" s="89"/>
+      <c r="K74" s="89" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L74" s="90"/>
+      <c r="M74" s="90"/>
+      <c r="N74" s="90"/>
+      <c r="O74" s="94"/>
+      <c r="P74" s="17"/>
+    </row>
+    <row r="75" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="82">
+        <v>74</v>
+      </c>
+      <c r="B75" s="73" t="s">
         <v>192</v>
-      </c>
-      <c r="C74" s="18">
-        <v>3306000</v>
-      </c>
-      <c r="D74" s="3">
-        <v>794000</v>
-      </c>
-      <c r="F74" s="3">
-        <f t="shared" si="11"/>
-        <v>4100000</v>
-      </c>
-      <c r="G74" s="28">
-        <f t="shared" si="12"/>
-        <v>4920000</v>
-      </c>
-      <c r="H74" s="3">
-        <f t="shared" si="13"/>
-        <v>5125000</v>
-      </c>
-      <c r="K74" s="3">
-        <f t="shared" si="14"/>
-        <v>-4100000</v>
-      </c>
-      <c r="O74" s="91"/>
-      <c r="P74" s="17"/>
-    </row>
-    <row r="75" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="71"/>
-      <c r="B75" s="73" t="s">
-        <v>194</v>
       </c>
       <c r="C75" s="18">
         <v>6974748</v>
@@ -4484,17 +4692,19 @@
         <v>3045252</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O75" s="16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P75" s="17"/>
     </row>
-    <row r="76" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="71"/>
+    <row r="76" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="82">
+        <v>75</v>
+      </c>
       <c r="B76" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C76" s="18">
         <v>2188000</v>
@@ -4519,43 +4729,56 @@
         <v>-2239250</v>
       </c>
       <c r="O76" s="16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P76" s="17"/>
     </row>
-    <row r="77" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="71"/>
+    <row r="77" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="82">
+        <v>76</v>
+      </c>
       <c r="B77" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C77" s="18">
         <v>5706000</v>
       </c>
+      <c r="D77" s="3">
+        <v>760000</v>
+      </c>
+      <c r="E77" s="3">
+        <v>350000</v>
+      </c>
       <c r="F77" s="3">
         <f t="shared" si="11"/>
-        <v>5706000</v>
+        <v>6816000</v>
       </c>
       <c r="G77" s="28">
         <f t="shared" si="12"/>
-        <v>6847200</v>
+        <v>8179200</v>
       </c>
       <c r="H77" s="3">
         <f t="shared" si="13"/>
-        <v>7132500</v>
+        <v>8520000</v>
+      </c>
+      <c r="I77" s="3">
+        <v>8500000</v>
       </c>
       <c r="K77" s="3">
         <f t="shared" si="14"/>
-        <v>-5706000</v>
+        <v>1684000</v>
       </c>
       <c r="O77" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P77" s="17"/>
     </row>
-    <row r="78" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="71"/>
+    <row r="78" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="82">
+        <v>77</v>
+      </c>
       <c r="B78" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C78" s="18">
         <v>5244000</v>
@@ -4579,9 +4802,12 @@
       <c r="O78" s="16"/>
       <c r="P78" s="17"/>
     </row>
-    <row r="79" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="82">
+        <v>78</v>
+      </c>
       <c r="B79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C79" s="3">
         <v>2508000</v>
@@ -4606,12 +4832,15 @@
         <v>-2560000</v>
       </c>
       <c r="O79" s="13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="82">
+        <v>79</v>
+      </c>
       <c r="B80" s="56" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C80" s="3">
         <v>7410000</v>
@@ -4633,12 +4862,15 @@
         <v>-7410000</v>
       </c>
       <c r="O80" s="13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" s="82">
+        <v>80</v>
+      </c>
       <c r="B81" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C81" s="3">
         <v>7410000</v>
@@ -4656,16 +4888,19 @@
         <v>9262500</v>
       </c>
       <c r="K81" s="3">
-        <f t="shared" ref="K81:K88" si="15">I81-J81-F81</f>
+        <f t="shared" ref="K81:K96" si="15">I81-J81-F81</f>
         <v>-7410000</v>
       </c>
       <c r="O81" s="13" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" s="82">
+        <v>81</v>
+      </c>
       <c r="B82" s="86" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C82" s="3">
         <v>7288000</v>
@@ -4687,12 +4922,15 @@
         <v>-7288000</v>
       </c>
       <c r="O82" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" s="82">
+        <v>82</v>
+      </c>
+      <c r="B83" s="56" t="s">
         <v>209</v>
-      </c>
-    </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B83" s="56" t="s">
-        <v>212</v>
       </c>
       <c r="C83" s="3">
         <v>4309000</v>
@@ -4714,12 +4952,15 @@
         <v>-4309000</v>
       </c>
       <c r="O83" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" s="82">
+        <v>83</v>
+      </c>
+      <c r="B84" s="56" t="s">
         <v>211</v>
-      </c>
-    </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B84" s="56" t="s">
-        <v>214</v>
       </c>
       <c r="C84" s="3">
         <v>2599000</v>
@@ -4741,12 +4982,15 @@
         <v>-2599000</v>
       </c>
       <c r="O84" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85" s="82">
+        <v>84</v>
+      </c>
+      <c r="B85" s="56" t="s">
         <v>213</v>
-      </c>
-    </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B85" s="56" t="s">
-        <v>216</v>
       </c>
       <c r="C85" s="3">
         <v>4104000</v>
@@ -4768,12 +5012,15 @@
         <v>-4104000</v>
       </c>
       <c r="O85" s="13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" s="95">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
         <v>215</v>
-      </c>
-    </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>218</v>
       </c>
       <c r="C86" s="3">
         <v>3990000</v>
@@ -4795,12 +5042,15 @@
         <v>-3990000</v>
       </c>
       <c r="O86" s="40" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>219</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" s="82">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="C87" s="3">
         <v>5586000</v>
@@ -4821,34 +5071,262 @@
         <f t="shared" si="15"/>
         <v>-5586000</v>
       </c>
-    </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B88" s="88"/>
+      <c r="O87" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B88" s="97" t="s">
+        <v>228</v>
+      </c>
+      <c r="C88" s="3">
+        <v>4400000</v>
+      </c>
+      <c r="E88" s="3">
+        <v>350000</v>
+      </c>
       <c r="F88" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4750000</v>
       </c>
       <c r="G88" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>5700000</v>
       </c>
       <c r="H88" s="3">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>5937500</v>
       </c>
       <c r="K88" s="3">
         <f t="shared" si="15"/>
+        <v>-4750000</v>
+      </c>
+      <c r="O88" s="13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B89" s="98" t="s">
+        <v>230</v>
+      </c>
+      <c r="C89" s="3">
+        <v>5170000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>350000</v>
+      </c>
+      <c r="F89" s="3">
+        <f t="shared" si="11"/>
+        <v>5520000</v>
+      </c>
+      <c r="G89" s="3">
+        <f t="shared" si="12"/>
+        <v>6624000</v>
+      </c>
+      <c r="H89" s="3">
+        <f t="shared" si="13"/>
+        <v>6900000</v>
+      </c>
+      <c r="K89" s="3">
+        <f t="shared" si="15"/>
+        <v>-5520000</v>
+      </c>
+      <c r="O89" s="13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90" s="96"/>
+      <c r="B90" s="99" t="s">
+        <v>232</v>
+      </c>
+      <c r="C90" s="3">
+        <v>157</v>
+      </c>
+      <c r="F90" s="3">
+        <f t="shared" si="11"/>
+        <v>157</v>
+      </c>
+      <c r="G90" s="3">
+        <f t="shared" si="12"/>
+        <v>188.4</v>
+      </c>
+      <c r="H90" s="3">
+        <f t="shared" si="13"/>
+        <v>196.25</v>
+      </c>
+      <c r="K90" s="3">
+        <f t="shared" si="15"/>
+        <v>-157</v>
+      </c>
+      <c r="O90" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B91" s="56" t="s">
+        <v>234</v>
+      </c>
+      <c r="C91" s="3">
+        <v>3442800</v>
+      </c>
+      <c r="F91" s="3">
+        <f t="shared" si="11"/>
+        <v>3442800</v>
+      </c>
+      <c r="G91" s="3">
+        <f t="shared" si="12"/>
+        <v>4131360</v>
+      </c>
+      <c r="H91" s="3">
+        <f t="shared" si="13"/>
+        <v>4303500</v>
+      </c>
+      <c r="K91" s="3">
+        <f t="shared" si="15"/>
+        <v>-3442800</v>
+      </c>
+      <c r="O91" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B92" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="C92" s="3">
+        <v>5312000</v>
+      </c>
+      <c r="E92" s="3">
+        <v>650000</v>
+      </c>
+      <c r="F92" s="3">
+        <f t="shared" si="11"/>
+        <v>5962000</v>
+      </c>
+      <c r="G92" s="3">
+        <f t="shared" si="12"/>
+        <v>7154400</v>
+      </c>
+      <c r="H92" s="3">
+        <f t="shared" si="13"/>
+        <v>7452500</v>
+      </c>
+      <c r="K92" s="3">
+        <f t="shared" si="15"/>
+        <v>-5962000</v>
+      </c>
+      <c r="O92" s="13" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B93" s="100" t="s">
+        <v>238</v>
+      </c>
+      <c r="C93" s="3">
+        <v>229</v>
+      </c>
+      <c r="F93" s="3">
+        <f t="shared" si="11"/>
+        <v>229</v>
+      </c>
+      <c r="G93" s="3">
+        <f t="shared" si="12"/>
+        <v>274.8</v>
+      </c>
+      <c r="H93" s="3">
+        <f t="shared" si="13"/>
+        <v>286.25</v>
+      </c>
+      <c r="K93" s="3">
+        <f t="shared" si="15"/>
+        <v>-229</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B94" s="100" t="s">
+        <v>239</v>
+      </c>
+      <c r="C94" s="3">
+        <v>280</v>
+      </c>
+      <c r="F94" s="3">
+        <f t="shared" si="11"/>
+        <v>280</v>
+      </c>
+      <c r="G94" s="3">
+        <f t="shared" si="12"/>
+        <v>336</v>
+      </c>
+      <c r="H94" s="3">
+        <f t="shared" si="13"/>
+        <v>350</v>
+      </c>
+      <c r="K94" s="3">
+        <f t="shared" si="15"/>
+        <v>-280</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F95" s="3">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B89" s="89"/>
-    </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B90" s="87"/>
-    </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B91" s="90"/>
+      <c r="G95" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H95" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K95" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F96" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F105" s="66"/>
+    </row>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F107" s="66"/>
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F108" s="52"/>
+    </row>
+    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F110" s="47"/>
+    </row>
+    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F111" s="32"/>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F113" s="66"/>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F114" s="89"/>
+    </row>
+    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F117" s="89"/>
     </row>
   </sheetData>
   <autoFilter ref="L1:L80" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -4856,7 +5334,12 @@
     <mergeCell ref="O72:O74"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:G2 H2:N17 B2:B25 Q2:Q39 C3:E25 F3:G27 D26:E38 D39:F39 C40:F41 Q42:Q43 P44:P49 C29:F38 L42:N69 Q50:Q69 L18:N39 D42:F57 F28 L71:N72 K3:K72 D59:F69 E58:F58 D71:F72 I71:J72 H18:J65 G28:G72 I66:J69 H66:H72 D75:J78 K75:K79 L75:N78 Q71:Q78 O2:O22 P2:P25 O26:P26 O29:P38 L40:Q41 D73:N74">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>MOD(ROW(),2)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F115:F119 F102:F113">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4886,15 +5369,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>180</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2" s="1">
         <v>300000</v>
@@ -4902,7 +5385,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B3" s="1">
         <v>150000</v>
@@ -4910,7 +5393,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B4" s="1">
         <v>150000</v>
@@ -4918,7 +5401,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B5" s="1">
         <v>160000</v>
@@ -4926,7 +5409,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B6" s="1">
         <v>300000</v>
@@ -4934,7 +5417,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B7" s="1">
         <v>600000</v>
@@ -4942,7 +5425,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B8" s="1">
         <v>300000</v>

--- a/TDStore/NhapXuatLaptop.xlsx
+++ b/TDStore/NhapXuatLaptop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A744FE38-75C0-4B05-937A-393EEC19930D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9C17F2-8845-46CB-ACB7-FE74B22E3A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="246">
   <si>
     <t>ID máy</t>
   </si>
@@ -766,6 +766,21 @@
   </si>
   <si>
     <t>Dell Latitude 5400 14", i5 8th Gen, 8GB Ram, Excellent Battery, No HDD or OS Xước nhẹ</t>
+  </si>
+  <si>
+    <t>781268480117</t>
+  </si>
+  <si>
+    <t>9434608205499107388987</t>
+  </si>
+  <si>
+    <t>Dell XPS 13 9370 Intel i5-8250H@1.60GHz 8GB RAM 256GB SSD Win 11</t>
+  </si>
+  <si>
+    <t>Dell XPS 13 9370 Intel i5-8250H@1.60GHz 8GB RAM 256GB SSD Win 12</t>
+  </si>
+  <si>
+    <t>1ZX1965V0395621907</t>
   </si>
 </sst>
 </file>
@@ -776,7 +791,7 @@
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -847,6 +862,12 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="15">
@@ -989,7 +1010,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1186,9 +1207,6 @@
     <xf numFmtId="165" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1227,26 +1245,21 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -1643,8 +1656,8 @@
   <dimension ref="A1:Q117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:K92"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1656,7 +1669,7 @@
     <col min="6" max="7" width="10.5703125" style="3" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" style="3" customWidth="1"/>
     <col min="9" max="9" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="3" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" style="3" customWidth="1"/>
     <col min="12" max="12" width="15.28515625" style="2" customWidth="1"/>
     <col min="13" max="13" width="11.42578125" style="2" hidden="1" customWidth="1"/>
@@ -2925,45 +2938,45 @@
       <c r="A32" s="71">
         <v>31</v>
       </c>
-      <c r="B32" s="101" t="s">
+      <c r="B32" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="102">
+      <c r="C32" s="101">
         <v>6651048</v>
       </c>
-      <c r="D32" s="102">
+      <c r="D32" s="101">
         <v>833000</v>
       </c>
-      <c r="E32" s="102">
+      <c r="E32" s="101">
         <v>300000</v>
       </c>
-      <c r="F32" s="102">
+      <c r="F32" s="101">
         <f t="shared" si="2"/>
         <v>7784048</v>
       </c>
-      <c r="G32" s="103">
+      <c r="G32" s="102">
         <f t="shared" si="6"/>
         <v>9340857.5999999996</v>
       </c>
-      <c r="H32" s="102">
+      <c r="H32" s="101">
         <f t="shared" si="5"/>
         <v>9730060</v>
       </c>
-      <c r="I32" s="102" t="s">
+      <c r="I32" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="J32" s="102"/>
-      <c r="K32" s="102" t="e">
+      <c r="J32" s="101"/>
+      <c r="K32" s="101" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L32" s="104"/>
-      <c r="M32" s="104"/>
-      <c r="N32" s="104"/>
-      <c r="O32" s="105" t="s">
+      <c r="L32" s="103"/>
+      <c r="M32" s="103"/>
+      <c r="N32" s="103"/>
+      <c r="O32" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="P32" s="106">
+      <c r="P32" s="105">
         <v>45022</v>
       </c>
     </row>
@@ -3722,45 +3735,45 @@
       <c r="A52" s="71">
         <v>51</v>
       </c>
-      <c r="B52" s="107" t="s">
+      <c r="B52" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="C52" s="108">
+      <c r="C52" s="107">
         <v>4560000</v>
       </c>
-      <c r="D52" s="102">
+      <c r="D52" s="101">
         <v>985000</v>
       </c>
-      <c r="E52" s="102">
+      <c r="E52" s="101">
         <v>200000</v>
       </c>
-      <c r="F52" s="102">
+      <c r="F52" s="101">
         <f t="shared" si="8"/>
         <v>5745000</v>
       </c>
-      <c r="G52" s="103">
+      <c r="G52" s="102">
         <f t="shared" si="6"/>
         <v>6894000</v>
       </c>
-      <c r="H52" s="102">
+      <c r="H52" s="101">
         <f t="shared" si="9"/>
         <v>7181250</v>
       </c>
-      <c r="I52" s="102">
+      <c r="I52" s="101">
         <v>7500000</v>
       </c>
-      <c r="J52" s="102"/>
-      <c r="K52" s="102">
+      <c r="J52" s="101"/>
+      <c r="K52" s="101">
         <f t="shared" si="7"/>
         <v>1755000</v>
       </c>
-      <c r="L52" s="104"/>
-      <c r="M52" s="104"/>
-      <c r="N52" s="104"/>
-      <c r="O52" s="109" t="s">
+      <c r="L52" s="103"/>
+      <c r="M52" s="103"/>
+      <c r="N52" s="103"/>
+      <c r="O52" s="108" t="s">
         <v>137</v>
       </c>
-      <c r="P52" s="110"/>
+      <c r="P52" s="109"/>
     </row>
     <row r="53" spans="1:16" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="75">
@@ -4574,7 +4587,7 @@
       <c r="L72" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="O72" s="94" t="s">
+      <c r="O72" s="110" t="s">
         <v>191</v>
       </c>
       <c r="P72" s="17"/>
@@ -4614,7 +4627,7 @@
         <f t="shared" ref="K73:K78" si="14">I73-J73-F73</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O73" s="94"/>
+      <c r="O73" s="110"/>
       <c r="P73" s="17"/>
     </row>
     <row r="74" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4656,7 +4669,7 @@
       <c r="L74" s="90"/>
       <c r="M74" s="90"/>
       <c r="N74" s="90"/>
-      <c r="O74" s="94"/>
+      <c r="O74" s="110"/>
       <c r="P74" s="17"/>
     </row>
     <row r="75" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4835,7 +4848,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="82">
         <v>79</v>
       </c>
@@ -4845,27 +4858,39 @@
       <c r="C80" s="3">
         <v>7410000</v>
       </c>
+      <c r="D80" s="3">
+        <v>719999</v>
+      </c>
+      <c r="E80" s="3">
+        <v>350000</v>
+      </c>
       <c r="F80" s="3">
         <f t="shared" si="11"/>
-        <v>7410000</v>
+        <v>8479999</v>
       </c>
       <c r="G80" s="3">
         <f t="shared" si="12"/>
-        <v>8892000</v>
+        <v>10175998.800000001</v>
       </c>
       <c r="H80" s="3">
         <f t="shared" si="13"/>
-        <v>9262500</v>
+        <v>10599998.75</v>
+      </c>
+      <c r="I80" s="3">
+        <v>10800000</v>
       </c>
       <c r="K80" s="3">
         <f>I80-J80-F80</f>
-        <v>-7410000</v>
+        <v>2320001</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="O80" s="13" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="82">
         <v>80</v>
       </c>
@@ -4875,21 +4900,33 @@
       <c r="C81" s="3">
         <v>7410000</v>
       </c>
+      <c r="D81" s="3">
+        <v>698500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>350000</v>
+      </c>
       <c r="F81" s="3">
         <f t="shared" si="11"/>
-        <v>7410000</v>
+        <v>8458500</v>
       </c>
       <c r="G81" s="3">
         <f t="shared" si="12"/>
-        <v>8892000</v>
+        <v>10150200</v>
       </c>
       <c r="H81" s="3">
         <f t="shared" si="13"/>
-        <v>9262500</v>
+        <v>10573125</v>
+      </c>
+      <c r="I81" s="3">
+        <v>10500000</v>
       </c>
       <c r="K81" s="3">
         <f t="shared" ref="K81:K96" si="15">I81-J81-F81</f>
-        <v>-7410000</v>
+        <v>2041500</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="O81" s="13" t="s">
         <v>204</v>
@@ -4905,27 +4942,30 @@
       <c r="C82" s="3">
         <v>7288000</v>
       </c>
+      <c r="D82" s="3">
+        <v>903500</v>
+      </c>
       <c r="F82" s="3">
         <f t="shared" si="11"/>
-        <v>7288000</v>
+        <v>8191500</v>
       </c>
       <c r="G82" s="3">
         <f t="shared" si="12"/>
-        <v>8745600</v>
+        <v>9829800</v>
       </c>
       <c r="H82" s="3">
         <f t="shared" si="13"/>
-        <v>9110000</v>
+        <v>10239375</v>
       </c>
       <c r="K82" s="3">
         <f t="shared" si="15"/>
-        <v>-7288000</v>
+        <v>-8191500</v>
       </c>
       <c r="O82" s="13" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="82">
         <v>82</v>
       </c>
@@ -4935,21 +4975,30 @@
       <c r="C83" s="3">
         <v>4309000</v>
       </c>
+      <c r="D83" s="3">
+        <v>1047000</v>
+      </c>
       <c r="F83" s="3">
         <f t="shared" si="11"/>
-        <v>4309000</v>
+        <v>5356000</v>
       </c>
       <c r="G83" s="3">
         <f t="shared" si="12"/>
-        <v>5170800</v>
+        <v>6427200</v>
       </c>
       <c r="H83" s="3">
         <f t="shared" si="13"/>
-        <v>5386250</v>
+        <v>6695000</v>
+      </c>
+      <c r="I83" s="3">
+        <v>6300000</v>
       </c>
       <c r="K83" s="3">
         <f t="shared" si="15"/>
-        <v>-4309000</v>
+        <v>944000</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="O83" s="13" t="s">
         <v>208</v>
@@ -4965,21 +5014,24 @@
       <c r="C84" s="3">
         <v>2599000</v>
       </c>
+      <c r="D84" s="3">
+        <v>51250</v>
+      </c>
       <c r="F84" s="3">
         <f t="shared" si="11"/>
-        <v>2599000</v>
+        <v>2650250</v>
       </c>
       <c r="G84" s="3">
         <f t="shared" si="12"/>
-        <v>3118800</v>
+        <v>3180300</v>
       </c>
       <c r="H84" s="3">
         <f t="shared" si="13"/>
-        <v>3248750</v>
+        <v>3312812.5</v>
       </c>
       <c r="K84" s="3">
         <f t="shared" si="15"/>
-        <v>-2599000</v>
+        <v>-2650250</v>
       </c>
       <c r="O84" s="13" t="s">
         <v>210</v>
@@ -5016,7 +5068,7 @@
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" s="95">
+      <c r="A86" s="94">
         <v>85</v>
       </c>
       <c r="B86" t="s">
@@ -5025,21 +5077,27 @@
       <c r="C86" s="3">
         <v>3990000</v>
       </c>
+      <c r="D86" s="3">
+        <v>739500</v>
+      </c>
+      <c r="E86" s="3">
+        <v>900000</v>
+      </c>
       <c r="F86" s="3">
         <f t="shared" si="11"/>
-        <v>3990000</v>
+        <v>5629500</v>
       </c>
       <c r="G86" s="3">
         <f t="shared" si="12"/>
-        <v>4788000</v>
+        <v>6755400</v>
       </c>
       <c r="H86" s="3">
         <f t="shared" si="13"/>
-        <v>4987500</v>
+        <v>7036875</v>
       </c>
       <c r="K86" s="3">
         <f t="shared" si="15"/>
-        <v>-3990000</v>
+        <v>-5629500</v>
       </c>
       <c r="O86" s="40" t="s">
         <v>214</v>
@@ -5055,28 +5113,34 @@
       <c r="C87" s="3">
         <v>5586000</v>
       </c>
+      <c r="D87" s="3">
+        <v>821500</v>
+      </c>
       <c r="F87" s="3">
         <f t="shared" si="11"/>
-        <v>5586000</v>
+        <v>6407500</v>
       </c>
       <c r="G87" s="3">
         <f t="shared" si="12"/>
-        <v>6703200</v>
+        <v>7689000</v>
       </c>
       <c r="H87" s="3">
         <f t="shared" si="13"/>
-        <v>6982500</v>
+        <v>8009375</v>
+      </c>
+      <c r="I87" s="3">
+        <v>9500000</v>
       </c>
       <c r="K87" s="3">
         <f t="shared" si="15"/>
-        <v>-5586000</v>
+        <v>3092500</v>
       </c>
       <c r="O87" s="13" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B88" s="97" t="s">
+      <c r="B88" s="96" t="s">
         <v>228</v>
       </c>
       <c r="C88" s="3">
@@ -5106,7 +5170,7 @@
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B89" s="98" t="s">
+      <c r="B89" s="97" t="s">
         <v>230</v>
       </c>
       <c r="C89" s="3">
@@ -5136,8 +5200,8 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="96"/>
-      <c r="B90" s="99" t="s">
+      <c r="A90" s="95"/>
+      <c r="B90" s="98" t="s">
         <v>232</v>
       </c>
       <c r="C90" s="3">
@@ -5221,7 +5285,7 @@
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B93" s="100" t="s">
+      <c r="B93" s="99" t="s">
         <v>238</v>
       </c>
       <c r="C93" s="3">
@@ -5243,9 +5307,12 @@
         <f t="shared" si="15"/>
         <v>-229</v>
       </c>
+      <c r="O93" s="13" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B94" s="100" t="s">
+      <c r="B94" s="99" t="s">
         <v>239</v>
       </c>
       <c r="C94" s="3">
@@ -5267,56 +5334,78 @@
         <f t="shared" si="15"/>
         <v>-280</v>
       </c>
+      <c r="O94" s="13" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B95" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="C95" s="3">
+        <v>4018000</v>
+      </c>
       <c r="F95" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4018000</v>
       </c>
       <c r="G95" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4821600</v>
       </c>
       <c r="H95" s="3">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>5022500</v>
       </c>
       <c r="K95" s="3">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-4018000</v>
+      </c>
+      <c r="O95" s="111" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B96" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="C96" s="3">
+        <v>3713000</v>
+      </c>
       <c r="F96" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3713000</v>
       </c>
       <c r="G96" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4455600</v>
       </c>
       <c r="H96" s="3">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4641250</v>
       </c>
       <c r="K96" s="3">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
+        <v>-3713000</v>
+      </c>
+      <c r="O96" s="112"/>
+    </row>
+    <row r="98" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="O98" s="40"/>
+    </row>
+    <row r="105" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F105" s="66"/>
     </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F107" s="66"/>
     </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F108" s="52"/>
     </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F110" s="47"/>
     </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F111" s="32"/>
     </row>
     <row r="113" spans="6:6" x14ac:dyDescent="0.25">
@@ -5330,11 +5419,13 @@
     </row>
   </sheetData>
   <autoFilter ref="L1:L80" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="O72:O74"/>
+    <mergeCell ref="O95:O96"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="C2:G2 H2:N17 B2:B25 Q2:Q39 C3:E25 F3:G27 D26:E38 D39:F39 C40:F41 Q42:Q43 P44:P49 C29:F38 L42:N69 Q50:Q69 L18:N39 D42:F57 F28 L71:N72 K3:K72 D59:F69 E58:F58 D71:F72 I71:J72 H18:J65 G28:G72 I66:J69 H66:H72 D75:J78 K75:K79 L75:N78 Q71:Q78 O2:O22 P2:P25 O26:P26 O29:P38 L40:Q41 D73:N74">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>MOD(ROW(),2)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/TDStore/NhapXuatLaptop.xlsx
+++ b/TDStore/NhapXuatLaptop.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\04.Private\TDStore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01.GIT\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9C17F2-8845-46CB-ACB7-FE74B22E3A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E9E5F2-C8F1-4F22-A845-A3B18667BAA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,28 +19,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NhapXuat!$L$1:$L$80</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="265">
   <si>
     <t>ID máy</t>
   </si>
@@ -723,9 +712,6 @@
     <t>6tr</t>
   </si>
   <si>
-    <t>5tr6</t>
-  </si>
-  <si>
     <t>780943191115</t>
   </si>
   <si>
@@ -735,9 +721,6 @@
     <t>9505810060783191418952</t>
   </si>
   <si>
-    <t>Dell XPS 13 9380 Intel i5-8265H@1.60GHz 8GB RAM 256GB SSD Win 11</t>
-  </si>
-  <si>
     <t>1ZX1965V0398269025</t>
   </si>
   <si>
@@ -781,6 +764,69 @@
   </si>
   <si>
     <t>1ZX1965V0395621907</t>
+  </si>
+  <si>
+    <t>Dell 5530 i7 8850H, ram 16, ssd 256 15,6FHD</t>
+  </si>
+  <si>
+    <t>Hùng</t>
+  </si>
+  <si>
+    <t>7tr2</t>
+  </si>
+  <si>
+    <t>F3H7XT2</t>
+  </si>
+  <si>
+    <t>DELL XPS 13 9380 1920X1080 FHD CORE I5-8365U NO SSD 8GB RAM NO O.S/BATT US $200.00</t>
+  </si>
+  <si>
+    <t>5DBWM13</t>
+  </si>
+  <si>
+    <t>8X2VNF2</t>
+  </si>
+  <si>
+    <t>HLCNRQ2</t>
+  </si>
+  <si>
+    <t>780753642333</t>
+  </si>
+  <si>
+    <t>1JBB8S2</t>
+  </si>
+  <si>
+    <t>Microsoft Surface Pro 7 1866 Intel i5-1035G4 1.1GHz 8GB RAM 238GB SSD US $250.00</t>
+  </si>
+  <si>
+    <t>781371804972</t>
+  </si>
+  <si>
+    <t>Surface Laptop 2 i5, 8GB, 256 Storage US $132.50</t>
+  </si>
+  <si>
+    <t>9405508205496973933489</t>
+  </si>
+  <si>
+    <t>Apple AirPods Pro 2nd Generation with Active Noise Cancellation White USED US $140.41</t>
+  </si>
+  <si>
+    <t>Dell XPS 13 9370 Core i5-8250U 1.60GHz 8GB RAM 256GB SSD Win 11 Pro Parts/Repair US $80.00</t>
+  </si>
+  <si>
+    <t>Microsoft Surface Laptop 3 1867 2256x1504 i7-1065G7 128GB SSD 16GB RAM NO OS US $219.99</t>
+  </si>
+  <si>
+    <t>Dell XPS 13 9380 13.3" i5-8265U CPU @ 1.60 GHz, 8192MB (8GB) RAM, NO HDD, USED US $161.38</t>
+  </si>
+  <si>
+    <t>Dell XPS 13 9380 13.3" i5-8265U CPU @ 1.60 GHz, 8192MB (8GB) RAM, NO HDD, USED US $127.50</t>
+  </si>
+  <si>
+    <t>A Cường NCB</t>
+  </si>
+  <si>
+    <t>A Hiệp</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1056,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1085,7 +1131,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1193,10 +1238,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1245,14 +1286,36 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1348,7 +1411,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1653,17 +1716,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q117"/>
+  <dimension ref="A1:Q118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B103" sqref="B103"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="80.42578125" style="56" customWidth="1"/>
+    <col min="2" max="2" width="80.42578125" style="55" customWidth="1"/>
     <col min="3" max="4" width="12.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="17" style="3" customWidth="1"/>
     <col min="6" max="7" width="10.5703125" style="3" customWidth="1"/>
@@ -1681,10 +1744,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -1734,10 +1797,10 @@
       </c>
     </row>
     <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71">
+      <c r="A2" s="70">
         <v>1</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="55" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="3">
@@ -1772,10 +1835,10 @@
       </c>
     </row>
     <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="71">
+      <c r="A3" s="70">
         <v>2</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="55" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="3">
@@ -1810,10 +1873,10 @@
       </c>
     </row>
     <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71">
+      <c r="A4" s="70">
         <v>3</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="55" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3">
@@ -1848,10 +1911,10 @@
       </c>
     </row>
     <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71">
+      <c r="A5" s="70">
         <v>4</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="55" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="3">
@@ -1889,10 +1952,10 @@
       </c>
     </row>
     <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="71">
+      <c r="A6" s="70">
         <v>5</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="55" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="3">
@@ -1924,10 +1987,10 @@
       </c>
     </row>
     <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="71">
+      <c r="A7" s="70">
         <v>6</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="55" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="3">
@@ -1962,10 +2025,10 @@
       </c>
     </row>
     <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="71">
+      <c r="A8" s="70">
         <v>7</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="55" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="3">
@@ -2000,10 +2063,10 @@
       </c>
     </row>
     <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="71">
+      <c r="A9" s="70">
         <v>8</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="55" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="3">
@@ -2038,10 +2101,10 @@
       </c>
     </row>
     <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="71">
+      <c r="A10" s="70">
         <v>9</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="55" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="3">
@@ -2070,10 +2133,10 @@
       </c>
     </row>
     <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="71">
+      <c r="A11" s="70">
         <v>10</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="55" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="3">
@@ -2108,10 +2171,10 @@
       </c>
     </row>
     <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="71">
+      <c r="A12" s="70">
         <v>11</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="55" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="3">
@@ -2149,10 +2212,10 @@
       </c>
     </row>
     <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="71">
+      <c r="A13" s="70">
         <v>12</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="55" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="3">
@@ -2187,10 +2250,10 @@
       </c>
     </row>
     <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="71">
+      <c r="A14" s="70">
         <v>13</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="55" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="3">
@@ -2222,10 +2285,10 @@
       </c>
     </row>
     <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="71">
+      <c r="A15" s="70">
         <v>14</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="55" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="3">
@@ -2260,10 +2323,10 @@
       </c>
     </row>
     <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="71">
+      <c r="A16" s="70">
         <v>15</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="3">
@@ -2289,10 +2352,10 @@
       </c>
     </row>
     <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="71">
+      <c r="A17" s="70">
         <v>16</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="55" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="3">
@@ -2321,10 +2384,10 @@
       </c>
     </row>
     <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="71">
+      <c r="A18" s="70">
         <v>17</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="55" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="3">
@@ -2359,10 +2422,10 @@
       </c>
     </row>
     <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="71">
+      <c r="A19" s="70">
         <v>18</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="55" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="3">
@@ -2394,10 +2457,10 @@
       </c>
     </row>
     <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="71">
+      <c r="A20" s="70">
         <v>19</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="56" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="11">
@@ -2439,10 +2502,10 @@
       </c>
     </row>
     <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="71">
+      <c r="A21" s="70">
         <v>20</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="55" t="s">
         <v>56</v>
       </c>
       <c r="C21" s="3">
@@ -2486,10 +2549,10 @@
       </c>
     </row>
     <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="71">
+      <c r="A22" s="70">
         <v>21</v>
       </c>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="55" t="s">
         <v>57</v>
       </c>
       <c r="C22" s="3">
@@ -2527,10 +2590,10 @@
       </c>
     </row>
     <row r="23" spans="1:17" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="72">
+      <c r="A23" s="71">
         <v>22</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="57" t="s">
         <v>60</v>
       </c>
       <c r="C23" s="21">
@@ -2574,10 +2637,10 @@
       </c>
     </row>
     <row r="24" spans="1:17" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="72">
+      <c r="A24" s="71">
         <v>23</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="57" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="21">
@@ -2615,10 +2678,10 @@
       </c>
     </row>
     <row r="25" spans="1:17" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="72">
+      <c r="A25" s="71">
         <v>24</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="57" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="21">
@@ -2661,10 +2724,10 @@
       </c>
     </row>
     <row r="26" spans="1:17" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="72">
+      <c r="A26" s="71">
         <v>25</v>
       </c>
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="72" t="s">
         <v>62</v>
       </c>
       <c r="C26" s="26">
@@ -2702,10 +2765,10 @@
       </c>
     </row>
     <row r="27" spans="1:17" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="72">
+      <c r="A27" s="71">
         <v>26</v>
       </c>
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="57" t="s">
         <v>66</v>
       </c>
       <c r="C27" s="36">
@@ -2748,10 +2811,10 @@
       </c>
     </row>
     <row r="28" spans="1:17" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="72">
+      <c r="A28" s="71">
         <v>27</v>
       </c>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="58" t="s">
         <v>67</v>
       </c>
       <c r="C28" s="27">
@@ -2801,10 +2864,10 @@
       </c>
     </row>
     <row r="29" spans="1:17" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="72">
+      <c r="A29" s="71">
         <v>28</v>
       </c>
-      <c r="B29" s="73" t="s">
+      <c r="B29" s="72" t="s">
         <v>69</v>
       </c>
       <c r="C29" s="21">
@@ -2845,10 +2908,10 @@
       </c>
     </row>
     <row r="30" spans="1:17" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="74">
+      <c r="A30" s="73">
         <v>29</v>
       </c>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="60" t="s">
         <v>73</v>
       </c>
       <c r="C30" s="32">
@@ -2889,10 +2952,10 @@
       </c>
     </row>
     <row r="31" spans="1:17" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="72">
+      <c r="A31" s="71">
         <v>30</v>
       </c>
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="61" t="s">
         <v>74</v>
       </c>
       <c r="C31" s="21">
@@ -2935,56 +2998,56 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="71">
+      <c r="A32" s="70">
         <v>31</v>
       </c>
-      <c r="B32" s="100" t="s">
+      <c r="B32" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="101">
+      <c r="C32" s="98">
         <v>6651048</v>
       </c>
-      <c r="D32" s="101">
+      <c r="D32" s="98">
         <v>833000</v>
       </c>
-      <c r="E32" s="101">
+      <c r="E32" s="98">
         <v>300000</v>
       </c>
-      <c r="F32" s="101">
+      <c r="F32" s="98">
         <f t="shared" si="2"/>
         <v>7784048</v>
       </c>
-      <c r="G32" s="102">
+      <c r="G32" s="99">
         <f t="shared" si="6"/>
         <v>9340857.5999999996</v>
       </c>
-      <c r="H32" s="101">
+      <c r="H32" s="98">
         <f t="shared" si="5"/>
         <v>9730060</v>
       </c>
-      <c r="I32" s="101" t="s">
+      <c r="I32" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="J32" s="101"/>
-      <c r="K32" s="101" t="e">
+      <c r="J32" s="98"/>
+      <c r="K32" s="98" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L32" s="103"/>
-      <c r="M32" s="103"/>
-      <c r="N32" s="103"/>
-      <c r="O32" s="104" t="s">
+      <c r="L32" s="100"/>
+      <c r="M32" s="100"/>
+      <c r="N32" s="100"/>
+      <c r="O32" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="P32" s="105">
+      <c r="P32" s="102">
         <v>45022</v>
       </c>
     </row>
     <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="71">
+      <c r="A33" s="70">
         <v>32</v>
       </c>
-      <c r="B33" s="73" t="s">
+      <c r="B33" s="72" t="s">
         <v>77</v>
       </c>
       <c r="C33" s="3">
@@ -3020,10 +3083,10 @@
       </c>
     </row>
     <row r="34" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="71">
+      <c r="A34" s="70">
         <v>33</v>
       </c>
-      <c r="B34" s="63" t="s">
+      <c r="B34" s="62" t="s">
         <v>83</v>
       </c>
       <c r="C34" s="3">
@@ -3059,10 +3122,10 @@
       </c>
     </row>
     <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="71">
+      <c r="A35" s="70">
         <v>34</v>
       </c>
-      <c r="B35" s="63" t="s">
+      <c r="B35" s="62" t="s">
         <v>84</v>
       </c>
       <c r="C35" s="3">
@@ -3098,10 +3161,10 @@
       </c>
     </row>
     <row r="36" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="71">
+      <c r="A36" s="70">
         <v>35</v>
       </c>
-      <c r="B36" s="63" t="s">
+      <c r="B36" s="62" t="s">
         <v>88</v>
       </c>
       <c r="C36" s="3">
@@ -3137,10 +3200,10 @@
       </c>
     </row>
     <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="71">
+      <c r="A37" s="70">
         <v>36</v>
       </c>
-      <c r="B37" s="73" t="s">
+      <c r="B37" s="72" t="s">
         <v>89</v>
       </c>
       <c r="C37" s="3">
@@ -3173,10 +3236,10 @@
       </c>
     </row>
     <row r="38" spans="1:16" s="15" customFormat="1" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="71">
+      <c r="A38" s="70">
         <v>37</v>
       </c>
-      <c r="B38" s="60" t="s">
+      <c r="B38" s="59" t="s">
         <v>100</v>
       </c>
       <c r="C38" s="19">
@@ -3212,10 +3275,10 @@
       <c r="P38" s="20"/>
     </row>
     <row r="39" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="71">
+      <c r="A39" s="70">
         <v>38</v>
       </c>
-      <c r="B39" s="56" t="s">
+      <c r="B39" s="55" t="s">
         <v>101</v>
       </c>
       <c r="C39" s="18">
@@ -3254,10 +3317,10 @@
       </c>
     </row>
     <row r="40" spans="1:16" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="71">
+      <c r="A40" s="70">
         <v>39</v>
       </c>
-      <c r="B40" s="60" t="s">
+      <c r="B40" s="59" t="s">
         <v>102</v>
       </c>
       <c r="C40" s="3">
@@ -3290,10 +3353,10 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="71">
+      <c r="A41" s="70">
         <v>40</v>
       </c>
-      <c r="B41" s="60" t="s">
+      <c r="B41" s="59" t="s">
         <v>103</v>
       </c>
       <c r="C41" s="3">
@@ -3326,10 +3389,10 @@
       </c>
     </row>
     <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="71">
+      <c r="A42" s="70">
         <v>41</v>
       </c>
-      <c r="B42" s="56" t="s">
+      <c r="B42" s="55" t="s">
         <v>106</v>
       </c>
       <c r="C42" s="18">
@@ -3363,10 +3426,10 @@
       <c r="P42" s="17"/>
     </row>
     <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="71">
+      <c r="A43" s="70">
         <v>42</v>
       </c>
-      <c r="B43" s="73" t="s">
+      <c r="B43" s="72" t="s">
         <v>107</v>
       </c>
       <c r="C43" s="18">
@@ -3403,10 +3466,10 @@
       <c r="P43" s="17"/>
     </row>
     <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="71">
+      <c r="A44" s="70">
         <v>43</v>
       </c>
-      <c r="B44" s="73" t="s">
+      <c r="B44" s="72" t="s">
         <v>112</v>
       </c>
       <c r="C44" s="18">
@@ -3443,10 +3506,10 @@
       <c r="P44" s="2"/>
     </row>
     <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="71">
+      <c r="A45" s="70">
         <v>44</v>
       </c>
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="63" t="s">
         <v>122</v>
       </c>
       <c r="C45" s="18">
@@ -3486,10 +3549,10 @@
       <c r="P45" s="2"/>
     </row>
     <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="71">
+      <c r="A46" s="70">
         <v>45</v>
       </c>
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="63" t="s">
         <v>124</v>
       </c>
       <c r="C46" s="18">
@@ -3526,10 +3589,10 @@
       <c r="P46" s="2"/>
     </row>
     <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="71">
+      <c r="A47" s="70">
         <v>46</v>
       </c>
-      <c r="B47" s="64" t="s">
+      <c r="B47" s="63" t="s">
         <v>126</v>
       </c>
       <c r="C47" s="18">
@@ -3569,10 +3632,10 @@
       <c r="P47" s="2"/>
     </row>
     <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="71">
+      <c r="A48" s="70">
         <v>47</v>
       </c>
-      <c r="B48" s="64" t="s">
+      <c r="B48" s="63" t="s">
         <v>128</v>
       </c>
       <c r="C48" s="18">
@@ -3612,10 +3675,10 @@
       <c r="P48" s="2"/>
     </row>
     <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="71">
+      <c r="A49" s="70">
         <v>48</v>
       </c>
-      <c r="B49" s="73" t="s">
+      <c r="B49" s="72" t="s">
         <v>130</v>
       </c>
       <c r="C49" s="18">
@@ -3655,10 +3718,10 @@
       <c r="P49" s="2"/>
     </row>
     <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="71">
+      <c r="A50" s="70">
         <v>49</v>
       </c>
-      <c r="B50" s="73" t="s">
+      <c r="B50" s="72" t="s">
         <v>132</v>
       </c>
       <c r="C50" s="18">
@@ -3698,10 +3761,10 @@
       <c r="P50" s="17"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="71">
+      <c r="A51" s="70">
         <v>50</v>
       </c>
-      <c r="B51" s="60" t="s">
+      <c r="B51" s="59" t="s">
         <v>134</v>
       </c>
       <c r="C51" s="18">
@@ -3732,95 +3795,95 @@
       <c r="P51" s="17"/>
     </row>
     <row r="52" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="71">
+      <c r="A52" s="70">
         <v>51</v>
       </c>
-      <c r="B52" s="106" t="s">
+      <c r="B52" s="103" t="s">
         <v>136</v>
       </c>
-      <c r="C52" s="107">
+      <c r="C52" s="104">
         <v>4560000</v>
       </c>
-      <c r="D52" s="101">
+      <c r="D52" s="98">
         <v>985000</v>
       </c>
-      <c r="E52" s="101">
+      <c r="E52" s="98">
         <v>200000</v>
       </c>
-      <c r="F52" s="101">
+      <c r="F52" s="98">
         <f t="shared" si="8"/>
         <v>5745000</v>
       </c>
-      <c r="G52" s="102">
+      <c r="G52" s="99">
         <f t="shared" si="6"/>
         <v>6894000</v>
       </c>
-      <c r="H52" s="101">
+      <c r="H52" s="98">
         <f t="shared" si="9"/>
         <v>7181250</v>
       </c>
-      <c r="I52" s="101">
+      <c r="I52" s="98">
         <v>7500000</v>
       </c>
-      <c r="J52" s="101"/>
-      <c r="K52" s="101">
+      <c r="J52" s="98"/>
+      <c r="K52" s="98">
         <f t="shared" si="7"/>
         <v>1755000</v>
       </c>
-      <c r="L52" s="103"/>
-      <c r="M52" s="103"/>
-      <c r="N52" s="103"/>
-      <c r="O52" s="108" t="s">
+      <c r="L52" s="100"/>
+      <c r="M52" s="100"/>
+      <c r="N52" s="100"/>
+      <c r="O52" s="105" t="s">
         <v>137</v>
       </c>
-      <c r="P52" s="109"/>
-    </row>
-    <row r="53" spans="1:16" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="75">
+      <c r="P52" s="106"/>
+    </row>
+    <row r="53" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="74">
         <v>52</v>
       </c>
-      <c r="B53" s="76" t="s">
+      <c r="B53" s="75" t="s">
         <v>138</v>
       </c>
-      <c r="C53" s="65">
+      <c r="C53" s="64">
         <v>3192000</v>
       </c>
-      <c r="D53" s="66">
+      <c r="D53" s="65">
         <v>903000</v>
       </c>
-      <c r="E53" s="66">
+      <c r="E53" s="65">
         <v>200000</v>
       </c>
-      <c r="F53" s="66">
+      <c r="F53" s="65">
         <f t="shared" si="8"/>
         <v>4295000</v>
       </c>
-      <c r="G53" s="66">
+      <c r="G53" s="65">
         <f t="shared" si="6"/>
         <v>5154000</v>
       </c>
-      <c r="H53" s="66">
+      <c r="H53" s="65">
         <f t="shared" si="9"/>
         <v>5368750</v>
       </c>
-      <c r="I53" s="66" t="s">
+      <c r="I53" s="65" t="s">
         <v>223</v>
       </c>
-      <c r="J53" s="66"/>
-      <c r="K53" s="66" t="e">
+      <c r="J53" s="65"/>
+      <c r="K53" s="65" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O53" s="68" t="s">
+      <c r="O53" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="P53" s="69"/>
+      <c r="P53" s="68"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="71">
+      <c r="A54" s="70">
         <v>53</v>
       </c>
-      <c r="B54" s="73" t="s">
+      <c r="B54" s="72" t="s">
         <v>140</v>
       </c>
       <c r="C54" s="18">
@@ -3857,10 +3920,10 @@
       <c r="P54" s="17"/>
     </row>
     <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="71">
+      <c r="A55" s="70">
         <v>54</v>
       </c>
-      <c r="B55" s="73" t="s">
+      <c r="B55" s="72" t="s">
         <v>142</v>
       </c>
       <c r="C55" s="18">
@@ -3899,52 +3962,52 @@
       </c>
       <c r="P55" s="17"/>
     </row>
-    <row r="56" spans="1:16" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="75">
+    <row r="56" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="74">
         <v>55</v>
       </c>
-      <c r="B56" s="76" t="s">
+      <c r="B56" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="C56" s="65">
+      <c r="C56" s="64">
         <v>1960000</v>
       </c>
-      <c r="D56" s="66">
+      <c r="D56" s="65">
         <v>833000</v>
       </c>
-      <c r="E56" s="66">
+      <c r="E56" s="65">
         <v>900000</v>
       </c>
-      <c r="F56" s="66">
+      <c r="F56" s="65">
         <f t="shared" si="8"/>
         <v>3693000</v>
       </c>
-      <c r="G56" s="66">
+      <c r="G56" s="65">
         <f t="shared" si="6"/>
         <v>4431600</v>
       </c>
-      <c r="H56" s="66">
+      <c r="H56" s="65">
         <f t="shared" si="9"/>
         <v>4616250</v>
       </c>
-      <c r="I56" s="66" t="s">
+      <c r="I56" s="65" t="s">
         <v>223</v>
       </c>
-      <c r="J56" s="66"/>
-      <c r="K56" s="66" t="e">
+      <c r="J56" s="65"/>
+      <c r="K56" s="65" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O56" s="68" t="s">
+      <c r="O56" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="P56" s="69"/>
+      <c r="P56" s="68"/>
     </row>
     <row r="57" spans="1:16" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="71">
+      <c r="A57" s="70">
         <v>56</v>
       </c>
-      <c r="B57" s="60" t="s">
+      <c r="B57" s="59" t="s">
         <v>145</v>
       </c>
       <c r="C57" s="18">
@@ -3987,16 +4050,16 @@
       <c r="P57" s="17"/>
     </row>
     <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="71">
+      <c r="A58" s="70">
         <v>57</v>
       </c>
-      <c r="B58" s="77" t="s">
+      <c r="B58" s="76" t="s">
         <v>147</v>
       </c>
       <c r="C58" s="18">
         <v>6441000</v>
       </c>
-      <c r="D58" s="78">
+      <c r="D58" s="77">
         <v>771500</v>
       </c>
       <c r="F58" s="3">
@@ -4026,54 +4089,54 @@
       </c>
       <c r="P58" s="17"/>
     </row>
-    <row r="59" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="79">
+    <row r="59" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="78">
         <v>58</v>
       </c>
-      <c r="B59" s="80" t="s">
+      <c r="B59" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="C59" s="51">
+      <c r="C59" s="50">
         <v>7435000</v>
       </c>
-      <c r="D59" s="52">
+      <c r="D59" s="51">
         <v>924000</v>
       </c>
-      <c r="E59" s="52"/>
-      <c r="F59" s="52">
+      <c r="E59" s="51"/>
+      <c r="F59" s="51">
         <f t="shared" si="8"/>
         <v>8359000</v>
       </c>
-      <c r="G59" s="52">
+      <c r="G59" s="51">
         <f t="shared" si="6"/>
         <v>10030800</v>
       </c>
-      <c r="H59" s="52">
+      <c r="H59" s="51">
         <f t="shared" si="9"/>
         <v>10448750</v>
       </c>
-      <c r="I59" s="52" t="s">
+      <c r="I59" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="J59" s="52"/>
-      <c r="K59" s="52" t="e">
+      <c r="J59" s="51"/>
+      <c r="K59" s="51" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L59" s="53" t="s">
+      <c r="L59" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="O59" s="81" t="s">
+      <c r="O59" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="P59" s="54"/>
+      <c r="P59" s="53"/>
     </row>
     <row r="60" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="71">
+      <c r="A60" s="70">
         <v>59</v>
       </c>
-      <c r="B60" s="73" t="s">
-        <v>240</v>
+      <c r="B60" s="72" t="s">
+        <v>238</v>
       </c>
       <c r="C60" s="18">
         <v>1824000</v>
@@ -4108,52 +4171,52 @@
       </c>
       <c r="P60" s="17"/>
     </row>
-    <row r="61" spans="1:16" s="48" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="82">
+    <row r="61" spans="1:16" s="47" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="81">
         <v>60</v>
       </c>
-      <c r="B61" s="83" t="s">
+      <c r="B61" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="C61" s="46">
+      <c r="C61" s="45">
         <v>6328000</v>
       </c>
-      <c r="D61" s="47">
+      <c r="D61" s="46">
         <v>985000</v>
       </c>
-      <c r="E61" s="47">
+      <c r="E61" s="46">
         <v>200000</v>
       </c>
-      <c r="F61" s="47">
+      <c r="F61" s="46">
         <f t="shared" si="8"/>
         <v>7513000</v>
       </c>
-      <c r="G61" s="47">
+      <c r="G61" s="46">
         <f t="shared" si="6"/>
         <v>9015600</v>
       </c>
-      <c r="H61" s="47">
+      <c r="H61" s="46">
         <f t="shared" si="9"/>
         <v>9391250</v>
       </c>
-      <c r="I61" s="47" t="s">
+      <c r="I61" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="J61" s="47"/>
-      <c r="K61" s="47" t="e">
+      <c r="J61" s="46"/>
+      <c r="K61" s="46" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O61" s="49" t="s">
+      <c r="O61" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="P61" s="50"/>
+      <c r="P61" s="49"/>
     </row>
     <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="71">
+      <c r="A62" s="70">
         <v>61</v>
       </c>
-      <c r="B62" s="64" t="s">
+      <c r="B62" s="63" t="s">
         <v>154</v>
       </c>
       <c r="C62" s="18">
@@ -4193,10 +4256,10 @@
       <c r="P62" s="17"/>
     </row>
     <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="71">
+      <c r="A63" s="70">
         <v>62</v>
       </c>
-      <c r="B63" s="64" t="s">
+      <c r="B63" s="63" t="s">
         <v>156</v>
       </c>
       <c r="C63" s="18">
@@ -4236,13 +4299,13 @@
       <c r="P63" s="17"/>
     </row>
     <row r="64" spans="1:16" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="74">
+      <c r="A64" s="73">
         <v>63</v>
       </c>
-      <c r="B64" s="84" t="s">
+      <c r="B64" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="C64" s="43">
+      <c r="C64" s="42">
         <v>6350000</v>
       </c>
       <c r="D64" s="32">
@@ -4269,16 +4332,16 @@
         <f t="shared" si="7"/>
         <v>-7450000</v>
       </c>
-      <c r="O64" s="45" t="s">
+      <c r="O64" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="P64" s="44"/>
+      <c r="P64" s="43"/>
     </row>
     <row r="65" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="71">
+      <c r="A65" s="70">
         <v>64</v>
       </c>
-      <c r="B65" s="64" t="s">
+      <c r="B65" s="63" t="s">
         <v>160</v>
       </c>
       <c r="C65" s="18">
@@ -4315,10 +4378,10 @@
       <c r="P65" s="17"/>
     </row>
     <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="71">
+      <c r="A66" s="70">
         <v>65</v>
       </c>
-      <c r="B66" s="64" t="s">
+      <c r="B66" s="63" t="s">
         <v>162</v>
       </c>
       <c r="C66" s="18">
@@ -4348,52 +4411,52 @@
       </c>
       <c r="P66" s="17"/>
     </row>
-    <row r="67" spans="1:17" s="67" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="75">
+    <row r="67" spans="1:17" s="66" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="74">
         <v>66</v>
       </c>
-      <c r="B67" s="85" t="s">
+      <c r="B67" s="84" t="s">
         <v>168</v>
       </c>
-      <c r="C67" s="65">
+      <c r="C67" s="64">
         <v>3351000</v>
       </c>
-      <c r="D67" s="66">
+      <c r="D67" s="65">
         <v>760000</v>
       </c>
-      <c r="E67" s="66">
+      <c r="E67" s="65">
         <v>200000</v>
       </c>
-      <c r="F67" s="66">
+      <c r="F67" s="65">
         <f t="shared" si="8"/>
         <v>4311000</v>
       </c>
-      <c r="G67" s="66">
+      <c r="G67" s="65">
         <f t="shared" si="6"/>
         <v>5173200</v>
       </c>
-      <c r="H67" s="66">
+      <c r="H67" s="65">
         <f t="shared" si="9"/>
         <v>5388750</v>
       </c>
-      <c r="I67" s="66" t="s">
+      <c r="I67" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="J67" s="66"/>
-      <c r="K67" s="66" t="e">
+      <c r="J67" s="65"/>
+      <c r="K67" s="65" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O67" s="68" t="s">
+      <c r="O67" s="67" t="s">
         <v>169</v>
       </c>
-      <c r="P67" s="69"/>
+      <c r="P67" s="68"/>
     </row>
     <row r="68" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="71">
+      <c r="A68" s="70">
         <v>67</v>
       </c>
-      <c r="B68" s="64" t="s">
+      <c r="B68" s="63" t="s">
         <v>170</v>
       </c>
       <c r="C68" s="18">
@@ -4430,10 +4493,10 @@
       <c r="P68" s="17"/>
     </row>
     <row r="69" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="71">
+      <c r="A69" s="70">
         <v>68</v>
       </c>
-      <c r="B69" s="64" t="s">
+      <c r="B69" s="63" t="s">
         <v>172</v>
       </c>
       <c r="C69" s="18">
@@ -4469,54 +4532,54 @@
       </c>
       <c r="P69" s="17"/>
     </row>
-    <row r="70" spans="1:17" s="48" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="82">
+    <row r="70" spans="1:17" s="47" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="81">
         <v>69</v>
       </c>
-      <c r="B70" s="91" t="s">
+      <c r="B70" s="88" t="s">
         <v>221</v>
       </c>
-      <c r="C70" s="89">
+      <c r="C70" s="86">
         <v>2964000</v>
       </c>
-      <c r="D70" s="89">
+      <c r="D70" s="86">
         <v>821500</v>
       </c>
-      <c r="E70" s="89"/>
-      <c r="F70" s="89">
+      <c r="E70" s="86">
+        <v>150000</v>
+      </c>
+      <c r="F70" s="86">
         <f t="shared" si="8"/>
-        <v>3785500</v>
-      </c>
-      <c r="G70" s="89">
+        <v>3935500</v>
+      </c>
+      <c r="G70" s="86">
         <f t="shared" si="6"/>
-        <v>4542600</v>
-      </c>
-      <c r="H70" s="89">
+        <v>4722600</v>
+      </c>
+      <c r="H70" s="86">
         <f t="shared" si="9"/>
-        <v>4731875</v>
-      </c>
-      <c r="I70" s="89" t="s">
-        <v>223</v>
-      </c>
-      <c r="J70" s="89"/>
-      <c r="K70" s="89" t="e">
+        <v>4919375</v>
+      </c>
+      <c r="I70" s="86"/>
+      <c r="J70" s="86"/>
+      <c r="K70" s="86">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L70" s="90"/>
-      <c r="M70" s="90"/>
-      <c r="N70" s="90"/>
-      <c r="O70" s="92" t="s">
+        <v>-3935500</v>
+      </c>
+      <c r="L70" s="87"/>
+      <c r="M70" s="87"/>
+      <c r="N70" s="87"/>
+      <c r="O70" s="89" t="s">
         <v>176</v>
       </c>
-      <c r="P70" s="93"/>
-      <c r="Q70" s="90"/>
+      <c r="P70" s="90"/>
+      <c r="Q70" s="87"/>
     </row>
     <row r="71" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="82">
+      <c r="A71" s="81">
         <v>70</v>
       </c>
-      <c r="B71" s="73" t="s">
+      <c r="B71" s="72" t="s">
         <v>177</v>
       </c>
       <c r="C71" s="18">
@@ -4541,62 +4604,67 @@
         <v>6993125</v>
       </c>
       <c r="I71" s="3">
-        <v>7500000</v>
+        <v>8000000</v>
       </c>
       <c r="K71" s="3">
         <f t="shared" si="10"/>
-        <v>1905500</v>
+        <v>2405500</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="O71" s="16" t="s">
         <v>178</v>
       </c>
       <c r="P71" s="17"/>
     </row>
-    <row r="72" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="82">
+    <row r="72" spans="1:17" s="113" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="91">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C72" s="18">
+      <c r="C72" s="110">
         <v>3306000</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="111">
         <v>794000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="E72" s="111"/>
+      <c r="F72" s="111">
         <f t="shared" si="8"/>
         <v>4100000</v>
       </c>
-      <c r="G72" s="28">
+      <c r="G72" s="112">
         <f t="shared" si="6"/>
         <v>4920000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="111">
         <f t="shared" si="9"/>
         <v>5125000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="111">
         <v>5500000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="J72" s="111"/>
+      <c r="K72" s="111">
         <f t="shared" si="10"/>
         <v>1400000</v>
       </c>
-      <c r="L72" s="2" t="s">
+      <c r="L72" s="113" t="s">
         <v>217</v>
       </c>
-      <c r="O72" s="110" t="s">
+      <c r="O72" s="121" t="s">
         <v>191</v>
       </c>
-      <c r="P72" s="17"/>
+      <c r="P72" s="114"/>
     </row>
     <row r="73" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="82">
+      <c r="A73" s="81">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
         <v>190</v>
       </c>
       <c r="C73" s="18">
@@ -4606,77 +4674,80 @@
         <v>794000</v>
       </c>
       <c r="E73" s="3">
-        <v>150000</v>
+        <v>450000</v>
       </c>
       <c r="F73" s="3">
-        <f t="shared" ref="F73:F96" si="11">C73+D73+E73</f>
-        <v>4250000</v>
+        <f t="shared" ref="F73:F102" si="11">C73+D73+E73</f>
+        <v>4550000</v>
       </c>
       <c r="G73" s="28">
-        <f t="shared" ref="G73:G96" si="12">(F73*20%)+F73</f>
-        <v>5100000</v>
+        <f t="shared" ref="G73:G102" si="12">(F73*20%)+F73</f>
+        <v>5460000</v>
       </c>
       <c r="H73" s="3">
-        <f t="shared" ref="H73:H96" si="13">(F73*25%)+F73</f>
-        <v>5312500</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="K73" s="3" t="e">
+        <f t="shared" ref="H73:H102" si="13">(F73*25%)+F73</f>
+        <v>5687500</v>
+      </c>
+      <c r="I73" s="3">
+        <v>8000000</v>
+      </c>
+      <c r="K73" s="3">
         <f t="shared" ref="K73:K78" si="14">I73-J73-F73</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O73" s="110"/>
+        <v>3450000</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="O73" s="121"/>
       <c r="P73" s="17"/>
     </row>
-    <row r="74" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="82">
+    <row r="74" spans="1:17" s="92" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="115">
         <v>73</v>
       </c>
       <c r="B74" s="87" t="s">
         <v>222</v>
       </c>
-      <c r="C74" s="88">
+      <c r="C74" s="116">
         <v>3306000</v>
       </c>
-      <c r="D74" s="89">
+      <c r="D74" s="117">
         <v>794000</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="118">
         <v>150000</v>
       </c>
-      <c r="F74" s="89">
+      <c r="F74" s="117">
         <f t="shared" si="11"/>
         <v>4250000</v>
       </c>
-      <c r="G74" s="89">
+      <c r="G74" s="117">
         <f t="shared" si="12"/>
         <v>5100000</v>
       </c>
-      <c r="H74" s="89">
+      <c r="H74" s="117">
         <f t="shared" si="13"/>
         <v>5312500</v>
       </c>
-      <c r="I74" s="89" t="s">
+      <c r="I74" s="117" t="s">
         <v>223</v>
       </c>
-      <c r="J74" s="89"/>
-      <c r="K74" s="89" t="e">
+      <c r="J74" s="117"/>
+      <c r="K74" s="117" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L74" s="90"/>
-      <c r="M74" s="90"/>
-      <c r="N74" s="90"/>
-      <c r="O74" s="110"/>
-      <c r="P74" s="17"/>
+      <c r="L74" s="119"/>
+      <c r="M74" s="119"/>
+      <c r="N74" s="119"/>
+      <c r="O74" s="121"/>
+      <c r="P74" s="120"/>
     </row>
     <row r="75" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="82">
+      <c r="A75" s="81">
         <v>74</v>
       </c>
-      <c r="B75" s="73" t="s">
+      <c r="B75" s="72" t="s">
         <v>192</v>
       </c>
       <c r="C75" s="18">
@@ -4713,10 +4784,10 @@
       <c r="P75" s="17"/>
     </row>
     <row r="76" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="82">
+      <c r="A76" s="81">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>194</v>
       </c>
       <c r="C76" s="18">
@@ -4747,10 +4818,10 @@
       <c r="P76" s="17"/>
     </row>
     <row r="77" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="82">
+      <c r="A77" s="81">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C77" s="18">
@@ -4787,39 +4858,50 @@
       <c r="P77" s="17"/>
     </row>
     <row r="78" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="82">
+      <c r="A78" s="81">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
         <v>198</v>
       </c>
       <c r="C78" s="18">
         <v>5244000</v>
       </c>
+      <c r="E78" s="3">
+        <v>300000</v>
+      </c>
       <c r="F78" s="3">
         <f t="shared" si="11"/>
-        <v>5244000</v>
+        <v>5544000</v>
       </c>
       <c r="G78" s="3">
         <f t="shared" si="12"/>
-        <v>6292800</v>
+        <v>6652800</v>
       </c>
       <c r="H78" s="3">
         <f t="shared" si="13"/>
-        <v>6555000</v>
+        <v>6930000</v>
+      </c>
+      <c r="I78" s="3">
+        <v>7250000</v>
       </c>
       <c r="K78" s="3">
         <f t="shared" si="14"/>
-        <v>-5244000</v>
-      </c>
-      <c r="O78" s="16"/>
+        <v>1706000</v>
+      </c>
+      <c r="N78" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="O78" s="16" t="s">
+        <v>252</v>
+      </c>
       <c r="P78" s="17"/>
     </row>
     <row r="79" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="82">
+      <c r="A79" s="81">
         <v>78</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C79" s="3">
@@ -4849,10 +4931,10 @@
       </c>
     </row>
     <row r="80" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="82">
+      <c r="A80" s="81">
         <v>79</v>
       </c>
-      <c r="B80" s="56" t="s">
+      <c r="B80" s="55" t="s">
         <v>201</v>
       </c>
       <c r="C80" s="3">
@@ -4891,10 +4973,10 @@
       </c>
     </row>
     <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="82">
+      <c r="A81" s="81">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C81" s="3">
@@ -4922,7 +5004,7 @@
         <v>10500000</v>
       </c>
       <c r="K81" s="3">
-        <f t="shared" ref="K81:K96" si="15">I81-J81-F81</f>
+        <f t="shared" ref="K81:K102" si="15">I81-J81-F81</f>
         <v>2041500</v>
       </c>
       <c r="L81" s="2" t="s">
@@ -4933,10 +5015,10 @@
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A82" s="82">
+      <c r="A82" s="81">
         <v>81</v>
       </c>
-      <c r="B82" s="86" t="s">
+      <c r="B82" s="85" t="s">
         <v>207</v>
       </c>
       <c r="C82" s="3">
@@ -4966,10 +5048,10 @@
       </c>
     </row>
     <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="82">
+      <c r="A83" s="81">
         <v>82</v>
       </c>
-      <c r="B83" s="56" t="s">
+      <c r="B83" s="55" t="s">
         <v>209</v>
       </c>
       <c r="C83" s="3">
@@ -5004,11 +5086,11 @@
         <v>208</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A84" s="82">
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="81">
         <v>83</v>
       </c>
-      <c r="B84" s="56" t="s">
+      <c r="B84" s="55" t="s">
         <v>211</v>
       </c>
       <c r="C84" s="3">
@@ -5038,40 +5120,46 @@
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A85" s="82">
+      <c r="A85" s="81">
         <v>84</v>
       </c>
-      <c r="B85" s="56" t="s">
+      <c r="B85" s="55" t="s">
         <v>213</v>
       </c>
       <c r="C85" s="3">
         <v>4104000</v>
       </c>
+      <c r="E85" s="3">
+        <v>700000</v>
+      </c>
       <c r="F85" s="3">
         <f t="shared" si="11"/>
-        <v>4104000</v>
+        <v>4804000</v>
       </c>
       <c r="G85" s="3">
         <f t="shared" si="12"/>
-        <v>4924800</v>
+        <v>5764800</v>
       </c>
       <c r="H85" s="3">
         <f t="shared" si="13"/>
-        <v>5130000</v>
+        <v>6005000</v>
       </c>
       <c r="K85" s="3">
         <f t="shared" si="15"/>
-        <v>-4104000</v>
+        <v>-4804000</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="O85" s="13" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" s="94">
+      <c r="A86" s="91">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>215</v>
       </c>
       <c r="C86" s="3">
@@ -5099,12 +5187,12 @@
         <f t="shared" si="15"/>
         <v>-5629500</v>
       </c>
-      <c r="O86" s="40" t="s">
+      <c r="O86" s="107" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87" s="82">
+    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="81">
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -5129,299 +5217,478 @@
         <v>8009375</v>
       </c>
       <c r="I87" s="3">
-        <v>9500000</v>
+        <v>10600000</v>
       </c>
       <c r="K87" s="3">
         <f t="shared" si="15"/>
-        <v>3092500</v>
+        <v>4192500</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="O87" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B88" s="96" t="s">
-        <v>228</v>
+      <c r="A88" s="81"/>
+      <c r="B88" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="C88" s="3">
-        <v>4400000</v>
+        <v>4720000</v>
       </c>
       <c r="E88" s="3">
-        <v>350000</v>
+        <v>750000</v>
       </c>
       <c r="F88" s="3">
         <f t="shared" si="11"/>
-        <v>4750000</v>
+        <v>5470000</v>
       </c>
       <c r="G88" s="3">
         <f t="shared" si="12"/>
-        <v>5700000</v>
+        <v>6564000</v>
       </c>
       <c r="H88" s="3">
         <f t="shared" si="13"/>
-        <v>5937500</v>
-      </c>
-      <c r="K88" s="3">
+        <v>6837500</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="K88" s="3" t="e">
         <f t="shared" si="15"/>
-        <v>-4750000</v>
-      </c>
-      <c r="O88" s="13" t="s">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N88" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B89" s="93" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B89" s="97" t="s">
-        <v>230</v>
-      </c>
       <c r="C89" s="3">
-        <v>5170000</v>
+        <v>4400000</v>
       </c>
       <c r="E89" s="3">
-        <v>350000</v>
+        <v>700000</v>
       </c>
       <c r="F89" s="3">
         <f t="shared" si="11"/>
-        <v>5520000</v>
+        <v>5100000</v>
       </c>
       <c r="G89" s="3">
         <f t="shared" si="12"/>
-        <v>6624000</v>
+        <v>6120000</v>
       </c>
       <c r="H89" s="3">
         <f t="shared" si="13"/>
+        <v>6375000</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K89" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N89" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="O89" s="13" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B90" s="94" t="s">
+        <v>244</v>
+      </c>
+      <c r="C90" s="3">
+        <v>5170000</v>
+      </c>
+      <c r="E90" s="3">
+        <v>350000</v>
+      </c>
+      <c r="F90" s="3">
+        <f t="shared" si="11"/>
+        <v>5520000</v>
+      </c>
+      <c r="G90" s="3">
+        <f t="shared" si="12"/>
+        <v>6624000</v>
+      </c>
+      <c r="H90" s="3">
+        <f t="shared" si="13"/>
         <v>6900000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K90" s="3">
         <f t="shared" si="15"/>
         <v>-5520000</v>
       </c>
-      <c r="O89" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="95"/>
-      <c r="B90" s="98" t="s">
-        <v>232</v>
-      </c>
-      <c r="C90" s="3">
+      <c r="N90" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="O90" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91" s="92"/>
+      <c r="B91" s="95" t="s">
+        <v>230</v>
+      </c>
+      <c r="C91" s="3">
         <v>157</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F91" s="3">
         <f t="shared" si="11"/>
         <v>157</v>
       </c>
-      <c r="G90" s="3">
+      <c r="G91" s="3">
         <f t="shared" si="12"/>
         <v>188.4</v>
       </c>
-      <c r="H90" s="3">
+      <c r="H91" s="3">
         <f t="shared" si="13"/>
         <v>196.25</v>
       </c>
-      <c r="K90" s="3">
+      <c r="K91" s="3">
         <f t="shared" si="15"/>
         <v>-157</v>
       </c>
-      <c r="O90" s="13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B91" s="56" t="s">
-        <v>234</v>
-      </c>
-      <c r="C91" s="3">
+      <c r="O91" s="13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B92" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="C92" s="3">
         <v>3442800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F92" s="3">
         <f t="shared" si="11"/>
         <v>3442800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G92" s="3">
         <f t="shared" si="12"/>
         <v>4131360</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H92" s="3">
         <f t="shared" si="13"/>
         <v>4303500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K92" s="3">
         <f t="shared" si="15"/>
         <v>-3442800</v>
       </c>
-      <c r="O91" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B92" s="56" t="s">
-        <v>236</v>
-      </c>
-      <c r="C92" s="3">
+      <c r="O92" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B93" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="C93" s="3">
         <v>5312000</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E93" s="3">
         <v>650000</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F93" s="3">
         <f t="shared" si="11"/>
         <v>5962000</v>
       </c>
-      <c r="G92" s="3">
+      <c r="G93" s="3">
         <f t="shared" si="12"/>
         <v>7154400</v>
       </c>
-      <c r="H92" s="3">
+      <c r="H93" s="3">
         <f t="shared" si="13"/>
         <v>7452500</v>
       </c>
-      <c r="K92" s="3">
+      <c r="K93" s="3">
         <f t="shared" si="15"/>
         <v>-5962000</v>
       </c>
-      <c r="O92" s="13" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B93" s="99" t="s">
-        <v>238</v>
-      </c>
-      <c r="C93" s="3">
+      <c r="O93" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B94" s="96" t="s">
+        <v>236</v>
+      </c>
+      <c r="C94" s="3">
         <v>229</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F94" s="3">
         <f t="shared" si="11"/>
         <v>229</v>
       </c>
-      <c r="G93" s="3">
+      <c r="G94" s="3">
         <f t="shared" si="12"/>
         <v>274.8</v>
       </c>
-      <c r="H93" s="3">
+      <c r="H94" s="3">
         <f t="shared" si="13"/>
         <v>286.25</v>
       </c>
-      <c r="K93" s="3">
+      <c r="K94" s="3">
         <f t="shared" si="15"/>
         <v>-229</v>
       </c>
-      <c r="O93" s="13" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B94" s="99" t="s">
-        <v>239</v>
-      </c>
-      <c r="C94" s="3">
+      <c r="O94" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B95" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C95" s="3">
         <v>280</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F95" s="3">
         <f t="shared" si="11"/>
         <v>280</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G95" s="3">
         <f t="shared" si="12"/>
         <v>336</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H95" s="3">
         <f t="shared" si="13"/>
         <v>350</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K95" s="3">
         <f t="shared" si="15"/>
         <v>-280</v>
       </c>
-      <c r="O94" s="13" t="s">
+      <c r="O95" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B96" s="55" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B95" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="C95" s="3">
+      <c r="C96" s="3">
         <v>4018000</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F96" s="3">
         <f t="shared" si="11"/>
         <v>4018000</v>
       </c>
-      <c r="G95" s="3">
+      <c r="G96" s="3">
         <f t="shared" si="12"/>
         <v>4821600</v>
       </c>
-      <c r="H95" s="3">
+      <c r="H96" s="3">
         <f t="shared" si="13"/>
         <v>5022500</v>
       </c>
-      <c r="K95" s="3">
+      <c r="K96" s="3">
         <f t="shared" si="15"/>
         <v>-4018000</v>
       </c>
-      <c r="O95" s="111" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B96" s="56" t="s">
-        <v>244</v>
-      </c>
-      <c r="C96" s="3">
+      <c r="O96" s="108" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B97" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="C97" s="3">
         <v>3713000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F97" s="3">
         <f t="shared" si="11"/>
         <v>3713000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="G97" s="3">
         <f t="shared" si="12"/>
         <v>4455600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="H97" s="3">
         <f t="shared" si="13"/>
         <v>4641250</v>
       </c>
-      <c r="K96" s="3">
+      <c r="K97" s="3">
         <f t="shared" si="15"/>
         <v>-3713000</v>
       </c>
-      <c r="O96" s="112"/>
-    </row>
-    <row r="98" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="O98" s="40"/>
-    </row>
-    <row r="105" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F105" s="66"/>
-    </row>
-    <row r="107" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F107" s="66"/>
-    </row>
-    <row r="108" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F108" s="52"/>
-    </row>
-    <row r="110" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F110" s="47"/>
-    </row>
-    <row r="111" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F111" s="32"/>
-    </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F113" s="66"/>
+      <c r="O97" s="109"/>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B98" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="C98" s="3">
+        <v>6110000</v>
+      </c>
+      <c r="F98" s="3">
+        <f t="shared" si="11"/>
+        <v>6110000</v>
+      </c>
+      <c r="G98" s="3">
+        <f t="shared" si="12"/>
+        <v>7332000</v>
+      </c>
+      <c r="H98" s="3">
+        <f t="shared" si="13"/>
+        <v>7637500</v>
+      </c>
+      <c r="K98" s="3">
+        <f t="shared" si="15"/>
+        <v>-6110000</v>
+      </c>
+      <c r="O98" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B99" s="55" t="s">
+        <v>256</v>
+      </c>
+      <c r="C99" s="3">
+        <v>3420000</v>
+      </c>
+      <c r="F99" s="3">
+        <f t="shared" si="11"/>
+        <v>3420000</v>
+      </c>
+      <c r="G99" s="3">
+        <f t="shared" si="12"/>
+        <v>4104000</v>
+      </c>
+      <c r="H99" s="3">
+        <f t="shared" si="13"/>
+        <v>4275000</v>
+      </c>
+      <c r="K99" s="3">
+        <f t="shared" si="15"/>
+        <v>-3420000</v>
+      </c>
+      <c r="O99" s="107" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B100" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="C100" s="3">
+        <v>3315000</v>
+      </c>
+      <c r="F100" s="3">
+        <f t="shared" si="11"/>
+        <v>3315000</v>
+      </c>
+      <c r="G100" s="3">
+        <f t="shared" si="12"/>
+        <v>3978000</v>
+      </c>
+      <c r="H100" s="3">
+        <f t="shared" si="13"/>
+        <v>4143750</v>
+      </c>
+      <c r="K100" s="3">
+        <f t="shared" si="15"/>
+        <v>-3315000</v>
+      </c>
+    </row>
+    <row r="101" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B101" s="96" t="s">
+        <v>259</v>
+      </c>
+      <c r="C101" s="3">
+        <v>98</v>
+      </c>
+      <c r="F101" s="3">
+        <f t="shared" si="11"/>
+        <v>98</v>
+      </c>
+      <c r="G101" s="3">
+        <f t="shared" si="12"/>
+        <v>117.6</v>
+      </c>
+      <c r="H101" s="3">
+        <f t="shared" si="13"/>
+        <v>122.5</v>
+      </c>
+      <c r="K101" s="3">
+        <f t="shared" si="15"/>
+        <v>-98</v>
+      </c>
+    </row>
+    <row r="102" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B102" s="96" t="s">
+        <v>260</v>
+      </c>
+      <c r="C102" s="3">
+        <v>219</v>
+      </c>
+      <c r="F102" s="3">
+        <f t="shared" si="11"/>
+        <v>219</v>
+      </c>
+      <c r="G102" s="3">
+        <f t="shared" si="12"/>
+        <v>262.8</v>
+      </c>
+      <c r="H102" s="3">
+        <f t="shared" si="13"/>
+        <v>273.75</v>
+      </c>
+      <c r="K102" s="3">
+        <f t="shared" si="15"/>
+        <v>-219</v>
+      </c>
+    </row>
+    <row r="103" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B103" s="55" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="104" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B104" s="96" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F106" s="65"/>
+    </row>
+    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F108" s="65"/>
+    </row>
+    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F109" s="51"/>
+    </row>
+    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F111" s="46"/>
+    </row>
+    <row r="112" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F112" s="32"/>
     </row>
     <row r="114" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F114" s="89"/>
-    </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F117" s="89"/>
+      <c r="F114" s="65"/>
+    </row>
+    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F115" s="86"/>
+    </row>
+    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F118" s="86"/>
     </row>
   </sheetData>
   <autoFilter ref="L1:L80" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="O72:O74"/>
-    <mergeCell ref="O95:O96"/>
+    <mergeCell ref="O96:O97"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="C2:G2 H2:N17 B2:B25 Q2:Q39 C3:E25 F3:G27 D26:E38 D39:F39 C40:F41 Q42:Q43 P44:P49 C29:F38 L42:N69 Q50:Q69 L18:N39 D42:F57 F28 L71:N72 K3:K72 D59:F69 E58:F58 D71:F72 I71:J72 H18:J65 G28:G72 I66:J69 H66:H72 D75:J78 K75:K79 L75:N78 Q71:Q78 O2:O22 P2:P25 O26:P26 O29:P38 L40:Q41 D73:N74">
@@ -5429,7 +5696,7 @@
       <formula>MOD(ROW(),2)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F115:F119 F102:F113">
+  <conditionalFormatting sqref="F116:F120 F103:F114">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)&gt;0</formula>
     </cfRule>
@@ -5459,10 +5726,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>180</v>
       </c>
     </row>

--- a/TDStore/NhapXuatLaptop.xlsx
+++ b/TDStore/NhapXuatLaptop.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01.GIT\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E9E5F2-C8F1-4F22-A845-A3B18667BAA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA27893-0148-4044-8AC8-CAB491F2970A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NhapXuat!$L$1:$L$80</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="266">
   <si>
     <t>ID máy</t>
   </si>
@@ -649,9 +649,6 @@
     <t>780572009202</t>
   </si>
   <si>
-    <t>8tr5</t>
-  </si>
-  <si>
     <t>9405508205499079423557</t>
   </si>
   <si>
@@ -772,9 +769,6 @@
     <t>Hùng</t>
   </si>
   <si>
-    <t>7tr2</t>
-  </si>
-  <si>
     <t>F3H7XT2</t>
   </si>
   <si>
@@ -827,6 +821,15 @@
   </si>
   <si>
     <t>A Hiệp</t>
+  </si>
+  <si>
+    <t>E My</t>
+  </si>
+  <si>
+    <t>A Thành</t>
+  </si>
+  <si>
+    <t>780895114100</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1059,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1287,12 +1290,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1314,8 +1311,21 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1362,7 +1372,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1719,8 +1729,8 @@
   <dimension ref="A1:Q118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C92" sqref="C92"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3867,7 +3877,7 @@
         <v>5368750</v>
       </c>
       <c r="I53" s="65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J53" s="65"/>
       <c r="K53" s="65" t="e">
@@ -3990,13 +4000,13 @@
         <f t="shared" si="9"/>
         <v>4616250</v>
       </c>
-      <c r="I56" s="65" t="s">
-        <v>223</v>
+      <c r="I56" s="65">
+        <v>4000000</v>
       </c>
       <c r="J56" s="65"/>
-      <c r="K56" s="65" t="e">
+      <c r="K56" s="65">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
+        <v>307000</v>
       </c>
       <c r="O56" s="67" t="s">
         <v>144</v>
@@ -4136,7 +4146,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="72" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C60" s="18">
         <v>1824000</v>
@@ -4160,7 +4170,7 @@
         <v>3579375</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K60" s="3" t="e">
         <f t="shared" si="7"/>
@@ -4171,7 +4181,7 @@
       </c>
       <c r="P60" s="17"/>
     </row>
-    <row r="61" spans="1:16" s="47" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" s="47" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="81">
         <v>60</v>
       </c>
@@ -4199,13 +4209,13 @@
         <f t="shared" si="9"/>
         <v>9391250</v>
       </c>
-      <c r="I61" s="46" t="s">
-        <v>205</v>
+      <c r="I61" s="46">
+        <v>8500000</v>
       </c>
       <c r="J61" s="46"/>
-      <c r="K61" s="46" t="e">
+      <c r="K61" s="46">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
+        <v>987000</v>
       </c>
       <c r="O61" s="48" t="s">
         <v>153</v>
@@ -4248,7 +4258,7 @@
         <v>539000</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O62" s="16" t="s">
         <v>155</v>
@@ -4298,7 +4308,7 @@
       </c>
       <c r="P63" s="17"/>
     </row>
-    <row r="64" spans="1:16" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="73">
         <v>63</v>
       </c>
@@ -4326,11 +4336,13 @@
         <f t="shared" si="9"/>
         <v>9312500</v>
       </c>
-      <c r="I64" s="32"/>
+      <c r="I64" s="32">
+        <v>8500000</v>
+      </c>
       <c r="J64" s="32"/>
       <c r="K64" s="32">
         <f t="shared" si="7"/>
-        <v>-7450000</v>
+        <v>1050000</v>
       </c>
       <c r="O64" s="44" t="s">
         <v>159</v>
@@ -4366,7 +4378,7 @@
         <v>4630000</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K65" s="3" t="e">
         <f t="shared" si="7"/>
@@ -4440,7 +4452,7 @@
         <v>5388750</v>
       </c>
       <c r="I67" s="65" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J67" s="65"/>
       <c r="K67" s="65" t="e">
@@ -4532,12 +4544,12 @@
       </c>
       <c r="P69" s="17"/>
     </row>
-    <row r="70" spans="1:17" s="47" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" s="47" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="81">
         <v>69</v>
       </c>
       <c r="B70" s="88" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C70" s="86">
         <v>2964000</v>
@@ -4545,28 +4557,30 @@
       <c r="D70" s="86">
         <v>821500</v>
       </c>
-      <c r="E70" s="86">
-        <v>150000</v>
-      </c>
+      <c r="E70" s="86"/>
       <c r="F70" s="86">
         <f t="shared" si="8"/>
-        <v>3935500</v>
+        <v>3785500</v>
       </c>
       <c r="G70" s="86">
         <f t="shared" si="6"/>
-        <v>4722600</v>
+        <v>4542600</v>
       </c>
       <c r="H70" s="86">
         <f t="shared" si="9"/>
-        <v>4919375</v>
-      </c>
-      <c r="I70" s="86"/>
+        <v>4731875</v>
+      </c>
+      <c r="I70" s="86">
+        <v>4000000</v>
+      </c>
       <c r="J70" s="86"/>
       <c r="K70" s="86">
         <f t="shared" si="10"/>
-        <v>-3935500</v>
-      </c>
-      <c r="L70" s="87"/>
+        <v>214500</v>
+      </c>
+      <c r="L70" s="87" t="s">
+        <v>264</v>
+      </c>
       <c r="M70" s="87"/>
       <c r="N70" s="87"/>
       <c r="O70" s="89" t="s">
@@ -4575,7 +4589,7 @@
       <c r="P70" s="90"/>
       <c r="Q70" s="87"/>
     </row>
-    <row r="71" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="81">
         <v>70</v>
       </c>
@@ -4611,56 +4625,56 @@
         <v>2405500</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O71" s="16" t="s">
         <v>178</v>
       </c>
       <c r="P71" s="17"/>
     </row>
-    <row r="72" spans="1:17" s="113" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" s="111" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="91">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C72" s="110">
+      <c r="C72" s="108">
         <v>3306000</v>
       </c>
-      <c r="D72" s="111">
+      <c r="D72" s="109">
         <v>794000</v>
       </c>
-      <c r="E72" s="111"/>
-      <c r="F72" s="111">
+      <c r="E72" s="109"/>
+      <c r="F72" s="109">
         <f t="shared" si="8"/>
         <v>4100000</v>
       </c>
-      <c r="G72" s="112">
+      <c r="G72" s="110">
         <f t="shared" si="6"/>
         <v>4920000</v>
       </c>
-      <c r="H72" s="111">
+      <c r="H72" s="109">
         <f t="shared" si="9"/>
         <v>5125000</v>
       </c>
-      <c r="I72" s="111">
+      <c r="I72" s="109">
         <v>5500000</v>
       </c>
-      <c r="J72" s="111"/>
-      <c r="K72" s="111">
+      <c r="J72" s="109"/>
+      <c r="K72" s="109">
         <f t="shared" si="10"/>
         <v>1400000</v>
       </c>
-      <c r="L72" s="113" t="s">
-        <v>217</v>
-      </c>
-      <c r="O72" s="121" t="s">
+      <c r="L72" s="111" t="s">
+        <v>216</v>
+      </c>
+      <c r="O72" s="124" t="s">
         <v>191</v>
       </c>
-      <c r="P72" s="114"/>
-    </row>
-    <row r="73" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P72" s="112"/>
+    </row>
+    <row r="73" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="81">
         <v>72</v>
       </c>
@@ -4696,52 +4710,50 @@
         <v>3450000</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="O73" s="121"/>
+        <v>261</v>
+      </c>
+      <c r="O73" s="124"/>
       <c r="P73" s="17"/>
     </row>
     <row r="74" spans="1:17" s="92" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="115">
+      <c r="A74" s="113">
         <v>73</v>
       </c>
       <c r="B74" s="87" t="s">
-        <v>222</v>
-      </c>
-      <c r="C74" s="116">
+        <v>221</v>
+      </c>
+      <c r="C74" s="114">
         <v>3306000</v>
       </c>
-      <c r="D74" s="117">
+      <c r="D74" s="115">
         <v>794000</v>
       </c>
-      <c r="E74" s="118">
+      <c r="E74" s="116">
         <v>150000</v>
       </c>
-      <c r="F74" s="117">
+      <c r="F74" s="115">
         <f t="shared" si="11"/>
         <v>4250000</v>
       </c>
-      <c r="G74" s="117">
+      <c r="G74" s="115">
         <f t="shared" si="12"/>
         <v>5100000</v>
       </c>
-      <c r="H74" s="117">
+      <c r="H74" s="115">
         <f t="shared" si="13"/>
         <v>5312500</v>
       </c>
-      <c r="I74" s="117" t="s">
-        <v>223</v>
-      </c>
-      <c r="J74" s="117"/>
-      <c r="K74" s="117" t="e">
+      <c r="I74" s="115"/>
+      <c r="J74" s="115"/>
+      <c r="K74" s="115">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L74" s="119"/>
-      <c r="M74" s="119"/>
-      <c r="N74" s="119"/>
-      <c r="O74" s="121"/>
-      <c r="P74" s="120"/>
+        <v>-4250000</v>
+      </c>
+      <c r="L74" s="117"/>
+      <c r="M74" s="117"/>
+      <c r="N74" s="117"/>
+      <c r="O74" s="124"/>
+      <c r="P74" s="118"/>
     </row>
     <row r="75" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="81">
@@ -4776,7 +4788,7 @@
         <v>3045252</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O75" s="16" t="s">
         <v>193</v>
@@ -4857,7 +4869,7 @@
       </c>
       <c r="P77" s="17"/>
     </row>
-    <row r="78" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="81">
         <v>77</v>
       </c>
@@ -4867,33 +4879,39 @@
       <c r="C78" s="18">
         <v>5244000</v>
       </c>
+      <c r="D78" s="3">
+        <v>821500</v>
+      </c>
       <c r="E78" s="3">
-        <v>300000</v>
+        <v>600000</v>
       </c>
       <c r="F78" s="3">
-        <f t="shared" si="11"/>
-        <v>5544000</v>
+        <f>C78+D78+E78</f>
+        <v>6665500</v>
       </c>
       <c r="G78" s="3">
         <f t="shared" si="12"/>
-        <v>6652800</v>
+        <v>7998600</v>
       </c>
       <c r="H78" s="3">
         <f t="shared" si="13"/>
-        <v>6930000</v>
+        <v>8331875</v>
       </c>
       <c r="I78" s="3">
         <v>7250000</v>
       </c>
       <c r="K78" s="3">
         <f t="shared" si="14"/>
-        <v>1706000</v>
+        <v>584500</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O78" s="16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="P78" s="17"/>
     </row>
@@ -4972,7 +4990,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="81">
         <v>80</v>
       </c>
@@ -5014,12 +5032,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="81">
         <v>81</v>
       </c>
       <c r="B82" s="85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C82" s="3">
         <v>7288000</v>
@@ -5039,20 +5057,26 @@
         <f t="shared" si="13"/>
         <v>10239375</v>
       </c>
+      <c r="I82" s="3">
+        <v>10250000</v>
+      </c>
       <c r="K82" s="3">
         <f t="shared" si="15"/>
-        <v>-8191500</v>
+        <v>2058500</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="O82" s="13" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="81">
         <v>82</v>
       </c>
       <c r="B83" s="55" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C83" s="3">
         <v>4309000</v>
@@ -5083,15 +5107,15 @@
         <v>21</v>
       </c>
       <c r="O83" s="13" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="81">
         <v>83</v>
       </c>
       <c r="B84" s="55" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C84" s="3">
         <v>2599000</v>
@@ -5116,51 +5140,54 @@
         <v>-2650250</v>
       </c>
       <c r="O84" s="13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="81">
         <v>84</v>
       </c>
       <c r="B85" s="55" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C85" s="3">
         <v>4104000</v>
       </c>
+      <c r="D85" s="3">
+        <v>801000</v>
+      </c>
       <c r="E85" s="3">
         <v>700000</v>
       </c>
       <c r="F85" s="3">
         <f t="shared" si="11"/>
-        <v>4804000</v>
+        <v>5605000</v>
       </c>
       <c r="G85" s="3">
         <f t="shared" si="12"/>
-        <v>5764800</v>
+        <v>6726000</v>
       </c>
       <c r="H85" s="3">
         <f t="shared" si="13"/>
-        <v>6005000</v>
+        <v>7006250</v>
       </c>
       <c r="K85" s="3">
         <f t="shared" si="15"/>
-        <v>-4804000</v>
+        <v>-5605000</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O85" s="13" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="91">
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C86" s="3">
         <v>3990000</v>
@@ -5188,15 +5215,15 @@
         <v>-5629500</v>
       </c>
       <c r="O86" s="107" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="81">
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C87" s="3">
         <v>5586000</v>
@@ -5224,34 +5251,37 @@
         <v>4192500</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O87" s="13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="81"/>
       <c r="B88" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C88" s="3">
         <v>4720000</v>
       </c>
+      <c r="D88" s="3">
+        <v>740000</v>
+      </c>
       <c r="E88" s="3">
         <v>750000</v>
       </c>
       <c r="F88" s="3">
         <f t="shared" si="11"/>
-        <v>5470000</v>
+        <v>6210000</v>
       </c>
       <c r="G88" s="3">
         <f t="shared" si="12"/>
-        <v>6564000</v>
+        <v>7452000</v>
       </c>
       <c r="H88" s="3">
         <f t="shared" si="13"/>
-        <v>6837500</v>
+        <v>7762500</v>
       </c>
       <c r="I88" s="3" t="s">
         <v>189</v>
@@ -5261,109 +5291,126 @@
         <v>#VALUE!</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="O88" s="13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B89" s="93" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C89" s="3">
         <v>4400000</v>
       </c>
+      <c r="D89" s="3">
+        <v>801000</v>
+      </c>
       <c r="E89" s="3">
-        <v>700000</v>
+        <v>750000</v>
       </c>
       <c r="F89" s="3">
         <f t="shared" si="11"/>
-        <v>5100000</v>
+        <v>5951000</v>
       </c>
       <c r="G89" s="3">
         <f t="shared" si="12"/>
-        <v>6120000</v>
+        <v>7141200</v>
       </c>
       <c r="H89" s="3">
         <f t="shared" si="13"/>
-        <v>6375000</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K89" s="3" t="e">
+        <v>7438750</v>
+      </c>
+      <c r="I89" s="3">
+        <v>8350000</v>
+      </c>
+      <c r="K89" s="3">
+        <f t="shared" si="15"/>
+        <v>2399000</v>
+      </c>
+      <c r="N89" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="O89" s="13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B90" s="94" t="s">
+        <v>243</v>
+      </c>
+      <c r="C90" s="3">
+        <v>5170000</v>
+      </c>
+      <c r="D90" s="3">
+        <v>945000</v>
+      </c>
+      <c r="E90" s="3">
+        <v>350000</v>
+      </c>
+      <c r="F90" s="3">
+        <f t="shared" si="11"/>
+        <v>6465000</v>
+      </c>
+      <c r="G90" s="3">
+        <f t="shared" si="12"/>
+        <v>7758000</v>
+      </c>
+      <c r="H90" s="3">
+        <f t="shared" si="13"/>
+        <v>8081250</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K90" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N89" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="O89" s="13" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B90" s="94" t="s">
-        <v>244</v>
-      </c>
-      <c r="C90" s="3">
-        <v>5170000</v>
-      </c>
-      <c r="E90" s="3">
-        <v>350000</v>
-      </c>
-      <c r="F90" s="3">
-        <f t="shared" si="11"/>
-        <v>5520000</v>
-      </c>
-      <c r="G90" s="3">
-        <f t="shared" si="12"/>
-        <v>6624000</v>
-      </c>
-      <c r="H90" s="3">
-        <f t="shared" si="13"/>
-        <v>6900000</v>
-      </c>
-      <c r="K90" s="3">
-        <f t="shared" si="15"/>
-        <v>-5520000</v>
-      </c>
       <c r="N90" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O90" s="13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" s="121" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="119"/>
+      <c r="B91" s="95" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91" s="92"/>
-      <c r="B91" s="95" t="s">
-        <v>230</v>
-      </c>
-      <c r="C91" s="3">
+      <c r="C91" s="120">
         <v>157</v>
       </c>
-      <c r="F91" s="3">
+      <c r="D91" s="120"/>
+      <c r="E91" s="120"/>
+      <c r="F91" s="120">
         <f t="shared" si="11"/>
         <v>157</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="120">
         <f t="shared" si="12"/>
         <v>188.4</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="120">
         <f t="shared" si="13"/>
         <v>196.25</v>
       </c>
-      <c r="K91" s="3">
+      <c r="I91" s="120"/>
+      <c r="J91" s="120"/>
+      <c r="K91" s="120">
         <f t="shared" si="15"/>
         <v>-157</v>
       </c>
-      <c r="O91" s="13" t="s">
+      <c r="O91" s="122" t="s">
+        <v>230</v>
+      </c>
+      <c r="P91" s="123"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B92" s="55" t="s">
         <v>231</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B92" s="55" t="s">
-        <v>232</v>
       </c>
       <c r="C92" s="3">
         <v>3442800</v>
@@ -5385,12 +5432,12 @@
         <v>-3442800</v>
       </c>
       <c r="O92" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B93" s="55" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B93" s="55" t="s">
-        <v>234</v>
       </c>
       <c r="C93" s="3">
         <v>5312000</v>
@@ -5415,66 +5462,76 @@
         <v>-5962000</v>
       </c>
       <c r="O93" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" s="121" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="96" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B94" s="96" t="s">
-        <v>236</v>
-      </c>
-      <c r="C94" s="3">
+      <c r="C94" s="120">
         <v>229</v>
       </c>
-      <c r="F94" s="3">
+      <c r="D94" s="120"/>
+      <c r="E94" s="120"/>
+      <c r="F94" s="120">
         <f t="shared" si="11"/>
         <v>229</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="120">
         <f t="shared" si="12"/>
         <v>274.8</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="120">
         <f t="shared" si="13"/>
         <v>286.25</v>
       </c>
-      <c r="K94" s="3">
+      <c r="I94" s="120"/>
+      <c r="J94" s="120"/>
+      <c r="K94" s="120">
         <f t="shared" si="15"/>
         <v>-229</v>
       </c>
-      <c r="O94" s="13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O94" s="122" t="s">
+        <v>239</v>
+      </c>
+      <c r="P94" s="123"/>
+    </row>
+    <row r="95" spans="1:16" s="121" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B95" s="96" t="s">
-        <v>237</v>
-      </c>
-      <c r="C95" s="3">
+        <v>236</v>
+      </c>
+      <c r="C95" s="120">
         <v>280</v>
       </c>
-      <c r="F95" s="3">
+      <c r="D95" s="120"/>
+      <c r="E95" s="120"/>
+      <c r="F95" s="120">
         <f t="shared" si="11"/>
         <v>280</v>
       </c>
-      <c r="G95" s="3">
+      <c r="G95" s="120">
         <f t="shared" si="12"/>
         <v>336</v>
       </c>
-      <c r="H95" s="3">
+      <c r="H95" s="120">
         <f t="shared" si="13"/>
         <v>350</v>
       </c>
-      <c r="K95" s="3">
+      <c r="I95" s="120"/>
+      <c r="J95" s="120"/>
+      <c r="K95" s="120">
         <f t="shared" si="15"/>
         <v>-280</v>
       </c>
-      <c r="O95" s="13" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O95" s="122" t="s">
+        <v>238</v>
+      </c>
+      <c r="P95" s="123"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B96" s="55" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C96" s="3">
         <v>4018000</v>
@@ -5495,13 +5552,13 @@
         <f t="shared" si="15"/>
         <v>-4018000</v>
       </c>
-      <c r="O96" s="108" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O96" s="125" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97" s="55" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C97" s="3">
         <v>3713000</v>
@@ -5522,11 +5579,11 @@
         <f t="shared" si="15"/>
         <v>-3713000</v>
       </c>
-      <c r="O97" s="109"/>
-    </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O97" s="126"/>
+    </row>
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98" s="55" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C98" s="3">
         <v>6110000</v>
@@ -5548,12 +5605,12 @@
         <v>-6110000</v>
       </c>
       <c r="O98" s="13" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99" s="55" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C99" s="3">
         <v>3420000</v>
@@ -5575,12 +5632,12 @@
         <v>-3420000</v>
       </c>
       <c r="O99" s="107" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="100" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="100" spans="2:16" ht="30" x14ac:dyDescent="0.25">
       <c r="B100" s="55" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C100" s="3">
         <v>3315000</v>
@@ -5602,77 +5659,100 @@
         <v>-3315000</v>
       </c>
     </row>
-    <row r="101" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:16" s="121" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B101" s="96" t="s">
-        <v>259</v>
-      </c>
-      <c r="C101" s="3">
+        <v>257</v>
+      </c>
+      <c r="C101" s="120">
         <v>98</v>
       </c>
-      <c r="F101" s="3">
+      <c r="D101" s="120"/>
+      <c r="E101" s="120"/>
+      <c r="F101" s="120">
         <f t="shared" si="11"/>
         <v>98</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101" s="120">
         <f t="shared" si="12"/>
         <v>117.6</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101" s="120">
         <f t="shared" si="13"/>
         <v>122.5</v>
       </c>
-      <c r="K101" s="3">
+      <c r="I101" s="120"/>
+      <c r="J101" s="120"/>
+      <c r="K101" s="120">
         <f t="shared" si="15"/>
         <v>-98</v>
       </c>
-    </row>
-    <row r="102" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O101" s="122"/>
+      <c r="P101" s="123"/>
+    </row>
+    <row r="102" spans="2:16" s="121" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B102" s="96" t="s">
-        <v>260</v>
-      </c>
-      <c r="C102" s="3">
+        <v>258</v>
+      </c>
+      <c r="C102" s="120">
         <v>219</v>
       </c>
-      <c r="F102" s="3">
+      <c r="D102" s="120"/>
+      <c r="E102" s="120"/>
+      <c r="F102" s="120">
         <f t="shared" si="11"/>
         <v>219</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G102" s="120">
         <f t="shared" si="12"/>
         <v>262.8</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102" s="120">
         <f t="shared" si="13"/>
         <v>273.75</v>
       </c>
-      <c r="K102" s="3">
+      <c r="I102" s="120"/>
+      <c r="J102" s="120"/>
+      <c r="K102" s="120">
         <f t="shared" si="15"/>
         <v>-219</v>
       </c>
-    </row>
-    <row r="103" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O102" s="122"/>
+      <c r="P102" s="123"/>
+    </row>
+    <row r="103" spans="2:16" ht="30" x14ac:dyDescent="0.25">
       <c r="B103" s="55" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="104" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="104" spans="2:16" s="121" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B104" s="96" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="C104" s="120"/>
+      <c r="D104" s="120"/>
+      <c r="E104" s="120"/>
+      <c r="F104" s="120"/>
+      <c r="G104" s="120"/>
+      <c r="H104" s="120"/>
+      <c r="I104" s="120"/>
+      <c r="J104" s="120"/>
+      <c r="K104" s="120"/>
+      <c r="O104" s="122"/>
+      <c r="P104" s="123"/>
+    </row>
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F106" s="65"/>
     </row>
-    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F108" s="65"/>
     </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F109" s="51"/>
     </row>
-    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F111" s="46"/>
     </row>
-    <row r="112" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F112" s="32"/>
     </row>
     <row r="114" spans="6:6" x14ac:dyDescent="0.25">
@@ -5691,12 +5771,12 @@
     <mergeCell ref="O96:O97"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="C2:G2 H2:N17 B2:B25 Q2:Q39 C3:E25 F3:G27 D26:E38 D39:F39 C40:F41 Q42:Q43 P44:P49 C29:F38 L42:N69 Q50:Q69 L18:N39 D42:F57 F28 L71:N72 K3:K72 D59:F69 E58:F58 D71:F72 I71:J72 H18:J65 G28:G72 I66:J69 H66:H72 D75:J78 K75:K79 L75:N78 Q71:Q78 O2:O22 P2:P25 O26:P26 O29:P38 L40:Q41 D73:N74">
+  <conditionalFormatting sqref="C2:G2 H2:N17 O2:O22 B2:B25 P2:P25 Q2:Q39 C3:E25 F3:G27 K3:K72 L18:N39 H18:J65 O26:P26 D26:E38 F28 G28:G72 C29:F38 O29:P38 D39:F39 C40:F41 L40:Q41 Q42:Q43 D42:F57 L42:N69 P44:P49 Q50:Q69 E58:F58 D59:F69 I66:J69 H66:H72 D71:F72 I71:J72 L71:N72 Q71:Q78 D73:N74 D75:J78 L75:N78 K75:K79">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>MOD(ROW(),2)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F116:F120 F103:F114">
+  <conditionalFormatting sqref="F103:F114 F116:F120">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)&gt;0</formula>
     </cfRule>
@@ -5783,7 +5863,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B8" s="1">
         <v>300000</v>

--- a/TDStore/NhapXuatLaptop.xlsx
+++ b/TDStore/NhapXuatLaptop.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01.GIT\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA27893-0148-4044-8AC8-CAB491F2970A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469B2B4D-9EE8-45B2-958B-2ACF14D34C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="294">
   <si>
     <t>ID máy</t>
   </si>
@@ -805,15 +805,9 @@
     <t>Apple AirPods Pro 2nd Generation with Active Noise Cancellation White USED US $140.41</t>
   </si>
   <si>
-    <t>Dell XPS 13 9370 Core i5-8250U 1.60GHz 8GB RAM 256GB SSD Win 11 Pro Parts/Repair US $80.00</t>
-  </si>
-  <si>
     <t>Microsoft Surface Laptop 3 1867 2256x1504 i7-1065G7 128GB SSD 16GB RAM NO OS US $219.99</t>
   </si>
   <si>
-    <t>Dell XPS 13 9380 13.3" i5-8265U CPU @ 1.60 GHz, 8192MB (8GB) RAM, NO HDD, USED US $161.38</t>
-  </si>
-  <si>
     <t>Dell XPS 13 9380 13.3" i5-8265U CPU @ 1.60 GHz, 8192MB (8GB) RAM, NO HDD, USED US $127.50</t>
   </si>
   <si>
@@ -830,6 +824,96 @@
   </si>
   <si>
     <t>780895114100</t>
+  </si>
+  <si>
+    <t>1Z14V5340336427476</t>
+  </si>
+  <si>
+    <t>9405508205499132754628</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7400 i5 16GB Ram 256GB M.2 1920x1080 3 Year 150$</t>
+  </si>
+  <si>
+    <t>781558483981</t>
+  </si>
+  <si>
+    <t>1Z14V5340324285455</t>
+  </si>
+  <si>
+    <t>Dell XPS 13 9380 13.3" i5-8265U CPU @ 1.60 GHz, 8192MB (8GB) RAM, NO HDD, USED US  $182.23</t>
+  </si>
+  <si>
+    <t>9405508205498008424160</t>
+  </si>
+  <si>
+    <t>HP Pavilion Gaming 15-ec1000 15.6" (512GB SSD, AMD Ryzen 5 4600H, 3.00GHz,...</t>
+  </si>
+  <si>
+    <t>Surface Laptop 2 i5 8gb 256gb</t>
+  </si>
+  <si>
+    <t>9405508205499143518592</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 13 7306 2n1 13.3 inch (256GB, Intel Core i5 1135G7, 8GB RAM)</t>
+  </si>
+  <si>
+    <t>9405508205496999908409</t>
+  </si>
+  <si>
+    <t>1ZY693780332905098</t>
+  </si>
+  <si>
+    <t>14" HP Pavilion X360, i5-1135G7 2.40GHz, 8GB, 256GB SSD, Touchscreen</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7400 Intel Core i7-8665U 1.9GHz 16GB RAM 14"</t>
+  </si>
+  <si>
+    <t>9405511206215381999936</t>
+  </si>
+  <si>
+    <t>HP 15-ed1055wm ENVY x360 Convertible FHD Touchscreen i5-1135G7 2.4 GHz 8808</t>
+  </si>
+  <si>
+    <t>781916007663</t>
+  </si>
+  <si>
+    <t>HP ENVY ×360 Convertible 15-es0xxx</t>
+  </si>
+  <si>
+    <t>9405508205498019636774</t>
+  </si>
+  <si>
+    <t>DELL LATITUDE 7400 LAPTOP 256GB SSD 8GB RAM i5-8365U 1.90GHz Notebook</t>
+  </si>
+  <si>
+    <t>781990220253</t>
+  </si>
+  <si>
+    <t>LENOVO THINKPAD L14 GEN 1 LAPTOP i5-10210U 1.60GHz 16GB RAM 256GB SSD</t>
+  </si>
+  <si>
+    <t>Surface Laptop 2 1769 13" i5-8350U 1.7GHz 8GB DDR3 256GB NVMe NO OS - Grade A-</t>
+  </si>
+  <si>
+    <t>9405508205499175431333</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 13 5310 13.3" (512GB SSD, Intel Core i5-11320H, 2.50GHz, 16GB RAM</t>
+  </si>
+  <si>
+    <t>1ZAC98180367391144</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7400 Intel i5-8365U 1.60 GHZ 16GB RAM 512GB SSD WINDOWS 10 PRO</t>
+  </si>
+  <si>
+    <t>1ZAC98180337757449</t>
+  </si>
+  <si>
+    <t>HP Elitebook 830 G8 - 256 GB - 11th Gen Intel Core i5-1145G7 - Great Condition</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1143,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1327,6 +1411,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1441,6 +1530,55 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="609600" y="6867525"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 1" descr="HP Pavilion Gaming 15-ec1000 15.6&quot; (512GB SSD, AMD Ryzen 5 4600H, 3.00GHz,...">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37079168-9C7D-C17F-13B2-D8C16B750114}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="6229350"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1726,11 +1864,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q118"/>
+  <dimension ref="A1:Q117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E96" sqref="E96"/>
+      <selection pane="bottomLeft" activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3121,7 +3259,7 @@
         <v>11000000</v>
       </c>
       <c r="K34" s="3">
-        <f t="shared" ref="K34:K65" si="7">I34-J34-F34</f>
+        <f t="shared" ref="K34:K74" si="7">I34-J34-F34</f>
         <v>850897</v>
       </c>
       <c r="O34" s="13" t="s">
@@ -4415,7 +4553,7 @@
         <v>3139687.5</v>
       </c>
       <c r="K66" s="3">
-        <f t="shared" ref="K66:K72" si="10">I66-J66-F66</f>
+        <f t="shared" si="7"/>
         <v>-2511750</v>
       </c>
       <c r="O66" s="16" t="s">
@@ -4455,8 +4593,8 @@
         <v>224</v>
       </c>
       <c r="J67" s="65"/>
-      <c r="K67" s="65" t="e">
-        <f t="shared" si="10"/>
+      <c r="K67" s="3" t="e">
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="O67" s="67" t="s">
@@ -4493,7 +4631,7 @@
         <v>5800000</v>
       </c>
       <c r="K68" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1570000</v>
       </c>
       <c r="L68" s="2" t="s">
@@ -4536,7 +4674,7 @@
         <v>10700000</v>
       </c>
       <c r="K69" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2447500</v>
       </c>
       <c r="O69" s="16" t="s">
@@ -4574,12 +4712,12 @@
         <v>4000000</v>
       </c>
       <c r="J70" s="86"/>
-      <c r="K70" s="86">
-        <f t="shared" si="10"/>
+      <c r="K70" s="3">
+        <f t="shared" si="7"/>
         <v>214500</v>
       </c>
       <c r="L70" s="87" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M70" s="87"/>
       <c r="N70" s="87"/>
@@ -4621,11 +4759,11 @@
         <v>8000000</v>
       </c>
       <c r="K71" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2405500</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O71" s="16" t="s">
         <v>178</v>
@@ -4662,8 +4800,8 @@
         <v>5500000</v>
       </c>
       <c r="J72" s="109"/>
-      <c r="K72" s="109">
-        <f t="shared" si="10"/>
+      <c r="K72" s="3">
+        <f t="shared" si="7"/>
         <v>1400000</v>
       </c>
       <c r="L72" s="111" t="s">
@@ -4691,31 +4829,31 @@
         <v>450000</v>
       </c>
       <c r="F73" s="3">
-        <f t="shared" ref="F73:F102" si="11">C73+D73+E73</f>
+        <f t="shared" ref="F73:F102" si="10">C73+D73+E73</f>
         <v>4550000</v>
       </c>
       <c r="G73" s="28">
-        <f t="shared" ref="G73:G102" si="12">(F73*20%)+F73</f>
+        <f t="shared" ref="G73:G102" si="11">(F73*20%)+F73</f>
         <v>5460000</v>
       </c>
       <c r="H73" s="3">
-        <f t="shared" ref="H73:H102" si="13">(F73*25%)+F73</f>
+        <f t="shared" ref="H73:H102" si="12">(F73*25%)+F73</f>
         <v>5687500</v>
       </c>
       <c r="I73" s="3">
         <v>8000000</v>
       </c>
       <c r="K73" s="3">
-        <f t="shared" ref="K73:K78" si="14">I73-J73-F73</f>
+        <f t="shared" si="7"/>
         <v>3450000</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O73" s="124"/>
       <c r="P73" s="17"/>
     </row>
-    <row r="74" spans="1:17" s="92" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" s="92" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="113">
         <v>73</v>
       </c>
@@ -4732,24 +4870,25 @@
         <v>150000</v>
       </c>
       <c r="F74" s="115">
+        <f t="shared" si="10"/>
+        <v>4250000</v>
+      </c>
+      <c r="G74" s="115">
         <f t="shared" si="11"/>
-        <v>4250000</v>
-      </c>
-      <c r="G74" s="115">
+        <v>5100000</v>
+      </c>
+      <c r="H74" s="115">
         <f t="shared" si="12"/>
-        <v>5100000</v>
-      </c>
-      <c r="H74" s="115">
-        <f t="shared" si="13"/>
         <v>5312500</v>
       </c>
-      <c r="I74" s="115"/>
+      <c r="I74" s="115">
+        <v>5000000</v>
+      </c>
       <c r="J74" s="115"/>
-      <c r="K74" s="115">
-        <f t="shared" si="14"/>
-        <v>-4250000</v>
-      </c>
-      <c r="L74" s="117"/>
+      <c r="K74" s="3">
+        <f t="shared" si="7"/>
+        <v>750000</v>
+      </c>
       <c r="M74" s="117"/>
       <c r="N74" s="117"/>
       <c r="O74" s="124"/>
@@ -4769,22 +4908,22 @@
         <v>780000</v>
       </c>
       <c r="F75" s="3">
+        <f t="shared" si="10"/>
+        <v>7754748</v>
+      </c>
+      <c r="G75" s="28">
         <f t="shared" si="11"/>
-        <v>7754748</v>
-      </c>
-      <c r="G75" s="28">
+        <v>9305697.5999999996</v>
+      </c>
+      <c r="H75" s="3">
         <f t="shared" si="12"/>
-        <v>9305697.5999999996</v>
-      </c>
-      <c r="H75" s="3">
-        <f t="shared" si="13"/>
         <v>9693435</v>
       </c>
       <c r="I75" s="3">
         <v>10800000</v>
       </c>
       <c r="K75" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="K75:K78" si="13">I75-J75-F75</f>
         <v>3045252</v>
       </c>
       <c r="L75" s="2" t="s">
@@ -4809,19 +4948,19 @@
         <v>51250</v>
       </c>
       <c r="F76" s="3">
+        <f t="shared" si="10"/>
+        <v>2239250</v>
+      </c>
+      <c r="G76" s="28">
         <f t="shared" si="11"/>
-        <v>2239250</v>
-      </c>
-      <c r="G76" s="28">
+        <v>2687100</v>
+      </c>
+      <c r="H76" s="3">
         <f t="shared" si="12"/>
-        <v>2687100</v>
-      </c>
-      <c r="H76" s="3">
+        <v>2799062.5</v>
+      </c>
+      <c r="K76" s="3">
         <f t="shared" si="13"/>
-        <v>2799062.5</v>
-      </c>
-      <c r="K76" s="3">
-        <f t="shared" si="14"/>
         <v>-2239250</v>
       </c>
       <c r="O76" s="16" t="s">
@@ -4846,22 +4985,22 @@
         <v>350000</v>
       </c>
       <c r="F77" s="3">
+        <f t="shared" si="10"/>
+        <v>6816000</v>
+      </c>
+      <c r="G77" s="28">
         <f t="shared" si="11"/>
-        <v>6816000</v>
-      </c>
-      <c r="G77" s="28">
+        <v>8179200</v>
+      </c>
+      <c r="H77" s="3">
         <f t="shared" si="12"/>
-        <v>8179200</v>
-      </c>
-      <c r="H77" s="3">
-        <f t="shared" si="13"/>
         <v>8520000</v>
       </c>
       <c r="I77" s="3">
         <v>8500000</v>
       </c>
       <c r="K77" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1684000</v>
       </c>
       <c r="O77" s="16" t="s">
@@ -4890,22 +5029,22 @@
         <v>6665500</v>
       </c>
       <c r="G78" s="3">
+        <f t="shared" si="11"/>
+        <v>7998600</v>
+      </c>
+      <c r="H78" s="3">
         <f t="shared" si="12"/>
-        <v>7998600</v>
-      </c>
-      <c r="H78" s="3">
-        <f t="shared" si="13"/>
         <v>8331875</v>
       </c>
       <c r="I78" s="3">
         <v>7250000</v>
       </c>
       <c r="K78" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>584500</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="N78" s="2" t="s">
         <v>251</v>
@@ -4929,15 +5068,15 @@
         <v>52000</v>
       </c>
       <c r="F79" s="3">
+        <f t="shared" si="10"/>
+        <v>2560000</v>
+      </c>
+      <c r="G79" s="3">
         <f t="shared" si="11"/>
-        <v>2560000</v>
-      </c>
-      <c r="G79" s="3">
+        <v>3072000</v>
+      </c>
+      <c r="H79" s="3">
         <f t="shared" si="12"/>
-        <v>3072000</v>
-      </c>
-      <c r="H79" s="3">
-        <f t="shared" si="13"/>
         <v>3200000</v>
       </c>
       <c r="K79" s="3">
@@ -4965,15 +5104,15 @@
         <v>350000</v>
       </c>
       <c r="F80" s="3">
+        <f t="shared" si="10"/>
+        <v>8479999</v>
+      </c>
+      <c r="G80" s="3">
         <f t="shared" si="11"/>
-        <v>8479999</v>
-      </c>
-      <c r="G80" s="3">
+        <v>10175998.800000001</v>
+      </c>
+      <c r="H80" s="3">
         <f t="shared" si="12"/>
-        <v>10175998.800000001</v>
-      </c>
-      <c r="H80" s="3">
-        <f t="shared" si="13"/>
         <v>10599998.75</v>
       </c>
       <c r="I80" s="3">
@@ -5007,22 +5146,22 @@
         <v>350000</v>
       </c>
       <c r="F81" s="3">
+        <f t="shared" si="10"/>
+        <v>8458500</v>
+      </c>
+      <c r="G81" s="3">
         <f t="shared" si="11"/>
-        <v>8458500</v>
-      </c>
-      <c r="G81" s="3">
+        <v>10150200</v>
+      </c>
+      <c r="H81" s="3">
         <f t="shared" si="12"/>
-        <v>10150200</v>
-      </c>
-      <c r="H81" s="3">
-        <f t="shared" si="13"/>
         <v>10573125</v>
       </c>
       <c r="I81" s="3">
         <v>10500000</v>
       </c>
       <c r="K81" s="3">
-        <f t="shared" ref="K81:K102" si="15">I81-J81-F81</f>
+        <f t="shared" ref="K81:K102" si="14">I81-J81-F81</f>
         <v>2041500</v>
       </c>
       <c r="L81" s="2" t="s">
@@ -5046,22 +5185,22 @@
         <v>903500</v>
       </c>
       <c r="F82" s="3">
+        <f t="shared" si="10"/>
+        <v>8191500</v>
+      </c>
+      <c r="G82" s="3">
         <f t="shared" si="11"/>
-        <v>8191500</v>
-      </c>
-      <c r="G82" s="3">
+        <v>9829800</v>
+      </c>
+      <c r="H82" s="3">
         <f t="shared" si="12"/>
-        <v>9829800</v>
-      </c>
-      <c r="H82" s="3">
-        <f t="shared" si="13"/>
         <v>10239375</v>
       </c>
       <c r="I82" s="3">
         <v>10250000</v>
       </c>
       <c r="K82" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2058500</v>
       </c>
       <c r="L82" s="2" t="s">
@@ -5085,22 +5224,22 @@
         <v>1047000</v>
       </c>
       <c r="F83" s="3">
+        <f t="shared" si="10"/>
+        <v>5356000</v>
+      </c>
+      <c r="G83" s="3">
         <f t="shared" si="11"/>
-        <v>5356000</v>
-      </c>
-      <c r="G83" s="3">
+        <v>6427200</v>
+      </c>
+      <c r="H83" s="3">
         <f t="shared" si="12"/>
-        <v>6427200</v>
-      </c>
-      <c r="H83" s="3">
-        <f t="shared" si="13"/>
         <v>6695000</v>
       </c>
       <c r="I83" s="3">
         <v>6300000</v>
       </c>
       <c r="K83" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>944000</v>
       </c>
       <c r="L83" s="2" t="s">
@@ -5124,19 +5263,19 @@
         <v>51250</v>
       </c>
       <c r="F84" s="3">
+        <f t="shared" si="10"/>
+        <v>2650250</v>
+      </c>
+      <c r="G84" s="3">
         <f t="shared" si="11"/>
-        <v>2650250</v>
-      </c>
-      <c r="G84" s="3">
+        <v>3180300</v>
+      </c>
+      <c r="H84" s="3">
         <f t="shared" si="12"/>
-        <v>3180300</v>
-      </c>
-      <c r="H84" s="3">
-        <f t="shared" si="13"/>
         <v>3312812.5</v>
       </c>
       <c r="K84" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-2650250</v>
       </c>
       <c r="O84" s="13" t="s">
@@ -5160,19 +5299,19 @@
         <v>700000</v>
       </c>
       <c r="F85" s="3">
+        <f t="shared" si="10"/>
+        <v>5605000</v>
+      </c>
+      <c r="G85" s="3">
         <f t="shared" si="11"/>
-        <v>5605000</v>
-      </c>
-      <c r="G85" s="3">
+        <v>6726000</v>
+      </c>
+      <c r="H85" s="3">
         <f t="shared" si="12"/>
-        <v>6726000</v>
-      </c>
-      <c r="H85" s="3">
-        <f t="shared" si="13"/>
         <v>7006250</v>
       </c>
       <c r="K85" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-5605000</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -5199,19 +5338,19 @@
         <v>900000</v>
       </c>
       <c r="F86" s="3">
+        <f t="shared" si="10"/>
+        <v>5629500</v>
+      </c>
+      <c r="G86" s="3">
         <f t="shared" si="11"/>
-        <v>5629500</v>
-      </c>
-      <c r="G86" s="3">
+        <v>6755400</v>
+      </c>
+      <c r="H86" s="3">
         <f t="shared" si="12"/>
-        <v>6755400</v>
-      </c>
-      <c r="H86" s="3">
-        <f t="shared" si="13"/>
         <v>7036875</v>
       </c>
       <c r="K86" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-5629500</v>
       </c>
       <c r="O86" s="107" t="s">
@@ -5232,22 +5371,22 @@
         <v>821500</v>
       </c>
       <c r="F87" s="3">
+        <f t="shared" si="10"/>
+        <v>6407500</v>
+      </c>
+      <c r="G87" s="3">
         <f t="shared" si="11"/>
-        <v>6407500</v>
-      </c>
-      <c r="G87" s="3">
+        <v>7689000</v>
+      </c>
+      <c r="H87" s="3">
         <f t="shared" si="12"/>
-        <v>7689000</v>
-      </c>
-      <c r="H87" s="3">
-        <f t="shared" si="13"/>
         <v>8009375</v>
       </c>
       <c r="I87" s="3">
         <v>10600000</v>
       </c>
       <c r="K87" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>4192500</v>
       </c>
       <c r="L87" s="2" t="s">
@@ -5272,29 +5411,29 @@
         <v>750000</v>
       </c>
       <c r="F88" s="3">
+        <f t="shared" si="10"/>
+        <v>6210000</v>
+      </c>
+      <c r="G88" s="3">
         <f t="shared" si="11"/>
-        <v>6210000</v>
-      </c>
-      <c r="G88" s="3">
+        <v>7452000</v>
+      </c>
+      <c r="H88" s="3">
         <f t="shared" si="12"/>
-        <v>7452000</v>
-      </c>
-      <c r="H88" s="3">
-        <f t="shared" si="13"/>
         <v>7762500</v>
       </c>
       <c r="I88" s="3" t="s">
         <v>189</v>
       </c>
       <c r="K88" s="3" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="N88" s="2" t="s">
         <v>247</v>
       </c>
       <c r="O88" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
@@ -5311,22 +5450,22 @@
         <v>750000</v>
       </c>
       <c r="F89" s="3">
+        <f t="shared" si="10"/>
+        <v>5951000</v>
+      </c>
+      <c r="G89" s="3">
         <f t="shared" si="11"/>
-        <v>5951000</v>
-      </c>
-      <c r="G89" s="3">
+        <v>7141200</v>
+      </c>
+      <c r="H89" s="3">
         <f t="shared" si="12"/>
-        <v>7141200</v>
-      </c>
-      <c r="H89" s="3">
-        <f t="shared" si="13"/>
         <v>7438750</v>
       </c>
       <c r="I89" s="3">
         <v>8350000</v>
       </c>
       <c r="K89" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2399000</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -5350,22 +5489,22 @@
         <v>350000</v>
       </c>
       <c r="F90" s="3">
+        <f t="shared" si="10"/>
+        <v>6465000</v>
+      </c>
+      <c r="G90" s="3">
         <f t="shared" si="11"/>
-        <v>6465000</v>
-      </c>
-      <c r="G90" s="3">
+        <v>7758000</v>
+      </c>
+      <c r="H90" s="3">
         <f t="shared" si="12"/>
-        <v>7758000</v>
-      </c>
-      <c r="H90" s="3">
-        <f t="shared" si="13"/>
         <v>8081250</v>
       </c>
       <c r="I90" s="3" t="s">
         <v>110</v>
       </c>
       <c r="K90" s="3" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -5386,21 +5525,21 @@
       <c r="D91" s="120"/>
       <c r="E91" s="120"/>
       <c r="F91" s="120">
+        <f t="shared" si="10"/>
+        <v>157</v>
+      </c>
+      <c r="G91" s="120">
         <f t="shared" si="11"/>
-        <v>157</v>
-      </c>
-      <c r="G91" s="120">
+        <v>188.4</v>
+      </c>
+      <c r="H91" s="120">
         <f t="shared" si="12"/>
-        <v>188.4</v>
-      </c>
-      <c r="H91" s="120">
-        <f t="shared" si="13"/>
         <v>196.25</v>
       </c>
       <c r="I91" s="120"/>
       <c r="J91" s="120"/>
       <c r="K91" s="120">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-157</v>
       </c>
       <c r="O91" s="122" t="s">
@@ -5416,19 +5555,19 @@
         <v>3442800</v>
       </c>
       <c r="F92" s="3">
+        <f t="shared" si="10"/>
+        <v>3442800</v>
+      </c>
+      <c r="G92" s="3">
         <f t="shared" si="11"/>
-        <v>3442800</v>
-      </c>
-      <c r="G92" s="3">
+        <v>4131360</v>
+      </c>
+      <c r="H92" s="3">
         <f t="shared" si="12"/>
-        <v>4131360</v>
-      </c>
-      <c r="H92" s="3">
-        <f t="shared" si="13"/>
         <v>4303500</v>
       </c>
       <c r="K92" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-3442800</v>
       </c>
       <c r="O92" s="13" t="s">
@@ -5446,26 +5585,26 @@
         <v>650000</v>
       </c>
       <c r="F93" s="3">
+        <f t="shared" si="10"/>
+        <v>5962000</v>
+      </c>
+      <c r="G93" s="3">
         <f t="shared" si="11"/>
-        <v>5962000</v>
-      </c>
-      <c r="G93" s="3">
+        <v>7154400</v>
+      </c>
+      <c r="H93" s="3">
         <f t="shared" si="12"/>
-        <v>7154400</v>
-      </c>
-      <c r="H93" s="3">
-        <f t="shared" si="13"/>
         <v>7452500</v>
       </c>
       <c r="K93" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-5962000</v>
       </c>
       <c r="O93" s="13" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="94" spans="1:16" s="121" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" s="121" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B94" s="96" t="s">
         <v>235</v>
       </c>
@@ -5475,21 +5614,21 @@
       <c r="D94" s="120"/>
       <c r="E94" s="120"/>
       <c r="F94" s="120">
+        <f t="shared" si="10"/>
+        <v>229</v>
+      </c>
+      <c r="G94" s="120">
         <f t="shared" si="11"/>
-        <v>229</v>
-      </c>
-      <c r="G94" s="120">
+        <v>274.8</v>
+      </c>
+      <c r="H94" s="120">
         <f t="shared" si="12"/>
-        <v>274.8</v>
-      </c>
-      <c r="H94" s="120">
-        <f t="shared" si="13"/>
         <v>286.25</v>
       </c>
       <c r="I94" s="120"/>
       <c r="J94" s="120"/>
       <c r="K94" s="120">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-229</v>
       </c>
       <c r="O94" s="122" t="s">
@@ -5507,21 +5646,21 @@
       <c r="D95" s="120"/>
       <c r="E95" s="120"/>
       <c r="F95" s="120">
+        <f t="shared" si="10"/>
+        <v>280</v>
+      </c>
+      <c r="G95" s="120">
         <f t="shared" si="11"/>
-        <v>280</v>
-      </c>
-      <c r="G95" s="120">
+        <v>336</v>
+      </c>
+      <c r="H95" s="120">
         <f t="shared" si="12"/>
-        <v>336</v>
-      </c>
-      <c r="H95" s="120">
-        <f t="shared" si="13"/>
         <v>350</v>
       </c>
       <c r="I95" s="120"/>
       <c r="J95" s="120"/>
       <c r="K95" s="120">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-280</v>
       </c>
       <c r="O95" s="122" t="s">
@@ -5537,19 +5676,19 @@
         <v>4018000</v>
       </c>
       <c r="F96" s="3">
+        <f t="shared" si="10"/>
+        <v>4018000</v>
+      </c>
+      <c r="G96" s="3">
         <f t="shared" si="11"/>
-        <v>4018000</v>
-      </c>
-      <c r="G96" s="3">
+        <v>4821600</v>
+      </c>
+      <c r="H96" s="3">
         <f t="shared" si="12"/>
-        <v>4821600</v>
-      </c>
-      <c r="H96" s="3">
-        <f t="shared" si="13"/>
         <v>5022500</v>
       </c>
       <c r="K96" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-4018000</v>
       </c>
       <c r="O96" s="125" t="s">
@@ -5564,19 +5703,19 @@
         <v>3713000</v>
       </c>
       <c r="F97" s="3">
+        <f t="shared" si="10"/>
+        <v>3713000</v>
+      </c>
+      <c r="G97" s="3">
         <f t="shared" si="11"/>
-        <v>3713000</v>
-      </c>
-      <c r="G97" s="3">
+        <v>4455600</v>
+      </c>
+      <c r="H97" s="3">
         <f t="shared" si="12"/>
-        <v>4455600</v>
-      </c>
-      <c r="H97" s="3">
-        <f t="shared" si="13"/>
         <v>4641250</v>
       </c>
       <c r="K97" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-3713000</v>
       </c>
       <c r="O97" s="126"/>
@@ -5589,19 +5728,19 @@
         <v>6110000</v>
       </c>
       <c r="F98" s="3">
+        <f t="shared" si="10"/>
+        <v>6110000</v>
+      </c>
+      <c r="G98" s="3">
         <f t="shared" si="11"/>
-        <v>6110000</v>
-      </c>
-      <c r="G98" s="3">
+        <v>7332000</v>
+      </c>
+      <c r="H98" s="3">
         <f t="shared" si="12"/>
-        <v>7332000</v>
-      </c>
-      <c r="H98" s="3">
-        <f t="shared" si="13"/>
         <v>7637500</v>
       </c>
       <c r="K98" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-6110000</v>
       </c>
       <c r="O98" s="13" t="s">
@@ -5616,26 +5755,26 @@
         <v>3420000</v>
       </c>
       <c r="F99" s="3">
+        <f t="shared" si="10"/>
+        <v>3420000</v>
+      </c>
+      <c r="G99" s="3">
         <f t="shared" si="11"/>
-        <v>3420000</v>
-      </c>
-      <c r="G99" s="3">
+        <v>4104000</v>
+      </c>
+      <c r="H99" s="3">
         <f t="shared" si="12"/>
-        <v>4104000</v>
-      </c>
-      <c r="H99" s="3">
-        <f t="shared" si="13"/>
         <v>4275000</v>
       </c>
       <c r="K99" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-3420000</v>
       </c>
       <c r="O99" s="107" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="100" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B100" s="55" t="s">
         <v>256</v>
       </c>
@@ -5643,19 +5782,19 @@
         <v>3315000</v>
       </c>
       <c r="F100" s="3">
+        <f t="shared" si="10"/>
+        <v>3315000</v>
+      </c>
+      <c r="G100" s="3">
         <f t="shared" si="11"/>
-        <v>3315000</v>
-      </c>
-      <c r="G100" s="3">
+        <v>3978000</v>
+      </c>
+      <c r="H100" s="3">
         <f t="shared" si="12"/>
-        <v>3978000</v>
-      </c>
-      <c r="H100" s="3">
-        <f t="shared" si="13"/>
         <v>4143750</v>
       </c>
       <c r="K100" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-3315000</v>
       </c>
     </row>
@@ -5664,119 +5803,249 @@
         <v>257</v>
       </c>
       <c r="C101" s="120">
-        <v>98</v>
+        <v>219</v>
       </c>
       <c r="D101" s="120"/>
       <c r="E101" s="120"/>
       <c r="F101" s="120">
+        <f t="shared" si="10"/>
+        <v>219</v>
+      </c>
+      <c r="G101" s="120">
         <f t="shared" si="11"/>
-        <v>98</v>
-      </c>
-      <c r="G101" s="120">
+        <v>262.8</v>
+      </c>
+      <c r="H101" s="120">
         <f t="shared" si="12"/>
-        <v>117.6</v>
-      </c>
-      <c r="H101" s="120">
-        <f t="shared" si="13"/>
-        <v>122.5</v>
+        <v>273.75</v>
       </c>
       <c r="I101" s="120"/>
       <c r="J101" s="120"/>
       <c r="K101" s="120">
-        <f t="shared" si="15"/>
-        <v>-98</v>
-      </c>
-      <c r="O101" s="122"/>
+        <f t="shared" si="14"/>
+        <v>-219</v>
+      </c>
+      <c r="O101" s="107" t="s">
+        <v>267</v>
+      </c>
       <c r="P101" s="123"/>
     </row>
-    <row r="102" spans="2:16" s="121" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B102" s="96" t="s">
+    <row r="102" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="B102" s="55" t="s">
+        <v>269</v>
+      </c>
+      <c r="C102" s="3">
+        <v>4149000</v>
+      </c>
+      <c r="F102" s="3">
+        <f t="shared" si="10"/>
+        <v>4149000</v>
+      </c>
+      <c r="G102" s="3">
+        <f t="shared" si="11"/>
+        <v>4978800</v>
+      </c>
+      <c r="H102" s="3">
+        <f t="shared" si="12"/>
+        <v>5186250</v>
+      </c>
+      <c r="K102" s="3">
+        <f t="shared" si="14"/>
+        <v>-4149000</v>
+      </c>
+      <c r="O102" s="13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="103" spans="2:16" s="121" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B103" s="96" t="s">
         <v>258</v>
       </c>
-      <c r="C102" s="120">
-        <v>219</v>
-      </c>
-      <c r="D102" s="120"/>
-      <c r="E102" s="120"/>
-      <c r="F102" s="120">
-        <f t="shared" si="11"/>
-        <v>219</v>
-      </c>
-      <c r="G102" s="120">
-        <f t="shared" si="12"/>
-        <v>262.8</v>
-      </c>
-      <c r="H102" s="120">
-        <f t="shared" si="13"/>
-        <v>273.75</v>
-      </c>
-      <c r="I102" s="120"/>
-      <c r="J102" s="120"/>
-      <c r="K102" s="120">
-        <f t="shared" si="15"/>
-        <v>-219</v>
-      </c>
-      <c r="O102" s="122"/>
-      <c r="P102" s="123"/>
-    </row>
-    <row r="103" spans="2:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="B103" s="55" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="104" spans="2:16" s="121" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B104" s="96" t="s">
-        <v>260</v>
-      </c>
-      <c r="C104" s="120"/>
-      <c r="D104" s="120"/>
-      <c r="E104" s="120"/>
-      <c r="F104" s="120"/>
-      <c r="G104" s="120"/>
-      <c r="H104" s="120"/>
-      <c r="I104" s="120"/>
-      <c r="J104" s="120"/>
-      <c r="K104" s="120"/>
-      <c r="O104" s="122"/>
-      <c r="P104" s="123"/>
+      <c r="C103" s="120"/>
+      <c r="D103" s="120"/>
+      <c r="E103" s="120"/>
+      <c r="F103" s="120"/>
+      <c r="G103" s="120"/>
+      <c r="H103" s="120"/>
+      <c r="I103" s="120"/>
+      <c r="J103" s="120"/>
+      <c r="K103" s="120"/>
+      <c r="O103" s="127" t="s">
+        <v>264</v>
+      </c>
+      <c r="P103" s="123"/>
+    </row>
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B104" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="C104" s="3">
+        <v>3776000</v>
+      </c>
+      <c r="O104" s="13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B105" s="129" t="s">
+        <v>271</v>
+      </c>
+      <c r="C105" s="3">
+        <v>8208000</v>
+      </c>
+      <c r="F105" s="65"/>
+      <c r="O105" s="13" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F106" s="65"/>
+      <c r="B106" s="128" t="s">
+        <v>272</v>
+      </c>
+      <c r="C106" s="3">
+        <v>4012000</v>
+      </c>
+      <c r="O106" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B107" s="55" t="s">
+        <v>274</v>
+      </c>
+      <c r="C107" s="3">
+        <v>5540000</v>
+      </c>
+      <c r="F107" s="65"/>
+      <c r="O107" s="13" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F108" s="65"/>
+      <c r="B108" s="55" t="s">
+        <v>277</v>
+      </c>
+      <c r="C108" s="3">
+        <v>7080000</v>
+      </c>
+      <c r="F108" s="51"/>
+      <c r="O108" s="127" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F109" s="51"/>
+      <c r="B109" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="C109" s="3">
+        <v>4200000</v>
+      </c>
+      <c r="O109" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B110" s="55" t="s">
+        <v>280</v>
+      </c>
+      <c r="C110" s="3">
+        <v>7080000</v>
+      </c>
+      <c r="F110" s="46"/>
+      <c r="O110" s="13" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="111" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F111" s="46"/>
+      <c r="B111" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="C111" s="3">
+        <v>7150000</v>
+      </c>
+      <c r="F111" s="32"/>
+      <c r="O111" s="13" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="112" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F112" s="32"/>
-    </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F114" s="65"/>
-    </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F115" s="86"/>
-    </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F118" s="86"/>
+      <c r="B112" s="55" t="s">
+        <v>284</v>
+      </c>
+      <c r="C112" s="3">
+        <v>13776000</v>
+      </c>
+      <c r="O112" s="125" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B113" s="55" t="s">
+        <v>286</v>
+      </c>
+      <c r="C113" s="3">
+        <v>5166000</v>
+      </c>
+      <c r="F113" s="65"/>
+      <c r="O113" s="126"/>
+    </row>
+    <row r="114" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B114" s="55" t="s">
+        <v>287</v>
+      </c>
+      <c r="C114" s="3">
+        <v>3465000</v>
+      </c>
+      <c r="F114" s="86"/>
+      <c r="O114" s="13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="115" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B115" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="C115" s="3">
+        <v>7906000</v>
+      </c>
+      <c r="O115" s="13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="116" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B116" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="C116" s="3">
+        <v>13570000</v>
+      </c>
+      <c r="O116" s="13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="117" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B117" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="C117" s="3">
+        <v>7080000</v>
+      </c>
+      <c r="F117" s="86"/>
     </row>
   </sheetData>
   <autoFilter ref="L1:L80" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="O72:O74"/>
     <mergeCell ref="O96:O97"/>
+    <mergeCell ref="O112:O113"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="C2:G2 H2:N17 O2:O22 B2:B25 P2:P25 Q2:Q39 C3:E25 F3:G27 K3:K72 L18:N39 H18:J65 O26:P26 D26:E38 F28 G28:G72 C29:F38 O29:P38 D39:F39 C40:F41 L40:Q41 Q42:Q43 D42:F57 L42:N69 P44:P49 Q50:Q69 E58:F58 D59:F69 I66:J69 H66:H72 D71:F72 I71:J72 L71:N72 Q71:Q78 D73:N74 D75:J78 L75:N78 K75:K79">
+  <conditionalFormatting sqref="C2:G2 H2:N17 O2:O22 B2:B25 P2:P25 Q2:Q39 C3:E25 F3:G27 L18:N39 H18:J65 O26:P26 D26:E38 F28 G28:G72 C29:F38 O29:P38 D39:F39 C40:F41 L40:Q41 Q42:Q43 D42:F57 L42:N69 P44:P49 Q50:Q69 E58:F58 D59:F69 I66:J69 H66:H72 D71:F72 I71:J72 Q71:Q78 L75:N78 M74:N74 D73:J78 L71:N73 K3:K79">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>MOD(ROW(),2)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F103:F114 F116:F120">
+  <conditionalFormatting sqref="F102:F113 F115:F119">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)&gt;0</formula>
     </cfRule>

--- a/TDStore/NhapXuatLaptop.xlsx
+++ b/TDStore/NhapXuatLaptop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01.GIT\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469B2B4D-9EE8-45B2-958B-2ACF14D34C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D01C7A-B41C-4747-BEDA-76EB4FF6CDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="299">
   <si>
     <t>ID máy</t>
   </si>
@@ -914,6 +914,21 @@
   </si>
   <si>
     <t>HP Elitebook 830 G8 - 256 GB - 11th Gen Intel Core i5-1145G7 - Great Condition</t>
+  </si>
+  <si>
+    <t>Đạt bán cho anh Thanh</t>
+  </si>
+  <si>
+    <t>9405508205499187284118</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7420 I5 11-1145 G7, 16GB, 256GB</t>
+  </si>
+  <si>
+    <t>9405508205498038700685</t>
+  </si>
+  <si>
+    <t>Đạt bán khách ở quê</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1018,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1072,12 +1087,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1089,7 +1098,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1138,12 +1147,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1326,29 +1346,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1386,36 +1403,60 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1864,11 +1905,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q117"/>
+  <dimension ref="A1:Q123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C109" sqref="C109"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1882,7 +1923,7 @@
     <col min="9" max="9" width="11.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.140625" style="3" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" style="2" customWidth="1"/>
     <col min="13" max="13" width="11.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="27.28515625" style="13" customWidth="1"/>
@@ -3149,45 +3190,45 @@
       <c r="A32" s="70">
         <v>31</v>
       </c>
-      <c r="B32" s="97" t="s">
+      <c r="B32" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="98">
+      <c r="C32" s="97">
         <v>6651048</v>
       </c>
-      <c r="D32" s="98">
+      <c r="D32" s="97">
         <v>833000</v>
       </c>
-      <c r="E32" s="98">
+      <c r="E32" s="97">
         <v>300000</v>
       </c>
-      <c r="F32" s="98">
+      <c r="F32" s="97">
         <f t="shared" si="2"/>
         <v>7784048</v>
       </c>
-      <c r="G32" s="99">
+      <c r="G32" s="98">
         <f t="shared" si="6"/>
         <v>9340857.5999999996</v>
       </c>
-      <c r="H32" s="98">
+      <c r="H32" s="97">
         <f t="shared" si="5"/>
         <v>9730060</v>
       </c>
-      <c r="I32" s="98" t="s">
+      <c r="I32" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="J32" s="98"/>
-      <c r="K32" s="98" t="e">
+      <c r="J32" s="97"/>
+      <c r="K32" s="97" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L32" s="100"/>
-      <c r="M32" s="100"/>
-      <c r="N32" s="100"/>
-      <c r="O32" s="101" t="s">
+      <c r="L32" s="99"/>
+      <c r="M32" s="99"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="P32" s="102">
+      <c r="P32" s="101">
         <v>45022</v>
       </c>
     </row>
@@ -3946,45 +3987,45 @@
       <c r="A52" s="70">
         <v>51</v>
       </c>
-      <c r="B52" s="103" t="s">
+      <c r="B52" s="102" t="s">
         <v>136</v>
       </c>
-      <c r="C52" s="104">
+      <c r="C52" s="103">
         <v>4560000</v>
       </c>
-      <c r="D52" s="98">
+      <c r="D52" s="97">
         <v>985000</v>
       </c>
-      <c r="E52" s="98">
+      <c r="E52" s="97">
         <v>200000</v>
       </c>
-      <c r="F52" s="98">
+      <c r="F52" s="97">
         <f t="shared" si="8"/>
         <v>5745000</v>
       </c>
-      <c r="G52" s="99">
+      <c r="G52" s="98">
         <f t="shared" si="6"/>
         <v>6894000</v>
       </c>
-      <c r="H52" s="98">
+      <c r="H52" s="97">
         <f t="shared" si="9"/>
         <v>7181250</v>
       </c>
-      <c r="I52" s="98">
+      <c r="I52" s="97">
         <v>7500000</v>
       </c>
-      <c r="J52" s="98"/>
-      <c r="K52" s="98">
+      <c r="J52" s="97"/>
+      <c r="K52" s="97">
         <f t="shared" si="7"/>
         <v>1755000</v>
       </c>
-      <c r="L52" s="100"/>
-      <c r="M52" s="100"/>
-      <c r="N52" s="100"/>
-      <c r="O52" s="105" t="s">
+      <c r="L52" s="99"/>
+      <c r="M52" s="99"/>
+      <c r="N52" s="99"/>
+      <c r="O52" s="104" t="s">
         <v>137</v>
       </c>
-      <c r="P52" s="106"/>
+      <c r="P52" s="105"/>
     </row>
     <row r="53" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="74">
@@ -4770,47 +4811,47 @@
       </c>
       <c r="P71" s="17"/>
     </row>
-    <row r="72" spans="1:17" s="111" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" s="110" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="91">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C72" s="108">
+      <c r="C72" s="107">
         <v>3306000</v>
       </c>
-      <c r="D72" s="109">
+      <c r="D72" s="108">
         <v>794000</v>
       </c>
-      <c r="E72" s="109"/>
-      <c r="F72" s="109">
+      <c r="E72" s="108"/>
+      <c r="F72" s="108">
         <f t="shared" si="8"/>
         <v>4100000</v>
       </c>
-      <c r="G72" s="110">
+      <c r="G72" s="109">
         <f t="shared" si="6"/>
         <v>4920000</v>
       </c>
-      <c r="H72" s="109">
+      <c r="H72" s="108">
         <f t="shared" si="9"/>
         <v>5125000</v>
       </c>
-      <c r="I72" s="109">
+      <c r="I72" s="108">
         <v>5500000</v>
       </c>
-      <c r="J72" s="109"/>
+      <c r="J72" s="108"/>
       <c r="K72" s="3">
         <f t="shared" si="7"/>
         <v>1400000</v>
       </c>
-      <c r="L72" s="111" t="s">
+      <c r="L72" s="110" t="s">
         <v>216</v>
       </c>
-      <c r="O72" s="124" t="s">
+      <c r="O72" s="125" t="s">
         <v>191</v>
       </c>
-      <c r="P72" s="112"/>
+      <c r="P72" s="111"/>
     </row>
     <row r="73" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="81">
@@ -4829,15 +4870,15 @@
         <v>450000</v>
       </c>
       <c r="F73" s="3">
-        <f t="shared" ref="F73:F102" si="10">C73+D73+E73</f>
+        <f t="shared" ref="F73:F123" si="10">C73+D73+E73</f>
         <v>4550000</v>
       </c>
       <c r="G73" s="28">
-        <f t="shared" ref="G73:G102" si="11">(F73*20%)+F73</f>
+        <f t="shared" ref="G73:G122" si="11">(F73*20%)+F73</f>
         <v>5460000</v>
       </c>
       <c r="H73" s="3">
-        <f t="shared" ref="H73:H102" si="12">(F73*25%)+F73</f>
+        <f t="shared" ref="H73:H122" si="12">(F73*25%)+F73</f>
         <v>5687500</v>
       </c>
       <c r="I73" s="3">
@@ -4850,49 +4891,49 @@
       <c r="L73" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="O73" s="124"/>
+      <c r="O73" s="125"/>
       <c r="P73" s="17"/>
     </row>
     <row r="74" spans="1:17" s="92" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="113">
+      <c r="A74" s="112">
         <v>73</v>
       </c>
       <c r="B74" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="C74" s="114">
+      <c r="C74" s="113">
         <v>3306000</v>
       </c>
-      <c r="D74" s="115">
+      <c r="D74" s="114">
         <v>794000</v>
       </c>
-      <c r="E74" s="116">
+      <c r="E74" s="115">
         <v>150000</v>
       </c>
-      <c r="F74" s="115">
+      <c r="F74" s="114">
         <f t="shared" si="10"/>
         <v>4250000</v>
       </c>
-      <c r="G74" s="115">
+      <c r="G74" s="114">
         <f t="shared" si="11"/>
         <v>5100000</v>
       </c>
-      <c r="H74" s="115">
+      <c r="H74" s="114">
         <f t="shared" si="12"/>
         <v>5312500</v>
       </c>
-      <c r="I74" s="115">
+      <c r="I74" s="114">
         <v>5000000</v>
       </c>
-      <c r="J74" s="115"/>
+      <c r="J74" s="114"/>
       <c r="K74" s="3">
         <f t="shared" si="7"/>
         <v>750000</v>
       </c>
-      <c r="M74" s="117"/>
-      <c r="N74" s="117"/>
-      <c r="O74" s="124"/>
-      <c r="P74" s="118"/>
+      <c r="M74" s="116"/>
+      <c r="N74" s="116"/>
+      <c r="O74" s="125"/>
+      <c r="P74" s="117"/>
     </row>
     <row r="75" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="81">
@@ -5161,7 +5202,7 @@
         <v>10500000</v>
       </c>
       <c r="K81" s="3">
-        <f t="shared" ref="K81:K102" si="14">I81-J81-F81</f>
+        <f t="shared" ref="K81:K122" si="14">I81-J81-F81</f>
         <v>2041500</v>
       </c>
       <c r="L81" s="2" t="s">
@@ -5353,7 +5394,7 @@
         <f t="shared" si="14"/>
         <v>-5629500</v>
       </c>
-      <c r="O86" s="107" t="s">
+      <c r="O86" s="106" t="s">
         <v>213</v>
       </c>
     </row>
@@ -5436,47 +5477,52 @@
         <v>263</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B89" s="93" t="s">
+    <row r="89" spans="1:16" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="134" t="s">
         <v>226</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="135">
         <v>4400000</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="135">
         <v>801000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="135">
         <v>750000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="135">
         <f t="shared" si="10"/>
         <v>5951000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89" s="135">
         <f t="shared" si="11"/>
         <v>7141200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="135">
         <f t="shared" si="12"/>
         <v>7438750</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="135">
         <v>8350000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="J89" s="135"/>
+      <c r="K89" s="135">
         <f t="shared" si="14"/>
         <v>2399000</v>
       </c>
-      <c r="N89" s="2" t="s">
+      <c r="L89" s="133" t="s">
+        <v>298</v>
+      </c>
+      <c r="N89" s="133" t="s">
         <v>245</v>
       </c>
-      <c r="O89" s="13" t="s">
+      <c r="O89" s="136" t="s">
         <v>225</v>
       </c>
+      <c r="P89" s="137"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B90" s="94" t="s">
+      <c r="B90" s="93" t="s">
         <v>243</v>
       </c>
       <c r="C90" s="3">
@@ -5514,38 +5560,38 @@
         <v>228</v>
       </c>
     </row>
-    <row r="91" spans="1:16" s="121" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="119"/>
-      <c r="B91" s="95" t="s">
+    <row r="91" spans="1:16" s="120" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="118"/>
+      <c r="B91" s="94" t="s">
         <v>229</v>
       </c>
-      <c r="C91" s="120">
+      <c r="C91" s="119">
         <v>157</v>
       </c>
-      <c r="D91" s="120"/>
-      <c r="E91" s="120"/>
-      <c r="F91" s="120">
+      <c r="D91" s="119"/>
+      <c r="E91" s="119"/>
+      <c r="F91" s="119">
         <f t="shared" si="10"/>
         <v>157</v>
       </c>
-      <c r="G91" s="120">
+      <c r="G91" s="119">
         <f t="shared" si="11"/>
         <v>188.4</v>
       </c>
-      <c r="H91" s="120">
+      <c r="H91" s="119">
         <f t="shared" si="12"/>
         <v>196.25</v>
       </c>
-      <c r="I91" s="120"/>
-      <c r="J91" s="120"/>
-      <c r="K91" s="120">
+      <c r="I91" s="119"/>
+      <c r="J91" s="119"/>
+      <c r="K91" s="119">
         <f t="shared" si="14"/>
         <v>-157</v>
       </c>
-      <c r="O91" s="122" t="s">
+      <c r="O91" s="121" t="s">
         <v>230</v>
       </c>
-      <c r="P91" s="123"/>
+      <c r="P91" s="122"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B92" s="55" t="s">
@@ -5574,99 +5620,110 @@
         <v>232</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B93" s="55" t="s">
+    <row r="93" spans="1:16" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="138" t="s">
         <v>233</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="135">
         <v>5312000</v>
       </c>
-      <c r="E93" s="3">
-        <v>650000</v>
-      </c>
-      <c r="F93" s="3">
+      <c r="D93" s="135">
+        <v>719000</v>
+      </c>
+      <c r="E93" s="135">
+        <v>850000</v>
+      </c>
+      <c r="F93" s="135">
         <f t="shared" si="10"/>
-        <v>5962000</v>
-      </c>
-      <c r="G93" s="3">
+        <v>6881000</v>
+      </c>
+      <c r="G93" s="135">
         <f t="shared" si="11"/>
-        <v>7154400</v>
-      </c>
-      <c r="H93" s="3">
+        <v>8257200</v>
+      </c>
+      <c r="H93" s="135">
         <f t="shared" si="12"/>
-        <v>7452500</v>
-      </c>
-      <c r="K93" s="3">
+        <v>8601250</v>
+      </c>
+      <c r="I93" s="135">
+        <v>8500000</v>
+      </c>
+      <c r="J93" s="135"/>
+      <c r="K93" s="135">
         <f t="shared" si="14"/>
-        <v>-5962000</v>
-      </c>
-      <c r="O93" s="13" t="s">
+        <v>1619000</v>
+      </c>
+      <c r="L93" s="133" t="s">
+        <v>294</v>
+      </c>
+      <c r="O93" s="136" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" s="121" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="96" t="s">
+      <c r="P93" s="137"/>
+    </row>
+    <row r="94" spans="1:16" s="120" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="95" t="s">
         <v>235</v>
       </c>
-      <c r="C94" s="120">
+      <c r="C94" s="119">
         <v>229</v>
       </c>
-      <c r="D94" s="120"/>
-      <c r="E94" s="120"/>
-      <c r="F94" s="120">
+      <c r="D94" s="119"/>
+      <c r="E94" s="119"/>
+      <c r="F94" s="119">
         <f t="shared" si="10"/>
         <v>229</v>
       </c>
-      <c r="G94" s="120">
+      <c r="G94" s="119">
         <f t="shared" si="11"/>
         <v>274.8</v>
       </c>
-      <c r="H94" s="120">
+      <c r="H94" s="119">
         <f t="shared" si="12"/>
         <v>286.25</v>
       </c>
-      <c r="I94" s="120"/>
-      <c r="J94" s="120"/>
-      <c r="K94" s="120">
+      <c r="I94" s="119"/>
+      <c r="J94" s="119"/>
+      <c r="K94" s="119">
         <f t="shared" si="14"/>
         <v>-229</v>
       </c>
-      <c r="O94" s="122" t="s">
+      <c r="O94" s="121" t="s">
         <v>239</v>
       </c>
-      <c r="P94" s="123"/>
-    </row>
-    <row r="95" spans="1:16" s="121" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="96" t="s">
+      <c r="P94" s="122"/>
+    </row>
+    <row r="95" spans="1:16" s="120" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="95" t="s">
         <v>236</v>
       </c>
-      <c r="C95" s="120">
+      <c r="C95" s="119">
         <v>280</v>
       </c>
-      <c r="D95" s="120"/>
-      <c r="E95" s="120"/>
-      <c r="F95" s="120">
+      <c r="D95" s="119"/>
+      <c r="E95" s="119"/>
+      <c r="F95" s="119">
         <f t="shared" si="10"/>
         <v>280</v>
       </c>
-      <c r="G95" s="120">
+      <c r="G95" s="119">
         <f t="shared" si="11"/>
         <v>336</v>
       </c>
-      <c r="H95" s="120">
+      <c r="H95" s="119">
         <f t="shared" si="12"/>
         <v>350</v>
       </c>
-      <c r="I95" s="120"/>
-      <c r="J95" s="120"/>
-      <c r="K95" s="120">
+      <c r="I95" s="119"/>
+      <c r="J95" s="119"/>
+      <c r="K95" s="119">
         <f t="shared" si="14"/>
         <v>-280</v>
       </c>
-      <c r="O95" s="122" t="s">
+      <c r="O95" s="121" t="s">
         <v>238</v>
       </c>
-      <c r="P95" s="123"/>
+      <c r="P95" s="122"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B96" s="55" t="s">
@@ -5675,23 +5732,26 @@
       <c r="C96" s="3">
         <v>4018000</v>
       </c>
+      <c r="D96" s="132">
+        <v>985000</v>
+      </c>
       <c r="F96" s="3">
         <f t="shared" si="10"/>
-        <v>4018000</v>
+        <v>5003000</v>
       </c>
       <c r="G96" s="3">
         <f t="shared" si="11"/>
-        <v>4821600</v>
+        <v>6003600</v>
       </c>
       <c r="H96" s="3">
         <f t="shared" si="12"/>
-        <v>5022500</v>
+        <v>6253750</v>
       </c>
       <c r="K96" s="3">
         <f t="shared" si="14"/>
-        <v>-4018000</v>
-      </c>
-      <c r="O96" s="125" t="s">
+        <v>-5003000</v>
+      </c>
+      <c r="O96" s="126" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5702,23 +5762,26 @@
       <c r="C97" s="3">
         <v>3713000</v>
       </c>
+      <c r="D97" s="3">
+        <v>985000</v>
+      </c>
       <c r="F97" s="3">
         <f t="shared" si="10"/>
-        <v>3713000</v>
+        <v>4698000</v>
       </c>
       <c r="G97" s="3">
         <f t="shared" si="11"/>
-        <v>4455600</v>
+        <v>5637600</v>
       </c>
       <c r="H97" s="3">
         <f t="shared" si="12"/>
-        <v>4641250</v>
+        <v>5872500</v>
       </c>
       <c r="K97" s="3">
         <f t="shared" si="14"/>
-        <v>-3713000</v>
-      </c>
-      <c r="O97" s="126"/>
+        <v>-4698000</v>
+      </c>
+      <c r="O97" s="127"/>
     </row>
     <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98" s="55" t="s">
@@ -5727,21 +5790,24 @@
       <c r="C98" s="3">
         <v>6110000</v>
       </c>
+      <c r="D98" s="3">
+        <v>719000</v>
+      </c>
       <c r="F98" s="3">
         <f t="shared" si="10"/>
-        <v>6110000</v>
+        <v>6829000</v>
       </c>
       <c r="G98" s="3">
         <f t="shared" si="11"/>
-        <v>7332000</v>
+        <v>8194800</v>
       </c>
       <c r="H98" s="3">
         <f t="shared" si="12"/>
-        <v>7637500</v>
+        <v>8536250</v>
       </c>
       <c r="K98" s="3">
         <f t="shared" si="14"/>
-        <v>-6110000</v>
+        <v>-6829000</v>
       </c>
       <c r="O98" s="13" t="s">
         <v>253</v>
@@ -5754,23 +5820,26 @@
       <c r="C99" s="3">
         <v>3420000</v>
       </c>
+      <c r="D99" s="3">
+        <v>986000</v>
+      </c>
       <c r="F99" s="3">
         <f t="shared" si="10"/>
-        <v>3420000</v>
+        <v>4406000</v>
       </c>
       <c r="G99" s="3">
         <f t="shared" si="11"/>
-        <v>4104000</v>
+        <v>5287200</v>
       </c>
       <c r="H99" s="3">
         <f t="shared" si="12"/>
-        <v>4275000</v>
+        <v>5507500</v>
       </c>
       <c r="K99" s="3">
         <f t="shared" si="14"/>
-        <v>-3420000</v>
-      </c>
-      <c r="O99" s="107" t="s">
+        <v>-4406000</v>
+      </c>
+      <c r="O99" s="106" t="s">
         <v>255</v>
       </c>
     </row>
@@ -5798,37 +5867,37 @@
         <v>-3315000</v>
       </c>
     </row>
-    <row r="101" spans="2:16" s="121" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B101" s="96" t="s">
+    <row r="101" spans="2:16" s="120" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="95" t="s">
         <v>257</v>
       </c>
-      <c r="C101" s="120">
+      <c r="C101" s="119">
         <v>219</v>
       </c>
-      <c r="D101" s="120"/>
-      <c r="E101" s="120"/>
-      <c r="F101" s="120">
+      <c r="D101" s="119"/>
+      <c r="E101" s="119"/>
+      <c r="F101" s="119">
         <f t="shared" si="10"/>
         <v>219</v>
       </c>
-      <c r="G101" s="120">
+      <c r="G101" s="119">
         <f t="shared" si="11"/>
         <v>262.8</v>
       </c>
-      <c r="H101" s="120">
+      <c r="H101" s="119">
         <f t="shared" si="12"/>
         <v>273.75</v>
       </c>
-      <c r="I101" s="120"/>
-      <c r="J101" s="120"/>
-      <c r="K101" s="120">
+      <c r="I101" s="119"/>
+      <c r="J101" s="119"/>
+      <c r="K101" s="119">
         <f t="shared" si="14"/>
         <v>-219</v>
       </c>
-      <c r="O101" s="107" t="s">
+      <c r="O101" s="106" t="s">
         <v>267</v>
       </c>
-      <c r="P101" s="123"/>
+      <c r="P101" s="122"/>
     </row>
     <row r="102" spans="2:16" ht="30" x14ac:dyDescent="0.25">
       <c r="B102" s="55" t="s">
@@ -5837,43 +5906,58 @@
       <c r="C102" s="3">
         <v>4149000</v>
       </c>
+      <c r="D102" s="3">
+        <v>699000</v>
+      </c>
       <c r="F102" s="3">
         <f t="shared" si="10"/>
-        <v>4149000</v>
+        <v>4848000</v>
       </c>
       <c r="G102" s="3">
         <f t="shared" si="11"/>
-        <v>4978800</v>
+        <v>5817600</v>
       </c>
       <c r="H102" s="3">
         <f t="shared" si="12"/>
-        <v>5186250</v>
+        <v>6060000</v>
       </c>
       <c r="K102" s="3">
         <f t="shared" si="14"/>
-        <v>-4149000</v>
+        <v>-4848000</v>
       </c>
       <c r="O102" s="13" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="103" spans="2:16" s="121" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B103" s="96" t="s">
+    <row r="103" spans="2:16" s="120" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="95" t="s">
         <v>258</v>
       </c>
-      <c r="C103" s="120"/>
-      <c r="D103" s="120"/>
-      <c r="E103" s="120"/>
-      <c r="F103" s="120"/>
-      <c r="G103" s="120"/>
-      <c r="H103" s="120"/>
-      <c r="I103" s="120"/>
-      <c r="J103" s="120"/>
-      <c r="K103" s="120"/>
-      <c r="O103" s="127" t="s">
+      <c r="C103" s="119"/>
+      <c r="D103" s="119"/>
+      <c r="E103" s="119"/>
+      <c r="F103" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G103" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H103" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I103" s="119"/>
+      <c r="J103" s="119"/>
+      <c r="K103" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O103" s="123" t="s">
         <v>264</v>
       </c>
-      <c r="P103" s="123"/>
+      <c r="P103" s="122"/>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B104" s="55" t="s">
@@ -5882,28 +5966,81 @@
       <c r="C104" s="3">
         <v>3776000</v>
       </c>
+      <c r="D104" s="3">
+        <v>781000</v>
+      </c>
+      <c r="F104" s="3">
+        <f t="shared" si="10"/>
+        <v>4557000</v>
+      </c>
+      <c r="G104" s="3">
+        <f t="shared" si="11"/>
+        <v>5468400</v>
+      </c>
+      <c r="H104" s="3">
+        <f t="shared" si="12"/>
+        <v>5696250</v>
+      </c>
+      <c r="K104" s="3">
+        <f t="shared" si="14"/>
+        <v>-4557000</v>
+      </c>
       <c r="O104" s="13" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B105" s="129" t="s">
+      <c r="B105" t="s">
         <v>271</v>
       </c>
       <c r="C105" s="3">
         <v>8208000</v>
       </c>
-      <c r="F105" s="65"/>
+      <c r="F105" s="3">
+        <f t="shared" si="10"/>
+        <v>8208000</v>
+      </c>
+      <c r="G105" s="3">
+        <f t="shared" si="11"/>
+        <v>9849600</v>
+      </c>
+      <c r="H105" s="3">
+        <f t="shared" si="12"/>
+        <v>10260000</v>
+      </c>
+      <c r="K105" s="3">
+        <f t="shared" si="14"/>
+        <v>-8208000</v>
+      </c>
       <c r="O105" s="13" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B106" s="128" t="s">
+      <c r="B106" s="124" t="s">
         <v>272</v>
       </c>
       <c r="C106" s="3">
         <v>4012000</v>
+      </c>
+      <c r="D106" s="3">
+        <v>760000</v>
+      </c>
+      <c r="F106" s="3">
+        <f t="shared" si="10"/>
+        <v>4772000</v>
+      </c>
+      <c r="G106" s="3">
+        <f t="shared" si="11"/>
+        <v>5726400</v>
+      </c>
+      <c r="H106" s="3">
+        <f t="shared" si="12"/>
+        <v>5965000</v>
+      </c>
+      <c r="K106" s="3">
+        <f t="shared" si="14"/>
+        <v>-4772000</v>
       </c>
       <c r="O106" s="13" t="s">
         <v>273</v>
@@ -5916,7 +6053,22 @@
       <c r="C107" s="3">
         <v>5540000</v>
       </c>
-      <c r="F107" s="65"/>
+      <c r="F107" s="3">
+        <f t="shared" si="10"/>
+        <v>5540000</v>
+      </c>
+      <c r="G107" s="3">
+        <f t="shared" si="11"/>
+        <v>6648000</v>
+      </c>
+      <c r="H107" s="3">
+        <f t="shared" si="12"/>
+        <v>6925000</v>
+      </c>
+      <c r="K107" s="3">
+        <f t="shared" si="14"/>
+        <v>-5540000</v>
+      </c>
       <c r="O107" s="13" t="s">
         <v>275</v>
       </c>
@@ -5928,8 +6080,23 @@
       <c r="C108" s="3">
         <v>7080000</v>
       </c>
-      <c r="F108" s="51"/>
-      <c r="O108" s="127" t="s">
+      <c r="F108" s="3">
+        <f t="shared" si="10"/>
+        <v>7080000</v>
+      </c>
+      <c r="G108" s="3">
+        <f t="shared" si="11"/>
+        <v>8496000</v>
+      </c>
+      <c r="H108" s="3">
+        <f t="shared" si="12"/>
+        <v>8850000</v>
+      </c>
+      <c r="K108" s="3">
+        <f t="shared" si="14"/>
+        <v>-7080000</v>
+      </c>
+      <c r="O108" s="123" t="s">
         <v>276</v>
       </c>
     </row>
@@ -5940,6 +6107,25 @@
       <c r="C109" s="3">
         <v>4200000</v>
       </c>
+      <c r="D109" s="3">
+        <v>781000</v>
+      </c>
+      <c r="F109" s="3">
+        <f t="shared" si="10"/>
+        <v>4981000</v>
+      </c>
+      <c r="G109" s="3">
+        <f t="shared" si="11"/>
+        <v>5977200</v>
+      </c>
+      <c r="H109" s="3">
+        <f t="shared" si="12"/>
+        <v>6226250</v>
+      </c>
+      <c r="K109" s="3">
+        <f t="shared" si="14"/>
+        <v>-4981000</v>
+      </c>
       <c r="O109" s="13" t="s">
         <v>279</v>
       </c>
@@ -5951,7 +6137,22 @@
       <c r="C110" s="3">
         <v>7080000</v>
       </c>
-      <c r="F110" s="46"/>
+      <c r="F110" s="3">
+        <f t="shared" si="10"/>
+        <v>7080000</v>
+      </c>
+      <c r="G110" s="3">
+        <f t="shared" si="11"/>
+        <v>8496000</v>
+      </c>
+      <c r="H110" s="3">
+        <f t="shared" si="12"/>
+        <v>8850000</v>
+      </c>
+      <c r="K110" s="3">
+        <f t="shared" si="14"/>
+        <v>-7080000</v>
+      </c>
       <c r="O110" s="13" t="s">
         <v>281</v>
       </c>
@@ -5963,7 +6164,22 @@
       <c r="C111" s="3">
         <v>7150000</v>
       </c>
-      <c r="F111" s="32"/>
+      <c r="F111" s="3">
+        <f t="shared" si="10"/>
+        <v>7150000</v>
+      </c>
+      <c r="G111" s="3">
+        <f t="shared" si="11"/>
+        <v>8580000</v>
+      </c>
+      <c r="H111" s="3">
+        <f t="shared" si="12"/>
+        <v>8937500</v>
+      </c>
+      <c r="K111" s="3">
+        <f t="shared" si="14"/>
+        <v>-7150000</v>
+      </c>
       <c r="O111" s="13" t="s">
         <v>283</v>
       </c>
@@ -5975,77 +6191,332 @@
       <c r="C112" s="3">
         <v>13776000</v>
       </c>
-      <c r="O112" s="125" t="s">
+      <c r="F112" s="3">
+        <f t="shared" si="10"/>
+        <v>13776000</v>
+      </c>
+      <c r="G112" s="3">
+        <f t="shared" si="11"/>
+        <v>16531200</v>
+      </c>
+      <c r="H112" s="3">
+        <f t="shared" si="12"/>
+        <v>17220000</v>
+      </c>
+      <c r="K112" s="3">
+        <f t="shared" si="14"/>
+        <v>-13776000</v>
+      </c>
+      <c r="O112" s="126" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B113" s="55" t="s">
         <v>286</v>
       </c>
       <c r="C113" s="3">
         <v>5166000</v>
       </c>
-      <c r="F113" s="65"/>
-      <c r="O113" s="126"/>
-    </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F113" s="3">
+        <f t="shared" si="10"/>
+        <v>5166000</v>
+      </c>
+      <c r="G113" s="3">
+        <f t="shared" si="11"/>
+        <v>6199200</v>
+      </c>
+      <c r="H113" s="3">
+        <f t="shared" si="12"/>
+        <v>6457500</v>
+      </c>
+      <c r="K113" s="3">
+        <f t="shared" si="14"/>
+        <v>-5166000</v>
+      </c>
+      <c r="O113" s="127"/>
+    </row>
+    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B114" s="55" t="s">
         <v>287</v>
       </c>
       <c r="C114" s="3">
         <v>3465000</v>
       </c>
-      <c r="F114" s="86"/>
+      <c r="F114" s="3">
+        <f t="shared" si="10"/>
+        <v>3465000</v>
+      </c>
+      <c r="G114" s="3">
+        <f t="shared" si="11"/>
+        <v>4158000</v>
+      </c>
+      <c r="H114" s="3">
+        <f t="shared" si="12"/>
+        <v>4331250</v>
+      </c>
+      <c r="K114" s="3">
+        <f t="shared" si="14"/>
+        <v>-3465000</v>
+      </c>
       <c r="O114" s="13" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="115" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B115" s="55" t="s">
         <v>289</v>
       </c>
       <c r="C115" s="3">
         <v>7906000</v>
       </c>
+      <c r="F115" s="3">
+        <f t="shared" si="10"/>
+        <v>7906000</v>
+      </c>
+      <c r="G115" s="3">
+        <f t="shared" si="11"/>
+        <v>9487200</v>
+      </c>
+      <c r="H115" s="3">
+        <f t="shared" si="12"/>
+        <v>9882500</v>
+      </c>
+      <c r="K115" s="3">
+        <f t="shared" si="14"/>
+        <v>-7906000</v>
+      </c>
       <c r="O115" s="13" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="116" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B116" s="55" t="s">
+    <row r="116" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="128" t="s">
         <v>291</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C116" s="32">
         <v>13570000</v>
       </c>
-      <c r="O116" s="13" t="s">
+      <c r="D116" s="32"/>
+      <c r="E116" s="32"/>
+      <c r="F116" s="3">
+        <f t="shared" si="10"/>
+        <v>13570000</v>
+      </c>
+      <c r="G116" s="3">
+        <f t="shared" si="11"/>
+        <v>16284000</v>
+      </c>
+      <c r="H116" s="3">
+        <f t="shared" si="12"/>
+        <v>16962500</v>
+      </c>
+      <c r="I116" s="32"/>
+      <c r="J116" s="32"/>
+      <c r="K116" s="3">
+        <f t="shared" si="14"/>
+        <v>-13570000</v>
+      </c>
+      <c r="O116" s="129" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="117" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B117" s="55" t="s">
+      <c r="P116" s="35"/>
+    </row>
+    <row r="117" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="128" t="s">
+        <v>291</v>
+      </c>
+      <c r="C117" s="32">
+        <v>13570000</v>
+      </c>
+      <c r="D117" s="32"/>
+      <c r="E117" s="32"/>
+      <c r="F117" s="3">
+        <f t="shared" si="10"/>
+        <v>13570000</v>
+      </c>
+      <c r="G117" s="3">
+        <f t="shared" si="11"/>
+        <v>16284000</v>
+      </c>
+      <c r="H117" s="3">
+        <f t="shared" si="12"/>
+        <v>16962500</v>
+      </c>
+      <c r="I117" s="32"/>
+      <c r="J117" s="32"/>
+      <c r="K117" s="3">
+        <f t="shared" si="14"/>
+        <v>-13570000</v>
+      </c>
+      <c r="O117" s="130"/>
+      <c r="P117" s="35"/>
+    </row>
+    <row r="118" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="128" t="s">
+        <v>291</v>
+      </c>
+      <c r="C118" s="32">
+        <v>13570000</v>
+      </c>
+      <c r="D118" s="32"/>
+      <c r="E118" s="32"/>
+      <c r="F118" s="3">
+        <f t="shared" si="10"/>
+        <v>13570000</v>
+      </c>
+      <c r="G118" s="3">
+        <f t="shared" si="11"/>
+        <v>16284000</v>
+      </c>
+      <c r="H118" s="3">
+        <f t="shared" si="12"/>
+        <v>16962500</v>
+      </c>
+      <c r="I118" s="32"/>
+      <c r="J118" s="32"/>
+      <c r="K118" s="3">
+        <f t="shared" si="14"/>
+        <v>-13570000</v>
+      </c>
+      <c r="O118" s="130"/>
+      <c r="P118" s="35"/>
+    </row>
+    <row r="119" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="128" t="s">
+        <v>291</v>
+      </c>
+      <c r="C119" s="32">
+        <v>13570000</v>
+      </c>
+      <c r="D119" s="32"/>
+      <c r="E119" s="32"/>
+      <c r="F119" s="3">
+        <f t="shared" si="10"/>
+        <v>13570000</v>
+      </c>
+      <c r="G119" s="3">
+        <f t="shared" si="11"/>
+        <v>16284000</v>
+      </c>
+      <c r="H119" s="3">
+        <f t="shared" si="12"/>
+        <v>16962500</v>
+      </c>
+      <c r="I119" s="32"/>
+      <c r="J119" s="32"/>
+      <c r="K119" s="3">
+        <f t="shared" si="14"/>
+        <v>-13570000</v>
+      </c>
+      <c r="O119" s="130"/>
+      <c r="P119" s="35"/>
+    </row>
+    <row r="120" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="128" t="s">
+        <v>291</v>
+      </c>
+      <c r="C120" s="32">
+        <v>13570000</v>
+      </c>
+      <c r="D120" s="32"/>
+      <c r="E120" s="32"/>
+      <c r="F120" s="3">
+        <f t="shared" si="10"/>
+        <v>13570000</v>
+      </c>
+      <c r="G120" s="3">
+        <f t="shared" si="11"/>
+        <v>16284000</v>
+      </c>
+      <c r="H120" s="3">
+        <f t="shared" si="12"/>
+        <v>16962500</v>
+      </c>
+      <c r="I120" s="32"/>
+      <c r="J120" s="32"/>
+      <c r="K120" s="3">
+        <f t="shared" si="14"/>
+        <v>-13570000</v>
+      </c>
+      <c r="O120" s="131"/>
+      <c r="P120" s="35"/>
+    </row>
+    <row r="121" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B121" s="55" t="s">
         <v>293</v>
       </c>
-      <c r="C117" s="3">
+      <c r="C121" s="3">
         <v>7080000</v>
       </c>
-      <c r="F117" s="86"/>
+      <c r="F121" s="3">
+        <f t="shared" si="10"/>
+        <v>7080000</v>
+      </c>
+      <c r="G121" s="3">
+        <f t="shared" si="11"/>
+        <v>8496000</v>
+      </c>
+      <c r="H121" s="3">
+        <f t="shared" si="12"/>
+        <v>8850000</v>
+      </c>
+      <c r="K121" s="3">
+        <f t="shared" si="14"/>
+        <v>-7080000</v>
+      </c>
+      <c r="O121" s="13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="122" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B122" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="C122" s="3">
+        <v>6680000</v>
+      </c>
+      <c r="F122" s="3">
+        <f t="shared" si="10"/>
+        <v>6680000</v>
+      </c>
+      <c r="G122" s="3">
+        <f t="shared" si="11"/>
+        <v>8016000</v>
+      </c>
+      <c r="H122" s="3">
+        <f t="shared" si="12"/>
+        <v>8350000</v>
+      </c>
+      <c r="K122" s="3">
+        <f t="shared" si="14"/>
+        <v>-6680000</v>
+      </c>
+      <c r="O122" s="13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="123" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F123" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="L1:L80" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="O72:O74"/>
     <mergeCell ref="O96:O97"/>
     <mergeCell ref="O112:O113"/>
+    <mergeCell ref="O116:O120"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="C2:G2 H2:N17 O2:O22 B2:B25 P2:P25 Q2:Q39 C3:E25 F3:G27 L18:N39 H18:J65 O26:P26 D26:E38 F28 G28:G72 C29:F38 O29:P38 D39:F39 C40:F41 L40:Q41 Q42:Q43 D42:F57 L42:N69 P44:P49 Q50:Q69 E58:F58 D59:F69 I66:J69 H66:H72 D71:F72 I71:J72 Q71:Q78 L75:N78 M74:N74 D73:J78 L71:N73 K3:K79">
+  <conditionalFormatting sqref="C2:G2 H2:N17 O2:O22 B2:B25 P2:P25 Q2:Q39 C3:E25 F3:G27 K3:K79 L18:N39 H18:J65 O26:P26 D26:E38 F28 G28:G72 C29:F38 O29:P38 D39:F39 C40:F41 L40:Q41 Q42:Q43 D42:F57 L42:N69 P44:P49 Q50:Q69 E58:F58 D59:F69 I66:J69 H66:H72 D71:F72 I71:J72 L71:N73 Q71:Q78 D73:J78 M74:N74 L75:N78">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>MOD(ROW(),2)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F102:F113 F115:F119">
+  <conditionalFormatting sqref="F102:F123">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)&gt;0</formula>
     </cfRule>

--- a/TDStore/NhapXuatLaptop.xlsx
+++ b/TDStore/NhapXuatLaptop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01.GIT\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D01C7A-B41C-4747-BEDA-76EB4FF6CDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC235CA-2F4F-41EA-9B34-D89A339AE14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="317">
   <si>
     <t>ID máy</t>
   </si>
@@ -574,9 +574,6 @@
     <t>Sạc</t>
   </si>
   <si>
-    <t>Giá</t>
-  </si>
-  <si>
     <t>Dell type C</t>
   </si>
   <si>
@@ -700,9 +697,6 @@
     <t>Dell Latitude 7400 14" Intel Core i5-8365U 1.6Ghz 16GB RAM 256GB SSD C4 Xước</t>
   </si>
   <si>
-    <t>5tr</t>
-  </si>
-  <si>
     <t>4tr5</t>
   </si>
   <si>
@@ -929,6 +923,66 @@
   </si>
   <si>
     <t>Đạt bán khách ở quê</t>
+  </si>
+  <si>
+    <t>GFDSQV2</t>
+  </si>
+  <si>
+    <t>41WCQV2</t>
+  </si>
+  <si>
+    <t>8J8GL33</t>
+  </si>
+  <si>
+    <t>A Thành 936</t>
+  </si>
+  <si>
+    <t>17/08/23</t>
+  </si>
+  <si>
+    <t>17/08/24</t>
+  </si>
+  <si>
+    <t>17/08/25</t>
+  </si>
+  <si>
+    <t>79MLP13</t>
+  </si>
+  <si>
+    <t>CXQHLF2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>6RTPXT2</t>
+  </si>
+  <si>
+    <t>A Tùng cty</t>
+  </si>
+  <si>
+    <t>A Định</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>Sạc Surface 65W</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 7306 2-in-1 13" FHD Touch Core i5-1135G7 CPU 8GB RAM 512GB SSD</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 13 5310 13.3" (512GB SSD, Intel Core i5-11320H, 2.50GHz, 16GB RAM)</t>
+  </si>
+  <si>
+    <t>9405508205498066601572</t>
+  </si>
+  <si>
+    <t>782622867860</t>
+  </si>
+  <si>
+    <t>ơ</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1072,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1097,6 +1151,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -1163,7 +1223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1325,7 +1385,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1423,6 +1482,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1432,8 +1513,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1443,19 +1524,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1551,7 +1619,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1905,11 +1973,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q123"/>
+  <dimension ref="A1:Q133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F102" sqref="F102"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3036,7 +3104,7 @@
         <v>1112141</v>
       </c>
       <c r="L28" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M28" s="29"/>
       <c r="N28" s="29" t="s">
@@ -3190,45 +3258,45 @@
       <c r="A32" s="70">
         <v>31</v>
       </c>
-      <c r="B32" s="96" t="s">
+      <c r="B32" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="97">
+      <c r="C32" s="96">
         <v>6651048</v>
       </c>
-      <c r="D32" s="97">
+      <c r="D32" s="96">
         <v>833000</v>
       </c>
-      <c r="E32" s="97">
+      <c r="E32" s="96">
         <v>300000</v>
       </c>
-      <c r="F32" s="97">
+      <c r="F32" s="96">
         <f t="shared" si="2"/>
         <v>7784048</v>
       </c>
-      <c r="G32" s="98">
+      <c r="G32" s="97">
         <f t="shared" si="6"/>
         <v>9340857.5999999996</v>
       </c>
-      <c r="H32" s="97">
+      <c r="H32" s="96">
         <f t="shared" si="5"/>
         <v>9730060</v>
       </c>
-      <c r="I32" s="97" t="s">
+      <c r="I32" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="J32" s="97"/>
-      <c r="K32" s="97" t="e">
+      <c r="J32" s="96"/>
+      <c r="K32" s="96" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L32" s="99"/>
-      <c r="M32" s="99"/>
-      <c r="N32" s="99"/>
-      <c r="O32" s="100" t="s">
+      <c r="L32" s="98"/>
+      <c r="M32" s="98"/>
+      <c r="N32" s="98"/>
+      <c r="O32" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="P32" s="101">
+      <c r="P32" s="100">
         <v>45022</v>
       </c>
     </row>
@@ -3987,47 +4055,47 @@
       <c r="A52" s="70">
         <v>51</v>
       </c>
-      <c r="B52" s="102" t="s">
+      <c r="B52" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="C52" s="103">
+      <c r="C52" s="102">
         <v>4560000</v>
       </c>
-      <c r="D52" s="97">
+      <c r="D52" s="96">
         <v>985000</v>
       </c>
-      <c r="E52" s="97">
+      <c r="E52" s="96">
         <v>200000</v>
       </c>
-      <c r="F52" s="97">
+      <c r="F52" s="96">
         <f t="shared" si="8"/>
         <v>5745000</v>
       </c>
-      <c r="G52" s="98">
+      <c r="G52" s="97">
         <f t="shared" si="6"/>
         <v>6894000</v>
       </c>
-      <c r="H52" s="97">
+      <c r="H52" s="96">
         <f t="shared" si="9"/>
         <v>7181250</v>
       </c>
-      <c r="I52" s="97">
+      <c r="I52" s="96">
         <v>7500000</v>
       </c>
-      <c r="J52" s="97"/>
-      <c r="K52" s="97">
+      <c r="J52" s="96"/>
+      <c r="K52" s="96">
         <f t="shared" si="7"/>
         <v>1755000</v>
       </c>
-      <c r="L52" s="99"/>
-      <c r="M52" s="99"/>
-      <c r="N52" s="99"/>
-      <c r="O52" s="104" t="s">
+      <c r="L52" s="98"/>
+      <c r="M52" s="98"/>
+      <c r="N52" s="98"/>
+      <c r="O52" s="103" t="s">
         <v>137</v>
       </c>
-      <c r="P52" s="105"/>
-    </row>
-    <row r="53" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P52" s="104"/>
+    </row>
+    <row r="53" spans="1:16" s="66" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="74">
         <v>52</v>
       </c>
@@ -4055,13 +4123,16 @@
         <f t="shared" si="9"/>
         <v>5368750</v>
       </c>
-      <c r="I53" s="65" t="s">
-        <v>222</v>
+      <c r="I53" s="65">
+        <v>5000000</v>
       </c>
       <c r="J53" s="65"/>
-      <c r="K53" s="65" t="e">
+      <c r="K53" s="65">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
+        <v>705000</v>
+      </c>
+      <c r="L53" s="66" t="s">
+        <v>33</v>
       </c>
       <c r="O53" s="67" t="s">
         <v>139</v>
@@ -4151,12 +4222,12 @@
       </c>
       <c r="P55" s="17"/>
     </row>
-    <row r="56" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="66" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="74">
         <v>55</v>
       </c>
       <c r="B56" s="75" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C56" s="64">
         <v>1960000</v>
@@ -4180,12 +4251,15 @@
         <v>4616250</v>
       </c>
       <c r="I56" s="65">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
       <c r="J56" s="65"/>
       <c r="K56" s="65">
         <f t="shared" si="7"/>
-        <v>307000</v>
+        <v>1307000</v>
+      </c>
+      <c r="L56" s="66" t="s">
+        <v>33</v>
       </c>
       <c r="O56" s="67" t="s">
         <v>144</v>
@@ -4248,7 +4322,7 @@
       <c r="C58" s="18">
         <v>6441000</v>
       </c>
-      <c r="D58" s="77">
+      <c r="D58" s="128">
         <v>771500</v>
       </c>
       <c r="F58" s="3">
@@ -4279,10 +4353,10 @@
       <c r="P58" s="17"/>
     </row>
     <row r="59" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="78">
+      <c r="A59" s="77">
         <v>58</v>
       </c>
-      <c r="B59" s="79" t="s">
+      <c r="B59" s="78" t="s">
         <v>149</v>
       </c>
       <c r="C59" s="50">
@@ -4305,7 +4379,7 @@
         <v>10448750</v>
       </c>
       <c r="I59" s="51" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J59" s="51"/>
       <c r="K59" s="51" t="e">
@@ -4315,7 +4389,7 @@
       <c r="L59" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="O59" s="80" t="s">
+      <c r="O59" s="79" t="s">
         <v>150</v>
       </c>
       <c r="P59" s="53"/>
@@ -4325,7 +4399,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="72" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C60" s="18">
         <v>1824000</v>
@@ -4349,7 +4423,7 @@
         <v>3579375</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K60" s="3" t="e">
         <f t="shared" si="7"/>
@@ -4361,10 +4435,10 @@
       <c r="P60" s="17"/>
     </row>
     <row r="61" spans="1:16" s="47" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="81">
+      <c r="A61" s="80">
         <v>60</v>
       </c>
-      <c r="B61" s="82" t="s">
+      <c r="B61" s="81" t="s">
         <v>152</v>
       </c>
       <c r="C61" s="45">
@@ -4437,7 +4511,7 @@
         <v>539000</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O62" s="16" t="s">
         <v>155</v>
@@ -4491,7 +4565,7 @@
       <c r="A64" s="73">
         <v>63</v>
       </c>
-      <c r="B64" s="83" t="s">
+      <c r="B64" s="82" t="s">
         <v>158</v>
       </c>
       <c r="C64" s="42">
@@ -4557,12 +4631,15 @@
         <v>4630000</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K65" s="3" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
+      <c r="L65" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O65" s="16" t="s">
         <v>161</v>
       </c>
@@ -4606,7 +4683,7 @@
       <c r="A67" s="74">
         <v>66</v>
       </c>
-      <c r="B67" s="84" t="s">
+      <c r="B67" s="83" t="s">
         <v>168</v>
       </c>
       <c r="C67" s="64">
@@ -4631,7 +4708,7 @@
         <v>5388750</v>
       </c>
       <c r="I67" s="65" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J67" s="65"/>
       <c r="K67" s="3" t="e">
@@ -4724,52 +4801,52 @@
       <c r="P69" s="17"/>
     </row>
     <row r="70" spans="1:17" s="47" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="81">
+      <c r="A70" s="80">
         <v>69</v>
       </c>
-      <c r="B70" s="88" t="s">
-        <v>220</v>
-      </c>
-      <c r="C70" s="86">
+      <c r="B70" s="87" t="s">
+        <v>219</v>
+      </c>
+      <c r="C70" s="85">
         <v>2964000</v>
       </c>
-      <c r="D70" s="86">
+      <c r="D70" s="85">
         <v>821500</v>
       </c>
-      <c r="E70" s="86"/>
-      <c r="F70" s="86">
+      <c r="E70" s="85"/>
+      <c r="F70" s="85">
         <f t="shared" si="8"/>
         <v>3785500</v>
       </c>
-      <c r="G70" s="86">
+      <c r="G70" s="85">
         <f t="shared" si="6"/>
         <v>4542600</v>
       </c>
-      <c r="H70" s="86">
+      <c r="H70" s="85">
         <f t="shared" si="9"/>
         <v>4731875</v>
       </c>
-      <c r="I70" s="86">
+      <c r="I70" s="85">
         <v>4000000</v>
       </c>
-      <c r="J70" s="86"/>
+      <c r="J70" s="85"/>
       <c r="K70" s="3">
         <f t="shared" si="7"/>
         <v>214500</v>
       </c>
-      <c r="L70" s="87" t="s">
-        <v>262</v>
-      </c>
-      <c r="M70" s="87"/>
-      <c r="N70" s="87"/>
-      <c r="O70" s="89" t="s">
+      <c r="L70" s="86" t="s">
+        <v>260</v>
+      </c>
+      <c r="M70" s="86"/>
+      <c r="N70" s="86"/>
+      <c r="O70" s="88" t="s">
         <v>176</v>
       </c>
-      <c r="P70" s="90"/>
-      <c r="Q70" s="87"/>
+      <c r="P70" s="89"/>
+      <c r="Q70" s="86"/>
     </row>
     <row r="71" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="81">
+      <c r="A71" s="80">
         <v>70</v>
       </c>
       <c r="B71" s="72" t="s">
@@ -4804,61 +4881,61 @@
         <v>2405500</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O71" s="16" t="s">
         <v>178</v>
       </c>
       <c r="P71" s="17"/>
     </row>
-    <row r="72" spans="1:17" s="110" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="91">
+    <row r="72" spans="1:17" s="109" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="90">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C72" s="107">
+        <v>189</v>
+      </c>
+      <c r="C72" s="106">
         <v>3306000</v>
       </c>
-      <c r="D72" s="108">
+      <c r="D72" s="107">
         <v>794000</v>
       </c>
-      <c r="E72" s="108"/>
-      <c r="F72" s="108">
+      <c r="E72" s="107"/>
+      <c r="F72" s="107">
         <f t="shared" si="8"/>
         <v>4100000</v>
       </c>
-      <c r="G72" s="109">
+      <c r="G72" s="108">
         <f t="shared" si="6"/>
         <v>4920000</v>
       </c>
-      <c r="H72" s="108">
+      <c r="H72" s="107">
         <f t="shared" si="9"/>
         <v>5125000</v>
       </c>
-      <c r="I72" s="108">
+      <c r="I72" s="107">
         <v>5500000</v>
       </c>
-      <c r="J72" s="108"/>
+      <c r="J72" s="107"/>
       <c r="K72" s="3">
         <f t="shared" si="7"/>
         <v>1400000</v>
       </c>
-      <c r="L72" s="110" t="s">
-        <v>216</v>
-      </c>
-      <c r="O72" s="125" t="s">
-        <v>191</v>
-      </c>
-      <c r="P72" s="111"/>
+      <c r="L72" s="109" t="s">
+        <v>215</v>
+      </c>
+      <c r="O72" s="136" t="s">
+        <v>190</v>
+      </c>
+      <c r="P72" s="110"/>
     </row>
     <row r="73" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="81">
+      <c r="A73" s="80">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C73" s="18">
         <v>3306000</v>
@@ -4870,15 +4947,15 @@
         <v>450000</v>
       </c>
       <c r="F73" s="3">
-        <f t="shared" ref="F73:F123" si="10">C73+D73+E73</f>
+        <f t="shared" ref="F73:F128" si="10">C73+D73+E73</f>
         <v>4550000</v>
       </c>
       <c r="G73" s="28">
-        <f t="shared" ref="G73:G122" si="11">(F73*20%)+F73</f>
+        <f t="shared" ref="G73:G125" si="11">(F73*20%)+F73</f>
         <v>5460000</v>
       </c>
       <c r="H73" s="3">
-        <f t="shared" ref="H73:H122" si="12">(F73*25%)+F73</f>
+        <f t="shared" ref="H73:H125" si="12">(F73*25%)+F73</f>
         <v>5687500</v>
       </c>
       <c r="I73" s="3">
@@ -4889,58 +4966,58 @@
         <v>3450000</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="O73" s="125"/>
+        <v>257</v>
+      </c>
+      <c r="O73" s="136"/>
       <c r="P73" s="17"/>
     </row>
-    <row r="74" spans="1:17" s="92" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="112">
+    <row r="74" spans="1:17" s="91" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="111">
         <v>73</v>
       </c>
-      <c r="B74" s="87" t="s">
-        <v>221</v>
-      </c>
-      <c r="C74" s="113">
+      <c r="B74" s="86" t="s">
+        <v>220</v>
+      </c>
+      <c r="C74" s="112">
         <v>3306000</v>
       </c>
-      <c r="D74" s="114">
+      <c r="D74" s="113">
         <v>794000</v>
       </c>
-      <c r="E74" s="115">
+      <c r="E74" s="114">
         <v>150000</v>
       </c>
-      <c r="F74" s="114">
+      <c r="F74" s="113">
         <f t="shared" si="10"/>
         <v>4250000</v>
       </c>
-      <c r="G74" s="114">
+      <c r="G74" s="113">
         <f t="shared" si="11"/>
         <v>5100000</v>
       </c>
-      <c r="H74" s="114">
+      <c r="H74" s="113">
         <f t="shared" si="12"/>
         <v>5312500</v>
       </c>
-      <c r="I74" s="114">
+      <c r="I74" s="113">
         <v>5000000</v>
       </c>
-      <c r="J74" s="114"/>
+      <c r="J74" s="113"/>
       <c r="K74" s="3">
         <f t="shared" si="7"/>
         <v>750000</v>
       </c>
-      <c r="M74" s="116"/>
-      <c r="N74" s="116"/>
-      <c r="O74" s="125"/>
-      <c r="P74" s="117"/>
+      <c r="M74" s="115"/>
+      <c r="N74" s="115"/>
+      <c r="O74" s="136"/>
+      <c r="P74" s="116"/>
     </row>
     <row r="75" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="81">
+      <c r="A75" s="80">
         <v>74</v>
       </c>
       <c r="B75" s="72" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C75" s="18">
         <v>6974748</v>
@@ -4968,19 +5045,19 @@
         <v>3045252</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O75" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="P75" s="17"/>
+    </row>
+    <row r="76" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="80">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="P75" s="17"/>
-    </row>
-    <row r="76" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="81">
-        <v>75</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="C76" s="18">
         <v>2188000</v>
@@ -5005,16 +5082,16 @@
         <v>-2239250</v>
       </c>
       <c r="O76" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="P76" s="17"/>
+    </row>
+    <row r="77" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="80">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="P76" s="17"/>
-    </row>
-    <row r="77" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="81">
-        <v>76</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="C77" s="18">
         <v>5706000</v>
@@ -5045,16 +5122,16 @@
         <v>1684000</v>
       </c>
       <c r="O77" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="P77" s="17"/>
+    </row>
+    <row r="78" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="80">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="P77" s="17"/>
-    </row>
-    <row r="78" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="81">
-        <v>77</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="C78" s="18">
         <v>5244000</v>
@@ -5085,22 +5162,22 @@
         <v>584500</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O78" s="16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P78" s="17"/>
     </row>
     <row r="79" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="81">
+      <c r="A79" s="80">
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C79" s="3">
         <v>2508000</v>
@@ -5125,15 +5202,15 @@
         <v>-2560000</v>
       </c>
       <c r="O79" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="55" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="81">
-        <v>79</v>
-      </c>
-      <c r="B80" s="55" t="s">
-        <v>201</v>
       </c>
       <c r="C80" s="3">
         <v>7410000</v>
@@ -5167,15 +5244,15 @@
         <v>174</v>
       </c>
       <c r="O80" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="80">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="81">
-        <v>80</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="C81" s="3">
         <v>7410000</v>
@@ -5202,22 +5279,22 @@
         <v>10500000</v>
       </c>
       <c r="K81" s="3">
-        <f t="shared" ref="K81:K122" si="14">I81-J81-F81</f>
+        <f t="shared" ref="K81:K125" si="14">I81-J81-F81</f>
         <v>2041500</v>
       </c>
       <c r="L81" s="2" t="s">
         <v>174</v>
       </c>
       <c r="O81" s="13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="81">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="80">
         <v>81</v>
       </c>
-      <c r="B82" s="85" t="s">
-        <v>206</v>
+      <c r="B82" s="84" t="s">
+        <v>205</v>
       </c>
       <c r="C82" s="3">
         <v>7288000</v>
@@ -5248,15 +5325,15 @@
         <v>165</v>
       </c>
       <c r="O82" s="13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="81">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="80">
         <v>82</v>
       </c>
       <c r="B83" s="55" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C83" s="3">
         <v>4309000</v>
@@ -5287,15 +5364,15 @@
         <v>21</v>
       </c>
       <c r="O83" s="13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="81">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="80">
         <v>83</v>
       </c>
       <c r="B84" s="55" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C84" s="3">
         <v>2599000</v>
@@ -5320,15 +5397,15 @@
         <v>-2650250</v>
       </c>
       <c r="O84" s="13" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="81">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="80">
         <v>84</v>
       </c>
       <c r="B85" s="55" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C85" s="3">
         <v>4104000</v>
@@ -5351,23 +5428,29 @@
         <f t="shared" si="12"/>
         <v>7006250</v>
       </c>
+      <c r="I85" s="3">
+        <v>7000000</v>
+      </c>
       <c r="K85" s="3">
         <f t="shared" si="14"/>
-        <v>-5605000</v>
+        <v>1395000</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O85" s="13" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="91">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="90">
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C86" s="3">
         <v>3990000</v>
@@ -5390,20 +5473,26 @@
         <f t="shared" si="12"/>
         <v>7036875</v>
       </c>
+      <c r="I86" s="3">
+        <v>7000000</v>
+      </c>
       <c r="K86" s="3">
         <f t="shared" si="14"/>
-        <v>-5629500</v>
-      </c>
-      <c r="O86" s="106" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="81">
+        <v>1370500</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="O86" s="105" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="80">
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C87" s="3">
         <v>5586000</v>
@@ -5431,16 +5520,16 @@
         <v>4192500</v>
       </c>
       <c r="L87" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="O87" s="13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A88" s="80"/>
+      <c r="B88" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="O87" s="13" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="81"/>
-      <c r="B88" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="C88" s="3">
         <v>4720000</v>
@@ -5463,67 +5552,62 @@
         <f t="shared" si="12"/>
         <v>7762500</v>
       </c>
-      <c r="I88" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="K88" s="3" t="e">
+      <c r="K88" s="3">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
+        <v>-6210000</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O88" s="13" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="134" t="s">
-        <v>226</v>
-      </c>
-      <c r="C89" s="135">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="125" t="s">
+        <v>224</v>
+      </c>
+      <c r="C89" s="3">
         <v>4400000</v>
       </c>
-      <c r="D89" s="135">
+      <c r="D89" s="3">
         <v>801000</v>
       </c>
-      <c r="E89" s="135">
+      <c r="E89" s="3">
         <v>750000</v>
       </c>
-      <c r="F89" s="135">
+      <c r="F89" s="3">
         <f t="shared" si="10"/>
         <v>5951000</v>
       </c>
-      <c r="G89" s="135">
+      <c r="G89" s="3">
         <f t="shared" si="11"/>
         <v>7141200</v>
       </c>
-      <c r="H89" s="135">
+      <c r="H89" s="3">
         <f t="shared" si="12"/>
         <v>7438750</v>
       </c>
-      <c r="I89" s="135">
+      <c r="I89" s="3">
         <v>8350000</v>
       </c>
-      <c r="J89" s="135"/>
-      <c r="K89" s="135">
+      <c r="K89" s="3">
         <f t="shared" si="14"/>
         <v>2399000</v>
       </c>
-      <c r="L89" s="133" t="s">
-        <v>298</v>
-      </c>
-      <c r="N89" s="133" t="s">
-        <v>245</v>
-      </c>
-      <c r="O89" s="136" t="s">
-        <v>225</v>
-      </c>
-      <c r="P89" s="137"/>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B90" s="93" t="s">
+      <c r="L89" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="N89" s="2" t="s">
         <v>243</v>
+      </c>
+      <c r="O89" s="13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B90" s="92" t="s">
+        <v>241</v>
       </c>
       <c r="C90" s="3">
         <v>5170000</v>
@@ -5554,48 +5638,48 @@
         <v>#VALUE!</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O90" s="13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" s="120" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="118"/>
-      <c r="B91" s="94" t="s">
-        <v>229</v>
-      </c>
-      <c r="C91" s="119">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" s="119" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="117"/>
+      <c r="B91" s="93" t="s">
+        <v>227</v>
+      </c>
+      <c r="C91" s="118">
         <v>157</v>
       </c>
-      <c r="D91" s="119"/>
-      <c r="E91" s="119"/>
-      <c r="F91" s="119">
+      <c r="D91" s="118"/>
+      <c r="E91" s="118"/>
+      <c r="F91" s="118">
         <f t="shared" si="10"/>
         <v>157</v>
       </c>
-      <c r="G91" s="119">
+      <c r="G91" s="118">
         <f t="shared" si="11"/>
         <v>188.4</v>
       </c>
-      <c r="H91" s="119">
+      <c r="H91" s="118">
         <f t="shared" si="12"/>
         <v>196.25</v>
       </c>
-      <c r="I91" s="119"/>
-      <c r="J91" s="119"/>
-      <c r="K91" s="119">
+      <c r="I91" s="118"/>
+      <c r="J91" s="118"/>
+      <c r="K91" s="118">
         <f t="shared" si="14"/>
         <v>-157</v>
       </c>
-      <c r="O91" s="121" t="s">
-        <v>230</v>
-      </c>
-      <c r="P91" s="122"/>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O91" s="120" t="s">
+        <v>228</v>
+      </c>
+      <c r="P91" s="121"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B92" s="55" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C92" s="3">
         <v>3442800</v>
@@ -5617,147 +5701,162 @@
         <v>-3442800</v>
       </c>
       <c r="O92" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="138" t="s">
-        <v>233</v>
-      </c>
-      <c r="C93" s="135">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="C93" s="3">
         <v>5312000</v>
       </c>
-      <c r="D93" s="135">
+      <c r="D93" s="3">
         <v>719000</v>
       </c>
-      <c r="E93" s="135">
+      <c r="E93" s="3">
         <v>850000</v>
       </c>
-      <c r="F93" s="135">
+      <c r="F93" s="3">
         <f t="shared" si="10"/>
         <v>6881000</v>
       </c>
-      <c r="G93" s="135">
+      <c r="G93" s="3">
         <f t="shared" si="11"/>
         <v>8257200</v>
       </c>
-      <c r="H93" s="135">
+      <c r="H93" s="3">
         <f t="shared" si="12"/>
         <v>8601250</v>
       </c>
-      <c r="I93" s="135">
+      <c r="I93" s="3">
         <v>8500000</v>
       </c>
-      <c r="J93" s="135"/>
-      <c r="K93" s="135">
+      <c r="K93" s="3">
         <f t="shared" si="14"/>
         <v>1619000</v>
       </c>
-      <c r="L93" s="133" t="s">
-        <v>294</v>
-      </c>
-      <c r="O93" s="136" t="s">
-        <v>234</v>
-      </c>
-      <c r="P93" s="137"/>
-    </row>
-    <row r="94" spans="1:16" s="120" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="95" t="s">
-        <v>235</v>
-      </c>
-      <c r="C94" s="119">
+      <c r="L93" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O93" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" s="119" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="94" t="s">
+        <v>233</v>
+      </c>
+      <c r="C94" s="118">
         <v>229</v>
       </c>
-      <c r="D94" s="119"/>
-      <c r="E94" s="119"/>
-      <c r="F94" s="119">
+      <c r="D94" s="118"/>
+      <c r="E94" s="118"/>
+      <c r="F94" s="118">
         <f t="shared" si="10"/>
         <v>229</v>
       </c>
-      <c r="G94" s="119">
+      <c r="G94" s="118">
         <f t="shared" si="11"/>
         <v>274.8</v>
       </c>
-      <c r="H94" s="119">
+      <c r="H94" s="118">
         <f t="shared" si="12"/>
         <v>286.25</v>
       </c>
-      <c r="I94" s="119"/>
-      <c r="J94" s="119"/>
-      <c r="K94" s="119">
+      <c r="I94" s="118"/>
+      <c r="J94" s="118"/>
+      <c r="K94" s="118">
         <f t="shared" si="14"/>
         <v>-229</v>
       </c>
-      <c r="O94" s="121" t="s">
-        <v>239</v>
-      </c>
-      <c r="P94" s="122"/>
-    </row>
-    <row r="95" spans="1:16" s="120" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="95" t="s">
-        <v>236</v>
-      </c>
-      <c r="C95" s="119">
+      <c r="O94" s="120" t="s">
+        <v>237</v>
+      </c>
+      <c r="P94" s="121"/>
+    </row>
+    <row r="95" spans="1:17" s="119" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="94" t="s">
+        <v>234</v>
+      </c>
+      <c r="C95" s="118">
         <v>280</v>
       </c>
-      <c r="D95" s="119"/>
-      <c r="E95" s="119"/>
-      <c r="F95" s="119">
+      <c r="D95" s="118"/>
+      <c r="E95" s="118"/>
+      <c r="F95" s="118">
         <f t="shared" si="10"/>
         <v>280</v>
       </c>
-      <c r="G95" s="119">
+      <c r="G95" s="118">
         <f t="shared" si="11"/>
         <v>336</v>
       </c>
-      <c r="H95" s="119">
+      <c r="H95" s="118">
         <f t="shared" si="12"/>
         <v>350</v>
       </c>
-      <c r="I95" s="119"/>
-      <c r="J95" s="119"/>
-      <c r="K95" s="119">
+      <c r="I95" s="118"/>
+      <c r="J95" s="118"/>
+      <c r="K95" s="118">
         <f t="shared" si="14"/>
         <v>-280</v>
       </c>
-      <c r="O95" s="121" t="s">
+      <c r="O95" s="120" t="s">
+        <v>236</v>
+      </c>
+      <c r="P95" s="121"/>
+    </row>
+    <row r="96" spans="1:17" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="58" t="s">
         <v>238</v>
       </c>
-      <c r="P95" s="122"/>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B96" s="55" t="s">
+      <c r="C96" s="28">
+        <v>4018000</v>
+      </c>
+      <c r="D96" s="129">
+        <v>985000</v>
+      </c>
+      <c r="E96" s="28">
+        <v>350000</v>
+      </c>
+      <c r="F96" s="28">
+        <f t="shared" si="10"/>
+        <v>5353000</v>
+      </c>
+      <c r="G96" s="28">
+        <f t="shared" si="11"/>
+        <v>6423600</v>
+      </c>
+      <c r="H96" s="28">
+        <f t="shared" si="12"/>
+        <v>6691250</v>
+      </c>
+      <c r="I96" s="28">
+        <v>6700000</v>
+      </c>
+      <c r="J96" s="28"/>
+      <c r="K96" s="28">
+        <f t="shared" si="14"/>
+        <v>1347000</v>
+      </c>
+      <c r="L96" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="N96" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="O96" s="137" t="s">
         <v>240</v>
       </c>
-      <c r="C96" s="3">
-        <v>4018000</v>
-      </c>
-      <c r="D96" s="132">
-        <v>985000</v>
-      </c>
-      <c r="F96" s="3">
-        <f t="shared" si="10"/>
-        <v>5003000</v>
-      </c>
-      <c r="G96" s="3">
-        <f t="shared" si="11"/>
-        <v>6003600</v>
-      </c>
-      <c r="H96" s="3">
-        <f t="shared" si="12"/>
-        <v>6253750</v>
-      </c>
-      <c r="K96" s="3">
-        <f t="shared" si="14"/>
-        <v>-5003000</v>
-      </c>
-      <c r="O96" s="126" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P96" s="126"/>
+      <c r="Q96" s="29" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B97" s="55" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C97" s="3">
         <v>3713000</v>
@@ -5781,41 +5880,45 @@
         <f t="shared" si="14"/>
         <v>-4698000</v>
       </c>
-      <c r="O97" s="127"/>
-    </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B98" s="55" t="s">
-        <v>252</v>
-      </c>
-      <c r="C98" s="3">
+      <c r="O97" s="138"/>
+    </row>
+    <row r="98" spans="2:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="131" t="s">
+        <v>250</v>
+      </c>
+      <c r="C98" s="132">
         <v>6110000</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98" s="132">
         <v>719000</v>
       </c>
-      <c r="F98" s="3">
+      <c r="E98" s="132"/>
+      <c r="F98" s="132">
         <f t="shared" si="10"/>
         <v>6829000</v>
       </c>
-      <c r="G98" s="3">
+      <c r="G98" s="132">
         <f t="shared" si="11"/>
         <v>8194800</v>
       </c>
-      <c r="H98" s="3">
+      <c r="H98" s="132">
         <f t="shared" si="12"/>
         <v>8536250</v>
       </c>
-      <c r="K98" s="3">
+      <c r="I98" s="132"/>
+      <c r="J98" s="132"/>
+      <c r="K98" s="132">
         <f t="shared" si="14"/>
         <v>-6829000</v>
       </c>
-      <c r="O98" s="13" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O98" s="134" t="s">
+        <v>251</v>
+      </c>
+      <c r="P98" s="135"/>
+    </row>
+    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B99" s="55" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C99" s="3">
         <v>3420000</v>
@@ -5839,13 +5942,13 @@
         <f t="shared" si="14"/>
         <v>-4406000</v>
       </c>
-      <c r="O99" s="106" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="100" spans="2:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O99" s="105" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="100" spans="2:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B100" s="55" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C100" s="3">
         <v>3315000</v>
@@ -5867,41 +5970,41 @@
         <v>-3315000</v>
       </c>
     </row>
-    <row r="101" spans="2:16" s="120" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="95" t="s">
-        <v>257</v>
-      </c>
-      <c r="C101" s="119">
+    <row r="101" spans="2:17" s="119" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="C101" s="118">
         <v>219</v>
       </c>
-      <c r="D101" s="119"/>
-      <c r="E101" s="119"/>
-      <c r="F101" s="119">
+      <c r="D101" s="118"/>
+      <c r="E101" s="118"/>
+      <c r="F101" s="118">
         <f t="shared" si="10"/>
         <v>219</v>
       </c>
-      <c r="G101" s="119">
+      <c r="G101" s="118">
         <f t="shared" si="11"/>
         <v>262.8</v>
       </c>
-      <c r="H101" s="119">
+      <c r="H101" s="118">
         <f t="shared" si="12"/>
         <v>273.75</v>
       </c>
-      <c r="I101" s="119"/>
-      <c r="J101" s="119"/>
-      <c r="K101" s="119">
+      <c r="I101" s="118"/>
+      <c r="J101" s="118"/>
+      <c r="K101" s="118">
         <f t="shared" si="14"/>
         <v>-219</v>
       </c>
-      <c r="O101" s="106" t="s">
+      <c r="O101" s="105" t="s">
+        <v>265</v>
+      </c>
+      <c r="P101" s="121"/>
+    </row>
+    <row r="102" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B102" s="55" t="s">
         <v>267</v>
-      </c>
-      <c r="P101" s="122"/>
-    </row>
-    <row r="102" spans="2:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="B102" s="55" t="s">
-        <v>269</v>
       </c>
       <c r="C102" s="3">
         <v>4149000</v>
@@ -5921,21 +6024,27 @@
         <f t="shared" si="12"/>
         <v>6060000</v>
       </c>
+      <c r="I102" s="3">
+        <v>8000000</v>
+      </c>
       <c r="K102" s="3">
         <f t="shared" si="14"/>
-        <v>-4848000</v>
+        <v>3152000</v>
+      </c>
+      <c r="N102" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="O102" s="13" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="103" spans="2:16" s="120" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="95" t="s">
-        <v>258</v>
-      </c>
-      <c r="C103" s="119"/>
-      <c r="D103" s="119"/>
-      <c r="E103" s="119"/>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="103" spans="2:17" s="119" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="94" t="s">
+        <v>256</v>
+      </c>
+      <c r="C103" s="118"/>
+      <c r="D103" s="118"/>
+      <c r="E103" s="118"/>
       <c r="F103" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -5948,20 +6057,20 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I103" s="119"/>
-      <c r="J103" s="119"/>
+      <c r="I103" s="118"/>
+      <c r="J103" s="118"/>
       <c r="K103" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="O103" s="123" t="s">
+      <c r="O103" s="122" t="s">
+        <v>262</v>
+      </c>
+      <c r="P103" s="121"/>
+    </row>
+    <row r="104" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B104" s="55" t="s">
         <v>264</v>
-      </c>
-      <c r="P103" s="122"/>
-    </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B104" s="55" t="s">
-        <v>266</v>
       </c>
       <c r="C104" s="3">
         <v>3776000</v>
@@ -5969,29 +6078,32 @@
       <c r="D104" s="3">
         <v>781000</v>
       </c>
+      <c r="E104" s="3">
+        <v>400000</v>
+      </c>
       <c r="F104" s="3">
         <f t="shared" si="10"/>
-        <v>4557000</v>
+        <v>4957000</v>
       </c>
       <c r="G104" s="3">
         <f t="shared" si="11"/>
-        <v>5468400</v>
+        <v>5948400</v>
       </c>
       <c r="H104" s="3">
         <f t="shared" si="12"/>
-        <v>5696250</v>
+        <v>6196250</v>
       </c>
       <c r="K104" s="3">
         <f t="shared" si="14"/>
-        <v>-4557000</v>
+        <v>-4957000</v>
       </c>
       <c r="O104" s="13" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="105" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C105" s="3">
         <v>8208000</v>
@@ -6013,12 +6125,12 @@
         <v>-8208000</v>
       </c>
       <c r="O105" s="13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="106" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B106" s="123" t="s">
         <v>270</v>
-      </c>
-    </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B106" s="124" t="s">
-        <v>272</v>
       </c>
       <c r="C106" s="3">
         <v>4012000</v>
@@ -6026,140 +6138,181 @@
       <c r="D106" s="3">
         <v>760000</v>
       </c>
+      <c r="E106" s="3">
+        <v>350000</v>
+      </c>
       <c r="F106" s="3">
         <f t="shared" si="10"/>
-        <v>4772000</v>
+        <v>5122000</v>
       </c>
       <c r="G106" s="3">
         <f t="shared" si="11"/>
-        <v>5726400</v>
+        <v>6146400</v>
       </c>
       <c r="H106" s="3">
         <f t="shared" si="12"/>
-        <v>5965000</v>
+        <v>6402500</v>
+      </c>
+      <c r="I106" s="3">
+        <v>8000000</v>
       </c>
       <c r="K106" s="3">
         <f t="shared" si="14"/>
-        <v>-4772000</v>
+        <v>2878000</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="O106" s="13" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="107" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B107" s="55" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C107" s="3">
         <v>5540000</v>
       </c>
+      <c r="D107" s="3">
+        <v>678000</v>
+      </c>
       <c r="F107" s="3">
         <f t="shared" si="10"/>
-        <v>5540000</v>
+        <v>6218000</v>
       </c>
       <c r="G107" s="3">
         <f t="shared" si="11"/>
-        <v>6648000</v>
+        <v>7461600</v>
       </c>
       <c r="H107" s="3">
         <f t="shared" si="12"/>
-        <v>6925000</v>
+        <v>7772500</v>
       </c>
       <c r="K107" s="3">
         <f t="shared" si="14"/>
-        <v>-5540000</v>
+        <v>-6218000</v>
       </c>
       <c r="O107" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="108" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B108" s="55" t="s">
         <v>275</v>
-      </c>
-    </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B108" s="55" t="s">
-        <v>277</v>
       </c>
       <c r="C108" s="3">
         <v>7080000</v>
       </c>
+      <c r="D108" s="3">
+        <v>842000</v>
+      </c>
       <c r="F108" s="3">
         <f t="shared" si="10"/>
-        <v>7080000</v>
+        <v>7922000</v>
       </c>
       <c r="G108" s="3">
         <f t="shared" si="11"/>
-        <v>8496000</v>
+        <v>9506400</v>
       </c>
       <c r="H108" s="3">
         <f t="shared" si="12"/>
-        <v>8850000</v>
+        <v>9902500</v>
+      </c>
+      <c r="I108" s="3">
+        <v>10000000</v>
       </c>
       <c r="K108" s="3">
         <f t="shared" si="14"/>
-        <v>-7080000</v>
-      </c>
-      <c r="O108" s="123" t="s">
+        <v>2078000</v>
+      </c>
+      <c r="O108" s="122" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="109" spans="2:17" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="58" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B109" s="55" t="s">
+      <c r="C109" s="28">
+        <v>4200000</v>
+      </c>
+      <c r="D109" s="28">
+        <v>781000</v>
+      </c>
+      <c r="E109" s="28">
+        <v>430000</v>
+      </c>
+      <c r="F109" s="28">
+        <f t="shared" si="10"/>
+        <v>5411000</v>
+      </c>
+      <c r="G109" s="28">
+        <f t="shared" si="11"/>
+        <v>6493200</v>
+      </c>
+      <c r="H109" s="28">
+        <f t="shared" si="12"/>
+        <v>6763750</v>
+      </c>
+      <c r="I109" s="28">
+        <v>6150000</v>
+      </c>
+      <c r="J109" s="28"/>
+      <c r="K109" s="28">
+        <f t="shared" si="14"/>
+        <v>739000</v>
+      </c>
+      <c r="L109" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="N109" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="O109" s="127" t="s">
+        <v>277</v>
+      </c>
+      <c r="P109" s="126"/>
+      <c r="Q109" s="29" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="110" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B110" s="55" t="s">
         <v>278</v>
-      </c>
-      <c r="C109" s="3">
-        <v>4200000</v>
-      </c>
-      <c r="D109" s="3">
-        <v>781000</v>
-      </c>
-      <c r="F109" s="3">
-        <f t="shared" si="10"/>
-        <v>4981000</v>
-      </c>
-      <c r="G109" s="3">
-        <f t="shared" si="11"/>
-        <v>5977200</v>
-      </c>
-      <c r="H109" s="3">
-        <f t="shared" si="12"/>
-        <v>6226250</v>
-      </c>
-      <c r="K109" s="3">
-        <f t="shared" si="14"/>
-        <v>-4981000</v>
-      </c>
-      <c r="O109" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B110" s="55" t="s">
-        <v>280</v>
       </c>
       <c r="C110" s="3">
         <v>7080000</v>
       </c>
+      <c r="D110" s="3">
+        <v>945000</v>
+      </c>
       <c r="F110" s="3">
         <f t="shared" si="10"/>
-        <v>7080000</v>
+        <v>8025000</v>
       </c>
       <c r="G110" s="3">
         <f t="shared" si="11"/>
-        <v>8496000</v>
+        <v>9630000</v>
       </c>
       <c r="H110" s="3">
         <f t="shared" si="12"/>
-        <v>8850000</v>
+        <v>10031250</v>
+      </c>
+      <c r="I110" s="3">
+        <v>11000000</v>
       </c>
       <c r="K110" s="3">
         <f t="shared" si="14"/>
-        <v>-7080000</v>
+        <v>2975000</v>
       </c>
       <c r="O110" s="13" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="111" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B111" s="55" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C111" s="3">
         <v>7150000</v>
@@ -6181,325 +6334,542 @@
         <v>-7150000</v>
       </c>
       <c r="O111" s="13" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="112" spans="2:17" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="C112" s="28">
+        <f>13776000/4</f>
+        <v>3444000</v>
+      </c>
+      <c r="D112" s="28">
+        <f>3120000/5</f>
+        <v>624000</v>
+      </c>
+      <c r="E112" s="28"/>
+      <c r="F112" s="28">
+        <f t="shared" si="10"/>
+        <v>4068000</v>
+      </c>
+      <c r="G112" s="28">
+        <f t="shared" si="11"/>
+        <v>4881600</v>
+      </c>
+      <c r="H112" s="28">
+        <f t="shared" si="12"/>
+        <v>5085000</v>
+      </c>
+      <c r="I112" s="28">
+        <v>5300000</v>
+      </c>
+      <c r="J112" s="28"/>
+      <c r="K112" s="28">
+        <f t="shared" si="14"/>
+        <v>1232000</v>
+      </c>
+      <c r="L112" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="N112" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="O112" s="137" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B112" s="55" t="s">
+      <c r="P112" s="126"/>
+      <c r="Q112" s="29" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="113" spans="2:17" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="C113" s="28">
+        <f t="shared" ref="C113:C115" si="15">13776000/4</f>
+        <v>3444000</v>
+      </c>
+      <c r="D113" s="28">
+        <f t="shared" ref="D113:D116" si="16">3120000/5</f>
+        <v>624000</v>
+      </c>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28">
+        <f t="shared" ref="F113:F114" si="17">C113+D113+E113</f>
+        <v>4068000</v>
+      </c>
+      <c r="G113" s="28">
+        <f t="shared" ref="G113:G114" si="18">(F113*20%)+F113</f>
+        <v>4881600</v>
+      </c>
+      <c r="H113" s="28">
+        <f t="shared" ref="H113:H114" si="19">(F113*25%)+F113</f>
+        <v>5085000</v>
+      </c>
+      <c r="I113" s="28">
+        <v>5300000</v>
+      </c>
+      <c r="J113" s="28"/>
+      <c r="K113" s="28">
+        <f t="shared" ref="K113:K114" si="20">I113-J113-F113</f>
+        <v>1232000</v>
+      </c>
+      <c r="L113" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="N113" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="O113" s="139"/>
+      <c r="P113" s="126"/>
+      <c r="Q113" s="29" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="114" spans="2:17" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="C114" s="28">
+        <f t="shared" si="15"/>
+        <v>3444000</v>
+      </c>
+      <c r="D114" s="28">
+        <f t="shared" si="16"/>
+        <v>624000</v>
+      </c>
+      <c r="E114" s="28"/>
+      <c r="F114" s="28">
+        <f t="shared" si="17"/>
+        <v>4068000</v>
+      </c>
+      <c r="G114" s="28">
+        <f t="shared" si="18"/>
+        <v>4881600</v>
+      </c>
+      <c r="H114" s="28">
+        <f t="shared" si="19"/>
+        <v>5085000</v>
+      </c>
+      <c r="I114" s="28">
+        <v>5300000</v>
+      </c>
+      <c r="J114" s="28"/>
+      <c r="K114" s="28">
+        <f t="shared" si="20"/>
+        <v>1232000</v>
+      </c>
+      <c r="L114" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="N114" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="O114" s="139"/>
+      <c r="P114" s="126"/>
+      <c r="Q114" s="29" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="115" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B115" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="C115" s="3">
+        <f t="shared" si="15"/>
+        <v>3444000</v>
+      </c>
+      <c r="D115" s="28">
+        <f t="shared" si="16"/>
+        <v>624000</v>
+      </c>
+      <c r="F115" s="3">
+        <f t="shared" ref="F115" si="21">C115+D115+E115</f>
+        <v>4068000</v>
+      </c>
+      <c r="G115" s="3">
+        <f t="shared" ref="G115" si="22">(F115*20%)+F115</f>
+        <v>4881600</v>
+      </c>
+      <c r="H115" s="3">
+        <f t="shared" ref="H115" si="23">(F115*25%)+F115</f>
+        <v>5085000</v>
+      </c>
+      <c r="K115" s="3">
+        <f t="shared" ref="K115" si="24">I115-J115-F115</f>
+        <v>-4068000</v>
+      </c>
+      <c r="O115" s="139"/>
+    </row>
+    <row r="116" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B116" s="55" t="s">
         <v>284</v>
       </c>
-      <c r="C112" s="3">
-        <v>13776000</v>
-      </c>
-      <c r="F112" s="3">
+      <c r="C116" s="3">
+        <v>5166000</v>
+      </c>
+      <c r="D116" s="28">
+        <f t="shared" si="16"/>
+        <v>624000</v>
+      </c>
+      <c r="F116" s="3">
         <f t="shared" si="10"/>
-        <v>13776000</v>
-      </c>
-      <c r="G112" s="3">
+        <v>5790000</v>
+      </c>
+      <c r="G116" s="3">
         <f t="shared" si="11"/>
-        <v>16531200</v>
-      </c>
-      <c r="H112" s="3">
+        <v>6948000</v>
+      </c>
+      <c r="H116" s="3">
         <f t="shared" si="12"/>
-        <v>17220000</v>
-      </c>
-      <c r="K112" s="3">
+        <v>7237500</v>
+      </c>
+      <c r="K116" s="3">
         <f t="shared" si="14"/>
-        <v>-13776000</v>
-      </c>
-      <c r="O112" s="126" t="s">
+        <v>-5790000</v>
+      </c>
+      <c r="O116" s="138"/>
+    </row>
+    <row r="117" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B117" s="55" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B113" s="55" t="s">
-        <v>286</v>
-      </c>
-      <c r="C113" s="3">
-        <v>5166000</v>
-      </c>
-      <c r="F113" s="3">
-        <f t="shared" si="10"/>
-        <v>5166000</v>
-      </c>
-      <c r="G113" s="3">
-        <f t="shared" si="11"/>
-        <v>6199200</v>
-      </c>
-      <c r="H113" s="3">
-        <f t="shared" si="12"/>
-        <v>6457500</v>
-      </c>
-      <c r="K113" s="3">
-        <f t="shared" si="14"/>
-        <v>-5166000</v>
-      </c>
-      <c r="O113" s="127"/>
-    </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B114" s="55" t="s">
-        <v>287</v>
-      </c>
-      <c r="C114" s="3">
+      <c r="C117" s="3">
         <v>3465000</v>
       </c>
-      <c r="F114" s="3">
+      <c r="F117" s="3">
         <f t="shared" si="10"/>
         <v>3465000</v>
       </c>
-      <c r="G114" s="3">
+      <c r="G117" s="3">
         <f t="shared" si="11"/>
         <v>4158000</v>
       </c>
-      <c r="H114" s="3">
+      <c r="H117" s="3">
         <f t="shared" si="12"/>
         <v>4331250</v>
       </c>
-      <c r="K114" s="3">
+      <c r="K117" s="3">
         <f t="shared" si="14"/>
         <v>-3465000</v>
       </c>
-      <c r="O114" s="13" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B115" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="C115" s="3">
+      <c r="O117" s="13" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="118" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B118" s="55" t="s">
+        <v>287</v>
+      </c>
+      <c r="C118" s="3">
         <v>7906000</v>
       </c>
-      <c r="F115" s="3">
-        <f t="shared" si="10"/>
-        <v>7906000</v>
-      </c>
-      <c r="G115" s="3">
-        <f t="shared" si="11"/>
-        <v>9487200</v>
-      </c>
-      <c r="H115" s="3">
-        <f t="shared" si="12"/>
-        <v>9882500</v>
-      </c>
-      <c r="K115" s="3">
-        <f t="shared" si="14"/>
-        <v>-7906000</v>
-      </c>
-      <c r="O115" s="13" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="116" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="128" t="s">
-        <v>291</v>
-      </c>
-      <c r="C116" s="32">
-        <v>13570000</v>
-      </c>
-      <c r="D116" s="32"/>
-      <c r="E116" s="32"/>
-      <c r="F116" s="3">
-        <f t="shared" si="10"/>
-        <v>13570000</v>
-      </c>
-      <c r="G116" s="3">
-        <f t="shared" si="11"/>
-        <v>16284000</v>
-      </c>
-      <c r="H116" s="3">
-        <f t="shared" si="12"/>
-        <v>16962500</v>
-      </c>
-      <c r="I116" s="32"/>
-      <c r="J116" s="32"/>
-      <c r="K116" s="3">
-        <f t="shared" si="14"/>
-        <v>-13570000</v>
-      </c>
-      <c r="O116" s="129" t="s">
-        <v>292</v>
-      </c>
-      <c r="P116" s="35"/>
-    </row>
-    <row r="117" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="128" t="s">
-        <v>291</v>
-      </c>
-      <c r="C117" s="32">
-        <v>13570000</v>
-      </c>
-      <c r="D117" s="32"/>
-      <c r="E117" s="32"/>
-      <c r="F117" s="3">
-        <f t="shared" si="10"/>
-        <v>13570000</v>
-      </c>
-      <c r="G117" s="3">
-        <f t="shared" si="11"/>
-        <v>16284000</v>
-      </c>
-      <c r="H117" s="3">
-        <f t="shared" si="12"/>
-        <v>16962500</v>
-      </c>
-      <c r="I117" s="32"/>
-      <c r="J117" s="32"/>
-      <c r="K117" s="3">
-        <f t="shared" si="14"/>
-        <v>-13570000</v>
-      </c>
-      <c r="O117" s="130"/>
-      <c r="P117" s="35"/>
-    </row>
-    <row r="118" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="128" t="s">
-        <v>291</v>
-      </c>
-      <c r="C118" s="32">
-        <v>13570000</v>
-      </c>
-      <c r="D118" s="32"/>
-      <c r="E118" s="32"/>
+      <c r="D118" s="3">
+        <v>740000</v>
+      </c>
+      <c r="E118" s="3">
+        <v>350000</v>
+      </c>
       <c r="F118" s="3">
         <f t="shared" si="10"/>
-        <v>13570000</v>
+        <v>8996000</v>
       </c>
       <c r="G118" s="3">
         <f t="shared" si="11"/>
-        <v>16284000</v>
+        <v>10795200</v>
       </c>
       <c r="H118" s="3">
         <f t="shared" si="12"/>
-        <v>16962500</v>
-      </c>
-      <c r="I118" s="32"/>
-      <c r="J118" s="32"/>
+        <v>11245000</v>
+      </c>
+      <c r="I118" s="3">
+        <v>10500000</v>
+      </c>
       <c r="K118" s="3">
         <f t="shared" si="14"/>
-        <v>-13570000</v>
-      </c>
-      <c r="O118" s="130"/>
-      <c r="P118" s="35"/>
-    </row>
-    <row r="119" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="128" t="s">
-        <v>291</v>
+        <v>1504000</v>
+      </c>
+      <c r="O118" s="13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="119" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="124" t="s">
+        <v>289</v>
       </c>
       <c r="C119" s="32">
-        <v>13570000</v>
-      </c>
-      <c r="D119" s="32"/>
+        <f>13570000/4</f>
+        <v>3392500</v>
+      </c>
+      <c r="D119" s="130">
+        <f>3718000/4</f>
+        <v>929500</v>
+      </c>
       <c r="E119" s="32"/>
       <c r="F119" s="3">
         <f t="shared" si="10"/>
-        <v>13570000</v>
+        <v>4322000</v>
       </c>
       <c r="G119" s="3">
         <f t="shared" si="11"/>
-        <v>16284000</v>
+        <v>5186400</v>
       </c>
       <c r="H119" s="3">
         <f t="shared" si="12"/>
-        <v>16962500</v>
+        <v>5402500</v>
       </c>
       <c r="I119" s="32"/>
       <c r="J119" s="32"/>
       <c r="K119" s="3">
         <f t="shared" si="14"/>
-        <v>-13570000</v>
-      </c>
-      <c r="O119" s="130"/>
+        <v>-4322000</v>
+      </c>
+      <c r="O119" s="140" t="s">
+        <v>290</v>
+      </c>
       <c r="P119" s="35"/>
     </row>
-    <row r="120" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="128" t="s">
-        <v>291</v>
+    <row r="120" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="124" t="s">
+        <v>289</v>
       </c>
       <c r="C120" s="32">
-        <v>13570000</v>
-      </c>
-      <c r="D120" s="32"/>
+        <f t="shared" ref="C120:C123" si="25">13570000/4</f>
+        <v>3392500</v>
+      </c>
+      <c r="D120" s="130">
+        <f t="shared" ref="D120:D123" si="26">3718000/4</f>
+        <v>929500</v>
+      </c>
       <c r="E120" s="32"/>
       <c r="F120" s="3">
         <f t="shared" si="10"/>
-        <v>13570000</v>
+        <v>4322000</v>
       </c>
       <c r="G120" s="3">
         <f t="shared" si="11"/>
-        <v>16284000</v>
+        <v>5186400</v>
       </c>
       <c r="H120" s="3">
         <f t="shared" si="12"/>
-        <v>16962500</v>
+        <v>5402500</v>
       </c>
       <c r="I120" s="32"/>
       <c r="J120" s="32"/>
       <c r="K120" s="3">
         <f t="shared" si="14"/>
-        <v>-13570000</v>
-      </c>
-      <c r="O120" s="131"/>
+        <v>-4322000</v>
+      </c>
+      <c r="O120" s="141"/>
       <c r="P120" s="35"/>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B121" s="55" t="s">
-        <v>293</v>
-      </c>
-      <c r="C121" s="3">
-        <v>7080000</v>
-      </c>
+    <row r="121" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="124" t="s">
+        <v>289</v>
+      </c>
+      <c r="C121" s="32">
+        <f t="shared" si="25"/>
+        <v>3392500</v>
+      </c>
+      <c r="D121" s="130">
+        <f t="shared" si="26"/>
+        <v>929500</v>
+      </c>
+      <c r="E121" s="32"/>
       <c r="F121" s="3">
         <f t="shared" si="10"/>
-        <v>7080000</v>
+        <v>4322000</v>
       </c>
       <c r="G121" s="3">
         <f t="shared" si="11"/>
-        <v>8496000</v>
+        <v>5186400</v>
       </c>
       <c r="H121" s="3">
         <f t="shared" si="12"/>
-        <v>8850000</v>
-      </c>
+        <v>5402500</v>
+      </c>
+      <c r="I121" s="32"/>
+      <c r="J121" s="32"/>
       <c r="K121" s="3">
         <f t="shared" si="14"/>
-        <v>-7080000</v>
-      </c>
-      <c r="O121" s="13" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B122" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="C122" s="3">
-        <v>6680000</v>
-      </c>
+        <v>-4322000</v>
+      </c>
+      <c r="O121" s="141"/>
+      <c r="P121" s="35"/>
+    </row>
+    <row r="122" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="124" t="s">
+        <v>289</v>
+      </c>
+      <c r="C122" s="32">
+        <f t="shared" si="25"/>
+        <v>3392500</v>
+      </c>
+      <c r="D122" s="130">
+        <f t="shared" si="26"/>
+        <v>929500</v>
+      </c>
+      <c r="E122" s="32"/>
       <c r="F122" s="3">
         <f t="shared" si="10"/>
-        <v>6680000</v>
+        <v>4322000</v>
       </c>
       <c r="G122" s="3">
         <f t="shared" si="11"/>
-        <v>8016000</v>
+        <v>5186400</v>
       </c>
       <c r="H122" s="3">
         <f t="shared" si="12"/>
-        <v>8350000</v>
-      </c>
+        <v>5402500</v>
+      </c>
+      <c r="I122" s="32"/>
+      <c r="J122" s="32"/>
       <c r="K122" s="3">
         <f t="shared" si="14"/>
-        <v>-6680000</v>
-      </c>
-      <c r="O122" s="13" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.25">
+        <v>-4322000</v>
+      </c>
+      <c r="O122" s="141"/>
+      <c r="P122" s="35"/>
+    </row>
+    <row r="123" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="124" t="s">
+        <v>289</v>
+      </c>
+      <c r="C123" s="32">
+        <f t="shared" si="25"/>
+        <v>3392500</v>
+      </c>
+      <c r="D123" s="130">
+        <f t="shared" si="26"/>
+        <v>929500</v>
+      </c>
+      <c r="E123" s="32"/>
       <c r="F123" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4322000</v>
+      </c>
+      <c r="G123" s="3">
+        <f t="shared" si="11"/>
+        <v>5186400</v>
+      </c>
+      <c r="H123" s="3">
+        <f t="shared" si="12"/>
+        <v>5402500</v>
+      </c>
+      <c r="I123" s="32"/>
+      <c r="J123" s="32"/>
+      <c r="K123" s="3">
+        <f t="shared" si="14"/>
+        <v>-4322000</v>
+      </c>
+      <c r="L123" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="O123" s="142"/>
+      <c r="P123" s="35"/>
+    </row>
+    <row r="124" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B124" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="C124" s="3">
+        <v>7080000</v>
+      </c>
+      <c r="F124" s="3">
+        <f t="shared" si="10"/>
+        <v>7080000</v>
+      </c>
+      <c r="G124" s="3">
+        <f t="shared" si="11"/>
+        <v>8496000</v>
+      </c>
+      <c r="H124" s="3">
+        <f t="shared" si="12"/>
+        <v>8850000</v>
+      </c>
+      <c r="K124" s="3">
+        <f t="shared" si="14"/>
+        <v>-7080000</v>
+      </c>
+      <c r="O124" s="13" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="125" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B125" s="55" t="s">
+        <v>294</v>
+      </c>
+      <c r="C125" s="3">
+        <v>6680000</v>
+      </c>
+      <c r="F125" s="3">
+        <f t="shared" si="10"/>
+        <v>6680000</v>
+      </c>
+      <c r="G125" s="3">
+        <f t="shared" si="11"/>
+        <v>8016000</v>
+      </c>
+      <c r="H125" s="3">
+        <f t="shared" si="12"/>
+        <v>8350000</v>
+      </c>
+      <c r="K125" s="3">
+        <f t="shared" si="14"/>
+        <v>-6680000</v>
+      </c>
+      <c r="O125" s="13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="126" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B126" s="55" t="s">
+        <v>312</v>
+      </c>
+      <c r="C126" s="3">
+        <v>7488000</v>
+      </c>
+      <c r="F126" s="3">
+        <f t="shared" si="10"/>
+        <v>7488000</v>
+      </c>
+      <c r="O126" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="127" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B127" s="55" t="s">
+        <v>313</v>
+      </c>
+      <c r="C127" s="3">
+        <v>7776000</v>
+      </c>
+      <c r="F127" s="3">
+        <f t="shared" si="10"/>
+        <v>7776000</v>
+      </c>
+      <c r="O127" s="13" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="128" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B128" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="C128" s="3">
+        <v>8160000</v>
+      </c>
+      <c r="F128" s="3">
+        <f t="shared" si="10"/>
+        <v>8160000</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="3" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -6507,8 +6877,8 @@
   <mergeCells count="4">
     <mergeCell ref="O72:O74"/>
     <mergeCell ref="O96:O97"/>
-    <mergeCell ref="O112:O113"/>
-    <mergeCell ref="O116:O120"/>
+    <mergeCell ref="O112:O116"/>
+    <mergeCell ref="O119:O123"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="C2:G2 H2:N17 O2:O22 B2:B25 P2:P25 Q2:Q39 C3:E25 F3:G27 K3:K79 L18:N39 H18:J65 O26:P26 D26:E38 F28 G28:G72 C29:F38 O29:P38 D39:F39 C40:F41 L40:Q41 Q42:Q43 D42:F57 L42:N69 P44:P49 Q50:Q69 E58:F58 D59:F69 I66:J69 H66:H72 D71:F72 I71:J72 L71:N73 Q71:Q78 D73:J78 M74:N74 L75:N78">
@@ -6516,7 +6886,7 @@
       <formula>MOD(ROW(),2)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F102:F123">
+  <conditionalFormatting sqref="F102:F126">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)&gt;0</formula>
     </cfRule>
@@ -6533,80 +6903,123 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7319406-98BD-447D-8271-4689041D1616}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="1" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>181</v>
       </c>
       <c r="B2" s="1">
         <v>300000</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="1">
+        <f>B2+100000</f>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="1">
         <v>150000</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C9" si="0">B3+100000</f>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B4" s="1">
         <v>150000</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B5" s="1">
         <v>160000</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B6" s="1">
         <v>300000</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B7" s="1">
         <v>600000</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B8" s="1">
         <v>300000</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B9">
+        <v>250000</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>350000</v>
       </c>
     </row>
   </sheetData>

--- a/TDStore/NhapXuatLaptop.xlsx
+++ b/TDStore/NhapXuatLaptop.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01.GIT\04.Private\TDStore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06.TDStore\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC235CA-2F4F-41EA-9B34-D89A339AE14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D457A0D4-CCF8-4780-B661-EFF096E6C514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NhapXuat!$L$1:$L$80</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="331">
   <si>
     <t>ID máy</t>
   </si>
@@ -874,12 +874,6 @@
     <t>781916007663</t>
   </si>
   <si>
-    <t>HP ENVY ×360 Convertible 15-es0xxx</t>
-  </si>
-  <si>
-    <t>9405508205498019636774</t>
-  </si>
-  <si>
     <t>DELL LATITUDE 7400 LAPTOP 256GB SSD 8GB RAM i5-8365U 1.90GHz Notebook</t>
   </si>
   <si>
@@ -952,9 +946,6 @@
     <t>CXQHLF2</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>6RTPXT2</t>
   </si>
   <si>
@@ -982,7 +973,58 @@
     <t>782622867860</t>
   </si>
   <si>
-    <t>ơ</t>
+    <t>A Bình MBB</t>
+  </si>
+  <si>
+    <t>A Trinh OKI</t>
+  </si>
+  <si>
+    <t>Liễu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Đạt</t>
+  </si>
+  <si>
+    <t>2x Dell Latitude 7400 Intel i5-8365U 1.60 GHZ 16GB RAM 512GB SSD WINDOWS 10 PRO</t>
+  </si>
+  <si>
+    <t>9405511206215701689448</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7420/i5-1135G7 2.4GHz/8GBRAM/256GBSSD/Win11Pro W/ Docking Station</t>
+  </si>
+  <si>
+    <t>1ZAC98180315632016</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7400 2 in 1 Laptop i5-8365U 1.60GHz 8GB 256GB SSD 14.0" FHD</t>
+  </si>
+  <si>
+    <t>783000943654</t>
+  </si>
+  <si>
+    <t>Dell 14" Latitude 7400 2-in-1 Touch i5-8365U 1.60GHz 16GB LPDDR3 256GB PCIe NVMe</t>
+  </si>
+  <si>
+    <t>783065712782</t>
+  </si>
+  <si>
+    <t>2xDell Latitude 7400 Intel i5-8365U 1.60 GHZ 16GB RAM 512GB SSD WINDOWS 10 PRO</t>
+  </si>
+  <si>
+    <t>9405511206215774441585</t>
+  </si>
+  <si>
+    <t>MICROSOFT SURFACE LAPTOP GO 1943 (P15003927)</t>
+  </si>
+  <si>
+    <t>9405508205498107981731</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7410 Intel i5-10310U 1.70GHz 16GB RAM 512GB SSD WIN10</t>
+  </si>
+  <si>
+    <t>9405511206215208706365</t>
   </si>
 </sst>
 </file>
@@ -1223,7 +1265,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1502,6 +1544,12 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1570,7 +1618,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1619,7 +1667,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1668,7 +1716,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1973,11 +2021,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q133"/>
+  <dimension ref="A1:Q185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C129" sqref="C129"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E185" sqref="E185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3254,7 +3302,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="70">
         <v>31</v>
       </c>
@@ -3282,15 +3330,17 @@
         <f t="shared" si="5"/>
         <v>9730060</v>
       </c>
-      <c r="I32" s="96" t="s">
-        <v>110</v>
+      <c r="I32" s="96">
+        <v>8500000</v>
       </c>
       <c r="J32" s="96"/>
-      <c r="K32" s="96" t="e">
+      <c r="K32" s="96">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L32" s="98"/>
+        <v>715952</v>
+      </c>
+      <c r="L32" s="98" t="s">
+        <v>33</v>
+      </c>
       <c r="M32" s="98"/>
       <c r="N32" s="98"/>
       <c r="O32" s="99" t="s">
@@ -4394,7 +4444,7 @@
       </c>
       <c r="P59" s="53"/>
     </row>
-    <row r="60" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="70">
         <v>59</v>
       </c>
@@ -4422,12 +4472,12 @@
         <f t="shared" si="9"/>
         <v>3579375</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="K60" s="3" t="e">
+      <c r="I60" s="3">
+        <v>4500000</v>
+      </c>
+      <c r="K60" s="3">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
+        <v>1636500</v>
       </c>
       <c r="O60" s="16" t="s">
         <v>151</v>
@@ -4679,7 +4729,7 @@
       </c>
       <c r="P66" s="17"/>
     </row>
-    <row r="67" spans="1:17" s="66" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" s="66" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="74">
         <v>66</v>
       </c>
@@ -4925,7 +4975,7 @@
       <c r="L72" s="109" t="s">
         <v>215</v>
       </c>
-      <c r="O72" s="136" t="s">
+      <c r="O72" s="140" t="s">
         <v>190</v>
       </c>
       <c r="P72" s="110"/>
@@ -4947,15 +4997,15 @@
         <v>450000</v>
       </c>
       <c r="F73" s="3">
-        <f t="shared" ref="F73:F128" si="10">C73+D73+E73</f>
+        <f t="shared" ref="F73:F133" si="10">C73+D73+E73</f>
         <v>4550000</v>
       </c>
       <c r="G73" s="28">
-        <f t="shared" ref="G73:G125" si="11">(F73*20%)+F73</f>
+        <f t="shared" ref="G73:G128" si="11">(F73*20%)+F73</f>
         <v>5460000</v>
       </c>
       <c r="H73" s="3">
-        <f t="shared" ref="H73:H125" si="12">(F73*25%)+F73</f>
+        <f t="shared" ref="H73:H128" si="12">(F73*25%)+F73</f>
         <v>5687500</v>
       </c>
       <c r="I73" s="3">
@@ -4968,7 +5018,7 @@
       <c r="L73" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="O73" s="136"/>
+      <c r="O73" s="140"/>
       <c r="P73" s="17"/>
     </row>
     <row r="74" spans="1:17" s="91" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5009,7 +5059,7 @@
       </c>
       <c r="M74" s="115"/>
       <c r="N74" s="115"/>
-      <c r="O74" s="136"/>
+      <c r="O74" s="140"/>
       <c r="P74" s="116"/>
     </row>
     <row r="75" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5086,7 +5136,7 @@
       </c>
       <c r="P76" s="17"/>
     </row>
-    <row r="77" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="80">
         <v>76</v>
       </c>
@@ -5100,26 +5150,29 @@
         <v>760000</v>
       </c>
       <c r="E77" s="3">
-        <v>350000</v>
+        <v>600000</v>
       </c>
       <c r="F77" s="3">
         <f t="shared" si="10"/>
-        <v>6816000</v>
+        <v>7066000</v>
       </c>
       <c r="G77" s="28">
         <f t="shared" si="11"/>
-        <v>8179200</v>
+        <v>8479200</v>
       </c>
       <c r="H77" s="3">
         <f t="shared" si="12"/>
-        <v>8520000</v>
+        <v>8832500</v>
       </c>
       <c r="I77" s="3">
-        <v>8500000</v>
+        <v>9000000</v>
       </c>
       <c r="K77" s="3">
         <f t="shared" si="13"/>
-        <v>1684000</v>
+        <v>1934000</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="O77" s="16" t="s">
         <v>196</v>
@@ -5279,7 +5332,7 @@
         <v>10500000</v>
       </c>
       <c r="K81" s="3">
-        <f t="shared" ref="K81:K125" si="14">I81-J81-F81</f>
+        <f t="shared" ref="K81:K129" si="14">I81-J81-F81</f>
         <v>2041500</v>
       </c>
       <c r="L81" s="2" t="s">
@@ -5436,7 +5489,7 @@
         <v>1395000</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="N85" s="2" t="s">
         <v>247</v>
@@ -5481,7 +5534,7 @@
         <v>1370500</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="O86" s="105" t="s">
         <v>212</v>
@@ -5526,7 +5579,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="80"/>
       <c r="B88" s="2" t="s">
         <v>244</v>
@@ -5596,7 +5649,7 @@
         <v>2399000</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="N89" s="2" t="s">
         <v>243</v>
@@ -5737,7 +5790,7 @@
         <v>1619000</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O93" s="13" t="s">
         <v>232</v>
@@ -5841,20 +5894,20 @@
         <v>1347000</v>
       </c>
       <c r="L96" s="29" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="N96" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="O96" s="137" t="s">
+        <v>303</v>
+      </c>
+      <c r="O96" s="141" t="s">
         <v>240</v>
       </c>
       <c r="P96" s="126"/>
       <c r="Q96" s="29" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="97" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B97" s="55" t="s">
         <v>239</v>
       </c>
@@ -5880,7 +5933,7 @@
         <f t="shared" si="14"/>
         <v>-4698000</v>
       </c>
-      <c r="O97" s="138"/>
+      <c r="O97" s="142"/>
     </row>
     <row r="98" spans="2:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="131" t="s">
@@ -6002,7 +6055,7 @@
       </c>
       <c r="P101" s="121"/>
     </row>
-    <row r="102" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B102" s="55" t="s">
         <v>267</v>
       </c>
@@ -6032,7 +6085,7 @@
         <v>3152000</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="O102" s="13" t="s">
         <v>266</v>
@@ -6079,23 +6132,29 @@
         <v>781000</v>
       </c>
       <c r="E104" s="3">
-        <v>400000</v>
+        <v>560000</v>
       </c>
       <c r="F104" s="3">
         <f t="shared" si="10"/>
-        <v>4957000</v>
+        <v>5117000</v>
       </c>
       <c r="G104" s="3">
         <f t="shared" si="11"/>
-        <v>5948400</v>
+        <v>6140400</v>
       </c>
       <c r="H104" s="3">
         <f t="shared" si="12"/>
-        <v>6196250</v>
+        <v>6396250</v>
+      </c>
+      <c r="I104" s="3">
+        <v>7500000</v>
       </c>
       <c r="K104" s="3">
         <f t="shared" si="14"/>
-        <v>-4957000</v>
+        <v>2383000</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="O104" s="13" t="s">
         <v>263</v>
@@ -6108,27 +6167,33 @@
       <c r="C105" s="3">
         <v>8208000</v>
       </c>
+      <c r="D105" s="3">
+        <v>1067000</v>
+      </c>
       <c r="F105" s="3">
         <f t="shared" si="10"/>
-        <v>8208000</v>
+        <v>9275000</v>
       </c>
       <c r="G105" s="3">
         <f t="shared" si="11"/>
-        <v>9849600</v>
+        <v>11130000</v>
       </c>
       <c r="H105" s="3">
         <f t="shared" si="12"/>
-        <v>10260000</v>
+        <v>11593750</v>
+      </c>
+      <c r="I105" s="3">
+        <v>11500000</v>
       </c>
       <c r="K105" s="3">
         <f t="shared" si="14"/>
-        <v>-8208000</v>
+        <v>2225000</v>
       </c>
       <c r="O105" s="13" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B106" s="123" t="s">
         <v>270</v>
       </c>
@@ -6161,41 +6226,45 @@
         <v>2878000</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="O106" s="13" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B107" s="55" t="s">
+    <row r="107" spans="2:17" s="137" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="131" t="s">
         <v>272</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C107" s="136">
         <v>5540000</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D107" s="136">
         <v>678000</v>
       </c>
-      <c r="F107" s="3">
+      <c r="E107" s="136"/>
+      <c r="F107" s="136">
         <f t="shared" si="10"/>
         <v>6218000</v>
       </c>
-      <c r="G107" s="3">
+      <c r="G107" s="136">
         <f t="shared" si="11"/>
         <v>7461600</v>
       </c>
-      <c r="H107" s="3">
+      <c r="H107" s="136">
         <f t="shared" si="12"/>
         <v>7772500</v>
       </c>
-      <c r="K107" s="3">
+      <c r="I107" s="136"/>
+      <c r="J107" s="136"/>
+      <c r="K107" s="136">
         <f t="shared" si="14"/>
         <v>-6218000</v>
       </c>
-      <c r="O107" s="13" t="s">
+      <c r="O107" s="138" t="s">
         <v>273</v>
       </c>
+      <c r="P107" s="139"/>
     </row>
     <row r="108" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B108" s="55" t="s">
@@ -6264,20 +6333,20 @@
         <v>739000</v>
       </c>
       <c r="L109" s="29" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="N109" s="29" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O109" s="127" t="s">
         <v>277</v>
       </c>
       <c r="P109" s="126"/>
       <c r="Q109" s="29" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="110" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B110" s="55" t="s">
         <v>278</v>
       </c>
@@ -6300,66 +6369,89 @@
         <v>10031250</v>
       </c>
       <c r="I110" s="3">
-        <v>11000000</v>
+        <v>10500000</v>
       </c>
       <c r="K110" s="3">
         <f t="shared" si="14"/>
-        <v>2975000</v>
+        <v>2475000</v>
+      </c>
+      <c r="L110" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="O110" s="13" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B111" s="55" t="s">
+    <row r="111" spans="2:17" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="58" t="s">
         <v>280</v>
       </c>
-      <c r="C111" s="3">
-        <v>7150000</v>
-      </c>
-      <c r="F111" s="3">
-        <f t="shared" si="10"/>
-        <v>7150000</v>
-      </c>
-      <c r="G111" s="3">
-        <f t="shared" si="11"/>
-        <v>8580000</v>
-      </c>
-      <c r="H111" s="3">
-        <f t="shared" si="12"/>
-        <v>8937500</v>
-      </c>
-      <c r="K111" s="3">
-        <f t="shared" si="14"/>
-        <v>-7150000</v>
-      </c>
-      <c r="O111" s="13" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="112" spans="2:17" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="C112" s="28">
+      <c r="C111" s="28">
         <f>13776000/4</f>
         <v>3444000</v>
       </c>
-      <c r="D112" s="28">
+      <c r="D111" s="28">
         <f>3120000/5</f>
         <v>624000</v>
       </c>
+      <c r="E111" s="28"/>
+      <c r="F111" s="28">
+        <f t="shared" si="10"/>
+        <v>4068000</v>
+      </c>
+      <c r="G111" s="28">
+        <f t="shared" si="11"/>
+        <v>4881600</v>
+      </c>
+      <c r="H111" s="28">
+        <f t="shared" si="12"/>
+        <v>5085000</v>
+      </c>
+      <c r="I111" s="28">
+        <v>5300000</v>
+      </c>
+      <c r="J111" s="28"/>
+      <c r="K111" s="28">
+        <f t="shared" si="14"/>
+        <v>1232000</v>
+      </c>
+      <c r="L111" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="N111" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="O111" s="141" t="s">
+        <v>281</v>
+      </c>
+      <c r="P111" s="126"/>
+      <c r="Q111" s="29" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="112" spans="2:17" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="58" t="s">
+        <v>280</v>
+      </c>
+      <c r="C112" s="28">
+        <f t="shared" ref="C112:C114" si="15">13776000/4</f>
+        <v>3444000</v>
+      </c>
+      <c r="D112" s="28">
+        <f t="shared" ref="D112:D115" si="16">3120000/5</f>
+        <v>624000</v>
+      </c>
       <c r="E112" s="28"/>
       <c r="F112" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="F112:F113" si="17">C112+D112+E112</f>
         <v>4068000</v>
       </c>
       <c r="G112" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="G112:G113" si="18">(F112*20%)+F112</f>
         <v>4881600</v>
       </c>
       <c r="H112" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="H112:H113" si="19">(F112*25%)+F112</f>
         <v>5085000</v>
       </c>
       <c r="I112" s="28">
@@ -6367,46 +6459,44 @@
       </c>
       <c r="J112" s="28"/>
       <c r="K112" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="K112:K113" si="20">I112-J112-F112</f>
         <v>1232000</v>
       </c>
       <c r="L112" s="29" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="N112" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="O112" s="137" t="s">
-        <v>283</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="O112" s="143"/>
       <c r="P112" s="126"/>
       <c r="Q112" s="29" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="113" spans="2:17" s="29" customFormat="1" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="113" spans="2:17" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B113" s="58" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C113" s="28">
-        <f t="shared" ref="C113:C115" si="15">13776000/4</f>
+        <f t="shared" si="15"/>
         <v>3444000</v>
       </c>
       <c r="D113" s="28">
-        <f t="shared" ref="D113:D116" si="16">3120000/5</f>
+        <f t="shared" si="16"/>
         <v>624000</v>
       </c>
       <c r="E113" s="28"/>
       <c r="F113" s="28">
-        <f t="shared" ref="F113:F114" si="17">C113+D113+E113</f>
+        <f t="shared" si="17"/>
         <v>4068000</v>
       </c>
       <c r="G113" s="28">
-        <f t="shared" ref="G113:G114" si="18">(F113*20%)+F113</f>
+        <f t="shared" si="18"/>
         <v>4881600</v>
       </c>
       <c r="H113" s="28">
-        <f t="shared" ref="H113:H114" si="19">(F113*25%)+F113</f>
+        <f t="shared" si="19"/>
         <v>5085000</v>
       </c>
       <c r="I113" s="28">
@@ -6414,26 +6504,26 @@
       </c>
       <c r="J113" s="28"/>
       <c r="K113" s="28">
-        <f t="shared" ref="K113:K114" si="20">I113-J113-F113</f>
+        <f t="shared" si="20"/>
         <v>1232000</v>
       </c>
       <c r="L113" s="29" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="N113" s="29" t="s">
-        <v>298</v>
-      </c>
-      <c r="O113" s="139"/>
+        <v>297</v>
+      </c>
+      <c r="O113" s="143"/>
       <c r="P113" s="126"/>
       <c r="Q113" s="29" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="114" spans="2:17" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="C114" s="28">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="114" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B114" s="55" t="s">
+        <v>280</v>
+      </c>
+      <c r="C114" s="3">
         <f t="shared" si="15"/>
         <v>3444000</v>
       </c>
@@ -6441,171 +6531,170 @@
         <f t="shared" si="16"/>
         <v>624000</v>
       </c>
-      <c r="E114" s="28"/>
-      <c r="F114" s="28">
-        <f t="shared" si="17"/>
+      <c r="F114" s="3">
+        <f t="shared" ref="F114" si="21">C114+D114+E114</f>
         <v>4068000</v>
       </c>
-      <c r="G114" s="28">
-        <f t="shared" si="18"/>
+      <c r="G114" s="3">
+        <f t="shared" ref="G114" si="22">(F114*20%)+F114</f>
         <v>4881600</v>
       </c>
-      <c r="H114" s="28">
-        <f t="shared" si="19"/>
+      <c r="H114" s="3">
+        <f t="shared" ref="H114" si="23">(F114*25%)+F114</f>
         <v>5085000</v>
       </c>
-      <c r="I114" s="28">
-        <v>5300000</v>
-      </c>
-      <c r="J114" s="28"/>
-      <c r="K114" s="28">
-        <f t="shared" si="20"/>
-        <v>1232000</v>
-      </c>
-      <c r="L114" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="N114" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="O114" s="139"/>
-      <c r="P114" s="126"/>
-      <c r="Q114" s="29" t="s">
-        <v>303</v>
-      </c>
+      <c r="K114" s="3">
+        <f t="shared" ref="K114" si="24">I114-J114-F114</f>
+        <v>-4068000</v>
+      </c>
+      <c r="O114" s="143"/>
     </row>
     <row r="115" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B115" s="55" t="s">
         <v>282</v>
       </c>
       <c r="C115" s="3">
-        <f t="shared" si="15"/>
-        <v>3444000</v>
+        <v>5166000</v>
       </c>
       <c r="D115" s="28">
         <f t="shared" si="16"/>
         <v>624000</v>
       </c>
       <c r="F115" s="3">
-        <f t="shared" ref="F115" si="21">C115+D115+E115</f>
-        <v>4068000</v>
+        <f t="shared" si="10"/>
+        <v>5790000</v>
       </c>
       <c r="G115" s="3">
-        <f t="shared" ref="G115" si="22">(F115*20%)+F115</f>
-        <v>4881600</v>
+        <f t="shared" si="11"/>
+        <v>6948000</v>
       </c>
       <c r="H115" s="3">
-        <f t="shared" ref="H115" si="23">(F115*25%)+F115</f>
-        <v>5085000</v>
+        <f t="shared" si="12"/>
+        <v>7237500</v>
       </c>
       <c r="K115" s="3">
-        <f t="shared" ref="K115" si="24">I115-J115-F115</f>
-        <v>-4068000</v>
-      </c>
-      <c r="O115" s="139"/>
+        <f t="shared" si="14"/>
+        <v>-5790000</v>
+      </c>
+      <c r="O115" s="142"/>
     </row>
     <row r="116" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B116" s="55" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C116" s="3">
-        <v>5166000</v>
-      </c>
-      <c r="D116" s="28">
-        <f t="shared" si="16"/>
-        <v>624000</v>
+        <v>3465000</v>
       </c>
       <c r="F116" s="3">
         <f t="shared" si="10"/>
-        <v>5790000</v>
+        <v>3465000</v>
       </c>
       <c r="G116" s="3">
         <f t="shared" si="11"/>
-        <v>6948000</v>
+        <v>4158000</v>
       </c>
       <c r="H116" s="3">
         <f t="shared" si="12"/>
-        <v>7237500</v>
+        <v>4331250</v>
       </c>
       <c r="K116" s="3">
         <f t="shared" si="14"/>
-        <v>-5790000</v>
-      </c>
-      <c r="O116" s="138"/>
-    </row>
-    <row r="117" spans="2:17" x14ac:dyDescent="0.25">
+        <v>-3465000</v>
+      </c>
+      <c r="O116" s="13" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="117" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B117" s="55" t="s">
         <v>285</v>
       </c>
       <c r="C117" s="3">
-        <v>3465000</v>
+        <v>7906000</v>
+      </c>
+      <c r="D117" s="3">
+        <v>740000</v>
+      </c>
+      <c r="E117" s="3">
+        <v>350000</v>
       </c>
       <c r="F117" s="3">
         <f t="shared" si="10"/>
-        <v>3465000</v>
+        <v>8996000</v>
       </c>
       <c r="G117" s="3">
         <f t="shared" si="11"/>
-        <v>4158000</v>
+        <v>10795200</v>
       </c>
       <c r="H117" s="3">
         <f t="shared" si="12"/>
-        <v>4331250</v>
+        <v>11245000</v>
+      </c>
+      <c r="I117" s="3">
+        <v>10500000</v>
       </c>
       <c r="K117" s="3">
         <f t="shared" si="14"/>
-        <v>-3465000</v>
+        <v>1504000</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="O117" s="13" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="118" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B118" s="55" t="s">
+    <row r="118" spans="2:17" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="124" t="s">
         <v>287</v>
       </c>
-      <c r="C118" s="3">
-        <v>7906000</v>
-      </c>
-      <c r="D118" s="3">
-        <v>740000</v>
-      </c>
-      <c r="E118" s="3">
-        <v>350000</v>
-      </c>
+      <c r="C118" s="32">
+        <f>13570000/4</f>
+        <v>3392500</v>
+      </c>
+      <c r="D118" s="130">
+        <f>3718000/4</f>
+        <v>929500</v>
+      </c>
+      <c r="E118" s="32"/>
       <c r="F118" s="3">
         <f t="shared" si="10"/>
-        <v>8996000</v>
+        <v>4322000</v>
       </c>
       <c r="G118" s="3">
         <f t="shared" si="11"/>
-        <v>10795200</v>
+        <v>5186400</v>
       </c>
       <c r="H118" s="3">
         <f t="shared" si="12"/>
-        <v>11245000</v>
-      </c>
-      <c r="I118" s="3">
-        <v>10500000</v>
-      </c>
+        <v>5402500</v>
+      </c>
+      <c r="I118" s="32">
+        <v>5800000</v>
+      </c>
+      <c r="J118" s="32"/>
       <c r="K118" s="3">
         <f t="shared" si="14"/>
-        <v>1504000</v>
-      </c>
-      <c r="O118" s="13" t="s">
+        <v>1478000</v>
+      </c>
+      <c r="L118" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="O118" s="144" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="119" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P118" s="35"/>
+    </row>
+    <row r="119" spans="2:17" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B119" s="124" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C119" s="32">
-        <f>13570000/4</f>
+        <f t="shared" ref="C119:C122" si="25">13570000/4</f>
         <v>3392500</v>
       </c>
       <c r="D119" s="130">
-        <f>3718000/4</f>
+        <f t="shared" ref="D119:D122" si="26">3718000/4</f>
         <v>929500</v>
       </c>
       <c r="E119" s="32"/>
@@ -6621,27 +6710,30 @@
         <f t="shared" si="12"/>
         <v>5402500</v>
       </c>
-      <c r="I119" s="32"/>
+      <c r="I119" s="32">
+        <v>5800000</v>
+      </c>
       <c r="J119" s="32"/>
       <c r="K119" s="3">
         <f t="shared" si="14"/>
-        <v>-4322000</v>
-      </c>
-      <c r="O119" s="140" t="s">
-        <v>290</v>
-      </c>
+        <v>1478000</v>
+      </c>
+      <c r="L119" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="O119" s="145"/>
       <c r="P119" s="35"/>
     </row>
-    <row r="120" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:17" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B120" s="124" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C120" s="32">
-        <f t="shared" ref="C120:C123" si="25">13570000/4</f>
+        <f t="shared" si="25"/>
         <v>3392500</v>
       </c>
       <c r="D120" s="130">
-        <f t="shared" ref="D120:D123" si="26">3718000/4</f>
+        <f t="shared" si="26"/>
         <v>929500</v>
       </c>
       <c r="E120" s="32"/>
@@ -6657,18 +6749,23 @@
         <f t="shared" si="12"/>
         <v>5402500</v>
       </c>
-      <c r="I120" s="32"/>
+      <c r="I120" s="32">
+        <v>5800000</v>
+      </c>
       <c r="J120" s="32"/>
       <c r="K120" s="3">
         <f t="shared" si="14"/>
-        <v>-4322000</v>
-      </c>
-      <c r="O120" s="141"/>
+        <v>1478000</v>
+      </c>
+      <c r="L120" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="O120" s="145"/>
       <c r="P120" s="35"/>
     </row>
-    <row r="121" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:17" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B121" s="124" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C121" s="32">
         <f t="shared" si="25"/>
@@ -6691,18 +6788,23 @@
         <f t="shared" si="12"/>
         <v>5402500</v>
       </c>
-      <c r="I121" s="32"/>
+      <c r="I121" s="32">
+        <v>5800000</v>
+      </c>
       <c r="J121" s="32"/>
       <c r="K121" s="3">
         <f t="shared" si="14"/>
-        <v>-4322000</v>
-      </c>
-      <c r="O121" s="141"/>
+        <v>1478000</v>
+      </c>
+      <c r="L121" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="O121" s="145"/>
       <c r="P121" s="35"/>
     </row>
     <row r="122" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B122" s="124" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C122" s="32">
         <f t="shared" si="25"/>
@@ -6731,145 +6833,439 @@
         <f t="shared" si="14"/>
         <v>-4322000</v>
       </c>
-      <c r="O122" s="141"/>
+      <c r="L122" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="O122" s="146"/>
       <c r="P122" s="35"/>
     </row>
-    <row r="123" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="124" t="s">
+    <row r="123" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B123" s="55" t="s">
         <v>289</v>
       </c>
-      <c r="C123" s="32">
-        <f t="shared" si="25"/>
-        <v>3392500</v>
-      </c>
-      <c r="D123" s="130">
-        <f t="shared" si="26"/>
-        <v>929500</v>
-      </c>
-      <c r="E123" s="32"/>
+      <c r="C123" s="3">
+        <v>7080000</v>
+      </c>
+      <c r="D123" s="3">
+        <v>801000</v>
+      </c>
       <c r="F123" s="3">
         <f t="shared" si="10"/>
-        <v>4322000</v>
+        <v>7881000</v>
       </c>
       <c r="G123" s="3">
         <f t="shared" si="11"/>
-        <v>5186400</v>
+        <v>9457200</v>
       </c>
       <c r="H123" s="3">
         <f t="shared" si="12"/>
-        <v>5402500</v>
-      </c>
-      <c r="I123" s="32"/>
-      <c r="J123" s="32"/>
+        <v>9851250</v>
+      </c>
+      <c r="I123" s="3">
+        <v>9500000</v>
+      </c>
       <c r="K123" s="3">
         <f t="shared" si="14"/>
-        <v>-4322000</v>
-      </c>
-      <c r="L123" s="33" t="s">
+        <v>1619000</v>
+      </c>
+      <c r="L123" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="O123" s="13" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="124" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="124" t="s">
+        <v>292</v>
+      </c>
+      <c r="C124" s="32">
+        <v>6680000</v>
+      </c>
+      <c r="D124" s="32">
+        <v>801000</v>
+      </c>
+      <c r="E124" s="32">
+        <v>350000</v>
+      </c>
+      <c r="F124" s="32">
+        <f t="shared" si="10"/>
+        <v>7831000</v>
+      </c>
+      <c r="G124" s="32">
+        <f t="shared" si="11"/>
+        <v>9397200</v>
+      </c>
+      <c r="H124" s="32">
+        <f t="shared" si="12"/>
+        <v>9788750</v>
+      </c>
+      <c r="I124" s="32">
+        <v>9500000</v>
+      </c>
+      <c r="J124" s="32"/>
+      <c r="K124" s="32">
+        <f t="shared" si="14"/>
+        <v>1669000</v>
+      </c>
+      <c r="O124" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="P124" s="35"/>
+    </row>
+    <row r="125" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="124" t="s">
+        <v>309</v>
+      </c>
+      <c r="C125" s="32">
+        <v>7488000</v>
+      </c>
+      <c r="D125" s="32">
+        <v>821000</v>
+      </c>
+      <c r="E125" s="32"/>
+      <c r="F125" s="32">
+        <f t="shared" si="10"/>
+        <v>8309000</v>
+      </c>
+      <c r="G125" s="32">
+        <f t="shared" si="11"/>
+        <v>9970800</v>
+      </c>
+      <c r="H125" s="32">
+        <f t="shared" si="12"/>
+        <v>10386250</v>
+      </c>
+      <c r="I125" s="32">
+        <v>9800000</v>
+      </c>
+      <c r="J125" s="32"/>
+      <c r="K125" s="32">
+        <f t="shared" si="14"/>
+        <v>1491000</v>
+      </c>
+      <c r="O125" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="P125" s="35"/>
+    </row>
+    <row r="126" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="55" t="s">
         <v>310</v>
       </c>
-      <c r="O123" s="142"/>
-      <c r="P123" s="35"/>
-    </row>
-    <row r="124" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B124" s="55" t="s">
-        <v>291</v>
-      </c>
-      <c r="C124" s="3">
-        <v>7080000</v>
-      </c>
-      <c r="F124" s="3">
-        <f t="shared" si="10"/>
-        <v>7080000</v>
-      </c>
-      <c r="G124" s="3">
-        <f t="shared" si="11"/>
-        <v>8496000</v>
-      </c>
-      <c r="H124" s="3">
-        <f t="shared" si="12"/>
-        <v>8850000</v>
-      </c>
-      <c r="K124" s="3">
-        <f t="shared" si="14"/>
-        <v>-7080000</v>
-      </c>
-      <c r="O124" s="13" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="125" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B125" s="55" t="s">
-        <v>294</v>
-      </c>
-      <c r="C125" s="3">
-        <v>6680000</v>
-      </c>
-      <c r="F125" s="3">
-        <f t="shared" si="10"/>
-        <v>6680000</v>
-      </c>
-      <c r="G125" s="3">
-        <f t="shared" si="11"/>
-        <v>8016000</v>
-      </c>
-      <c r="H125" s="3">
-        <f t="shared" si="12"/>
-        <v>8350000</v>
-      </c>
-      <c r="K125" s="3">
-        <f t="shared" si="14"/>
-        <v>-6680000</v>
-      </c>
-      <c r="O125" s="13" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="126" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B126" s="55" t="s">
-        <v>312</v>
-      </c>
       <c r="C126" s="3">
-        <v>7488000</v>
+        <v>7776000</v>
+      </c>
+      <c r="D126" s="3">
+        <v>781000</v>
       </c>
       <c r="F126" s="3">
         <f t="shared" si="10"/>
-        <v>7488000</v>
+        <v>8557000</v>
+      </c>
+      <c r="G126" s="3">
+        <f t="shared" si="11"/>
+        <v>10268400</v>
+      </c>
+      <c r="H126" s="3">
+        <f t="shared" si="12"/>
+        <v>10696250</v>
+      </c>
+      <c r="I126" s="3">
+        <v>10500000</v>
+      </c>
+      <c r="K126" s="3">
+        <f t="shared" si="14"/>
+        <v>1943000</v>
+      </c>
+      <c r="L126" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="O126" s="13" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="127" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B127" s="55" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C127" s="3">
-        <v>7776000</v>
+        <v>8160000</v>
       </c>
       <c r="F127" s="3">
         <f t="shared" si="10"/>
-        <v>7776000</v>
+        <v>8160000</v>
+      </c>
+      <c r="G127" s="3">
+        <f t="shared" si="11"/>
+        <v>9792000</v>
+      </c>
+      <c r="H127" s="3">
+        <f t="shared" si="12"/>
+        <v>10200000</v>
+      </c>
+      <c r="K127" s="3">
+        <f t="shared" si="14"/>
+        <v>-8160000</v>
       </c>
       <c r="O127" s="13" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="128" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B128" s="55" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="C128" s="3">
-        <v>8160000</v>
+        <v>6500000</v>
       </c>
       <c r="F128" s="3">
         <f t="shared" si="10"/>
+        <v>6500000</v>
+      </c>
+      <c r="G128" s="3">
+        <f t="shared" si="11"/>
+        <v>7800000</v>
+      </c>
+      <c r="H128" s="3">
+        <f t="shared" si="12"/>
+        <v>8125000</v>
+      </c>
+      <c r="K128" s="3">
+        <f t="shared" si="14"/>
+        <v>-6500000</v>
+      </c>
+      <c r="O128" s="13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="129" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B129" s="55" t="s">
+        <v>321</v>
+      </c>
+      <c r="C129" s="3">
+        <v>4000000</v>
+      </c>
+      <c r="F129" s="3">
+        <f t="shared" si="10"/>
+        <v>4000000</v>
+      </c>
+      <c r="K129" s="3">
+        <f t="shared" si="14"/>
+        <v>-4000000</v>
+      </c>
+      <c r="O129" s="13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="130" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B130" s="55" t="s">
+        <v>323</v>
+      </c>
+      <c r="C130" s="3">
+        <v>5150000</v>
+      </c>
+      <c r="F130" s="3">
+        <f t="shared" si="10"/>
+        <v>5150000</v>
+      </c>
+      <c r="O130" s="13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="131" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B131" s="55" t="s">
+        <v>325</v>
+      </c>
+      <c r="C131" s="3">
+        <v>8500000</v>
+      </c>
+      <c r="F131" s="3">
+        <f t="shared" si="10"/>
+        <v>8500000</v>
+      </c>
+      <c r="O131" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="132" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B132" s="55" t="s">
+        <v>327</v>
+      </c>
+      <c r="C132" s="3">
+        <v>5500000</v>
+      </c>
+      <c r="F132" s="3">
+        <f t="shared" si="10"/>
+        <v>5500000</v>
+      </c>
+      <c r="O132" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="133" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B133" s="55" t="s">
+        <v>329</v>
+      </c>
+      <c r="C133" s="3">
+        <v>5750000</v>
+      </c>
+      <c r="F133" s="3">
+        <f t="shared" si="10"/>
+        <v>5750000</v>
+      </c>
+      <c r="O133" s="13" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D155" s="18"/>
+    </row>
+    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D156" s="102"/>
+    </row>
+    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D157" s="18"/>
+    </row>
+    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D158" s="3">
+        <v>5258500</v>
+      </c>
+    </row>
+    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D159" s="96">
+        <v>5745000</v>
+      </c>
+    </row>
+    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D160" s="3">
+        <v>4888000</v>
+      </c>
+    </row>
+    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D161" s="51">
+        <v>8359000</v>
+      </c>
+    </row>
+    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D162" s="3">
+        <v>3704000</v>
+      </c>
+    </row>
+    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D163" s="3">
+        <v>6465000</v>
+      </c>
+    </row>
+    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D164" s="3">
+        <v>3442800</v>
+      </c>
+    </row>
+    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D165" s="132">
+        <v>6829000</v>
+      </c>
+    </row>
+    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D166" s="3">
+        <v>4406000</v>
+      </c>
+    </row>
+    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D167" s="3">
+        <v>5117000</v>
+      </c>
+    </row>
+    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D168" s="3">
+        <v>9275000</v>
+      </c>
+    </row>
+    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D169" s="136">
+        <v>6218000</v>
+      </c>
+    </row>
+    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D170" s="3">
+        <v>7922000</v>
+      </c>
+    </row>
+    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D171" s="3">
+        <v>4068000</v>
+      </c>
+    </row>
+    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D172" s="3">
+        <v>5790000</v>
+      </c>
+    </row>
+    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D173" s="3">
+        <v>3465000</v>
+      </c>
+    </row>
+    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D174" s="3">
+        <v>4322000</v>
+      </c>
+    </row>
+    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D175" s="3">
+        <v>7881000</v>
+      </c>
+    </row>
+    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D176" s="32">
+        <v>7831000</v>
+      </c>
+    </row>
+    <row r="177" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D177" s="32">
+        <v>8309000</v>
+      </c>
+    </row>
+    <row r="178" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D178" s="3">
         <v>8160000</v>
       </c>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133" s="3" t="s">
-        <v>316</v>
+    <row r="179" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D179" s="3">
+        <v>6500000</v>
+      </c>
+    </row>
+    <row r="180" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D180" s="3">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="181" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D181" s="3">
+        <v>5150000</v>
+      </c>
+    </row>
+    <row r="182" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D182" s="3">
+        <v>8500000</v>
+      </c>
+    </row>
+    <row r="183" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D183" s="3">
+        <v>5500000</v>
+      </c>
+    </row>
+    <row r="184" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D184" s="3">
+        <v>5750000</v>
+      </c>
+    </row>
+    <row r="185" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E185" s="3">
+        <f>SUM(D158:D185)</f>
+        <v>162855300</v>
       </c>
     </row>
   </sheetData>
@@ -6877,16 +7273,16 @@
   <mergeCells count="4">
     <mergeCell ref="O72:O74"/>
     <mergeCell ref="O96:O97"/>
-    <mergeCell ref="O112:O116"/>
-    <mergeCell ref="O119:O123"/>
+    <mergeCell ref="O111:O115"/>
+    <mergeCell ref="O118:O122"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="C2:G2 H2:N17 O2:O22 B2:B25 P2:P25 Q2:Q39 C3:E25 F3:G27 K3:K79 L18:N39 H18:J65 O26:P26 D26:E38 F28 G28:G72 C29:F38 O29:P38 D39:F39 C40:F41 L40:Q41 Q42:Q43 D42:F57 L42:N69 P44:P49 Q50:Q69 E58:F58 D59:F69 I66:J69 H66:H72 D71:F72 I71:J72 L71:N73 Q71:Q78 D73:J78 M74:N74 L75:N78">
-    <cfRule type="expression" dxfId="1" priority="3">
+  <conditionalFormatting sqref="C2:G2 H2:N17 O2:O22 B2:B25 P2:P25 Q2:Q39 C3:E25 F3:G27 K3:K79 L18:N39 H18:J65 O26:P26 D26:E38 F28 G28:G72 C29:F38 O29:P38 D39:F39 C40:F41 L40:Q41 Q42:Q43 D42:F57 L42:N69 P44:P49 Q50:Q69 E58:F58 D59:F69 I66:J69 H66:H72 D71:F72 I71:J72 L71:N73 Q71:Q78 D73:J78 M74:N74 L75:N78 F102:F125">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>MOD(ROW(),2)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F102:F126">
+  <conditionalFormatting sqref="D167:D177 D158:D162">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)&gt;0</formula>
     </cfRule>
@@ -7012,7 +7408,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B9">
         <v>250000</v>

--- a/TDStore/NhapXuatLaptop.xlsx
+++ b/TDStore/NhapXuatLaptop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06.TDStore\04.Private\TDStore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D457A0D4-CCF8-4780-B661-EFF096E6C514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EEED64-CB61-4613-84C6-A5D5CB1E8107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NhapXuat" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,27 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NhapXuat!$L$1:$L$80</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="338">
   <si>
     <t>ID máy</t>
   </si>
@@ -1025,6 +1035,27 @@
   </si>
   <si>
     <t>9405511206215208706365</t>
+  </si>
+  <si>
+    <t>9405511206215237883297</t>
+  </si>
+  <si>
+    <t>9405511206215237348536</t>
+  </si>
+  <si>
+    <t>5xDell Latitude 7400 Intel i5-8365U 1.60 GHZ 16GB RAM 512GB</t>
+  </si>
+  <si>
+    <t>783675002850</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7400 Laptop i5-8365U 1.60GHz 16GB 256GB SSD</t>
+  </si>
+  <si>
+    <t>9434909205568824704283</t>
+  </si>
+  <si>
+    <t>HP EliteBook 830 G7 13.3" NB Intel Corei5-10210U 8GB RAM 256GB SSD Win10</t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1573,6 +1604,10 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1717,7 +1752,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>106</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2021,11 +2056,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q185"/>
+  <dimension ref="A1:Q187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E185" sqref="E185"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:L139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2034,7 +2069,8 @@
     <col min="2" max="2" width="80.42578125" style="55" customWidth="1"/>
     <col min="3" max="4" width="12.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="17" style="3" customWidth="1"/>
-    <col min="6" max="7" width="10.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="3" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" style="3" customWidth="1"/>
     <col min="9" max="9" width="11.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.140625" style="3" hidden="1" customWidth="1"/>
@@ -4997,15 +5033,15 @@
         <v>450000</v>
       </c>
       <c r="F73" s="3">
-        <f t="shared" ref="F73:F133" si="10">C73+D73+E73</f>
+        <f t="shared" ref="F73:F135" si="10">C73+D73+E73</f>
         <v>4550000</v>
       </c>
       <c r="G73" s="28">
-        <f t="shared" ref="G73:G128" si="11">(F73*20%)+F73</f>
+        <f t="shared" ref="G73:G137" si="11">(F73*20%)+F73</f>
         <v>5460000</v>
       </c>
       <c r="H73" s="3">
-        <f t="shared" ref="H73:H128" si="12">(F73*25%)+F73</f>
+        <f t="shared" ref="H73:H136" si="12">(F73*25%)+F73</f>
         <v>5687500</v>
       </c>
       <c r="I73" s="3">
@@ -5332,7 +5368,7 @@
         <v>10500000</v>
       </c>
       <c r="K81" s="3">
-        <f t="shared" ref="K81:K129" si="14">I81-J81-F81</f>
+        <f t="shared" ref="K81:K136" si="14">I81-J81-F81</f>
         <v>2041500</v>
       </c>
       <c r="L81" s="2" t="s">
@@ -6121,7 +6157,7 @@
       </c>
       <c r="P103" s="121"/>
     </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B104" s="55" t="s">
         <v>264</v>
       </c>
@@ -6802,7 +6838,7 @@
       <c r="O121" s="145"/>
       <c r="P121" s="35"/>
     </row>
-    <row r="122" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:17" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B122" s="124" t="s">
         <v>287</v>
       </c>
@@ -6827,11 +6863,13 @@
         <f t="shared" si="12"/>
         <v>5402500</v>
       </c>
-      <c r="I122" s="32"/>
+      <c r="I122" s="32">
+        <v>5500000</v>
+      </c>
       <c r="J122" s="32"/>
       <c r="K122" s="3">
         <f t="shared" si="14"/>
-        <v>-4322000</v>
+        <v>1178000</v>
       </c>
       <c r="L122" s="33" t="s">
         <v>307</v>
@@ -6990,23 +7028,28 @@
         <v>317</v>
       </c>
       <c r="C127" s="3">
-        <v>8160000</v>
+        <f>8160000/2</f>
+        <v>4080000</v>
+      </c>
+      <c r="D127" s="3">
+        <f>1582000/2</f>
+        <v>791000</v>
       </c>
       <c r="F127" s="3">
         <f t="shared" si="10"/>
-        <v>8160000</v>
+        <v>4871000</v>
       </c>
       <c r="G127" s="3">
-        <f t="shared" si="11"/>
-        <v>9792000</v>
+        <f>(F127*20%)+F127</f>
+        <v>5845200</v>
       </c>
       <c r="H127" s="3">
         <f t="shared" si="12"/>
-        <v>10200000</v>
+        <v>6088750</v>
       </c>
       <c r="K127" s="3">
         <f t="shared" si="14"/>
-        <v>-8160000</v>
+        <v>-4871000</v>
       </c>
       <c r="O127" s="13" t="s">
         <v>318</v>
@@ -7014,257 +7057,454 @@
     </row>
     <row r="128" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B128" s="55" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C128" s="3">
-        <v>6500000</v>
+        <f>8160000/2</f>
+        <v>4080000</v>
+      </c>
+      <c r="D128" s="3">
+        <f>1582000/2</f>
+        <v>791000</v>
       </c>
       <c r="F128" s="3">
-        <f t="shared" si="10"/>
-        <v>6500000</v>
+        <f t="shared" ref="F128" si="27">C128+D128+E128</f>
+        <v>4871000</v>
       </c>
       <c r="G128" s="3">
-        <f t="shared" si="11"/>
-        <v>7800000</v>
+        <f>(F128*20%)+F128</f>
+        <v>5845200</v>
       </c>
       <c r="H128" s="3">
-        <f t="shared" si="12"/>
-        <v>8125000</v>
+        <f t="shared" ref="H128" si="28">(F128*25%)+F128</f>
+        <v>6088750</v>
       </c>
       <c r="K128" s="3">
-        <f t="shared" si="14"/>
-        <v>-6500000</v>
+        <f t="shared" ref="K128" si="29">I128-J128-F128</f>
+        <v>-4871000</v>
       </c>
       <c r="O128" s="13" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="129" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B129" s="55" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C129" s="3">
-        <v>4000000</v>
+        <v>6500000</v>
+      </c>
+      <c r="D129" s="3">
+        <v>1006000</v>
       </c>
       <c r="F129" s="3">
         <f t="shared" si="10"/>
-        <v>4000000</v>
+        <v>7506000</v>
+      </c>
+      <c r="G129" s="3">
+        <f t="shared" si="11"/>
+        <v>9007200</v>
+      </c>
+      <c r="H129" s="3">
+        <f t="shared" si="12"/>
+        <v>9382500</v>
       </c>
       <c r="K129" s="3">
         <f t="shared" si="14"/>
-        <v>-4000000</v>
+        <v>-7506000</v>
       </c>
       <c r="O129" s="13" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="130" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B130" s="55" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C130" s="3">
-        <v>5150000</v>
+        <v>4000000</v>
+      </c>
+      <c r="D130" s="3">
+        <v>842000</v>
       </c>
       <c r="F130" s="3">
         <f t="shared" si="10"/>
-        <v>5150000</v>
+        <v>4842000</v>
+      </c>
+      <c r="G130" s="3">
+        <f t="shared" si="11"/>
+        <v>5810400</v>
+      </c>
+      <c r="H130" s="3">
+        <f t="shared" si="12"/>
+        <v>6052500</v>
+      </c>
+      <c r="K130" s="3">
+        <f t="shared" si="14"/>
+        <v>-4842000</v>
       </c>
       <c r="O130" s="13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="131" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B131" s="55" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C131" s="3">
-        <v>8500000</v>
+        <v>5150000</v>
+      </c>
+      <c r="D131" s="3">
+        <v>842000</v>
       </c>
       <c r="F131" s="3">
         <f t="shared" si="10"/>
-        <v>8500000</v>
+        <v>5992000</v>
+      </c>
+      <c r="G131" s="3">
+        <f t="shared" si="11"/>
+        <v>7190400</v>
+      </c>
+      <c r="H131" s="3">
+        <f t="shared" si="12"/>
+        <v>7490000</v>
+      </c>
+      <c r="K131" s="3">
+        <f t="shared" si="14"/>
+        <v>-5992000</v>
       </c>
       <c r="O131" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="132" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B132" s="55" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C132" s="3">
-        <v>5500000</v>
+        <f>8500000/2</f>
+        <v>4250000</v>
+      </c>
+      <c r="D132" s="3">
+        <f>1479000/2</f>
+        <v>739500</v>
       </c>
       <c r="F132" s="3">
-        <f t="shared" si="10"/>
-        <v>5500000</v>
+        <f t="shared" ref="F132" si="30">C132+D132+E132</f>
+        <v>4989500</v>
+      </c>
+      <c r="G132" s="3">
+        <f t="shared" ref="G132" si="31">(F132*20%)+F132</f>
+        <v>5987400</v>
+      </c>
+      <c r="H132" s="3">
+        <f t="shared" ref="H132" si="32">(F132*25%)+F132</f>
+        <v>6236875</v>
+      </c>
+      <c r="K132" s="3">
+        <f t="shared" ref="K132" si="33">I132-J132-F132</f>
+        <v>-4989500</v>
       </c>
       <c r="O132" s="13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="133" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B133" s="55" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C133" s="3">
-        <v>5750000</v>
+        <f>8500000/2</f>
+        <v>4250000</v>
+      </c>
+      <c r="D133" s="3">
+        <f>1479000/2</f>
+        <v>739500</v>
       </c>
       <c r="F133" s="3">
         <f t="shared" si="10"/>
+        <v>4989500</v>
+      </c>
+      <c r="G133" s="3">
+        <f t="shared" si="11"/>
+        <v>5987400</v>
+      </c>
+      <c r="H133" s="3">
+        <f t="shared" si="12"/>
+        <v>6236875</v>
+      </c>
+      <c r="K133" s="3">
+        <f t="shared" si="14"/>
+        <v>-4989500</v>
+      </c>
+      <c r="O133" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="134" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B134" s="55" t="s">
+        <v>327</v>
+      </c>
+      <c r="C134" s="3">
+        <v>5500000</v>
+      </c>
+      <c r="D134" s="3">
+        <v>739000</v>
+      </c>
+      <c r="F134" s="3">
+        <f t="shared" si="10"/>
+        <v>6239000</v>
+      </c>
+      <c r="G134" s="3">
+        <f t="shared" si="11"/>
+        <v>7486800</v>
+      </c>
+      <c r="H134" s="3">
+        <f t="shared" si="12"/>
+        <v>7798750</v>
+      </c>
+      <c r="K134" s="3">
+        <f t="shared" si="14"/>
+        <v>-6239000</v>
+      </c>
+      <c r="O134" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="135" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B135" s="55" t="s">
+        <v>329</v>
+      </c>
+      <c r="C135" s="3">
         <v>5750000</v>
       </c>
-      <c r="O133" s="13" t="s">
+      <c r="D135" s="3">
+        <v>842000</v>
+      </c>
+      <c r="F135" s="3">
+        <f t="shared" si="10"/>
+        <v>6592000</v>
+      </c>
+      <c r="G135" s="3">
+        <f t="shared" si="11"/>
+        <v>7910400</v>
+      </c>
+      <c r="H135" s="3">
+        <f t="shared" si="12"/>
+        <v>8240000</v>
+      </c>
+      <c r="I135" s="3">
+        <v>7600000</v>
+      </c>
+      <c r="K135" s="3">
+        <f t="shared" si="14"/>
+        <v>1008000</v>
+      </c>
+      <c r="O135" s="13" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D155" s="18"/>
-    </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D156" s="102"/>
+    <row r="136" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B136" s="55" t="s">
+        <v>333</v>
+      </c>
+      <c r="G136" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H136" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K136" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O136" s="13" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="137" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B137" s="55" t="s">
+        <v>333</v>
+      </c>
+      <c r="G137" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O137" s="13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="138" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B138" s="147" t="s">
+        <v>335</v>
+      </c>
+      <c r="C138" s="3">
+        <v>3600000</v>
+      </c>
+      <c r="O138" s="13" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="139" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B139" s="148" t="s">
+        <v>337</v>
+      </c>
+      <c r="C139" s="3">
+        <v>5832000</v>
+      </c>
+      <c r="O139" s="13" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="157" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D157" s="18"/>
     </row>
     <row r="158" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D158" s="3">
-        <v>5258500</v>
-      </c>
+      <c r="D158" s="102"/>
     </row>
     <row r="159" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D159" s="96">
-        <v>5745000</v>
-      </c>
+      <c r="D159" s="18"/>
     </row>
     <row r="160" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D160" s="3">
-        <v>4888000</v>
+        <v>5258500</v>
       </c>
     </row>
     <row r="161" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D161" s="51">
-        <v>8359000</v>
+      <c r="D161" s="96">
+        <v>5745000</v>
       </c>
     </row>
     <row r="162" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D162" s="3">
-        <v>3704000</v>
+        <v>4888000</v>
       </c>
     </row>
     <row r="163" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D163" s="3">
-        <v>6465000</v>
+      <c r="D163" s="51">
+        <v>8359000</v>
       </c>
     </row>
     <row r="164" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D164" s="3">
-        <v>3442800</v>
+        <v>3704000</v>
       </c>
     </row>
     <row r="165" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D165" s="132">
-        <v>6829000</v>
+      <c r="D165" s="3">
+        <v>6465000</v>
       </c>
     </row>
     <row r="166" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D166" s="3">
-        <v>4406000</v>
+        <v>3442800</v>
       </c>
     </row>
     <row r="167" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D167" s="3">
-        <v>5117000</v>
+      <c r="D167" s="132">
+        <v>6829000</v>
       </c>
     </row>
     <row r="168" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D168" s="3">
-        <v>9275000</v>
+        <v>4406000</v>
       </c>
     </row>
     <row r="169" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D169" s="136">
-        <v>6218000</v>
+      <c r="D169" s="3">
+        <v>5117000</v>
       </c>
     </row>
     <row r="170" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D170" s="3">
-        <v>7922000</v>
+        <v>9275000</v>
       </c>
     </row>
     <row r="171" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D171" s="3">
-        <v>4068000</v>
+      <c r="D171" s="136">
+        <v>6218000</v>
       </c>
     </row>
     <row r="172" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D172" s="3">
-        <v>5790000</v>
+        <v>7922000</v>
       </c>
     </row>
     <row r="173" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D173" s="3">
-        <v>3465000</v>
+        <v>4068000</v>
       </c>
     </row>
     <row r="174" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D174" s="3">
-        <v>4322000</v>
+        <v>5790000</v>
       </c>
     </row>
     <row r="175" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D175" s="3">
+        <v>3465000</v>
+      </c>
+    </row>
+    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D176" s="3">
+        <v>4322000</v>
+      </c>
+    </row>
+    <row r="177" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D177" s="3">
         <v>7881000</v>
       </c>
     </row>
-    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D176" s="32">
+    <row r="178" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D178" s="32">
         <v>7831000</v>
       </c>
     </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D177" s="32">
+    <row r="179" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D179" s="32">
         <v>8309000</v>
-      </c>
-    </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D178" s="3">
-        <v>8160000</v>
-      </c>
-    </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D179" s="3">
-        <v>6500000</v>
       </c>
     </row>
     <row r="180" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D180" s="3">
-        <v>4000000</v>
+        <v>8160000</v>
       </c>
     </row>
     <row r="181" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D181" s="3">
-        <v>5150000</v>
+        <v>6500000</v>
       </c>
     </row>
     <row r="182" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D182" s="3">
-        <v>8500000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="183" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D183" s="3">
-        <v>5500000</v>
+        <v>5150000</v>
       </c>
     </row>
     <row r="184" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D184" s="3">
+        <v>8500000</v>
+      </c>
+    </row>
+    <row r="185" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D185" s="3">
+        <v>5500000</v>
+      </c>
+    </row>
+    <row r="186" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D186" s="3">
         <v>5750000</v>
       </c>
     </row>
-    <row r="185" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E185" s="3">
-        <f>SUM(D158:D185)</f>
+    <row r="187" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E187" s="3">
+        <f>SUM(D160:D187)</f>
         <v>162855300</v>
       </c>
     </row>
@@ -7282,7 +7522,7 @@
       <formula>MOD(ROW(),2)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D167:D177 D158:D162">
+  <conditionalFormatting sqref="D169:D179 D160:D164">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)&gt;0</formula>
     </cfRule>
@@ -7290,10 +7530,12 @@
   <hyperlinks>
     <hyperlink ref="O23" r:id="rId1" display="https://www.ebay.com/ship/trk/tracking-details?transid=2201839708010&amp;itemid=204283961060" xr:uid="{6F8BFF36-4018-4EC5-AB4D-4659A4D8A44B}"/>
     <hyperlink ref="O24" r:id="rId2" display="https://www.ebay.com/ship/trk/tracking-details?transid=0&amp;itemid=394522922692" xr:uid="{33A4F9FB-78A6-4311-9764-2BC4A4E1AFF3}"/>
+    <hyperlink ref="B138" r:id="rId3" display="https://www.ebay.com/itm/325805882250" xr:uid="{70381CF5-FDCF-49BF-BF81-7CDD8074340C}"/>
+    <hyperlink ref="B139" r:id="rId4" display="https://www.ebay.com/itm/126084941450" xr:uid="{DDDC8F78-B25D-417B-B17A-8B8B7F58B641}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/TDStore/NhapXuatLaptop.xlsx
+++ b/TDStore/NhapXuatLaptop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\04.Private\TDStore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06.TDStore\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EEED64-CB61-4613-84C6-A5D5CB1E8107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF25350-7262-491D-8D27-06FED91C79B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NhapXuat" sheetId="1" r:id="rId1"/>
@@ -19,27 +19,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NhapXuat!$L$1:$L$80</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="388">
   <si>
     <t>ID máy</t>
   </si>
@@ -374,9 +364,6 @@
     <t>Quân</t>
   </si>
   <si>
-    <t>10tr</t>
-  </si>
-  <si>
     <t>12tr5</t>
   </si>
   <si>
@@ -1001,9 +988,6 @@
     <t>9405511206215701689448</t>
   </si>
   <si>
-    <t>Dell Latitude 7420/i5-1135G7 2.4GHz/8GBRAM/256GBSSD/Win11Pro W/ Docking Station</t>
-  </si>
-  <si>
     <t>1ZAC98180315632016</t>
   </si>
   <si>
@@ -1056,13 +1040,170 @@
   </si>
   <si>
     <t>HP EliteBook 830 G7 13.3" NB Intel Corei5-10210U 8GB RAM 256GB SSD Win10</t>
+  </si>
+  <si>
+    <t>A Dũng</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7420/i5-1135G7 2.4GHz/8GBRAM/256GBSSD/Win11Pro W/ Docking Station. BIOS Lock</t>
+  </si>
+  <si>
+    <t>Huy Huyền</t>
+  </si>
+  <si>
+    <t>784031790866</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7420 Laptop i5-1145G7 2.60GHz 16GB 256GB SSD 14.0" FHD</t>
+  </si>
+  <si>
+    <t>9510812506423268680242</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7420 14" Laptop FHD i5-1145G7 2.60</t>
+  </si>
+  <si>
+    <t>Dell Precision 5540 i7-9850H 512GB SSD 32GB DDR4 QuadroT1000 4K W10P NO BATT</t>
+  </si>
+  <si>
+    <t>784228430894</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7430 2-in-1 Laptop Intel vPro i5-1245U 16GB 256GB SSD 14.0" FHD</t>
+  </si>
+  <si>
+    <t>784310681160</t>
+  </si>
+  <si>
+    <t>9405511206215624462692</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 13 5310 13.3" (NO SSD, Intel Core i5-11320H, 16GB RAM - RL631</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7400 (i5-8265U 1.60GHz, RAM 8 GB, 256 GB SSD)</t>
+  </si>
+  <si>
+    <t>1ZAC98184266169957</t>
+  </si>
+  <si>
+    <t>784493685040</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 16 7610 Intel Core i7-11800H @2.3GHz 8GB RAM NO HDD - RL619</t>
+  </si>
+  <si>
+    <t>9405508205498200534865</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7520 15.6" Fast Laptop Excellent Condition Flawless</t>
+  </si>
+  <si>
+    <t>1Z5F7Y930344478736</t>
+  </si>
+  <si>
+    <t>9405511206215688476437</t>
+  </si>
+  <si>
+    <t>9434608205498209189683</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7280- 7th Gen i5@2.60GHz 8GB No HDD/OS- No Batt. - For Parts</t>
+  </si>
+  <si>
+    <t>9405508205499369921121</t>
+  </si>
+  <si>
+    <t>15.6" Dell Precision 3541 Core i7-9750H@ 2.60GHz, 16GB RAM, 512 GB SSD, Win 10</t>
+  </si>
+  <si>
+    <t>Đã ck 5tr A Hiệp</t>
+  </si>
+  <si>
+    <t>1Z1558TT4298177733</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7320 Intel Core i5-1145G7 13.3" Laptop Computer 256GB - Black</t>
+  </si>
+  <si>
+    <t>784993253632</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7400 Laptop i5-8365U 1.60GHz 16GB 256GB SSD 14.0" FHD</t>
+  </si>
+  <si>
+    <t>9405511206216821851685</t>
+  </si>
+  <si>
+    <t>Precision 7540</t>
+  </si>
+  <si>
+    <t>9405511206216821856352</t>
+  </si>
+  <si>
+    <t>9434908205499380050930</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 13 5310 13.3" 512GB SSD Intel Core i5-11320H 3.2Ghz, 16GB RAM</t>
+  </si>
+  <si>
+    <t>B Đạt</t>
+  </si>
+  <si>
+    <t>Trả trước 4tr</t>
+  </si>
+  <si>
+    <t>7390 i5 8350U ram 16 SSD 256</t>
+  </si>
+  <si>
+    <t>9405511206215651687259</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7400 Intel i5-8365U 1.60 GHZ 16GB RAM 512GB</t>
+  </si>
+  <si>
+    <t>Iphone 11 256GB</t>
+  </si>
+  <si>
+    <t>Surface Pro</t>
+  </si>
+  <si>
+    <t>macbook pro 2019 13in</t>
+  </si>
+  <si>
+    <t>macbook pro 2019 15in</t>
+  </si>
+  <si>
+    <t>9405508205499343741585</t>
+  </si>
+  <si>
+    <t>Ipad pro M1</t>
+  </si>
+  <si>
+    <t>Chip I5 8600</t>
+  </si>
+  <si>
+    <t>9400111206209957710114</t>
+  </si>
+  <si>
+    <t>Main 5402</t>
+  </si>
+  <si>
+    <t>Latitude 3320</t>
+  </si>
+  <si>
+    <t>61299998825446079467</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -1296,7 +1437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1583,17 +1724,29 @@
     <xf numFmtId="165" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1604,10 +1757,13 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1653,8 +1809,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>111768</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1702,8 +1858,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1751,7 +1907,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2056,11 +2212,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q187"/>
+  <dimension ref="A1:Q184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:L139"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F180" sqref="F180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2068,8 +2224,8 @@
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="80.42578125" style="55" customWidth="1"/>
     <col min="3" max="4" width="12.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" style="3" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" style="3" customWidth="1"/>
     <col min="9" max="9" width="11.140625" style="3" bestFit="1" customWidth="1"/>
@@ -2104,7 +2260,7 @@
         <v>47</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>5</v>
@@ -3188,11 +3344,11 @@
         <v>1112141</v>
       </c>
       <c r="L28" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M28" s="29"/>
       <c r="N28" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O28" s="30" t="s">
         <v>72</v>
@@ -3201,7 +3357,7 @@
         <v>45016</v>
       </c>
       <c r="Q28" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:17" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -3283,7 +3439,7 @@
         <v>-167935</v>
       </c>
       <c r="L30" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O30" s="34" t="s">
         <v>80</v>
@@ -3536,7 +3692,7 @@
         <v>2178000</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O36" s="13" t="s">
         <v>96</v>
@@ -3568,7 +3724,7 @@
         <v>11646250</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K37" s="3" t="e">
         <f t="shared" si="7"/>
@@ -3650,7 +3806,7 @@
         <v>1590000</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O39" s="16" t="s">
         <v>99</v>
@@ -3764,7 +3920,7 @@
         <v>1458000</v>
       </c>
       <c r="O42" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P42" s="17"/>
     </row>
@@ -3801,7 +3957,7 @@
         <v>1585000</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O43" s="16" t="s">
         <v>108</v>
@@ -3813,7 +3969,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C44" s="18">
         <v>3268000</v>
@@ -3841,10 +3997,10 @@
         <v>882000</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O44" s="39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P44" s="2"/>
     </row>
@@ -3853,7 +4009,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="18">
         <v>3223000</v>
@@ -3884,10 +4040,10 @@
         <v>2833000</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O45" s="39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P45" s="2"/>
     </row>
@@ -3896,7 +4052,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="63" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C46" s="18">
         <v>3632000</v>
@@ -3927,7 +4083,7 @@
         <v>109</v>
       </c>
       <c r="O46" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P46" s="2"/>
     </row>
@@ -3936,7 +4092,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C47" s="18">
         <v>3813000</v>
@@ -3967,10 +4123,10 @@
         <v>895000</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O47" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P47" s="2"/>
     </row>
@@ -3979,7 +4135,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="63" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C48" s="18">
         <v>6219000</v>
@@ -4013,7 +4169,7 @@
         <v>21</v>
       </c>
       <c r="O48" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P48" s="2"/>
     </row>
@@ -4022,7 +4178,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="72" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="18">
         <v>4149000</v>
@@ -4053,10 +4209,10 @@
         <v>930000</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O49" s="39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P49" s="2"/>
     </row>
@@ -4065,7 +4221,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="72" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C50" s="18">
         <v>3648000</v>
@@ -4099,16 +4255,16 @@
         <v>61</v>
       </c>
       <c r="O50" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P50" s="17"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="70">
         <v>50</v>
       </c>
       <c r="B51" s="59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C51" s="18">
         <v>4560000</v>
@@ -4133,7 +4289,7 @@
         <v>-5258500</v>
       </c>
       <c r="O51" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P51" s="17"/>
     </row>
@@ -4142,7 +4298,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="101" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C52" s="102">
         <v>4560000</v>
@@ -4177,7 +4333,7 @@
       <c r="M52" s="98"/>
       <c r="N52" s="98"/>
       <c r="O52" s="103" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P52" s="104"/>
     </row>
@@ -4186,7 +4342,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C53" s="64">
         <v>3192000</v>
@@ -4221,16 +4377,16 @@
         <v>33</v>
       </c>
       <c r="O53" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P53" s="68"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="70">
         <v>53</v>
       </c>
       <c r="B54" s="72" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C54" s="18">
         <v>4149000</v>
@@ -4258,10 +4414,10 @@
         <v>1112000</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O54" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P54" s="17"/>
     </row>
@@ -4270,7 +4426,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="72" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="18">
         <v>4104000</v>
@@ -4304,7 +4460,7 @@
         <v>21</v>
       </c>
       <c r="O55" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P55" s="17"/>
     </row>
@@ -4313,7 +4469,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="75" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C56" s="64">
         <v>1960000</v>
@@ -4348,7 +4504,7 @@
         <v>33</v>
       </c>
       <c r="O56" s="67" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P56" s="68"/>
     </row>
@@ -4357,7 +4513,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C57" s="18">
         <v>3762000</v>
@@ -4391,10 +4547,10 @@
         <v>21</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O57" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P57" s="17"/>
     </row>
@@ -4403,7 +4559,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C58" s="18">
         <v>6441000</v>
@@ -4431,19 +4587,19 @@
         <v>2087500</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O58" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P58" s="17"/>
     </row>
-    <row r="59" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" s="52" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="77">
         <v>58</v>
       </c>
       <c r="B59" s="78" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C59" s="50">
         <v>7435000</v>
@@ -4465,7 +4621,7 @@
         <v>10448750</v>
       </c>
       <c r="I59" s="51" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J59" s="51"/>
       <c r="K59" s="51" t="e">
@@ -4473,10 +4629,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L59" s="52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O59" s="79" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P59" s="53"/>
     </row>
@@ -4485,7 +4641,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="72" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C60" s="18">
         <v>1824000</v>
@@ -4516,7 +4672,7 @@
         <v>1636500</v>
       </c>
       <c r="O60" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P60" s="17"/>
     </row>
@@ -4525,7 +4681,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="81" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C61" s="45">
         <v>6328000</v>
@@ -4557,7 +4713,7 @@
         <v>987000</v>
       </c>
       <c r="O61" s="48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P61" s="49"/>
     </row>
@@ -4566,7 +4722,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C62" s="18">
         <v>3762000</v>
@@ -4597,10 +4753,10 @@
         <v>539000</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O62" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P62" s="17"/>
     </row>
@@ -4609,7 +4765,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C63" s="18">
         <v>4000000</v>
@@ -4640,10 +4796,10 @@
         <v>619500</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O63" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P63" s="17"/>
     </row>
@@ -4652,7 +4808,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C64" s="42">
         <v>6350000</v>
@@ -4684,16 +4840,16 @@
         <v>1050000</v>
       </c>
       <c r="O64" s="44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P64" s="43"/>
     </row>
-    <row r="65" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="70">
         <v>64</v>
       </c>
       <c r="B65" s="63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C65" s="18">
         <v>2712000</v>
@@ -4717,17 +4873,17 @@
         <v>4630000</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K65" s="3" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O65" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P65" s="17"/>
     </row>
@@ -4736,7 +4892,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="63" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C66" s="18">
         <v>2440000</v>
@@ -4761,7 +4917,7 @@
         <v>-2511750</v>
       </c>
       <c r="O66" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P66" s="17"/>
     </row>
@@ -4770,7 +4926,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="83" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C67" s="64">
         <v>3351000</v>
@@ -4794,7 +4950,7 @@
         <v>5388750</v>
       </c>
       <c r="I67" s="65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J67" s="65"/>
       <c r="K67" s="3" t="e">
@@ -4802,7 +4958,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O67" s="67" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P67" s="68"/>
     </row>
@@ -4811,7 +4967,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C68" s="18">
         <v>3511000</v>
@@ -4842,7 +4998,7 @@
         <v>109</v>
       </c>
       <c r="O68" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P68" s="17"/>
     </row>
@@ -4851,7 +5007,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="63" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C69" s="18">
         <v>7204000</v>
@@ -4882,7 +5038,7 @@
         <v>2447500</v>
       </c>
       <c r="O69" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P69" s="17"/>
     </row>
@@ -4891,7 +5047,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="87" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C70" s="85">
         <v>2964000</v>
@@ -4921,12 +5077,12 @@
         <v>214500</v>
       </c>
       <c r="L70" s="86" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M70" s="86"/>
       <c r="N70" s="86"/>
       <c r="O70" s="88" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P70" s="89"/>
       <c r="Q70" s="86"/>
@@ -4936,7 +5092,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="72" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C71" s="18">
         <v>4423000</v>
@@ -4967,10 +5123,10 @@
         <v>2405500</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O71" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P71" s="17"/>
     </row>
@@ -4979,7 +5135,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C72" s="106">
         <v>3306000</v>
@@ -5009,10 +5165,10 @@
         <v>1400000</v>
       </c>
       <c r="L72" s="109" t="s">
-        <v>215</v>
-      </c>
-      <c r="O72" s="140" t="s">
-        <v>190</v>
+        <v>214</v>
+      </c>
+      <c r="O72" s="149" t="s">
+        <v>189</v>
       </c>
       <c r="P72" s="110"/>
     </row>
@@ -5021,7 +5177,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C73" s="18">
         <v>3306000</v>
@@ -5033,7 +5189,7 @@
         <v>450000</v>
       </c>
       <c r="F73" s="3">
-        <f t="shared" ref="F73:F135" si="10">C73+D73+E73</f>
+        <f t="shared" ref="F73:F136" si="10">C73+D73+E73</f>
         <v>4550000</v>
       </c>
       <c r="G73" s="28">
@@ -5052,9 +5208,9 @@
         <v>3450000</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="O73" s="140"/>
+        <v>256</v>
+      </c>
+      <c r="O73" s="149"/>
       <c r="P73" s="17"/>
     </row>
     <row r="74" spans="1:17" s="91" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5062,7 +5218,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="86" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C74" s="112">
         <v>3306000</v>
@@ -5095,7 +5251,7 @@
       </c>
       <c r="M74" s="115"/>
       <c r="N74" s="115"/>
-      <c r="O74" s="140"/>
+      <c r="O74" s="149"/>
       <c r="P74" s="116"/>
     </row>
     <row r="75" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5103,7 +5259,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="72" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C75" s="18">
         <v>6974748</v>
@@ -5131,10 +5287,10 @@
         <v>3045252</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O75" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P75" s="17"/>
     </row>
@@ -5143,7 +5299,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C76" s="18">
         <v>2188000</v>
@@ -5168,7 +5324,7 @@
         <v>-2239250</v>
       </c>
       <c r="O76" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P76" s="17"/>
     </row>
@@ -5177,7 +5333,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C77" s="18">
         <v>5706000</v>
@@ -5208,10 +5364,10 @@
         <v>1934000</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O77" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P77" s="17"/>
     </row>
@@ -5220,7 +5376,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C78" s="18">
         <v>5244000</v>
@@ -5251,13 +5407,13 @@
         <v>584500</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O78" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P78" s="17"/>
     </row>
@@ -5266,7 +5422,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C79" s="3">
         <v>2508000</v>
@@ -5291,7 +5447,7 @@
         <v>-2560000</v>
       </c>
       <c r="O79" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -5299,7 +5455,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="55" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C80" s="3">
         <v>7410000</v>
@@ -5330,10 +5486,10 @@
         <v>2320001</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O80" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -5341,7 +5497,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C81" s="3">
         <v>7410000</v>
@@ -5368,14 +5524,14 @@
         <v>10500000</v>
       </c>
       <c r="K81" s="3">
-        <f t="shared" ref="K81:K136" si="14">I81-J81-F81</f>
+        <f t="shared" ref="K81:K144" si="14">I81-J81-F81</f>
         <v>2041500</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O81" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -5383,7 +5539,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="84" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C82" s="3">
         <v>7288000</v>
@@ -5411,10 +5567,10 @@
         <v>2058500</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O82" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -5422,7 +5578,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="55" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C83" s="3">
         <v>4309000</v>
@@ -5453,7 +5609,7 @@
         <v>21</v>
       </c>
       <c r="O83" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -5461,7 +5617,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="55" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C84" s="3">
         <v>2599000</v>
@@ -5486,7 +5642,7 @@
         <v>-2650250</v>
       </c>
       <c r="O84" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -5494,7 +5650,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="55" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C85" s="3">
         <v>4104000</v>
@@ -5525,13 +5681,13 @@
         <v>1395000</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O85" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -5539,7 +5695,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C86" s="3">
         <v>3990000</v>
@@ -5570,10 +5726,10 @@
         <v>1370500</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O86" s="105" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -5581,7 +5737,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C87" s="3">
         <v>5586000</v>
@@ -5609,16 +5765,16 @@
         <v>4192500</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O87" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="80"/>
       <c r="B88" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C88" s="3">
         <v>4720000</v>
@@ -5646,15 +5802,15 @@
         <v>-6210000</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O88" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B89" s="125" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C89" s="3">
         <v>4400000</v>
@@ -5685,18 +5841,18 @@
         <v>2399000</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O89" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B90" s="92" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C90" s="3">
         <v>5170000</v>
@@ -5705,38 +5861,38 @@
         <v>945000</v>
       </c>
       <c r="E90" s="3">
-        <v>350000</v>
+        <v>950000</v>
       </c>
       <c r="F90" s="3">
         <f t="shared" si="10"/>
-        <v>6465000</v>
+        <v>7065000</v>
       </c>
       <c r="G90" s="3">
         <f t="shared" si="11"/>
-        <v>7758000</v>
+        <v>8478000</v>
       </c>
       <c r="H90" s="3">
         <f t="shared" si="12"/>
-        <v>8081250</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="K90" s="3" t="e">
+        <v>8831250</v>
+      </c>
+      <c r="I90" s="3">
+        <v>10000000</v>
+      </c>
+      <c r="K90" s="3">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
+        <v>2935000</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O90" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="91" spans="1:17" s="119" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="117"/>
       <c r="B91" s="93" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C91" s="118">
         <v>157</v>
@@ -5762,13 +5918,13 @@
         <v>-157</v>
       </c>
       <c r="O91" s="120" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P91" s="121"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B92" s="55" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C92" s="3">
         <v>3442800</v>
@@ -5790,12 +5946,12 @@
         <v>-3442800</v>
       </c>
       <c r="O92" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B93" s="55" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C93" s="3">
         <v>5312000</v>
@@ -5826,15 +5982,15 @@
         <v>1619000</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O93" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="94" spans="1:17" s="119" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B94" s="94" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C94" s="118">
         <v>229</v>
@@ -5860,13 +6016,13 @@
         <v>-229</v>
       </c>
       <c r="O94" s="120" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P94" s="121"/>
     </row>
     <row r="95" spans="1:17" s="119" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B95" s="94" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C95" s="118">
         <v>280</v>
@@ -5892,13 +6048,13 @@
         <v>-280</v>
       </c>
       <c r="O95" s="120" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P95" s="121"/>
     </row>
     <row r="96" spans="1:17" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B96" s="58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C96" s="28">
         <v>4018000</v>
@@ -5930,22 +6086,22 @@
         <v>1347000</v>
       </c>
       <c r="L96" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N96" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="O96" s="141" t="s">
-        <v>240</v>
+        <v>302</v>
+      </c>
+      <c r="O96" s="146" t="s">
+        <v>239</v>
       </c>
       <c r="P96" s="126"/>
       <c r="Q96" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="97" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B97" s="55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C97" s="3">
         <v>3713000</v>
@@ -5969,11 +6125,11 @@
         <f t="shared" si="14"/>
         <v>-4698000</v>
       </c>
-      <c r="O97" s="142"/>
+      <c r="O97" s="148"/>
     </row>
     <row r="98" spans="2:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="131" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C98" s="132">
         <v>6110000</v>
@@ -6001,13 +6157,13 @@
         <v>-6829000</v>
       </c>
       <c r="O98" s="134" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P98" s="135"/>
     </row>
     <row r="99" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B99" s="55" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C99" s="3">
         <v>3420000</v>
@@ -6032,12 +6188,12 @@
         <v>-4406000</v>
       </c>
       <c r="O99" s="105" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="100" spans="2:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B100" s="55" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C100" s="3">
         <v>3315000</v>
@@ -6061,7 +6217,7 @@
     </row>
     <row r="101" spans="2:17" s="119" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B101" s="94" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C101" s="118">
         <v>219</v>
@@ -6087,13 +6243,13 @@
         <v>-219</v>
       </c>
       <c r="O101" s="105" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P101" s="121"/>
     </row>
     <row r="102" spans="2:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B102" s="55" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C102" s="3">
         <v>4149000</v>
@@ -6121,15 +6277,15 @@
         <v>3152000</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O102" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="103" spans="2:17" s="119" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103" s="94" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C103" s="118"/>
       <c r="D103" s="118"/>
@@ -6153,13 +6309,13 @@
         <v>0</v>
       </c>
       <c r="O103" s="122" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P103" s="121"/>
     </row>
     <row r="104" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B104" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C104" s="3">
         <v>3776000</v>
@@ -6190,15 +6346,15 @@
         <v>2383000</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O104" s="13" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="105" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C105" s="3">
         <v>8208000</v>
@@ -6219,19 +6375,19 @@
         <v>11593750</v>
       </c>
       <c r="I105" s="3">
-        <v>11500000</v>
+        <v>10400000</v>
       </c>
       <c r="K105" s="3">
         <f t="shared" si="14"/>
-        <v>2225000</v>
+        <v>1125000</v>
       </c>
       <c r="O105" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="106" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B106" s="123" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C106" s="3">
         <v>4012000</v>
@@ -6262,15 +6418,15 @@
         <v>2878000</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O106" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="107" spans="2:17" s="137" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B107" s="131" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C107" s="136">
         <v>5540000</v>
@@ -6298,13 +6454,13 @@
         <v>-6218000</v>
       </c>
       <c r="O107" s="138" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P107" s="139"/>
     </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B108" s="55" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C108" s="3">
         <v>7080000</v>
@@ -6331,13 +6487,16 @@
         <f t="shared" si="14"/>
         <v>2078000</v>
       </c>
+      <c r="L108" s="2" t="s">
+        <v>336</v>
+      </c>
       <c r="O108" s="122" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="109" spans="2:17" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B109" s="58" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C109" s="28">
         <v>4200000</v>
@@ -6369,22 +6528,22 @@
         <v>739000</v>
       </c>
       <c r="L109" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N109" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O109" s="127" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P109" s="126"/>
       <c r="Q109" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="110" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B110" s="55" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C110" s="3">
         <v>7080000</v>
@@ -6412,15 +6571,15 @@
         <v>2475000</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O110" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="111" spans="2:17" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B111" s="58" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C111" s="28">
         <f>13776000/4</f>
@@ -6452,22 +6611,22 @@
         <v>1232000</v>
       </c>
       <c r="L111" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N111" s="29" t="s">
-        <v>295</v>
-      </c>
-      <c r="O111" s="141" t="s">
-        <v>281</v>
+        <v>294</v>
+      </c>
+      <c r="O111" s="146" t="s">
+        <v>280</v>
       </c>
       <c r="P111" s="126"/>
       <c r="Q111" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="112" spans="2:17" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B112" s="58" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C112" s="28">
         <f t="shared" ref="C112:C114" si="15">13776000/4</f>
@@ -6499,20 +6658,20 @@
         <v>1232000</v>
       </c>
       <c r="L112" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N112" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="O112" s="143"/>
+        <v>295</v>
+      </c>
+      <c r="O112" s="147"/>
       <c r="P112" s="126"/>
       <c r="Q112" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="113" spans="2:17" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B113" s="58" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C113" s="28">
         <f t="shared" si="15"/>
@@ -6544,20 +6703,20 @@
         <v>1232000</v>
       </c>
       <c r="L113" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N113" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="O113" s="143"/>
+        <v>296</v>
+      </c>
+      <c r="O113" s="147"/>
       <c r="P113" s="126"/>
       <c r="Q113" s="29" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="114" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B114" s="55" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C114" s="3">
         <f t="shared" si="15"/>
@@ -6583,11 +6742,11 @@
         <f t="shared" ref="K114" si="24">I114-J114-F114</f>
         <v>-4068000</v>
       </c>
-      <c r="O114" s="143"/>
+      <c r="O114" s="147"/>
     </row>
     <row r="115" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B115" s="55" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C115" s="3">
         <v>5166000</v>
@@ -6612,11 +6771,11 @@
         <f t="shared" si="14"/>
         <v>-5790000</v>
       </c>
-      <c r="O115" s="142"/>
-    </row>
-    <row r="116" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="O115" s="148"/>
+    </row>
+    <row r="116" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B116" s="55" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C116" s="3">
         <v>3465000</v>
@@ -6638,12 +6797,12 @@
         <v>-3465000</v>
       </c>
       <c r="O116" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="117" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B117" s="55" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C117" s="3">
         <v>7906000</v>
@@ -6674,15 +6833,15 @@
         <v>1504000</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O117" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="118" spans="2:17" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B118" s="124" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C118" s="32">
         <f>13570000/4</f>
@@ -6714,16 +6873,16 @@
         <v>1478000</v>
       </c>
       <c r="L118" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="O118" s="144" t="s">
-        <v>288</v>
+        <v>166</v>
+      </c>
+      <c r="O118" s="150" t="s">
+        <v>287</v>
       </c>
       <c r="P118" s="35"/>
     </row>
     <row r="119" spans="2:17" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B119" s="124" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C119" s="32">
         <f t="shared" ref="C119:C122" si="25">13570000/4</f>
@@ -6755,14 +6914,14 @@
         <v>1478000</v>
       </c>
       <c r="L119" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="O119" s="145"/>
+        <v>166</v>
+      </c>
+      <c r="O119" s="151"/>
       <c r="P119" s="35"/>
     </row>
     <row r="120" spans="2:17" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B120" s="124" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C120" s="32">
         <f t="shared" si="25"/>
@@ -6794,14 +6953,14 @@
         <v>1478000</v>
       </c>
       <c r="L120" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="O120" s="145"/>
+        <v>166</v>
+      </c>
+      <c r="O120" s="151"/>
       <c r="P120" s="35"/>
     </row>
     <row r="121" spans="2:17" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B121" s="124" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C121" s="32">
         <f t="shared" si="25"/>
@@ -6833,14 +6992,14 @@
         <v>1478000</v>
       </c>
       <c r="L121" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="O121" s="145"/>
+        <v>166</v>
+      </c>
+      <c r="O121" s="151"/>
       <c r="P121" s="35"/>
     </row>
     <row r="122" spans="2:17" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B122" s="124" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C122" s="32">
         <f t="shared" si="25"/>
@@ -6872,14 +7031,14 @@
         <v>1178000</v>
       </c>
       <c r="L122" s="33" t="s">
-        <v>307</v>
-      </c>
-      <c r="O122" s="146"/>
+        <v>306</v>
+      </c>
+      <c r="O122" s="152"/>
       <c r="P122" s="35"/>
     </row>
-    <row r="123" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B123" s="55" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C123" s="3">
         <v>7080000</v>
@@ -6907,15 +7066,15 @@
         <v>1619000</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O123" s="13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="124" spans="2:17" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="124" t="s">
         <v>291</v>
-      </c>
-    </row>
-    <row r="124" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="124" t="s">
-        <v>292</v>
       </c>
       <c r="C124" s="32">
         <v>6680000</v>
@@ -6947,13 +7106,13 @@
         <v>1669000</v>
       </c>
       <c r="O124" s="34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P124" s="35"/>
     </row>
-    <row r="125" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:17" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B125" s="124" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C125" s="32">
         <v>7488000</v>
@@ -6982,14 +7141,17 @@
         <f t="shared" si="14"/>
         <v>1491000</v>
       </c>
+      <c r="L125" s="33" t="s">
+        <v>109</v>
+      </c>
       <c r="O125" s="34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P125" s="35"/>
     </row>
     <row r="126" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B126" s="55" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C126" s="3">
         <v>7776000</v>
@@ -7017,15 +7179,15 @@
         <v>1943000</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O126" s="13" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="127" spans="2:17" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="127" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B127" s="55" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C127" s="3">
         <f>8160000/2</f>
@@ -7052,12 +7214,12 @@
         <v>-4871000</v>
       </c>
       <c r="O127" s="13" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="128" spans="2:17" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="128" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B128" s="55" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C128" s="3">
         <f>8160000/2</f>
@@ -7084,42 +7246,46 @@
         <v>-4871000</v>
       </c>
       <c r="O128" s="13" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="129" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B129" s="55" t="s">
-        <v>319</v>
-      </c>
-      <c r="C129" s="3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="129" spans="2:16" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B129" s="142" t="s">
+        <v>337</v>
+      </c>
+      <c r="C129" s="96">
         <v>6500000</v>
       </c>
-      <c r="D129" s="3">
+      <c r="D129" s="96">
         <v>1006000</v>
       </c>
-      <c r="F129" s="3">
+      <c r="E129" s="96"/>
+      <c r="F129" s="96">
         <f t="shared" si="10"/>
         <v>7506000</v>
       </c>
-      <c r="G129" s="3">
+      <c r="G129" s="96">
         <f t="shared" si="11"/>
         <v>9007200</v>
       </c>
-      <c r="H129" s="3">
+      <c r="H129" s="96">
         <f t="shared" si="12"/>
         <v>9382500</v>
       </c>
-      <c r="K129" s="3">
+      <c r="I129" s="96"/>
+      <c r="J129" s="96"/>
+      <c r="K129" s="96">
         <f t="shared" si="14"/>
         <v>-7506000</v>
       </c>
-      <c r="O129" s="13" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="130" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O129" s="99" t="s">
+        <v>318</v>
+      </c>
+      <c r="P129" s="100"/>
+    </row>
+    <row r="130" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B130" s="55" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C130" s="3">
         <v>4000000</v>
@@ -7127,29 +7293,33 @@
       <c r="D130" s="3">
         <v>842000</v>
       </c>
-      <c r="F130" s="3">
+      <c r="F130" s="96">
         <f t="shared" si="10"/>
         <v>4842000</v>
       </c>
-      <c r="G130" s="3">
+      <c r="G130" s="96">
         <f t="shared" si="11"/>
         <v>5810400</v>
       </c>
-      <c r="H130" s="3">
+      <c r="H130" s="96">
         <f t="shared" si="12"/>
         <v>6052500</v>
       </c>
-      <c r="K130" s="3">
+      <c r="I130" s="96"/>
+      <c r="K130" s="96">
         <f t="shared" si="14"/>
         <v>-4842000</v>
       </c>
+      <c r="L130" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="O130" s="13" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="131" spans="2:15" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="131" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B131" s="55" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C131" s="3">
         <v>5150000</v>
@@ -7157,29 +7327,30 @@
       <c r="D131" s="3">
         <v>842000</v>
       </c>
-      <c r="F131" s="3">
+      <c r="F131" s="96">
         <f t="shared" si="10"/>
         <v>5992000</v>
       </c>
-      <c r="G131" s="3">
+      <c r="G131" s="96">
         <f t="shared" si="11"/>
         <v>7190400</v>
       </c>
-      <c r="H131" s="3">
+      <c r="H131" s="96">
         <f t="shared" si="12"/>
         <v>7490000</v>
       </c>
-      <c r="K131" s="3">
+      <c r="I131" s="96"/>
+      <c r="K131" s="96">
         <f t="shared" si="14"/>
         <v>-5992000</v>
       </c>
       <c r="O131" s="13" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="132" spans="2:15" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="132" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B132" s="55" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C132" s="3">
         <f>8500000/2</f>
@@ -7189,29 +7360,30 @@
         <f>1479000/2</f>
         <v>739500</v>
       </c>
-      <c r="F132" s="3">
-        <f t="shared" ref="F132" si="30">C132+D132+E132</f>
+      <c r="F132" s="96">
+        <f t="shared" si="10"/>
         <v>4989500</v>
       </c>
-      <c r="G132" s="3">
-        <f t="shared" ref="G132" si="31">(F132*20%)+F132</f>
+      <c r="G132" s="96">
+        <f t="shared" si="11"/>
         <v>5987400</v>
       </c>
-      <c r="H132" s="3">
-        <f t="shared" ref="H132" si="32">(F132*25%)+F132</f>
+      <c r="H132" s="96">
+        <f t="shared" si="12"/>
         <v>6236875</v>
       </c>
-      <c r="K132" s="3">
-        <f t="shared" ref="K132" si="33">I132-J132-F132</f>
+      <c r="I132" s="96"/>
+      <c r="K132" s="96">
+        <f t="shared" si="14"/>
         <v>-4989500</v>
       </c>
       <c r="O132" s="13" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="133" spans="2:15" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="133" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B133" s="55" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C133" s="3">
         <f>8500000/2</f>
@@ -7221,29 +7393,30 @@
         <f>1479000/2</f>
         <v>739500</v>
       </c>
-      <c r="F133" s="3">
+      <c r="F133" s="96">
         <f t="shared" si="10"/>
         <v>4989500</v>
       </c>
-      <c r="G133" s="3">
+      <c r="G133" s="96">
         <f t="shared" si="11"/>
         <v>5987400</v>
       </c>
-      <c r="H133" s="3">
+      <c r="H133" s="96">
         <f t="shared" si="12"/>
         <v>6236875</v>
       </c>
-      <c r="K133" s="3">
+      <c r="I133" s="96"/>
+      <c r="K133" s="96">
         <f t="shared" si="14"/>
         <v>-4989500</v>
       </c>
       <c r="O133" s="13" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="134" spans="2:15" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="134" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B134" s="55" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C134" s="3">
         <v>5500000</v>
@@ -7251,29 +7424,30 @@
       <c r="D134" s="3">
         <v>739000</v>
       </c>
-      <c r="F134" s="3">
+      <c r="F134" s="96">
         <f t="shared" si="10"/>
         <v>6239000</v>
       </c>
-      <c r="G134" s="3">
+      <c r="G134" s="96">
         <f t="shared" si="11"/>
         <v>7486800</v>
       </c>
-      <c r="H134" s="3">
+      <c r="H134" s="96">
         <f t="shared" si="12"/>
         <v>7798750</v>
       </c>
-      <c r="K134" s="3">
+      <c r="I134" s="96"/>
+      <c r="K134" s="96">
         <f t="shared" si="14"/>
         <v>-6239000</v>
       </c>
       <c r="O134" s="13" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="135" spans="2:15" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="135" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B135" s="55" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C135" s="3">
         <v>5750000</v>
@@ -7281,236 +7455,1209 @@
       <c r="D135" s="3">
         <v>842000</v>
       </c>
-      <c r="F135" s="3">
+      <c r="F135" s="96">
         <f t="shared" si="10"/>
         <v>6592000</v>
       </c>
-      <c r="G135" s="3">
+      <c r="G135" s="96">
         <f t="shared" si="11"/>
         <v>7910400</v>
       </c>
-      <c r="H135" s="3">
+      <c r="H135" s="96">
         <f t="shared" si="12"/>
         <v>8240000</v>
       </c>
-      <c r="I135" s="3">
-        <v>7600000</v>
-      </c>
-      <c r="K135" s="3">
+      <c r="I135" s="96"/>
+      <c r="K135" s="96">
         <f t="shared" si="14"/>
-        <v>1008000</v>
+        <v>-6592000</v>
       </c>
       <c r="O135" s="13" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="136" spans="2:15" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="136" spans="2:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="55" t="s">
-        <v>333</v>
-      </c>
-      <c r="G136" s="3">
+        <v>331</v>
+      </c>
+      <c r="F136" s="96">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G136" s="96">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H136" s="3">
+      <c r="H136" s="96">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K136" s="3">
+      <c r="I136" s="96"/>
+      <c r="K136" s="96">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O136" s="13" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="137" spans="2:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="55" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="137" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B137" s="55" t="s">
-        <v>333</v>
-      </c>
-      <c r="G137" s="3">
+      <c r="F137" s="96">
+        <f t="shared" ref="F137:F168" si="30">C137+D137+E137</f>
+        <v>0</v>
+      </c>
+      <c r="G137" s="96">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
+      <c r="H137" s="96">
+        <f t="shared" ref="H137:H177" si="31">(F137*25%)+F137</f>
+        <v>0</v>
+      </c>
+      <c r="I137" s="96"/>
+      <c r="K137" s="96">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="O137" s="13" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="138" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B138" s="147" t="s">
-        <v>335</v>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="138" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="140" t="s">
+        <v>333</v>
       </c>
       <c r="C138" s="3">
         <v>3600000</v>
       </c>
+      <c r="D138" s="3">
+        <v>862000</v>
+      </c>
+      <c r="E138" s="3">
+        <v>250000</v>
+      </c>
+      <c r="F138" s="96">
+        <f t="shared" si="30"/>
+        <v>4712000</v>
+      </c>
+      <c r="G138" s="96">
+        <f t="shared" ref="G138:G172" si="32">(F138*20%)+F138</f>
+        <v>5654400</v>
+      </c>
+      <c r="H138" s="96">
+        <f t="shared" si="31"/>
+        <v>5890000</v>
+      </c>
+      <c r="I138" s="96"/>
+      <c r="K138" s="96">
+        <f t="shared" si="14"/>
+        <v>-4712000</v>
+      </c>
+      <c r="L138" s="2" t="s">
+        <v>372</v>
+      </c>
       <c r="O138" s="13" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="139" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B139" s="148" t="s">
-        <v>337</v>
+        <v>332</v>
+      </c>
+      <c r="P138" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="139" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="141" t="s">
+        <v>335</v>
       </c>
       <c r="C139" s="3">
         <v>5832000</v>
       </c>
+      <c r="D139" s="143">
+        <v>801000</v>
+      </c>
+      <c r="F139" s="96">
+        <f t="shared" si="30"/>
+        <v>6633000</v>
+      </c>
+      <c r="G139" s="96">
+        <f t="shared" si="32"/>
+        <v>7959600</v>
+      </c>
+      <c r="H139" s="96">
+        <f t="shared" si="31"/>
+        <v>8291250</v>
+      </c>
+      <c r="I139" s="96">
+        <v>10000000</v>
+      </c>
+      <c r="K139" s="96">
+        <f t="shared" si="14"/>
+        <v>3367000</v>
+      </c>
+      <c r="L139" s="2" t="s">
+        <v>338</v>
+      </c>
       <c r="O139" s="13" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D157" s="18"/>
-    </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D158" s="102"/>
-    </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D159" s="18"/>
-    </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D160" s="3">
-        <v>5258500</v>
-      </c>
-    </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D161" s="96">
-        <v>5745000</v>
-      </c>
-    </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D162" s="3">
-        <v>4888000</v>
-      </c>
-    </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D163" s="51">
-        <v>8359000</v>
-      </c>
-    </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D164" s="3">
-        <v>3704000</v>
-      </c>
-    </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D165" s="3">
-        <v>6465000</v>
-      </c>
-    </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D166" s="3">
-        <v>3442800</v>
-      </c>
-    </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D167" s="132">
-        <v>6829000</v>
-      </c>
-    </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D168" s="3">
-        <v>4406000</v>
-      </c>
-    </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D169" s="3">
-        <v>5117000</v>
-      </c>
-    </row>
-    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D170" s="3">
-        <v>9275000</v>
-      </c>
-    </row>
-    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D171" s="136">
-        <v>6218000</v>
-      </c>
-    </row>
-    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D172" s="3">
-        <v>7922000</v>
-      </c>
-    </row>
-    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D173" s="3">
-        <v>4068000</v>
-      </c>
-    </row>
-    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D174" s="3">
-        <v>5790000</v>
-      </c>
-    </row>
-    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D175" s="3">
-        <v>3465000</v>
-      </c>
-    </row>
-    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D176" s="3">
-        <v>4322000</v>
-      </c>
-    </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D177" s="3">
-        <v>7881000</v>
-      </c>
-    </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D178" s="32">
-        <v>7831000</v>
-      </c>
-    </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D179" s="32">
-        <v>8309000</v>
-      </c>
-    </row>
-    <row r="180" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D180" s="3">
-        <v>8160000</v>
-      </c>
-    </row>
-    <row r="181" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D181" s="3">
-        <v>6500000</v>
-      </c>
-    </row>
-    <row r="182" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D182" s="3">
-        <v>4000000</v>
-      </c>
-    </row>
-    <row r="183" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D183" s="3">
-        <v>5150000</v>
-      </c>
-    </row>
-    <row r="184" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D184" s="3">
-        <v>8500000</v>
-      </c>
-    </row>
-    <row r="185" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D185" s="3">
-        <v>5500000</v>
-      </c>
-    </row>
-    <row r="186" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D186" s="3">
-        <v>5750000</v>
-      </c>
-    </row>
-    <row r="187" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E187" s="3">
-        <f>SUM(D160:D187)</f>
-        <v>162855300</v>
-      </c>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="140" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="55" t="s">
+        <v>340</v>
+      </c>
+      <c r="C140" s="3">
+        <v>7200000</v>
+      </c>
+      <c r="D140" s="3">
+        <v>842000</v>
+      </c>
+      <c r="E140" s="3">
+        <v>350000</v>
+      </c>
+      <c r="F140" s="96">
+        <f t="shared" si="30"/>
+        <v>8392000</v>
+      </c>
+      <c r="G140" s="96">
+        <f t="shared" si="32"/>
+        <v>10070400</v>
+      </c>
+      <c r="H140" s="96">
+        <f t="shared" si="31"/>
+        <v>10490000</v>
+      </c>
+      <c r="I140" s="96">
+        <v>14000000</v>
+      </c>
+      <c r="K140" s="96">
+        <f t="shared" si="14"/>
+        <v>5608000</v>
+      </c>
+      <c r="L140" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="O140" s="13" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="141" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="55" t="s">
+        <v>342</v>
+      </c>
+      <c r="C141" s="3">
+        <v>6720000</v>
+      </c>
+      <c r="D141" s="143">
+        <v>801000</v>
+      </c>
+      <c r="F141" s="96">
+        <f t="shared" si="30"/>
+        <v>7521000</v>
+      </c>
+      <c r="G141" s="96">
+        <f t="shared" si="32"/>
+        <v>9025200</v>
+      </c>
+      <c r="H141" s="96">
+        <f t="shared" si="31"/>
+        <v>9401250</v>
+      </c>
+      <c r="I141" s="96"/>
+      <c r="K141" s="96">
+        <f t="shared" si="14"/>
+        <v>-7521000</v>
+      </c>
+      <c r="O141" s="13" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="142" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B142" s="55" t="s">
+        <v>343</v>
+      </c>
+      <c r="C142" s="3">
+        <v>9840000</v>
+      </c>
+      <c r="D142" s="3">
+        <v>862000</v>
+      </c>
+      <c r="E142" s="3">
+        <v>550000</v>
+      </c>
+      <c r="F142" s="96">
+        <f t="shared" si="30"/>
+        <v>11252000</v>
+      </c>
+      <c r="G142" s="96">
+        <f t="shared" si="32"/>
+        <v>13502400</v>
+      </c>
+      <c r="H142" s="96">
+        <f t="shared" si="31"/>
+        <v>14065000</v>
+      </c>
+      <c r="I142" s="96"/>
+      <c r="K142" s="96">
+        <f t="shared" si="14"/>
+        <v>-11252000</v>
+      </c>
+      <c r="O142" s="13" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="143" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B143" s="55" t="s">
+        <v>345</v>
+      </c>
+      <c r="C143" s="3">
+        <v>9600000</v>
+      </c>
+      <c r="D143" s="3">
+        <v>904000</v>
+      </c>
+      <c r="F143" s="96">
+        <f t="shared" si="30"/>
+        <v>10504000</v>
+      </c>
+      <c r="G143" s="96">
+        <f t="shared" si="32"/>
+        <v>12604800</v>
+      </c>
+      <c r="H143" s="96">
+        <f t="shared" si="31"/>
+        <v>13130000</v>
+      </c>
+      <c r="I143" s="96">
+        <v>13300000</v>
+      </c>
+      <c r="K143" s="96">
+        <f t="shared" si="14"/>
+        <v>2796000</v>
+      </c>
+      <c r="L143" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="O143" s="13" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="144" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B144" s="55" t="s">
+        <v>348</v>
+      </c>
+      <c r="C144" s="3">
+        <v>5760000</v>
+      </c>
+      <c r="D144" s="3">
+        <v>700000</v>
+      </c>
+      <c r="F144" s="96">
+        <f t="shared" si="30"/>
+        <v>6460000</v>
+      </c>
+      <c r="G144" s="96">
+        <f t="shared" si="32"/>
+        <v>7752000</v>
+      </c>
+      <c r="H144" s="96">
+        <f t="shared" si="31"/>
+        <v>8075000</v>
+      </c>
+      <c r="K144" s="96">
+        <f t="shared" si="14"/>
+        <v>-6460000</v>
+      </c>
+      <c r="O144" s="13" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="145" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="55" t="s">
+        <v>349</v>
+      </c>
+      <c r="C145" s="3">
+        <v>3072000</v>
+      </c>
+      <c r="D145" s="3">
+        <v>920000</v>
+      </c>
+      <c r="E145" s="3">
+        <v>550000</v>
+      </c>
+      <c r="F145" s="96">
+        <f t="shared" si="30"/>
+        <v>4542000</v>
+      </c>
+      <c r="G145" s="96">
+        <f t="shared" si="32"/>
+        <v>5450400</v>
+      </c>
+      <c r="H145" s="96">
+        <f t="shared" si="31"/>
+        <v>5677500</v>
+      </c>
+      <c r="I145" s="3">
+        <v>8000000</v>
+      </c>
+      <c r="K145" s="96">
+        <f t="shared" ref="K145:K175" si="33">I145-J145-F145</f>
+        <v>3458000</v>
+      </c>
+      <c r="O145" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="146" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B146" s="55" t="s">
+        <v>352</v>
+      </c>
+      <c r="C146" s="3">
+        <v>7440000</v>
+      </c>
+      <c r="D146" s="3">
+        <v>903000</v>
+      </c>
+      <c r="F146" s="96">
+        <f t="shared" si="30"/>
+        <v>8343000</v>
+      </c>
+      <c r="G146" s="96">
+        <f t="shared" si="32"/>
+        <v>10011600</v>
+      </c>
+      <c r="H146" s="96">
+        <f t="shared" si="31"/>
+        <v>10428750</v>
+      </c>
+      <c r="K146" s="96">
+        <f t="shared" si="33"/>
+        <v>-8343000</v>
+      </c>
+      <c r="O146" s="13" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="147" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B147" s="144" t="s">
+        <v>354</v>
+      </c>
+      <c r="C147" s="3">
+        <v>9240000</v>
+      </c>
+      <c r="D147" s="3">
+        <v>883000</v>
+      </c>
+      <c r="F147" s="96">
+        <f t="shared" si="30"/>
+        <v>10123000</v>
+      </c>
+      <c r="G147" s="96">
+        <f t="shared" si="32"/>
+        <v>12147600</v>
+      </c>
+      <c r="H147" s="96">
+        <f t="shared" si="31"/>
+        <v>12653750</v>
+      </c>
+      <c r="K147" s="96">
+        <f t="shared" si="33"/>
+        <v>-10123000</v>
+      </c>
+      <c r="O147" s="13" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="148" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B148" s="55" t="s">
+        <v>376</v>
+      </c>
+      <c r="C148" s="3">
+        <f>12000000/5</f>
+        <v>2400000</v>
+      </c>
+      <c r="F148" s="96">
+        <f t="shared" si="30"/>
+        <v>2400000</v>
+      </c>
+      <c r="G148" s="96">
+        <f t="shared" si="32"/>
+        <v>2880000</v>
+      </c>
+      <c r="H148" s="96">
+        <f t="shared" si="31"/>
+        <v>3000000</v>
+      </c>
+      <c r="K148" s="96">
+        <f t="shared" si="33"/>
+        <v>-2400000</v>
+      </c>
+      <c r="O148" s="146" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="149" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B149" s="55" t="s">
+        <v>376</v>
+      </c>
+      <c r="C149" s="3">
+        <f t="shared" ref="C149:C152" si="34">12000000/5</f>
+        <v>2400000</v>
+      </c>
+      <c r="F149" s="96">
+        <f t="shared" si="30"/>
+        <v>2400000</v>
+      </c>
+      <c r="G149" s="96">
+        <f t="shared" si="32"/>
+        <v>2880000</v>
+      </c>
+      <c r="H149" s="96">
+        <f t="shared" si="31"/>
+        <v>3000000</v>
+      </c>
+      <c r="K149" s="96">
+        <f t="shared" si="33"/>
+        <v>-2400000</v>
+      </c>
+      <c r="O149" s="147"/>
+    </row>
+    <row r="150" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B150" s="55" t="s">
+        <v>376</v>
+      </c>
+      <c r="C150" s="3">
+        <f t="shared" si="34"/>
+        <v>2400000</v>
+      </c>
+      <c r="F150" s="96">
+        <f t="shared" si="30"/>
+        <v>2400000</v>
+      </c>
+      <c r="G150" s="96">
+        <f t="shared" si="32"/>
+        <v>2880000</v>
+      </c>
+      <c r="H150" s="96">
+        <f t="shared" si="31"/>
+        <v>3000000</v>
+      </c>
+      <c r="K150" s="96">
+        <f t="shared" si="33"/>
+        <v>-2400000</v>
+      </c>
+      <c r="O150" s="148"/>
+    </row>
+    <row r="151" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B151" s="55" t="s">
+        <v>376</v>
+      </c>
+      <c r="C151" s="3">
+        <f t="shared" si="34"/>
+        <v>2400000</v>
+      </c>
+      <c r="D151" s="3">
+        <f>2876000/4</f>
+        <v>719000</v>
+      </c>
+      <c r="F151" s="96">
+        <f t="shared" si="30"/>
+        <v>3119000</v>
+      </c>
+      <c r="G151" s="96">
+        <f t="shared" si="32"/>
+        <v>3742800</v>
+      </c>
+      <c r="H151" s="96">
+        <f t="shared" si="31"/>
+        <v>3898750</v>
+      </c>
+      <c r="K151" s="96">
+        <f t="shared" si="33"/>
+        <v>-3119000</v>
+      </c>
+      <c r="O151" s="146" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="152" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B152" s="55" t="s">
+        <v>376</v>
+      </c>
+      <c r="C152" s="3">
+        <f t="shared" si="34"/>
+        <v>2400000</v>
+      </c>
+      <c r="D152" s="3">
+        <f>2876000/4</f>
+        <v>719000</v>
+      </c>
+      <c r="F152" s="96">
+        <f t="shared" si="30"/>
+        <v>3119000</v>
+      </c>
+      <c r="G152" s="96">
+        <f t="shared" si="32"/>
+        <v>3742800</v>
+      </c>
+      <c r="H152" s="96">
+        <f t="shared" si="31"/>
+        <v>3898750</v>
+      </c>
+      <c r="K152" s="96">
+        <f t="shared" si="33"/>
+        <v>-3119000</v>
+      </c>
+      <c r="O152" s="147"/>
+    </row>
+    <row r="153" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B153" s="55" t="s">
+        <v>377</v>
+      </c>
+      <c r="C153" s="3">
+        <v>4800000</v>
+      </c>
+      <c r="D153" s="3">
+        <f>2876000/4</f>
+        <v>719000</v>
+      </c>
+      <c r="F153" s="96">
+        <f t="shared" si="30"/>
+        <v>5519000</v>
+      </c>
+      <c r="G153" s="96">
+        <f t="shared" si="32"/>
+        <v>6622800</v>
+      </c>
+      <c r="H153" s="96">
+        <f t="shared" si="31"/>
+        <v>6898750</v>
+      </c>
+      <c r="K153" s="96">
+        <f t="shared" si="33"/>
+        <v>-5519000</v>
+      </c>
+      <c r="O153" s="147"/>
+    </row>
+    <row r="154" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B154" s="55" t="s">
+        <v>379</v>
+      </c>
+      <c r="C154" s="3">
+        <v>7200000</v>
+      </c>
+      <c r="D154" s="3">
+        <f>2876000/4</f>
+        <v>719000</v>
+      </c>
+      <c r="F154" s="96">
+        <f t="shared" si="30"/>
+        <v>7919000</v>
+      </c>
+      <c r="G154" s="96">
+        <f t="shared" si="32"/>
+        <v>9502800</v>
+      </c>
+      <c r="H154" s="96">
+        <f t="shared" si="31"/>
+        <v>9898750</v>
+      </c>
+      <c r="K154" s="96">
+        <f t="shared" si="33"/>
+        <v>-7919000</v>
+      </c>
+      <c r="O154" s="148"/>
+    </row>
+    <row r="155" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B155" s="55" t="s">
+        <v>358</v>
+      </c>
+      <c r="C155" s="3">
+        <v>1944000</v>
+      </c>
+      <c r="D155" s="3">
+        <v>698000</v>
+      </c>
+      <c r="F155" s="3">
+        <f t="shared" si="30"/>
+        <v>2642000</v>
+      </c>
+      <c r="G155" s="96">
+        <f t="shared" si="32"/>
+        <v>3170400</v>
+      </c>
+      <c r="H155" s="96">
+        <f t="shared" si="31"/>
+        <v>3302500</v>
+      </c>
+      <c r="K155" s="3">
+        <f t="shared" si="33"/>
+        <v>-2642000</v>
+      </c>
+      <c r="O155" s="13" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="156" spans="2:16" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="94" t="s">
+        <v>360</v>
+      </c>
+      <c r="C156" s="118">
+        <v>7658569</v>
+      </c>
+      <c r="D156" s="118"/>
+      <c r="E156" s="118"/>
+      <c r="F156" s="118">
+        <f t="shared" si="30"/>
+        <v>7658569</v>
+      </c>
+      <c r="G156" s="96">
+        <f t="shared" si="32"/>
+        <v>9190282.8000000007</v>
+      </c>
+      <c r="H156" s="145">
+        <f t="shared" si="31"/>
+        <v>9573211.25</v>
+      </c>
+      <c r="I156" s="118"/>
+      <c r="J156" s="118"/>
+      <c r="K156" s="118">
+        <f t="shared" si="33"/>
+        <v>-7658569</v>
+      </c>
+      <c r="O156" s="120" t="s">
+        <v>359</v>
+      </c>
+      <c r="P156" s="121" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="157" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B157" s="55" t="s">
+        <v>363</v>
+      </c>
+      <c r="C157" s="3">
+        <v>8280000</v>
+      </c>
+      <c r="F157" s="118">
+        <f t="shared" si="30"/>
+        <v>8280000</v>
+      </c>
+      <c r="G157" s="96">
+        <f t="shared" si="32"/>
+        <v>9936000</v>
+      </c>
+      <c r="H157" s="3">
+        <f t="shared" si="31"/>
+        <v>10350000</v>
+      </c>
+      <c r="K157" s="3">
+        <f t="shared" si="33"/>
+        <v>-8280000</v>
+      </c>
+      <c r="O157" s="13" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="158" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B158" s="55" t="s">
+        <v>366</v>
+      </c>
+      <c r="C158" s="3">
+        <v>3675000</v>
+      </c>
+      <c r="F158" s="118">
+        <f t="shared" si="30"/>
+        <v>3675000</v>
+      </c>
+      <c r="G158" s="96">
+        <f t="shared" si="32"/>
+        <v>4410000</v>
+      </c>
+      <c r="H158" s="3">
+        <f t="shared" si="31"/>
+        <v>4593750</v>
+      </c>
+      <c r="K158" s="3">
+        <f t="shared" si="33"/>
+        <v>-3675000</v>
+      </c>
+      <c r="O158" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="P158" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="159" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="124" t="s">
+        <v>368</v>
+      </c>
+      <c r="C159" s="32">
+        <v>8400000</v>
+      </c>
+      <c r="D159" s="32"/>
+      <c r="E159" s="32"/>
+      <c r="F159" s="32">
+        <f t="shared" si="30"/>
+        <v>8400000</v>
+      </c>
+      <c r="G159" s="153">
+        <f t="shared" si="32"/>
+        <v>10080000</v>
+      </c>
+      <c r="H159" s="32">
+        <f t="shared" si="31"/>
+        <v>10500000</v>
+      </c>
+      <c r="I159" s="32"/>
+      <c r="J159" s="32"/>
+      <c r="K159" s="32">
+        <f t="shared" si="33"/>
+        <v>-8400000</v>
+      </c>
+      <c r="O159" s="154" t="s">
+        <v>367</v>
+      </c>
+      <c r="P159" s="35"/>
+    </row>
+    <row r="160" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="124" t="s">
+        <v>331</v>
+      </c>
+      <c r="C160" s="32">
+        <v>10800000</v>
+      </c>
+      <c r="D160" s="32"/>
+      <c r="E160" s="32"/>
+      <c r="F160" s="32">
+        <f t="shared" si="30"/>
+        <v>10800000</v>
+      </c>
+      <c r="G160" s="153">
+        <f t="shared" si="32"/>
+        <v>12960000</v>
+      </c>
+      <c r="H160" s="32">
+        <f t="shared" si="31"/>
+        <v>13500000</v>
+      </c>
+      <c r="I160" s="32"/>
+      <c r="J160" s="32"/>
+      <c r="K160" s="32">
+        <f t="shared" si="33"/>
+        <v>-10800000</v>
+      </c>
+      <c r="O160" s="155"/>
+      <c r="P160" s="35"/>
+    </row>
+    <row r="161" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="124">
+        <v>7410</v>
+      </c>
+      <c r="C161" s="32">
+        <v>2640000</v>
+      </c>
+      <c r="D161" s="42"/>
+      <c r="E161" s="32"/>
+      <c r="F161" s="32">
+        <f t="shared" si="30"/>
+        <v>2640000</v>
+      </c>
+      <c r="G161" s="153">
+        <f t="shared" si="32"/>
+        <v>3168000</v>
+      </c>
+      <c r="H161" s="32">
+        <f t="shared" si="31"/>
+        <v>3300000</v>
+      </c>
+      <c r="I161" s="32"/>
+      <c r="J161" s="32"/>
+      <c r="K161" s="32">
+        <f t="shared" si="33"/>
+        <v>-2640000</v>
+      </c>
+      <c r="O161" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="P161" s="35"/>
+    </row>
+    <row r="162" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B162" s="55" t="s">
+        <v>382</v>
+      </c>
+      <c r="C162" s="3">
+        <v>6615000</v>
+      </c>
+      <c r="D162" s="102">
+        <v>545000</v>
+      </c>
+      <c r="F162" s="118">
+        <f t="shared" si="30"/>
+        <v>7160000</v>
+      </c>
+      <c r="G162" s="96">
+        <f t="shared" si="32"/>
+        <v>8592000</v>
+      </c>
+      <c r="H162" s="3">
+        <f t="shared" si="31"/>
+        <v>8950000</v>
+      </c>
+      <c r="K162" s="3">
+        <f t="shared" si="33"/>
+        <v>-7160000</v>
+      </c>
+      <c r="O162" s="13" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="163" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B163" s="55" t="s">
+        <v>371</v>
+      </c>
+      <c r="C163" s="3">
+        <v>7680000</v>
+      </c>
+      <c r="D163" s="2"/>
+      <c r="F163" s="118">
+        <f>C163+D162+E163</f>
+        <v>8225000</v>
+      </c>
+      <c r="G163" s="96">
+        <f t="shared" si="32"/>
+        <v>9870000</v>
+      </c>
+      <c r="H163" s="3">
+        <f t="shared" si="31"/>
+        <v>10281250</v>
+      </c>
+      <c r="K163" s="3">
+        <f t="shared" si="33"/>
+        <v>-8225000</v>
+      </c>
+      <c r="O163" s="13" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="164" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="55" t="s">
+        <v>374</v>
+      </c>
+      <c r="C164" s="3">
+        <v>1960000</v>
+      </c>
+      <c r="D164" s="18">
+        <f>3156000/5</f>
+        <v>631200</v>
+      </c>
+      <c r="F164" s="118">
+        <f t="shared" si="30"/>
+        <v>2591200</v>
+      </c>
+      <c r="G164" s="96">
+        <f t="shared" si="32"/>
+        <v>3109440</v>
+      </c>
+      <c r="H164" s="3">
+        <f t="shared" si="31"/>
+        <v>3239000</v>
+      </c>
+      <c r="I164" s="3">
+        <v>4200000</v>
+      </c>
+      <c r="K164" s="3">
+        <f t="shared" si="33"/>
+        <v>1608800</v>
+      </c>
+      <c r="O164" s="146" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="165" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="55" t="s">
+        <v>374</v>
+      </c>
+      <c r="C165" s="3">
+        <v>1960000</v>
+      </c>
+      <c r="D165" s="18">
+        <f t="shared" ref="D165:D168" si="35">3156000/5</f>
+        <v>631200</v>
+      </c>
+      <c r="F165" s="118">
+        <f t="shared" si="30"/>
+        <v>2591200</v>
+      </c>
+      <c r="G165" s="96">
+        <f t="shared" si="32"/>
+        <v>3109440</v>
+      </c>
+      <c r="H165" s="3">
+        <f t="shared" si="31"/>
+        <v>3239000</v>
+      </c>
+      <c r="I165" s="3">
+        <v>4200000</v>
+      </c>
+      <c r="K165" s="3">
+        <f t="shared" si="33"/>
+        <v>1608800</v>
+      </c>
+      <c r="O165" s="147"/>
+    </row>
+    <row r="166" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B166" s="55" t="s">
+        <v>374</v>
+      </c>
+      <c r="C166" s="3">
+        <v>1960000</v>
+      </c>
+      <c r="D166" s="18">
+        <f t="shared" si="35"/>
+        <v>631200</v>
+      </c>
+      <c r="F166" s="118">
+        <f t="shared" si="30"/>
+        <v>2591200</v>
+      </c>
+      <c r="G166" s="96">
+        <f t="shared" si="32"/>
+        <v>3109440</v>
+      </c>
+      <c r="H166" s="3">
+        <f t="shared" si="31"/>
+        <v>3239000</v>
+      </c>
+      <c r="K166" s="3">
+        <f t="shared" si="33"/>
+        <v>-2591200</v>
+      </c>
+      <c r="O166" s="147"/>
+    </row>
+    <row r="167" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B167" s="55" t="s">
+        <v>374</v>
+      </c>
+      <c r="C167" s="3">
+        <v>1960000</v>
+      </c>
+      <c r="D167" s="18">
+        <f t="shared" si="35"/>
+        <v>631200</v>
+      </c>
+      <c r="F167" s="118">
+        <f t="shared" si="30"/>
+        <v>2591200</v>
+      </c>
+      <c r="G167" s="96">
+        <f t="shared" si="32"/>
+        <v>3109440</v>
+      </c>
+      <c r="H167" s="3">
+        <f t="shared" si="31"/>
+        <v>3239000</v>
+      </c>
+      <c r="K167" s="3">
+        <f t="shared" si="33"/>
+        <v>-2591200</v>
+      </c>
+      <c r="O167" s="147"/>
+    </row>
+    <row r="168" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B168" s="55" t="s">
+        <v>374</v>
+      </c>
+      <c r="C168" s="3">
+        <v>1960000</v>
+      </c>
+      <c r="D168" s="18">
+        <f t="shared" si="35"/>
+        <v>631200</v>
+      </c>
+      <c r="F168" s="118">
+        <f t="shared" si="30"/>
+        <v>2591200</v>
+      </c>
+      <c r="G168" s="96">
+        <f t="shared" si="32"/>
+        <v>3109440</v>
+      </c>
+      <c r="H168" s="3">
+        <f t="shared" si="31"/>
+        <v>3239000</v>
+      </c>
+      <c r="K168" s="3">
+        <f t="shared" si="33"/>
+        <v>-2591200</v>
+      </c>
+      <c r="O168" s="148"/>
+    </row>
+    <row r="169" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B169" s="55" t="s">
+        <v>376</v>
+      </c>
+      <c r="C169" s="3">
+        <v>2205000</v>
+      </c>
+      <c r="G169" s="96">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="H169" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="K169" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B170" s="55" t="s">
+        <v>376</v>
+      </c>
+      <c r="C170" s="3">
+        <v>2205000</v>
+      </c>
+      <c r="G170" s="96">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="H170" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="K170" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B171" s="55" t="s">
+        <v>378</v>
+      </c>
+      <c r="C171" s="3">
+        <v>1715000</v>
+      </c>
+      <c r="G171" s="96">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="H171" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="K171" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B172" s="55" t="s">
+        <v>379</v>
+      </c>
+      <c r="C172" s="3">
+        <v>6125000</v>
+      </c>
+      <c r="D172" s="132"/>
+      <c r="G172" s="96">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="H172" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="K172" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B173" s="55" t="s">
+        <v>380</v>
+      </c>
+      <c r="C173" s="3">
+        <v>7350000</v>
+      </c>
+      <c r="H173" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="K173" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B174" s="55" t="s">
+        <v>386</v>
+      </c>
+      <c r="C174" s="3">
+        <v>5397000</v>
+      </c>
+      <c r="H174" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="K174" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="O174" s="13" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="175" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B175" s="55" t="s">
+        <v>383</v>
+      </c>
+      <c r="H175" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="K175" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="O175" s="13" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="176" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B176" s="55" t="s">
+        <v>385</v>
+      </c>
+      <c r="C176" s="3">
+        <v>2520000</v>
+      </c>
+      <c r="D176" s="136"/>
+      <c r="H176" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H177" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D183" s="32"/>
+    </row>
+    <row r="184" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D184" s="32"/>
     </row>
   </sheetData>
   <autoFilter ref="L1:L80" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="O164:O168"/>
+    <mergeCell ref="O148:O150"/>
+    <mergeCell ref="O151:O154"/>
+    <mergeCell ref="O159:O160"/>
     <mergeCell ref="O72:O74"/>
     <mergeCell ref="O96:O97"/>
     <mergeCell ref="O111:O115"/>
@@ -7522,7 +8669,7 @@
       <formula>MOD(ROW(),2)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D169:D179 D160:D164">
+  <conditionalFormatting sqref="D169 D174:D184">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)&gt;0</formula>
     </cfRule>
@@ -7555,7 +8702,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>3</v>
@@ -7566,7 +8713,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" s="1">
         <v>300000</v>
@@ -7578,7 +8725,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B3" s="1">
         <v>150000</v>
@@ -7590,7 +8737,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B4" s="1">
         <v>150000</v>
@@ -7602,7 +8749,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B5" s="1">
         <v>160000</v>
@@ -7614,7 +8761,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B6" s="1">
         <v>300000</v>
@@ -7626,7 +8773,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B7" s="1">
         <v>600000</v>
@@ -7638,7 +8785,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B8" s="1">
         <v>300000</v>
@@ -7650,7 +8797,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B9">
         <v>250000</v>

--- a/TDStore/NhapXuatLaptop.xlsx
+++ b/TDStore/NhapXuatLaptop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06.TDStore\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF25350-7262-491D-8D27-06FED91C79B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D173C2-85ED-4F73-8352-217469F5CC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="391">
   <si>
     <t>ID máy</t>
   </si>
@@ -1196,6 +1196,15 @@
   </si>
   <si>
     <t>61299998825446079467</t>
+  </si>
+  <si>
+    <t>1.211.798</t>
+  </si>
+  <si>
+    <t>Sơn</t>
+  </si>
+  <si>
+    <t>E Tiến</t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1216,7 @@
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1284,6 +1293,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF050505"/>
+      <name val="Segoe UI Historic"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1437,7 +1452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1736,6 +1751,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1743,6 +1763,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1756,13 +1782,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1907,7 +1926,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2212,11 +2231,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q184"/>
+  <dimension ref="A1:Q188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F180" sqref="F180"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N184" sqref="N184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5167,7 +5186,7 @@
       <c r="L72" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="O72" s="149" t="s">
+      <c r="O72" s="154" t="s">
         <v>189</v>
       </c>
       <c r="P72" s="110"/>
@@ -5210,7 +5229,7 @@
       <c r="L73" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="O73" s="149"/>
+      <c r="O73" s="154"/>
       <c r="P73" s="17"/>
     </row>
     <row r="74" spans="1:17" s="91" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5251,7 +5270,7 @@
       </c>
       <c r="M74" s="115"/>
       <c r="N74" s="115"/>
-      <c r="O74" s="149"/>
+      <c r="O74" s="154"/>
       <c r="P74" s="116"/>
     </row>
     <row r="75" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6091,7 +6110,7 @@
       <c r="N96" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="O96" s="146" t="s">
+      <c r="O96" s="149" t="s">
         <v>239</v>
       </c>
       <c r="P96" s="126"/>
@@ -6125,7 +6144,7 @@
         <f t="shared" si="14"/>
         <v>-4698000</v>
       </c>
-      <c r="O97" s="148"/>
+      <c r="O97" s="151"/>
     </row>
     <row r="98" spans="2:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="131" t="s">
@@ -6616,7 +6635,7 @@
       <c r="N111" s="29" t="s">
         <v>294</v>
       </c>
-      <c r="O111" s="146" t="s">
+      <c r="O111" s="149" t="s">
         <v>280</v>
       </c>
       <c r="P111" s="126"/>
@@ -6663,7 +6682,7 @@
       <c r="N112" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="O112" s="147"/>
+      <c r="O112" s="150"/>
       <c r="P112" s="126"/>
       <c r="Q112" s="29" t="s">
         <v>299</v>
@@ -6708,7 +6727,7 @@
       <c r="N113" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="O113" s="147"/>
+      <c r="O113" s="150"/>
       <c r="P113" s="126"/>
       <c r="Q113" s="29" t="s">
         <v>300</v>
@@ -6742,9 +6761,9 @@
         <f t="shared" ref="K114" si="24">I114-J114-F114</f>
         <v>-4068000</v>
       </c>
-      <c r="O114" s="147"/>
-    </row>
-    <row r="115" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="O114" s="150"/>
+    </row>
+    <row r="115" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B115" s="55" t="s">
         <v>281</v>
       </c>
@@ -6767,11 +6786,17 @@
         <f t="shared" si="12"/>
         <v>7237500</v>
       </c>
+      <c r="I115" s="3">
+        <v>6400000</v>
+      </c>
       <c r="K115" s="3">
         <f t="shared" si="14"/>
-        <v>-5790000</v>
-      </c>
-      <c r="O115" s="148"/>
+        <v>610000</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O115" s="151"/>
     </row>
     <row r="116" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B116" s="55" t="s">
@@ -6875,7 +6900,7 @@
       <c r="L118" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="O118" s="150" t="s">
+      <c r="O118" s="155" t="s">
         <v>287</v>
       </c>
       <c r="P118" s="35"/>
@@ -6916,7 +6941,7 @@
       <c r="L119" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="O119" s="151"/>
+      <c r="O119" s="156"/>
       <c r="P119" s="35"/>
     </row>
     <row r="120" spans="2:17" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -6955,7 +6980,7 @@
       <c r="L120" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="O120" s="151"/>
+      <c r="O120" s="156"/>
       <c r="P120" s="35"/>
     </row>
     <row r="121" spans="2:17" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -6994,7 +7019,7 @@
       <c r="L121" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="O121" s="151"/>
+      <c r="O121" s="156"/>
       <c r="P121" s="35"/>
     </row>
     <row r="122" spans="2:17" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -7033,7 +7058,7 @@
       <c r="L122" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="O122" s="152"/>
+      <c r="O122" s="157"/>
       <c r="P122" s="35"/>
     </row>
     <row r="123" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
@@ -7506,7 +7531,7 @@
         <v>331</v>
       </c>
       <c r="F137" s="96">
-        <f t="shared" ref="F137:F168" si="30">C137+D137+E137</f>
+        <f t="shared" ref="F137:F179" si="30">C137+D137+E137</f>
         <v>0</v>
       </c>
       <c r="G137" s="96">
@@ -7514,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="H137" s="96">
-        <f t="shared" ref="H137:H177" si="31">(F137*25%)+F137</f>
+        <f t="shared" ref="H137:H181" si="31">(F137*25%)+F137</f>
         <v>0</v>
       </c>
       <c r="I137" s="96"/>
@@ -7526,7 +7551,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="138" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="140" t="s">
         <v>333</v>
       </c>
@@ -7544,7 +7569,7 @@
         <v>4712000</v>
       </c>
       <c r="G138" s="96">
-        <f t="shared" ref="G138:G172" si="32">(F138*20%)+F138</f>
+        <f t="shared" ref="G138:G179" si="32">(F138*20%)+F138</f>
         <v>5654400</v>
       </c>
       <c r="H138" s="96">
@@ -7672,7 +7697,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B142" s="55" t="s">
         <v>343</v>
       </c>
@@ -7697,16 +7722,21 @@
         <f t="shared" si="31"/>
         <v>14065000</v>
       </c>
-      <c r="I142" s="96"/>
+      <c r="I142" s="96">
+        <v>13000000</v>
+      </c>
       <c r="K142" s="96">
         <f t="shared" si="14"/>
-        <v>-11252000</v>
+        <v>1748000</v>
+      </c>
+      <c r="L142" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="O142" s="13" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B143" s="55" t="s">
         <v>345</v>
       </c>
@@ -7801,14 +7831,14 @@
         <v>8000000</v>
       </c>
       <c r="K145" s="96">
-        <f t="shared" ref="K145:K175" si="33">I145-J145-F145</f>
+        <f t="shared" ref="K145:K179" si="33">I145-J145-F145</f>
         <v>3458000</v>
       </c>
       <c r="O145" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B146" s="55" t="s">
         <v>352</v>
       </c>
@@ -7818,21 +7848,30 @@
       <c r="D146" s="3">
         <v>903000</v>
       </c>
+      <c r="E146" s="3">
+        <v>880000</v>
+      </c>
       <c r="F146" s="96">
         <f t="shared" si="30"/>
-        <v>8343000</v>
+        <v>9223000</v>
       </c>
       <c r="G146" s="96">
         <f t="shared" si="32"/>
-        <v>10011600</v>
+        <v>11067600</v>
       </c>
       <c r="H146" s="96">
         <f t="shared" si="31"/>
-        <v>10428750</v>
+        <v>11528750</v>
+      </c>
+      <c r="I146" s="3">
+        <v>14000000</v>
       </c>
       <c r="K146" s="96">
         <f t="shared" si="33"/>
-        <v>-8343000</v>
+        <v>4777000</v>
+      </c>
+      <c r="L146" s="2" t="s">
+        <v>390</v>
       </c>
       <c r="O146" s="13" t="s">
         <v>351</v>
@@ -7868,7 +7907,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B148" s="55" t="s">
         <v>376</v>
       </c>
@@ -7888,15 +7927,18 @@
         <f t="shared" si="31"/>
         <v>3000000</v>
       </c>
+      <c r="I148" s="3">
+        <v>5800000</v>
+      </c>
       <c r="K148" s="96">
         <f t="shared" si="33"/>
-        <v>-2400000</v>
-      </c>
-      <c r="O148" s="146" t="s">
+        <v>3400000</v>
+      </c>
+      <c r="O148" s="149" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B149" s="55" t="s">
         <v>376</v>
       </c>
@@ -7916,13 +7958,16 @@
         <f t="shared" si="31"/>
         <v>3000000</v>
       </c>
+      <c r="I149" s="3">
+        <v>5800000</v>
+      </c>
       <c r="K149" s="96">
         <f t="shared" si="33"/>
-        <v>-2400000</v>
-      </c>
-      <c r="O149" s="147"/>
-    </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.25">
+        <v>3400000</v>
+      </c>
+      <c r="O149" s="150"/>
+    </row>
+    <row r="150" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B150" s="55" t="s">
         <v>376</v>
       </c>
@@ -7942,13 +7987,16 @@
         <f t="shared" si="31"/>
         <v>3000000</v>
       </c>
+      <c r="I150" s="3">
+        <v>5800000</v>
+      </c>
       <c r="K150" s="96">
         <f t="shared" si="33"/>
-        <v>-2400000</v>
-      </c>
-      <c r="O150" s="148"/>
-    </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.25">
+        <v>3400000</v>
+      </c>
+      <c r="O150" s="151"/>
+    </row>
+    <row r="151" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B151" s="55" t="s">
         <v>376</v>
       </c>
@@ -7972,15 +8020,18 @@
         <f t="shared" si="31"/>
         <v>3898750</v>
       </c>
+      <c r="I151" s="3">
+        <v>5800000</v>
+      </c>
       <c r="K151" s="96">
         <f t="shared" si="33"/>
-        <v>-3119000</v>
-      </c>
-      <c r="O151" s="146" t="s">
+        <v>2681000</v>
+      </c>
+      <c r="O151" s="149" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B152" s="55" t="s">
         <v>376</v>
       </c>
@@ -8004,11 +8055,14 @@
         <f t="shared" si="31"/>
         <v>3898750</v>
       </c>
+      <c r="I152" s="3">
+        <v>5800000</v>
+      </c>
       <c r="K152" s="96">
         <f t="shared" si="33"/>
-        <v>-3119000</v>
-      </c>
-      <c r="O152" s="147"/>
+        <v>2681000</v>
+      </c>
+      <c r="O152" s="150"/>
     </row>
     <row r="153" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B153" s="55" t="s">
@@ -8037,7 +8091,7 @@
         <f t="shared" si="33"/>
         <v>-5519000</v>
       </c>
-      <c r="O153" s="147"/>
+      <c r="O153" s="150"/>
     </row>
     <row r="154" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B154" s="55" t="s">
@@ -8062,11 +8116,17 @@
         <f t="shared" si="31"/>
         <v>9898750</v>
       </c>
+      <c r="I154" s="3">
+        <v>13000000</v>
+      </c>
       <c r="K154" s="96">
         <f t="shared" si="33"/>
-        <v>-7919000</v>
-      </c>
-      <c r="O154" s="148"/>
+        <v>5081000</v>
+      </c>
+      <c r="L154" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="O154" s="151"/>
     </row>
     <row r="155" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B155" s="55" t="s">
@@ -8098,32 +8158,34 @@
         <v>357</v>
       </c>
     </row>
-    <row r="156" spans="2:16" s="119" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:16" s="119" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B156" s="94" t="s">
         <v>360</v>
       </c>
       <c r="C156" s="118">
         <v>7658569</v>
       </c>
-      <c r="D156" s="118"/>
+      <c r="D156" s="143">
+        <v>903000</v>
+      </c>
       <c r="E156" s="118"/>
       <c r="F156" s="118">
         <f t="shared" si="30"/>
-        <v>7658569</v>
+        <v>8561569</v>
       </c>
       <c r="G156" s="96">
         <f t="shared" si="32"/>
-        <v>9190282.8000000007</v>
+        <v>10273882.800000001</v>
       </c>
       <c r="H156" s="145">
         <f t="shared" si="31"/>
-        <v>9573211.25</v>
+        <v>10701961.25</v>
       </c>
       <c r="I156" s="118"/>
       <c r="J156" s="118"/>
       <c r="K156" s="118">
         <f t="shared" si="33"/>
-        <v>-7658569</v>
+        <v>-8561569</v>
       </c>
       <c r="O156" s="120" t="s">
         <v>359</v>
@@ -8166,21 +8228,27 @@
       <c r="C158" s="3">
         <v>3675000</v>
       </c>
+      <c r="D158" s="3">
+        <v>875000</v>
+      </c>
       <c r="F158" s="118">
         <f t="shared" si="30"/>
-        <v>3675000</v>
+        <v>4550000</v>
       </c>
       <c r="G158" s="96">
         <f t="shared" si="32"/>
-        <v>4410000</v>
+        <v>5460000</v>
       </c>
       <c r="H158" s="3">
         <f t="shared" si="31"/>
-        <v>4593750</v>
+        <v>5687500</v>
+      </c>
+      <c r="I158" s="3">
+        <v>5500000</v>
       </c>
       <c r="K158" s="3">
         <f t="shared" si="33"/>
-        <v>-3675000</v>
+        <v>950000</v>
       </c>
       <c r="O158" s="13" t="s">
         <v>364</v>
@@ -8196,27 +8264,29 @@
       <c r="C159" s="32">
         <v>8400000</v>
       </c>
-      <c r="D159" s="32"/>
+      <c r="D159" s="32">
+        <v>819000</v>
+      </c>
       <c r="E159" s="32"/>
       <c r="F159" s="32">
         <f t="shared" si="30"/>
-        <v>8400000</v>
-      </c>
-      <c r="G159" s="153">
+        <v>9219000</v>
+      </c>
+      <c r="G159" s="146">
         <f t="shared" si="32"/>
-        <v>10080000</v>
+        <v>11062800</v>
       </c>
       <c r="H159" s="32">
         <f t="shared" si="31"/>
-        <v>10500000</v>
+        <v>11523750</v>
       </c>
       <c r="I159" s="32"/>
       <c r="J159" s="32"/>
       <c r="K159" s="32">
         <f t="shared" si="33"/>
-        <v>-8400000</v>
-      </c>
-      <c r="O159" s="154" t="s">
+        <v>-9219000</v>
+      </c>
+      <c r="O159" s="152" t="s">
         <v>367</v>
       </c>
       <c r="P159" s="35"/>
@@ -8226,246 +8296,270 @@
         <v>331</v>
       </c>
       <c r="C160" s="32">
-        <v>10800000</v>
-      </c>
-      <c r="D160" s="32"/>
+        <f>10800000/5</f>
+        <v>2160000</v>
+      </c>
+      <c r="D160" s="32">
+        <v>819000</v>
+      </c>
       <c r="E160" s="32"/>
       <c r="F160" s="32">
         <f t="shared" si="30"/>
-        <v>10800000</v>
-      </c>
-      <c r="G160" s="153">
+        <v>2979000</v>
+      </c>
+      <c r="G160" s="146">
         <f t="shared" si="32"/>
-        <v>12960000</v>
+        <v>3574800</v>
       </c>
       <c r="H160" s="32">
         <f t="shared" si="31"/>
-        <v>13500000</v>
+        <v>3723750</v>
       </c>
       <c r="I160" s="32"/>
       <c r="J160" s="32"/>
       <c r="K160" s="32">
         <f t="shared" si="33"/>
-        <v>-10800000</v>
-      </c>
-      <c r="O160" s="155"/>
+        <v>-2979000</v>
+      </c>
+      <c r="O160" s="153"/>
       <c r="P160" s="35"/>
     </row>
     <row r="161" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="124">
-        <v>7410</v>
+      <c r="B161" s="124" t="s">
+        <v>331</v>
       </c>
       <c r="C161" s="32">
-        <v>2640000</v>
-      </c>
-      <c r="D161" s="42"/>
+        <f>10800000/5</f>
+        <v>2160000</v>
+      </c>
+      <c r="D161" s="32">
+        <v>819000</v>
+      </c>
       <c r="E161" s="32"/>
       <c r="F161" s="32">
-        <f t="shared" si="30"/>
-        <v>2640000</v>
-      </c>
-      <c r="G161" s="153">
-        <f t="shared" si="32"/>
-        <v>3168000</v>
+        <f t="shared" ref="F161:F162" si="35">C161+D161+E161</f>
+        <v>2979000</v>
+      </c>
+      <c r="G161" s="146">
+        <f t="shared" ref="G161:G162" si="36">(F161*20%)+F161</f>
+        <v>3574800</v>
       </c>
       <c r="H161" s="32">
-        <f t="shared" si="31"/>
-        <v>3300000</v>
+        <f t="shared" ref="H161:H162" si="37">(F161*25%)+F161</f>
+        <v>3723750</v>
       </c>
       <c r="I161" s="32"/>
       <c r="J161" s="32"/>
       <c r="K161" s="32">
+        <f t="shared" ref="K161:K162" si="38">I161-J161-F161</f>
+        <v>-2979000</v>
+      </c>
+      <c r="O161" s="147"/>
+      <c r="P161" s="35"/>
+    </row>
+    <row r="162" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="124" t="s">
+        <v>331</v>
+      </c>
+      <c r="C162" s="32">
+        <f t="shared" ref="C162:C164" si="39">10800000/5</f>
+        <v>2160000</v>
+      </c>
+      <c r="D162" s="32">
+        <v>819000</v>
+      </c>
+      <c r="E162" s="32"/>
+      <c r="F162" s="32">
+        <f t="shared" si="35"/>
+        <v>2979000</v>
+      </c>
+      <c r="G162" s="146">
+        <f t="shared" si="36"/>
+        <v>3574800</v>
+      </c>
+      <c r="H162" s="32">
+        <f t="shared" si="37"/>
+        <v>3723750</v>
+      </c>
+      <c r="I162" s="32"/>
+      <c r="J162" s="32"/>
+      <c r="K162" s="32">
+        <f t="shared" si="38"/>
+        <v>-2979000</v>
+      </c>
+      <c r="O162" s="147"/>
+      <c r="P162" s="35"/>
+    </row>
+    <row r="163" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="124" t="s">
+        <v>331</v>
+      </c>
+      <c r="C163" s="32">
+        <f t="shared" si="39"/>
+        <v>2160000</v>
+      </c>
+      <c r="D163" s="32">
+        <v>819000</v>
+      </c>
+      <c r="E163" s="32"/>
+      <c r="F163" s="32">
+        <f t="shared" ref="F163" si="40">C163+D163+E163</f>
+        <v>2979000</v>
+      </c>
+      <c r="G163" s="146">
+        <f t="shared" ref="G163" si="41">(F163*20%)+F163</f>
+        <v>3574800</v>
+      </c>
+      <c r="H163" s="32">
+        <f t="shared" ref="H163" si="42">(F163*25%)+F163</f>
+        <v>3723750</v>
+      </c>
+      <c r="I163" s="32"/>
+      <c r="J163" s="32"/>
+      <c r="K163" s="32">
+        <f t="shared" ref="K163" si="43">I163-J163-F163</f>
+        <v>-2979000</v>
+      </c>
+      <c r="O163" s="147"/>
+      <c r="P163" s="35"/>
+    </row>
+    <row r="164" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="124" t="s">
+        <v>331</v>
+      </c>
+      <c r="C164" s="32">
+        <f t="shared" si="39"/>
+        <v>2160000</v>
+      </c>
+      <c r="D164" s="32">
+        <v>819000</v>
+      </c>
+      <c r="E164" s="32"/>
+      <c r="F164" s="32">
+        <f t="shared" ref="F164" si="44">C164+D164+E164</f>
+        <v>2979000</v>
+      </c>
+      <c r="G164" s="146">
+        <f t="shared" ref="G164" si="45">(F164*20%)+F164</f>
+        <v>3574800</v>
+      </c>
+      <c r="H164" s="32">
+        <f t="shared" ref="H164" si="46">(F164*25%)+F164</f>
+        <v>3723750</v>
+      </c>
+      <c r="I164" s="32"/>
+      <c r="J164" s="32"/>
+      <c r="K164" s="32">
+        <f t="shared" ref="K164" si="47">I164-J164-F164</f>
+        <v>-2979000</v>
+      </c>
+      <c r="O164" s="147"/>
+      <c r="P164" s="35"/>
+    </row>
+    <row r="165" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="124">
+        <v>7410</v>
+      </c>
+      <c r="C165" s="32">
+        <v>2640000</v>
+      </c>
+      <c r="D165" s="32">
+        <v>819000</v>
+      </c>
+      <c r="E165" s="32"/>
+      <c r="F165" s="32">
+        <f t="shared" si="30"/>
+        <v>3459000</v>
+      </c>
+      <c r="G165" s="146">
+        <f t="shared" si="32"/>
+        <v>4150800</v>
+      </c>
+      <c r="H165" s="32">
+        <f t="shared" si="31"/>
+        <v>4323750</v>
+      </c>
+      <c r="I165" s="32"/>
+      <c r="J165" s="32"/>
+      <c r="K165" s="32">
         <f t="shared" si="33"/>
-        <v>-2640000</v>
-      </c>
-      <c r="O161" s="34" t="s">
+        <v>-3459000</v>
+      </c>
+      <c r="O165" s="34" t="s">
         <v>369</v>
       </c>
-      <c r="P161" s="35"/>
-    </row>
-    <row r="162" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B162" s="55" t="s">
+      <c r="P165" s="35"/>
+    </row>
+    <row r="166" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B166" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="C162" s="3">
+      <c r="C166" s="3">
         <v>6615000</v>
       </c>
-      <c r="D162" s="102">
+      <c r="D166" s="102">
         <v>545000</v>
       </c>
-      <c r="F162" s="118">
+      <c r="E166" s="3">
+        <v>2700000</v>
+      </c>
+      <c r="F166" s="118">
         <f t="shared" si="30"/>
-        <v>7160000</v>
-      </c>
-      <c r="G162" s="96">
+        <v>9860000</v>
+      </c>
+      <c r="G166" s="96">
         <f t="shared" si="32"/>
-        <v>8592000</v>
-      </c>
-      <c r="H162" s="3">
+        <v>11832000</v>
+      </c>
+      <c r="H166" s="3">
         <f t="shared" si="31"/>
-        <v>8950000</v>
-      </c>
-      <c r="K162" s="3">
+        <v>12325000</v>
+      </c>
+      <c r="K166" s="3">
         <f t="shared" si="33"/>
-        <v>-7160000</v>
-      </c>
-      <c r="O162" s="13" t="s">
+        <v>-9860000</v>
+      </c>
+      <c r="O166" s="13" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="163" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B163" s="55" t="s">
+    <row r="167" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="55" t="s">
         <v>371</v>
       </c>
-      <c r="C163" s="3">
+      <c r="C167" s="3">
         <v>7680000</v>
       </c>
-      <c r="D163" s="2"/>
-      <c r="F163" s="118">
-        <f>C163+D162+E163</f>
+      <c r="D167" s="2">
+        <v>760000</v>
+      </c>
+      <c r="F167" s="118">
+        <f>C167+D166+E167</f>
         <v>8225000</v>
       </c>
-      <c r="G163" s="96">
+      <c r="G167" s="96">
         <f t="shared" si="32"/>
         <v>9870000</v>
       </c>
-      <c r="H163" s="3">
+      <c r="H167" s="3">
         <f t="shared" si="31"/>
         <v>10281250</v>
       </c>
-      <c r="K163" s="3">
-        <f t="shared" si="33"/>
-        <v>-8225000</v>
-      </c>
-      <c r="O163" s="13" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="164" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="55" t="s">
-        <v>374</v>
-      </c>
-      <c r="C164" s="3">
-        <v>1960000</v>
-      </c>
-      <c r="D164" s="18">
-        <f>3156000/5</f>
-        <v>631200</v>
-      </c>
-      <c r="F164" s="118">
-        <f t="shared" si="30"/>
-        <v>2591200</v>
-      </c>
-      <c r="G164" s="96">
-        <f t="shared" si="32"/>
-        <v>3109440</v>
-      </c>
-      <c r="H164" s="3">
-        <f t="shared" si="31"/>
-        <v>3239000</v>
-      </c>
-      <c r="I164" s="3">
-        <v>4200000</v>
-      </c>
-      <c r="K164" s="3">
-        <f t="shared" si="33"/>
-        <v>1608800</v>
-      </c>
-      <c r="O164" s="146" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="165" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="55" t="s">
-        <v>374</v>
-      </c>
-      <c r="C165" s="3">
-        <v>1960000</v>
-      </c>
-      <c r="D165" s="18">
-        <f t="shared" ref="D165:D168" si="35">3156000/5</f>
-        <v>631200</v>
-      </c>
-      <c r="F165" s="118">
-        <f t="shared" si="30"/>
-        <v>2591200</v>
-      </c>
-      <c r="G165" s="96">
-        <f t="shared" si="32"/>
-        <v>3109440</v>
-      </c>
-      <c r="H165" s="3">
-        <f t="shared" si="31"/>
-        <v>3239000</v>
-      </c>
-      <c r="I165" s="3">
-        <v>4200000</v>
-      </c>
-      <c r="K165" s="3">
-        <f t="shared" si="33"/>
-        <v>1608800</v>
-      </c>
-      <c r="O165" s="147"/>
-    </row>
-    <row r="166" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B166" s="55" t="s">
-        <v>374</v>
-      </c>
-      <c r="C166" s="3">
-        <v>1960000</v>
-      </c>
-      <c r="D166" s="18">
-        <f t="shared" si="35"/>
-        <v>631200</v>
-      </c>
-      <c r="F166" s="118">
-        <f t="shared" si="30"/>
-        <v>2591200</v>
-      </c>
-      <c r="G166" s="96">
-        <f t="shared" si="32"/>
-        <v>3109440</v>
-      </c>
-      <c r="H166" s="3">
-        <f t="shared" si="31"/>
-        <v>3239000</v>
-      </c>
-      <c r="K166" s="3">
-        <f t="shared" si="33"/>
-        <v>-2591200</v>
-      </c>
-      <c r="O166" s="147"/>
-    </row>
-    <row r="167" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B167" s="55" t="s">
-        <v>374</v>
-      </c>
-      <c r="C167" s="3">
-        <v>1960000</v>
-      </c>
-      <c r="D167" s="18">
-        <f t="shared" si="35"/>
-        <v>631200</v>
-      </c>
-      <c r="F167" s="118">
-        <f t="shared" si="30"/>
-        <v>2591200</v>
-      </c>
-      <c r="G167" s="96">
-        <f t="shared" si="32"/>
-        <v>3109440</v>
-      </c>
-      <c r="H167" s="3">
-        <f t="shared" si="31"/>
-        <v>3239000</v>
+      <c r="I167" s="3">
+        <v>10400000</v>
       </c>
       <c r="K167" s="3">
         <f t="shared" si="33"/>
-        <v>-2591200</v>
-      </c>
-      <c r="O167" s="147"/>
-    </row>
-    <row r="168" spans="2:16" x14ac:dyDescent="0.25">
+        <v>2175000</v>
+      </c>
+      <c r="L167" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O167" s="13" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="168" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B168" s="55" t="s">
         <v>374</v>
       </c>
@@ -8473,7 +8567,7 @@
         <v>1960000</v>
       </c>
       <c r="D168" s="18">
-        <f t="shared" si="35"/>
+        <f>3156000/5</f>
         <v>631200</v>
       </c>
       <c r="F168" s="118">
@@ -8488,173 +8582,342 @@
         <f t="shared" si="31"/>
         <v>3239000</v>
       </c>
+      <c r="I168" s="3">
+        <v>4200000</v>
+      </c>
       <c r="K168" s="3">
         <f t="shared" si="33"/>
-        <v>-2591200</v>
-      </c>
-      <c r="O168" s="148"/>
-    </row>
-    <row r="169" spans="2:16" x14ac:dyDescent="0.25">
+        <v>1608800</v>
+      </c>
+      <c r="O168" s="149" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="169" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B169" s="55" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C169" s="3">
-        <v>2205000</v>
+        <v>1960000</v>
+      </c>
+      <c r="D169" s="18">
+        <f t="shared" ref="D169:D172" si="48">3156000/5</f>
+        <v>631200</v>
+      </c>
+      <c r="F169" s="118">
+        <f t="shared" si="30"/>
+        <v>2591200</v>
       </c>
       <c r="G169" s="96">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>3109440</v>
       </c>
       <c r="H169" s="3">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>3239000</v>
+      </c>
+      <c r="I169" s="3">
+        <v>4200000</v>
       </c>
       <c r="K169" s="3">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
+        <v>1608800</v>
+      </c>
+      <c r="O169" s="150"/>
     </row>
     <row r="170" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B170" s="55" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C170" s="3">
-        <v>2205000</v>
+        <v>1960000</v>
+      </c>
+      <c r="D170" s="18">
+        <f t="shared" si="48"/>
+        <v>631200</v>
+      </c>
+      <c r="F170" s="118">
+        <f t="shared" si="30"/>
+        <v>2591200</v>
       </c>
       <c r="G170" s="96">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>3109440</v>
       </c>
       <c r="H170" s="3">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>3239000</v>
       </c>
       <c r="K170" s="3">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
+        <v>-2591200</v>
+      </c>
+      <c r="O170" s="150"/>
     </row>
     <row r="171" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B171" s="55" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C171" s="3">
-        <v>1715000</v>
+        <v>1960000</v>
+      </c>
+      <c r="D171" s="18">
+        <f t="shared" si="48"/>
+        <v>631200</v>
+      </c>
+      <c r="F171" s="118">
+        <f t="shared" si="30"/>
+        <v>2591200</v>
       </c>
       <c r="G171" s="96">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>3109440</v>
       </c>
       <c r="H171" s="3">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>3239000</v>
       </c>
       <c r="K171" s="3">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
+        <v>-2591200</v>
+      </c>
+      <c r="O171" s="150"/>
     </row>
     <row r="172" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B172" s="55" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C172" s="3">
-        <v>6125000</v>
-      </c>
-      <c r="D172" s="132"/>
+        <v>1960000</v>
+      </c>
+      <c r="D172" s="18">
+        <f t="shared" si="48"/>
+        <v>631200</v>
+      </c>
+      <c r="F172" s="118">
+        <f t="shared" si="30"/>
+        <v>2591200</v>
+      </c>
       <c r="G172" s="96">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>3109440</v>
       </c>
       <c r="H172" s="3">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>3239000</v>
       </c>
       <c r="K172" s="3">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
+        <v>-2591200</v>
+      </c>
+      <c r="O172" s="151"/>
     </row>
     <row r="173" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B173" s="55" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C173" s="3">
-        <v>7350000</v>
+        <v>2205000</v>
+      </c>
+      <c r="F173" s="118">
+        <f t="shared" si="30"/>
+        <v>2205000</v>
+      </c>
+      <c r="G173" s="96">
+        <f t="shared" si="32"/>
+        <v>2646000</v>
       </c>
       <c r="H173" s="3">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>2756250</v>
       </c>
       <c r="K173" s="3">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>-2205000</v>
       </c>
     </row>
     <row r="174" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B174" s="55" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="C174" s="3">
-        <v>5397000</v>
+        <v>2205000</v>
+      </c>
+      <c r="F174" s="118">
+        <f t="shared" si="30"/>
+        <v>2205000</v>
+      </c>
+      <c r="G174" s="96">
+        <f t="shared" si="32"/>
+        <v>2646000</v>
       </c>
       <c r="H174" s="3">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>2756250</v>
       </c>
       <c r="K174" s="3">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="O174" s="13" t="s">
-        <v>387</v>
+        <v>-2205000</v>
       </c>
     </row>
     <row r="175" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B175" s="55" t="s">
-        <v>383</v>
+        <v>378</v>
+      </c>
+      <c r="C175" s="3">
+        <v>1715000</v>
+      </c>
+      <c r="F175" s="118">
+        <f t="shared" si="30"/>
+        <v>1715000</v>
+      </c>
+      <c r="G175" s="96">
+        <f t="shared" si="32"/>
+        <v>2058000</v>
       </c>
       <c r="H175" s="3">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>2143750</v>
       </c>
       <c r="K175" s="3">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="O175" s="13" t="s">
-        <v>384</v>
+        <v>-1715000</v>
       </c>
     </row>
     <row r="176" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B176" s="55" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C176" s="3">
-        <v>2520000</v>
-      </c>
-      <c r="D176" s="136"/>
+        <v>6125000</v>
+      </c>
+      <c r="D176" s="132"/>
+      <c r="F176" s="118">
+        <f t="shared" si="30"/>
+        <v>6125000</v>
+      </c>
+      <c r="G176" s="96">
+        <f t="shared" si="32"/>
+        <v>7350000</v>
+      </c>
       <c r="H176" s="3">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="4:8" x14ac:dyDescent="0.25">
+        <v>7656250</v>
+      </c>
+      <c r="K176" s="3">
+        <f t="shared" si="33"/>
+        <v>-6125000</v>
+      </c>
+    </row>
+    <row r="177" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B177" s="55" t="s">
+        <v>380</v>
+      </c>
+      <c r="C177" s="3">
+        <v>7350000</v>
+      </c>
+      <c r="F177" s="118">
+        <f t="shared" si="30"/>
+        <v>7350000</v>
+      </c>
+      <c r="G177" s="96">
+        <f t="shared" si="32"/>
+        <v>8820000</v>
+      </c>
       <c r="H177" s="3">
         <f t="shared" si="31"/>
+        <v>9187500</v>
+      </c>
+      <c r="K177" s="3">
+        <f t="shared" si="33"/>
+        <v>-7350000</v>
+      </c>
+    </row>
+    <row r="178" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B178" s="55" t="s">
+        <v>386</v>
+      </c>
+      <c r="C178" s="3">
+        <v>5397000</v>
+      </c>
+      <c r="F178" s="118">
+        <f t="shared" si="30"/>
+        <v>5397000</v>
+      </c>
+      <c r="G178" s="96">
+        <f t="shared" si="32"/>
+        <v>6476400</v>
+      </c>
+      <c r="H178" s="3">
+        <f t="shared" si="31"/>
+        <v>6746250</v>
+      </c>
+      <c r="K178" s="3">
+        <f t="shared" si="33"/>
+        <v>-5397000</v>
+      </c>
+      <c r="O178" s="13" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="179" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B179" s="55" t="s">
+        <v>383</v>
+      </c>
+      <c r="C179" s="148" t="s">
+        <v>388</v>
+      </c>
+      <c r="F179" s="118" t="e">
+        <f t="shared" si="30"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G179" s="96" t="e">
+        <f t="shared" si="32"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H179" s="3" t="e">
+        <f t="shared" si="31"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K179" s="3" t="e">
+        <f t="shared" si="33"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O179" s="13" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="180" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="55" t="s">
+        <v>385</v>
+      </c>
+      <c r="C180" s="3">
+        <v>2520000</v>
+      </c>
+      <c r="D180" s="136">
+        <v>92000</v>
+      </c>
+      <c r="H180" s="3">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D183" s="32"/>
-    </row>
-    <row r="184" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D184" s="32"/>
+    <row r="181" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H181" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D187" s="32"/>
+    </row>
+    <row r="188" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D188" s="32"/>
     </row>
   </sheetData>
   <autoFilter ref="L1:L80" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="8">
-    <mergeCell ref="O164:O168"/>
+    <mergeCell ref="O168:O172"/>
     <mergeCell ref="O148:O150"/>
     <mergeCell ref="O151:O154"/>
     <mergeCell ref="O159:O160"/>
@@ -8669,7 +8932,7 @@
       <formula>MOD(ROW(),2)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D169 D174:D184">
+  <conditionalFormatting sqref="D173 D178:D188">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)&gt;0</formula>
     </cfRule>

--- a/TDStore/NhapXuatLaptop.xlsx
+++ b/TDStore/NhapXuatLaptop.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06.TDStore\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D173C2-85ED-4F73-8352-217469F5CC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E25BB1-55D9-4E90-91BF-03F015E48CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="397">
   <si>
     <t>ID máy</t>
   </si>
@@ -1205,6 +1205,24 @@
   </si>
   <si>
     <t>E Tiến</t>
+  </si>
+  <si>
+    <t>Lộc</t>
+  </si>
+  <si>
+    <t>9405511206216495615491</t>
+  </si>
+  <si>
+    <t>7390x4</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkBook 15-IML Laptop i5-10210U 1.60GHz 8GB RAM 15" 256GB SSD AC Win 11</t>
+  </si>
+  <si>
+    <t>785709138435</t>
+  </si>
+  <si>
+    <t>Dell Latitude 5531 15.6" Laptop i5-12600H 2.70GHz 8GB DDR5 NO SSD - RL680</t>
   </si>
 </sst>
 </file>
@@ -1301,7 +1319,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1386,6 +1404,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -1452,7 +1476,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1783,6 +1807,20 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1828,7 +1866,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>111768</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1877,7 +1915,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1927,7 +1965,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>128</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2235,7 +2273,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N184" sqref="N184"/>
+      <selection pane="bottomLeft" activeCell="P182" sqref="P182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5941,28 +5979,40 @@
       </c>
       <c r="P91" s="121"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B92" s="55" t="s">
         <v>228</v>
       </c>
       <c r="C92" s="3">
         <v>3442800</v>
       </c>
+      <c r="D92" s="3">
+        <v>700000</v>
+      </c>
+      <c r="E92" s="3">
+        <v>250000</v>
+      </c>
       <c r="F92" s="3">
         <f t="shared" si="10"/>
-        <v>3442800</v>
+        <v>4392800</v>
       </c>
       <c r="G92" s="3">
         <f t="shared" si="11"/>
-        <v>4131360</v>
+        <v>5271360</v>
       </c>
       <c r="H92" s="3">
         <f t="shared" si="12"/>
-        <v>4303500</v>
+        <v>5491000</v>
+      </c>
+      <c r="I92" s="3">
+        <v>3000000</v>
       </c>
       <c r="K92" s="3">
         <f t="shared" si="14"/>
-        <v>-3442800</v>
+        <v>-1392800</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="O92" s="13" t="s">
         <v>229</v>
@@ -6180,7 +6230,7 @@
       </c>
       <c r="P98" s="135"/>
     </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B99" s="55" t="s">
         <v>251</v>
       </c>
@@ -6202,9 +6252,15 @@
         <f t="shared" si="12"/>
         <v>5507500</v>
       </c>
+      <c r="I99" s="3">
+        <v>5800000</v>
+      </c>
       <c r="K99" s="3">
         <f t="shared" si="14"/>
-        <v>-4406000</v>
+        <v>1394000</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>391</v>
       </c>
       <c r="O99" s="105" t="s">
         <v>252</v>
@@ -8150,9 +8206,15 @@
         <f t="shared" si="31"/>
         <v>3302500</v>
       </c>
+      <c r="I155" s="3">
+        <v>4000000</v>
+      </c>
       <c r="K155" s="3">
         <f t="shared" si="33"/>
-        <v>-2642000</v>
+        <v>1358000</v>
+      </c>
+      <c r="L155" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="O155" s="13" t="s">
         <v>357</v>
@@ -8221,7 +8283,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B158" s="55" t="s">
         <v>366</v>
       </c>
@@ -8244,11 +8306,14 @@
         <v>5687500</v>
       </c>
       <c r="I158" s="3">
-        <v>5500000</v>
+        <v>5700000</v>
       </c>
       <c r="K158" s="3">
         <f t="shared" si="33"/>
-        <v>950000</v>
+        <v>1150000</v>
+      </c>
+      <c r="L158" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="O158" s="13" t="s">
         <v>364</v>
@@ -8257,7 +8322,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="159" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:16" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B159" s="124" t="s">
         <v>368</v>
       </c>
@@ -8280,18 +8345,23 @@
         <f t="shared" si="31"/>
         <v>11523750</v>
       </c>
-      <c r="I159" s="32"/>
+      <c r="I159" s="32">
+        <v>12500000</v>
+      </c>
       <c r="J159" s="32"/>
       <c r="K159" s="32">
         <f t="shared" si="33"/>
-        <v>-9219000</v>
+        <v>3281000</v>
+      </c>
+      <c r="L159" s="33" t="s">
+        <v>21</v>
       </c>
       <c r="O159" s="152" t="s">
         <v>367</v>
       </c>
       <c r="P159" s="35"/>
     </row>
-    <row r="160" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:16" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B160" s="124" t="s">
         <v>331</v>
       </c>
@@ -8315,16 +8385,21 @@
         <f t="shared" si="31"/>
         <v>3723750</v>
       </c>
-      <c r="I160" s="32"/>
+      <c r="I160" s="32">
+        <v>6000000</v>
+      </c>
       <c r="J160" s="32"/>
       <c r="K160" s="32">
         <f t="shared" si="33"/>
-        <v>-2979000</v>
+        <v>3021000</v>
+      </c>
+      <c r="L160" s="33" t="s">
+        <v>94</v>
       </c>
       <c r="O160" s="153"/>
       <c r="P160" s="35"/>
     </row>
-    <row r="161" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:16" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B161" s="124" t="s">
         <v>331</v>
       </c>
@@ -8348,16 +8423,21 @@
         <f t="shared" ref="H161:H162" si="37">(F161*25%)+F161</f>
         <v>3723750</v>
       </c>
-      <c r="I161" s="32"/>
+      <c r="I161" s="32">
+        <v>6000000</v>
+      </c>
       <c r="J161" s="32"/>
       <c r="K161" s="32">
         <f t="shared" ref="K161:K162" si="38">I161-J161-F161</f>
-        <v>-2979000</v>
+        <v>3021000</v>
+      </c>
+      <c r="L161" s="33" t="s">
+        <v>94</v>
       </c>
       <c r="O161" s="147"/>
       <c r="P161" s="35"/>
     </row>
-    <row r="162" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:16" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B162" s="124" t="s">
         <v>331</v>
       </c>
@@ -8381,16 +8461,21 @@
         <f t="shared" si="37"/>
         <v>3723750</v>
       </c>
-      <c r="I162" s="32"/>
+      <c r="I162" s="32">
+        <v>6000000</v>
+      </c>
       <c r="J162" s="32"/>
       <c r="K162" s="32">
         <f t="shared" si="38"/>
-        <v>-2979000</v>
+        <v>3021000</v>
+      </c>
+      <c r="L162" s="33" t="s">
+        <v>94</v>
       </c>
       <c r="O162" s="147"/>
       <c r="P162" s="35"/>
     </row>
-    <row r="163" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:16" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B163" s="124" t="s">
         <v>331</v>
       </c>
@@ -8414,16 +8499,21 @@
         <f t="shared" ref="H163" si="42">(F163*25%)+F163</f>
         <v>3723750</v>
       </c>
-      <c r="I163" s="32"/>
+      <c r="I163" s="32">
+        <v>6000000</v>
+      </c>
       <c r="J163" s="32"/>
       <c r="K163" s="32">
         <f t="shared" ref="K163" si="43">I163-J163-F163</f>
-        <v>-2979000</v>
+        <v>3021000</v>
+      </c>
+      <c r="L163" s="33" t="s">
+        <v>94</v>
       </c>
       <c r="O163" s="147"/>
       <c r="P163" s="35"/>
     </row>
-    <row r="164" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:16" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B164" s="124" t="s">
         <v>331</v>
       </c>
@@ -8447,11 +8537,16 @@
         <f t="shared" ref="H164" si="46">(F164*25%)+F164</f>
         <v>3723750</v>
       </c>
-      <c r="I164" s="32"/>
+      <c r="I164" s="32">
+        <v>6000000</v>
+      </c>
       <c r="J164" s="32"/>
       <c r="K164" s="32">
         <f t="shared" ref="K164" si="47">I164-J164-F164</f>
-        <v>-2979000</v>
+        <v>3021000</v>
+      </c>
+      <c r="L164" s="33" t="s">
+        <v>94</v>
       </c>
       <c r="O164" s="147"/>
       <c r="P164" s="35"/>
@@ -8809,7 +8904,7 @@
         <v>-6125000</v>
       </c>
     </row>
-    <row r="177" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B177" s="55" t="s">
         <v>380</v>
       </c>
@@ -8833,7 +8928,7 @@
         <v>-7350000</v>
       </c>
     </row>
-    <row r="178" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B178" s="55" t="s">
         <v>386</v>
       </c>
@@ -8860,7 +8955,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="179" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B179" s="55" t="s">
         <v>383</v>
       </c>
@@ -8887,7 +8982,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="180" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B180" s="55" t="s">
         <v>385</v>
       </c>
@@ -8902,21 +8997,151 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="H181" s="3">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A181" s="158"/>
+      <c r="B181" s="163" t="s">
+        <v>393</v>
+      </c>
+      <c r="C181" s="159">
+        <v>2125000</v>
+      </c>
+      <c r="D181" s="159"/>
+      <c r="E181" s="159"/>
+      <c r="F181" s="159"/>
+      <c r="G181" s="159"/>
+      <c r="H181" s="159">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I181" s="159"/>
+      <c r="J181" s="159"/>
+      <c r="K181" s="159"/>
+      <c r="L181" s="158"/>
+      <c r="M181" s="158"/>
+      <c r="N181" s="158"/>
+      <c r="O181" s="160" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A182" s="158"/>
+      <c r="B182" s="163" t="s">
+        <v>393</v>
+      </c>
+      <c r="C182" s="159">
+        <v>2125000</v>
+      </c>
+      <c r="D182" s="159"/>
+      <c r="E182" s="159"/>
+      <c r="F182" s="159"/>
+      <c r="G182" s="159"/>
+      <c r="H182" s="159"/>
+      <c r="I182" s="159"/>
+      <c r="J182" s="159"/>
+      <c r="K182" s="159"/>
+      <c r="L182" s="158"/>
+      <c r="M182" s="158"/>
+      <c r="N182" s="158"/>
+      <c r="O182" s="161"/>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A183" s="158"/>
+      <c r="B183" s="163" t="s">
+        <v>393</v>
+      </c>
+      <c r="C183" s="159">
+        <v>2125000</v>
+      </c>
+      <c r="D183" s="159"/>
+      <c r="E183" s="159"/>
+      <c r="F183" s="159"/>
+      <c r="G183" s="159"/>
+      <c r="H183" s="159"/>
+      <c r="I183" s="159"/>
+      <c r="J183" s="159"/>
+      <c r="K183" s="159"/>
+      <c r="L183" s="158"/>
+      <c r="M183" s="158"/>
+      <c r="N183" s="158"/>
+      <c r="O183" s="161"/>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A184" s="158"/>
+      <c r="B184" s="163" t="s">
+        <v>393</v>
+      </c>
+      <c r="C184" s="159">
+        <v>2125000</v>
+      </c>
+      <c r="D184" s="159"/>
+      <c r="E184" s="159"/>
+      <c r="F184" s="159"/>
+      <c r="G184" s="159"/>
+      <c r="H184" s="159"/>
+      <c r="I184" s="159"/>
+      <c r="J184" s="159"/>
+      <c r="K184" s="159"/>
+      <c r="L184" s="158"/>
+      <c r="M184" s="158"/>
+      <c r="N184" s="158"/>
+      <c r="O184" s="161"/>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A185" s="158"/>
+      <c r="B185" s="163">
+        <v>7540</v>
+      </c>
+      <c r="C185" s="159">
+        <v>7500000</v>
+      </c>
+      <c r="D185" s="159"/>
+      <c r="E185" s="159"/>
+      <c r="F185" s="159"/>
+      <c r="G185" s="159"/>
+      <c r="H185" s="159"/>
+      <c r="I185" s="159"/>
+      <c r="J185" s="159"/>
+      <c r="K185" s="159"/>
+      <c r="L185" s="158"/>
+      <c r="M185" s="158"/>
+      <c r="N185" s="158"/>
+      <c r="O185" s="162"/>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B186" s="55" t="s">
+        <v>394</v>
+      </c>
+      <c r="C186" s="3">
+        <v>4150000</v>
+      </c>
+      <c r="O186" s="149" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B187" s="55" t="s">
+        <v>394</v>
+      </c>
+      <c r="C187" s="3">
+        <v>4150000</v>
+      </c>
       <c r="D187" s="32"/>
-    </row>
-    <row r="188" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O187" s="151"/>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B188" s="55" t="s">
+        <v>396</v>
+      </c>
+      <c r="C188" s="3">
+        <v>7395000</v>
+      </c>
       <c r="D188" s="32"/>
     </row>
   </sheetData>
   <autoFilter ref="L1:L80" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="O181:O185"/>
+    <mergeCell ref="O186:O187"/>
     <mergeCell ref="O168:O172"/>
     <mergeCell ref="O148:O150"/>
     <mergeCell ref="O151:O154"/>

--- a/TDStore/NhapXuatLaptop.xlsx
+++ b/TDStore/NhapXuatLaptop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06.TDStore\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E25BB1-55D9-4E90-91BF-03F015E48CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFC582C-60B0-4787-8FA8-97CDBB6463B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="401">
   <si>
     <t>ID máy</t>
   </si>
@@ -37,15 +37,9 @@
     <t>Model</t>
   </si>
   <si>
-    <t>Ngày nhập</t>
-  </si>
-  <si>
     <t>Giá nhập</t>
   </si>
   <si>
-    <t>Ngày xuất</t>
-  </si>
-  <si>
     <t>Giá đề xuất</t>
   </si>
   <si>
@@ -115,9 +109,6 @@
     <t>E Quyên</t>
   </si>
   <si>
-    <t>15/11/2022</t>
-  </si>
-  <si>
     <t>Chị gái Đạt</t>
   </si>
   <si>
@@ -166,9 +157,6 @@
     <t>Dell 5400 i5-8/8/256</t>
   </si>
   <si>
-    <t>21/03/2023</t>
-  </si>
-  <si>
     <t>3j8p273</t>
   </si>
   <si>
@@ -181,13 +169,7 @@
     <t>37QFHG3</t>
   </si>
   <si>
-    <t>15-03-2023</t>
-  </si>
-  <si>
     <t>A Huy 7</t>
-  </si>
-  <si>
-    <t>25/03/2023</t>
   </si>
   <si>
     <t>Vệ sinh, sửa chữa</t>
@@ -388,9 +370,6 @@
     <t>HNBRS93</t>
   </si>
   <si>
-    <t>17/05/23</t>
-  </si>
-  <si>
     <t>Giá CTV</t>
   </si>
   <si>
@@ -928,15 +907,6 @@
     <t>A Thành 936</t>
   </si>
   <si>
-    <t>17/08/23</t>
-  </si>
-  <si>
-    <t>17/08/24</t>
-  </si>
-  <si>
-    <t>17/08/25</t>
-  </si>
-  <si>
     <t>79MLP13</t>
   </si>
   <si>
@@ -1117,9 +1087,6 @@
     <t>15.6" Dell Precision 3541 Core i7-9750H@ 2.60GHz, 16GB RAM, 512 GB SSD, Win 10</t>
   </si>
   <si>
-    <t>Đã ck 5tr A Hiệp</t>
-  </si>
-  <si>
     <t>1Z1558TT4298177733</t>
   </si>
   <si>
@@ -1129,9 +1096,6 @@
     <t>784993253632</t>
   </si>
   <si>
-    <t>Green</t>
-  </si>
-  <si>
     <t>Dell Latitude 7400 Laptop i5-8365U 1.60GHz 16GB 256GB SSD 14.0" FHD</t>
   </si>
   <si>
@@ -1153,9 +1117,6 @@
     <t>B Đạt</t>
   </si>
   <si>
-    <t>Trả trước 4tr</t>
-  </si>
-  <si>
     <t>7390 i5 8350U ram 16 SSD 256</t>
   </si>
   <si>
@@ -1198,9 +1159,6 @@
     <t>61299998825446079467</t>
   </si>
   <si>
-    <t>1.211.798</t>
-  </si>
-  <si>
     <t>Sơn</t>
   </si>
   <si>
@@ -1223,16 +1181,69 @@
   </si>
   <si>
     <t>Dell Latitude 5531 15.6" Laptop i5-12600H 2.70GHz 8GB DDR5 NO SSD - RL680</t>
+  </si>
+  <si>
+    <t>A Bắc</t>
+  </si>
+  <si>
+    <t>9405511206216812471007</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>7410 90u</t>
+  </si>
+  <si>
+    <t>macbook pro 2019 15in 290u</t>
+  </si>
+  <si>
+    <t>7400 90u</t>
+  </si>
+  <si>
+    <t>9405511206216432230718</t>
+  </si>
+  <si>
+    <t>9405511206216477803366</t>
+  </si>
+  <si>
+    <t>785910954009</t>
+  </si>
+  <si>
+    <t>ThinkPad T480s</t>
+  </si>
+  <si>
+    <t>ThinkPad T580</t>
+  </si>
+  <si>
+    <t>ThinkPad T14</t>
+  </si>
+  <si>
+    <t>ThinkPad T490s</t>
+  </si>
+  <si>
+    <t>ThinkPad T470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ThinkPad X1 Carbon </t>
+  </si>
+  <si>
+    <t>ThinkPad X1 Carbon 6th</t>
+  </si>
+  <si>
+    <t>ThinkPad X1 Yoga</t>
+  </si>
+  <si>
+    <t>785979455666</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -1319,7 +1330,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1410,6 +1421,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -1476,24 +1493,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1504,24 +1511,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1532,31 +1530,19 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1570,17 +1556,11 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1618,9 +1598,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1664,9 +1641,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1687,9 +1661,6 @@
     <xf numFmtId="3" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1699,9 +1670,6 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1709,9 +1677,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1721,16 +1686,10 @@
     <xf numFmtId="3" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1740,9 +1699,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1754,15 +1710,9 @@
     <xf numFmtId="3" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1780,13 +1730,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1807,19 +1771,53 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2269,17 +2267,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q188"/>
+  <dimension ref="A1:P204"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P182" sqref="P182"/>
+      <selection pane="bottomLeft" activeCell="D186" sqref="D186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="80.42578125" style="55" customWidth="1"/>
+    <col min="2" max="2" width="80.42578125" style="42" customWidth="1"/>
     <col min="3" max="4" width="12.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="11.140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" style="3" customWidth="1"/>
@@ -2291,71 +2289,66 @@
     <col min="12" max="12" width="22.42578125" style="2" customWidth="1"/>
     <col min="13" max="13" width="11.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.28515625" style="13" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="2"/>
+    <col min="15" max="15" width="27.28515625" style="9" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="54" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="K1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="56">
+        <v>1</v>
+      </c>
+      <c r="B2" s="42" t="s">
         <v>8</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70">
-        <v>1</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>10</v>
       </c>
       <c r="C2" s="3">
         <v>6700000</v>
@@ -2376,24 +2369,18 @@
         <v>900000</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N2" s="2">
         <v>34534861886</v>
       </c>
-      <c r="P2" s="4">
-        <v>44835</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>44835</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70">
+    </row>
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="56">
         <v>2</v>
       </c>
-      <c r="B3" s="55" t="s">
-        <v>9</v>
+      <c r="B3" s="42" t="s">
+        <v>7</v>
       </c>
       <c r="C3" s="3">
         <v>6500000</v>
@@ -2417,21 +2404,15 @@
         <v>745000</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" s="4">
-        <v>44835</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>44835</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="56">
         <v>3</v>
       </c>
-      <c r="B4" s="55" t="s">
-        <v>13</v>
+      <c r="B4" s="42" t="s">
+        <v>11</v>
       </c>
       <c r="C4" s="3">
         <v>4900000</v>
@@ -2452,24 +2433,18 @@
         <v>500000</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="4">
-        <v>44841</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>44814</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="56">
         <v>4</v>
       </c>
-      <c r="B5" s="55" t="s">
-        <v>14</v>
+      <c r="B5" s="42" t="s">
+        <v>12</v>
       </c>
       <c r="C5" s="3">
         <v>6700000</v>
@@ -2493,24 +2468,18 @@
         <v>480000</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="4">
-        <v>44841</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>44841</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="56">
         <v>5</v>
       </c>
-      <c r="B6" s="55" t="s">
-        <v>16</v>
+      <c r="B6" s="42" t="s">
+        <v>14</v>
       </c>
       <c r="C6" s="3">
         <v>7150000</v>
@@ -2531,21 +2500,18 @@
         <v>350000</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P6" s="4">
-        <v>44842</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="70">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="56">
         <v>6</v>
       </c>
-      <c r="B7" s="55" t="s">
-        <v>23</v>
+      <c r="B7" s="42" t="s">
+        <v>21</v>
       </c>
       <c r="C7" s="3">
         <v>7500000</v>
@@ -2569,21 +2535,18 @@
         <v>-10000</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P7" s="4">
-        <v>44845</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="70">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="56">
         <v>7</v>
       </c>
-      <c r="B8" s="55" t="s">
-        <v>14</v>
+      <c r="B8" s="42" t="s">
+        <v>12</v>
       </c>
       <c r="C8" s="3">
         <v>6700000</v>
@@ -2607,21 +2570,15 @@
         <v>640000</v>
       </c>
       <c r="L8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="56">
+        <v>8</v>
+      </c>
+      <c r="B9" s="42" t="s">
         <v>24</v>
-      </c>
-      <c r="P8" s="4">
-        <v>44841</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>44841</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="70">
-        <v>8</v>
-      </c>
-      <c r="B9" s="55" t="s">
-        <v>26</v>
       </c>
       <c r="C9" s="3">
         <v>11500000</v>
@@ -2642,24 +2599,18 @@
         <v>500000</v>
       </c>
       <c r="L9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="56">
+        <v>9</v>
+      </c>
+      <c r="B10" s="42" t="s">
         <v>27</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P9" s="4">
-        <v>44876</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="70">
-        <v>9</v>
-      </c>
-      <c r="B10" s="55" t="s">
-        <v>30</v>
       </c>
       <c r="C10" s="3">
         <v>6500000</v>
@@ -2680,18 +2631,15 @@
         <v>1000000</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P10" s="4">
-        <v>44883</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="70">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="56">
         <v>10</v>
       </c>
-      <c r="B11" s="55" t="s">
-        <v>30</v>
+      <c r="B11" s="42" t="s">
+        <v>27</v>
       </c>
       <c r="C11" s="3">
         <v>6500000</v>
@@ -2715,21 +2663,18 @@
         <v>300000</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P11" s="4">
-        <v>44883</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="70">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="56">
         <v>11</v>
       </c>
-      <c r="B12" s="55" t="s">
-        <v>32</v>
+      <c r="B12" s="42" t="s">
+        <v>29</v>
       </c>
       <c r="C12" s="3">
         <v>5000000</v>
@@ -2753,24 +2698,18 @@
         <v>795000</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P12" s="4">
-        <v>44896</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>44841</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="70">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="56">
         <v>12</v>
       </c>
-      <c r="B13" s="55" t="s">
-        <v>35</v>
+      <c r="B13" s="42" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="3">
         <v>5500000</v>
@@ -2791,24 +2730,18 @@
         <v>800000</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P13" s="4">
-        <v>44937</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>44938</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="70">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="56">
         <v>13</v>
       </c>
-      <c r="B14" s="55" t="s">
-        <v>35</v>
+      <c r="B14" s="42" t="s">
+        <v>32</v>
       </c>
       <c r="C14" s="3">
         <v>5500000</v>
@@ -2829,21 +2762,15 @@
         <v>1100000</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="P14" s="4">
-        <v>44938</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>44939</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="70">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="56">
         <v>14</v>
       </c>
-      <c r="B15" s="55" t="s">
-        <v>36</v>
+      <c r="B15" s="42" t="s">
+        <v>33</v>
       </c>
       <c r="C15" s="3">
         <v>5700000</v>
@@ -2864,24 +2791,18 @@
         <v>500000</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P15" s="4">
-        <v>44957</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>44957</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="70">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="56">
         <v>15</v>
       </c>
-      <c r="B16" s="55" t="s">
-        <v>40</v>
+      <c r="B16" s="42" t="s">
+        <v>37</v>
       </c>
       <c r="C16" s="3">
         <v>8000000</v>
@@ -2902,15 +2823,15 @@
         <v>2500000</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="70">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="56">
         <v>16</v>
       </c>
-      <c r="B17" s="55" t="s">
-        <v>43</v>
+      <c r="B17" s="42" t="s">
+        <v>40</v>
       </c>
       <c r="C17" s="3">
         <v>9693017</v>
@@ -2934,15 +2855,15 @@
         <v>3164413</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="70">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="56">
         <v>17</v>
       </c>
-      <c r="B18" s="55" t="s">
-        <v>44</v>
+      <c r="B18" s="42" t="s">
+        <v>41</v>
       </c>
       <c r="C18" s="3">
         <v>5000000</v>
@@ -2963,24 +2884,21 @@
         <v>500000</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="70">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="56">
         <v>18</v>
       </c>
-      <c r="B19" s="55" t="s">
-        <v>44</v>
+      <c r="B19" s="42" t="s">
+        <v>41</v>
       </c>
       <c r="C19" s="3">
         <v>4500000</v>
@@ -3001,41 +2919,38 @@
         <v>1000000</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="70">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="56">
         <v>19</v>
       </c>
-      <c r="B20" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="11">
+      <c r="B20" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="7">
         <v>6794437</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="7">
         <v>1189453</v>
       </c>
-      <c r="E20" s="11"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="3">
         <f t="shared" si="2"/>
         <v>7983890</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="7">
         <f t="shared" ref="H20:H43" si="5">(F20*25%)+F20</f>
         <v>9979862.5</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="7">
         <v>9500000</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="7">
         <v>50000</v>
       </c>
       <c r="K20" s="3">
@@ -3043,24 +2958,20 @@
         <v>1466110</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="O20" s="14"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="4">
-        <v>45019</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="70">
+        <v>30</v>
+      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O20" s="10"/>
+    </row>
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="56">
         <v>20</v>
       </c>
-      <c r="B21" s="55" t="s">
-        <v>56</v>
+      <c r="B21" s="42" t="s">
+        <v>50</v>
       </c>
       <c r="C21" s="3">
         <v>7839722</v>
@@ -3090,24 +3001,18 @@
         <v>1251195</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P21" s="4">
-        <v>45049</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>45017</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="70">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="56">
         <v>21</v>
       </c>
-      <c r="B22" s="55" t="s">
-        <v>57</v>
+      <c r="B22" s="42" t="s">
+        <v>51</v>
       </c>
       <c r="C22" s="3">
         <v>9561005</v>
@@ -3134,477 +3039,438 @@
         <v>538995</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>45016</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="71">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="57">
         <v>22</v>
       </c>
-      <c r="B23" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="21">
+      <c r="B23" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="15">
         <f>5182073+150000</f>
         <v>5332073</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="15">
         <v>1375000</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="15">
         <v>-1000000</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="15">
         <f>C23+D23+E23</f>
         <v>5707073</v>
       </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21">
+      <c r="G23" s="15"/>
+      <c r="H23" s="15">
         <f>(F23*25%)+F23</f>
         <v>7133841.25</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I23" s="15">
         <v>8200000</v>
       </c>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21">
+      <c r="J23" s="15"/>
+      <c r="K23" s="15">
         <f t="shared" si="1"/>
         <v>2492927</v>
       </c>
-      <c r="L23" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="N23" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="O23" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="P23" s="24">
-        <v>45010</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="71">
+      <c r="L23" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="N23" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="O23" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="57">
         <v>23</v>
       </c>
-      <c r="B24" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="21">
+      <c r="B24" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="15">
         <v>3281172</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="15">
         <v>1075000</v>
       </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21">
+      <c r="E24" s="15"/>
+      <c r="F24" s="15">
         <f t="shared" si="2"/>
         <v>4356172</v>
       </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21">
+      <c r="G24" s="15"/>
+      <c r="H24" s="15">
         <f t="shared" si="5"/>
         <v>5445215</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="15">
         <v>6400000</v>
       </c>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21">
+      <c r="J24" s="15"/>
+      <c r="K24" s="15">
         <f t="shared" si="1"/>
         <v>2043828</v>
       </c>
-      <c r="L24" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="O24" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="P24" s="24">
-        <v>45011</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="71">
+      <c r="L24" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="O24" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="57">
         <v>24</v>
       </c>
-      <c r="B25" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="21">
+      <c r="B25" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="15">
         <v>4493148</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="15">
         <v>1075000</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="15">
         <v>490000</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="15">
         <f t="shared" si="2"/>
         <v>6058148</v>
       </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21">
+      <c r="G25" s="15"/>
+      <c r="H25" s="15">
         <f t="shared" si="5"/>
         <v>7572685</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="15">
         <v>8000000</v>
       </c>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21">
+      <c r="J25" s="15"/>
+      <c r="K25" s="15">
         <f t="shared" si="1"/>
         <v>1941852</v>
       </c>
-      <c r="L25" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="N25" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="O25" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="P25" s="24">
-        <v>45012</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="71">
+      <c r="L25" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N25" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="O25" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="57">
         <v>25</v>
       </c>
-      <c r="B26" s="72" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="26">
+      <c r="B26" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="19">
         <v>3801801</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="15">
         <v>1075000</v>
       </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21">
+      <c r="E26" s="15"/>
+      <c r="F26" s="15">
         <f t="shared" si="2"/>
         <v>4876801</v>
       </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21">
+      <c r="G26" s="15"/>
+      <c r="H26" s="15">
         <f t="shared" si="5"/>
         <v>6096001.25</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="15">
         <v>7950000</v>
       </c>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21">
+      <c r="J26" s="15"/>
+      <c r="K26" s="15">
         <f t="shared" si="1"/>
         <v>3073199</v>
       </c>
-      <c r="L26" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="O26" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="P26" s="24">
-        <v>45017</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="71">
+      <c r="L26" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="O26" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="57">
         <v>26</v>
       </c>
-      <c r="B27" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="36">
+      <c r="B27" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="27">
         <v>6537888</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="15">
         <v>1050000</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="15">
         <v>200000</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="15">
         <f t="shared" si="2"/>
         <v>7787888</v>
       </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21">
+      <c r="G27" s="15"/>
+      <c r="H27" s="15">
         <f t="shared" si="5"/>
         <v>9734860</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I27" s="15">
         <v>9500000</v>
       </c>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21">
+      <c r="J27" s="15"/>
+      <c r="K27" s="15">
         <f t="shared" si="1"/>
         <v>1712112</v>
       </c>
-      <c r="L27" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="N27" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="O27" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="P27" s="38">
-        <v>45015</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="71">
+      <c r="L27" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="N27" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="O27" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="57">
         <v>27</v>
       </c>
-      <c r="B28" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="27">
+      <c r="B28" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="20">
         <v>7887859</v>
       </c>
-      <c r="D28" s="28">
+      <c r="D28" s="21">
         <v>850000</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="21">
         <v>650000</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="21">
         <f t="shared" si="2"/>
         <v>9387859</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="21">
         <f t="shared" ref="G28:G72" si="6">(F28*20%)+F28</f>
         <v>11265430.800000001</v>
       </c>
-      <c r="H28" s="28">
+      <c r="H28" s="21">
         <f t="shared" si="5"/>
         <v>11734823.75</v>
       </c>
-      <c r="I28" s="28">
+      <c r="I28" s="21">
         <v>10500000</v>
       </c>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28">
+      <c r="J28" s="21"/>
+      <c r="K28" s="21">
         <f t="shared" si="1"/>
         <v>1112141</v>
       </c>
-      <c r="L28" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="O28" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="P28" s="31">
-        <v>45016</v>
-      </c>
-      <c r="Q28" s="29" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="71">
+      <c r="L28" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="O28" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="57">
         <v>28</v>
       </c>
-      <c r="B29" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="21">
+      <c r="B29" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="15">
         <v>4850950</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="15">
         <v>1000000</v>
       </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21">
+      <c r="E29" s="15"/>
+      <c r="F29" s="15">
         <f t="shared" si="2"/>
         <v>5850950</v>
       </c>
-      <c r="G29" s="28">
+      <c r="G29" s="21">
         <f t="shared" si="6"/>
         <v>7021140</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="15">
         <f t="shared" si="5"/>
         <v>7313687.5</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I29" s="15">
         <v>8500000</v>
       </c>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21">
+      <c r="J29" s="15"/>
+      <c r="K29" s="15">
         <f t="shared" si="1"/>
         <v>2649050</v>
       </c>
-      <c r="L29" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="O29" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="P29" s="24">
-        <v>45019</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="73">
+      <c r="L29" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="O29" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="59">
         <v>29</v>
       </c>
-      <c r="B30" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="32">
+      <c r="B30" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="24">
         <v>8317935</v>
       </c>
-      <c r="D30" s="32">
+      <c r="D30" s="24">
         <v>850000</v>
       </c>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32">
+      <c r="E30" s="24"/>
+      <c r="F30" s="24">
         <f t="shared" si="2"/>
         <v>9167935</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30" s="21">
         <f t="shared" si="6"/>
         <v>11001522</v>
       </c>
-      <c r="H30" s="32">
+      <c r="H30" s="24">
         <f t="shared" si="5"/>
         <v>11459918.75</v>
       </c>
-      <c r="I30" s="32">
+      <c r="I30" s="24">
         <v>9000000</v>
       </c>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32">
+      <c r="J30" s="24"/>
+      <c r="K30" s="24">
         <f t="shared" si="1"/>
         <v>-167935</v>
       </c>
-      <c r="L30" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="O30" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="P30" s="35">
-        <v>45020</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="71">
+      <c r="L30" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="O30" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="57">
         <v>30</v>
       </c>
-      <c r="B31" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="21">
+      <c r="B31" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="15">
         <v>4258422</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="15">
         <v>1064000</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="15">
         <v>-1000000</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="15">
         <f t="shared" si="2"/>
         <v>4322422</v>
       </c>
-      <c r="G31" s="28">
+      <c r="G31" s="21">
         <f t="shared" si="6"/>
         <v>5186906.4000000004</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="15">
         <f t="shared" si="5"/>
         <v>5403027.5</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I31" s="15">
         <v>5500000</v>
       </c>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21">
+      <c r="J31" s="15"/>
+      <c r="K31" s="15">
         <f t="shared" si="1"/>
         <v>1177578</v>
       </c>
-      <c r="L31" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="O31" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="P31" s="24">
-        <v>45021</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="70">
+      <c r="L31" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="O31" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="56">
         <v>31</v>
       </c>
-      <c r="B32" s="95" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="96">
+      <c r="B32" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="81">
         <v>6651048</v>
       </c>
-      <c r="D32" s="96">
+      <c r="D32" s="81">
         <v>833000</v>
       </c>
-      <c r="E32" s="96">
+      <c r="E32" s="81">
         <v>300000</v>
       </c>
-      <c r="F32" s="96">
+      <c r="F32" s="81">
         <f t="shared" si="2"/>
         <v>7784048</v>
       </c>
-      <c r="G32" s="97">
+      <c r="G32" s="82">
         <f t="shared" si="6"/>
         <v>9340857.5999999996</v>
       </c>
-      <c r="H32" s="96">
+      <c r="H32" s="81">
         <f t="shared" si="5"/>
         <v>9730060</v>
       </c>
-      <c r="I32" s="96">
+      <c r="I32" s="81">
         <v>8500000</v>
       </c>
-      <c r="J32" s="96"/>
-      <c r="K32" s="96">
+      <c r="J32" s="81"/>
+      <c r="K32" s="81">
         <f t="shared" si="1"/>
         <v>715952</v>
       </c>
-      <c r="L32" s="98" t="s">
-        <v>33</v>
-      </c>
-      <c r="M32" s="98"/>
-      <c r="N32" s="98"/>
-      <c r="O32" s="99" t="s">
-        <v>79</v>
-      </c>
-      <c r="P32" s="100">
-        <v>45022</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="70">
+      <c r="L32" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="M32" s="83"/>
+      <c r="N32" s="83"/>
+      <c r="O32" s="84" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="56">
         <v>32</v>
       </c>
-      <c r="B33" s="72" t="s">
-        <v>77</v>
+      <c r="B33" s="58" t="s">
+        <v>71</v>
       </c>
       <c r="C33" s="3">
         <v>3558942</v>
@@ -3616,7 +3482,7 @@
         <f t="shared" si="2"/>
         <v>5558942</v>
       </c>
-      <c r="G33" s="28">
+      <c r="G33" s="21">
         <f t="shared" si="6"/>
         <v>6670730.4000000004</v>
       </c>
@@ -3631,19 +3497,16 @@
         <f t="shared" si="1"/>
         <v>441058</v>
       </c>
-      <c r="O33" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="P33" s="4">
-        <v>45022</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="70">
+      <c r="O33" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="56">
         <v>33</v>
       </c>
-      <c r="B34" s="62" t="s">
-        <v>83</v>
+      <c r="B34" s="49" t="s">
+        <v>77</v>
       </c>
       <c r="C34" s="3">
         <v>9299103</v>
@@ -3655,7 +3518,7 @@
         <f t="shared" si="2"/>
         <v>10149103</v>
       </c>
-      <c r="G34" s="28">
+      <c r="G34" s="21">
         <f t="shared" si="6"/>
         <v>12178923.6</v>
       </c>
@@ -3670,19 +3533,16 @@
         <f t="shared" ref="K34:K74" si="7">I34-J34-F34</f>
         <v>850897</v>
       </c>
-      <c r="O34" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="P34" s="4">
-        <v>45027</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="70">
+      <c r="O34" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="56">
         <v>34</v>
       </c>
-      <c r="B35" s="62" t="s">
-        <v>84</v>
+      <c r="B35" s="49" t="s">
+        <v>78</v>
       </c>
       <c r="C35" s="3">
         <v>7849892</v>
@@ -3694,7 +3554,7 @@
         <f t="shared" si="2"/>
         <v>8949892</v>
       </c>
-      <c r="G35" s="28">
+      <c r="G35" s="21">
         <f t="shared" si="6"/>
         <v>10739870.4</v>
       </c>
@@ -3709,19 +3569,16 @@
         <f t="shared" si="7"/>
         <v>50108</v>
       </c>
-      <c r="O35" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="P35" s="4">
-        <v>45027</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="70">
+      <c r="O35" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="56">
         <v>35</v>
       </c>
-      <c r="B36" s="62" t="s">
-        <v>88</v>
+      <c r="B36" s="49" t="s">
+        <v>82</v>
       </c>
       <c r="C36" s="3">
         <v>3972000</v>
@@ -3733,7 +3590,7 @@
         <f t="shared" si="2"/>
         <v>4822000</v>
       </c>
-      <c r="G36" s="28">
+      <c r="G36" s="21">
         <f t="shared" si="6"/>
         <v>5786400</v>
       </c>
@@ -3749,18 +3606,18 @@
         <v>2178000</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="O36" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="70">
+        <v>113</v>
+      </c>
+      <c r="O36" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="56">
         <v>36</v>
       </c>
-      <c r="B37" s="72" t="s">
-        <v>89</v>
+      <c r="B37" s="58" t="s">
+        <v>83</v>
       </c>
       <c r="C37" s="3">
         <v>8467000</v>
@@ -3772,7 +3629,7 @@
         <f t="shared" si="2"/>
         <v>9317000</v>
       </c>
-      <c r="G37" s="28">
+      <c r="G37" s="21">
         <f t="shared" si="6"/>
         <v>11180400</v>
       </c>
@@ -3781,35 +3638,35 @@
         <v>11646250</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K37" s="3" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O37" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" s="15" customFormat="1" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="70">
+      <c r="O37" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="11" customFormat="1" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="56">
         <v>37</v>
       </c>
-      <c r="B38" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" s="19">
+      <c r="B38" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="14">
         <v>3178000</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D38" s="14">
         <v>1370000</v>
       </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19">
+      <c r="E38" s="14"/>
+      <c r="F38" s="14">
         <f t="shared" si="2"/>
         <v>4548000</v>
       </c>
-      <c r="G38" s="28">
+      <c r="G38" s="21">
         <f t="shared" si="6"/>
         <v>5457600</v>
       </c>
@@ -3817,37 +3674,36 @@
         <f>(F38*25%)+F38</f>
         <v>5685000</v>
       </c>
-      <c r="I38" s="19">
+      <c r="I38" s="14">
         <v>5800000</v>
       </c>
-      <c r="J38" s="19"/>
+      <c r="J38" s="14"/>
       <c r="K38" s="3">
         <f t="shared" si="7"/>
         <v>1252000</v>
       </c>
-      <c r="O38" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="P38" s="20"/>
-    </row>
-    <row r="39" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="70">
+      <c r="O38" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="56">
         <v>38</v>
       </c>
-      <c r="B39" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="18">
+      <c r="B39" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="13">
         <v>4560000</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="14">
         <v>850000</v>
       </c>
       <c r="F39" s="3">
         <f t="shared" si="2"/>
         <v>5410000</v>
       </c>
-      <c r="G39" s="28">
+      <c r="G39" s="21">
         <f t="shared" si="6"/>
         <v>6492000</v>
       </c>
@@ -3863,33 +3719,30 @@
         <v>1590000</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O39" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="P39" s="17">
-        <v>45265</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="70">
+        <v>110</v>
+      </c>
+      <c r="O39" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="56">
         <v>39</v>
       </c>
-      <c r="B40" s="59" t="s">
-        <v>102</v>
+      <c r="B40" s="46" t="s">
+        <v>96</v>
       </c>
       <c r="C40" s="3">
         <v>6156000</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="14">
         <v>850000</v>
       </c>
       <c r="F40" s="3">
         <f t="shared" si="2"/>
         <v>7006000</v>
       </c>
-      <c r="G40" s="28">
+      <c r="G40" s="21">
         <f t="shared" si="6"/>
         <v>8407200</v>
       </c>
@@ -3904,28 +3757,28 @@
         <f t="shared" si="7"/>
         <v>1494000</v>
       </c>
-      <c r="O40" s="13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="70">
+      <c r="O40" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="56">
         <v>40</v>
       </c>
-      <c r="B41" s="59" t="s">
-        <v>103</v>
+      <c r="B41" s="46" t="s">
+        <v>97</v>
       </c>
       <c r="C41" s="3">
         <v>4126000</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D41" s="14">
         <v>1450000</v>
       </c>
       <c r="F41" s="3">
         <f t="shared" si="2"/>
         <v>5576000</v>
       </c>
-      <c r="G41" s="28">
+      <c r="G41" s="21">
         <f t="shared" si="6"/>
         <v>6691200</v>
       </c>
@@ -3940,28 +3793,28 @@
         <f t="shared" si="7"/>
         <v>1924000</v>
       </c>
-      <c r="O41" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="70">
+      <c r="O41" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="56">
         <v>41</v>
       </c>
-      <c r="B42" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="18">
+      <c r="B42" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="13">
         <v>3192000</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D42" s="14">
         <v>850000</v>
       </c>
       <c r="F42" s="3">
         <f t="shared" si="2"/>
         <v>4042000</v>
       </c>
-      <c r="G42" s="28">
+      <c r="G42" s="21">
         <f t="shared" si="6"/>
         <v>4850400</v>
       </c>
@@ -3976,19 +3829,18 @@
         <f t="shared" si="7"/>
         <v>1458000</v>
       </c>
-      <c r="O42" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="P42" s="17"/>
-    </row>
-    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="70">
+      <c r="O42" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="56">
         <v>42</v>
       </c>
-      <c r="B43" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="C43" s="18">
+      <c r="B43" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="13">
         <v>6065000</v>
       </c>
       <c r="D43" s="3">
@@ -3998,7 +3850,7 @@
         <f t="shared" si="2"/>
         <v>6915000</v>
       </c>
-      <c r="G43" s="28">
+      <c r="G43" s="21">
         <f t="shared" si="6"/>
         <v>8298000</v>
       </c>
@@ -4014,21 +3866,20 @@
         <v>1585000</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O43" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="P43" s="17"/>
-    </row>
-    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="70">
+        <v>107</v>
+      </c>
+      <c r="O43" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="56">
         <v>43</v>
       </c>
-      <c r="B44" s="72" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" s="18">
+      <c r="B44" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="13">
         <v>3268000</v>
       </c>
       <c r="D44" s="3">
@@ -4038,7 +3889,7 @@
         <f>C44+D44+E44</f>
         <v>4118000</v>
       </c>
-      <c r="G44" s="28">
+      <c r="G44" s="21">
         <f t="shared" si="6"/>
         <v>4941600</v>
       </c>
@@ -4054,21 +3905,20 @@
         <v>882000</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="O44" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="P44" s="2"/>
-    </row>
-    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="70">
+        <v>159</v>
+      </c>
+      <c r="O44" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="56">
         <v>44</v>
       </c>
-      <c r="B45" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="C45" s="18">
+      <c r="B45" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="13">
         <v>3223000</v>
       </c>
       <c r="D45" s="3">
@@ -4081,7 +3931,7 @@
         <f t="shared" ref="F45:F72" si="8">C45+D45+E45</f>
         <v>4667000</v>
       </c>
-      <c r="G45" s="28">
+      <c r="G45" s="21">
         <f t="shared" si="6"/>
         <v>5600400</v>
       </c>
@@ -4097,21 +3947,20 @@
         <v>2833000</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="O45" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="P45" s="2"/>
-    </row>
-    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="70">
+        <v>157</v>
+      </c>
+      <c r="O45" s="29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="56">
         <v>45</v>
       </c>
-      <c r="B46" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="C46" s="18">
+      <c r="B46" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="13">
         <v>3632000</v>
       </c>
       <c r="D46" s="3">
@@ -4121,7 +3970,7 @@
         <f t="shared" si="8"/>
         <v>4528000</v>
       </c>
-      <c r="G46" s="28">
+      <c r="G46" s="21">
         <f t="shared" si="6"/>
         <v>5433600</v>
       </c>
@@ -4137,21 +3986,20 @@
         <v>1272000</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O46" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="P46" s="2"/>
-    </row>
-    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="70">
+        <v>103</v>
+      </c>
+      <c r="O46" s="29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="56">
         <v>46</v>
       </c>
-      <c r="B47" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="C47" s="18">
+      <c r="B47" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="13">
         <v>3813000</v>
       </c>
       <c r="D47" s="3">
@@ -4164,7 +4012,7 @@
         <f t="shared" si="8"/>
         <v>5105000</v>
       </c>
-      <c r="G47" s="28">
+      <c r="G47" s="21">
         <f t="shared" si="6"/>
         <v>6126000</v>
       </c>
@@ -4180,21 +4028,20 @@
         <v>895000</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="O47" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="P47" s="2"/>
-    </row>
-    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="70">
+        <v>158</v>
+      </c>
+      <c r="O47" s="29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="56">
         <v>47</v>
       </c>
-      <c r="B48" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="C48" s="18">
+      <c r="B48" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="13">
         <v>6219000</v>
       </c>
       <c r="D48" s="3">
@@ -4207,7 +4054,7 @@
         <f t="shared" si="8"/>
         <v>7211000</v>
       </c>
-      <c r="G48" s="28">
+      <c r="G48" s="21">
         <f t="shared" si="6"/>
         <v>8653200</v>
       </c>
@@ -4223,21 +4070,20 @@
         <v>1189000</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O48" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="P48" s="2"/>
-    </row>
-    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="70">
+        <v>19</v>
+      </c>
+      <c r="O48" s="29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="56">
         <v>48</v>
       </c>
-      <c r="B49" s="72" t="s">
-        <v>129</v>
-      </c>
-      <c r="C49" s="18">
+      <c r="B49" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" s="13">
         <v>4149000</v>
       </c>
       <c r="D49" s="3">
@@ -4250,7 +4096,7 @@
         <f t="shared" si="8"/>
         <v>5270000</v>
       </c>
-      <c r="G49" s="28">
+      <c r="G49" s="21">
         <f t="shared" si="6"/>
         <v>6324000</v>
       </c>
@@ -4266,21 +4112,20 @@
         <v>930000</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="O49" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="P49" s="2"/>
-    </row>
-    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="70">
+        <v>159</v>
+      </c>
+      <c r="O49" s="29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="56">
         <v>49</v>
       </c>
-      <c r="B50" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="C50" s="18">
+      <c r="B50" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="13">
         <v>3648000</v>
       </c>
       <c r="D50" s="3">
@@ -4293,7 +4138,7 @@
         <f t="shared" si="8"/>
         <v>4731000</v>
       </c>
-      <c r="G50" s="28">
+      <c r="G50" s="21">
         <f t="shared" si="6"/>
         <v>5677200</v>
       </c>
@@ -4309,21 +4154,20 @@
         <v>1769000</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O50" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="P50" s="17"/>
-    </row>
-    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="70">
+        <v>55</v>
+      </c>
+      <c r="O50" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="56">
         <v>50</v>
       </c>
-      <c r="B51" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="C51" s="18">
+      <c r="B51" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="13">
         <v>4560000</v>
       </c>
       <c r="D51" s="3">
@@ -4333,7 +4177,7 @@
         <f t="shared" si="8"/>
         <v>5258500</v>
       </c>
-      <c r="G51" s="28">
+      <c r="G51" s="21">
         <f t="shared" si="6"/>
         <v>6310200</v>
       </c>
@@ -4345,107 +4189,104 @@
         <f t="shared" si="7"/>
         <v>-5258500</v>
       </c>
-      <c r="O51" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="P51" s="17"/>
-    </row>
-    <row r="52" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="70">
+      <c r="O51" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="56">
         <v>51</v>
       </c>
-      <c r="B52" s="101" t="s">
-        <v>135</v>
-      </c>
-      <c r="C52" s="102">
+      <c r="B52" s="85" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52" s="86">
         <v>4560000</v>
       </c>
-      <c r="D52" s="96">
+      <c r="D52" s="81">
         <v>985000</v>
       </c>
-      <c r="E52" s="96">
+      <c r="E52" s="81">
         <v>200000</v>
       </c>
-      <c r="F52" s="96">
+      <c r="F52" s="81">
         <f t="shared" si="8"/>
         <v>5745000</v>
       </c>
-      <c r="G52" s="97">
+      <c r="G52" s="82">
         <f t="shared" si="6"/>
         <v>6894000</v>
       </c>
-      <c r="H52" s="96">
+      <c r="H52" s="81">
         <f t="shared" si="9"/>
         <v>7181250</v>
       </c>
-      <c r="I52" s="96">
+      <c r="I52" s="81">
         <v>7500000</v>
       </c>
-      <c r="J52" s="96"/>
-      <c r="K52" s="96">
+      <c r="J52" s="81"/>
+      <c r="K52" s="81">
         <f t="shared" si="7"/>
         <v>1755000</v>
       </c>
-      <c r="L52" s="98"/>
-      <c r="M52" s="98"/>
-      <c r="N52" s="98"/>
-      <c r="O52" s="103" t="s">
-        <v>136</v>
-      </c>
-      <c r="P52" s="104"/>
-    </row>
-    <row r="53" spans="1:16" s="66" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="74">
+      <c r="L52" s="83"/>
+      <c r="M52" s="83"/>
+      <c r="N52" s="83"/>
+      <c r="O52" s="87" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" s="53" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="60">
         <v>52</v>
       </c>
-      <c r="B53" s="75" t="s">
-        <v>137</v>
-      </c>
-      <c r="C53" s="64">
+      <c r="B53" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="51">
         <v>3192000</v>
       </c>
-      <c r="D53" s="65">
+      <c r="D53" s="52">
         <v>903000</v>
       </c>
-      <c r="E53" s="65">
+      <c r="E53" s="52">
         <v>200000</v>
       </c>
-      <c r="F53" s="65">
+      <c r="F53" s="52">
         <f t="shared" si="8"/>
         <v>4295000</v>
       </c>
-      <c r="G53" s="65">
+      <c r="G53" s="52">
         <f t="shared" si="6"/>
         <v>5154000</v>
       </c>
-      <c r="H53" s="65">
+      <c r="H53" s="52">
         <f t="shared" si="9"/>
         <v>5368750</v>
       </c>
-      <c r="I53" s="65">
+      <c r="I53" s="52">
         <v>5000000</v>
       </c>
-      <c r="J53" s="65"/>
-      <c r="K53" s="65">
+      <c r="J53" s="52"/>
+      <c r="K53" s="52">
         <f t="shared" si="7"/>
         <v>705000</v>
       </c>
-      <c r="L53" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="O53" s="67" t="s">
-        <v>138</v>
-      </c>
-      <c r="P53" s="68"/>
-    </row>
-    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="70">
+      <c r="L53" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="O53" s="54" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="56">
         <v>53</v>
       </c>
-      <c r="B54" s="72" t="s">
-        <v>139</v>
-      </c>
-      <c r="C54" s="18">
+      <c r="B54" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" s="13">
         <v>4149000</v>
       </c>
       <c r="D54" s="3">
@@ -4455,7 +4296,7 @@
         <f t="shared" si="8"/>
         <v>4888000</v>
       </c>
-      <c r="G54" s="28">
+      <c r="G54" s="21">
         <f t="shared" si="6"/>
         <v>5865600</v>
       </c>
@@ -4471,21 +4312,20 @@
         <v>1112000</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="O54" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="P54" s="17"/>
-    </row>
-    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="70">
+        <v>159</v>
+      </c>
+      <c r="O54" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="56">
         <v>54</v>
       </c>
-      <c r="B55" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="C55" s="18">
+      <c r="B55" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" s="13">
         <v>4104000</v>
       </c>
       <c r="D55" s="3">
@@ -4498,7 +4338,7 @@
         <f t="shared" si="8"/>
         <v>5361500</v>
       </c>
-      <c r="G55" s="28">
+      <c r="G55" s="21">
         <f t="shared" si="6"/>
         <v>6433800</v>
       </c>
@@ -4514,65 +4354,63 @@
         <v>1388500</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O55" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="P55" s="17"/>
-    </row>
-    <row r="56" spans="1:16" s="66" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="74">
+        <v>19</v>
+      </c>
+      <c r="O55" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" s="53" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="60">
         <v>55</v>
       </c>
-      <c r="B56" s="75" t="s">
-        <v>185</v>
-      </c>
-      <c r="C56" s="64">
+      <c r="B56" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="C56" s="51">
         <v>1960000</v>
       </c>
-      <c r="D56" s="65">
+      <c r="D56" s="52">
         <v>833000</v>
       </c>
-      <c r="E56" s="65">
+      <c r="E56" s="52">
         <v>900000</v>
       </c>
-      <c r="F56" s="65">
+      <c r="F56" s="52">
         <f t="shared" si="8"/>
         <v>3693000</v>
       </c>
-      <c r="G56" s="65">
+      <c r="G56" s="52">
         <f t="shared" si="6"/>
         <v>4431600</v>
       </c>
-      <c r="H56" s="65">
+      <c r="H56" s="52">
         <f t="shared" si="9"/>
         <v>4616250</v>
       </c>
-      <c r="I56" s="65">
+      <c r="I56" s="52">
         <v>5000000</v>
       </c>
-      <c r="J56" s="65"/>
-      <c r="K56" s="65">
+      <c r="J56" s="52"/>
+      <c r="K56" s="52">
         <f t="shared" si="7"/>
         <v>1307000</v>
       </c>
-      <c r="L56" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="O56" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="P56" s="68"/>
-    </row>
-    <row r="57" spans="1:16" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="70">
+      <c r="L56" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="O56" s="54" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="56">
         <v>56</v>
       </c>
-      <c r="B57" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="C57" s="18">
+      <c r="B57" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" s="13">
         <v>3762000</v>
       </c>
       <c r="D57" s="3">
@@ -4585,7 +4423,7 @@
         <f t="shared" si="8"/>
         <v>5322000</v>
       </c>
-      <c r="G57" s="28">
+      <c r="G57" s="21">
         <f t="shared" si="6"/>
         <v>6386400</v>
       </c>
@@ -4601,34 +4439,33 @@
         <v>978000</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="O57" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="P57" s="17"/>
-    </row>
-    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="70">
+        <v>156</v>
+      </c>
+      <c r="O57" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="56">
         <v>57</v>
       </c>
-      <c r="B58" s="76" t="s">
-        <v>146</v>
-      </c>
-      <c r="C58" s="18">
+      <c r="B58" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" s="13">
         <v>6441000</v>
       </c>
-      <c r="D58" s="128">
+      <c r="D58" s="107">
         <v>771500</v>
       </c>
       <c r="F58" s="3">
         <f t="shared" si="8"/>
         <v>7212500</v>
       </c>
-      <c r="G58" s="28">
+      <c r="G58" s="21">
         <f t="shared" si="6"/>
         <v>8655000</v>
       </c>
@@ -4644,63 +4481,61 @@
         <v>2087500</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="O58" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="P58" s="17"/>
-    </row>
-    <row r="59" spans="1:16" s="52" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="77">
+        <v>166</v>
+      </c>
+      <c r="O58" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" s="40" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="63">
         <v>58</v>
       </c>
-      <c r="B59" s="78" t="s">
-        <v>148</v>
-      </c>
-      <c r="C59" s="50">
+      <c r="B59" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="38">
         <v>7435000</v>
       </c>
-      <c r="D59" s="51">
+      <c r="D59" s="39">
         <v>924000</v>
       </c>
-      <c r="E59" s="51"/>
-      <c r="F59" s="51">
+      <c r="E59" s="39"/>
+      <c r="F59" s="39">
         <f t="shared" si="8"/>
         <v>8359000</v>
       </c>
-      <c r="G59" s="51">
+      <c r="G59" s="39">
         <f t="shared" si="6"/>
         <v>10030800</v>
       </c>
-      <c r="H59" s="51">
+      <c r="H59" s="39">
         <f t="shared" si="9"/>
         <v>10448750</v>
       </c>
-      <c r="I59" s="51" t="s">
-        <v>187</v>
-      </c>
-      <c r="J59" s="51"/>
-      <c r="K59" s="51" t="e">
+      <c r="I59" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="J59" s="39"/>
+      <c r="K59" s="39" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L59" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="O59" s="79" t="s">
-        <v>149</v>
-      </c>
-      <c r="P59" s="53"/>
-    </row>
-    <row r="60" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="70">
+      <c r="L59" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="O59" s="65" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="56">
         <v>59</v>
       </c>
-      <c r="B60" s="72" t="s">
-        <v>234</v>
-      </c>
-      <c r="C60" s="18">
+      <c r="B60" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="C60" s="13">
         <v>1824000</v>
       </c>
       <c r="D60" s="3">
@@ -4713,7 +4548,7 @@
         <f t="shared" si="8"/>
         <v>2863500</v>
       </c>
-      <c r="G60" s="28">
+      <c r="G60" s="21">
         <f t="shared" si="6"/>
         <v>3436200</v>
       </c>
@@ -4728,60 +4563,58 @@
         <f t="shared" si="7"/>
         <v>1636500</v>
       </c>
-      <c r="O60" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="P60" s="17"/>
-    </row>
-    <row r="61" spans="1:16" s="47" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="80">
+      <c r="O60" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" s="36" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="66">
         <v>60</v>
       </c>
-      <c r="B61" s="81" t="s">
-        <v>151</v>
-      </c>
-      <c r="C61" s="45">
+      <c r="B61" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" s="34">
         <v>6328000</v>
       </c>
-      <c r="D61" s="46">
+      <c r="D61" s="35">
         <v>985000</v>
       </c>
-      <c r="E61" s="46">
+      <c r="E61" s="35">
         <v>200000</v>
       </c>
-      <c r="F61" s="46">
+      <c r="F61" s="35">
         <f t="shared" si="8"/>
         <v>7513000</v>
       </c>
-      <c r="G61" s="46">
+      <c r="G61" s="35">
         <f t="shared" si="6"/>
         <v>9015600</v>
       </c>
-      <c r="H61" s="46">
+      <c r="H61" s="35">
         <f t="shared" si="9"/>
         <v>9391250</v>
       </c>
-      <c r="I61" s="46">
+      <c r="I61" s="35">
         <v>8500000</v>
       </c>
-      <c r="J61" s="46"/>
-      <c r="K61" s="46">
+      <c r="J61" s="35"/>
+      <c r="K61" s="35">
         <f t="shared" si="7"/>
         <v>987000</v>
       </c>
-      <c r="O61" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="P61" s="49"/>
-    </row>
-    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="70">
+      <c r="O61" s="37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="56">
         <v>61</v>
       </c>
-      <c r="B62" s="63" t="s">
-        <v>153</v>
-      </c>
-      <c r="C62" s="18">
+      <c r="B62" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" s="13">
         <v>3762000</v>
       </c>
       <c r="D62" s="3">
@@ -4794,7 +4627,7 @@
         <f t="shared" si="8"/>
         <v>5461000</v>
       </c>
-      <c r="G62" s="28">
+      <c r="G62" s="21">
         <f t="shared" si="6"/>
         <v>6553200</v>
       </c>
@@ -4810,21 +4643,20 @@
         <v>539000</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="O62" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="P62" s="17"/>
-    </row>
-    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="70">
+        <v>210</v>
+      </c>
+      <c r="O62" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="56">
         <v>62</v>
       </c>
-      <c r="B63" s="63" t="s">
-        <v>155</v>
-      </c>
-      <c r="C63" s="18">
+      <c r="B63" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C63" s="13">
         <v>4000000</v>
       </c>
       <c r="D63" s="3">
@@ -4837,7 +4669,7 @@
         <f t="shared" si="8"/>
         <v>5080500</v>
       </c>
-      <c r="G63" s="28">
+      <c r="G63" s="21">
         <f t="shared" si="6"/>
         <v>6096600</v>
       </c>
@@ -4853,62 +4685,60 @@
         <v>619500</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="O63" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="P63" s="17"/>
-    </row>
-    <row r="64" spans="1:16" s="33" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="73">
+        <v>167</v>
+      </c>
+      <c r="O63" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" s="25" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="59">
         <v>63</v>
       </c>
-      <c r="B64" s="82" t="s">
-        <v>157</v>
-      </c>
-      <c r="C64" s="42">
+      <c r="B64" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="C64" s="32">
         <v>6350000</v>
       </c>
-      <c r="D64" s="32">
+      <c r="D64" s="24">
         <v>900000</v>
       </c>
-      <c r="E64" s="32">
+      <c r="E64" s="24">
         <v>200000</v>
       </c>
-      <c r="F64" s="32">
+      <c r="F64" s="24">
         <f t="shared" si="8"/>
         <v>7450000</v>
       </c>
-      <c r="G64" s="32">
+      <c r="G64" s="24">
         <f t="shared" si="6"/>
         <v>8940000</v>
       </c>
-      <c r="H64" s="32">
+      <c r="H64" s="24">
         <f t="shared" si="9"/>
         <v>9312500</v>
       </c>
-      <c r="I64" s="32">
+      <c r="I64" s="24">
         <v>8500000</v>
       </c>
-      <c r="J64" s="32"/>
-      <c r="K64" s="32">
+      <c r="J64" s="24"/>
+      <c r="K64" s="24">
         <f t="shared" si="7"/>
         <v>1050000</v>
       </c>
-      <c r="O64" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="P64" s="43"/>
-    </row>
-    <row r="65" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="70">
+      <c r="O64" s="33" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="56">
         <v>64</v>
       </c>
-      <c r="B65" s="63" t="s">
-        <v>159</v>
-      </c>
-      <c r="C65" s="18">
+      <c r="B65" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="C65" s="13">
         <v>2712000</v>
       </c>
       <c r="D65" s="3">
@@ -4921,7 +4751,7 @@
         <f t="shared" si="8"/>
         <v>3704000</v>
       </c>
-      <c r="G65" s="28">
+      <c r="G65" s="21">
         <f t="shared" si="6"/>
         <v>4444800</v>
       </c>
@@ -4930,28 +4760,27 @@
         <v>4630000</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="K65" s="3" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="O65" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="P65" s="17"/>
-    </row>
-    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="70">
+        <v>159</v>
+      </c>
+      <c r="O65" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="56">
         <v>65</v>
       </c>
-      <c r="B66" s="63" t="s">
-        <v>161</v>
-      </c>
-      <c r="C66" s="18">
+      <c r="B66" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="C66" s="13">
         <v>2440000</v>
       </c>
       <c r="D66" s="3">
@@ -4961,7 +4790,7 @@
         <f t="shared" si="8"/>
         <v>2511750</v>
       </c>
-      <c r="G66" s="28">
+      <c r="G66" s="21">
         <f t="shared" si="6"/>
         <v>3014100</v>
       </c>
@@ -4973,60 +4802,58 @@
         <f t="shared" si="7"/>
         <v>-2511750</v>
       </c>
-      <c r="O66" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="P66" s="17"/>
-    </row>
-    <row r="67" spans="1:17" s="66" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="74">
+      <c r="O66" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" s="53" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="60">
         <v>66</v>
       </c>
-      <c r="B67" s="83" t="s">
-        <v>167</v>
-      </c>
-      <c r="C67" s="64">
+      <c r="B67" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="C67" s="51">
         <v>3351000</v>
       </c>
-      <c r="D67" s="65">
+      <c r="D67" s="52">
         <v>760000</v>
       </c>
-      <c r="E67" s="65">
+      <c r="E67" s="52">
         <v>200000</v>
       </c>
-      <c r="F67" s="65">
+      <c r="F67" s="52">
         <f t="shared" si="8"/>
         <v>4311000</v>
       </c>
-      <c r="G67" s="65">
+      <c r="G67" s="52">
         <f t="shared" si="6"/>
         <v>5173200</v>
       </c>
-      <c r="H67" s="65">
+      <c r="H67" s="52">
         <f t="shared" si="9"/>
         <v>5388750</v>
       </c>
-      <c r="I67" s="65" t="s">
-        <v>221</v>
-      </c>
-      <c r="J67" s="65"/>
+      <c r="I67" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="J67" s="52"/>
       <c r="K67" s="3" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O67" s="67" t="s">
-        <v>168</v>
-      </c>
-      <c r="P67" s="68"/>
-    </row>
-    <row r="68" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="70">
+      <c r="O67" s="54" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="56">
         <v>67</v>
       </c>
-      <c r="B68" s="63" t="s">
-        <v>169</v>
-      </c>
-      <c r="C68" s="18">
+      <c r="B68" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="C68" s="13">
         <v>3511000</v>
       </c>
       <c r="D68" s="3">
@@ -5036,7 +4863,7 @@
         <f t="shared" si="8"/>
         <v>4230000</v>
       </c>
-      <c r="G68" s="28">
+      <c r="G68" s="21">
         <f t="shared" si="6"/>
         <v>5076000</v>
       </c>
@@ -5052,21 +4879,20 @@
         <v>1570000</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O68" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="P68" s="17"/>
-    </row>
-    <row r="69" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="70">
+        <v>103</v>
+      </c>
+      <c r="O68" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="56">
         <v>68</v>
       </c>
-      <c r="B69" s="63" t="s">
-        <v>171</v>
-      </c>
-      <c r="C69" s="18">
+      <c r="B69" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="C69" s="13">
         <v>7204000</v>
       </c>
       <c r="D69" s="3">
@@ -5079,7 +4905,7 @@
         <f t="shared" si="8"/>
         <v>8252500</v>
       </c>
-      <c r="G69" s="28">
+      <c r="G69" s="21">
         <f t="shared" si="6"/>
         <v>9903000</v>
       </c>
@@ -5094,64 +4920,61 @@
         <f t="shared" si="7"/>
         <v>2447500</v>
       </c>
-      <c r="O69" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="P69" s="17"/>
-    </row>
-    <row r="70" spans="1:17" s="47" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="80">
+      <c r="O69" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" s="36" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="66">
         <v>69</v>
       </c>
-      <c r="B70" s="87" t="s">
-        <v>218</v>
-      </c>
-      <c r="C70" s="85">
+      <c r="B70" s="73" t="s">
+        <v>211</v>
+      </c>
+      <c r="C70" s="71">
         <v>2964000</v>
       </c>
-      <c r="D70" s="85">
+      <c r="D70" s="71">
         <v>821500</v>
       </c>
-      <c r="E70" s="85"/>
-      <c r="F70" s="85">
+      <c r="E70" s="71"/>
+      <c r="F70" s="71">
         <f t="shared" si="8"/>
         <v>3785500</v>
       </c>
-      <c r="G70" s="85">
+      <c r="G70" s="71">
         <f t="shared" si="6"/>
         <v>4542600</v>
       </c>
-      <c r="H70" s="85">
+      <c r="H70" s="71">
         <f t="shared" si="9"/>
         <v>4731875</v>
       </c>
-      <c r="I70" s="85">
+      <c r="I70" s="71">
         <v>4000000</v>
       </c>
-      <c r="J70" s="85"/>
+      <c r="J70" s="71"/>
       <c r="K70" s="3">
         <f t="shared" si="7"/>
         <v>214500</v>
       </c>
-      <c r="L70" s="86" t="s">
-        <v>259</v>
-      </c>
-      <c r="M70" s="86"/>
-      <c r="N70" s="86"/>
-      <c r="O70" s="88" t="s">
-        <v>175</v>
-      </c>
-      <c r="P70" s="89"/>
-      <c r="Q70" s="86"/>
-    </row>
-    <row r="71" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="80">
+      <c r="L70" s="72" t="s">
+        <v>252</v>
+      </c>
+      <c r="M70" s="72"/>
+      <c r="N70" s="72"/>
+      <c r="O70" s="74" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="66">
         <v>70</v>
       </c>
-      <c r="B71" s="72" t="s">
-        <v>176</v>
-      </c>
-      <c r="C71" s="18">
+      <c r="B71" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="C71" s="13">
         <v>4423000</v>
       </c>
       <c r="D71" s="3">
@@ -5164,7 +4987,7 @@
         <f t="shared" si="8"/>
         <v>5594500</v>
       </c>
-      <c r="G71" s="28">
+      <c r="G71" s="21">
         <f t="shared" si="6"/>
         <v>6713400</v>
       </c>
@@ -5180,63 +5003,61 @@
         <v>2405500</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="O71" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="P71" s="17"/>
-    </row>
-    <row r="72" spans="1:17" s="109" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="90">
+        <v>250</v>
+      </c>
+      <c r="O71" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" s="92" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="75">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C72" s="106">
+        <v>181</v>
+      </c>
+      <c r="C72" s="89">
         <v>3306000</v>
       </c>
-      <c r="D72" s="107">
+      <c r="D72" s="90">
         <v>794000</v>
       </c>
-      <c r="E72" s="107"/>
-      <c r="F72" s="107">
+      <c r="E72" s="90"/>
+      <c r="F72" s="90">
         <f t="shared" si="8"/>
         <v>4100000</v>
       </c>
-      <c r="G72" s="108">
+      <c r="G72" s="91">
         <f t="shared" si="6"/>
         <v>4920000</v>
       </c>
-      <c r="H72" s="107">
+      <c r="H72" s="90">
         <f t="shared" si="9"/>
         <v>5125000</v>
       </c>
-      <c r="I72" s="107">
+      <c r="I72" s="90">
         <v>5500000</v>
       </c>
-      <c r="J72" s="107"/>
+      <c r="J72" s="90"/>
       <c r="K72" s="3">
         <f t="shared" si="7"/>
         <v>1400000</v>
       </c>
-      <c r="L72" s="109" t="s">
-        <v>214</v>
-      </c>
-      <c r="O72" s="154" t="s">
-        <v>189</v>
-      </c>
-      <c r="P72" s="110"/>
-    </row>
-    <row r="73" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="80">
+      <c r="L72" s="92" t="s">
+        <v>207</v>
+      </c>
+      <c r="O72" s="137" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="66">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C73" s="18">
+        <v>181</v>
+      </c>
+      <c r="C73" s="13">
         <v>3306000</v>
       </c>
       <c r="D73" s="3">
@@ -5249,7 +5070,7 @@
         <f t="shared" ref="F73:F136" si="10">C73+D73+E73</f>
         <v>4550000</v>
       </c>
-      <c r="G73" s="28">
+      <c r="G73" s="21">
         <f t="shared" ref="G73:G137" si="11">(F73*20%)+F73</f>
         <v>5460000</v>
       </c>
@@ -5265,60 +5086,58 @@
         <v>3450000</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="O73" s="154"/>
-      <c r="P73" s="17"/>
-    </row>
-    <row r="74" spans="1:17" s="91" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="111">
+        <v>249</v>
+      </c>
+      <c r="O73" s="137"/>
+    </row>
+    <row r="74" spans="1:15" s="76" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="93">
         <v>73</v>
       </c>
-      <c r="B74" s="86" t="s">
-        <v>219</v>
-      </c>
-      <c r="C74" s="112">
+      <c r="B74" s="72" t="s">
+        <v>212</v>
+      </c>
+      <c r="C74" s="94">
         <v>3306000</v>
       </c>
-      <c r="D74" s="113">
+      <c r="D74" s="95">
         <v>794000</v>
       </c>
-      <c r="E74" s="114">
+      <c r="E74" s="96">
         <v>150000</v>
       </c>
-      <c r="F74" s="113">
+      <c r="F74" s="95">
         <f t="shared" si="10"/>
         <v>4250000</v>
       </c>
-      <c r="G74" s="113">
+      <c r="G74" s="95">
         <f t="shared" si="11"/>
         <v>5100000</v>
       </c>
-      <c r="H74" s="113">
+      <c r="H74" s="95">
         <f t="shared" si="12"/>
         <v>5312500</v>
       </c>
-      <c r="I74" s="113">
+      <c r="I74" s="95">
         <v>5000000</v>
       </c>
-      <c r="J74" s="113"/>
+      <c r="J74" s="95"/>
       <c r="K74" s="3">
         <f t="shared" si="7"/>
         <v>750000</v>
       </c>
-      <c r="M74" s="115"/>
-      <c r="N74" s="115"/>
-      <c r="O74" s="154"/>
-      <c r="P74" s="116"/>
-    </row>
-    <row r="75" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="80">
+      <c r="M74" s="97"/>
+      <c r="N74" s="97"/>
+      <c r="O74" s="137"/>
+    </row>
+    <row r="75" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="66">
         <v>74</v>
       </c>
-      <c r="B75" s="72" t="s">
-        <v>190</v>
-      </c>
-      <c r="C75" s="18">
+      <c r="B75" s="58" t="s">
+        <v>183</v>
+      </c>
+      <c r="C75" s="13">
         <v>6974748</v>
       </c>
       <c r="D75" s="3">
@@ -5328,7 +5147,7 @@
         <f t="shared" si="10"/>
         <v>7754748</v>
       </c>
-      <c r="G75" s="28">
+      <c r="G75" s="21">
         <f t="shared" si="11"/>
         <v>9305697.5999999996</v>
       </c>
@@ -5344,21 +5163,20 @@
         <v>3045252</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="O75" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="P75" s="17"/>
-    </row>
-    <row r="76" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="80">
+        <v>209</v>
+      </c>
+      <c r="O75" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="66">
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C76" s="18">
+        <v>185</v>
+      </c>
+      <c r="C76" s="13">
         <v>2188000</v>
       </c>
       <c r="D76" s="3">
@@ -5368,7 +5186,7 @@
         <f t="shared" si="10"/>
         <v>2239250</v>
       </c>
-      <c r="G76" s="28">
+      <c r="G76" s="21">
         <f t="shared" si="11"/>
         <v>2687100</v>
       </c>
@@ -5380,19 +5198,18 @@
         <f t="shared" si="13"/>
         <v>-2239250</v>
       </c>
-      <c r="O76" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="P76" s="17"/>
-    </row>
-    <row r="77" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="80">
+      <c r="O76" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="66">
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C77" s="18">
+        <v>187</v>
+      </c>
+      <c r="C77" s="13">
         <v>5706000</v>
       </c>
       <c r="D77" s="3">
@@ -5405,7 +5222,7 @@
         <f t="shared" si="10"/>
         <v>7066000</v>
       </c>
-      <c r="G77" s="28">
+      <c r="G77" s="21">
         <f t="shared" si="11"/>
         <v>8479200</v>
       </c>
@@ -5421,21 +5238,20 @@
         <v>1934000</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="O77" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="P77" s="17"/>
-    </row>
-    <row r="78" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="80">
+        <v>303</v>
+      </c>
+      <c r="O77" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="66">
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C78" s="18">
+        <v>189</v>
+      </c>
+      <c r="C78" s="13">
         <v>5244000</v>
       </c>
       <c r="D78" s="3">
@@ -5464,22 +5280,21 @@
         <v>584500</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="O78" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="P78" s="17"/>
-    </row>
-    <row r="79" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="80">
+        <v>241</v>
+      </c>
+      <c r="O78" s="12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="66">
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C79" s="3">
         <v>2508000</v>
@@ -5503,16 +5318,16 @@
         <f>I79-J79-F79</f>
         <v>-2560000</v>
       </c>
-      <c r="O79" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="80">
+      <c r="O79" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="66">
         <v>79</v>
       </c>
-      <c r="B80" s="55" t="s">
-        <v>199</v>
+      <c r="B80" s="42" t="s">
+        <v>192</v>
       </c>
       <c r="C80" s="3">
         <v>7410000</v>
@@ -5543,18 +5358,18 @@
         <v>2320001</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="O80" s="13" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="80">
+        <v>166</v>
+      </c>
+      <c r="O80" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="66">
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C81" s="3">
         <v>7410000</v>
@@ -5585,18 +5400,18 @@
         <v>2041500</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="O81" s="13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="80">
+        <v>166</v>
+      </c>
+      <c r="O81" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="66">
         <v>81</v>
       </c>
-      <c r="B82" s="84" t="s">
-        <v>204</v>
+      <c r="B82" s="70" t="s">
+        <v>197</v>
       </c>
       <c r="C82" s="3">
         <v>7288000</v>
@@ -5624,18 +5439,18 @@
         <v>2058500</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="O82" s="13" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="80">
+        <v>157</v>
+      </c>
+      <c r="O82" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="66">
         <v>82</v>
       </c>
-      <c r="B83" s="55" t="s">
-        <v>206</v>
+      <c r="B83" s="42" t="s">
+        <v>199</v>
       </c>
       <c r="C83" s="3">
         <v>4309000</v>
@@ -5663,18 +5478,18 @@
         <v>944000</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O83" s="13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="80">
+        <v>19</v>
+      </c>
+      <c r="O83" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="66">
         <v>83</v>
       </c>
-      <c r="B84" s="55" t="s">
-        <v>208</v>
+      <c r="B84" s="42" t="s">
+        <v>201</v>
       </c>
       <c r="C84" s="3">
         <v>2599000</v>
@@ -5698,16 +5513,16 @@
         <f t="shared" si="14"/>
         <v>-2650250</v>
       </c>
-      <c r="O84" s="13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="80">
+      <c r="O84" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="66">
         <v>84</v>
       </c>
-      <c r="B85" s="55" t="s">
-        <v>210</v>
+      <c r="B85" s="42" t="s">
+        <v>203</v>
       </c>
       <c r="C85" s="3">
         <v>4104000</v>
@@ -5738,21 +5553,21 @@
         <v>1395000</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="O85" s="13" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="90">
+        <v>239</v>
+      </c>
+      <c r="O85" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="75">
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C86" s="3">
         <v>3990000</v>
@@ -5783,18 +5598,18 @@
         <v>1370500</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="O86" s="105" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="80">
+        <v>294</v>
+      </c>
+      <c r="O86" s="88" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="66">
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C87" s="3">
         <v>5586000</v>
@@ -5822,16 +5637,16 @@
         <v>4192500</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="O87" s="13" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="80"/>
+        <v>234</v>
+      </c>
+      <c r="O87" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="66"/>
       <c r="B88" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C88" s="3">
         <v>4720000</v>
@@ -5859,15 +5674,15 @@
         <v>-6210000</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="O88" s="13" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="125" t="s">
-        <v>223</v>
+        <v>237</v>
+      </c>
+      <c r="O88" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="105" t="s">
+        <v>216</v>
       </c>
       <c r="C89" s="3">
         <v>4400000</v>
@@ -5898,18 +5713,18 @@
         <v>2399000</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="O89" s="13" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="92" t="s">
-        <v>240</v>
+        <v>235</v>
+      </c>
+      <c r="O89" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="77" t="s">
+        <v>233</v>
       </c>
       <c r="C90" s="3">
         <v>5170000</v>
@@ -5940,48 +5755,47 @@
         <v>2935000</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="O90" s="13" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" s="119" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="117"/>
-      <c r="B91" s="93" t="s">
-        <v>226</v>
-      </c>
-      <c r="C91" s="118">
+        <v>238</v>
+      </c>
+      <c r="O90" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" s="100" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="98"/>
+      <c r="B91" s="78" t="s">
+        <v>219</v>
+      </c>
+      <c r="C91" s="99">
         <v>157</v>
       </c>
-      <c r="D91" s="118"/>
-      <c r="E91" s="118"/>
-      <c r="F91" s="118">
+      <c r="D91" s="99"/>
+      <c r="E91" s="99"/>
+      <c r="F91" s="99">
         <f t="shared" si="10"/>
         <v>157</v>
       </c>
-      <c r="G91" s="118">
+      <c r="G91" s="99">
         <f t="shared" si="11"/>
         <v>188.4</v>
       </c>
-      <c r="H91" s="118">
+      <c r="H91" s="99">
         <f t="shared" si="12"/>
         <v>196.25</v>
       </c>
-      <c r="I91" s="118"/>
-      <c r="J91" s="118"/>
-      <c r="K91" s="118">
+      <c r="I91" s="99"/>
+      <c r="J91" s="99"/>
+      <c r="K91" s="99">
         <f t="shared" si="14"/>
         <v>-157</v>
       </c>
-      <c r="O91" s="120" t="s">
-        <v>227</v>
-      </c>
-      <c r="P91" s="121"/>
-    </row>
-    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="55" t="s">
-        <v>228</v>
+      <c r="O91" s="101" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="42" t="s">
+        <v>221</v>
       </c>
       <c r="C92" s="3">
         <v>3442800</v>
@@ -6012,15 +5826,15 @@
         <v>-1392800</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O92" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="55" t="s">
-        <v>230</v>
+        <v>19</v>
+      </c>
+      <c r="O92" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="42" t="s">
+        <v>223</v>
       </c>
       <c r="C93" s="3">
         <v>5312000</v>
@@ -6051,126 +5865,120 @@
         <v>1619000</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="O93" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" s="119" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="94" t="s">
-        <v>232</v>
-      </c>
-      <c r="C94" s="118">
+        <v>282</v>
+      </c>
+      <c r="O93" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" s="100" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="79" t="s">
+        <v>225</v>
+      </c>
+      <c r="C94" s="99">
         <v>229</v>
       </c>
-      <c r="D94" s="118"/>
-      <c r="E94" s="118"/>
-      <c r="F94" s="118">
+      <c r="D94" s="99"/>
+      <c r="E94" s="99"/>
+      <c r="F94" s="99">
         <f t="shared" si="10"/>
         <v>229</v>
       </c>
-      <c r="G94" s="118">
+      <c r="G94" s="99">
         <f t="shared" si="11"/>
         <v>274.8</v>
       </c>
-      <c r="H94" s="118">
+      <c r="H94" s="99">
         <f t="shared" si="12"/>
         <v>286.25</v>
       </c>
-      <c r="I94" s="118"/>
-      <c r="J94" s="118"/>
-      <c r="K94" s="118">
+      <c r="I94" s="99"/>
+      <c r="J94" s="99"/>
+      <c r="K94" s="99">
         <f t="shared" si="14"/>
         <v>-229</v>
       </c>
-      <c r="O94" s="120" t="s">
-        <v>236</v>
-      </c>
-      <c r="P94" s="121"/>
-    </row>
-    <row r="95" spans="1:17" s="119" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="94" t="s">
-        <v>233</v>
-      </c>
-      <c r="C95" s="118">
+      <c r="O94" s="101" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" s="100" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="79" t="s">
+        <v>226</v>
+      </c>
+      <c r="C95" s="99">
         <v>280</v>
       </c>
-      <c r="D95" s="118"/>
-      <c r="E95" s="118"/>
-      <c r="F95" s="118">
+      <c r="D95" s="99"/>
+      <c r="E95" s="99"/>
+      <c r="F95" s="99">
         <f t="shared" si="10"/>
         <v>280</v>
       </c>
-      <c r="G95" s="118">
+      <c r="G95" s="99">
         <f t="shared" si="11"/>
         <v>336</v>
       </c>
-      <c r="H95" s="118">
+      <c r="H95" s="99">
         <f t="shared" si="12"/>
         <v>350</v>
       </c>
-      <c r="I95" s="118"/>
-      <c r="J95" s="118"/>
-      <c r="K95" s="118">
+      <c r="I95" s="99"/>
+      <c r="J95" s="99"/>
+      <c r="K95" s="99">
         <f t="shared" si="14"/>
         <v>-280</v>
       </c>
-      <c r="O95" s="120" t="s">
-        <v>235</v>
-      </c>
-      <c r="P95" s="121"/>
-    </row>
-    <row r="96" spans="1:17" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="58" t="s">
-        <v>237</v>
-      </c>
-      <c r="C96" s="28">
+      <c r="O95" s="101" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="C96" s="21">
         <v>4018000</v>
       </c>
-      <c r="D96" s="129">
+      <c r="D96" s="108">
         <v>985000</v>
       </c>
-      <c r="E96" s="28">
+      <c r="E96" s="21">
         <v>350000</v>
       </c>
-      <c r="F96" s="28">
+      <c r="F96" s="21">
         <f t="shared" si="10"/>
         <v>5353000</v>
       </c>
-      <c r="G96" s="28">
+      <c r="G96" s="21">
         <f t="shared" si="11"/>
         <v>6423600</v>
       </c>
-      <c r="H96" s="28">
+      <c r="H96" s="21">
         <f t="shared" si="12"/>
         <v>6691250</v>
       </c>
-      <c r="I96" s="28">
+      <c r="I96" s="21">
         <v>6700000</v>
       </c>
-      <c r="J96" s="28"/>
-      <c r="K96" s="28">
+      <c r="J96" s="21"/>
+      <c r="K96" s="21">
         <f t="shared" si="14"/>
         <v>1347000</v>
       </c>
-      <c r="L96" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="N96" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="O96" s="149" t="s">
-        <v>239</v>
-      </c>
-      <c r="P96" s="126"/>
-      <c r="Q96" s="29" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="97" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="55" t="s">
-        <v>238</v>
+      <c r="L96" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="N96" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="O96" s="132" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="97" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="42" t="s">
+        <v>231</v>
       </c>
       <c r="C97" s="3">
         <v>3713000</v>
@@ -6194,45 +6002,44 @@
         <f t="shared" si="14"/>
         <v>-4698000</v>
       </c>
-      <c r="O97" s="151"/>
-    </row>
-    <row r="98" spans="2:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="131" t="s">
-        <v>249</v>
-      </c>
-      <c r="C98" s="132">
+      <c r="O97" s="133"/>
+    </row>
+    <row r="98" spans="2:15" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="110" t="s">
+        <v>242</v>
+      </c>
+      <c r="C98" s="111">
         <v>6110000</v>
       </c>
-      <c r="D98" s="132">
+      <c r="D98" s="111">
         <v>719000</v>
       </c>
-      <c r="E98" s="132"/>
-      <c r="F98" s="132">
+      <c r="E98" s="111"/>
+      <c r="F98" s="111">
         <f t="shared" si="10"/>
         <v>6829000</v>
       </c>
-      <c r="G98" s="132">
+      <c r="G98" s="111">
         <f t="shared" si="11"/>
         <v>8194800</v>
       </c>
-      <c r="H98" s="132">
+      <c r="H98" s="111">
         <f t="shared" si="12"/>
         <v>8536250</v>
       </c>
-      <c r="I98" s="132"/>
-      <c r="J98" s="132"/>
-      <c r="K98" s="132">
+      <c r="I98" s="111"/>
+      <c r="J98" s="111"/>
+      <c r="K98" s="111">
         <f t="shared" si="14"/>
         <v>-6829000</v>
       </c>
-      <c r="O98" s="134" t="s">
-        <v>250</v>
-      </c>
-      <c r="P98" s="135"/>
-    </row>
-    <row r="99" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="55" t="s">
-        <v>251</v>
+      <c r="O98" s="113" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="99" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="42" t="s">
+        <v>244</v>
       </c>
       <c r="C99" s="3">
         <v>3420000</v>
@@ -6260,15 +6067,15 @@
         <v>1394000</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="O99" s="105" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="100" spans="2:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="55" t="s">
-        <v>253</v>
+        <v>377</v>
+      </c>
+      <c r="O99" s="88" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="42" t="s">
+        <v>246</v>
       </c>
       <c r="C100" s="3">
         <v>3315000</v>
@@ -6290,41 +6097,40 @@
         <v>-3315000</v>
       </c>
     </row>
-    <row r="101" spans="2:17" s="119" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="94" t="s">
-        <v>254</v>
-      </c>
-      <c r="C101" s="118">
+    <row r="101" spans="2:15" s="100" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="79" t="s">
+        <v>247</v>
+      </c>
+      <c r="C101" s="99">
         <v>219</v>
       </c>
-      <c r="D101" s="118"/>
-      <c r="E101" s="118"/>
-      <c r="F101" s="118">
+      <c r="D101" s="99"/>
+      <c r="E101" s="99"/>
+      <c r="F101" s="99">
         <f t="shared" si="10"/>
         <v>219</v>
       </c>
-      <c r="G101" s="118">
+      <c r="G101" s="99">
         <f t="shared" si="11"/>
         <v>262.8</v>
       </c>
-      <c r="H101" s="118">
+      <c r="H101" s="99">
         <f t="shared" si="12"/>
         <v>273.75</v>
       </c>
-      <c r="I101" s="118"/>
-      <c r="J101" s="118"/>
-      <c r="K101" s="118">
+      <c r="I101" s="99"/>
+      <c r="J101" s="99"/>
+      <c r="K101" s="99">
         <f t="shared" si="14"/>
         <v>-219</v>
       </c>
-      <c r="O101" s="105" t="s">
-        <v>264</v>
-      </c>
-      <c r="P101" s="121"/>
-    </row>
-    <row r="102" spans="2:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="55" t="s">
-        <v>266</v>
+      <c r="O101" s="88" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="102" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="42" t="s">
+        <v>259</v>
       </c>
       <c r="C102" s="3">
         <v>4149000</v>
@@ -6352,19 +6158,19 @@
         <v>3152000</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O102" s="13" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="103" spans="2:17" s="119" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C103" s="118"/>
-      <c r="D103" s="118"/>
-      <c r="E103" s="118"/>
+        <v>293</v>
+      </c>
+      <c r="O102" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="103" spans="2:15" s="100" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="79" t="s">
+        <v>248</v>
+      </c>
+      <c r="C103" s="99"/>
+      <c r="D103" s="99"/>
+      <c r="E103" s="99"/>
       <c r="F103" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6377,20 +6183,19 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I103" s="118"/>
-      <c r="J103" s="118"/>
+      <c r="I103" s="99"/>
+      <c r="J103" s="99"/>
       <c r="K103" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="O103" s="122" t="s">
-        <v>261</v>
-      </c>
-      <c r="P103" s="121"/>
-    </row>
-    <row r="104" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="55" t="s">
-        <v>263</v>
+      <c r="O103" s="102" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="104" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="42" t="s">
+        <v>256</v>
       </c>
       <c r="C104" s="3">
         <v>3776000</v>
@@ -6421,15 +6226,15 @@
         <v>2383000</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="O104" s="13" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="105" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+      <c r="O104" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="105" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C105" s="3">
         <v>8208000</v>
@@ -6456,13 +6261,13 @@
         <f t="shared" si="14"/>
         <v>1125000</v>
       </c>
-      <c r="O105" s="13" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="106" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="123" t="s">
-        <v>269</v>
+      <c r="O105" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="106" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="103" t="s">
+        <v>262</v>
       </c>
       <c r="C106" s="3">
         <v>4012000</v>
@@ -6493,49 +6298,48 @@
         <v>2878000</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="O106" s="13" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="107" spans="2:17" s="137" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="131" t="s">
-        <v>271</v>
-      </c>
-      <c r="C107" s="136">
+        <v>305</v>
+      </c>
+      <c r="O106" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="107" spans="2:15" s="115" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="110" t="s">
+        <v>264</v>
+      </c>
+      <c r="C107" s="114">
         <v>5540000</v>
       </c>
-      <c r="D107" s="136">
+      <c r="D107" s="114">
         <v>678000</v>
       </c>
-      <c r="E107" s="136"/>
-      <c r="F107" s="136">
+      <c r="E107" s="114"/>
+      <c r="F107" s="114">
         <f t="shared" si="10"/>
         <v>6218000</v>
       </c>
-      <c r="G107" s="136">
+      <c r="G107" s="114">
         <f t="shared" si="11"/>
         <v>7461600</v>
       </c>
-      <c r="H107" s="136">
+      <c r="H107" s="114">
         <f t="shared" si="12"/>
         <v>7772500</v>
       </c>
-      <c r="I107" s="136"/>
-      <c r="J107" s="136"/>
-      <c r="K107" s="136">
+      <c r="I107" s="114"/>
+      <c r="J107" s="114"/>
+      <c r="K107" s="114">
         <f t="shared" si="14"/>
         <v>-6218000</v>
       </c>
-      <c r="O107" s="138" t="s">
-        <v>272</v>
-      </c>
-      <c r="P107" s="139"/>
-    </row>
-    <row r="108" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="55" t="s">
-        <v>274</v>
+      <c r="O107" s="116" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="108" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="42" t="s">
+        <v>267</v>
       </c>
       <c r="C108" s="3">
         <v>7080000</v>
@@ -6563,62 +6367,58 @@
         <v>2078000</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="O108" s="122" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="109" spans="2:17" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="58" t="s">
-        <v>275</v>
-      </c>
-      <c r="C109" s="28">
+        <v>326</v>
+      </c>
+      <c r="O108" s="102" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="109" spans="2:15" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="C109" s="21">
         <v>4200000</v>
       </c>
-      <c r="D109" s="28">
+      <c r="D109" s="21">
         <v>781000</v>
       </c>
-      <c r="E109" s="28">
+      <c r="E109" s="21">
         <v>430000</v>
       </c>
-      <c r="F109" s="28">
+      <c r="F109" s="21">
         <f t="shared" si="10"/>
         <v>5411000</v>
       </c>
-      <c r="G109" s="28">
+      <c r="G109" s="21">
         <f t="shared" si="11"/>
         <v>6493200</v>
       </c>
-      <c r="H109" s="28">
+      <c r="H109" s="21">
         <f t="shared" si="12"/>
         <v>6763750</v>
       </c>
-      <c r="I109" s="28">
+      <c r="I109" s="21">
         <v>6150000</v>
       </c>
-      <c r="J109" s="28"/>
-      <c r="K109" s="28">
+      <c r="J109" s="21"/>
+      <c r="K109" s="21">
         <f t="shared" si="14"/>
         <v>739000</v>
       </c>
-      <c r="L109" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="N109" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="O109" s="127" t="s">
-        <v>276</v>
-      </c>
-      <c r="P109" s="126"/>
-      <c r="Q109" s="29" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="110" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="55" t="s">
-        <v>277</v>
+      <c r="L109" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="N109" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="O109" s="106" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="110" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="42" t="s">
+        <v>270</v>
       </c>
       <c r="C110" s="3">
         <v>7080000</v>
@@ -6646,158 +6446,146 @@
         <v>2475000</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="O110" s="13" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="111" spans="2:17" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="58" t="s">
-        <v>279</v>
-      </c>
-      <c r="C111" s="28">
+        <v>159</v>
+      </c>
+      <c r="O110" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="111" spans="2:15" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="C111" s="21">
         <f>13776000/4</f>
         <v>3444000</v>
       </c>
-      <c r="D111" s="28">
+      <c r="D111" s="21">
         <f>3120000/5</f>
         <v>624000</v>
       </c>
-      <c r="E111" s="28"/>
-      <c r="F111" s="28">
+      <c r="E111" s="21"/>
+      <c r="F111" s="21">
         <f t="shared" si="10"/>
         <v>4068000</v>
       </c>
-      <c r="G111" s="28">
+      <c r="G111" s="21">
         <f t="shared" si="11"/>
         <v>4881600</v>
       </c>
-      <c r="H111" s="28">
+      <c r="H111" s="21">
         <f t="shared" si="12"/>
         <v>5085000</v>
       </c>
-      <c r="I111" s="28">
+      <c r="I111" s="21">
         <v>5300000</v>
       </c>
-      <c r="J111" s="28"/>
-      <c r="K111" s="28">
+      <c r="J111" s="21"/>
+      <c r="K111" s="21">
         <f t="shared" si="14"/>
         <v>1232000</v>
       </c>
-      <c r="L111" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="N111" s="29" t="s">
-        <v>294</v>
-      </c>
-      <c r="O111" s="149" t="s">
-        <v>280</v>
-      </c>
-      <c r="P111" s="126"/>
-      <c r="Q111" s="29" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="112" spans="2:17" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="58" t="s">
-        <v>279</v>
-      </c>
-      <c r="C112" s="28">
+      <c r="L111" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="N111" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="O111" s="132" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="112" spans="2:15" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="C112" s="21">
         <f t="shared" ref="C112:C114" si="15">13776000/4</f>
         <v>3444000</v>
       </c>
-      <c r="D112" s="28">
+      <c r="D112" s="21">
         <f t="shared" ref="D112:D115" si="16">3120000/5</f>
         <v>624000</v>
       </c>
-      <c r="E112" s="28"/>
-      <c r="F112" s="28">
+      <c r="E112" s="21"/>
+      <c r="F112" s="21">
         <f t="shared" ref="F112:F113" si="17">C112+D112+E112</f>
         <v>4068000</v>
       </c>
-      <c r="G112" s="28">
+      <c r="G112" s="21">
         <f t="shared" ref="G112:G113" si="18">(F112*20%)+F112</f>
         <v>4881600</v>
       </c>
-      <c r="H112" s="28">
+      <c r="H112" s="21">
         <f t="shared" ref="H112:H113" si="19">(F112*25%)+F112</f>
         <v>5085000</v>
       </c>
-      <c r="I112" s="28">
+      <c r="I112" s="21">
         <v>5300000</v>
       </c>
-      <c r="J112" s="28"/>
-      <c r="K112" s="28">
+      <c r="J112" s="21"/>
+      <c r="K112" s="21">
         <f t="shared" ref="K112:K113" si="20">I112-J112-F112</f>
         <v>1232000</v>
       </c>
-      <c r="L112" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="N112" s="29" t="s">
-        <v>295</v>
-      </c>
-      <c r="O112" s="150"/>
-      <c r="P112" s="126"/>
-      <c r="Q112" s="29" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="113" spans="2:17" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="58" t="s">
-        <v>279</v>
-      </c>
-      <c r="C113" s="28">
+      <c r="L112" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="N112" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="O112" s="134"/>
+    </row>
+    <row r="113" spans="2:15" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="C113" s="21">
         <f t="shared" si="15"/>
         <v>3444000</v>
       </c>
-      <c r="D113" s="28">
+      <c r="D113" s="21">
         <f t="shared" si="16"/>
         <v>624000</v>
       </c>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28">
+      <c r="E113" s="21"/>
+      <c r="F113" s="21">
         <f t="shared" si="17"/>
         <v>4068000</v>
       </c>
-      <c r="G113" s="28">
+      <c r="G113" s="21">
         <f t="shared" si="18"/>
         <v>4881600</v>
       </c>
-      <c r="H113" s="28">
+      <c r="H113" s="21">
         <f t="shared" si="19"/>
         <v>5085000</v>
       </c>
-      <c r="I113" s="28">
+      <c r="I113" s="21">
         <v>5300000</v>
       </c>
-      <c r="J113" s="28"/>
-      <c r="K113" s="28">
+      <c r="J113" s="21"/>
+      <c r="K113" s="21">
         <f t="shared" si="20"/>
         <v>1232000</v>
       </c>
-      <c r="L113" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="N113" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="O113" s="150"/>
-      <c r="P113" s="126"/>
-      <c r="Q113" s="29" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="114" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="55" t="s">
-        <v>279</v>
+      <c r="L113" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="N113" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="O113" s="134"/>
+    </row>
+    <row r="114" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="42" t="s">
+        <v>272</v>
       </c>
       <c r="C114" s="3">
         <f t="shared" si="15"/>
         <v>3444000</v>
       </c>
-      <c r="D114" s="28">
+      <c r="D114" s="21">
         <f t="shared" si="16"/>
         <v>624000</v>
       </c>
@@ -6817,16 +6605,16 @@
         <f t="shared" ref="K114" si="24">I114-J114-F114</f>
         <v>-4068000</v>
       </c>
-      <c r="O114" s="150"/>
-    </row>
-    <row r="115" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="55" t="s">
-        <v>281</v>
+      <c r="O114" s="134"/>
+    </row>
+    <row r="115" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="42" t="s">
+        <v>274</v>
       </c>
       <c r="C115" s="3">
         <v>5166000</v>
       </c>
-      <c r="D115" s="28">
+      <c r="D115" s="21">
         <f t="shared" si="16"/>
         <v>624000</v>
       </c>
@@ -6850,13 +6638,13 @@
         <v>610000</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O115" s="151"/>
-    </row>
-    <row r="116" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="55" t="s">
-        <v>282</v>
+        <v>30</v>
+      </c>
+      <c r="O115" s="133"/>
+    </row>
+    <row r="116" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="42" t="s">
+        <v>275</v>
       </c>
       <c r="C116" s="3">
         <v>3465000</v>
@@ -6877,13 +6665,13 @@
         <f t="shared" si="14"/>
         <v>-3465000</v>
       </c>
-      <c r="O116" s="13" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="117" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="55" t="s">
-        <v>284</v>
+      <c r="O116" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="117" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="42" t="s">
+        <v>277</v>
       </c>
       <c r="C117" s="3">
         <v>7906000</v>
@@ -6914,25 +6702,25 @@
         <v>1504000</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="O117" s="13" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="118" spans="2:17" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="124" t="s">
-        <v>286</v>
-      </c>
-      <c r="C118" s="32">
+        <v>166</v>
+      </c>
+      <c r="O117" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="118" spans="2:15" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="104" t="s">
+        <v>279</v>
+      </c>
+      <c r="C118" s="24">
         <f>13570000/4</f>
         <v>3392500</v>
       </c>
-      <c r="D118" s="130">
+      <c r="D118" s="109">
         <f>3718000/4</f>
         <v>929500</v>
       </c>
-      <c r="E118" s="32"/>
+      <c r="E118" s="24"/>
       <c r="F118" s="3">
         <f t="shared" si="10"/>
         <v>4322000</v>
@@ -6945,35 +6733,34 @@
         <f t="shared" si="12"/>
         <v>5402500</v>
       </c>
-      <c r="I118" s="32">
+      <c r="I118" s="24">
         <v>5800000</v>
       </c>
-      <c r="J118" s="32"/>
+      <c r="J118" s="24"/>
       <c r="K118" s="3">
         <f t="shared" si="14"/>
         <v>1478000</v>
       </c>
-      <c r="L118" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="O118" s="155" t="s">
-        <v>287</v>
-      </c>
-      <c r="P118" s="35"/>
-    </row>
-    <row r="119" spans="2:17" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="124" t="s">
-        <v>286</v>
-      </c>
-      <c r="C119" s="32">
+      <c r="L118" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="O118" s="138" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="119" spans="2:15" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="104" t="s">
+        <v>279</v>
+      </c>
+      <c r="C119" s="24">
         <f t="shared" ref="C119:C122" si="25">13570000/4</f>
         <v>3392500</v>
       </c>
-      <c r="D119" s="130">
+      <c r="D119" s="109">
         <f t="shared" ref="D119:D122" si="26">3718000/4</f>
         <v>929500</v>
       </c>
-      <c r="E119" s="32"/>
+      <c r="E119" s="24"/>
       <c r="F119" s="3">
         <f t="shared" si="10"/>
         <v>4322000</v>
@@ -6986,33 +6773,32 @@
         <f t="shared" si="12"/>
         <v>5402500</v>
       </c>
-      <c r="I119" s="32">
+      <c r="I119" s="24">
         <v>5800000</v>
       </c>
-      <c r="J119" s="32"/>
+      <c r="J119" s="24"/>
       <c r="K119" s="3">
         <f t="shared" si="14"/>
         <v>1478000</v>
       </c>
-      <c r="L119" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="O119" s="156"/>
-      <c r="P119" s="35"/>
-    </row>
-    <row r="120" spans="2:17" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="124" t="s">
-        <v>286</v>
-      </c>
-      <c r="C120" s="32">
+      <c r="L119" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="O119" s="139"/>
+    </row>
+    <row r="120" spans="2:15" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="104" t="s">
+        <v>279</v>
+      </c>
+      <c r="C120" s="24">
         <f t="shared" si="25"/>
         <v>3392500</v>
       </c>
-      <c r="D120" s="130">
+      <c r="D120" s="109">
         <f t="shared" si="26"/>
         <v>929500</v>
       </c>
-      <c r="E120" s="32"/>
+      <c r="E120" s="24"/>
       <c r="F120" s="3">
         <f t="shared" si="10"/>
         <v>4322000</v>
@@ -7025,33 +6811,32 @@
         <f t="shared" si="12"/>
         <v>5402500</v>
       </c>
-      <c r="I120" s="32">
+      <c r="I120" s="24">
         <v>5800000</v>
       </c>
-      <c r="J120" s="32"/>
+      <c r="J120" s="24"/>
       <c r="K120" s="3">
         <f t="shared" si="14"/>
         <v>1478000</v>
       </c>
-      <c r="L120" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="O120" s="156"/>
-      <c r="P120" s="35"/>
-    </row>
-    <row r="121" spans="2:17" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="124" t="s">
-        <v>286</v>
-      </c>
-      <c r="C121" s="32">
+      <c r="L120" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="O120" s="139"/>
+    </row>
+    <row r="121" spans="2:15" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="104" t="s">
+        <v>279</v>
+      </c>
+      <c r="C121" s="24">
         <f t="shared" si="25"/>
         <v>3392500</v>
       </c>
-      <c r="D121" s="130">
+      <c r="D121" s="109">
         <f t="shared" si="26"/>
         <v>929500</v>
       </c>
-      <c r="E121" s="32"/>
+      <c r="E121" s="24"/>
       <c r="F121" s="3">
         <f t="shared" si="10"/>
         <v>4322000</v>
@@ -7064,33 +6849,32 @@
         <f t="shared" si="12"/>
         <v>5402500</v>
       </c>
-      <c r="I121" s="32">
+      <c r="I121" s="24">
         <v>5800000</v>
       </c>
-      <c r="J121" s="32"/>
+      <c r="J121" s="24"/>
       <c r="K121" s="3">
         <f t="shared" si="14"/>
         <v>1478000</v>
       </c>
-      <c r="L121" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="O121" s="156"/>
-      <c r="P121" s="35"/>
-    </row>
-    <row r="122" spans="2:17" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="124" t="s">
-        <v>286</v>
-      </c>
-      <c r="C122" s="32">
+      <c r="L121" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="O121" s="139"/>
+    </row>
+    <row r="122" spans="2:15" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="104" t="s">
+        <v>279</v>
+      </c>
+      <c r="C122" s="24">
         <f t="shared" si="25"/>
         <v>3392500</v>
       </c>
-      <c r="D122" s="130">
+      <c r="D122" s="109">
         <f t="shared" si="26"/>
         <v>929500</v>
       </c>
-      <c r="E122" s="32"/>
+      <c r="E122" s="24"/>
       <c r="F122" s="3">
         <f t="shared" si="10"/>
         <v>4322000</v>
@@ -7103,23 +6887,22 @@
         <f t="shared" si="12"/>
         <v>5402500</v>
       </c>
-      <c r="I122" s="32">
+      <c r="I122" s="24">
         <v>5500000</v>
       </c>
-      <c r="J122" s="32"/>
+      <c r="J122" s="24"/>
       <c r="K122" s="3">
         <f t="shared" si="14"/>
         <v>1178000</v>
       </c>
-      <c r="L122" s="33" t="s">
-        <v>306</v>
-      </c>
-      <c r="O122" s="157"/>
-      <c r="P122" s="35"/>
-    </row>
-    <row r="123" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="55" t="s">
-        <v>288</v>
+      <c r="L122" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="O122" s="140"/>
+    </row>
+    <row r="123" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="42" t="s">
+        <v>281</v>
       </c>
       <c r="C123" s="3">
         <v>7080000</v>
@@ -7147,92 +6930,90 @@
         <v>1619000</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="O123" s="13" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="124" spans="2:17" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="124" t="s">
-        <v>291</v>
-      </c>
-      <c r="C124" s="32">
+        <v>302</v>
+      </c>
+      <c r="O123" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="124" spans="2:15" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="104" t="s">
+        <v>284</v>
+      </c>
+      <c r="C124" s="24">
         <v>6680000</v>
       </c>
-      <c r="D124" s="32">
+      <c r="D124" s="24">
         <v>801000</v>
       </c>
-      <c r="E124" s="32">
+      <c r="E124" s="24">
         <v>350000</v>
       </c>
-      <c r="F124" s="32">
+      <c r="F124" s="24">
         <f t="shared" si="10"/>
         <v>7831000</v>
       </c>
-      <c r="G124" s="32">
+      <c r="G124" s="24">
         <f t="shared" si="11"/>
         <v>9397200</v>
       </c>
-      <c r="H124" s="32">
+      <c r="H124" s="24">
         <f t="shared" si="12"/>
         <v>9788750</v>
       </c>
-      <c r="I124" s="32">
+      <c r="I124" s="24">
         <v>9500000</v>
       </c>
-      <c r="J124" s="32"/>
-      <c r="K124" s="32">
+      <c r="J124" s="24"/>
+      <c r="K124" s="24">
         <f t="shared" si="14"/>
         <v>1669000</v>
       </c>
-      <c r="O124" s="34" t="s">
-        <v>292</v>
-      </c>
-      <c r="P124" s="35"/>
-    </row>
-    <row r="125" spans="2:17" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="124" t="s">
-        <v>308</v>
-      </c>
-      <c r="C125" s="32">
+      <c r="O124" s="26" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="125" spans="2:15" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="104" t="s">
+        <v>298</v>
+      </c>
+      <c r="C125" s="24">
         <v>7488000</v>
       </c>
-      <c r="D125" s="32">
+      <c r="D125" s="24">
         <v>821000</v>
       </c>
-      <c r="E125" s="32"/>
-      <c r="F125" s="32">
+      <c r="E125" s="24"/>
+      <c r="F125" s="24">
         <f t="shared" si="10"/>
         <v>8309000</v>
       </c>
-      <c r="G125" s="32">
+      <c r="G125" s="24">
         <f t="shared" si="11"/>
         <v>9970800</v>
       </c>
-      <c r="H125" s="32">
+      <c r="H125" s="24">
         <f t="shared" si="12"/>
         <v>10386250</v>
       </c>
-      <c r="I125" s="32">
+      <c r="I125" s="24">
         <v>9800000</v>
       </c>
-      <c r="J125" s="32"/>
-      <c r="K125" s="32">
+      <c r="J125" s="24"/>
+      <c r="K125" s="24">
         <f t="shared" si="14"/>
         <v>1491000</v>
       </c>
-      <c r="L125" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="O125" s="34" t="s">
-        <v>311</v>
-      </c>
-      <c r="P125" s="35"/>
-    </row>
-    <row r="126" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="55" t="s">
-        <v>309</v>
+      <c r="L125" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="O125" s="26" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="126" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="42" t="s">
+        <v>299</v>
       </c>
       <c r="C126" s="3">
         <v>7776000</v>
@@ -7260,15 +7041,15 @@
         <v>1943000</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="O126" s="13" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="127" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="55" t="s">
-        <v>316</v>
+        <v>166</v>
+      </c>
+      <c r="O126" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="127" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="42" t="s">
+        <v>306</v>
       </c>
       <c r="C127" s="3">
         <f>8160000/2</f>
@@ -7294,13 +7075,13 @@
         <f t="shared" si="14"/>
         <v>-4871000</v>
       </c>
-      <c r="O127" s="13" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="128" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="55" t="s">
-        <v>316</v>
+      <c r="O127" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="128" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="42" t="s">
+        <v>306</v>
       </c>
       <c r="C128" s="3">
         <f>8160000/2</f>
@@ -7326,47 +7107,46 @@
         <f t="shared" ref="K128" si="29">I128-J128-F128</f>
         <v>-4871000</v>
       </c>
-      <c r="O128" s="13" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="129" spans="2:16" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B129" s="142" t="s">
-        <v>337</v>
-      </c>
-      <c r="C129" s="96">
+      <c r="O128" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="129" spans="2:15" s="83" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B129" s="119" t="s">
+        <v>327</v>
+      </c>
+      <c r="C129" s="81">
         <v>6500000</v>
       </c>
-      <c r="D129" s="96">
+      <c r="D129" s="81">
         <v>1006000</v>
       </c>
-      <c r="E129" s="96"/>
-      <c r="F129" s="96">
+      <c r="E129" s="81"/>
+      <c r="F129" s="81">
         <f t="shared" si="10"/>
         <v>7506000</v>
       </c>
-      <c r="G129" s="96">
+      <c r="G129" s="81">
         <f t="shared" si="11"/>
         <v>9007200</v>
       </c>
-      <c r="H129" s="96">
+      <c r="H129" s="81">
         <f t="shared" si="12"/>
         <v>9382500</v>
       </c>
-      <c r="I129" s="96"/>
-      <c r="J129" s="96"/>
-      <c r="K129" s="96">
+      <c r="I129" s="81"/>
+      <c r="J129" s="81"/>
+      <c r="K129" s="81">
         <f t="shared" si="14"/>
         <v>-7506000</v>
       </c>
-      <c r="O129" s="99" t="s">
-        <v>318</v>
-      </c>
-      <c r="P129" s="100"/>
-    </row>
-    <row r="130" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="55" t="s">
-        <v>319</v>
+      <c r="O129" s="84" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="130" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="42" t="s">
+        <v>309</v>
       </c>
       <c r="C130" s="3">
         <v>4000000</v>
@@ -7374,33 +7154,33 @@
       <c r="D130" s="3">
         <v>842000</v>
       </c>
-      <c r="F130" s="96">
+      <c r="F130" s="81">
         <f t="shared" si="10"/>
         <v>4842000</v>
       </c>
-      <c r="G130" s="96">
+      <c r="G130" s="81">
         <f t="shared" si="11"/>
         <v>5810400</v>
       </c>
-      <c r="H130" s="96">
+      <c r="H130" s="81">
         <f t="shared" si="12"/>
         <v>6052500</v>
       </c>
-      <c r="I130" s="96"/>
-      <c r="K130" s="96">
+      <c r="I130" s="81"/>
+      <c r="K130" s="81">
         <f t="shared" si="14"/>
         <v>-4842000</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="O130" s="13" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="131" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="55" t="s">
-        <v>321</v>
+        <v>159</v>
+      </c>
+      <c r="O130" s="9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="131" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="42" t="s">
+        <v>311</v>
       </c>
       <c r="C131" s="3">
         <v>5150000</v>
@@ -7408,30 +7188,30 @@
       <c r="D131" s="3">
         <v>842000</v>
       </c>
-      <c r="F131" s="96">
+      <c r="F131" s="81">
         <f t="shared" si="10"/>
         <v>5992000</v>
       </c>
-      <c r="G131" s="96">
+      <c r="G131" s="81">
         <f t="shared" si="11"/>
         <v>7190400</v>
       </c>
-      <c r="H131" s="96">
+      <c r="H131" s="81">
         <f t="shared" si="12"/>
         <v>7490000</v>
       </c>
-      <c r="I131" s="96"/>
-      <c r="K131" s="96">
+      <c r="I131" s="81"/>
+      <c r="K131" s="81">
         <f t="shared" si="14"/>
         <v>-5992000</v>
       </c>
-      <c r="O131" s="13" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="132" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="55" t="s">
-        <v>323</v>
+      <c r="O131" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="132" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="42" t="s">
+        <v>313</v>
       </c>
       <c r="C132" s="3">
         <f>8500000/2</f>
@@ -7441,30 +7221,30 @@
         <f>1479000/2</f>
         <v>739500</v>
       </c>
-      <c r="F132" s="96">
+      <c r="F132" s="81">
         <f t="shared" si="10"/>
         <v>4989500</v>
       </c>
-      <c r="G132" s="96">
+      <c r="G132" s="81">
         <f t="shared" si="11"/>
         <v>5987400</v>
       </c>
-      <c r="H132" s="96">
+      <c r="H132" s="81">
         <f t="shared" si="12"/>
         <v>6236875</v>
       </c>
-      <c r="I132" s="96"/>
-      <c r="K132" s="96">
+      <c r="I132" s="81"/>
+      <c r="K132" s="81">
         <f t="shared" si="14"/>
         <v>-4989500</v>
       </c>
-      <c r="O132" s="13" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="133" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="55" t="s">
-        <v>323</v>
+      <c r="O132" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="133" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="42" t="s">
+        <v>313</v>
       </c>
       <c r="C133" s="3">
         <f>8500000/2</f>
@@ -7474,30 +7254,30 @@
         <f>1479000/2</f>
         <v>739500</v>
       </c>
-      <c r="F133" s="96">
+      <c r="F133" s="81">
         <f t="shared" si="10"/>
         <v>4989500</v>
       </c>
-      <c r="G133" s="96">
+      <c r="G133" s="81">
         <f t="shared" si="11"/>
         <v>5987400</v>
       </c>
-      <c r="H133" s="96">
+      <c r="H133" s="81">
         <f t="shared" si="12"/>
         <v>6236875</v>
       </c>
-      <c r="I133" s="96"/>
-      <c r="K133" s="96">
+      <c r="I133" s="81"/>
+      <c r="K133" s="81">
         <f t="shared" si="14"/>
         <v>-4989500</v>
       </c>
-      <c r="O133" s="13" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="134" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="55" t="s">
-        <v>325</v>
+      <c r="O133" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="134" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="42" t="s">
+        <v>315</v>
       </c>
       <c r="C134" s="3">
         <v>5500000</v>
@@ -7505,30 +7285,30 @@
       <c r="D134" s="3">
         <v>739000</v>
       </c>
-      <c r="F134" s="96">
+      <c r="F134" s="81">
         <f t="shared" si="10"/>
         <v>6239000</v>
       </c>
-      <c r="G134" s="96">
+      <c r="G134" s="81">
         <f t="shared" si="11"/>
         <v>7486800</v>
       </c>
-      <c r="H134" s="96">
+      <c r="H134" s="81">
         <f t="shared" si="12"/>
         <v>7798750</v>
       </c>
-      <c r="I134" s="96"/>
-      <c r="K134" s="96">
+      <c r="I134" s="81"/>
+      <c r="K134" s="81">
         <f t="shared" si="14"/>
         <v>-6239000</v>
       </c>
-      <c r="O134" s="13" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="135" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="55" t="s">
-        <v>327</v>
+      <c r="O134" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="135" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="42" t="s">
+        <v>317</v>
       </c>
       <c r="C135" s="3">
         <v>5750000</v>
@@ -7536,80 +7316,80 @@
       <c r="D135" s="3">
         <v>842000</v>
       </c>
-      <c r="F135" s="96">
+      <c r="F135" s="81">
         <f t="shared" si="10"/>
         <v>6592000</v>
       </c>
-      <c r="G135" s="96">
+      <c r="G135" s="81">
         <f t="shared" si="11"/>
         <v>7910400</v>
       </c>
-      <c r="H135" s="96">
+      <c r="H135" s="81">
         <f t="shared" si="12"/>
         <v>8240000</v>
       </c>
-      <c r="I135" s="96"/>
-      <c r="K135" s="96">
+      <c r="I135" s="81"/>
+      <c r="K135" s="81">
         <f t="shared" si="14"/>
         <v>-6592000</v>
       </c>
-      <c r="O135" s="13" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="136" spans="2:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="55" t="s">
-        <v>331</v>
-      </c>
-      <c r="F136" s="96">
+      <c r="O135" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="136" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="F136" s="81">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G136" s="96">
+      <c r="G136" s="81">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H136" s="96">
+      <c r="H136" s="81">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I136" s="96"/>
-      <c r="K136" s="96">
+      <c r="I136" s="81"/>
+      <c r="K136" s="81">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="O136" s="13" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="137" spans="2:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="55" t="s">
-        <v>331</v>
-      </c>
-      <c r="F137" s="96">
-        <f t="shared" ref="F137:F179" si="30">C137+D137+E137</f>
+      <c r="O136" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="137" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="F137" s="81">
+        <f t="shared" ref="F137:F180" si="30">C137+D137+E137</f>
         <v>0</v>
       </c>
-      <c r="G137" s="96">
+      <c r="G137" s="81">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H137" s="96">
+      <c r="H137" s="81">
         <f t="shared" ref="H137:H181" si="31">(F137*25%)+F137</f>
         <v>0</v>
       </c>
-      <c r="I137" s="96"/>
-      <c r="K137" s="96">
+      <c r="I137" s="81"/>
+      <c r="K137" s="81">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="O137" s="13" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="138" spans="2:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="140" t="s">
-        <v>333</v>
+      <c r="O137" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="138" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="117" t="s">
+        <v>323</v>
       </c>
       <c r="C138" s="3">
         <v>3600000</v>
@@ -7620,72 +7400,69 @@
       <c r="E138" s="3">
         <v>250000</v>
       </c>
-      <c r="F138" s="96">
+      <c r="F138" s="81">
         <f t="shared" si="30"/>
         <v>4712000</v>
       </c>
-      <c r="G138" s="96">
+      <c r="G138" s="81">
         <f t="shared" ref="G138:G179" si="32">(F138*20%)+F138</f>
         <v>5654400</v>
       </c>
-      <c r="H138" s="96">
+      <c r="H138" s="81">
         <f t="shared" si="31"/>
         <v>5890000</v>
       </c>
-      <c r="I138" s="96"/>
-      <c r="K138" s="96">
+      <c r="I138" s="81"/>
+      <c r="K138" s="81">
         <f t="shared" si="14"/>
         <v>-4712000</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="O138" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="P138" s="4" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="139" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="141" t="s">
-        <v>335</v>
+        <v>360</v>
+      </c>
+      <c r="O138" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="139" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="118" t="s">
+        <v>325</v>
       </c>
       <c r="C139" s="3">
         <v>5832000</v>
       </c>
-      <c r="D139" s="143">
+      <c r="D139" s="120">
         <v>801000</v>
       </c>
-      <c r="F139" s="96">
+      <c r="F139" s="81">
         <f t="shared" si="30"/>
         <v>6633000</v>
       </c>
-      <c r="G139" s="96">
+      <c r="G139" s="81">
         <f t="shared" si="32"/>
         <v>7959600</v>
       </c>
-      <c r="H139" s="96">
+      <c r="H139" s="81">
         <f t="shared" si="31"/>
         <v>8291250</v>
       </c>
-      <c r="I139" s="96">
+      <c r="I139" s="81">
         <v>10000000</v>
       </c>
-      <c r="K139" s="96">
+      <c r="K139" s="81">
         <f t="shared" si="14"/>
         <v>3367000</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="O139" s="13" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="140" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="55" t="s">
-        <v>340</v>
+        <v>328</v>
+      </c>
+      <c r="O139" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="140" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="42" t="s">
+        <v>330</v>
       </c>
       <c r="C140" s="3">
         <v>7200000</v>
@@ -7696,66 +7473,66 @@
       <c r="E140" s="3">
         <v>350000</v>
       </c>
-      <c r="F140" s="96">
+      <c r="F140" s="81">
         <f t="shared" si="30"/>
         <v>8392000</v>
       </c>
-      <c r="G140" s="96">
+      <c r="G140" s="81">
         <f t="shared" si="32"/>
         <v>10070400</v>
       </c>
-      <c r="H140" s="96">
+      <c r="H140" s="81">
         <f t="shared" si="31"/>
         <v>10490000</v>
       </c>
-      <c r="I140" s="96">
+      <c r="I140" s="81">
         <v>14000000</v>
       </c>
-      <c r="K140" s="96">
+      <c r="K140" s="81">
         <f t="shared" si="14"/>
         <v>5608000</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="O140" s="13" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="141" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="55" t="s">
-        <v>342</v>
+        <v>360</v>
+      </c>
+      <c r="O140" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="141" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="42" t="s">
+        <v>332</v>
       </c>
       <c r="C141" s="3">
         <v>6720000</v>
       </c>
-      <c r="D141" s="143">
+      <c r="D141" s="120">
         <v>801000</v>
       </c>
-      <c r="F141" s="96">
+      <c r="F141" s="81">
         <f t="shared" si="30"/>
         <v>7521000</v>
       </c>
-      <c r="G141" s="96">
+      <c r="G141" s="81">
         <f t="shared" si="32"/>
         <v>9025200</v>
       </c>
-      <c r="H141" s="96">
+      <c r="H141" s="81">
         <f t="shared" si="31"/>
         <v>9401250</v>
       </c>
-      <c r="I141" s="96"/>
-      <c r="K141" s="96">
+      <c r="I141" s="81"/>
+      <c r="K141" s="81">
         <f t="shared" si="14"/>
         <v>-7521000</v>
       </c>
-      <c r="O141" s="13" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="142" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="55" t="s">
-        <v>343</v>
+      <c r="O141" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="142" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="42" t="s">
+        <v>333</v>
       </c>
       <c r="C142" s="3">
         <v>9840000</v>
@@ -7766,35 +7543,35 @@
       <c r="E142" s="3">
         <v>550000</v>
       </c>
-      <c r="F142" s="96">
+      <c r="F142" s="81">
         <f t="shared" si="30"/>
         <v>11252000</v>
       </c>
-      <c r="G142" s="96">
+      <c r="G142" s="81">
         <f t="shared" si="32"/>
         <v>13502400</v>
       </c>
-      <c r="H142" s="96">
+      <c r="H142" s="81">
         <f t="shared" si="31"/>
         <v>14065000</v>
       </c>
-      <c r="I142" s="96">
+      <c r="I142" s="81">
         <v>13000000</v>
       </c>
-      <c r="K142" s="96">
+      <c r="K142" s="81">
         <f t="shared" si="14"/>
         <v>1748000</v>
       </c>
       <c r="L142" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O142" s="13" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="143" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="55" t="s">
-        <v>345</v>
+        <v>30</v>
+      </c>
+      <c r="O142" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="143" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="42" t="s">
+        <v>335</v>
       </c>
       <c r="C143" s="3">
         <v>9600000</v>
@@ -7802,35 +7579,35 @@
       <c r="D143" s="3">
         <v>904000</v>
       </c>
-      <c r="F143" s="96">
+      <c r="F143" s="81">
         <f t="shared" si="30"/>
         <v>10504000</v>
       </c>
-      <c r="G143" s="96">
+      <c r="G143" s="81">
         <f t="shared" si="32"/>
         <v>12604800</v>
       </c>
-      <c r="H143" s="96">
+      <c r="H143" s="81">
         <f t="shared" si="31"/>
         <v>13130000</v>
       </c>
-      <c r="I143" s="96">
+      <c r="I143" s="81">
         <v>13300000</v>
       </c>
-      <c r="K143" s="96">
+      <c r="K143" s="81">
         <f t="shared" si="14"/>
         <v>2796000</v>
       </c>
       <c r="L143" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="O143" s="13" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B144" s="55" t="s">
-        <v>348</v>
+        <v>252</v>
+      </c>
+      <c r="O143" s="9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="144" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="42" t="s">
+        <v>338</v>
       </c>
       <c r="C144" s="3">
         <v>5760000</v>
@@ -7838,29 +7615,32 @@
       <c r="D144" s="3">
         <v>700000</v>
       </c>
-      <c r="F144" s="96">
+      <c r="F144" s="81">
         <f t="shared" si="30"/>
         <v>6460000</v>
       </c>
-      <c r="G144" s="96">
+      <c r="G144" s="81">
         <f t="shared" si="32"/>
         <v>7752000</v>
       </c>
-      <c r="H144" s="96">
+      <c r="H144" s="81">
         <f t="shared" si="31"/>
         <v>8075000</v>
       </c>
-      <c r="K144" s="96">
+      <c r="I144" s="3">
+        <v>10500000</v>
+      </c>
+      <c r="K144" s="81">
         <f t="shared" si="14"/>
-        <v>-6460000</v>
-      </c>
-      <c r="O144" s="13" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="145" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="55" t="s">
-        <v>349</v>
+        <v>4040000</v>
+      </c>
+      <c r="O144" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="145" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="42" t="s">
+        <v>339</v>
       </c>
       <c r="C145" s="3">
         <v>3072000</v>
@@ -7871,32 +7651,32 @@
       <c r="E145" s="3">
         <v>550000</v>
       </c>
-      <c r="F145" s="96">
+      <c r="F145" s="81">
         <f t="shared" si="30"/>
         <v>4542000</v>
       </c>
-      <c r="G145" s="96">
+      <c r="G145" s="81">
         <f t="shared" si="32"/>
         <v>5450400</v>
       </c>
-      <c r="H145" s="96">
+      <c r="H145" s="81">
         <f t="shared" si="31"/>
         <v>5677500</v>
       </c>
       <c r="I145" s="3">
         <v>8000000</v>
       </c>
-      <c r="K145" s="96">
+      <c r="K145" s="81">
         <f t="shared" ref="K145:K179" si="33">I145-J145-F145</f>
         <v>3458000</v>
       </c>
-      <c r="O145" s="13" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="146" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="55" t="s">
-        <v>352</v>
+      <c r="O145" s="9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="146" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="42" t="s">
+        <v>342</v>
       </c>
       <c r="C146" s="3">
         <v>7440000</v>
@@ -7907,35 +7687,35 @@
       <c r="E146" s="3">
         <v>880000</v>
       </c>
-      <c r="F146" s="96">
+      <c r="F146" s="81">
         <f t="shared" si="30"/>
         <v>9223000</v>
       </c>
-      <c r="G146" s="96">
+      <c r="G146" s="81">
         <f t="shared" si="32"/>
         <v>11067600</v>
       </c>
-      <c r="H146" s="96">
+      <c r="H146" s="81">
         <f t="shared" si="31"/>
         <v>11528750</v>
       </c>
       <c r="I146" s="3">
         <v>14000000</v>
       </c>
-      <c r="K146" s="96">
+      <c r="K146" s="81">
         <f t="shared" si="33"/>
         <v>4777000</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="O146" s="13" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B147" s="144" t="s">
-        <v>354</v>
+        <v>376</v>
+      </c>
+      <c r="O146" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="147" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="121" t="s">
+        <v>344</v>
       </c>
       <c r="C147" s="3">
         <v>9240000</v>
@@ -7943,118 +7723,124 @@
       <c r="D147" s="3">
         <v>883000</v>
       </c>
-      <c r="F147" s="96">
+      <c r="F147" s="81">
         <f t="shared" si="30"/>
         <v>10123000</v>
       </c>
-      <c r="G147" s="96">
+      <c r="G147" s="81">
         <f t="shared" si="32"/>
         <v>12147600</v>
       </c>
-      <c r="H147" s="96">
+      <c r="H147" s="81">
         <f t="shared" si="31"/>
         <v>12653750</v>
       </c>
-      <c r="K147" s="96">
+      <c r="I147" s="3">
+        <v>11000000</v>
+      </c>
+      <c r="K147" s="81">
         <f t="shared" si="33"/>
-        <v>-10123000</v>
-      </c>
-      <c r="O147" s="13" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="148" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="55" t="s">
-        <v>376</v>
+        <v>877000</v>
+      </c>
+      <c r="L147" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="O147" s="9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="148" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="42" t="s">
+        <v>363</v>
       </c>
       <c r="C148" s="3">
         <f>12000000/5</f>
         <v>2400000</v>
       </c>
-      <c r="F148" s="96">
+      <c r="F148" s="81">
         <f t="shared" si="30"/>
         <v>2400000</v>
       </c>
-      <c r="G148" s="96">
+      <c r="G148" s="81">
         <f t="shared" si="32"/>
         <v>2880000</v>
       </c>
-      <c r="H148" s="96">
+      <c r="H148" s="81">
         <f t="shared" si="31"/>
         <v>3000000</v>
       </c>
       <c r="I148" s="3">
         <v>5800000</v>
       </c>
-      <c r="K148" s="96">
+      <c r="K148" s="81">
         <f t="shared" si="33"/>
         <v>3400000</v>
       </c>
-      <c r="O148" s="149" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="149" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="55" t="s">
-        <v>376</v>
+      <c r="O148" s="132" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="149" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="42" t="s">
+        <v>363</v>
       </c>
       <c r="C149" s="3">
         <f t="shared" ref="C149:C152" si="34">12000000/5</f>
         <v>2400000</v>
       </c>
-      <c r="F149" s="96">
+      <c r="F149" s="81">
         <f t="shared" si="30"/>
         <v>2400000</v>
       </c>
-      <c r="G149" s="96">
+      <c r="G149" s="81">
         <f t="shared" si="32"/>
         <v>2880000</v>
       </c>
-      <c r="H149" s="96">
+      <c r="H149" s="81">
         <f t="shared" si="31"/>
         <v>3000000</v>
       </c>
       <c r="I149" s="3">
         <v>5800000</v>
       </c>
-      <c r="K149" s="96">
+      <c r="K149" s="81">
         <f t="shared" si="33"/>
         <v>3400000</v>
       </c>
-      <c r="O149" s="150"/>
-    </row>
-    <row r="150" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="55" t="s">
-        <v>376</v>
+      <c r="O149" s="134"/>
+    </row>
+    <row r="150" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="42" t="s">
+        <v>363</v>
       </c>
       <c r="C150" s="3">
         <f t="shared" si="34"/>
         <v>2400000</v>
       </c>
-      <c r="F150" s="96">
+      <c r="F150" s="81">
         <f t="shared" si="30"/>
         <v>2400000</v>
       </c>
-      <c r="G150" s="96">
+      <c r="G150" s="81">
         <f t="shared" si="32"/>
         <v>2880000</v>
       </c>
-      <c r="H150" s="96">
+      <c r="H150" s="81">
         <f t="shared" si="31"/>
         <v>3000000</v>
       </c>
       <c r="I150" s="3">
         <v>5800000</v>
       </c>
-      <c r="K150" s="96">
+      <c r="K150" s="81">
         <f t="shared" si="33"/>
         <v>3400000</v>
       </c>
-      <c r="O150" s="151"/>
-    </row>
-    <row r="151" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="55" t="s">
-        <v>376</v>
+      <c r="O150" s="133"/>
+    </row>
+    <row r="151" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="42" t="s">
+        <v>363</v>
       </c>
       <c r="C151" s="3">
         <f t="shared" si="34"/>
@@ -8064,32 +7850,32 @@
         <f>2876000/4</f>
         <v>719000</v>
       </c>
-      <c r="F151" s="96">
+      <c r="F151" s="81">
         <f t="shared" si="30"/>
         <v>3119000</v>
       </c>
-      <c r="G151" s="96">
+      <c r="G151" s="81">
         <f t="shared" si="32"/>
         <v>3742800</v>
       </c>
-      <c r="H151" s="96">
+      <c r="H151" s="81">
         <f t="shared" si="31"/>
         <v>3898750</v>
       </c>
       <c r="I151" s="3">
         <v>5800000</v>
       </c>
-      <c r="K151" s="96">
+      <c r="K151" s="81">
         <f t="shared" si="33"/>
         <v>2681000</v>
       </c>
-      <c r="O151" s="149" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="152" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="55" t="s">
-        <v>376</v>
+      <c r="O151" s="132" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="152" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="42" t="s">
+        <v>363</v>
       </c>
       <c r="C152" s="3">
         <f t="shared" si="34"/>
@@ -8099,30 +7885,30 @@
         <f>2876000/4</f>
         <v>719000</v>
       </c>
-      <c r="F152" s="96">
+      <c r="F152" s="81">
         <f t="shared" si="30"/>
         <v>3119000</v>
       </c>
-      <c r="G152" s="96">
+      <c r="G152" s="81">
         <f t="shared" si="32"/>
         <v>3742800</v>
       </c>
-      <c r="H152" s="96">
+      <c r="H152" s="81">
         <f t="shared" si="31"/>
         <v>3898750</v>
       </c>
       <c r="I152" s="3">
         <v>5800000</v>
       </c>
-      <c r="K152" s="96">
+      <c r="K152" s="81">
         <f t="shared" si="33"/>
         <v>2681000</v>
       </c>
-      <c r="O152" s="150"/>
-    </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B153" s="55" t="s">
-        <v>377</v>
+      <c r="O152" s="134"/>
+    </row>
+    <row r="153" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B153" s="42" t="s">
+        <v>364</v>
       </c>
       <c r="C153" s="3">
         <v>4800000</v>
@@ -8131,27 +7917,27 @@
         <f>2876000/4</f>
         <v>719000</v>
       </c>
-      <c r="F153" s="96">
+      <c r="F153" s="81">
         <f t="shared" si="30"/>
         <v>5519000</v>
       </c>
-      <c r="G153" s="96">
+      <c r="G153" s="81">
         <f t="shared" si="32"/>
         <v>6622800</v>
       </c>
-      <c r="H153" s="96">
+      <c r="H153" s="81">
         <f t="shared" si="31"/>
         <v>6898750</v>
       </c>
-      <c r="K153" s="96">
+      <c r="K153" s="81">
         <f t="shared" si="33"/>
         <v>-5519000</v>
       </c>
-      <c r="O153" s="150"/>
-    </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B154" s="55" t="s">
-        <v>379</v>
+      <c r="O153" s="134"/>
+    </row>
+    <row r="154" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="42" t="s">
+        <v>366</v>
       </c>
       <c r="C154" s="3">
         <v>7200000</v>
@@ -8160,33 +7946,33 @@
         <f>2876000/4</f>
         <v>719000</v>
       </c>
-      <c r="F154" s="96">
+      <c r="F154" s="81">
         <f t="shared" si="30"/>
         <v>7919000</v>
       </c>
-      <c r="G154" s="96">
+      <c r="G154" s="81">
         <f t="shared" si="32"/>
         <v>9502800</v>
       </c>
-      <c r="H154" s="96">
+      <c r="H154" s="81">
         <f t="shared" si="31"/>
         <v>9898750</v>
       </c>
       <c r="I154" s="3">
         <v>13000000</v>
       </c>
-      <c r="K154" s="96">
+      <c r="K154" s="81">
         <f t="shared" si="33"/>
         <v>5081000</v>
       </c>
       <c r="L154" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="O154" s="151"/>
-    </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B155" s="55" t="s">
-        <v>358</v>
+        <v>375</v>
+      </c>
+      <c r="O154" s="133"/>
+    </row>
+    <row r="155" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="42" t="s">
+        <v>348</v>
       </c>
       <c r="C155" s="3">
         <v>1944000</v>
@@ -8198,11 +7984,11 @@
         <f t="shared" si="30"/>
         <v>2642000</v>
       </c>
-      <c r="G155" s="96">
+      <c r="G155" s="81">
         <f t="shared" si="32"/>
         <v>3170400</v>
       </c>
-      <c r="H155" s="96">
+      <c r="H155" s="81">
         <f t="shared" si="31"/>
         <v>3302500</v>
       </c>
@@ -8214,78 +8000,81 @@
         <v>1358000</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="O155" s="13" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="156" spans="2:16" s="119" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="94" t="s">
-        <v>360</v>
-      </c>
-      <c r="C156" s="118">
+        <v>375</v>
+      </c>
+      <c r="O155" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="156" spans="2:15" s="100" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="79" t="s">
+        <v>350</v>
+      </c>
+      <c r="C156" s="99">
         <v>7658569</v>
       </c>
-      <c r="D156" s="143">
+      <c r="D156" s="120">
         <v>903000</v>
       </c>
-      <c r="E156" s="118"/>
-      <c r="F156" s="118">
+      <c r="E156" s="99"/>
+      <c r="F156" s="99">
         <f t="shared" si="30"/>
         <v>8561569</v>
       </c>
-      <c r="G156" s="96">
+      <c r="G156" s="81">
         <f t="shared" si="32"/>
         <v>10273882.800000001</v>
       </c>
-      <c r="H156" s="145">
+      <c r="H156" s="122">
         <f t="shared" si="31"/>
         <v>10701961.25</v>
       </c>
-      <c r="I156" s="118"/>
-      <c r="J156" s="118"/>
-      <c r="K156" s="118">
+      <c r="I156" s="99"/>
+      <c r="J156" s="99"/>
+      <c r="K156" s="99">
         <f t="shared" si="33"/>
         <v>-8561569</v>
       </c>
-      <c r="O156" s="120" t="s">
-        <v>359</v>
-      </c>
-      <c r="P156" s="121" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B157" s="55" t="s">
-        <v>363</v>
+      <c r="O156" s="101" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="157" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="42" t="s">
+        <v>352</v>
       </c>
       <c r="C157" s="3">
         <v>8280000</v>
       </c>
-      <c r="F157" s="118">
+      <c r="D157" s="3">
+        <v>921000</v>
+      </c>
+      <c r="F157" s="99">
         <f t="shared" si="30"/>
-        <v>8280000</v>
-      </c>
-      <c r="G157" s="96">
+        <v>9201000</v>
+      </c>
+      <c r="G157" s="81">
         <f t="shared" si="32"/>
-        <v>9936000</v>
+        <v>11041200</v>
       </c>
       <c r="H157" s="3">
         <f t="shared" si="31"/>
-        <v>10350000</v>
+        <v>11501250</v>
+      </c>
+      <c r="I157" s="3">
+        <v>10000000</v>
       </c>
       <c r="K157" s="3">
         <f t="shared" si="33"/>
-        <v>-8280000</v>
-      </c>
-      <c r="O157" s="13" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="158" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="55" t="s">
-        <v>366</v>
+        <v>799000</v>
+      </c>
+      <c r="O157" s="9" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="158" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="42" t="s">
+        <v>354</v>
       </c>
       <c r="C158" s="3">
         <v>3675000</v>
@@ -8293,11 +8082,11 @@
       <c r="D158" s="3">
         <v>875000</v>
       </c>
-      <c r="F158" s="118">
+      <c r="F158" s="99">
         <f t="shared" si="30"/>
         <v>4550000</v>
       </c>
-      <c r="G158" s="96">
+      <c r="G158" s="81">
         <f t="shared" si="32"/>
         <v>5460000</v>
       </c>
@@ -8313,296 +8102,290 @@
         <v>1150000</v>
       </c>
       <c r="L158" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O158" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="P158" s="4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="159" spans="2:16" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="124" t="s">
-        <v>368</v>
-      </c>
-      <c r="C159" s="32">
+        <v>88</v>
+      </c>
+      <c r="O158" s="9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="159" spans="2:15" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="104" t="s">
+        <v>356</v>
+      </c>
+      <c r="C159" s="24">
         <v>8400000</v>
       </c>
-      <c r="D159" s="32">
+      <c r="D159" s="24">
         <v>819000</v>
       </c>
-      <c r="E159" s="32"/>
-      <c r="F159" s="32">
+      <c r="E159" s="24"/>
+      <c r="F159" s="24">
         <f t="shared" si="30"/>
         <v>9219000</v>
       </c>
-      <c r="G159" s="146">
+      <c r="G159" s="123">
         <f t="shared" si="32"/>
         <v>11062800</v>
       </c>
-      <c r="H159" s="32">
+      <c r="H159" s="24">
         <f t="shared" si="31"/>
         <v>11523750</v>
       </c>
-      <c r="I159" s="32">
+      <c r="I159" s="24">
         <v>12500000</v>
       </c>
-      <c r="J159" s="32"/>
-      <c r="K159" s="32">
+      <c r="J159" s="24"/>
+      <c r="K159" s="24">
         <f t="shared" si="33"/>
         <v>3281000</v>
       </c>
-      <c r="L159" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="O159" s="152" t="s">
-        <v>367</v>
-      </c>
-      <c r="P159" s="35"/>
-    </row>
-    <row r="160" spans="2:16" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="124" t="s">
-        <v>331</v>
-      </c>
-      <c r="C160" s="32">
+      <c r="L159" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="O159" s="135" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="160" spans="2:15" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="104" t="s">
+        <v>321</v>
+      </c>
+      <c r="C160" s="24">
         <f>10800000/5</f>
         <v>2160000</v>
       </c>
-      <c r="D160" s="32">
+      <c r="D160" s="24">
         <v>819000</v>
       </c>
-      <c r="E160" s="32"/>
-      <c r="F160" s="32">
+      <c r="E160" s="24"/>
+      <c r="F160" s="24">
         <f t="shared" si="30"/>
         <v>2979000</v>
       </c>
-      <c r="G160" s="146">
+      <c r="G160" s="123">
         <f t="shared" si="32"/>
         <v>3574800</v>
       </c>
-      <c r="H160" s="32">
+      <c r="H160" s="24">
         <f t="shared" si="31"/>
         <v>3723750</v>
       </c>
-      <c r="I160" s="32">
+      <c r="I160" s="24">
         <v>6000000</v>
       </c>
-      <c r="J160" s="32"/>
-      <c r="K160" s="32">
+      <c r="J160" s="24"/>
+      <c r="K160" s="24">
         <f t="shared" si="33"/>
         <v>3021000</v>
       </c>
-      <c r="L160" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="O160" s="153"/>
-      <c r="P160" s="35"/>
-    </row>
-    <row r="161" spans="2:16" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="124" t="s">
-        <v>331</v>
-      </c>
-      <c r="C161" s="32">
+      <c r="L160" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="O160" s="136"/>
+    </row>
+    <row r="161" spans="2:16" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="104" t="s">
+        <v>321</v>
+      </c>
+      <c r="C161" s="24">
         <f>10800000/5</f>
         <v>2160000</v>
       </c>
-      <c r="D161" s="32">
+      <c r="D161" s="24">
         <v>819000</v>
       </c>
-      <c r="E161" s="32"/>
-      <c r="F161" s="32">
+      <c r="E161" s="24"/>
+      <c r="F161" s="24">
         <f t="shared" ref="F161:F162" si="35">C161+D161+E161</f>
         <v>2979000</v>
       </c>
-      <c r="G161" s="146">
+      <c r="G161" s="123">
         <f t="shared" ref="G161:G162" si="36">(F161*20%)+F161</f>
         <v>3574800</v>
       </c>
-      <c r="H161" s="32">
+      <c r="H161" s="24">
         <f t="shared" ref="H161:H162" si="37">(F161*25%)+F161</f>
         <v>3723750</v>
       </c>
-      <c r="I161" s="32">
+      <c r="I161" s="24">
         <v>6000000</v>
       </c>
-      <c r="J161" s="32"/>
-      <c r="K161" s="32">
+      <c r="J161" s="24"/>
+      <c r="K161" s="24">
         <f t="shared" ref="K161:K162" si="38">I161-J161-F161</f>
         <v>3021000</v>
       </c>
-      <c r="L161" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="O161" s="147"/>
-      <c r="P161" s="35"/>
-    </row>
-    <row r="162" spans="2:16" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="124" t="s">
-        <v>331</v>
-      </c>
-      <c r="C162" s="32">
+      <c r="L161" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="O161" s="124"/>
+    </row>
+    <row r="162" spans="2:16" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="104" t="s">
+        <v>321</v>
+      </c>
+      <c r="C162" s="24">
         <f t="shared" ref="C162:C164" si="39">10800000/5</f>
         <v>2160000</v>
       </c>
-      <c r="D162" s="32">
+      <c r="D162" s="24">
         <v>819000</v>
       </c>
-      <c r="E162" s="32"/>
-      <c r="F162" s="32">
+      <c r="E162" s="24"/>
+      <c r="F162" s="24">
         <f t="shared" si="35"/>
         <v>2979000</v>
       </c>
-      <c r="G162" s="146">
+      <c r="G162" s="123">
         <f t="shared" si="36"/>
         <v>3574800</v>
       </c>
-      <c r="H162" s="32">
+      <c r="H162" s="24">
         <f t="shared" si="37"/>
         <v>3723750</v>
       </c>
-      <c r="I162" s="32">
+      <c r="I162" s="24">
         <v>6000000</v>
       </c>
-      <c r="J162" s="32"/>
-      <c r="K162" s="32">
+      <c r="J162" s="24"/>
+      <c r="K162" s="24">
         <f t="shared" si="38"/>
         <v>3021000</v>
       </c>
-      <c r="L162" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="O162" s="147"/>
-      <c r="P162" s="35"/>
-    </row>
-    <row r="163" spans="2:16" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="124" t="s">
-        <v>331</v>
-      </c>
-      <c r="C163" s="32">
+      <c r="L162" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="O162" s="124"/>
+    </row>
+    <row r="163" spans="2:16" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="104" t="s">
+        <v>321</v>
+      </c>
+      <c r="C163" s="24">
         <f t="shared" si="39"/>
         <v>2160000</v>
       </c>
-      <c r="D163" s="32">
+      <c r="D163" s="24">
         <v>819000</v>
       </c>
-      <c r="E163" s="32"/>
-      <c r="F163" s="32">
+      <c r="E163" s="24"/>
+      <c r="F163" s="24">
         <f t="shared" ref="F163" si="40">C163+D163+E163</f>
         <v>2979000</v>
       </c>
-      <c r="G163" s="146">
+      <c r="G163" s="123">
         <f t="shared" ref="G163" si="41">(F163*20%)+F163</f>
         <v>3574800</v>
       </c>
-      <c r="H163" s="32">
+      <c r="H163" s="24">
         <f t="shared" ref="H163" si="42">(F163*25%)+F163</f>
         <v>3723750</v>
       </c>
-      <c r="I163" s="32">
+      <c r="I163" s="24">
         <v>6000000</v>
       </c>
-      <c r="J163" s="32"/>
-      <c r="K163" s="32">
+      <c r="J163" s="24"/>
+      <c r="K163" s="24">
         <f t="shared" ref="K163" si="43">I163-J163-F163</f>
         <v>3021000</v>
       </c>
-      <c r="L163" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="O163" s="147"/>
-      <c r="P163" s="35"/>
-    </row>
-    <row r="164" spans="2:16" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="124" t="s">
-        <v>331</v>
-      </c>
-      <c r="C164" s="32">
+      <c r="L163" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="O163" s="124"/>
+    </row>
+    <row r="164" spans="2:16" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="104" t="s">
+        <v>321</v>
+      </c>
+      <c r="C164" s="24">
         <f t="shared" si="39"/>
         <v>2160000</v>
       </c>
-      <c r="D164" s="32">
+      <c r="D164" s="24">
         <v>819000</v>
       </c>
-      <c r="E164" s="32"/>
-      <c r="F164" s="32">
+      <c r="E164" s="24"/>
+      <c r="F164" s="24">
         <f t="shared" ref="F164" si="44">C164+D164+E164</f>
         <v>2979000</v>
       </c>
-      <c r="G164" s="146">
+      <c r="G164" s="123">
         <f t="shared" ref="G164" si="45">(F164*20%)+F164</f>
         <v>3574800</v>
       </c>
-      <c r="H164" s="32">
+      <c r="H164" s="24">
         <f t="shared" ref="H164" si="46">(F164*25%)+F164</f>
         <v>3723750</v>
       </c>
-      <c r="I164" s="32">
+      <c r="I164" s="24">
         <v>6000000</v>
       </c>
-      <c r="J164" s="32"/>
-      <c r="K164" s="32">
+      <c r="J164" s="24"/>
+      <c r="K164" s="24">
         <f t="shared" ref="K164" si="47">I164-J164-F164</f>
         <v>3021000</v>
       </c>
-      <c r="L164" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="O164" s="147"/>
-      <c r="P164" s="35"/>
-    </row>
-    <row r="165" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="124">
+      <c r="L164" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="O164" s="124"/>
+    </row>
+    <row r="165" spans="2:16" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="104">
         <v>7410</v>
       </c>
-      <c r="C165" s="32">
+      <c r="C165" s="24">
         <v>2640000</v>
       </c>
-      <c r="D165" s="32">
+      <c r="D165" s="24">
         <v>819000</v>
       </c>
-      <c r="E165" s="32"/>
-      <c r="F165" s="32">
+      <c r="E165" s="24">
+        <v>300000</v>
+      </c>
+      <c r="F165" s="24">
         <f t="shared" si="30"/>
-        <v>3459000</v>
-      </c>
-      <c r="G165" s="146">
+        <v>3759000</v>
+      </c>
+      <c r="G165" s="123">
         <f t="shared" si="32"/>
-        <v>4150800</v>
-      </c>
-      <c r="H165" s="32">
+        <v>4510800</v>
+      </c>
+      <c r="H165" s="24">
         <f t="shared" si="31"/>
-        <v>4323750</v>
-      </c>
-      <c r="I165" s="32"/>
-      <c r="J165" s="32"/>
-      <c r="K165" s="32">
+        <v>4698750</v>
+      </c>
+      <c r="I165" s="24">
+        <v>6800000</v>
+      </c>
+      <c r="J165" s="24"/>
+      <c r="K165" s="24">
         <f t="shared" si="33"/>
-        <v>-3459000</v>
-      </c>
-      <c r="O165" s="34" t="s">
+        <v>3041000</v>
+      </c>
+      <c r="O165" s="26" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="166" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B166" s="42" t="s">
         <v>369</v>
-      </c>
-      <c r="P165" s="35"/>
-    </row>
-    <row r="166" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B166" s="55" t="s">
-        <v>382</v>
       </c>
       <c r="C166" s="3">
         <v>6615000</v>
       </c>
-      <c r="D166" s="102">
+      <c r="D166" s="86">
         <v>545000</v>
       </c>
       <c r="E166" s="3">
         <v>2700000</v>
       </c>
-      <c r="F166" s="118">
+      <c r="F166" s="99">
         <f t="shared" si="30"/>
         <v>9860000</v>
       </c>
-      <c r="G166" s="96">
+      <c r="G166" s="81">
         <f t="shared" si="32"/>
         <v>11832000</v>
       </c>
@@ -8614,13 +8397,13 @@
         <f t="shared" si="33"/>
         <v>-9860000</v>
       </c>
-      <c r="O166" s="13" t="s">
-        <v>381</v>
+      <c r="O166" s="9" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="167" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="55" t="s">
-        <v>371</v>
+      <c r="B167" s="42" t="s">
+        <v>359</v>
       </c>
       <c r="C167" s="3">
         <v>7680000</v>
@@ -8628,11 +8411,11 @@
       <c r="D167" s="2">
         <v>760000</v>
       </c>
-      <c r="F167" s="118">
+      <c r="F167" s="99">
         <f>C167+D166+E167</f>
         <v>8225000</v>
       </c>
-      <c r="G167" s="96">
+      <c r="G167" s="81">
         <f t="shared" si="32"/>
         <v>9870000</v>
       </c>
@@ -8648,28 +8431,28 @@
         <v>2175000</v>
       </c>
       <c r="L167" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="O167" s="13" t="s">
-        <v>370</v>
+        <v>167</v>
+      </c>
+      <c r="O167" s="9" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="168" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="55" t="s">
-        <v>374</v>
+      <c r="B168" s="42" t="s">
+        <v>361</v>
       </c>
       <c r="C168" s="3">
         <v>1960000</v>
       </c>
-      <c r="D168" s="18">
+      <c r="D168" s="13">
         <f>3156000/5</f>
         <v>631200</v>
       </c>
-      <c r="F168" s="118">
+      <c r="F168" s="99">
         <f t="shared" si="30"/>
         <v>2591200</v>
       </c>
-      <c r="G168" s="96">
+      <c r="G168" s="81">
         <f t="shared" si="32"/>
         <v>3109440</v>
       </c>
@@ -8684,26 +8467,26 @@
         <f t="shared" si="33"/>
         <v>1608800</v>
       </c>
-      <c r="O168" s="149" t="s">
-        <v>375</v>
+      <c r="O168" s="132" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="169" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="55" t="s">
-        <v>374</v>
+      <c r="B169" s="42" t="s">
+        <v>361</v>
       </c>
       <c r="C169" s="3">
         <v>1960000</v>
       </c>
-      <c r="D169" s="18">
+      <c r="D169" s="13">
         <f t="shared" ref="D169:D172" si="48">3156000/5</f>
         <v>631200</v>
       </c>
-      <c r="F169" s="118">
+      <c r="F169" s="99">
         <f t="shared" si="30"/>
         <v>2591200</v>
       </c>
-      <c r="G169" s="96">
+      <c r="G169" s="81">
         <f t="shared" si="32"/>
         <v>3109440</v>
       </c>
@@ -8718,24 +8501,24 @@
         <f t="shared" si="33"/>
         <v>1608800</v>
       </c>
-      <c r="O169" s="150"/>
-    </row>
-    <row r="170" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B170" s="55" t="s">
-        <v>374</v>
+      <c r="O169" s="134"/>
+    </row>
+    <row r="170" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="42" t="s">
+        <v>361</v>
       </c>
       <c r="C170" s="3">
         <v>1960000</v>
       </c>
-      <c r="D170" s="18">
+      <c r="D170" s="13">
         <f t="shared" si="48"/>
         <v>631200</v>
       </c>
-      <c r="F170" s="118">
+      <c r="F170" s="99">
         <f t="shared" si="30"/>
         <v>2591200</v>
       </c>
-      <c r="G170" s="96">
+      <c r="G170" s="81">
         <f t="shared" si="32"/>
         <v>3109440</v>
       </c>
@@ -8743,28 +8526,31 @@
         <f t="shared" si="31"/>
         <v>3239000</v>
       </c>
+      <c r="I170" s="3">
+        <v>4500000</v>
+      </c>
       <c r="K170" s="3">
         <f t="shared" si="33"/>
-        <v>-2591200</v>
-      </c>
-      <c r="O170" s="150"/>
-    </row>
-    <row r="171" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B171" s="55" t="s">
-        <v>374</v>
+        <v>1908800</v>
+      </c>
+      <c r="O170" s="134"/>
+    </row>
+    <row r="171" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="42" t="s">
+        <v>361</v>
       </c>
       <c r="C171" s="3">
         <v>1960000</v>
       </c>
-      <c r="D171" s="18">
+      <c r="D171" s="13">
         <f t="shared" si="48"/>
         <v>631200</v>
       </c>
-      <c r="F171" s="118">
+      <c r="F171" s="99">
         <f t="shared" si="30"/>
         <v>2591200</v>
       </c>
-      <c r="G171" s="96">
+      <c r="G171" s="81">
         <f t="shared" si="32"/>
         <v>3109440</v>
       </c>
@@ -8772,28 +8558,31 @@
         <f t="shared" si="31"/>
         <v>3239000</v>
       </c>
+      <c r="I171" s="3">
+        <v>4500000</v>
+      </c>
       <c r="K171" s="3">
         <f t="shared" si="33"/>
-        <v>-2591200</v>
-      </c>
-      <c r="O171" s="150"/>
+        <v>1908800</v>
+      </c>
+      <c r="O171" s="134"/>
     </row>
     <row r="172" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B172" s="55" t="s">
-        <v>374</v>
+      <c r="B172" s="42" t="s">
+        <v>361</v>
       </c>
       <c r="C172" s="3">
         <v>1960000</v>
       </c>
-      <c r="D172" s="18">
+      <c r="D172" s="13">
         <f t="shared" si="48"/>
         <v>631200</v>
       </c>
-      <c r="F172" s="118">
+      <c r="F172" s="99">
         <f t="shared" si="30"/>
         <v>2591200</v>
       </c>
-      <c r="G172" s="96">
+      <c r="G172" s="81">
         <f t="shared" si="32"/>
         <v>3109440</v>
       </c>
@@ -8801,24 +8590,27 @@
         <f t="shared" si="31"/>
         <v>3239000</v>
       </c>
+      <c r="I172" s="3">
+        <v>4500000</v>
+      </c>
       <c r="K172" s="3">
         <f t="shared" si="33"/>
-        <v>-2591200</v>
-      </c>
-      <c r="O172" s="151"/>
+        <v>1908800</v>
+      </c>
+      <c r="O172" s="133"/>
     </row>
     <row r="173" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B173" s="55" t="s">
-        <v>376</v>
+      <c r="B173" s="42" t="s">
+        <v>363</v>
       </c>
       <c r="C173" s="3">
         <v>2205000</v>
       </c>
-      <c r="F173" s="118">
+      <c r="F173" s="99">
         <f t="shared" si="30"/>
         <v>2205000</v>
       </c>
-      <c r="G173" s="96">
+      <c r="G173" s="81">
         <f t="shared" si="32"/>
         <v>2646000</v>
       </c>
@@ -8830,19 +8622,25 @@
         <f t="shared" si="33"/>
         <v>-2205000</v>
       </c>
+      <c r="O173" s="132" t="s">
+        <v>384</v>
+      </c>
+      <c r="P173" s="141">
+        <v>735</v>
+      </c>
     </row>
     <row r="174" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B174" s="55" t="s">
-        <v>376</v>
+      <c r="B174" s="42" t="s">
+        <v>363</v>
       </c>
       <c r="C174" s="3">
         <v>2205000</v>
       </c>
-      <c r="F174" s="118">
+      <c r="F174" s="99">
         <f t="shared" si="30"/>
         <v>2205000</v>
       </c>
-      <c r="G174" s="96">
+      <c r="G174" s="81">
         <f t="shared" si="32"/>
         <v>2646000</v>
       </c>
@@ -8854,19 +8652,21 @@
         <f t="shared" si="33"/>
         <v>-2205000</v>
       </c>
+      <c r="O174" s="134"/>
+      <c r="P174" s="142"/>
     </row>
     <row r="175" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B175" s="55" t="s">
-        <v>378</v>
+      <c r="B175" s="42" t="s">
+        <v>365</v>
       </c>
       <c r="C175" s="3">
         <v>1715000</v>
       </c>
-      <c r="F175" s="118">
+      <c r="F175" s="99">
         <f t="shared" si="30"/>
         <v>1715000</v>
       </c>
-      <c r="G175" s="96">
+      <c r="G175" s="81">
         <f t="shared" si="32"/>
         <v>2058000</v>
       </c>
@@ -8878,20 +8678,22 @@
         <f t="shared" si="33"/>
         <v>-1715000</v>
       </c>
+      <c r="O175" s="134"/>
+      <c r="P175" s="142"/>
     </row>
     <row r="176" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B176" s="55" t="s">
-        <v>379</v>
+      <c r="B176" s="42" t="s">
+        <v>366</v>
       </c>
       <c r="C176" s="3">
         <v>6125000</v>
       </c>
-      <c r="D176" s="132"/>
-      <c r="F176" s="118">
+      <c r="D176" s="111"/>
+      <c r="F176" s="99">
         <f t="shared" si="30"/>
         <v>6125000</v>
       </c>
-      <c r="G176" s="96">
+      <c r="G176" s="81">
         <f t="shared" si="32"/>
         <v>7350000</v>
       </c>
@@ -8903,19 +8705,21 @@
         <f t="shared" si="33"/>
         <v>-6125000</v>
       </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B177" s="55" t="s">
-        <v>380</v>
+      <c r="O176" s="134"/>
+      <c r="P176" s="142"/>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B177" s="42" t="s">
+        <v>367</v>
       </c>
       <c r="C177" s="3">
         <v>7350000</v>
       </c>
-      <c r="F177" s="118">
+      <c r="F177" s="99">
         <f t="shared" si="30"/>
         <v>7350000</v>
       </c>
-      <c r="G177" s="96">
+      <c r="G177" s="81">
         <f t="shared" si="32"/>
         <v>8820000</v>
       </c>
@@ -8927,19 +8731,21 @@
         <f t="shared" si="33"/>
         <v>-7350000</v>
       </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B178" s="55" t="s">
-        <v>386</v>
+      <c r="O177" s="133"/>
+      <c r="P177" s="143"/>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B178" s="42" t="s">
+        <v>373</v>
       </c>
       <c r="C178" s="3">
         <v>5397000</v>
       </c>
-      <c r="F178" s="118">
+      <c r="F178" s="99">
         <f t="shared" si="30"/>
         <v>5397000</v>
       </c>
-      <c r="G178" s="96">
+      <c r="G178" s="81">
         <f t="shared" si="32"/>
         <v>6476400</v>
       </c>
@@ -8951,208 +8757,550 @@
         <f t="shared" si="33"/>
         <v>-5397000</v>
       </c>
-      <c r="O178" s="13" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B179" s="55" t="s">
-        <v>383</v>
-      </c>
-      <c r="C179" s="148" t="s">
-        <v>388</v>
-      </c>
-      <c r="F179" s="118" t="e">
+      <c r="O178" s="9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B179" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="C179" s="125">
+        <v>1211798</v>
+      </c>
+      <c r="D179" s="3">
+        <v>23000</v>
+      </c>
+      <c r="F179" s="99">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G179" s="96" t="e">
+        <v>1234798</v>
+      </c>
+      <c r="G179" s="81">
         <f t="shared" si="32"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H179" s="3" t="e">
+        <v>1481757.6</v>
+      </c>
+      <c r="H179" s="3">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K179" s="3" t="e">
+        <v>1543497.5</v>
+      </c>
+      <c r="K179" s="3">
         <f t="shared" si="33"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O179" s="13" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="55" t="s">
-        <v>385</v>
+        <v>-1234798</v>
+      </c>
+      <c r="O179" s="9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="42" t="s">
+        <v>372</v>
       </c>
       <c r="C180" s="3">
         <v>2520000</v>
       </c>
-      <c r="D180" s="136">
+      <c r="D180" s="114">
         <v>92000</v>
+      </c>
+      <c r="F180" s="99">
+        <f t="shared" si="30"/>
+        <v>2612000</v>
       </c>
       <c r="H180" s="3">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A181" s="158"/>
-      <c r="B181" s="163" t="s">
-        <v>393</v>
-      </c>
-      <c r="C181" s="159">
+        <v>3265000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A181" s="126"/>
+      <c r="B181" s="128" t="s">
+        <v>379</v>
+      </c>
+      <c r="C181" s="127">
         <v>2125000</v>
       </c>
-      <c r="D181" s="159"/>
-      <c r="E181" s="159"/>
-      <c r="F181" s="159"/>
-      <c r="G181" s="159"/>
-      <c r="H181" s="159">
+      <c r="D181" s="127"/>
+      <c r="E181" s="127"/>
+      <c r="F181" s="127"/>
+      <c r="G181" s="127"/>
+      <c r="H181" s="127">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="I181" s="159"/>
-      <c r="J181" s="159"/>
-      <c r="K181" s="159"/>
-      <c r="L181" s="158"/>
-      <c r="M181" s="158"/>
-      <c r="N181" s="158"/>
-      <c r="O181" s="160" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A182" s="158"/>
-      <c r="B182" s="163" t="s">
-        <v>393</v>
-      </c>
-      <c r="C182" s="159">
+      <c r="I181" s="127"/>
+      <c r="J181" s="127"/>
+      <c r="K181" s="127"/>
+      <c r="L181" s="126"/>
+      <c r="M181" s="126"/>
+      <c r="N181" s="126"/>
+      <c r="O181" s="129" t="s">
+        <v>378</v>
+      </c>
+      <c r="P181" s="141">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A182" s="126"/>
+      <c r="B182" s="128" t="s">
+        <v>379</v>
+      </c>
+      <c r="C182" s="127">
         <v>2125000</v>
       </c>
-      <c r="D182" s="159"/>
-      <c r="E182" s="159"/>
-      <c r="F182" s="159"/>
-      <c r="G182" s="159"/>
-      <c r="H182" s="159"/>
-      <c r="I182" s="159"/>
-      <c r="J182" s="159"/>
-      <c r="K182" s="159"/>
-      <c r="L182" s="158"/>
-      <c r="M182" s="158"/>
-      <c r="N182" s="158"/>
-      <c r="O182" s="161"/>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A183" s="158"/>
-      <c r="B183" s="163" t="s">
-        <v>393</v>
-      </c>
-      <c r="C183" s="159">
+      <c r="D182" s="127"/>
+      <c r="E182" s="127"/>
+      <c r="F182" s="127"/>
+      <c r="G182" s="127"/>
+      <c r="H182" s="127"/>
+      <c r="I182" s="127"/>
+      <c r="J182" s="127"/>
+      <c r="K182" s="127"/>
+      <c r="L182" s="126"/>
+      <c r="M182" s="126"/>
+      <c r="N182" s="126"/>
+      <c r="O182" s="130"/>
+      <c r="P182" s="142"/>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A183" s="126"/>
+      <c r="B183" s="128" t="s">
+        <v>379</v>
+      </c>
+      <c r="C183" s="127">
         <v>2125000</v>
       </c>
-      <c r="D183" s="159"/>
-      <c r="E183" s="159"/>
-      <c r="F183" s="159"/>
-      <c r="G183" s="159"/>
-      <c r="H183" s="159"/>
-      <c r="I183" s="159"/>
-      <c r="J183" s="159"/>
-      <c r="K183" s="159"/>
-      <c r="L183" s="158"/>
-      <c r="M183" s="158"/>
-      <c r="N183" s="158"/>
-      <c r="O183" s="161"/>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A184" s="158"/>
-      <c r="B184" s="163" t="s">
-        <v>393</v>
-      </c>
-      <c r="C184" s="159">
+      <c r="D183" s="127"/>
+      <c r="E183" s="127"/>
+      <c r="F183" s="127"/>
+      <c r="G183" s="127"/>
+      <c r="H183" s="127"/>
+      <c r="I183" s="127"/>
+      <c r="J183" s="127"/>
+      <c r="K183" s="127"/>
+      <c r="L183" s="126"/>
+      <c r="M183" s="126"/>
+      <c r="N183" s="126"/>
+      <c r="O183" s="130"/>
+      <c r="P183" s="142"/>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A184" s="126"/>
+      <c r="B184" s="128" t="s">
+        <v>379</v>
+      </c>
+      <c r="C184" s="127">
         <v>2125000</v>
       </c>
-      <c r="D184" s="159"/>
-      <c r="E184" s="159"/>
-      <c r="F184" s="159"/>
-      <c r="G184" s="159"/>
-      <c r="H184" s="159"/>
-      <c r="I184" s="159"/>
-      <c r="J184" s="159"/>
-      <c r="K184" s="159"/>
-      <c r="L184" s="158"/>
-      <c r="M184" s="158"/>
-      <c r="N184" s="158"/>
-      <c r="O184" s="161"/>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A185" s="158"/>
-      <c r="B185" s="163">
+      <c r="D184" s="127"/>
+      <c r="E184" s="127"/>
+      <c r="F184" s="127"/>
+      <c r="G184" s="127"/>
+      <c r="H184" s="127"/>
+      <c r="I184" s="127"/>
+      <c r="J184" s="127"/>
+      <c r="K184" s="127"/>
+      <c r="L184" s="126"/>
+      <c r="M184" s="126"/>
+      <c r="N184" s="126"/>
+      <c r="O184" s="130"/>
+      <c r="P184" s="142"/>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A185" s="126"/>
+      <c r="B185" s="128">
         <v>7540</v>
       </c>
-      <c r="C185" s="159">
+      <c r="C185" s="127">
         <v>7500000</v>
       </c>
-      <c r="D185" s="159"/>
-      <c r="E185" s="159"/>
-      <c r="F185" s="159"/>
-      <c r="G185" s="159"/>
-      <c r="H185" s="159"/>
-      <c r="I185" s="159"/>
-      <c r="J185" s="159"/>
-      <c r="K185" s="159"/>
-      <c r="L185" s="158"/>
-      <c r="M185" s="158"/>
-      <c r="N185" s="158"/>
-      <c r="O185" s="162"/>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B186" s="55" t="s">
-        <v>394</v>
+      <c r="D185" s="127"/>
+      <c r="E185" s="127"/>
+      <c r="F185" s="127"/>
+      <c r="G185" s="127"/>
+      <c r="H185" s="127"/>
+      <c r="I185" s="127"/>
+      <c r="J185" s="127"/>
+      <c r="K185" s="127"/>
+      <c r="L185" s="126"/>
+      <c r="M185" s="126"/>
+      <c r="N185" s="126"/>
+      <c r="O185" s="131"/>
+      <c r="P185" s="143"/>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B186" s="42" t="s">
+        <v>380</v>
       </c>
       <c r="C186" s="3">
         <v>4150000</v>
       </c>
-      <c r="O186" s="149" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B187" s="55" t="s">
-        <v>394</v>
+      <c r="O186" s="132" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B187" s="42" t="s">
+        <v>380</v>
       </c>
       <c r="C187" s="3">
         <v>4150000</v>
       </c>
-      <c r="D187" s="32"/>
-      <c r="O187" s="151"/>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B188" s="55" t="s">
-        <v>396</v>
+      <c r="D187" s="24"/>
+      <c r="O187" s="133"/>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B188" s="42" t="s">
+        <v>382</v>
       </c>
       <c r="C188" s="3">
         <v>7395000</v>
       </c>
-      <c r="D188" s="32"/>
+      <c r="D188" s="24"/>
+      <c r="O188" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B189" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="C189" s="7"/>
+      <c r="D189" s="7"/>
+      <c r="E189" s="7"/>
+      <c r="F189" s="7"/>
+      <c r="G189" s="7"/>
+      <c r="H189" s="7"/>
+      <c r="I189" s="7"/>
+      <c r="J189" s="7"/>
+      <c r="K189" s="7"/>
+      <c r="O189" s="144" t="s">
+        <v>389</v>
+      </c>
+      <c r="P189" s="145">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="C190" s="7"/>
+      <c r="D190" s="7"/>
+      <c r="E190" s="7"/>
+      <c r="F190" s="7"/>
+      <c r="G190" s="7"/>
+      <c r="H190" s="7"/>
+      <c r="I190" s="7"/>
+      <c r="J190" s="7"/>
+      <c r="K190" s="7"/>
+      <c r="O190" s="146"/>
+      <c r="P190" s="147"/>
+    </row>
+    <row r="191" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="C191" s="7"/>
+      <c r="D191" s="7"/>
+      <c r="E191" s="7"/>
+      <c r="F191" s="7"/>
+      <c r="G191" s="7"/>
+      <c r="H191" s="7"/>
+      <c r="I191" s="7"/>
+      <c r="J191" s="7"/>
+      <c r="K191" s="7"/>
+      <c r="O191" s="146"/>
+      <c r="P191" s="147"/>
+    </row>
+    <row r="192" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="C192" s="7"/>
+      <c r="D192" s="7"/>
+      <c r="E192" s="7"/>
+      <c r="F192" s="7"/>
+      <c r="G192" s="7"/>
+      <c r="H192" s="7"/>
+      <c r="I192" s="7"/>
+      <c r="J192" s="7"/>
+      <c r="K192" s="7"/>
+      <c r="O192" s="146"/>
+      <c r="P192" s="147"/>
+    </row>
+    <row r="193" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B193" s="43" t="s">
+        <v>388</v>
+      </c>
+      <c r="C193" s="7"/>
+      <c r="D193" s="7"/>
+      <c r="E193" s="7"/>
+      <c r="F193" s="7"/>
+      <c r="G193" s="7"/>
+      <c r="H193" s="7"/>
+      <c r="I193" s="7"/>
+      <c r="J193" s="7"/>
+      <c r="K193" s="7"/>
+      <c r="O193" s="148"/>
+      <c r="P193" s="149"/>
+    </row>
+    <row r="194" spans="2:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B194" s="150" t="s">
+        <v>392</v>
+      </c>
+      <c r="C194" s="39">
+        <f>P194*25000</f>
+        <v>2250000</v>
+      </c>
+      <c r="D194" s="39"/>
+      <c r="E194" s="39"/>
+      <c r="F194" s="39"/>
+      <c r="G194" s="39"/>
+      <c r="H194" s="39"/>
+      <c r="I194" s="39"/>
+      <c r="J194" s="39"/>
+      <c r="K194" s="39"/>
+      <c r="O194" s="151" t="s">
+        <v>391</v>
+      </c>
+      <c r="P194" s="152">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="195" spans="2:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B195" s="150" t="s">
+        <v>393</v>
+      </c>
+      <c r="C195" s="39">
+        <f t="shared" ref="C195:C204" si="49">P195*25000</f>
+        <v>2750000</v>
+      </c>
+      <c r="D195" s="39"/>
+      <c r="E195" s="39"/>
+      <c r="F195" s="39"/>
+      <c r="G195" s="39"/>
+      <c r="H195" s="39"/>
+      <c r="I195" s="39"/>
+      <c r="J195" s="39"/>
+      <c r="K195" s="39"/>
+      <c r="O195" s="153"/>
+      <c r="P195" s="152">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="196" spans="2:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B196" s="150" t="s">
+        <v>394</v>
+      </c>
+      <c r="C196" s="39">
+        <f t="shared" si="49"/>
+        <v>4250000</v>
+      </c>
+      <c r="D196" s="39"/>
+      <c r="E196" s="39"/>
+      <c r="F196" s="39"/>
+      <c r="G196" s="39"/>
+      <c r="H196" s="39"/>
+      <c r="I196" s="39"/>
+      <c r="J196" s="39"/>
+      <c r="K196" s="39"/>
+      <c r="O196" s="153"/>
+      <c r="P196" s="152">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="197" spans="2:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B197" s="150" t="s">
+        <v>395</v>
+      </c>
+      <c r="C197" s="39">
+        <f t="shared" si="49"/>
+        <v>2250000</v>
+      </c>
+      <c r="D197" s="39"/>
+      <c r="E197" s="39"/>
+      <c r="F197" s="39"/>
+      <c r="G197" s="39"/>
+      <c r="H197" s="39"/>
+      <c r="I197" s="39"/>
+      <c r="J197" s="39"/>
+      <c r="K197" s="39"/>
+      <c r="O197" s="153"/>
+      <c r="P197" s="152">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="198" spans="2:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B198" s="150" t="s">
+        <v>396</v>
+      </c>
+      <c r="C198" s="39">
+        <f t="shared" si="49"/>
+        <v>1625000</v>
+      </c>
+      <c r="D198" s="39"/>
+      <c r="E198" s="39"/>
+      <c r="F198" s="39"/>
+      <c r="G198" s="39"/>
+      <c r="H198" s="39"/>
+      <c r="I198" s="39"/>
+      <c r="J198" s="39"/>
+      <c r="K198" s="39"/>
+      <c r="O198" s="153"/>
+      <c r="P198" s="152">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="199" spans="2:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B199" s="150" t="s">
+        <v>397</v>
+      </c>
+      <c r="C199" s="39">
+        <f t="shared" si="49"/>
+        <v>1625000</v>
+      </c>
+      <c r="D199" s="39"/>
+      <c r="E199" s="39"/>
+      <c r="F199" s="39"/>
+      <c r="G199" s="39"/>
+      <c r="H199" s="39"/>
+      <c r="I199" s="39"/>
+      <c r="J199" s="39"/>
+      <c r="K199" s="39"/>
+      <c r="O199" s="153"/>
+      <c r="P199" s="152">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="200" spans="2:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B200" s="150" t="s">
+        <v>398</v>
+      </c>
+      <c r="C200" s="39">
+        <f t="shared" si="49"/>
+        <v>1875000</v>
+      </c>
+      <c r="D200" s="39"/>
+      <c r="E200" s="39"/>
+      <c r="F200" s="39"/>
+      <c r="G200" s="39"/>
+      <c r="H200" s="39"/>
+      <c r="I200" s="39"/>
+      <c r="J200" s="39"/>
+      <c r="K200" s="39"/>
+      <c r="O200" s="153"/>
+      <c r="P200" s="152">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="201" spans="2:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B201" s="150" t="s">
+        <v>399</v>
+      </c>
+      <c r="C201" s="39">
+        <f t="shared" si="49"/>
+        <v>2750000</v>
+      </c>
+      <c r="D201" s="39"/>
+      <c r="E201" s="39"/>
+      <c r="F201" s="39"/>
+      <c r="G201" s="39"/>
+      <c r="H201" s="39"/>
+      <c r="I201" s="39"/>
+      <c r="J201" s="39"/>
+      <c r="K201" s="39"/>
+      <c r="O201" s="153"/>
+      <c r="P201" s="152">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="202" spans="2:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B202" s="150" t="s">
+        <v>392</v>
+      </c>
+      <c r="C202" s="39">
+        <f t="shared" si="49"/>
+        <v>2000000</v>
+      </c>
+      <c r="D202" s="39"/>
+      <c r="E202" s="39"/>
+      <c r="F202" s="39"/>
+      <c r="G202" s="39"/>
+      <c r="H202" s="39"/>
+      <c r="I202" s="39"/>
+      <c r="J202" s="39"/>
+      <c r="K202" s="39"/>
+      <c r="O202" s="154"/>
+      <c r="P202" s="152">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="203" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B203" s="43">
+        <v>7620</v>
+      </c>
+      <c r="C203" s="39">
+        <f>P203*25000</f>
+        <v>18750000</v>
+      </c>
+      <c r="D203" s="7"/>
+      <c r="E203" s="7"/>
+      <c r="F203" s="7"/>
+      <c r="G203" s="7"/>
+      <c r="H203" s="7"/>
+      <c r="I203" s="7"/>
+      <c r="J203" s="7"/>
+      <c r="K203" s="7"/>
+      <c r="O203" s="144" t="s">
+        <v>400</v>
+      </c>
+      <c r="P203" s="155">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="204" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B204" s="43">
+        <v>7620</v>
+      </c>
+      <c r="C204" s="39">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="D204" s="7"/>
+      <c r="E204" s="7"/>
+      <c r="F204" s="7"/>
+      <c r="G204" s="7"/>
+      <c r="H204" s="7"/>
+      <c r="I204" s="7"/>
+      <c r="J204" s="7"/>
+      <c r="K204" s="7"/>
+      <c r="O204" s="148"/>
+      <c r="P204" s="156"/>
     </row>
   </sheetData>
   <autoFilter ref="L1:L80" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <mergeCells count="10">
+  <mergeCells count="18">
+    <mergeCell ref="O203:O204"/>
+    <mergeCell ref="P203:P204"/>
+    <mergeCell ref="P181:P185"/>
+    <mergeCell ref="P173:P177"/>
+    <mergeCell ref="O189:O193"/>
+    <mergeCell ref="P189:P193"/>
+    <mergeCell ref="O194:O202"/>
+    <mergeCell ref="O72:O74"/>
+    <mergeCell ref="O96:O97"/>
+    <mergeCell ref="O111:O115"/>
+    <mergeCell ref="O118:O122"/>
+    <mergeCell ref="O173:O177"/>
     <mergeCell ref="O181:O185"/>
     <mergeCell ref="O186:O187"/>
     <mergeCell ref="O168:O172"/>
     <mergeCell ref="O148:O150"/>
     <mergeCell ref="O151:O154"/>
     <mergeCell ref="O159:O160"/>
-    <mergeCell ref="O72:O74"/>
-    <mergeCell ref="O96:O97"/>
-    <mergeCell ref="O111:O115"/>
-    <mergeCell ref="O118:O122"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="C2:G2 H2:N17 O2:O22 B2:B25 P2:P25 Q2:Q39 C3:E25 F3:G27 K3:K79 L18:N39 H18:J65 O26:P26 D26:E38 F28 G28:G72 C29:F38 O29:P38 D39:F39 C40:F41 L40:Q41 Q42:Q43 D42:F57 L42:N69 P44:P49 Q50:Q69 E58:F58 D59:F69 I66:J69 H66:H72 D71:F72 I71:J72 L71:N73 Q71:Q78 D73:J78 M74:N74 L75:N78 F102:F125">
+  <conditionalFormatting sqref="C2:G2 H2:N17 O2:O22 B2:B25 C3:E25 F3:G27 K3:K79 L18:N39 H18:J65 O26 D26:E38 F28 G28:G72 C29:F38 O29:O38 D39:F39 C40:F41 L40:O41 D42:F57 L42:N69 E58:F58 D59:F69 I66:J69 H66:H72 D71:F72 I71:J72 L71:N73 D73:J78 M74:N74 L75:N78 F102:F125">
     <cfRule type="expression" dxfId="1" priority="4">
       <formula>MOD(ROW(),2)&gt;0</formula>
     </cfRule>
@@ -9189,19 +9337,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>6</v>
+      <c r="A1" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B2" s="1">
         <v>300000</v>
@@ -9213,7 +9361,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B3" s="1">
         <v>150000</v>
@@ -9225,7 +9373,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B4" s="1">
         <v>150000</v>
@@ -9237,7 +9385,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B5" s="1">
         <v>160000</v>
@@ -9249,7 +9397,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B6" s="1">
         <v>300000</v>
@@ -9261,7 +9409,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B7" s="1">
         <v>600000</v>
@@ -9273,7 +9421,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B8" s="1">
         <v>300000</v>
@@ -9285,7 +9433,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B9">
         <v>250000</v>

--- a/TDStore/NhapXuatLaptop.xlsx
+++ b/TDStore/NhapXuatLaptop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06.TDStore\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFC582C-60B0-4787-8FA8-97CDBB6463B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94C88D0-30E2-4426-8B75-57D02F0F6AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="417">
   <si>
     <t>ID máy</t>
   </si>
@@ -1198,9 +1198,6 @@
     <t>macbook pro 2019 15in 290u</t>
   </si>
   <si>
-    <t>7400 90u</t>
-  </si>
-  <si>
     <t>9405511206216432230718</t>
   </si>
   <si>
@@ -1225,9 +1222,6 @@
     <t>ThinkPad T470</t>
   </si>
   <si>
-    <t xml:space="preserve">ThinkPad X1 Carbon </t>
-  </si>
-  <si>
     <t>ThinkPad X1 Carbon 6th</t>
   </si>
   <si>
@@ -1235,6 +1229,60 @@
   </si>
   <si>
     <t>785979455666</t>
+  </si>
+  <si>
+    <t>ThinkPad X1 Carbon 4th</t>
+  </si>
+  <si>
+    <t>9405511206216554059501</t>
+  </si>
+  <si>
+    <t>9405511206216554069876</t>
+  </si>
+  <si>
+    <t>Macbook</t>
+  </si>
+  <si>
+    <t>9405511206216554060873</t>
+  </si>
+  <si>
+    <t>7550 i9 10885H ram 32 ssd 1T</t>
+  </si>
+  <si>
+    <t>7550 i9 10885H ram 32 ssd 1T dent</t>
+  </si>
+  <si>
+    <t>9405511206216512277459</t>
+  </si>
+  <si>
+    <t>9405511206216512271648</t>
+  </si>
+  <si>
+    <t>786624402930</t>
+  </si>
+  <si>
+    <t>7400 k D</t>
+  </si>
+  <si>
+    <t>9405511206216990759416</t>
+  </si>
+  <si>
+    <t>9405511206216990755760</t>
+  </si>
+  <si>
+    <t>Dell Latitude 9330 i5-12400U 4.4ghz 16gb Ram Xe Grap. (No Bott.Cover,Batt,SSD</t>
+  </si>
+  <si>
+    <t>786625487762</t>
+  </si>
+  <si>
+    <t>Dell XPS 13 9305 15-1135G7 2.4ghz 8gb Ram UHD Graphic (No Batt. Bott.Cover, SSD</t>
+  </si>
+  <si>
+    <t>786624822873</t>
+  </si>
+  <si>
+    <t>7400 75u</t>
   </si>
 </sst>
 </file>
@@ -1243,7 +1291,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -1493,7 +1541,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1561,36 +1609,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1606,64 +1624,30 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1691,39 +1675,17 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="9" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1732,17 +1694,44 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1754,15 +1743,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1771,60 +1751,177 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2267,17 +2364,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P204"/>
+  <dimension ref="A1:P227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D186" sqref="D186"/>
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R209" sqref="R209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="80.42578125" style="42" customWidth="1"/>
+    <col min="2" max="2" width="80.42578125" style="124" customWidth="1"/>
     <col min="3" max="4" width="12.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="11.140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" style="3" customWidth="1"/>
@@ -2290,14 +2387,16 @@
     <col min="13" max="13" width="11.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="27.28515625" style="9" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="2"/>
+    <col min="16" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="9.140625" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="123" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -2344,10 +2443,10 @@
       </c>
     </row>
     <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56">
+      <c r="A2" s="46">
         <v>1</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="124" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
@@ -2376,10 +2475,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56">
+      <c r="A3" s="46">
         <v>2</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="124" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3">
@@ -2408,10 +2507,10 @@
       </c>
     </row>
     <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56">
+      <c r="A4" s="46">
         <v>3</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="124" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3">
@@ -2440,10 +2539,10 @@
       </c>
     </row>
     <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56">
+      <c r="A5" s="46">
         <v>4</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="124" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="3">
@@ -2475,10 +2574,10 @@
       </c>
     </row>
     <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56">
+      <c r="A6" s="46">
         <v>5</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="124" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="3">
@@ -2507,10 +2606,10 @@
       </c>
     </row>
     <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="56">
+      <c r="A7" s="46">
         <v>6</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="124" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="3">
@@ -2542,10 +2641,10 @@
       </c>
     </row>
     <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="56">
+      <c r="A8" s="46">
         <v>7</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="124" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="3">
@@ -2574,10 +2673,10 @@
       </c>
     </row>
     <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="56">
+      <c r="A9" s="46">
         <v>8</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="124" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="3">
@@ -2606,10 +2705,10 @@
       </c>
     </row>
     <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56">
+      <c r="A10" s="46">
         <v>9</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="124" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="3">
@@ -2635,10 +2734,10 @@
       </c>
     </row>
     <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="56">
+      <c r="A11" s="46">
         <v>10</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="124" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="3">
@@ -2670,10 +2769,10 @@
       </c>
     </row>
     <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="56">
+      <c r="A12" s="46">
         <v>11</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="124" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="3">
@@ -2705,10 +2804,10 @@
       </c>
     </row>
     <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="56">
+      <c r="A13" s="46">
         <v>12</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="124" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="3">
@@ -2737,10 +2836,10 @@
       </c>
     </row>
     <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="56">
+      <c r="A14" s="46">
         <v>13</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="124" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="3">
@@ -2766,10 +2865,10 @@
       </c>
     </row>
     <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="56">
+      <c r="A15" s="46">
         <v>14</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="124" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="3">
@@ -2798,10 +2897,10 @@
       </c>
     </row>
     <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="56">
+      <c r="A16" s="46">
         <v>15</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="124" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="3">
@@ -2827,10 +2926,10 @@
       </c>
     </row>
     <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="56">
+      <c r="A17" s="46">
         <v>16</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="124" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="3">
@@ -2859,10 +2958,10 @@
       </c>
     </row>
     <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="56">
+      <c r="A18" s="46">
         <v>17</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="124" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="3">
@@ -2894,10 +2993,10 @@
       </c>
     </row>
     <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="56">
+      <c r="A19" s="46">
         <v>18</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="124" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="3">
@@ -2926,10 +3025,10 @@
       </c>
     </row>
     <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="56">
+      <c r="A20" s="46">
         <v>19</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="125" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="7">
@@ -2967,10 +3066,10 @@
       <c r="O20" s="10"/>
     </row>
     <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="56">
+      <c r="A21" s="46">
         <v>20</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="124" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="3">
@@ -3008,10 +3107,10 @@
       </c>
     </row>
     <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="56">
+      <c r="A22" s="46">
         <v>21</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="124" t="s">
         <v>51</v>
       </c>
       <c r="C22" s="3">
@@ -3043,10 +3142,10 @@
       </c>
     </row>
     <row r="23" spans="1:15" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="57">
+      <c r="A23" s="47">
         <v>22</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="126" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="15">
@@ -3087,10 +3186,10 @@
       </c>
     </row>
     <row r="24" spans="1:15" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="57">
+      <c r="A24" s="47">
         <v>23</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="126" t="s">
         <v>52</v>
       </c>
       <c r="C24" s="15">
@@ -3125,10 +3224,10 @@
       </c>
     </row>
     <row r="25" spans="1:15" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="57">
+      <c r="A25" s="47">
         <v>24</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="126" t="s">
         <v>53</v>
       </c>
       <c r="C25" s="15">
@@ -3168,10 +3267,10 @@
       </c>
     </row>
     <row r="26" spans="1:15" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="57">
+      <c r="A26" s="47">
         <v>25</v>
       </c>
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="127" t="s">
         <v>56</v>
       </c>
       <c r="C26" s="19">
@@ -3206,10 +3305,10 @@
       </c>
     </row>
     <row r="27" spans="1:15" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="57">
+      <c r="A27" s="47">
         <v>26</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="126" t="s">
         <v>60</v>
       </c>
       <c r="C27" s="27">
@@ -3249,10 +3348,10 @@
       </c>
     </row>
     <row r="28" spans="1:15" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="57">
+      <c r="A28" s="47">
         <v>27</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="128" t="s">
         <v>61</v>
       </c>
       <c r="C28" s="20">
@@ -3296,10 +3395,10 @@
       </c>
     </row>
     <row r="29" spans="1:15" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="57">
+      <c r="A29" s="47">
         <v>28</v>
       </c>
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="127" t="s">
         <v>63</v>
       </c>
       <c r="C29" s="15">
@@ -3337,10 +3436,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="59">
+      <c r="A30" s="48">
         <v>29</v>
       </c>
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="129" t="s">
         <v>67</v>
       </c>
       <c r="C30" s="24">
@@ -3378,10 +3477,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="57">
+      <c r="A31" s="47">
         <v>30</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="130" t="s">
         <v>68</v>
       </c>
       <c r="C31" s="15">
@@ -3421,55 +3520,55 @@
       </c>
     </row>
     <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="56">
+      <c r="A32" s="46">
         <v>31</v>
       </c>
-      <c r="B32" s="80" t="s">
+      <c r="B32" s="131" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="81">
+      <c r="C32" s="58">
         <v>6651048</v>
       </c>
-      <c r="D32" s="81">
+      <c r="D32" s="58">
         <v>833000</v>
       </c>
-      <c r="E32" s="81">
+      <c r="E32" s="58">
         <v>300000</v>
       </c>
-      <c r="F32" s="81">
+      <c r="F32" s="58">
         <f t="shared" si="2"/>
         <v>7784048</v>
       </c>
-      <c r="G32" s="82">
+      <c r="G32" s="59">
         <f t="shared" si="6"/>
         <v>9340857.5999999996</v>
       </c>
-      <c r="H32" s="81">
+      <c r="H32" s="58">
         <f t="shared" si="5"/>
         <v>9730060</v>
       </c>
-      <c r="I32" s="81">
+      <c r="I32" s="58">
         <v>8500000</v>
       </c>
-      <c r="J32" s="81"/>
-      <c r="K32" s="81">
+      <c r="J32" s="58"/>
+      <c r="K32" s="58">
         <f t="shared" si="1"/>
         <v>715952</v>
       </c>
-      <c r="L32" s="83" t="s">
+      <c r="L32" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="M32" s="83"/>
-      <c r="N32" s="83"/>
-      <c r="O32" s="84" t="s">
+      <c r="M32" s="60"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="61" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="56">
+      <c r="A33" s="46">
         <v>32</v>
       </c>
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="127" t="s">
         <v>71</v>
       </c>
       <c r="C33" s="3">
@@ -3502,10 +3601,10 @@
       </c>
     </row>
     <row r="34" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="56">
+      <c r="A34" s="46">
         <v>33</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="132" t="s">
         <v>77</v>
       </c>
       <c r="C34" s="3">
@@ -3538,10 +3637,10 @@
       </c>
     </row>
     <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="56">
+      <c r="A35" s="46">
         <v>34</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="132" t="s">
         <v>78</v>
       </c>
       <c r="C35" s="3">
@@ -3574,10 +3673,10 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="56">
+      <c r="A36" s="46">
         <v>35</v>
       </c>
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="132" t="s">
         <v>82</v>
       </c>
       <c r="C36" s="3">
@@ -3613,10 +3712,10 @@
       </c>
     </row>
     <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="56">
+      <c r="A37" s="46">
         <v>36</v>
       </c>
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="127" t="s">
         <v>83</v>
       </c>
       <c r="C37" s="3">
@@ -3649,10 +3748,10 @@
       </c>
     </row>
     <row r="38" spans="1:15" s="11" customFormat="1" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="56">
+      <c r="A38" s="46">
         <v>37</v>
       </c>
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="133" t="s">
         <v>94</v>
       </c>
       <c r="C38" s="14">
@@ -3687,10 +3786,10 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="56">
+      <c r="A39" s="46">
         <v>38</v>
       </c>
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="124" t="s">
         <v>95</v>
       </c>
       <c r="C39" s="13">
@@ -3726,10 +3825,10 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="56">
+      <c r="A40" s="46">
         <v>39</v>
       </c>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="133" t="s">
         <v>96</v>
       </c>
       <c r="C40" s="3">
@@ -3762,10 +3861,10 @@
       </c>
     </row>
     <row r="41" spans="1:15" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="56">
+      <c r="A41" s="46">
         <v>40</v>
       </c>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="133" t="s">
         <v>97</v>
       </c>
       <c r="C41" s="3">
@@ -3798,10 +3897,10 @@
       </c>
     </row>
     <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="56">
+      <c r="A42" s="46">
         <v>41</v>
       </c>
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="124" t="s">
         <v>100</v>
       </c>
       <c r="C42" s="13">
@@ -3834,10 +3933,10 @@
       </c>
     </row>
     <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="56">
+      <c r="A43" s="46">
         <v>42</v>
       </c>
-      <c r="B43" s="58" t="s">
+      <c r="B43" s="127" t="s">
         <v>101</v>
       </c>
       <c r="C43" s="13">
@@ -3873,10 +3972,10 @@
       </c>
     </row>
     <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="56">
+      <c r="A44" s="46">
         <v>43</v>
       </c>
-      <c r="B44" s="58" t="s">
+      <c r="B44" s="127" t="s">
         <v>105</v>
       </c>
       <c r="C44" s="13">
@@ -3912,10 +4011,10 @@
       </c>
     </row>
     <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="56">
+      <c r="A45" s="46">
         <v>44</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="134" t="s">
         <v>114</v>
       </c>
       <c r="C45" s="13">
@@ -3954,10 +4053,10 @@
       </c>
     </row>
     <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="56">
+      <c r="A46" s="46">
         <v>45</v>
       </c>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="134" t="s">
         <v>116</v>
       </c>
       <c r="C46" s="13">
@@ -3993,10 +4092,10 @@
       </c>
     </row>
     <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="56">
+      <c r="A47" s="46">
         <v>46</v>
       </c>
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="134" t="s">
         <v>118</v>
       </c>
       <c r="C47" s="13">
@@ -4035,10 +4134,10 @@
       </c>
     </row>
     <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="56">
+      <c r="A48" s="46">
         <v>47</v>
       </c>
-      <c r="B48" s="50" t="s">
+      <c r="B48" s="134" t="s">
         <v>120</v>
       </c>
       <c r="C48" s="13">
@@ -4077,10 +4176,10 @@
       </c>
     </row>
     <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="56">
+      <c r="A49" s="46">
         <v>48</v>
       </c>
-      <c r="B49" s="58" t="s">
+      <c r="B49" s="127" t="s">
         <v>122</v>
       </c>
       <c r="C49" s="13">
@@ -4119,10 +4218,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="56">
+      <c r="A50" s="46">
         <v>49</v>
       </c>
-      <c r="B50" s="58" t="s">
+      <c r="B50" s="127" t="s">
         <v>124</v>
       </c>
       <c r="C50" s="13">
@@ -4161,10 +4260,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="56">
+      <c r="A51" s="46">
         <v>50</v>
       </c>
-      <c r="B51" s="46" t="s">
+      <c r="B51" s="133" t="s">
         <v>126</v>
       </c>
       <c r="C51" s="13">
@@ -4193,97 +4292,97 @@
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="56">
+    <row r="52" spans="1:15" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="46">
         <v>51</v>
       </c>
-      <c r="B52" s="85" t="s">
+      <c r="B52" s="135" t="s">
         <v>128</v>
       </c>
-      <c r="C52" s="86">
+      <c r="C52" s="62">
         <v>4560000</v>
       </c>
-      <c r="D52" s="81">
+      <c r="D52" s="58">
         <v>985000</v>
       </c>
-      <c r="E52" s="81">
+      <c r="E52" s="58">
         <v>200000</v>
       </c>
-      <c r="F52" s="81">
+      <c r="F52" s="58">
         <f t="shared" si="8"/>
         <v>5745000</v>
       </c>
-      <c r="G52" s="82">
+      <c r="G52" s="59">
         <f t="shared" si="6"/>
         <v>6894000</v>
       </c>
-      <c r="H52" s="81">
+      <c r="H52" s="58">
         <f t="shared" si="9"/>
         <v>7181250</v>
       </c>
-      <c r="I52" s="81">
-        <v>7500000</v>
-      </c>
-      <c r="J52" s="81"/>
-      <c r="K52" s="81">
+      <c r="I52" s="58">
+        <v>6600000</v>
+      </c>
+      <c r="J52" s="58"/>
+      <c r="K52" s="58">
         <f t="shared" si="7"/>
-        <v>1755000</v>
-      </c>
-      <c r="L52" s="83"/>
-      <c r="M52" s="83"/>
-      <c r="N52" s="83"/>
-      <c r="O52" s="87" t="s">
+        <v>855000</v>
+      </c>
+      <c r="L52" s="60"/>
+      <c r="M52" s="60"/>
+      <c r="N52" s="60"/>
+      <c r="O52" s="63" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="53" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="60">
+    <row r="53" spans="1:15" s="43" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="49">
         <v>52</v>
       </c>
-      <c r="B53" s="61" t="s">
+      <c r="B53" s="136" t="s">
         <v>130</v>
       </c>
-      <c r="C53" s="51">
+      <c r="C53" s="41">
         <v>3192000</v>
       </c>
-      <c r="D53" s="52">
+      <c r="D53" s="42">
         <v>903000</v>
       </c>
-      <c r="E53" s="52">
+      <c r="E53" s="42">
         <v>200000</v>
       </c>
-      <c r="F53" s="52">
+      <c r="F53" s="42">
         <f t="shared" si="8"/>
         <v>4295000</v>
       </c>
-      <c r="G53" s="52">
+      <c r="G53" s="42">
         <f t="shared" si="6"/>
         <v>5154000</v>
       </c>
-      <c r="H53" s="52">
+      <c r="H53" s="42">
         <f t="shared" si="9"/>
         <v>5368750</v>
       </c>
-      <c r="I53" s="52">
+      <c r="I53" s="42">
         <v>5000000</v>
       </c>
-      <c r="J53" s="52"/>
-      <c r="K53" s="52">
+      <c r="J53" s="42"/>
+      <c r="K53" s="42">
         <f t="shared" si="7"/>
         <v>705000</v>
       </c>
-      <c r="L53" s="53" t="s">
+      <c r="L53" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="O53" s="54" t="s">
+      <c r="O53" s="44" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="56">
+      <c r="A54" s="46">
         <v>53</v>
       </c>
-      <c r="B54" s="58" t="s">
+      <c r="B54" s="127" t="s">
         <v>132</v>
       </c>
       <c r="C54" s="13">
@@ -4319,10 +4418,10 @@
       </c>
     </row>
     <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="56">
+      <c r="A55" s="46">
         <v>54</v>
       </c>
-      <c r="B55" s="58" t="s">
+      <c r="B55" s="127" t="s">
         <v>134</v>
       </c>
       <c r="C55" s="13">
@@ -4360,54 +4459,54 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:15" s="53" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="60">
+    <row r="56" spans="1:15" s="43" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="49">
         <v>55</v>
       </c>
-      <c r="B56" s="61" t="s">
+      <c r="B56" s="136" t="s">
         <v>178</v>
       </c>
-      <c r="C56" s="51">
+      <c r="C56" s="41">
         <v>1960000</v>
       </c>
-      <c r="D56" s="52">
+      <c r="D56" s="42">
         <v>833000</v>
       </c>
-      <c r="E56" s="52">
+      <c r="E56" s="42">
         <v>900000</v>
       </c>
-      <c r="F56" s="52">
+      <c r="F56" s="42">
         <f t="shared" si="8"/>
         <v>3693000</v>
       </c>
-      <c r="G56" s="52">
+      <c r="G56" s="42">
         <f t="shared" si="6"/>
         <v>4431600</v>
       </c>
-      <c r="H56" s="52">
+      <c r="H56" s="42">
         <f t="shared" si="9"/>
         <v>4616250</v>
       </c>
-      <c r="I56" s="52">
+      <c r="I56" s="42">
         <v>5000000</v>
       </c>
-      <c r="J56" s="52"/>
-      <c r="K56" s="52">
+      <c r="J56" s="42"/>
+      <c r="K56" s="42">
         <f t="shared" si="7"/>
         <v>1307000</v>
       </c>
-      <c r="L56" s="53" t="s">
+      <c r="L56" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="O56" s="54" t="s">
+      <c r="O56" s="44" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="56">
+      <c r="A57" s="46">
         <v>56</v>
       </c>
-      <c r="B57" s="46" t="s">
+      <c r="B57" s="133" t="s">
         <v>137</v>
       </c>
       <c r="C57" s="13">
@@ -4449,16 +4548,16 @@
       </c>
     </row>
     <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="56">
+      <c r="A58" s="46">
         <v>57</v>
       </c>
-      <c r="B58" s="62" t="s">
+      <c r="B58" s="137" t="s">
         <v>139</v>
       </c>
       <c r="C58" s="13">
         <v>6441000</v>
       </c>
-      <c r="D58" s="107">
+      <c r="D58" s="80">
         <v>771500</v>
       </c>
       <c r="F58" s="3">
@@ -4488,10 +4587,10 @@
       </c>
     </row>
     <row r="59" spans="1:15" s="40" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="63">
+      <c r="A59" s="50">
         <v>58</v>
       </c>
-      <c r="B59" s="64" t="s">
+      <c r="B59" s="138" t="s">
         <v>141</v>
       </c>
       <c r="C59" s="38">
@@ -4524,15 +4623,15 @@
       <c r="L59" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="O59" s="65" t="s">
+      <c r="O59" s="51" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="56">
+      <c r="A60" s="46">
         <v>59</v>
       </c>
-      <c r="B60" s="58" t="s">
+      <c r="B60" s="127" t="s">
         <v>227</v>
       </c>
       <c r="C60" s="13">
@@ -4568,10 +4667,10 @@
       </c>
     </row>
     <row r="61" spans="1:15" s="36" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="66">
+      <c r="A61" s="52">
         <v>60</v>
       </c>
-      <c r="B61" s="67" t="s">
+      <c r="B61" s="139" t="s">
         <v>144</v>
       </c>
       <c r="C61" s="34">
@@ -4608,10 +4707,10 @@
       </c>
     </row>
     <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="56">
+      <c r="A62" s="46">
         <v>61</v>
       </c>
-      <c r="B62" s="50" t="s">
+      <c r="B62" s="134" t="s">
         <v>146</v>
       </c>
       <c r="C62" s="13">
@@ -4650,10 +4749,10 @@
       </c>
     </row>
     <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="56">
+      <c r="A63" s="46">
         <v>62</v>
       </c>
-      <c r="B63" s="50" t="s">
+      <c r="B63" s="134" t="s">
         <v>148</v>
       </c>
       <c r="C63" s="13">
@@ -4692,10 +4791,10 @@
       </c>
     </row>
     <row r="64" spans="1:15" s="25" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="59">
+      <c r="A64" s="48">
         <v>63</v>
       </c>
-      <c r="B64" s="68" t="s">
+      <c r="B64" s="140" t="s">
         <v>150</v>
       </c>
       <c r="C64" s="32">
@@ -4732,10 +4831,10 @@
       </c>
     </row>
     <row r="65" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="56">
+      <c r="A65" s="46">
         <v>64</v>
       </c>
-      <c r="B65" s="50" t="s">
+      <c r="B65" s="134" t="s">
         <v>152</v>
       </c>
       <c r="C65" s="13">
@@ -4774,10 +4873,10 @@
       </c>
     </row>
     <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="56">
+      <c r="A66" s="46">
         <v>65</v>
       </c>
-      <c r="B66" s="50" t="s">
+      <c r="B66" s="134" t="s">
         <v>154</v>
       </c>
       <c r="C66" s="13">
@@ -4806,51 +4905,51 @@
         <v>155</v>
       </c>
     </row>
-    <row r="67" spans="1:15" s="53" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="60">
+    <row r="67" spans="1:15" s="43" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="49">
         <v>66</v>
       </c>
-      <c r="B67" s="69" t="s">
+      <c r="B67" s="141" t="s">
         <v>160</v>
       </c>
-      <c r="C67" s="51">
+      <c r="C67" s="41">
         <v>3351000</v>
       </c>
-      <c r="D67" s="52">
+      <c r="D67" s="42">
         <v>760000</v>
       </c>
-      <c r="E67" s="52">
+      <c r="E67" s="42">
         <v>200000</v>
       </c>
-      <c r="F67" s="52">
+      <c r="F67" s="42">
         <f t="shared" si="8"/>
         <v>4311000</v>
       </c>
-      <c r="G67" s="52">
+      <c r="G67" s="42">
         <f t="shared" si="6"/>
         <v>5173200</v>
       </c>
-      <c r="H67" s="52">
+      <c r="H67" s="42">
         <f t="shared" si="9"/>
         <v>5388750</v>
       </c>
-      <c r="I67" s="52" t="s">
+      <c r="I67" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="J67" s="52"/>
+      <c r="J67" s="42"/>
       <c r="K67" s="3" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O67" s="54" t="s">
+      <c r="O67" s="44" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="56">
+      <c r="A68" s="46">
         <v>67</v>
       </c>
-      <c r="B68" s="50" t="s">
+      <c r="B68" s="134" t="s">
         <v>162</v>
       </c>
       <c r="C68" s="13">
@@ -4886,10 +4985,10 @@
       </c>
     </row>
     <row r="69" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="56">
+      <c r="A69" s="46">
         <v>68</v>
       </c>
-      <c r="B69" s="50" t="s">
+      <c r="B69" s="134" t="s">
         <v>164</v>
       </c>
       <c r="C69" s="13">
@@ -4925,53 +5024,53 @@
       </c>
     </row>
     <row r="70" spans="1:15" s="36" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="66">
+      <c r="A70" s="52">
         <v>69</v>
       </c>
-      <c r="B70" s="73" t="s">
+      <c r="B70" s="142" t="s">
         <v>211</v>
       </c>
-      <c r="C70" s="71">
+      <c r="C70" s="53">
         <v>2964000</v>
       </c>
-      <c r="D70" s="71">
+      <c r="D70" s="53">
         <v>821500</v>
       </c>
-      <c r="E70" s="71"/>
-      <c r="F70" s="71">
+      <c r="E70" s="53"/>
+      <c r="F70" s="53">
         <f t="shared" si="8"/>
         <v>3785500</v>
       </c>
-      <c r="G70" s="71">
+      <c r="G70" s="53">
         <f t="shared" si="6"/>
         <v>4542600</v>
       </c>
-      <c r="H70" s="71">
+      <c r="H70" s="53">
         <f t="shared" si="9"/>
         <v>4731875</v>
       </c>
-      <c r="I70" s="71">
+      <c r="I70" s="53">
         <v>4000000</v>
       </c>
-      <c r="J70" s="71"/>
+      <c r="J70" s="53"/>
       <c r="K70" s="3">
         <f t="shared" si="7"/>
         <v>214500</v>
       </c>
-      <c r="L70" s="72" t="s">
+      <c r="L70" s="54" t="s">
         <v>252</v>
       </c>
-      <c r="M70" s="72"/>
-      <c r="N70" s="72"/>
-      <c r="O70" s="74" t="s">
+      <c r="M70" s="54"/>
+      <c r="N70" s="54"/>
+      <c r="O70" s="55" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="66">
+      <c r="A71" s="52">
         <v>70</v>
       </c>
-      <c r="B71" s="58" t="s">
+      <c r="B71" s="127" t="s">
         <v>169</v>
       </c>
       <c r="C71" s="13">
@@ -5009,52 +5108,52 @@
         <v>170</v>
       </c>
     </row>
-    <row r="72" spans="1:15" s="92" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="75">
+    <row r="72" spans="1:15" s="68" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="56">
         <v>71</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="143" t="s">
         <v>181</v>
       </c>
-      <c r="C72" s="89">
+      <c r="C72" s="65">
         <v>3306000</v>
       </c>
-      <c r="D72" s="90">
+      <c r="D72" s="66">
         <v>794000</v>
       </c>
-      <c r="E72" s="90"/>
-      <c r="F72" s="90">
+      <c r="E72" s="66"/>
+      <c r="F72" s="66">
         <f t="shared" si="8"/>
         <v>4100000</v>
       </c>
-      <c r="G72" s="91">
+      <c r="G72" s="67">
         <f t="shared" si="6"/>
         <v>4920000</v>
       </c>
-      <c r="H72" s="90">
+      <c r="H72" s="66">
         <f t="shared" si="9"/>
         <v>5125000</v>
       </c>
-      <c r="I72" s="90">
+      <c r="I72" s="66">
         <v>5500000</v>
       </c>
-      <c r="J72" s="90"/>
+      <c r="J72" s="66"/>
       <c r="K72" s="3">
         <f t="shared" si="7"/>
         <v>1400000</v>
       </c>
-      <c r="L72" s="92" t="s">
+      <c r="L72" s="68" t="s">
         <v>207</v>
       </c>
-      <c r="O72" s="137" t="s">
+      <c r="O72" s="108" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="66">
+      <c r="A73" s="52">
         <v>72</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="143" t="s">
         <v>181</v>
       </c>
       <c r="C73" s="13">
@@ -5088,53 +5187,53 @@
       <c r="L73" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="O73" s="137"/>
-    </row>
-    <row r="74" spans="1:15" s="76" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="93">
+      <c r="O73" s="108"/>
+    </row>
+    <row r="74" spans="1:15" s="57" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="69">
         <v>73</v>
       </c>
-      <c r="B74" s="72" t="s">
+      <c r="B74" s="144" t="s">
         <v>212</v>
       </c>
-      <c r="C74" s="94">
+      <c r="C74" s="70">
         <v>3306000</v>
       </c>
-      <c r="D74" s="95">
+      <c r="D74" s="71">
         <v>794000</v>
       </c>
-      <c r="E74" s="96">
+      <c r="E74" s="72">
         <v>150000</v>
       </c>
-      <c r="F74" s="95">
+      <c r="F74" s="71">
         <f t="shared" si="10"/>
         <v>4250000</v>
       </c>
-      <c r="G74" s="95">
+      <c r="G74" s="71">
         <f t="shared" si="11"/>
         <v>5100000</v>
       </c>
-      <c r="H74" s="95">
+      <c r="H74" s="71">
         <f t="shared" si="12"/>
         <v>5312500</v>
       </c>
-      <c r="I74" s="95">
+      <c r="I74" s="71">
         <v>5000000</v>
       </c>
-      <c r="J74" s="95"/>
+      <c r="J74" s="71"/>
       <c r="K74" s="3">
         <f t="shared" si="7"/>
         <v>750000</v>
       </c>
-      <c r="M74" s="97"/>
-      <c r="N74" s="97"/>
-      <c r="O74" s="137"/>
+      <c r="M74" s="73"/>
+      <c r="N74" s="73"/>
+      <c r="O74" s="108"/>
     </row>
     <row r="75" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="66">
+      <c r="A75" s="52">
         <v>74</v>
       </c>
-      <c r="B75" s="58" t="s">
+      <c r="B75" s="127" t="s">
         <v>183</v>
       </c>
       <c r="C75" s="13">
@@ -5170,10 +5269,10 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="66">
+      <c r="A76" s="52">
         <v>75</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="143" t="s">
         <v>185</v>
       </c>
       <c r="C76" s="13">
@@ -5203,10 +5302,10 @@
       </c>
     </row>
     <row r="77" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="66">
+      <c r="A77" s="52">
         <v>76</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="143" t="s">
         <v>187</v>
       </c>
       <c r="C77" s="13">
@@ -5245,10 +5344,10 @@
       </c>
     </row>
     <row r="78" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="66">
+      <c r="A78" s="52">
         <v>77</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="143" t="s">
         <v>189</v>
       </c>
       <c r="C78" s="13">
@@ -5290,10 +5389,10 @@
       </c>
     </row>
     <row r="79" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="66">
+      <c r="A79" s="52">
         <v>78</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="143" t="s">
         <v>190</v>
       </c>
       <c r="C79" s="3">
@@ -5323,10 +5422,10 @@
       </c>
     </row>
     <row r="80" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="66">
+      <c r="A80" s="52">
         <v>79</v>
       </c>
-      <c r="B80" s="42" t="s">
+      <c r="B80" s="124" t="s">
         <v>192</v>
       </c>
       <c r="C80" s="3">
@@ -5365,10 +5464,10 @@
       </c>
     </row>
     <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="66">
+      <c r="A81" s="52">
         <v>80</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="143" t="s">
         <v>194</v>
       </c>
       <c r="C81" s="3">
@@ -5407,10 +5506,10 @@
       </c>
     </row>
     <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="66">
+      <c r="A82" s="52">
         <v>81</v>
       </c>
-      <c r="B82" s="70" t="s">
+      <c r="B82" s="145" t="s">
         <v>197</v>
       </c>
       <c r="C82" s="3">
@@ -5446,10 +5545,10 @@
       </c>
     </row>
     <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="66">
+      <c r="A83" s="52">
         <v>82</v>
       </c>
-      <c r="B83" s="42" t="s">
+      <c r="B83" s="124" t="s">
         <v>199</v>
       </c>
       <c r="C83" s="3">
@@ -5485,10 +5584,10 @@
       </c>
     </row>
     <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="66">
+      <c r="A84" s="52">
         <v>83</v>
       </c>
-      <c r="B84" s="42" t="s">
+      <c r="B84" s="124" t="s">
         <v>201</v>
       </c>
       <c r="C84" s="3">
@@ -5518,10 +5617,10 @@
       </c>
     </row>
     <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="66">
+      <c r="A85" s="52">
         <v>84</v>
       </c>
-      <c r="B85" s="42" t="s">
+      <c r="B85" s="124" t="s">
         <v>203</v>
       </c>
       <c r="C85" s="3">
@@ -5563,10 +5662,10 @@
       </c>
     </row>
     <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="75">
+      <c r="A86" s="56">
         <v>85</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="143" t="s">
         <v>205</v>
       </c>
       <c r="C86" s="3">
@@ -5600,15 +5699,15 @@
       <c r="L86" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="O86" s="88" t="s">
+      <c r="O86" s="64" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="66">
+      <c r="A87" s="52">
         <v>86</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="143" t="s">
         <v>206</v>
       </c>
       <c r="C87" s="3">
@@ -5644,8 +5743,8 @@
       </c>
     </row>
     <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="66"/>
-      <c r="B88" s="2" t="s">
+      <c r="A88" s="52"/>
+      <c r="B88" s="143" t="s">
         <v>236</v>
       </c>
       <c r="C88" s="3">
@@ -5681,7 +5780,7 @@
       </c>
     </row>
     <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="105" t="s">
+      <c r="B89" s="146" t="s">
         <v>216</v>
       </c>
       <c r="C89" s="3">
@@ -5723,7 +5822,7 @@
       </c>
     </row>
     <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="77" t="s">
+      <c r="B90" s="147" t="s">
         <v>233</v>
       </c>
       <c r="C90" s="3">
@@ -5761,40 +5860,40 @@
         <v>218</v>
       </c>
     </row>
-    <row r="91" spans="1:15" s="100" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="98"/>
-      <c r="B91" s="78" t="s">
+    <row r="91" spans="1:15" s="76" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="74"/>
+      <c r="B91" s="148" t="s">
         <v>219</v>
       </c>
-      <c r="C91" s="99">
+      <c r="C91" s="75">
         <v>157</v>
       </c>
-      <c r="D91" s="99"/>
-      <c r="E91" s="99"/>
-      <c r="F91" s="99">
+      <c r="D91" s="75"/>
+      <c r="E91" s="75"/>
+      <c r="F91" s="75">
         <f t="shared" si="10"/>
         <v>157</v>
       </c>
-      <c r="G91" s="99">
+      <c r="G91" s="75">
         <f t="shared" si="11"/>
         <v>188.4</v>
       </c>
-      <c r="H91" s="99">
+      <c r="H91" s="75">
         <f t="shared" si="12"/>
         <v>196.25</v>
       </c>
-      <c r="I91" s="99"/>
-      <c r="J91" s="99"/>
-      <c r="K91" s="99">
+      <c r="I91" s="75"/>
+      <c r="J91" s="75"/>
+      <c r="K91" s="75">
         <f t="shared" si="14"/>
         <v>-157</v>
       </c>
-      <c r="O91" s="101" t="s">
+      <c r="O91" s="77" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="42" t="s">
+      <c r="B92" s="124" t="s">
         <v>221</v>
       </c>
       <c r="C92" s="3">
@@ -5833,7 +5932,7 @@
       </c>
     </row>
     <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="42" t="s">
+      <c r="B93" s="124" t="s">
         <v>223</v>
       </c>
       <c r="C93" s="3">
@@ -5871,76 +5970,76 @@
         <v>224</v>
       </c>
     </row>
-    <row r="94" spans="1:15" s="100" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="79" t="s">
+    <row r="94" spans="1:15" s="76" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="149" t="s">
         <v>225</v>
       </c>
-      <c r="C94" s="99">
+      <c r="C94" s="75">
         <v>229</v>
       </c>
-      <c r="D94" s="99"/>
-      <c r="E94" s="99"/>
-      <c r="F94" s="99">
+      <c r="D94" s="75"/>
+      <c r="E94" s="75"/>
+      <c r="F94" s="75">
         <f t="shared" si="10"/>
         <v>229</v>
       </c>
-      <c r="G94" s="99">
+      <c r="G94" s="75">
         <f t="shared" si="11"/>
         <v>274.8</v>
       </c>
-      <c r="H94" s="99">
+      <c r="H94" s="75">
         <f t="shared" si="12"/>
         <v>286.25</v>
       </c>
-      <c r="I94" s="99"/>
-      <c r="J94" s="99"/>
-      <c r="K94" s="99">
+      <c r="I94" s="75"/>
+      <c r="J94" s="75"/>
+      <c r="K94" s="75">
         <f t="shared" si="14"/>
         <v>-229</v>
       </c>
-      <c r="O94" s="101" t="s">
+      <c r="O94" s="77" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="95" spans="1:15" s="100" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="79" t="s">
+    <row r="95" spans="1:15" s="76" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="149" t="s">
         <v>226</v>
       </c>
-      <c r="C95" s="99">
+      <c r="C95" s="75">
         <v>280</v>
       </c>
-      <c r="D95" s="99"/>
-      <c r="E95" s="99"/>
-      <c r="F95" s="99">
+      <c r="D95" s="75"/>
+      <c r="E95" s="75"/>
+      <c r="F95" s="75">
         <f t="shared" si="10"/>
         <v>280</v>
       </c>
-      <c r="G95" s="99">
+      <c r="G95" s="75">
         <f t="shared" si="11"/>
         <v>336</v>
       </c>
-      <c r="H95" s="99">
+      <c r="H95" s="75">
         <f t="shared" si="12"/>
         <v>350</v>
       </c>
-      <c r="I95" s="99"/>
-      <c r="J95" s="99"/>
-      <c r="K95" s="99">
+      <c r="I95" s="75"/>
+      <c r="J95" s="75"/>
+      <c r="K95" s="75">
         <f t="shared" si="14"/>
         <v>-280</v>
       </c>
-      <c r="O95" s="101" t="s">
+      <c r="O95" s="77" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="96" spans="1:15" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="45" t="s">
+      <c r="B96" s="128" t="s">
         <v>230</v>
       </c>
       <c r="C96" s="21">
         <v>4018000</v>
       </c>
-      <c r="D96" s="108">
+      <c r="D96" s="81">
         <v>985000</v>
       </c>
       <c r="E96" s="21">
@@ -5972,12 +6071,12 @@
       <c r="N96" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="O96" s="132" t="s">
+      <c r="O96" s="109" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="97" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="42" t="s">
+      <c r="B97" s="124" t="s">
         <v>231</v>
       </c>
       <c r="C97" s="3">
@@ -6002,43 +6101,45 @@
         <f t="shared" si="14"/>
         <v>-4698000</v>
       </c>
-      <c r="O97" s="133"/>
-    </row>
-    <row r="98" spans="2:15" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="110" t="s">
+      <c r="O97" s="110"/>
+    </row>
+    <row r="98" spans="2:15" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="150" t="s">
         <v>242</v>
       </c>
-      <c r="C98" s="111">
+      <c r="C98" s="83">
         <v>6110000</v>
       </c>
-      <c r="D98" s="111">
+      <c r="D98" s="83">
         <v>719000</v>
       </c>
-      <c r="E98" s="111"/>
-      <c r="F98" s="111">
+      <c r="E98" s="83">
+        <v>1604000</v>
+      </c>
+      <c r="F98" s="83">
         <f t="shared" si="10"/>
-        <v>6829000</v>
-      </c>
-      <c r="G98" s="111">
+        <v>8433000</v>
+      </c>
+      <c r="G98" s="83">
         <f t="shared" si="11"/>
-        <v>8194800</v>
-      </c>
-      <c r="H98" s="111">
+        <v>10119600</v>
+      </c>
+      <c r="H98" s="83">
         <f t="shared" si="12"/>
-        <v>8536250</v>
-      </c>
-      <c r="I98" s="111"/>
-      <c r="J98" s="111"/>
-      <c r="K98" s="111">
+        <v>10541250</v>
+      </c>
+      <c r="I98" s="83"/>
+      <c r="J98" s="83"/>
+      <c r="K98" s="83">
         <f t="shared" si="14"/>
-        <v>-6829000</v>
-      </c>
-      <c r="O98" s="113" t="s">
+        <v>-8433000</v>
+      </c>
+      <c r="O98" s="85" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="99" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="42" t="s">
+      <c r="B99" s="124" t="s">
         <v>244</v>
       </c>
       <c r="C99" s="3">
@@ -6069,12 +6170,12 @@
       <c r="L99" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="O99" s="88" t="s">
+      <c r="O99" s="64" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="100" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="42" t="s">
+      <c r="B100" s="124" t="s">
         <v>246</v>
       </c>
       <c r="C100" s="3">
@@ -6097,39 +6198,39 @@
         <v>-3315000</v>
       </c>
     </row>
-    <row r="101" spans="2:15" s="100" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="79" t="s">
+    <row r="101" spans="2:15" s="76" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="149" t="s">
         <v>247</v>
       </c>
-      <c r="C101" s="99">
+      <c r="C101" s="75">
         <v>219</v>
       </c>
-      <c r="D101" s="99"/>
-      <c r="E101" s="99"/>
-      <c r="F101" s="99">
+      <c r="D101" s="75"/>
+      <c r="E101" s="75"/>
+      <c r="F101" s="75">
         <f t="shared" si="10"/>
         <v>219</v>
       </c>
-      <c r="G101" s="99">
+      <c r="G101" s="75">
         <f t="shared" si="11"/>
         <v>262.8</v>
       </c>
-      <c r="H101" s="99">
+      <c r="H101" s="75">
         <f t="shared" si="12"/>
         <v>273.75</v>
       </c>
-      <c r="I101" s="99"/>
-      <c r="J101" s="99"/>
-      <c r="K101" s="99">
+      <c r="I101" s="75"/>
+      <c r="J101" s="75"/>
+      <c r="K101" s="75">
         <f t="shared" si="14"/>
         <v>-219</v>
       </c>
-      <c r="O101" s="88" t="s">
+      <c r="O101" s="64" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="102" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="42" t="s">
+      <c r="B102" s="124" t="s">
         <v>259</v>
       </c>
       <c r="C102" s="3">
@@ -6164,13 +6265,13 @@
         <v>258</v>
       </c>
     </row>
-    <row r="103" spans="2:15" s="100" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="79" t="s">
+    <row r="103" spans="2:15" s="76" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="149" t="s">
         <v>248</v>
       </c>
-      <c r="C103" s="99"/>
-      <c r="D103" s="99"/>
-      <c r="E103" s="99"/>
+      <c r="C103" s="75"/>
+      <c r="D103" s="75"/>
+      <c r="E103" s="75"/>
       <c r="F103" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6183,18 +6284,18 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I103" s="99"/>
-      <c r="J103" s="99"/>
+      <c r="I103" s="75"/>
+      <c r="J103" s="75"/>
       <c r="K103" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="O103" s="102" t="s">
+      <c r="O103" s="78" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="104" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="42" t="s">
+      <c r="B104" s="124" t="s">
         <v>256</v>
       </c>
       <c r="C104" s="3">
@@ -6233,7 +6334,7 @@
       </c>
     </row>
     <row r="105" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
+      <c r="B105" s="151" t="s">
         <v>261</v>
       </c>
       <c r="C105" s="3">
@@ -6266,7 +6367,7 @@
       </c>
     </row>
     <row r="106" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="103" t="s">
+      <c r="B106" s="152" t="s">
         <v>262</v>
       </c>
       <c r="C106" s="3">
@@ -6304,41 +6405,41 @@
         <v>263</v>
       </c>
     </row>
-    <row r="107" spans="2:15" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="110" t="s">
+    <row r="107" spans="2:15" s="87" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="150" t="s">
         <v>264</v>
       </c>
-      <c r="C107" s="114">
+      <c r="C107" s="86">
         <v>5540000</v>
       </c>
-      <c r="D107" s="114">
+      <c r="D107" s="86">
         <v>678000</v>
       </c>
-      <c r="E107" s="114"/>
-      <c r="F107" s="114">
+      <c r="E107" s="86"/>
+      <c r="F107" s="86">
         <f t="shared" si="10"/>
         <v>6218000</v>
       </c>
-      <c r="G107" s="114">
+      <c r="G107" s="86">
         <f t="shared" si="11"/>
         <v>7461600</v>
       </c>
-      <c r="H107" s="114">
+      <c r="H107" s="86">
         <f t="shared" si="12"/>
         <v>7772500</v>
       </c>
-      <c r="I107" s="114"/>
-      <c r="J107" s="114"/>
-      <c r="K107" s="114">
+      <c r="I107" s="86"/>
+      <c r="J107" s="86"/>
+      <c r="K107" s="86">
         <f t="shared" si="14"/>
         <v>-6218000</v>
       </c>
-      <c r="O107" s="116" t="s">
+      <c r="O107" s="88" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="108" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="42" t="s">
+      <c r="B108" s="124" t="s">
         <v>267</v>
       </c>
       <c r="C108" s="3">
@@ -6369,12 +6470,12 @@
       <c r="L108" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="O108" s="102" t="s">
+      <c r="O108" s="78" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="109" spans="2:15" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="45" t="s">
+      <c r="B109" s="128" t="s">
         <v>268</v>
       </c>
       <c r="C109" s="21">
@@ -6412,12 +6513,12 @@
       <c r="N109" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="O109" s="106" t="s">
+      <c r="O109" s="79" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="110" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="42" t="s">
+      <c r="B110" s="124" t="s">
         <v>270</v>
       </c>
       <c r="C110" s="3">
@@ -6453,7 +6554,7 @@
       </c>
     </row>
     <row r="111" spans="2:15" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="45" t="s">
+      <c r="B111" s="128" t="s">
         <v>272</v>
       </c>
       <c r="C111" s="21">
@@ -6491,12 +6592,12 @@
       <c r="N111" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="O111" s="132" t="s">
+      <c r="O111" s="109" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="112" spans="2:15" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="45" t="s">
+      <c r="B112" s="128" t="s">
         <v>272</v>
       </c>
       <c r="C112" s="21">
@@ -6534,10 +6635,10 @@
       <c r="N112" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="O112" s="134"/>
+      <c r="O112" s="111"/>
     </row>
     <row r="113" spans="2:15" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="45" t="s">
+      <c r="B113" s="128" t="s">
         <v>272</v>
       </c>
       <c r="C113" s="21">
@@ -6575,10 +6676,10 @@
       <c r="N113" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="O113" s="134"/>
+      <c r="O113" s="111"/>
     </row>
     <row r="114" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="42" t="s">
+      <c r="B114" s="124" t="s">
         <v>272</v>
       </c>
       <c r="C114" s="3">
@@ -6605,10 +6706,10 @@
         <f t="shared" ref="K114" si="24">I114-J114-F114</f>
         <v>-4068000</v>
       </c>
-      <c r="O114" s="134"/>
+      <c r="O114" s="111"/>
     </row>
     <row r="115" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="42" t="s">
+      <c r="B115" s="124" t="s">
         <v>274</v>
       </c>
       <c r="C115" s="3">
@@ -6640,10 +6741,10 @@
       <c r="L115" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O115" s="133"/>
+      <c r="O115" s="110"/>
     </row>
     <row r="116" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="42" t="s">
+      <c r="B116" s="124" t="s">
         <v>275</v>
       </c>
       <c r="C116" s="3">
@@ -6670,7 +6771,7 @@
       </c>
     </row>
     <row r="117" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="42" t="s">
+      <c r="B117" s="124" t="s">
         <v>277</v>
       </c>
       <c r="C117" s="3">
@@ -6709,14 +6810,14 @@
       </c>
     </row>
     <row r="118" spans="2:15" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="104" t="s">
+      <c r="B118" s="153" t="s">
         <v>279</v>
       </c>
       <c r="C118" s="24">
         <f>13570000/4</f>
         <v>3392500</v>
       </c>
-      <c r="D118" s="109">
+      <c r="D118" s="82">
         <f>3718000/4</f>
         <v>929500</v>
       </c>
@@ -6744,19 +6845,19 @@
       <c r="L118" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="O118" s="138" t="s">
+      <c r="O118" s="112" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="119" spans="2:15" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="104" t="s">
+      <c r="B119" s="153" t="s">
         <v>279</v>
       </c>
       <c r="C119" s="24">
         <f t="shared" ref="C119:C122" si="25">13570000/4</f>
         <v>3392500</v>
       </c>
-      <c r="D119" s="109">
+      <c r="D119" s="82">
         <f t="shared" ref="D119:D122" si="26">3718000/4</f>
         <v>929500</v>
       </c>
@@ -6784,17 +6885,17 @@
       <c r="L119" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="O119" s="139"/>
+      <c r="O119" s="113"/>
     </row>
     <row r="120" spans="2:15" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="104" t="s">
+      <c r="B120" s="153" t="s">
         <v>279</v>
       </c>
       <c r="C120" s="24">
         <f t="shared" si="25"/>
         <v>3392500</v>
       </c>
-      <c r="D120" s="109">
+      <c r="D120" s="82">
         <f t="shared" si="26"/>
         <v>929500</v>
       </c>
@@ -6822,17 +6923,17 @@
       <c r="L120" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="O120" s="139"/>
+      <c r="O120" s="113"/>
     </row>
     <row r="121" spans="2:15" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="104" t="s">
+      <c r="B121" s="153" t="s">
         <v>279</v>
       </c>
       <c r="C121" s="24">
         <f t="shared" si="25"/>
         <v>3392500</v>
       </c>
-      <c r="D121" s="109">
+      <c r="D121" s="82">
         <f t="shared" si="26"/>
         <v>929500</v>
       </c>
@@ -6860,17 +6961,17 @@
       <c r="L121" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="O121" s="139"/>
+      <c r="O121" s="113"/>
     </row>
     <row r="122" spans="2:15" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="104" t="s">
+      <c r="B122" s="153" t="s">
         <v>279</v>
       </c>
       <c r="C122" s="24">
         <f t="shared" si="25"/>
         <v>3392500</v>
       </c>
-      <c r="D122" s="109">
+      <c r="D122" s="82">
         <f t="shared" si="26"/>
         <v>929500</v>
       </c>
@@ -6898,10 +6999,10 @@
       <c r="L122" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="O122" s="140"/>
+      <c r="O122" s="114"/>
     </row>
     <row r="123" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="42" t="s">
+      <c r="B123" s="124" t="s">
         <v>281</v>
       </c>
       <c r="C123" s="3">
@@ -6937,7 +7038,7 @@
       </c>
     </row>
     <row r="124" spans="2:15" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="104" t="s">
+      <c r="B124" s="153" t="s">
         <v>284</v>
       </c>
       <c r="C124" s="24">
@@ -6974,7 +7075,7 @@
       </c>
     </row>
     <row r="125" spans="2:15" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="104" t="s">
+      <c r="B125" s="153" t="s">
         <v>298</v>
       </c>
       <c r="C125" s="24">
@@ -7012,7 +7113,7 @@
       </c>
     </row>
     <row r="126" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="42" t="s">
+      <c r="B126" s="124" t="s">
         <v>299</v>
       </c>
       <c r="C126" s="3">
@@ -7048,7 +7149,7 @@
       </c>
     </row>
     <row r="127" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="42" t="s">
+      <c r="B127" s="124" t="s">
         <v>306</v>
       </c>
       <c r="C127" s="3">
@@ -7080,7 +7181,7 @@
       </c>
     </row>
     <row r="128" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="42" t="s">
+      <c r="B128" s="124" t="s">
         <v>306</v>
       </c>
       <c r="C128" s="3">
@@ -7111,41 +7212,41 @@
         <v>307</v>
       </c>
     </row>
-    <row r="129" spans="2:15" s="83" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B129" s="119" t="s">
+    <row r="129" spans="2:15" s="60" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B129" s="154" t="s">
         <v>327</v>
       </c>
-      <c r="C129" s="81">
+      <c r="C129" s="58">
         <v>6500000</v>
       </c>
-      <c r="D129" s="81">
+      <c r="D129" s="58">
         <v>1006000</v>
       </c>
-      <c r="E129" s="81"/>
-      <c r="F129" s="81">
+      <c r="E129" s="58"/>
+      <c r="F129" s="58">
         <f t="shared" si="10"/>
         <v>7506000</v>
       </c>
-      <c r="G129" s="81">
+      <c r="G129" s="58">
         <f t="shared" si="11"/>
         <v>9007200</v>
       </c>
-      <c r="H129" s="81">
+      <c r="H129" s="58">
         <f t="shared" si="12"/>
         <v>9382500</v>
       </c>
-      <c r="I129" s="81"/>
-      <c r="J129" s="81"/>
-      <c r="K129" s="81">
+      <c r="I129" s="58"/>
+      <c r="J129" s="58"/>
+      <c r="K129" s="58">
         <f t="shared" si="14"/>
         <v>-7506000</v>
       </c>
-      <c r="O129" s="84" t="s">
+      <c r="O129" s="61" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="130" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="42" t="s">
+      <c r="B130" s="124" t="s">
         <v>309</v>
       </c>
       <c r="C130" s="3">
@@ -7154,20 +7255,20 @@
       <c r="D130" s="3">
         <v>842000</v>
       </c>
-      <c r="F130" s="81">
+      <c r="F130" s="58">
         <f t="shared" si="10"/>
         <v>4842000</v>
       </c>
-      <c r="G130" s="81">
+      <c r="G130" s="58">
         <f t="shared" si="11"/>
         <v>5810400</v>
       </c>
-      <c r="H130" s="81">
+      <c r="H130" s="58">
         <f t="shared" si="12"/>
         <v>6052500</v>
       </c>
-      <c r="I130" s="81"/>
-      <c r="K130" s="81">
+      <c r="I130" s="58"/>
+      <c r="K130" s="58">
         <f t="shared" si="14"/>
         <v>-4842000</v>
       </c>
@@ -7179,7 +7280,7 @@
       </c>
     </row>
     <row r="131" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="42" t="s">
+      <c r="B131" s="124" t="s">
         <v>311</v>
       </c>
       <c r="C131" s="3">
@@ -7188,20 +7289,20 @@
       <c r="D131" s="3">
         <v>842000</v>
       </c>
-      <c r="F131" s="81">
+      <c r="F131" s="58">
         <f t="shared" si="10"/>
         <v>5992000</v>
       </c>
-      <c r="G131" s="81">
+      <c r="G131" s="58">
         <f t="shared" si="11"/>
         <v>7190400</v>
       </c>
-      <c r="H131" s="81">
+      <c r="H131" s="58">
         <f t="shared" si="12"/>
         <v>7490000</v>
       </c>
-      <c r="I131" s="81"/>
-      <c r="K131" s="81">
+      <c r="I131" s="58"/>
+      <c r="K131" s="58">
         <f t="shared" si="14"/>
         <v>-5992000</v>
       </c>
@@ -7210,7 +7311,7 @@
       </c>
     </row>
     <row r="132" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="42" t="s">
+      <c r="B132" s="124" t="s">
         <v>313</v>
       </c>
       <c r="C132" s="3">
@@ -7221,20 +7322,20 @@
         <f>1479000/2</f>
         <v>739500</v>
       </c>
-      <c r="F132" s="81">
+      <c r="F132" s="58">
         <f t="shared" si="10"/>
         <v>4989500</v>
       </c>
-      <c r="G132" s="81">
+      <c r="G132" s="58">
         <f t="shared" si="11"/>
         <v>5987400</v>
       </c>
-      <c r="H132" s="81">
+      <c r="H132" s="58">
         <f t="shared" si="12"/>
         <v>6236875</v>
       </c>
-      <c r="I132" s="81"/>
-      <c r="K132" s="81">
+      <c r="I132" s="58"/>
+      <c r="K132" s="58">
         <f t="shared" si="14"/>
         <v>-4989500</v>
       </c>
@@ -7243,7 +7344,7 @@
       </c>
     </row>
     <row r="133" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="42" t="s">
+      <c r="B133" s="124" t="s">
         <v>313</v>
       </c>
       <c r="C133" s="3">
@@ -7254,20 +7355,20 @@
         <f>1479000/2</f>
         <v>739500</v>
       </c>
-      <c r="F133" s="81">
+      <c r="F133" s="58">
         <f t="shared" si="10"/>
         <v>4989500</v>
       </c>
-      <c r="G133" s="81">
+      <c r="G133" s="58">
         <f t="shared" si="11"/>
         <v>5987400</v>
       </c>
-      <c r="H133" s="81">
+      <c r="H133" s="58">
         <f t="shared" si="12"/>
         <v>6236875</v>
       </c>
-      <c r="I133" s="81"/>
-      <c r="K133" s="81">
+      <c r="I133" s="58"/>
+      <c r="K133" s="58">
         <f t="shared" si="14"/>
         <v>-4989500</v>
       </c>
@@ -7276,7 +7377,7 @@
       </c>
     </row>
     <row r="134" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="42" t="s">
+      <c r="B134" s="124" t="s">
         <v>315</v>
       </c>
       <c r="C134" s="3">
@@ -7285,20 +7386,20 @@
       <c r="D134" s="3">
         <v>739000</v>
       </c>
-      <c r="F134" s="81">
+      <c r="F134" s="58">
         <f t="shared" si="10"/>
         <v>6239000</v>
       </c>
-      <c r="G134" s="81">
+      <c r="G134" s="58">
         <f t="shared" si="11"/>
         <v>7486800</v>
       </c>
-      <c r="H134" s="81">
+      <c r="H134" s="58">
         <f t="shared" si="12"/>
         <v>7798750</v>
       </c>
-      <c r="I134" s="81"/>
-      <c r="K134" s="81">
+      <c r="I134" s="58"/>
+      <c r="K134" s="58">
         <f t="shared" si="14"/>
         <v>-6239000</v>
       </c>
@@ -7307,7 +7408,7 @@
       </c>
     </row>
     <row r="135" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="42" t="s">
+      <c r="B135" s="124" t="s">
         <v>317</v>
       </c>
       <c r="C135" s="3">
@@ -7316,20 +7417,20 @@
       <c r="D135" s="3">
         <v>842000</v>
       </c>
-      <c r="F135" s="81">
+      <c r="F135" s="58">
         <f t="shared" si="10"/>
         <v>6592000</v>
       </c>
-      <c r="G135" s="81">
+      <c r="G135" s="58">
         <f t="shared" si="11"/>
         <v>7910400</v>
       </c>
-      <c r="H135" s="81">
+      <c r="H135" s="58">
         <f t="shared" si="12"/>
         <v>8240000</v>
       </c>
-      <c r="I135" s="81"/>
-      <c r="K135" s="81">
+      <c r="I135" s="58"/>
+      <c r="K135" s="58">
         <f t="shared" si="14"/>
         <v>-6592000</v>
       </c>
@@ -7338,23 +7439,23 @@
       </c>
     </row>
     <row r="136" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="42" t="s">
+      <c r="B136" s="124" t="s">
         <v>321</v>
       </c>
-      <c r="F136" s="81">
+      <c r="F136" s="58">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G136" s="81">
+      <c r="G136" s="58">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H136" s="81">
+      <c r="H136" s="58">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I136" s="81"/>
-      <c r="K136" s="81">
+      <c r="I136" s="58"/>
+      <c r="K136" s="58">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -7363,23 +7464,23 @@
       </c>
     </row>
     <row r="137" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="42" t="s">
+      <c r="B137" s="124" t="s">
         <v>321</v>
       </c>
-      <c r="F137" s="81">
-        <f t="shared" ref="F137:F180" si="30">C137+D137+E137</f>
+      <c r="F137" s="58">
+        <f t="shared" ref="F137:F200" si="30">C137+D137+E137</f>
         <v>0</v>
       </c>
-      <c r="G137" s="81">
+      <c r="G137" s="58">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H137" s="81">
-        <f t="shared" ref="H137:H181" si="31">(F137*25%)+F137</f>
+      <c r="H137" s="58">
+        <f t="shared" ref="H137:H200" si="31">(F137*25%)+F137</f>
         <v>0</v>
       </c>
-      <c r="I137" s="81"/>
-      <c r="K137" s="81">
+      <c r="I137" s="58"/>
+      <c r="K137" s="58">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -7388,7 +7489,7 @@
       </c>
     </row>
     <row r="138" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="117" t="s">
+      <c r="B138" s="155" t="s">
         <v>323</v>
       </c>
       <c r="C138" s="3">
@@ -7400,20 +7501,20 @@
       <c r="E138" s="3">
         <v>250000</v>
       </c>
-      <c r="F138" s="81">
+      <c r="F138" s="58">
         <f t="shared" si="30"/>
         <v>4712000</v>
       </c>
-      <c r="G138" s="81">
-        <f t="shared" ref="G138:G179" si="32">(F138*20%)+F138</f>
+      <c r="G138" s="58">
+        <f t="shared" ref="G138:G201" si="32">(F138*20%)+F138</f>
         <v>5654400</v>
       </c>
-      <c r="H138" s="81">
+      <c r="H138" s="58">
         <f t="shared" si="31"/>
         <v>5890000</v>
       </c>
-      <c r="I138" s="81"/>
-      <c r="K138" s="81">
+      <c r="I138" s="58"/>
+      <c r="K138" s="58">
         <f t="shared" si="14"/>
         <v>-4712000</v>
       </c>
@@ -7425,31 +7526,31 @@
       </c>
     </row>
     <row r="139" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="118" t="s">
+      <c r="B139" s="156" t="s">
         <v>325</v>
       </c>
       <c r="C139" s="3">
         <v>5832000</v>
       </c>
-      <c r="D139" s="120">
+      <c r="D139" s="89">
         <v>801000</v>
       </c>
-      <c r="F139" s="81">
+      <c r="F139" s="58">
         <f t="shared" si="30"/>
         <v>6633000</v>
       </c>
-      <c r="G139" s="81">
+      <c r="G139" s="58">
         <f t="shared" si="32"/>
         <v>7959600</v>
       </c>
-      <c r="H139" s="81">
+      <c r="H139" s="58">
         <f t="shared" si="31"/>
         <v>8291250</v>
       </c>
-      <c r="I139" s="81">
+      <c r="I139" s="58">
         <v>10000000</v>
       </c>
-      <c r="K139" s="81">
+      <c r="K139" s="58">
         <f t="shared" si="14"/>
         <v>3367000</v>
       </c>
@@ -7461,7 +7562,7 @@
       </c>
     </row>
     <row r="140" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="42" t="s">
+      <c r="B140" s="124" t="s">
         <v>330</v>
       </c>
       <c r="C140" s="3">
@@ -7473,22 +7574,22 @@
       <c r="E140" s="3">
         <v>350000</v>
       </c>
-      <c r="F140" s="81">
+      <c r="F140" s="58">
         <f t="shared" si="30"/>
         <v>8392000</v>
       </c>
-      <c r="G140" s="81">
+      <c r="G140" s="58">
         <f t="shared" si="32"/>
         <v>10070400</v>
       </c>
-      <c r="H140" s="81">
+      <c r="H140" s="58">
         <f t="shared" si="31"/>
         <v>10490000</v>
       </c>
-      <c r="I140" s="81">
+      <c r="I140" s="58">
         <v>14000000</v>
       </c>
-      <c r="K140" s="81">
+      <c r="K140" s="58">
         <f t="shared" si="14"/>
         <v>5608000</v>
       </c>
@@ -7500,29 +7601,29 @@
       </c>
     </row>
     <row r="141" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="42" t="s">
+      <c r="B141" s="124" t="s">
         <v>332</v>
       </c>
       <c r="C141" s="3">
         <v>6720000</v>
       </c>
-      <c r="D141" s="120">
+      <c r="D141" s="89">
         <v>801000</v>
       </c>
-      <c r="F141" s="81">
+      <c r="F141" s="58">
         <f t="shared" si="30"/>
         <v>7521000</v>
       </c>
-      <c r="G141" s="81">
+      <c r="G141" s="58">
         <f t="shared" si="32"/>
         <v>9025200</v>
       </c>
-      <c r="H141" s="81">
+      <c r="H141" s="58">
         <f t="shared" si="31"/>
         <v>9401250</v>
       </c>
-      <c r="I141" s="81"/>
-      <c r="K141" s="81">
+      <c r="I141" s="58"/>
+      <c r="K141" s="58">
         <f t="shared" si="14"/>
         <v>-7521000</v>
       </c>
@@ -7531,7 +7632,7 @@
       </c>
     </row>
     <row r="142" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="42" t="s">
+      <c r="B142" s="124" t="s">
         <v>333</v>
       </c>
       <c r="C142" s="3">
@@ -7543,22 +7644,22 @@
       <c r="E142" s="3">
         <v>550000</v>
       </c>
-      <c r="F142" s="81">
+      <c r="F142" s="58">
         <f t="shared" si="30"/>
         <v>11252000</v>
       </c>
-      <c r="G142" s="81">
+      <c r="G142" s="58">
         <f t="shared" si="32"/>
         <v>13502400</v>
       </c>
-      <c r="H142" s="81">
+      <c r="H142" s="58">
         <f t="shared" si="31"/>
         <v>14065000</v>
       </c>
-      <c r="I142" s="81">
+      <c r="I142" s="58">
         <v>13000000</v>
       </c>
-      <c r="K142" s="81">
+      <c r="K142" s="58">
         <f t="shared" si="14"/>
         <v>1748000</v>
       </c>
@@ -7570,7 +7671,7 @@
       </c>
     </row>
     <row r="143" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="42" t="s">
+      <c r="B143" s="124" t="s">
         <v>335</v>
       </c>
       <c r="C143" s="3">
@@ -7579,22 +7680,22 @@
       <c r="D143" s="3">
         <v>904000</v>
       </c>
-      <c r="F143" s="81">
+      <c r="F143" s="58">
         <f t="shared" si="30"/>
         <v>10504000</v>
       </c>
-      <c r="G143" s="81">
+      <c r="G143" s="58">
         <f t="shared" si="32"/>
         <v>12604800</v>
       </c>
-      <c r="H143" s="81">
+      <c r="H143" s="58">
         <f t="shared" si="31"/>
         <v>13130000</v>
       </c>
-      <c r="I143" s="81">
+      <c r="I143" s="58">
         <v>13300000</v>
       </c>
-      <c r="K143" s="81">
+      <c r="K143" s="58">
         <f t="shared" si="14"/>
         <v>2796000</v>
       </c>
@@ -7606,7 +7707,7 @@
       </c>
     </row>
     <row r="144" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="42" t="s">
+      <c r="B144" s="124" t="s">
         <v>338</v>
       </c>
       <c r="C144" s="3">
@@ -7615,22 +7716,22 @@
       <c r="D144" s="3">
         <v>700000</v>
       </c>
-      <c r="F144" s="81">
+      <c r="F144" s="58">
         <f t="shared" si="30"/>
         <v>6460000</v>
       </c>
-      <c r="G144" s="81">
+      <c r="G144" s="58">
         <f t="shared" si="32"/>
         <v>7752000</v>
       </c>
-      <c r="H144" s="81">
+      <c r="H144" s="58">
         <f t="shared" si="31"/>
         <v>8075000</v>
       </c>
       <c r="I144" s="3">
         <v>10500000</v>
       </c>
-      <c r="K144" s="81">
+      <c r="K144" s="58">
         <f t="shared" si="14"/>
         <v>4040000</v>
       </c>
@@ -7639,7 +7740,7 @@
       </c>
     </row>
     <row r="145" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="42" t="s">
+      <c r="B145" s="124" t="s">
         <v>339</v>
       </c>
       <c r="C145" s="3">
@@ -7651,23 +7752,23 @@
       <c r="E145" s="3">
         <v>550000</v>
       </c>
-      <c r="F145" s="81">
+      <c r="F145" s="58">
         <f t="shared" si="30"/>
         <v>4542000</v>
       </c>
-      <c r="G145" s="81">
+      <c r="G145" s="58">
         <f t="shared" si="32"/>
         <v>5450400</v>
       </c>
-      <c r="H145" s="81">
+      <c r="H145" s="58">
         <f t="shared" si="31"/>
         <v>5677500</v>
       </c>
       <c r="I145" s="3">
         <v>8000000</v>
       </c>
-      <c r="K145" s="81">
-        <f t="shared" ref="K145:K179" si="33">I145-J145-F145</f>
+      <c r="K145" s="58">
+        <f t="shared" ref="K145:K205" si="33">I145-J145-F145</f>
         <v>3458000</v>
       </c>
       <c r="O145" s="9" t="s">
@@ -7675,7 +7776,7 @@
       </c>
     </row>
     <row r="146" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="42" t="s">
+      <c r="B146" s="124" t="s">
         <v>342</v>
       </c>
       <c r="C146" s="3">
@@ -7687,22 +7788,22 @@
       <c r="E146" s="3">
         <v>880000</v>
       </c>
-      <c r="F146" s="81">
+      <c r="F146" s="58">
         <f t="shared" si="30"/>
         <v>9223000</v>
       </c>
-      <c r="G146" s="81">
+      <c r="G146" s="58">
         <f t="shared" si="32"/>
         <v>11067600</v>
       </c>
-      <c r="H146" s="81">
+      <c r="H146" s="58">
         <f t="shared" si="31"/>
         <v>11528750</v>
       </c>
       <c r="I146" s="3">
         <v>14000000</v>
       </c>
-      <c r="K146" s="81">
+      <c r="K146" s="58">
         <f t="shared" si="33"/>
         <v>4777000</v>
       </c>
@@ -7714,7 +7815,7 @@
       </c>
     </row>
     <row r="147" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="121" t="s">
+      <c r="B147" s="157" t="s">
         <v>344</v>
       </c>
       <c r="C147" s="3">
@@ -7723,22 +7824,22 @@
       <c r="D147" s="3">
         <v>883000</v>
       </c>
-      <c r="F147" s="81">
+      <c r="F147" s="58">
         <f t="shared" si="30"/>
         <v>10123000</v>
       </c>
-      <c r="G147" s="81">
+      <c r="G147" s="58">
         <f t="shared" si="32"/>
         <v>12147600</v>
       </c>
-      <c r="H147" s="81">
+      <c r="H147" s="58">
         <f t="shared" si="31"/>
         <v>12653750</v>
       </c>
       <c r="I147" s="3">
         <v>11000000</v>
       </c>
-      <c r="K147" s="81">
+      <c r="K147" s="58">
         <f t="shared" si="33"/>
         <v>877000</v>
       </c>
@@ -7750,96 +7851,96 @@
       </c>
     </row>
     <row r="148" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="42" t="s">
+      <c r="B148" s="124" t="s">
         <v>363</v>
       </c>
       <c r="C148" s="3">
         <f>12000000/5</f>
         <v>2400000</v>
       </c>
-      <c r="F148" s="81">
+      <c r="F148" s="58">
         <f t="shared" si="30"/>
         <v>2400000</v>
       </c>
-      <c r="G148" s="81">
+      <c r="G148" s="58">
         <f t="shared" si="32"/>
         <v>2880000</v>
       </c>
-      <c r="H148" s="81">
+      <c r="H148" s="58">
         <f t="shared" si="31"/>
         <v>3000000</v>
       </c>
       <c r="I148" s="3">
         <v>5800000</v>
       </c>
-      <c r="K148" s="81">
+      <c r="K148" s="58">
         <f t="shared" si="33"/>
         <v>3400000</v>
       </c>
-      <c r="O148" s="132" t="s">
+      <c r="O148" s="109" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="149" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="42" t="s">
+      <c r="B149" s="124" t="s">
         <v>363</v>
       </c>
       <c r="C149" s="3">
         <f t="shared" ref="C149:C152" si="34">12000000/5</f>
         <v>2400000</v>
       </c>
-      <c r="F149" s="81">
+      <c r="F149" s="58">
         <f t="shared" si="30"/>
         <v>2400000</v>
       </c>
-      <c r="G149" s="81">
+      <c r="G149" s="58">
         <f t="shared" si="32"/>
         <v>2880000</v>
       </c>
-      <c r="H149" s="81">
+      <c r="H149" s="58">
         <f t="shared" si="31"/>
         <v>3000000</v>
       </c>
       <c r="I149" s="3">
         <v>5800000</v>
       </c>
-      <c r="K149" s="81">
+      <c r="K149" s="58">
         <f t="shared" si="33"/>
         <v>3400000</v>
       </c>
-      <c r="O149" s="134"/>
+      <c r="O149" s="111"/>
     </row>
     <row r="150" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="42" t="s">
+      <c r="B150" s="124" t="s">
         <v>363</v>
       </c>
       <c r="C150" s="3">
         <f t="shared" si="34"/>
         <v>2400000</v>
       </c>
-      <c r="F150" s="81">
+      <c r="F150" s="58">
         <f t="shared" si="30"/>
         <v>2400000</v>
       </c>
-      <c r="G150" s="81">
+      <c r="G150" s="58">
         <f t="shared" si="32"/>
         <v>2880000</v>
       </c>
-      <c r="H150" s="81">
+      <c r="H150" s="58">
         <f t="shared" si="31"/>
         <v>3000000</v>
       </c>
       <c r="I150" s="3">
         <v>5800000</v>
       </c>
-      <c r="K150" s="81">
+      <c r="K150" s="58">
         <f t="shared" si="33"/>
         <v>3400000</v>
       </c>
-      <c r="O150" s="133"/>
+      <c r="O150" s="110"/>
     </row>
     <row r="151" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="42" t="s">
+      <c r="B151" s="124" t="s">
         <v>363</v>
       </c>
       <c r="C151" s="3">
@@ -7850,31 +7951,31 @@
         <f>2876000/4</f>
         <v>719000</v>
       </c>
-      <c r="F151" s="81">
+      <c r="F151" s="58">
         <f t="shared" si="30"/>
         <v>3119000</v>
       </c>
-      <c r="G151" s="81">
+      <c r="G151" s="58">
         <f t="shared" si="32"/>
         <v>3742800</v>
       </c>
-      <c r="H151" s="81">
+      <c r="H151" s="58">
         <f t="shared" si="31"/>
         <v>3898750</v>
       </c>
       <c r="I151" s="3">
         <v>5800000</v>
       </c>
-      <c r="K151" s="81">
+      <c r="K151" s="58">
         <f t="shared" si="33"/>
         <v>2681000</v>
       </c>
-      <c r="O151" s="132" t="s">
+      <c r="O151" s="109" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="152" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="42" t="s">
+      <c r="B152" s="124" t="s">
         <v>363</v>
       </c>
       <c r="C152" s="3">
@@ -7885,29 +7986,29 @@
         <f>2876000/4</f>
         <v>719000</v>
       </c>
-      <c r="F152" s="81">
+      <c r="F152" s="58">
         <f t="shared" si="30"/>
         <v>3119000</v>
       </c>
-      <c r="G152" s="81">
+      <c r="G152" s="58">
         <f t="shared" si="32"/>
         <v>3742800</v>
       </c>
-      <c r="H152" s="81">
+      <c r="H152" s="58">
         <f t="shared" si="31"/>
         <v>3898750</v>
       </c>
       <c r="I152" s="3">
         <v>5800000</v>
       </c>
-      <c r="K152" s="81">
+      <c r="K152" s="58">
         <f t="shared" si="33"/>
         <v>2681000</v>
       </c>
-      <c r="O152" s="134"/>
-    </row>
-    <row r="153" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B153" s="42" t="s">
+      <c r="O152" s="111"/>
+    </row>
+    <row r="153" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="124" t="s">
         <v>364</v>
       </c>
       <c r="C153" s="3">
@@ -7917,26 +8018,26 @@
         <f>2876000/4</f>
         <v>719000</v>
       </c>
-      <c r="F153" s="81">
+      <c r="F153" s="58">
         <f t="shared" si="30"/>
         <v>5519000</v>
       </c>
-      <c r="G153" s="81">
+      <c r="G153" s="58">
         <f t="shared" si="32"/>
         <v>6622800</v>
       </c>
-      <c r="H153" s="81">
+      <c r="H153" s="58">
         <f t="shared" si="31"/>
         <v>6898750</v>
       </c>
-      <c r="K153" s="81">
+      <c r="K153" s="58">
         <f t="shared" si="33"/>
         <v>-5519000</v>
       </c>
-      <c r="O153" s="134"/>
+      <c r="O153" s="111"/>
     </row>
     <row r="154" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="42" t="s">
+      <c r="B154" s="124" t="s">
         <v>366</v>
       </c>
       <c r="C154" s="3">
@@ -7946,32 +8047,32 @@
         <f>2876000/4</f>
         <v>719000</v>
       </c>
-      <c r="F154" s="81">
+      <c r="F154" s="58">
         <f t="shared" si="30"/>
         <v>7919000</v>
       </c>
-      <c r="G154" s="81">
+      <c r="G154" s="58">
         <f t="shared" si="32"/>
         <v>9502800</v>
       </c>
-      <c r="H154" s="81">
+      <c r="H154" s="58">
         <f t="shared" si="31"/>
         <v>9898750</v>
       </c>
       <c r="I154" s="3">
         <v>13000000</v>
       </c>
-      <c r="K154" s="81">
+      <c r="K154" s="58">
         <f t="shared" si="33"/>
         <v>5081000</v>
       </c>
       <c r="L154" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="O154" s="133"/>
+      <c r="O154" s="110"/>
     </row>
     <row r="155" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="42" t="s">
+      <c r="B155" s="124" t="s">
         <v>348</v>
       </c>
       <c r="C155" s="3">
@@ -7984,11 +8085,11 @@
         <f t="shared" si="30"/>
         <v>2642000</v>
       </c>
-      <c r="G155" s="81">
+      <c r="G155" s="58">
         <f t="shared" si="32"/>
         <v>3170400</v>
       </c>
-      <c r="H155" s="81">
+      <c r="H155" s="58">
         <f t="shared" si="31"/>
         <v>3302500</v>
       </c>
@@ -8006,41 +8107,41 @@
         <v>347</v>
       </c>
     </row>
-    <row r="156" spans="2:15" s="100" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="79" t="s">
+    <row r="156" spans="2:15" s="76" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="149" t="s">
         <v>350</v>
       </c>
-      <c r="C156" s="99">
+      <c r="C156" s="75">
         <v>7658569</v>
       </c>
-      <c r="D156" s="120">
+      <c r="D156" s="89">
         <v>903000</v>
       </c>
-      <c r="E156" s="99"/>
-      <c r="F156" s="99">
+      <c r="E156" s="75"/>
+      <c r="F156" s="75">
         <f t="shared" si="30"/>
         <v>8561569</v>
       </c>
-      <c r="G156" s="81">
+      <c r="G156" s="58">
         <f t="shared" si="32"/>
         <v>10273882.800000001</v>
       </c>
-      <c r="H156" s="122">
+      <c r="H156" s="90">
         <f t="shared" si="31"/>
         <v>10701961.25</v>
       </c>
-      <c r="I156" s="99"/>
-      <c r="J156" s="99"/>
-      <c r="K156" s="99">
+      <c r="I156" s="75"/>
+      <c r="J156" s="75"/>
+      <c r="K156" s="75">
         <f t="shared" si="33"/>
         <v>-8561569</v>
       </c>
-      <c r="O156" s="101" t="s">
+      <c r="O156" s="77" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="157" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="42" t="s">
+      <c r="B157" s="124" t="s">
         <v>352</v>
       </c>
       <c r="C157" s="3">
@@ -8049,11 +8150,11 @@
       <c r="D157" s="3">
         <v>921000</v>
       </c>
-      <c r="F157" s="99">
+      <c r="F157" s="75">
         <f t="shared" si="30"/>
         <v>9201000</v>
       </c>
-      <c r="G157" s="81">
+      <c r="G157" s="58">
         <f t="shared" si="32"/>
         <v>11041200</v>
       </c>
@@ -8073,7 +8174,7 @@
       </c>
     </row>
     <row r="158" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="42" t="s">
+      <c r="B158" s="124" t="s">
         <v>354</v>
       </c>
       <c r="C158" s="3">
@@ -8082,11 +8183,11 @@
       <c r="D158" s="3">
         <v>875000</v>
       </c>
-      <c r="F158" s="99">
+      <c r="F158" s="75">
         <f t="shared" si="30"/>
         <v>4550000</v>
       </c>
-      <c r="G158" s="81">
+      <c r="G158" s="58">
         <f t="shared" si="32"/>
         <v>5460000</v>
       </c>
@@ -8109,7 +8210,7 @@
       </c>
     </row>
     <row r="159" spans="2:15" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="104" t="s">
+      <c r="B159" s="153" t="s">
         <v>356</v>
       </c>
       <c r="C159" s="24">
@@ -8123,7 +8224,7 @@
         <f t="shared" si="30"/>
         <v>9219000</v>
       </c>
-      <c r="G159" s="123">
+      <c r="G159" s="91">
         <f t="shared" si="32"/>
         <v>11062800</v>
       </c>
@@ -8142,12 +8243,12 @@
       <c r="L159" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="O159" s="135" t="s">
+      <c r="O159" s="118" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="160" spans="2:15" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="104" t="s">
+      <c r="B160" s="153" t="s">
         <v>321</v>
       </c>
       <c r="C160" s="24">
@@ -8162,7 +8263,7 @@
         <f t="shared" si="30"/>
         <v>2979000</v>
       </c>
-      <c r="G160" s="123">
+      <c r="G160" s="91">
         <f t="shared" si="32"/>
         <v>3574800</v>
       </c>
@@ -8181,10 +8282,10 @@
       <c r="L160" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="O160" s="136"/>
+      <c r="O160" s="119"/>
     </row>
     <row r="161" spans="2:16" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="104" t="s">
+      <c r="B161" s="153" t="s">
         <v>321</v>
       </c>
       <c r="C161" s="24">
@@ -8199,7 +8300,7 @@
         <f t="shared" ref="F161:F162" si="35">C161+D161+E161</f>
         <v>2979000</v>
       </c>
-      <c r="G161" s="123">
+      <c r="G161" s="91">
         <f t="shared" ref="G161:G162" si="36">(F161*20%)+F161</f>
         <v>3574800</v>
       </c>
@@ -8218,10 +8319,10 @@
       <c r="L161" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="O161" s="124"/>
+      <c r="O161" s="92"/>
     </row>
     <row r="162" spans="2:16" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="104" t="s">
+      <c r="B162" s="153" t="s">
         <v>321</v>
       </c>
       <c r="C162" s="24">
@@ -8236,7 +8337,7 @@
         <f t="shared" si="35"/>
         <v>2979000</v>
       </c>
-      <c r="G162" s="123">
+      <c r="G162" s="91">
         <f t="shared" si="36"/>
         <v>3574800</v>
       </c>
@@ -8255,10 +8356,10 @@
       <c r="L162" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="O162" s="124"/>
+      <c r="O162" s="92"/>
     </row>
     <row r="163" spans="2:16" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="104" t="s">
+      <c r="B163" s="153" t="s">
         <v>321</v>
       </c>
       <c r="C163" s="24">
@@ -8273,7 +8374,7 @@
         <f t="shared" ref="F163" si="40">C163+D163+E163</f>
         <v>2979000</v>
       </c>
-      <c r="G163" s="123">
+      <c r="G163" s="91">
         <f t="shared" ref="G163" si="41">(F163*20%)+F163</f>
         <v>3574800</v>
       </c>
@@ -8292,10 +8393,10 @@
       <c r="L163" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="O163" s="124"/>
+      <c r="O163" s="92"/>
     </row>
     <row r="164" spans="2:16" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="104" t="s">
+      <c r="B164" s="153" t="s">
         <v>321</v>
       </c>
       <c r="C164" s="24">
@@ -8310,7 +8411,7 @@
         <f t="shared" ref="F164" si="44">C164+D164+E164</f>
         <v>2979000</v>
       </c>
-      <c r="G164" s="123">
+      <c r="G164" s="91">
         <f t="shared" ref="G164" si="45">(F164*20%)+F164</f>
         <v>3574800</v>
       </c>
@@ -8329,10 +8430,10 @@
       <c r="L164" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="O164" s="124"/>
+      <c r="O164" s="92"/>
     </row>
     <row r="165" spans="2:16" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="104">
+      <c r="B165" s="153">
         <v>7410</v>
       </c>
       <c r="C165" s="24">
@@ -8348,7 +8449,7 @@
         <f t="shared" si="30"/>
         <v>3759000</v>
       </c>
-      <c r="G165" s="123">
+      <c r="G165" s="91">
         <f t="shared" si="32"/>
         <v>4510800</v>
       </c>
@@ -8369,23 +8470,23 @@
       </c>
     </row>
     <row r="166" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B166" s="42" t="s">
+      <c r="B166" s="124" t="s">
         <v>369</v>
       </c>
       <c r="C166" s="3">
         <v>6615000</v>
       </c>
-      <c r="D166" s="86">
+      <c r="D166" s="62">
         <v>545000</v>
       </c>
       <c r="E166" s="3">
         <v>2700000</v>
       </c>
-      <c r="F166" s="99">
+      <c r="F166" s="75">
         <f t="shared" si="30"/>
         <v>9860000</v>
       </c>
-      <c r="G166" s="81">
+      <c r="G166" s="58">
         <f t="shared" si="32"/>
         <v>11832000</v>
       </c>
@@ -8402,7 +8503,7 @@
       </c>
     </row>
     <row r="167" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="42" t="s">
+      <c r="B167" s="124" t="s">
         <v>359</v>
       </c>
       <c r="C167" s="3">
@@ -8411,11 +8512,11 @@
       <c r="D167" s="2">
         <v>760000</v>
       </c>
-      <c r="F167" s="99">
+      <c r="F167" s="75">
         <f>C167+D166+E167</f>
         <v>8225000</v>
       </c>
-      <c r="G167" s="81">
+      <c r="G167" s="58">
         <f t="shared" si="32"/>
         <v>9870000</v>
       </c>
@@ -8438,7 +8539,7 @@
       </c>
     </row>
     <row r="168" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="42" t="s">
+      <c r="B168" s="124" t="s">
         <v>361</v>
       </c>
       <c r="C168" s="3">
@@ -8448,11 +8549,11 @@
         <f>3156000/5</f>
         <v>631200</v>
       </c>
-      <c r="F168" s="99">
+      <c r="F168" s="75">
         <f t="shared" si="30"/>
         <v>2591200</v>
       </c>
-      <c r="G168" s="81">
+      <c r="G168" s="58">
         <f t="shared" si="32"/>
         <v>3109440</v>
       </c>
@@ -8467,12 +8568,12 @@
         <f t="shared" si="33"/>
         <v>1608800</v>
       </c>
-      <c r="O168" s="132" t="s">
+      <c r="O168" s="109" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="169" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="42" t="s">
+      <c r="B169" s="124" t="s">
         <v>361</v>
       </c>
       <c r="C169" s="3">
@@ -8482,11 +8583,11 @@
         <f t="shared" ref="D169:D172" si="48">3156000/5</f>
         <v>631200</v>
       </c>
-      <c r="F169" s="99">
+      <c r="F169" s="75">
         <f t="shared" si="30"/>
         <v>2591200</v>
       </c>
-      <c r="G169" s="81">
+      <c r="G169" s="58">
         <f t="shared" si="32"/>
         <v>3109440</v>
       </c>
@@ -8501,10 +8602,10 @@
         <f t="shared" si="33"/>
         <v>1608800</v>
       </c>
-      <c r="O169" s="134"/>
+      <c r="O169" s="111"/>
     </row>
     <row r="170" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="42" t="s">
+      <c r="B170" s="124" t="s">
         <v>361</v>
       </c>
       <c r="C170" s="3">
@@ -8514,11 +8615,11 @@
         <f t="shared" si="48"/>
         <v>631200</v>
       </c>
-      <c r="F170" s="99">
+      <c r="F170" s="75">
         <f t="shared" si="30"/>
         <v>2591200</v>
       </c>
-      <c r="G170" s="81">
+      <c r="G170" s="58">
         <f t="shared" si="32"/>
         <v>3109440</v>
       </c>
@@ -8533,10 +8634,10 @@
         <f t="shared" si="33"/>
         <v>1908800</v>
       </c>
-      <c r="O170" s="134"/>
+      <c r="O170" s="111"/>
     </row>
     <row r="171" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="42" t="s">
+      <c r="B171" s="124" t="s">
         <v>361</v>
       </c>
       <c r="C171" s="3">
@@ -8546,11 +8647,11 @@
         <f t="shared" si="48"/>
         <v>631200</v>
       </c>
-      <c r="F171" s="99">
+      <c r="F171" s="75">
         <f t="shared" si="30"/>
         <v>2591200</v>
       </c>
-      <c r="G171" s="81">
+      <c r="G171" s="58">
         <f t="shared" si="32"/>
         <v>3109440</v>
       </c>
@@ -8565,10 +8666,10 @@
         <f t="shared" si="33"/>
         <v>1908800</v>
       </c>
-      <c r="O171" s="134"/>
-    </row>
-    <row r="172" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B172" s="42" t="s">
+      <c r="O171" s="111"/>
+    </row>
+    <row r="172" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="124" t="s">
         <v>361</v>
       </c>
       <c r="C172" s="3">
@@ -8578,11 +8679,11 @@
         <f t="shared" si="48"/>
         <v>631200</v>
       </c>
-      <c r="F172" s="99">
+      <c r="F172" s="75">
         <f t="shared" si="30"/>
         <v>2591200</v>
       </c>
-      <c r="G172" s="81">
+      <c r="G172" s="58">
         <f t="shared" si="32"/>
         <v>3109440</v>
       </c>
@@ -8597,155 +8698,192 @@
         <f t="shared" si="33"/>
         <v>1908800</v>
       </c>
-      <c r="O172" s="133"/>
-    </row>
-    <row r="173" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B173" s="42" t="s">
+      <c r="O172" s="110"/>
+    </row>
+    <row r="173" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="124" t="s">
         <v>363</v>
       </c>
       <c r="C173" s="3">
         <v>2205000</v>
       </c>
-      <c r="F173" s="99">
+      <c r="D173" s="83">
+        <f t="shared" ref="D173:D175" si="49">4261000/5</f>
+        <v>852200</v>
+      </c>
+      <c r="E173" s="3">
+        <v>200000</v>
+      </c>
+      <c r="F173" s="75">
         <f t="shared" si="30"/>
-        <v>2205000</v>
-      </c>
-      <c r="G173" s="81">
+        <v>3257200</v>
+      </c>
+      <c r="G173" s="58">
         <f t="shared" si="32"/>
-        <v>2646000</v>
+        <v>3908640</v>
       </c>
       <c r="H173" s="3">
         <f t="shared" si="31"/>
-        <v>2756250</v>
+        <v>4071500</v>
+      </c>
+      <c r="I173" s="3">
+        <v>5500000</v>
       </c>
       <c r="K173" s="3">
         <f t="shared" si="33"/>
-        <v>-2205000</v>
-      </c>
-      <c r="O173" s="132" t="s">
+        <v>2242800</v>
+      </c>
+      <c r="O173" s="109" t="s">
         <v>384</v>
       </c>
-      <c r="P173" s="141">
+      <c r="P173" s="101">
         <v>735</v>
       </c>
     </row>
-    <row r="174" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B174" s="42" t="s">
+    <row r="174" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="124" t="s">
         <v>363</v>
       </c>
       <c r="C174" s="3">
         <v>2205000</v>
       </c>
-      <c r="F174" s="99">
+      <c r="D174" s="83">
+        <f t="shared" si="49"/>
+        <v>852200</v>
+      </c>
+      <c r="E174" s="3">
+        <v>800000</v>
+      </c>
+      <c r="F174" s="75">
         <f t="shared" si="30"/>
-        <v>2205000</v>
-      </c>
-      <c r="G174" s="81">
+        <v>3857200</v>
+      </c>
+      <c r="G174" s="58">
         <f t="shared" si="32"/>
-        <v>2646000</v>
+        <v>4628640</v>
       </c>
       <c r="H174" s="3">
         <f t="shared" si="31"/>
-        <v>2756250</v>
+        <v>4821500</v>
+      </c>
+      <c r="I174" s="3">
+        <v>5500000</v>
       </c>
       <c r="K174" s="3">
         <f t="shared" si="33"/>
-        <v>-2205000</v>
-      </c>
-      <c r="O174" s="134"/>
-      <c r="P174" s="142"/>
+        <v>1642800</v>
+      </c>
+      <c r="O174" s="111"/>
+      <c r="P174" s="102"/>
     </row>
     <row r="175" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B175" s="42" t="s">
+      <c r="B175" s="124" t="s">
         <v>365</v>
       </c>
       <c r="C175" s="3">
         <v>1715000</v>
       </c>
-      <c r="F175" s="99">
-        <f t="shared" si="30"/>
-        <v>1715000</v>
-      </c>
-      <c r="G175" s="81">
+      <c r="D175" s="83">
+        <f t="shared" si="49"/>
+        <v>852200</v>
+      </c>
+      <c r="F175" s="75">
+        <f>C175+D175+E175</f>
+        <v>2567200</v>
+      </c>
+      <c r="G175" s="58">
         <f t="shared" si="32"/>
-        <v>2058000</v>
+        <v>3080640</v>
       </c>
       <c r="H175" s="3">
         <f t="shared" si="31"/>
-        <v>2143750</v>
+        <v>3209000</v>
       </c>
       <c r="K175" s="3">
         <f t="shared" si="33"/>
-        <v>-1715000</v>
-      </c>
-      <c r="O175" s="134"/>
-      <c r="P175" s="142"/>
-    </row>
-    <row r="176" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B176" s="42" t="s">
+        <v>-2567200</v>
+      </c>
+      <c r="O175" s="111"/>
+      <c r="P175" s="102"/>
+    </row>
+    <row r="176" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="124" t="s">
         <v>366</v>
       </c>
       <c r="C176" s="3">
         <v>6125000</v>
       </c>
-      <c r="D176" s="111"/>
-      <c r="F176" s="99">
+      <c r="D176" s="83">
+        <f>4261000/5</f>
+        <v>852200</v>
+      </c>
+      <c r="F176" s="75">
         <f t="shared" si="30"/>
-        <v>6125000</v>
-      </c>
-      <c r="G176" s="81">
+        <v>6977200</v>
+      </c>
+      <c r="G176" s="58">
         <f t="shared" si="32"/>
-        <v>7350000</v>
+        <v>8372640</v>
       </c>
       <c r="H176" s="3">
         <f t="shared" si="31"/>
-        <v>7656250</v>
+        <v>8721500</v>
+      </c>
+      <c r="I176" s="3">
+        <v>8000000</v>
       </c>
       <c r="K176" s="3">
         <f t="shared" si="33"/>
-        <v>-6125000</v>
-      </c>
-      <c r="O176" s="134"/>
-      <c r="P176" s="142"/>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B177" s="42" t="s">
+        <v>1022800</v>
+      </c>
+      <c r="O176" s="111"/>
+      <c r="P176" s="102"/>
+    </row>
+    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="124" t="s">
         <v>367</v>
       </c>
       <c r="C177" s="3">
         <v>7350000</v>
       </c>
-      <c r="F177" s="99">
+      <c r="D177" s="83">
+        <f>4261000/5</f>
+        <v>852200</v>
+      </c>
+      <c r="F177" s="75">
         <f t="shared" si="30"/>
-        <v>7350000</v>
-      </c>
-      <c r="G177" s="81">
+        <v>8202200</v>
+      </c>
+      <c r="G177" s="58">
         <f t="shared" si="32"/>
-        <v>8820000</v>
+        <v>9842640</v>
       </c>
       <c r="H177" s="3">
         <f t="shared" si="31"/>
-        <v>9187500</v>
+        <v>10252750</v>
+      </c>
+      <c r="I177" s="3">
+        <v>12400000</v>
       </c>
       <c r="K177" s="3">
         <f t="shared" si="33"/>
-        <v>-7350000</v>
-      </c>
-      <c r="O177" s="133"/>
-      <c r="P177" s="143"/>
+        <v>4197800</v>
+      </c>
+      <c r="O177" s="110"/>
+      <c r="P177" s="103"/>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B178" s="42" t="s">
+      <c r="B178" s="124" t="s">
         <v>373</v>
       </c>
       <c r="C178" s="3">
         <v>5397000</v>
       </c>
-      <c r="F178" s="99">
+      <c r="F178" s="75">
         <f t="shared" si="30"/>
         <v>5397000</v>
       </c>
-      <c r="G178" s="81">
+      <c r="G178" s="58">
         <f t="shared" si="32"/>
         <v>6476400</v>
       </c>
@@ -8762,20 +8900,20 @@
       </c>
     </row>
     <row r="179" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="42" t="s">
+      <c r="B179" s="124" t="s">
         <v>370</v>
       </c>
-      <c r="C179" s="125">
+      <c r="C179" s="93">
         <v>1211798</v>
       </c>
       <c r="D179" s="3">
         <v>23000</v>
       </c>
-      <c r="F179" s="99">
+      <c r="F179" s="75">
         <f t="shared" si="30"/>
         <v>1234798</v>
       </c>
-      <c r="G179" s="81">
+      <c r="G179" s="58">
         <f t="shared" si="32"/>
         <v>1481757.6</v>
       </c>
@@ -8792,451 +8930,819 @@
       </c>
     </row>
     <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="42" t="s">
+      <c r="B180" s="124" t="s">
         <v>372</v>
       </c>
       <c r="C180" s="3">
         <v>2520000</v>
       </c>
-      <c r="D180" s="114">
+      <c r="D180" s="86">
         <v>92000</v>
       </c>
-      <c r="F180" s="99">
+      <c r="F180" s="75">
         <f t="shared" si="30"/>
         <v>2612000</v>
+      </c>
+      <c r="G180" s="58">
+        <f t="shared" si="32"/>
+        <v>3134400</v>
       </c>
       <c r="H180" s="3">
         <f t="shared" si="31"/>
         <v>3265000</v>
       </c>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A181" s="126"/>
-      <c r="B181" s="128" t="s">
+      <c r="K180" s="3">
+        <f t="shared" si="33"/>
+        <v>-2612000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="94"/>
+      <c r="B181" s="158" t="s">
         <v>379</v>
       </c>
-      <c r="C181" s="127">
+      <c r="C181" s="95">
         <v>2125000</v>
       </c>
-      <c r="D181" s="127"/>
-      <c r="E181" s="127"/>
-      <c r="F181" s="127"/>
-      <c r="G181" s="127"/>
-      <c r="H181" s="127">
+      <c r="D181" s="95">
+        <f>3892000/5</f>
+        <v>778400</v>
+      </c>
+      <c r="E181" s="95"/>
+      <c r="F181" s="75">
+        <f t="shared" si="30"/>
+        <v>2903400</v>
+      </c>
+      <c r="G181" s="58">
+        <f t="shared" si="32"/>
+        <v>3484080</v>
+      </c>
+      <c r="H181" s="3">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="I181" s="127"/>
-      <c r="J181" s="127"/>
-      <c r="K181" s="127"/>
-      <c r="L181" s="126"/>
-      <c r="M181" s="126"/>
-      <c r="N181" s="126"/>
-      <c r="O181" s="129" t="s">
+        <v>3629250</v>
+      </c>
+      <c r="I181" s="95">
+        <v>4500000</v>
+      </c>
+      <c r="J181" s="95"/>
+      <c r="K181" s="3">
+        <f t="shared" si="33"/>
+        <v>1596600</v>
+      </c>
+      <c r="L181" s="94"/>
+      <c r="M181" s="94"/>
+      <c r="N181" s="94"/>
+      <c r="O181" s="115" t="s">
         <v>378</v>
       </c>
-      <c r="P181" s="141">
+      <c r="P181" s="101">
         <v>640</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A182" s="126"/>
-      <c r="B182" s="128" t="s">
+    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="94"/>
+      <c r="B182" s="158" t="s">
         <v>379</v>
       </c>
-      <c r="C182" s="127">
+      <c r="C182" s="95">
         <v>2125000</v>
       </c>
-      <c r="D182" s="127"/>
-      <c r="E182" s="127"/>
-      <c r="F182" s="127"/>
-      <c r="G182" s="127"/>
-      <c r="H182" s="127"/>
-      <c r="I182" s="127"/>
-      <c r="J182" s="127"/>
-      <c r="K182" s="127"/>
-      <c r="L182" s="126"/>
-      <c r="M182" s="126"/>
-      <c r="N182" s="126"/>
-      <c r="O182" s="130"/>
-      <c r="P182" s="142"/>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A183" s="126"/>
-      <c r="B183" s="128" t="s">
+      <c r="D182" s="95">
+        <f t="shared" ref="D182:D185" si="50">3892000/5</f>
+        <v>778400</v>
+      </c>
+      <c r="E182" s="95"/>
+      <c r="F182" s="75">
+        <f t="shared" si="30"/>
+        <v>2903400</v>
+      </c>
+      <c r="G182" s="58">
+        <f t="shared" si="32"/>
+        <v>3484080</v>
+      </c>
+      <c r="H182" s="3">
+        <f t="shared" si="31"/>
+        <v>3629250</v>
+      </c>
+      <c r="I182" s="95">
+        <v>4500000</v>
+      </c>
+      <c r="J182" s="95"/>
+      <c r="K182" s="3">
+        <f t="shared" si="33"/>
+        <v>1596600</v>
+      </c>
+      <c r="L182" s="94"/>
+      <c r="M182" s="94"/>
+      <c r="N182" s="94"/>
+      <c r="O182" s="116"/>
+      <c r="P182" s="102"/>
+    </row>
+    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="94"/>
+      <c r="B183" s="158" t="s">
         <v>379</v>
       </c>
-      <c r="C183" s="127">
+      <c r="C183" s="95">
         <v>2125000</v>
       </c>
-      <c r="D183" s="127"/>
-      <c r="E183" s="127"/>
-      <c r="F183" s="127"/>
-      <c r="G183" s="127"/>
-      <c r="H183" s="127"/>
-      <c r="I183" s="127"/>
-      <c r="J183" s="127"/>
-      <c r="K183" s="127"/>
-      <c r="L183" s="126"/>
-      <c r="M183" s="126"/>
-      <c r="N183" s="126"/>
-      <c r="O183" s="130"/>
-      <c r="P183" s="142"/>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A184" s="126"/>
-      <c r="B184" s="128" t="s">
+      <c r="D183" s="95">
+        <f t="shared" si="50"/>
+        <v>778400</v>
+      </c>
+      <c r="E183" s="95"/>
+      <c r="F183" s="75">
+        <f t="shared" si="30"/>
+        <v>2903400</v>
+      </c>
+      <c r="G183" s="58">
+        <f t="shared" si="32"/>
+        <v>3484080</v>
+      </c>
+      <c r="H183" s="3">
+        <f t="shared" si="31"/>
+        <v>3629250</v>
+      </c>
+      <c r="I183" s="95">
+        <v>4500000</v>
+      </c>
+      <c r="J183" s="95"/>
+      <c r="K183" s="3">
+        <f t="shared" si="33"/>
+        <v>1596600</v>
+      </c>
+      <c r="L183" s="94"/>
+      <c r="M183" s="94"/>
+      <c r="N183" s="94"/>
+      <c r="O183" s="116"/>
+      <c r="P183" s="102"/>
+    </row>
+    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="94"/>
+      <c r="B184" s="158" t="s">
         <v>379</v>
       </c>
-      <c r="C184" s="127">
+      <c r="C184" s="95">
         <v>2125000</v>
       </c>
-      <c r="D184" s="127"/>
-      <c r="E184" s="127"/>
-      <c r="F184" s="127"/>
-      <c r="G184" s="127"/>
-      <c r="H184" s="127"/>
-      <c r="I184" s="127"/>
-      <c r="J184" s="127"/>
-      <c r="K184" s="127"/>
-      <c r="L184" s="126"/>
-      <c r="M184" s="126"/>
-      <c r="N184" s="126"/>
-      <c r="O184" s="130"/>
-      <c r="P184" s="142"/>
-    </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A185" s="126"/>
-      <c r="B185" s="128">
+      <c r="D184" s="95">
+        <f t="shared" si="50"/>
+        <v>778400</v>
+      </c>
+      <c r="E184" s="95"/>
+      <c r="F184" s="75">
+        <f t="shared" si="30"/>
+        <v>2903400</v>
+      </c>
+      <c r="G184" s="58">
+        <f t="shared" si="32"/>
+        <v>3484080</v>
+      </c>
+      <c r="H184" s="3">
+        <f t="shared" si="31"/>
+        <v>3629250</v>
+      </c>
+      <c r="I184" s="95">
+        <v>4500000</v>
+      </c>
+      <c r="J184" s="95"/>
+      <c r="K184" s="3">
+        <f t="shared" si="33"/>
+        <v>1596600</v>
+      </c>
+      <c r="L184" s="94"/>
+      <c r="M184" s="94"/>
+      <c r="N184" s="94"/>
+      <c r="O184" s="116"/>
+      <c r="P184" s="102"/>
+    </row>
+    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="94"/>
+      <c r="B185" s="158">
         <v>7540</v>
       </c>
-      <c r="C185" s="127">
+      <c r="C185" s="95">
         <v>7500000</v>
       </c>
-      <c r="D185" s="127"/>
-      <c r="E185" s="127"/>
-      <c r="F185" s="127"/>
-      <c r="G185" s="127"/>
-      <c r="H185" s="127"/>
-      <c r="I185" s="127"/>
-      <c r="J185" s="127"/>
-      <c r="K185" s="127"/>
-      <c r="L185" s="126"/>
-      <c r="M185" s="126"/>
-      <c r="N185" s="126"/>
-      <c r="O185" s="131"/>
-      <c r="P185" s="143"/>
+      <c r="D185" s="95">
+        <f t="shared" si="50"/>
+        <v>778400</v>
+      </c>
+      <c r="E185" s="95"/>
+      <c r="F185" s="75">
+        <f t="shared" si="30"/>
+        <v>8278400</v>
+      </c>
+      <c r="G185" s="58">
+        <f t="shared" si="32"/>
+        <v>9934080</v>
+      </c>
+      <c r="H185" s="3">
+        <f t="shared" si="31"/>
+        <v>10348000</v>
+      </c>
+      <c r="I185" s="95">
+        <v>11750000</v>
+      </c>
+      <c r="J185" s="95"/>
+      <c r="K185" s="3">
+        <f t="shared" si="33"/>
+        <v>3471600</v>
+      </c>
+      <c r="L185" s="94"/>
+      <c r="M185" s="94"/>
+      <c r="N185" s="94"/>
+      <c r="O185" s="117"/>
+      <c r="P185" s="103"/>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B186" s="42" t="s">
+      <c r="B186" s="124" t="s">
         <v>380</v>
       </c>
       <c r="C186" s="3">
         <v>4150000</v>
       </c>
-      <c r="O186" s="132" t="s">
+      <c r="D186" s="3">
+        <f>1842000/2</f>
+        <v>921000</v>
+      </c>
+      <c r="E186" s="95"/>
+      <c r="F186" s="75">
+        <f t="shared" si="30"/>
+        <v>5071000</v>
+      </c>
+      <c r="G186" s="58">
+        <f t="shared" si="32"/>
+        <v>6085200</v>
+      </c>
+      <c r="H186" s="3">
+        <f>(F186*25%)+F186</f>
+        <v>6338750</v>
+      </c>
+      <c r="K186" s="3">
+        <f t="shared" si="33"/>
+        <v>-5071000</v>
+      </c>
+      <c r="O186" s="109" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B187" s="42" t="s">
+      <c r="B187" s="124" t="s">
         <v>380</v>
       </c>
       <c r="C187" s="3">
         <v>4150000</v>
       </c>
-      <c r="D187" s="24"/>
-      <c r="O187" s="133"/>
+      <c r="D187" s="3">
+        <f>1842000/2</f>
+        <v>921000</v>
+      </c>
+      <c r="F187" s="75">
+        <f t="shared" si="30"/>
+        <v>5071000</v>
+      </c>
+      <c r="G187" s="58">
+        <f t="shared" si="32"/>
+        <v>6085200</v>
+      </c>
+      <c r="H187" s="3">
+        <f t="shared" si="31"/>
+        <v>6338750</v>
+      </c>
+      <c r="K187" s="3">
+        <f t="shared" si="33"/>
+        <v>-5071000</v>
+      </c>
+      <c r="O187" s="110"/>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B188" s="42" t="s">
+      <c r="B188" s="124" t="s">
         <v>382</v>
       </c>
       <c r="C188" s="3">
         <v>7395000</v>
       </c>
-      <c r="D188" s="24"/>
+      <c r="D188" s="24">
+        <v>875000</v>
+      </c>
+      <c r="F188" s="75">
+        <f t="shared" si="30"/>
+        <v>8270000</v>
+      </c>
+      <c r="G188" s="58">
+        <f t="shared" si="32"/>
+        <v>9924000</v>
+      </c>
+      <c r="H188" s="3">
+        <f t="shared" si="31"/>
+        <v>10337500</v>
+      </c>
+      <c r="K188" s="3">
+        <f t="shared" si="33"/>
+        <v>-8270000</v>
+      </c>
       <c r="O188" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="189" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="43" t="s">
+      <c r="B189" s="125" t="s">
         <v>387</v>
       </c>
-      <c r="C189" s="7"/>
+      <c r="C189" s="39">
+        <f t="shared" ref="C189:C193" si="51">P189*25000</f>
+        <v>7250000</v>
+      </c>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
-      <c r="F189" s="7"/>
-      <c r="G189" s="7"/>
-      <c r="H189" s="7"/>
+      <c r="F189" s="75">
+        <f t="shared" si="30"/>
+        <v>7250000</v>
+      </c>
+      <c r="G189" s="58">
+        <f t="shared" si="32"/>
+        <v>8700000</v>
+      </c>
+      <c r="H189" s="3">
+        <f t="shared" si="31"/>
+        <v>9062500</v>
+      </c>
       <c r="I189" s="7"/>
       <c r="J189" s="7"/>
-      <c r="K189" s="7"/>
-      <c r="O189" s="144" t="s">
-        <v>389</v>
-      </c>
-      <c r="P189" s="145">
-        <v>835</v>
+      <c r="K189" s="3">
+        <f t="shared" si="33"/>
+        <v>-7250000</v>
+      </c>
+      <c r="O189" s="97" t="s">
+        <v>388</v>
+      </c>
+      <c r="P189" s="160">
+        <v>290</v>
       </c>
     </row>
     <row r="190" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="43" t="s">
+      <c r="B190" s="125" t="s">
         <v>387</v>
       </c>
-      <c r="C190" s="7"/>
+      <c r="C190" s="39">
+        <f t="shared" si="51"/>
+        <v>7250000</v>
+      </c>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
-      <c r="F190" s="7"/>
-      <c r="G190" s="7"/>
-      <c r="H190" s="7"/>
+      <c r="F190" s="75">
+        <f t="shared" si="30"/>
+        <v>7250000</v>
+      </c>
+      <c r="G190" s="58">
+        <f t="shared" si="32"/>
+        <v>8700000</v>
+      </c>
+      <c r="H190" s="3">
+        <f t="shared" si="31"/>
+        <v>9062500</v>
+      </c>
       <c r="I190" s="7"/>
       <c r="J190" s="7"/>
-      <c r="K190" s="7"/>
-      <c r="O190" s="146"/>
-      <c r="P190" s="147"/>
+      <c r="K190" s="3">
+        <f t="shared" si="33"/>
+        <v>-7250000</v>
+      </c>
+      <c r="O190" s="104"/>
+      <c r="P190" s="161">
+        <v>290</v>
+      </c>
     </row>
     <row r="191" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="43" t="s">
+      <c r="B191" s="125" t="s">
         <v>386</v>
       </c>
-      <c r="C191" s="7"/>
+      <c r="C191" s="39">
+        <f t="shared" si="51"/>
+        <v>2250000</v>
+      </c>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
-      <c r="F191" s="7"/>
-      <c r="G191" s="7"/>
-      <c r="H191" s="7"/>
+      <c r="F191" s="75">
+        <f t="shared" si="30"/>
+        <v>2250000</v>
+      </c>
+      <c r="G191" s="58">
+        <f t="shared" si="32"/>
+        <v>2700000</v>
+      </c>
+      <c r="H191" s="3">
+        <f t="shared" si="31"/>
+        <v>2812500</v>
+      </c>
       <c r="I191" s="7"/>
       <c r="J191" s="7"/>
-      <c r="K191" s="7"/>
-      <c r="O191" s="146"/>
-      <c r="P191" s="147"/>
+      <c r="K191" s="3">
+        <f t="shared" si="33"/>
+        <v>-2250000</v>
+      </c>
+      <c r="O191" s="104"/>
+      <c r="P191" s="161">
+        <v>90</v>
+      </c>
     </row>
     <row r="192" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="43" t="s">
+      <c r="B192" s="125" t="s">
         <v>386</v>
       </c>
-      <c r="C192" s="7"/>
+      <c r="C192" s="39">
+        <f t="shared" si="51"/>
+        <v>2250000</v>
+      </c>
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
-      <c r="F192" s="7"/>
-      <c r="G192" s="7"/>
-      <c r="H192" s="7"/>
+      <c r="F192" s="75">
+        <f t="shared" si="30"/>
+        <v>2250000</v>
+      </c>
+      <c r="G192" s="58">
+        <f t="shared" si="32"/>
+        <v>2700000</v>
+      </c>
+      <c r="H192" s="3">
+        <f t="shared" si="31"/>
+        <v>2812500</v>
+      </c>
       <c r="I192" s="7"/>
       <c r="J192" s="7"/>
-      <c r="K192" s="7"/>
-      <c r="O192" s="146"/>
-      <c r="P192" s="147"/>
+      <c r="K192" s="3">
+        <f t="shared" si="33"/>
+        <v>-2250000</v>
+      </c>
+      <c r="O192" s="104"/>
+      <c r="P192" s="161">
+        <v>90</v>
+      </c>
     </row>
     <row r="193" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="43" t="s">
-        <v>388</v>
-      </c>
-      <c r="C193" s="7"/>
+      <c r="B193" s="125" t="s">
+        <v>416</v>
+      </c>
+      <c r="C193" s="39">
+        <f t="shared" si="51"/>
+        <v>1875000</v>
+      </c>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
-      <c r="F193" s="7"/>
-      <c r="G193" s="7"/>
-      <c r="H193" s="7"/>
+      <c r="F193" s="75">
+        <f t="shared" si="30"/>
+        <v>1875000</v>
+      </c>
+      <c r="G193" s="58">
+        <f t="shared" si="32"/>
+        <v>2250000</v>
+      </c>
+      <c r="H193" s="3">
+        <f t="shared" si="31"/>
+        <v>2343750</v>
+      </c>
       <c r="I193" s="7"/>
       <c r="J193" s="7"/>
-      <c r="K193" s="7"/>
-      <c r="O193" s="148"/>
-      <c r="P193" s="149"/>
+      <c r="K193" s="3">
+        <f t="shared" si="33"/>
+        <v>-1875000</v>
+      </c>
+      <c r="O193" s="98"/>
+      <c r="P193" s="162">
+        <v>75</v>
+      </c>
     </row>
     <row r="194" spans="2:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="150" t="s">
-        <v>392</v>
+      <c r="B194" s="159" t="s">
+        <v>391</v>
       </c>
       <c r="C194" s="39">
         <f>P194*25000</f>
         <v>2250000</v>
       </c>
-      <c r="D194" s="39"/>
+      <c r="D194" s="39">
+        <f>5575000/9</f>
+        <v>619444.4444444445</v>
+      </c>
       <c r="E194" s="39"/>
-      <c r="F194" s="39"/>
-      <c r="G194" s="39"/>
-      <c r="H194" s="39"/>
+      <c r="F194" s="75">
+        <f t="shared" si="30"/>
+        <v>2869444.4444444445</v>
+      </c>
+      <c r="G194" s="58">
+        <f t="shared" si="32"/>
+        <v>3443333.3333333335</v>
+      </c>
+      <c r="H194" s="3">
+        <f t="shared" si="31"/>
+        <v>3586805.5555555555</v>
+      </c>
       <c r="I194" s="39"/>
       <c r="J194" s="39"/>
-      <c r="K194" s="39"/>
-      <c r="O194" s="151" t="s">
-        <v>391</v>
-      </c>
-      <c r="P194" s="152">
+      <c r="K194" s="3">
+        <f t="shared" si="33"/>
+        <v>-2869444.4444444445</v>
+      </c>
+      <c r="O194" s="105" t="s">
+        <v>390</v>
+      </c>
+      <c r="P194" s="96">
         <v>90</v>
       </c>
     </row>
     <row r="195" spans="2:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="150" t="s">
-        <v>393</v>
+      <c r="B195" s="159" t="s">
+        <v>392</v>
       </c>
       <c r="C195" s="39">
-        <f t="shared" ref="C195:C204" si="49">P195*25000</f>
+        <f t="shared" ref="C195:C204" si="52">P195*25000</f>
         <v>2750000</v>
       </c>
-      <c r="D195" s="39"/>
+      <c r="D195" s="39">
+        <f t="shared" ref="D195:D202" si="53">5575000/9</f>
+        <v>619444.4444444445</v>
+      </c>
       <c r="E195" s="39"/>
-      <c r="F195" s="39"/>
-      <c r="G195" s="39"/>
-      <c r="H195" s="39"/>
+      <c r="F195" s="75">
+        <f t="shared" si="30"/>
+        <v>3369444.4444444445</v>
+      </c>
+      <c r="G195" s="58">
+        <f t="shared" si="32"/>
+        <v>4043333.3333333335</v>
+      </c>
+      <c r="H195" s="3">
+        <f t="shared" si="31"/>
+        <v>4211805.555555556</v>
+      </c>
       <c r="I195" s="39"/>
       <c r="J195" s="39"/>
-      <c r="K195" s="39"/>
-      <c r="O195" s="153"/>
-      <c r="P195" s="152">
+      <c r="K195" s="3">
+        <f t="shared" si="33"/>
+        <v>-3369444.4444444445</v>
+      </c>
+      <c r="O195" s="106"/>
+      <c r="P195" s="96">
         <v>110</v>
       </c>
     </row>
     <row r="196" spans="2:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="150" t="s">
-        <v>394</v>
+      <c r="B196" s="159" t="s">
+        <v>393</v>
       </c>
       <c r="C196" s="39">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>4250000</v>
       </c>
-      <c r="D196" s="39"/>
+      <c r="D196" s="39">
+        <f t="shared" si="53"/>
+        <v>619444.4444444445</v>
+      </c>
       <c r="E196" s="39"/>
-      <c r="F196" s="39"/>
-      <c r="G196" s="39"/>
-      <c r="H196" s="39"/>
+      <c r="F196" s="75">
+        <f t="shared" si="30"/>
+        <v>4869444.444444444</v>
+      </c>
+      <c r="G196" s="58">
+        <f t="shared" si="32"/>
+        <v>5843333.333333333</v>
+      </c>
+      <c r="H196" s="3">
+        <f t="shared" si="31"/>
+        <v>6086805.555555555</v>
+      </c>
       <c r="I196" s="39"/>
       <c r="J196" s="39"/>
-      <c r="K196" s="39"/>
-      <c r="O196" s="153"/>
-      <c r="P196" s="152">
+      <c r="K196" s="3">
+        <f t="shared" si="33"/>
+        <v>-4869444.444444444</v>
+      </c>
+      <c r="O196" s="106"/>
+      <c r="P196" s="96">
         <v>170</v>
       </c>
     </row>
     <row r="197" spans="2:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="150" t="s">
+      <c r="B197" s="159" t="s">
+        <v>394</v>
+      </c>
+      <c r="C197" s="39">
+        <f t="shared" si="52"/>
+        <v>2250000</v>
+      </c>
+      <c r="D197" s="39">
+        <f t="shared" si="53"/>
+        <v>619444.4444444445</v>
+      </c>
+      <c r="E197" s="39"/>
+      <c r="F197" s="75">
+        <f t="shared" si="30"/>
+        <v>2869444.4444444445</v>
+      </c>
+      <c r="G197" s="58">
+        <f t="shared" si="32"/>
+        <v>3443333.3333333335</v>
+      </c>
+      <c r="H197" s="3">
+        <f t="shared" si="31"/>
+        <v>3586805.5555555555</v>
+      </c>
+      <c r="I197" s="39">
+        <v>4500000</v>
+      </c>
+      <c r="J197" s="39"/>
+      <c r="K197" s="3">
+        <f t="shared" si="33"/>
+        <v>1630555.5555555555</v>
+      </c>
+      <c r="O197" s="106"/>
+      <c r="P197" s="96">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="198" spans="2:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B198" s="159" t="s">
         <v>395</v>
       </c>
-      <c r="C197" s="39">
-        <f t="shared" si="49"/>
-        <v>2250000</v>
-      </c>
-      <c r="D197" s="39"/>
-      <c r="E197" s="39"/>
-      <c r="F197" s="39"/>
-      <c r="G197" s="39"/>
-      <c r="H197" s="39"/>
-      <c r="I197" s="39"/>
-      <c r="J197" s="39"/>
-      <c r="K197" s="39"/>
-      <c r="O197" s="153"/>
-      <c r="P197" s="152">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="198" spans="2:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="150" t="s">
-        <v>396</v>
-      </c>
       <c r="C198" s="39">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>1625000</v>
       </c>
-      <c r="D198" s="39"/>
+      <c r="D198" s="39">
+        <f t="shared" si="53"/>
+        <v>619444.4444444445</v>
+      </c>
       <c r="E198" s="39"/>
-      <c r="F198" s="39"/>
-      <c r="G198" s="39"/>
-      <c r="H198" s="39"/>
+      <c r="F198" s="75">
+        <f t="shared" si="30"/>
+        <v>2244444.4444444445</v>
+      </c>
+      <c r="G198" s="58">
+        <f t="shared" si="32"/>
+        <v>2693333.3333333335</v>
+      </c>
+      <c r="H198" s="3">
+        <f t="shared" si="31"/>
+        <v>2805555.5555555555</v>
+      </c>
       <c r="I198" s="39"/>
       <c r="J198" s="39"/>
-      <c r="K198" s="39"/>
-      <c r="O198" s="153"/>
-      <c r="P198" s="152">
+      <c r="K198" s="3">
+        <f t="shared" si="33"/>
+        <v>-2244444.4444444445</v>
+      </c>
+      <c r="O198" s="106"/>
+      <c r="P198" s="96">
         <v>65</v>
       </c>
     </row>
     <row r="199" spans="2:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="150" t="s">
-        <v>397</v>
+      <c r="B199" s="159" t="s">
+        <v>399</v>
       </c>
       <c r="C199" s="39">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>1625000</v>
       </c>
-      <c r="D199" s="39"/>
+      <c r="D199" s="39">
+        <f t="shared" si="53"/>
+        <v>619444.4444444445</v>
+      </c>
       <c r="E199" s="39"/>
-      <c r="F199" s="39"/>
-      <c r="G199" s="39"/>
-      <c r="H199" s="39"/>
+      <c r="F199" s="75">
+        <f t="shared" si="30"/>
+        <v>2244444.4444444445</v>
+      </c>
+      <c r="G199" s="58">
+        <f t="shared" si="32"/>
+        <v>2693333.3333333335</v>
+      </c>
+      <c r="H199" s="3">
+        <f t="shared" si="31"/>
+        <v>2805555.5555555555</v>
+      </c>
       <c r="I199" s="39"/>
       <c r="J199" s="39"/>
-      <c r="K199" s="39"/>
-      <c r="O199" s="153"/>
-      <c r="P199" s="152">
+      <c r="K199" s="3">
+        <f t="shared" si="33"/>
+        <v>-2244444.4444444445</v>
+      </c>
+      <c r="O199" s="106"/>
+      <c r="P199" s="96">
         <v>65</v>
       </c>
     </row>
     <row r="200" spans="2:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="150" t="s">
-        <v>398</v>
+      <c r="B200" s="159" t="s">
+        <v>396</v>
       </c>
       <c r="C200" s="39">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>1875000</v>
       </c>
-      <c r="D200" s="39"/>
+      <c r="D200" s="39">
+        <f t="shared" si="53"/>
+        <v>619444.4444444445</v>
+      </c>
       <c r="E200" s="39"/>
-      <c r="F200" s="39"/>
-      <c r="G200" s="39"/>
-      <c r="H200" s="39"/>
+      <c r="F200" s="75">
+        <f t="shared" si="30"/>
+        <v>2494444.4444444445</v>
+      </c>
+      <c r="G200" s="58">
+        <f t="shared" si="32"/>
+        <v>2993333.3333333335</v>
+      </c>
+      <c r="H200" s="3">
+        <f t="shared" si="31"/>
+        <v>3118055.5555555555</v>
+      </c>
       <c r="I200" s="39"/>
       <c r="J200" s="39"/>
-      <c r="K200" s="39"/>
-      <c r="O200" s="153"/>
-      <c r="P200" s="152">
+      <c r="K200" s="3">
+        <f t="shared" si="33"/>
+        <v>-2494444.4444444445</v>
+      </c>
+      <c r="O200" s="106"/>
+      <c r="P200" s="96">
         <v>75</v>
       </c>
     </row>
     <row r="201" spans="2:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="150" t="s">
-        <v>399</v>
+      <c r="B201" s="159" t="s">
+        <v>397</v>
       </c>
       <c r="C201" s="39">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>2750000</v>
       </c>
-      <c r="D201" s="39"/>
+      <c r="D201" s="39">
+        <f t="shared" si="53"/>
+        <v>619444.4444444445</v>
+      </c>
       <c r="E201" s="39"/>
-      <c r="F201" s="39"/>
-      <c r="G201" s="39"/>
-      <c r="H201" s="39"/>
+      <c r="F201" s="75">
+        <f t="shared" ref="F201:F227" si="54">C201+D201+E201</f>
+        <v>3369444.4444444445</v>
+      </c>
+      <c r="G201" s="58">
+        <f t="shared" si="32"/>
+        <v>4043333.3333333335</v>
+      </c>
+      <c r="H201" s="3">
+        <f t="shared" ref="H201:H203" si="55">(F201*25%)+F201</f>
+        <v>4211805.555555556</v>
+      </c>
       <c r="I201" s="39"/>
       <c r="J201" s="39"/>
-      <c r="K201" s="39"/>
-      <c r="O201" s="153"/>
-      <c r="P201" s="152">
+      <c r="K201" s="3">
+        <f t="shared" si="33"/>
+        <v>-3369444.4444444445</v>
+      </c>
+      <c r="O201" s="106"/>
+      <c r="P201" s="96">
         <v>110</v>
       </c>
     </row>
     <row r="202" spans="2:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="150" t="s">
-        <v>392</v>
+      <c r="B202" s="159" t="s">
+        <v>391</v>
       </c>
       <c r="C202" s="39">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>2000000</v>
       </c>
-      <c r="D202" s="39"/>
+      <c r="D202" s="39">
+        <f t="shared" si="53"/>
+        <v>619444.4444444445</v>
+      </c>
       <c r="E202" s="39"/>
-      <c r="F202" s="39"/>
-      <c r="G202" s="39"/>
-      <c r="H202" s="39"/>
+      <c r="F202" s="75">
+        <f t="shared" si="54"/>
+        <v>2619444.4444444445</v>
+      </c>
+      <c r="G202" s="58">
+        <f t="shared" ref="G202:G203" si="56">(F202*20%)+F202</f>
+        <v>3143333.3333333335</v>
+      </c>
+      <c r="H202" s="3">
+        <f t="shared" si="55"/>
+        <v>3274305.5555555555</v>
+      </c>
       <c r="I202" s="39"/>
       <c r="J202" s="39"/>
-      <c r="K202" s="39"/>
-      <c r="O202" s="154"/>
-      <c r="P202" s="152">
+      <c r="K202" s="3">
+        <f t="shared" si="33"/>
+        <v>-2619444.4444444445</v>
+      </c>
+      <c r="O202" s="107"/>
+      <c r="P202" s="96">
         <v>80</v>
       </c>
     </row>
     <row r="203" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="43">
+      <c r="B203" s="125">
         <v>7620</v>
       </c>
       <c r="C203" s="39">
@@ -9245,68 +9751,587 @@
       </c>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
-      <c r="F203" s="7"/>
-      <c r="G203" s="7"/>
-      <c r="H203" s="7"/>
+      <c r="F203" s="75">
+        <f t="shared" si="54"/>
+        <v>18750000</v>
+      </c>
+      <c r="G203" s="58">
+        <f t="shared" si="56"/>
+        <v>22500000</v>
+      </c>
+      <c r="H203" s="3">
+        <f t="shared" si="55"/>
+        <v>23437500</v>
+      </c>
       <c r="I203" s="7"/>
       <c r="J203" s="7"/>
-      <c r="K203" s="7"/>
-      <c r="O203" s="144" t="s">
-        <v>400</v>
-      </c>
-      <c r="P203" s="155">
+      <c r="K203" s="3">
+        <f t="shared" si="33"/>
+        <v>-18750000</v>
+      </c>
+      <c r="O203" s="97" t="s">
+        <v>398</v>
+      </c>
+      <c r="P203" s="99">
         <v>750</v>
       </c>
     </row>
     <row r="204" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="43">
+      <c r="B204" s="125">
         <v>7620</v>
       </c>
       <c r="C204" s="39">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
-      <c r="F204" s="7"/>
+      <c r="F204" s="75">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
       <c r="G204" s="7"/>
       <c r="H204" s="7"/>
       <c r="I204" s="7"/>
       <c r="J204" s="7"/>
-      <c r="K204" s="7"/>
-      <c r="O204" s="148"/>
-      <c r="P204" s="156"/>
+      <c r="K204" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="O204" s="98"/>
+      <c r="P204" s="100"/>
+    </row>
+    <row r="205" spans="2:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B205" s="142">
+        <v>7410</v>
+      </c>
+      <c r="C205" s="53">
+        <f>90*25000</f>
+        <v>2250000</v>
+      </c>
+      <c r="D205" s="53"/>
+      <c r="E205" s="53"/>
+      <c r="F205" s="75">
+        <f t="shared" si="54"/>
+        <v>2250000</v>
+      </c>
+      <c r="G205" s="53"/>
+      <c r="H205" s="53"/>
+      <c r="I205" s="53"/>
+      <c r="J205" s="53"/>
+      <c r="K205" s="53">
+        <f t="shared" si="33"/>
+        <v>-2250000</v>
+      </c>
+      <c r="O205" s="120" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="206" spans="2:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B206" s="142">
+        <v>7410</v>
+      </c>
+      <c r="C206" s="53">
+        <f t="shared" ref="C206:C207" si="57">90*25000</f>
+        <v>2250000</v>
+      </c>
+      <c r="D206" s="53"/>
+      <c r="E206" s="53"/>
+      <c r="F206" s="75">
+        <f t="shared" si="54"/>
+        <v>2250000</v>
+      </c>
+      <c r="G206" s="53"/>
+      <c r="H206" s="53"/>
+      <c r="I206" s="53"/>
+      <c r="J206" s="53"/>
+      <c r="K206" s="53"/>
+      <c r="O206" s="121"/>
+    </row>
+    <row r="207" spans="2:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B207" s="142">
+        <v>7410</v>
+      </c>
+      <c r="C207" s="53">
+        <f t="shared" si="57"/>
+        <v>2250000</v>
+      </c>
+      <c r="D207" s="53"/>
+      <c r="E207" s="53"/>
+      <c r="F207" s="75">
+        <f t="shared" si="54"/>
+        <v>2250000</v>
+      </c>
+      <c r="G207" s="53"/>
+      <c r="H207" s="53"/>
+      <c r="I207" s="53"/>
+      <c r="J207" s="53"/>
+      <c r="K207" s="53"/>
+      <c r="O207" s="122"/>
+    </row>
+    <row r="208" spans="2:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B208" s="142">
+        <v>7400</v>
+      </c>
+      <c r="C208" s="53">
+        <f>75*25000</f>
+        <v>1875000</v>
+      </c>
+      <c r="D208" s="53"/>
+      <c r="E208" s="53"/>
+      <c r="F208" s="75">
+        <f t="shared" si="54"/>
+        <v>1875000</v>
+      </c>
+      <c r="G208" s="53"/>
+      <c r="H208" s="53"/>
+      <c r="I208" s="53"/>
+      <c r="J208" s="53"/>
+      <c r="K208" s="53"/>
+      <c r="O208" s="120" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="209" spans="2:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B209" s="142">
+        <v>7400</v>
+      </c>
+      <c r="C209" s="53">
+        <f t="shared" ref="C209:C212" si="58">75*25000</f>
+        <v>1875000</v>
+      </c>
+      <c r="D209" s="53"/>
+      <c r="E209" s="53"/>
+      <c r="F209" s="75">
+        <f t="shared" si="54"/>
+        <v>1875000</v>
+      </c>
+      <c r="G209" s="53"/>
+      <c r="H209" s="53"/>
+      <c r="I209" s="53"/>
+      <c r="J209" s="53"/>
+      <c r="K209" s="53"/>
+      <c r="O209" s="121"/>
+    </row>
+    <row r="210" spans="2:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B210" s="142">
+        <v>7400</v>
+      </c>
+      <c r="C210" s="53">
+        <f t="shared" si="58"/>
+        <v>1875000</v>
+      </c>
+      <c r="D210" s="53"/>
+      <c r="E210" s="53"/>
+      <c r="F210" s="75">
+        <f t="shared" si="54"/>
+        <v>1875000</v>
+      </c>
+      <c r="G210" s="53"/>
+      <c r="H210" s="53"/>
+      <c r="I210" s="53"/>
+      <c r="J210" s="53"/>
+      <c r="K210" s="53"/>
+      <c r="O210" s="121"/>
+    </row>
+    <row r="211" spans="2:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B211" s="142">
+        <v>7400</v>
+      </c>
+      <c r="C211" s="53">
+        <f t="shared" si="58"/>
+        <v>1875000</v>
+      </c>
+      <c r="D211" s="53"/>
+      <c r="E211" s="53"/>
+      <c r="F211" s="75">
+        <f t="shared" si="54"/>
+        <v>1875000</v>
+      </c>
+      <c r="G211" s="53"/>
+      <c r="H211" s="53"/>
+      <c r="I211" s="53"/>
+      <c r="J211" s="53"/>
+      <c r="K211" s="53"/>
+      <c r="O211" s="121"/>
+    </row>
+    <row r="212" spans="2:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B212" s="142">
+        <v>7400</v>
+      </c>
+      <c r="C212" s="53">
+        <f t="shared" si="58"/>
+        <v>1875000</v>
+      </c>
+      <c r="D212" s="53"/>
+      <c r="E212" s="53"/>
+      <c r="F212" s="75">
+        <f t="shared" si="54"/>
+        <v>1875000</v>
+      </c>
+      <c r="G212" s="53"/>
+      <c r="H212" s="53"/>
+      <c r="I212" s="53"/>
+      <c r="J212" s="53"/>
+      <c r="K212" s="53"/>
+      <c r="O212" s="122"/>
+    </row>
+    <row r="213" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="125" t="s">
+        <v>402</v>
+      </c>
+      <c r="C213" s="7">
+        <f>375*25000</f>
+        <v>9375000</v>
+      </c>
+      <c r="D213" s="7"/>
+      <c r="E213" s="7"/>
+      <c r="F213" s="75">
+        <f t="shared" si="54"/>
+        <v>9375000</v>
+      </c>
+      <c r="G213" s="7"/>
+      <c r="H213" s="7"/>
+      <c r="I213" s="7"/>
+      <c r="J213" s="7"/>
+      <c r="K213" s="7"/>
+      <c r="O213" s="97" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="214" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B214" s="125" t="s">
+        <v>402</v>
+      </c>
+      <c r="C214" s="7">
+        <f t="shared" ref="C214:C215" si="59">375*25000</f>
+        <v>9375000</v>
+      </c>
+      <c r="D214" s="7"/>
+      <c r="E214" s="7"/>
+      <c r="F214" s="75">
+        <f t="shared" si="54"/>
+        <v>9375000</v>
+      </c>
+      <c r="G214" s="7"/>
+      <c r="H214" s="7"/>
+      <c r="I214" s="7"/>
+      <c r="J214" s="7"/>
+      <c r="K214" s="7"/>
+      <c r="O214" s="104"/>
+    </row>
+    <row r="215" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B215" s="125" t="s">
+        <v>402</v>
+      </c>
+      <c r="C215" s="7">
+        <f t="shared" si="59"/>
+        <v>9375000</v>
+      </c>
+      <c r="D215" s="7"/>
+      <c r="E215" s="7"/>
+      <c r="F215" s="75">
+        <f t="shared" si="54"/>
+        <v>9375000</v>
+      </c>
+      <c r="G215" s="7"/>
+      <c r="H215" s="7"/>
+      <c r="I215" s="7"/>
+      <c r="J215" s="7"/>
+      <c r="K215" s="7"/>
+      <c r="O215" s="98"/>
+    </row>
+    <row r="216" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B216" s="124" t="s">
+        <v>404</v>
+      </c>
+      <c r="C216" s="3">
+        <f>600*25000</f>
+        <v>15000000</v>
+      </c>
+      <c r="F216" s="75">
+        <f t="shared" si="54"/>
+        <v>15000000</v>
+      </c>
+      <c r="O216" s="9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="217" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B217" s="124" t="s">
+        <v>405</v>
+      </c>
+      <c r="C217" s="3">
+        <f>500*25000</f>
+        <v>12500000</v>
+      </c>
+      <c r="F217" s="75">
+        <f t="shared" si="54"/>
+        <v>12500000</v>
+      </c>
+      <c r="O217" s="9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="218" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B218" s="124">
+        <v>7410</v>
+      </c>
+      <c r="C218" s="3">
+        <f>25000*200</f>
+        <v>5000000</v>
+      </c>
+      <c r="F218" s="75">
+        <f t="shared" si="54"/>
+        <v>5000000</v>
+      </c>
+      <c r="O218" s="9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="219" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B219" s="125" t="s">
+        <v>409</v>
+      </c>
+      <c r="C219" s="7">
+        <f>P219*25000</f>
+        <v>2225000</v>
+      </c>
+      <c r="D219" s="7"/>
+      <c r="E219" s="7"/>
+      <c r="F219" s="75">
+        <f t="shared" si="54"/>
+        <v>2225000</v>
+      </c>
+      <c r="G219" s="7"/>
+      <c r="H219" s="7"/>
+      <c r="I219" s="7"/>
+      <c r="J219" s="7"/>
+      <c r="K219" s="7"/>
+      <c r="O219" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="P219" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="220" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B220" s="125" t="s">
+        <v>409</v>
+      </c>
+      <c r="C220" s="7">
+        <f t="shared" ref="C220:C227" si="60">P220*25000</f>
+        <v>2225000</v>
+      </c>
+      <c r="D220" s="7"/>
+      <c r="E220" s="7"/>
+      <c r="F220" s="75">
+        <f t="shared" si="54"/>
+        <v>2225000</v>
+      </c>
+      <c r="G220" s="7"/>
+      <c r="H220" s="7"/>
+      <c r="I220" s="7"/>
+      <c r="J220" s="7"/>
+      <c r="K220" s="7"/>
+      <c r="O220" s="97" t="s">
+        <v>411</v>
+      </c>
+      <c r="P220" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="221" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B221" s="125">
+        <v>7390</v>
+      </c>
+      <c r="C221" s="7">
+        <f t="shared" si="60"/>
+        <v>1750000</v>
+      </c>
+      <c r="D221" s="7"/>
+      <c r="E221" s="7"/>
+      <c r="F221" s="75">
+        <f t="shared" si="54"/>
+        <v>1750000</v>
+      </c>
+      <c r="G221" s="7"/>
+      <c r="H221" s="7"/>
+      <c r="I221" s="7"/>
+      <c r="J221" s="7"/>
+      <c r="K221" s="7"/>
+      <c r="O221" s="104"/>
+      <c r="P221" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="222" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B222" s="125">
+        <v>7390</v>
+      </c>
+      <c r="C222" s="7">
+        <f t="shared" si="60"/>
+        <v>1750000</v>
+      </c>
+      <c r="D222" s="7"/>
+      <c r="E222" s="7"/>
+      <c r="F222" s="75">
+        <f t="shared" si="54"/>
+        <v>1750000</v>
+      </c>
+      <c r="G222" s="7"/>
+      <c r="H222" s="7"/>
+      <c r="I222" s="7"/>
+      <c r="J222" s="7"/>
+      <c r="K222" s="7"/>
+      <c r="O222" s="104"/>
+      <c r="P222" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="223" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B223" s="125">
+        <v>7410</v>
+      </c>
+      <c r="C223" s="7">
+        <f t="shared" si="60"/>
+        <v>2500000</v>
+      </c>
+      <c r="D223" s="7"/>
+      <c r="E223" s="7"/>
+      <c r="F223" s="75">
+        <f t="shared" si="54"/>
+        <v>2500000</v>
+      </c>
+      <c r="G223" s="7"/>
+      <c r="H223" s="7"/>
+      <c r="I223" s="7"/>
+      <c r="J223" s="7"/>
+      <c r="K223" s="7"/>
+      <c r="O223" s="104"/>
+      <c r="P223" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="224" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B224" s="125">
+        <v>7410</v>
+      </c>
+      <c r="C224" s="7">
+        <f t="shared" si="60"/>
+        <v>2500000</v>
+      </c>
+      <c r="D224" s="7"/>
+      <c r="E224" s="7"/>
+      <c r="F224" s="75">
+        <f t="shared" si="54"/>
+        <v>2500000</v>
+      </c>
+      <c r="G224" s="7"/>
+      <c r="H224" s="7"/>
+      <c r="I224" s="7"/>
+      <c r="J224" s="7"/>
+      <c r="K224" s="7"/>
+      <c r="O224" s="104"/>
+      <c r="P224" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="225" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B225" s="125">
+        <v>7410</v>
+      </c>
+      <c r="C225" s="7">
+        <f t="shared" si="60"/>
+        <v>2500000</v>
+      </c>
+      <c r="D225" s="7"/>
+      <c r="E225" s="7"/>
+      <c r="F225" s="75">
+        <f t="shared" si="54"/>
+        <v>2500000</v>
+      </c>
+      <c r="G225" s="7"/>
+      <c r="H225" s="7"/>
+      <c r="I225" s="7"/>
+      <c r="J225" s="7"/>
+      <c r="K225" s="7"/>
+      <c r="O225" s="98"/>
+      <c r="P225" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="226" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B226" s="124" t="s">
+        <v>412</v>
+      </c>
+      <c r="C226" s="3">
+        <f t="shared" si="60"/>
+        <v>7500000</v>
+      </c>
+      <c r="F226" s="75">
+        <f t="shared" si="54"/>
+        <v>7500000</v>
+      </c>
+      <c r="O226" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="P226" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="227" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B227" s="124" t="s">
+        <v>414</v>
+      </c>
+      <c r="C227" s="3">
+        <f t="shared" si="60"/>
+        <v>6250000</v>
+      </c>
+      <c r="F227" s="75">
+        <f t="shared" si="54"/>
+        <v>6250000</v>
+      </c>
+      <c r="O227" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="P227" s="2">
+        <v>250</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="L1:L80" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <mergeCells count="18">
+  <mergeCells count="21">
+    <mergeCell ref="O205:O207"/>
+    <mergeCell ref="O208:O212"/>
+    <mergeCell ref="O213:O215"/>
+    <mergeCell ref="O220:O225"/>
+    <mergeCell ref="O72:O74"/>
+    <mergeCell ref="O96:O97"/>
+    <mergeCell ref="O111:O115"/>
+    <mergeCell ref="O118:O122"/>
+    <mergeCell ref="O173:O177"/>
+    <mergeCell ref="O168:O172"/>
+    <mergeCell ref="O148:O150"/>
+    <mergeCell ref="O151:O154"/>
+    <mergeCell ref="O159:O160"/>
     <mergeCell ref="O203:O204"/>
     <mergeCell ref="P203:P204"/>
     <mergeCell ref="P181:P185"/>
     <mergeCell ref="P173:P177"/>
     <mergeCell ref="O189:O193"/>
-    <mergeCell ref="P189:P193"/>
     <mergeCell ref="O194:O202"/>
-    <mergeCell ref="O72:O74"/>
-    <mergeCell ref="O96:O97"/>
-    <mergeCell ref="O111:O115"/>
-    <mergeCell ref="O118:O122"/>
-    <mergeCell ref="O173:O177"/>
     <mergeCell ref="O181:O185"/>
     <mergeCell ref="O186:O187"/>
-    <mergeCell ref="O168:O172"/>
-    <mergeCell ref="O148:O150"/>
-    <mergeCell ref="O151:O154"/>
-    <mergeCell ref="O159:O160"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="C2:G2 H2:N17 O2:O22 B2:B25 C3:E25 F3:G27 K3:K79 L18:N39 H18:J65 O26 D26:E38 F28 G28:G72 C29:F38 O29:O38 D39:F39 C40:F41 L40:O41 D42:F57 L42:N69 E58:F58 D59:F69 I66:J69 H66:H72 D71:F72 I71:J72 L71:N73 D73:J78 M74:N74 L75:N78 F102:F125">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>MOD(ROW(),2)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D173 D178:D188">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="D178:D188">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>MOD(ROW(),2)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/TDStore/NhapXuatLaptop.xlsx
+++ b/TDStore/NhapXuatLaptop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06.TDStore\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94C88D0-30E2-4426-8B75-57D02F0F6AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5731B90-07F8-4E01-81E8-DADA521F4498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="433">
   <si>
     <t>ID máy</t>
   </si>
@@ -1283,6 +1283,54 @@
   </si>
   <si>
     <t>7400 75u</t>
+  </si>
+  <si>
+    <t>7620 RTX 3050</t>
+  </si>
+  <si>
+    <t>Latitude 7490 Core i5-8350U 8GB</t>
+  </si>
+  <si>
+    <t>Latitude 7490 Core i7-8650U 8GB</t>
+  </si>
+  <si>
+    <t>Latitude 7490 Core i7-8650U 16GB</t>
+  </si>
+  <si>
+    <t>Latitude 7490 Core i5-8350U 4GB</t>
+  </si>
+  <si>
+    <t>Latitude 7390 Core i7-8650U 4GB</t>
+  </si>
+  <si>
+    <t>Latitude 7400 Core i7-8665U 8GB</t>
+  </si>
+  <si>
+    <t>Latitude 7400 Core i7-8665U 4GB</t>
+  </si>
+  <si>
+    <t>Latitude 7480 Core i7-7600U 8GB</t>
+  </si>
+  <si>
+    <t>786204929948</t>
+  </si>
+  <si>
+    <t>786204970923</t>
+  </si>
+  <si>
+    <t>Dell Latitude 9410 i5-10310U 1.7ghz 16gb Ram Intel UHD Graphics (SSD,OS</t>
+  </si>
+  <si>
+    <t>787086282469</t>
+  </si>
+  <si>
+    <t>787001225658</t>
+  </si>
+  <si>
+    <t>Dell Latitude 9510 i7-10710U 1.1ghz 16gb Ram Intel UHD (No Bott. Cover, SSD</t>
+  </si>
+  <si>
+    <t>Dell Latitude 9420 i5-1145G7 2.6ghz 16gb Ram Iris Xe (No Bott.Cover, SSD, No OS)</t>
   </si>
 </sst>
 </file>
@@ -1541,7 +1589,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1697,84 +1745,6 @@
     <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1895,33 +1865,117 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -2364,17 +2418,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P227"/>
+  <dimension ref="A1:P248"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R209" sqref="R209"/>
+      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C218" sqref="C218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="80.42578125" style="124" customWidth="1"/>
+    <col min="2" max="2" width="80.42578125" style="98" customWidth="1"/>
     <col min="3" max="4" width="12.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="11.140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" style="3" customWidth="1"/>
@@ -2396,7 +2450,7 @@
       <c r="A1" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="97" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -2446,7 +2500,7 @@
       <c r="A2" s="46">
         <v>1</v>
       </c>
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="98" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
@@ -2478,7 +2532,7 @@
       <c r="A3" s="46">
         <v>2</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="98" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3">
@@ -2510,7 +2564,7 @@
       <c r="A4" s="46">
         <v>3</v>
       </c>
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="98" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3">
@@ -2542,7 +2596,7 @@
       <c r="A5" s="46">
         <v>4</v>
       </c>
-      <c r="B5" s="124" t="s">
+      <c r="B5" s="98" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="3">
@@ -2577,7 +2631,7 @@
       <c r="A6" s="46">
         <v>5</v>
       </c>
-      <c r="B6" s="124" t="s">
+      <c r="B6" s="98" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="3">
@@ -2609,7 +2663,7 @@
       <c r="A7" s="46">
         <v>6</v>
       </c>
-      <c r="B7" s="124" t="s">
+      <c r="B7" s="98" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="3">
@@ -2644,7 +2698,7 @@
       <c r="A8" s="46">
         <v>7</v>
       </c>
-      <c r="B8" s="124" t="s">
+      <c r="B8" s="98" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="3">
@@ -2676,7 +2730,7 @@
       <c r="A9" s="46">
         <v>8</v>
       </c>
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="98" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="3">
@@ -2708,7 +2762,7 @@
       <c r="A10" s="46">
         <v>9</v>
       </c>
-      <c r="B10" s="124" t="s">
+      <c r="B10" s="98" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="3">
@@ -2737,7 +2791,7 @@
       <c r="A11" s="46">
         <v>10</v>
       </c>
-      <c r="B11" s="124" t="s">
+      <c r="B11" s="98" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="3">
@@ -2772,7 +2826,7 @@
       <c r="A12" s="46">
         <v>11</v>
       </c>
-      <c r="B12" s="124" t="s">
+      <c r="B12" s="98" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="3">
@@ -2807,7 +2861,7 @@
       <c r="A13" s="46">
         <v>12</v>
       </c>
-      <c r="B13" s="124" t="s">
+      <c r="B13" s="98" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="3">
@@ -2839,7 +2893,7 @@
       <c r="A14" s="46">
         <v>13</v>
       </c>
-      <c r="B14" s="124" t="s">
+      <c r="B14" s="98" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="3">
@@ -2868,7 +2922,7 @@
       <c r="A15" s="46">
         <v>14</v>
       </c>
-      <c r="B15" s="124" t="s">
+      <c r="B15" s="98" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="3">
@@ -2900,7 +2954,7 @@
       <c r="A16" s="46">
         <v>15</v>
       </c>
-      <c r="B16" s="124" t="s">
+      <c r="B16" s="98" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="3">
@@ -2929,7 +2983,7 @@
       <c r="A17" s="46">
         <v>16</v>
       </c>
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="98" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="3">
@@ -2961,7 +3015,7 @@
       <c r="A18" s="46">
         <v>17</v>
       </c>
-      <c r="B18" s="124" t="s">
+      <c r="B18" s="98" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="3">
@@ -2996,7 +3050,7 @@
       <c r="A19" s="46">
         <v>18</v>
       </c>
-      <c r="B19" s="124" t="s">
+      <c r="B19" s="98" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="3">
@@ -3028,7 +3082,7 @@
       <c r="A20" s="46">
         <v>19</v>
       </c>
-      <c r="B20" s="125" t="s">
+      <c r="B20" s="99" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="7">
@@ -3069,7 +3123,7 @@
       <c r="A21" s="46">
         <v>20</v>
       </c>
-      <c r="B21" s="124" t="s">
+      <c r="B21" s="98" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="3">
@@ -3110,7 +3164,7 @@
       <c r="A22" s="46">
         <v>21</v>
       </c>
-      <c r="B22" s="124" t="s">
+      <c r="B22" s="98" t="s">
         <v>51</v>
       </c>
       <c r="C22" s="3">
@@ -3145,7 +3199,7 @@
       <c r="A23" s="47">
         <v>22</v>
       </c>
-      <c r="B23" s="126" t="s">
+      <c r="B23" s="100" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="15">
@@ -3189,7 +3243,7 @@
       <c r="A24" s="47">
         <v>23</v>
       </c>
-      <c r="B24" s="126" t="s">
+      <c r="B24" s="100" t="s">
         <v>52</v>
       </c>
       <c r="C24" s="15">
@@ -3227,7 +3281,7 @@
       <c r="A25" s="47">
         <v>24</v>
       </c>
-      <c r="B25" s="126" t="s">
+      <c r="B25" s="100" t="s">
         <v>53</v>
       </c>
       <c r="C25" s="15">
@@ -3270,7 +3324,7 @@
       <c r="A26" s="47">
         <v>25</v>
       </c>
-      <c r="B26" s="127" t="s">
+      <c r="B26" s="101" t="s">
         <v>56</v>
       </c>
       <c r="C26" s="19">
@@ -3308,7 +3362,7 @@
       <c r="A27" s="47">
         <v>26</v>
       </c>
-      <c r="B27" s="126" t="s">
+      <c r="B27" s="100" t="s">
         <v>60</v>
       </c>
       <c r="C27" s="27">
@@ -3351,7 +3405,7 @@
       <c r="A28" s="47">
         <v>27</v>
       </c>
-      <c r="B28" s="128" t="s">
+      <c r="B28" s="102" t="s">
         <v>61</v>
       </c>
       <c r="C28" s="20">
@@ -3398,7 +3452,7 @@
       <c r="A29" s="47">
         <v>28</v>
       </c>
-      <c r="B29" s="127" t="s">
+      <c r="B29" s="101" t="s">
         <v>63</v>
       </c>
       <c r="C29" s="15">
@@ -3439,7 +3493,7 @@
       <c r="A30" s="48">
         <v>29</v>
       </c>
-      <c r="B30" s="129" t="s">
+      <c r="B30" s="103" t="s">
         <v>67</v>
       </c>
       <c r="C30" s="24">
@@ -3480,7 +3534,7 @@
       <c r="A31" s="47">
         <v>30</v>
       </c>
-      <c r="B31" s="130" t="s">
+      <c r="B31" s="104" t="s">
         <v>68</v>
       </c>
       <c r="C31" s="15">
@@ -3523,7 +3577,7 @@
       <c r="A32" s="46">
         <v>31</v>
       </c>
-      <c r="B32" s="131" t="s">
+      <c r="B32" s="105" t="s">
         <v>70</v>
       </c>
       <c r="C32" s="58">
@@ -3568,7 +3622,7 @@
       <c r="A33" s="46">
         <v>32</v>
       </c>
-      <c r="B33" s="127" t="s">
+      <c r="B33" s="101" t="s">
         <v>71</v>
       </c>
       <c r="C33" s="3">
@@ -3604,7 +3658,7 @@
       <c r="A34" s="46">
         <v>33</v>
       </c>
-      <c r="B34" s="132" t="s">
+      <c r="B34" s="106" t="s">
         <v>77</v>
       </c>
       <c r="C34" s="3">
@@ -3640,7 +3694,7 @@
       <c r="A35" s="46">
         <v>34</v>
       </c>
-      <c r="B35" s="132" t="s">
+      <c r="B35" s="106" t="s">
         <v>78</v>
       </c>
       <c r="C35" s="3">
@@ -3676,7 +3730,7 @@
       <c r="A36" s="46">
         <v>35</v>
       </c>
-      <c r="B36" s="132" t="s">
+      <c r="B36" s="106" t="s">
         <v>82</v>
       </c>
       <c r="C36" s="3">
@@ -3715,7 +3769,7 @@
       <c r="A37" s="46">
         <v>36</v>
       </c>
-      <c r="B37" s="127" t="s">
+      <c r="B37" s="101" t="s">
         <v>83</v>
       </c>
       <c r="C37" s="3">
@@ -3751,7 +3805,7 @@
       <c r="A38" s="46">
         <v>37</v>
       </c>
-      <c r="B38" s="133" t="s">
+      <c r="B38" s="107" t="s">
         <v>94</v>
       </c>
       <c r="C38" s="14">
@@ -3789,7 +3843,7 @@
       <c r="A39" s="46">
         <v>38</v>
       </c>
-      <c r="B39" s="124" t="s">
+      <c r="B39" s="98" t="s">
         <v>95</v>
       </c>
       <c r="C39" s="13">
@@ -3828,7 +3882,7 @@
       <c r="A40" s="46">
         <v>39</v>
       </c>
-      <c r="B40" s="133" t="s">
+      <c r="B40" s="107" t="s">
         <v>96</v>
       </c>
       <c r="C40" s="3">
@@ -3864,7 +3918,7 @@
       <c r="A41" s="46">
         <v>40</v>
       </c>
-      <c r="B41" s="133" t="s">
+      <c r="B41" s="107" t="s">
         <v>97</v>
       </c>
       <c r="C41" s="3">
@@ -3900,7 +3954,7 @@
       <c r="A42" s="46">
         <v>41</v>
       </c>
-      <c r="B42" s="124" t="s">
+      <c r="B42" s="98" t="s">
         <v>100</v>
       </c>
       <c r="C42" s="13">
@@ -3936,7 +3990,7 @@
       <c r="A43" s="46">
         <v>42</v>
       </c>
-      <c r="B43" s="127" t="s">
+      <c r="B43" s="101" t="s">
         <v>101</v>
       </c>
       <c r="C43" s="13">
@@ -3975,7 +4029,7 @@
       <c r="A44" s="46">
         <v>43</v>
       </c>
-      <c r="B44" s="127" t="s">
+      <c r="B44" s="101" t="s">
         <v>105</v>
       </c>
       <c r="C44" s="13">
@@ -4014,7 +4068,7 @@
       <c r="A45" s="46">
         <v>44</v>
       </c>
-      <c r="B45" s="134" t="s">
+      <c r="B45" s="108" t="s">
         <v>114</v>
       </c>
       <c r="C45" s="13">
@@ -4056,7 +4110,7 @@
       <c r="A46" s="46">
         <v>45</v>
       </c>
-      <c r="B46" s="134" t="s">
+      <c r="B46" s="108" t="s">
         <v>116</v>
       </c>
       <c r="C46" s="13">
@@ -4095,7 +4149,7 @@
       <c r="A47" s="46">
         <v>46</v>
       </c>
-      <c r="B47" s="134" t="s">
+      <c r="B47" s="108" t="s">
         <v>118</v>
       </c>
       <c r="C47" s="13">
@@ -4137,7 +4191,7 @@
       <c r="A48" s="46">
         <v>47</v>
       </c>
-      <c r="B48" s="134" t="s">
+      <c r="B48" s="108" t="s">
         <v>120</v>
       </c>
       <c r="C48" s="13">
@@ -4179,7 +4233,7 @@
       <c r="A49" s="46">
         <v>48</v>
       </c>
-      <c r="B49" s="127" t="s">
+      <c r="B49" s="101" t="s">
         <v>122</v>
       </c>
       <c r="C49" s="13">
@@ -4221,7 +4275,7 @@
       <c r="A50" s="46">
         <v>49</v>
       </c>
-      <c r="B50" s="127" t="s">
+      <c r="B50" s="101" t="s">
         <v>124</v>
       </c>
       <c r="C50" s="13">
@@ -4263,7 +4317,7 @@
       <c r="A51" s="46">
         <v>50</v>
       </c>
-      <c r="B51" s="133" t="s">
+      <c r="B51" s="107" t="s">
         <v>126</v>
       </c>
       <c r="C51" s="13">
@@ -4296,7 +4350,7 @@
       <c r="A52" s="46">
         <v>51</v>
       </c>
-      <c r="B52" s="135" t="s">
+      <c r="B52" s="109" t="s">
         <v>128</v>
       </c>
       <c r="C52" s="62">
@@ -4339,7 +4393,7 @@
       <c r="A53" s="49">
         <v>52</v>
       </c>
-      <c r="B53" s="136" t="s">
+      <c r="B53" s="110" t="s">
         <v>130</v>
       </c>
       <c r="C53" s="41">
@@ -4382,7 +4436,7 @@
       <c r="A54" s="46">
         <v>53</v>
       </c>
-      <c r="B54" s="127" t="s">
+      <c r="B54" s="101" t="s">
         <v>132</v>
       </c>
       <c r="C54" s="13">
@@ -4421,7 +4475,7 @@
       <c r="A55" s="46">
         <v>54</v>
       </c>
-      <c r="B55" s="127" t="s">
+      <c r="B55" s="101" t="s">
         <v>134</v>
       </c>
       <c r="C55" s="13">
@@ -4463,7 +4517,7 @@
       <c r="A56" s="49">
         <v>55</v>
       </c>
-      <c r="B56" s="136" t="s">
+      <c r="B56" s="110" t="s">
         <v>178</v>
       </c>
       <c r="C56" s="41">
@@ -4506,7 +4560,7 @@
       <c r="A57" s="46">
         <v>56</v>
       </c>
-      <c r="B57" s="133" t="s">
+      <c r="B57" s="107" t="s">
         <v>137</v>
       </c>
       <c r="C57" s="13">
@@ -4551,7 +4605,7 @@
       <c r="A58" s="46">
         <v>57</v>
       </c>
-      <c r="B58" s="137" t="s">
+      <c r="B58" s="111" t="s">
         <v>139</v>
       </c>
       <c r="C58" s="13">
@@ -4590,7 +4644,7 @@
       <c r="A59" s="50">
         <v>58</v>
       </c>
-      <c r="B59" s="138" t="s">
+      <c r="B59" s="112" t="s">
         <v>141</v>
       </c>
       <c r="C59" s="38">
@@ -4631,7 +4685,7 @@
       <c r="A60" s="46">
         <v>59</v>
       </c>
-      <c r="B60" s="127" t="s">
+      <c r="B60" s="101" t="s">
         <v>227</v>
       </c>
       <c r="C60" s="13">
@@ -4670,7 +4724,7 @@
       <c r="A61" s="52">
         <v>60</v>
       </c>
-      <c r="B61" s="139" t="s">
+      <c r="B61" s="113" t="s">
         <v>144</v>
       </c>
       <c r="C61" s="34">
@@ -4710,7 +4764,7 @@
       <c r="A62" s="46">
         <v>61</v>
       </c>
-      <c r="B62" s="134" t="s">
+      <c r="B62" s="108" t="s">
         <v>146</v>
       </c>
       <c r="C62" s="13">
@@ -4752,7 +4806,7 @@
       <c r="A63" s="46">
         <v>62</v>
       </c>
-      <c r="B63" s="134" t="s">
+      <c r="B63" s="108" t="s">
         <v>148</v>
       </c>
       <c r="C63" s="13">
@@ -4794,7 +4848,7 @@
       <c r="A64" s="48">
         <v>63</v>
       </c>
-      <c r="B64" s="140" t="s">
+      <c r="B64" s="114" t="s">
         <v>150</v>
       </c>
       <c r="C64" s="32">
@@ -4834,7 +4888,7 @@
       <c r="A65" s="46">
         <v>64</v>
       </c>
-      <c r="B65" s="134" t="s">
+      <c r="B65" s="108" t="s">
         <v>152</v>
       </c>
       <c r="C65" s="13">
@@ -4876,7 +4930,7 @@
       <c r="A66" s="46">
         <v>65</v>
       </c>
-      <c r="B66" s="134" t="s">
+      <c r="B66" s="108" t="s">
         <v>154</v>
       </c>
       <c r="C66" s="13">
@@ -4909,7 +4963,7 @@
       <c r="A67" s="49">
         <v>66</v>
       </c>
-      <c r="B67" s="141" t="s">
+      <c r="B67" s="115" t="s">
         <v>160</v>
       </c>
       <c r="C67" s="41">
@@ -4949,7 +5003,7 @@
       <c r="A68" s="46">
         <v>67</v>
       </c>
-      <c r="B68" s="134" t="s">
+      <c r="B68" s="108" t="s">
         <v>162</v>
       </c>
       <c r="C68" s="13">
@@ -4988,7 +5042,7 @@
       <c r="A69" s="46">
         <v>68</v>
       </c>
-      <c r="B69" s="134" t="s">
+      <c r="B69" s="108" t="s">
         <v>164</v>
       </c>
       <c r="C69" s="13">
@@ -5027,7 +5081,7 @@
       <c r="A70" s="52">
         <v>69</v>
       </c>
-      <c r="B70" s="142" t="s">
+      <c r="B70" s="116" t="s">
         <v>211</v>
       </c>
       <c r="C70" s="53">
@@ -5070,7 +5124,7 @@
       <c r="A71" s="52">
         <v>70</v>
       </c>
-      <c r="B71" s="127" t="s">
+      <c r="B71" s="101" t="s">
         <v>169</v>
       </c>
       <c r="C71" s="13">
@@ -5112,7 +5166,7 @@
       <c r="A72" s="56">
         <v>71</v>
       </c>
-      <c r="B72" s="143" t="s">
+      <c r="B72" s="117" t="s">
         <v>181</v>
       </c>
       <c r="C72" s="65">
@@ -5145,7 +5199,7 @@
       <c r="L72" s="68" t="s">
         <v>207</v>
       </c>
-      <c r="O72" s="108" t="s">
+      <c r="O72" s="161" t="s">
         <v>182</v>
       </c>
     </row>
@@ -5153,7 +5207,7 @@
       <c r="A73" s="52">
         <v>72</v>
       </c>
-      <c r="B73" s="143" t="s">
+      <c r="B73" s="117" t="s">
         <v>181</v>
       </c>
       <c r="C73" s="13">
@@ -5187,13 +5241,13 @@
       <c r="L73" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="O73" s="108"/>
+      <c r="O73" s="161"/>
     </row>
     <row r="74" spans="1:15" s="57" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="69">
         <v>73</v>
       </c>
-      <c r="B74" s="144" t="s">
+      <c r="B74" s="118" t="s">
         <v>212</v>
       </c>
       <c r="C74" s="70">
@@ -5227,13 +5281,13 @@
       </c>
       <c r="M74" s="73"/>
       <c r="N74" s="73"/>
-      <c r="O74" s="108"/>
+      <c r="O74" s="161"/>
     </row>
     <row r="75" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="52">
         <v>74</v>
       </c>
-      <c r="B75" s="127" t="s">
+      <c r="B75" s="101" t="s">
         <v>183</v>
       </c>
       <c r="C75" s="13">
@@ -5272,7 +5326,7 @@
       <c r="A76" s="52">
         <v>75</v>
       </c>
-      <c r="B76" s="143" t="s">
+      <c r="B76" s="117" t="s">
         <v>185</v>
       </c>
       <c r="C76" s="13">
@@ -5305,7 +5359,7 @@
       <c r="A77" s="52">
         <v>76</v>
       </c>
-      <c r="B77" s="143" t="s">
+      <c r="B77" s="117" t="s">
         <v>187</v>
       </c>
       <c r="C77" s="13">
@@ -5347,7 +5401,7 @@
       <c r="A78" s="52">
         <v>77</v>
       </c>
-      <c r="B78" s="143" t="s">
+      <c r="B78" s="117" t="s">
         <v>189</v>
       </c>
       <c r="C78" s="13">
@@ -5392,7 +5446,7 @@
       <c r="A79" s="52">
         <v>78</v>
       </c>
-      <c r="B79" s="143" t="s">
+      <c r="B79" s="117" t="s">
         <v>190</v>
       </c>
       <c r="C79" s="3">
@@ -5425,7 +5479,7 @@
       <c r="A80" s="52">
         <v>79</v>
       </c>
-      <c r="B80" s="124" t="s">
+      <c r="B80" s="98" t="s">
         <v>192</v>
       </c>
       <c r="C80" s="3">
@@ -5467,7 +5521,7 @@
       <c r="A81" s="52">
         <v>80</v>
       </c>
-      <c r="B81" s="143" t="s">
+      <c r="B81" s="117" t="s">
         <v>194</v>
       </c>
       <c r="C81" s="3">
@@ -5509,7 +5563,7 @@
       <c r="A82" s="52">
         <v>81</v>
       </c>
-      <c r="B82" s="145" t="s">
+      <c r="B82" s="119" t="s">
         <v>197</v>
       </c>
       <c r="C82" s="3">
@@ -5548,7 +5602,7 @@
       <c r="A83" s="52">
         <v>82</v>
       </c>
-      <c r="B83" s="124" t="s">
+      <c r="B83" s="98" t="s">
         <v>199</v>
       </c>
       <c r="C83" s="3">
@@ -5587,7 +5641,7 @@
       <c r="A84" s="52">
         <v>83</v>
       </c>
-      <c r="B84" s="124" t="s">
+      <c r="B84" s="98" t="s">
         <v>201</v>
       </c>
       <c r="C84" s="3">
@@ -5620,7 +5674,7 @@
       <c r="A85" s="52">
         <v>84</v>
       </c>
-      <c r="B85" s="124" t="s">
+      <c r="B85" s="98" t="s">
         <v>203</v>
       </c>
       <c r="C85" s="3">
@@ -5665,7 +5719,7 @@
       <c r="A86" s="56">
         <v>85</v>
       </c>
-      <c r="B86" s="143" t="s">
+      <c r="B86" s="117" t="s">
         <v>205</v>
       </c>
       <c r="C86" s="3">
@@ -5707,7 +5761,7 @@
       <c r="A87" s="52">
         <v>86</v>
       </c>
-      <c r="B87" s="143" t="s">
+      <c r="B87" s="117" t="s">
         <v>206</v>
       </c>
       <c r="C87" s="3">
@@ -5744,7 +5798,7 @@
     </row>
     <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="52"/>
-      <c r="B88" s="143" t="s">
+      <c r="B88" s="117" t="s">
         <v>236</v>
       </c>
       <c r="C88" s="3">
@@ -5780,7 +5834,7 @@
       </c>
     </row>
     <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="146" t="s">
+      <c r="B89" s="120" t="s">
         <v>216</v>
       </c>
       <c r="C89" s="3">
@@ -5822,7 +5876,7 @@
       </c>
     </row>
     <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="147" t="s">
+      <c r="B90" s="121" t="s">
         <v>233</v>
       </c>
       <c r="C90" s="3">
@@ -5862,7 +5916,7 @@
     </row>
     <row r="91" spans="1:15" s="76" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="74"/>
-      <c r="B91" s="148" t="s">
+      <c r="B91" s="122" t="s">
         <v>219</v>
       </c>
       <c r="C91" s="75">
@@ -5893,7 +5947,7 @@
       </c>
     </row>
     <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="124" t="s">
+      <c r="B92" s="98" t="s">
         <v>221</v>
       </c>
       <c r="C92" s="3">
@@ -5932,7 +5986,7 @@
       </c>
     </row>
     <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="124" t="s">
+      <c r="B93" s="98" t="s">
         <v>223</v>
       </c>
       <c r="C93" s="3">
@@ -5971,7 +6025,7 @@
       </c>
     </row>
     <row r="94" spans="1:15" s="76" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="149" t="s">
+      <c r="B94" s="123" t="s">
         <v>225</v>
       </c>
       <c r="C94" s="75">
@@ -6002,7 +6056,7 @@
       </c>
     </row>
     <row r="95" spans="1:15" s="76" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="149" t="s">
+      <c r="B95" s="123" t="s">
         <v>226</v>
       </c>
       <c r="C95" s="75">
@@ -6033,7 +6087,7 @@
       </c>
     </row>
     <row r="96" spans="1:15" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="128" t="s">
+      <c r="B96" s="102" t="s">
         <v>230</v>
       </c>
       <c r="C96" s="21">
@@ -6071,12 +6125,12 @@
       <c r="N96" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="O96" s="109" t="s">
+      <c r="O96" s="156" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="97" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="124" t="s">
+      <c r="B97" s="98" t="s">
         <v>231</v>
       </c>
       <c r="C97" s="3">
@@ -6101,10 +6155,10 @@
         <f t="shared" si="14"/>
         <v>-4698000</v>
       </c>
-      <c r="O97" s="110"/>
+      <c r="O97" s="157"/>
     </row>
     <row r="98" spans="2:15" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="150" t="s">
+      <c r="B98" s="124" t="s">
         <v>242</v>
       </c>
       <c r="C98" s="83">
@@ -6139,7 +6193,7 @@
       </c>
     </row>
     <row r="99" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="124" t="s">
+      <c r="B99" s="98" t="s">
         <v>244</v>
       </c>
       <c r="C99" s="3">
@@ -6175,7 +6229,7 @@
       </c>
     </row>
     <row r="100" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="124" t="s">
+      <c r="B100" s="98" t="s">
         <v>246</v>
       </c>
       <c r="C100" s="3">
@@ -6199,7 +6253,7 @@
       </c>
     </row>
     <row r="101" spans="2:15" s="76" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="149" t="s">
+      <c r="B101" s="123" t="s">
         <v>247</v>
       </c>
       <c r="C101" s="75">
@@ -6230,7 +6284,7 @@
       </c>
     </row>
     <row r="102" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="124" t="s">
+      <c r="B102" s="98" t="s">
         <v>259</v>
       </c>
       <c r="C102" s="3">
@@ -6266,7 +6320,7 @@
       </c>
     </row>
     <row r="103" spans="2:15" s="76" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="149" t="s">
+      <c r="B103" s="123" t="s">
         <v>248</v>
       </c>
       <c r="C103" s="75"/>
@@ -6295,7 +6349,7 @@
       </c>
     </row>
     <row r="104" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="124" t="s">
+      <c r="B104" s="98" t="s">
         <v>256</v>
       </c>
       <c r="C104" s="3">
@@ -6334,7 +6388,7 @@
       </c>
     </row>
     <row r="105" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="151" t="s">
+      <c r="B105" s="125" t="s">
         <v>261</v>
       </c>
       <c r="C105" s="3">
@@ -6367,7 +6421,7 @@
       </c>
     </row>
     <row r="106" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="152" t="s">
+      <c r="B106" s="126" t="s">
         <v>262</v>
       </c>
       <c r="C106" s="3">
@@ -6406,7 +6460,7 @@
       </c>
     </row>
     <row r="107" spans="2:15" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="150" t="s">
+      <c r="B107" s="124" t="s">
         <v>264</v>
       </c>
       <c r="C107" s="86">
@@ -6439,7 +6493,7 @@
       </c>
     </row>
     <row r="108" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="124" t="s">
+      <c r="B108" s="98" t="s">
         <v>267</v>
       </c>
       <c r="C108" s="3">
@@ -6475,7 +6529,7 @@
       </c>
     </row>
     <row r="109" spans="2:15" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="128" t="s">
+      <c r="B109" s="102" t="s">
         <v>268</v>
       </c>
       <c r="C109" s="21">
@@ -6518,7 +6572,7 @@
       </c>
     </row>
     <row r="110" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="124" t="s">
+      <c r="B110" s="98" t="s">
         <v>270</v>
       </c>
       <c r="C110" s="3">
@@ -6554,7 +6608,7 @@
       </c>
     </row>
     <row r="111" spans="2:15" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="128" t="s">
+      <c r="B111" s="102" t="s">
         <v>272</v>
       </c>
       <c r="C111" s="21">
@@ -6592,12 +6646,12 @@
       <c r="N111" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="O111" s="109" t="s">
+      <c r="O111" s="156" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="112" spans="2:15" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="128" t="s">
+      <c r="B112" s="102" t="s">
         <v>272</v>
       </c>
       <c r="C112" s="21">
@@ -6635,10 +6689,10 @@
       <c r="N112" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="O112" s="111"/>
+      <c r="O112" s="162"/>
     </row>
     <row r="113" spans="2:15" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="128" t="s">
+      <c r="B113" s="102" t="s">
         <v>272</v>
       </c>
       <c r="C113" s="21">
@@ -6676,10 +6730,10 @@
       <c r="N113" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="O113" s="111"/>
+      <c r="O113" s="162"/>
     </row>
     <row r="114" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="124" t="s">
+      <c r="B114" s="98" t="s">
         <v>272</v>
       </c>
       <c r="C114" s="3">
@@ -6706,10 +6760,10 @@
         <f t="shared" ref="K114" si="24">I114-J114-F114</f>
         <v>-4068000</v>
       </c>
-      <c r="O114" s="111"/>
+      <c r="O114" s="162"/>
     </row>
     <row r="115" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="124" t="s">
+      <c r="B115" s="98" t="s">
         <v>274</v>
       </c>
       <c r="C115" s="3">
@@ -6741,10 +6795,10 @@
       <c r="L115" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O115" s="110"/>
+      <c r="O115" s="157"/>
     </row>
     <row r="116" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="124" t="s">
+      <c r="B116" s="98" t="s">
         <v>275</v>
       </c>
       <c r="C116" s="3">
@@ -6771,7 +6825,7 @@
       </c>
     </row>
     <row r="117" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="124" t="s">
+      <c r="B117" s="98" t="s">
         <v>277</v>
       </c>
       <c r="C117" s="3">
@@ -6810,7 +6864,7 @@
       </c>
     </row>
     <row r="118" spans="2:15" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="153" t="s">
+      <c r="B118" s="127" t="s">
         <v>279</v>
       </c>
       <c r="C118" s="24">
@@ -6845,12 +6899,12 @@
       <c r="L118" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="O118" s="112" t="s">
+      <c r="O118" s="163" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="119" spans="2:15" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="153" t="s">
+      <c r="B119" s="127" t="s">
         <v>279</v>
       </c>
       <c r="C119" s="24">
@@ -6885,10 +6939,10 @@
       <c r="L119" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="O119" s="113"/>
+      <c r="O119" s="164"/>
     </row>
     <row r="120" spans="2:15" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="153" t="s">
+      <c r="B120" s="127" t="s">
         <v>279</v>
       </c>
       <c r="C120" s="24">
@@ -6923,10 +6977,10 @@
       <c r="L120" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="O120" s="113"/>
+      <c r="O120" s="164"/>
     </row>
     <row r="121" spans="2:15" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="153" t="s">
+      <c r="B121" s="127" t="s">
         <v>279</v>
       </c>
       <c r="C121" s="24">
@@ -6961,10 +7015,10 @@
       <c r="L121" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="O121" s="113"/>
+      <c r="O121" s="164"/>
     </row>
     <row r="122" spans="2:15" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="153" t="s">
+      <c r="B122" s="127" t="s">
         <v>279</v>
       </c>
       <c r="C122" s="24">
@@ -6999,10 +7053,10 @@
       <c r="L122" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="O122" s="114"/>
+      <c r="O122" s="165"/>
     </row>
     <row r="123" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="124" t="s">
+      <c r="B123" s="98" t="s">
         <v>281</v>
       </c>
       <c r="C123" s="3">
@@ -7038,7 +7092,7 @@
       </c>
     </row>
     <row r="124" spans="2:15" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="153" t="s">
+      <c r="B124" s="127" t="s">
         <v>284</v>
       </c>
       <c r="C124" s="24">
@@ -7075,7 +7129,7 @@
       </c>
     </row>
     <row r="125" spans="2:15" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="153" t="s">
+      <c r="B125" s="127" t="s">
         <v>298</v>
       </c>
       <c r="C125" s="24">
@@ -7113,7 +7167,7 @@
       </c>
     </row>
     <row r="126" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="124" t="s">
+      <c r="B126" s="98" t="s">
         <v>299</v>
       </c>
       <c r="C126" s="3">
@@ -7149,7 +7203,7 @@
       </c>
     </row>
     <row r="127" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="124" t="s">
+      <c r="B127" s="98" t="s">
         <v>306</v>
       </c>
       <c r="C127" s="3">
@@ -7181,7 +7235,7 @@
       </c>
     </row>
     <row r="128" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="124" t="s">
+      <c r="B128" s="98" t="s">
         <v>306</v>
       </c>
       <c r="C128" s="3">
@@ -7213,7 +7267,7 @@
       </c>
     </row>
     <row r="129" spans="2:15" s="60" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B129" s="154" t="s">
+      <c r="B129" s="128" t="s">
         <v>327</v>
       </c>
       <c r="C129" s="58">
@@ -7246,7 +7300,7 @@
       </c>
     </row>
     <row r="130" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="124" t="s">
+      <c r="B130" s="98" t="s">
         <v>309</v>
       </c>
       <c r="C130" s="3">
@@ -7280,7 +7334,7 @@
       </c>
     </row>
     <row r="131" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="124" t="s">
+      <c r="B131" s="98" t="s">
         <v>311</v>
       </c>
       <c r="C131" s="3">
@@ -7311,7 +7365,7 @@
       </c>
     </row>
     <row r="132" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="124" t="s">
+      <c r="B132" s="98" t="s">
         <v>313</v>
       </c>
       <c r="C132" s="3">
@@ -7344,7 +7398,7 @@
       </c>
     </row>
     <row r="133" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="124" t="s">
+      <c r="B133" s="98" t="s">
         <v>313</v>
       </c>
       <c r="C133" s="3">
@@ -7377,7 +7431,7 @@
       </c>
     </row>
     <row r="134" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="124" t="s">
+      <c r="B134" s="98" t="s">
         <v>315</v>
       </c>
       <c r="C134" s="3">
@@ -7408,7 +7462,7 @@
       </c>
     </row>
     <row r="135" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="124" t="s">
+      <c r="B135" s="98" t="s">
         <v>317</v>
       </c>
       <c r="C135" s="3">
@@ -7439,7 +7493,7 @@
       </c>
     </row>
     <row r="136" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="124" t="s">
+      <c r="B136" s="98" t="s">
         <v>321</v>
       </c>
       <c r="F136" s="58">
@@ -7464,7 +7518,7 @@
       </c>
     </row>
     <row r="137" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="124" t="s">
+      <c r="B137" s="98" t="s">
         <v>321</v>
       </c>
       <c r="F137" s="58">
@@ -7489,7 +7543,7 @@
       </c>
     </row>
     <row r="138" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="155" t="s">
+      <c r="B138" s="129" t="s">
         <v>323</v>
       </c>
       <c r="C138" s="3">
@@ -7526,7 +7580,7 @@
       </c>
     </row>
     <row r="139" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="156" t="s">
+      <c r="B139" s="130" t="s">
         <v>325</v>
       </c>
       <c r="C139" s="3">
@@ -7562,7 +7616,7 @@
       </c>
     </row>
     <row r="140" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="124" t="s">
+      <c r="B140" s="98" t="s">
         <v>330</v>
       </c>
       <c r="C140" s="3">
@@ -7601,7 +7655,7 @@
       </c>
     </row>
     <row r="141" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="124" t="s">
+      <c r="B141" s="98" t="s">
         <v>332</v>
       </c>
       <c r="C141" s="3">
@@ -7632,7 +7686,7 @@
       </c>
     </row>
     <row r="142" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="124" t="s">
+      <c r="B142" s="98" t="s">
         <v>333</v>
       </c>
       <c r="C142" s="3">
@@ -7671,7 +7725,7 @@
       </c>
     </row>
     <row r="143" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="124" t="s">
+      <c r="B143" s="98" t="s">
         <v>335</v>
       </c>
       <c r="C143" s="3">
@@ -7707,7 +7761,7 @@
       </c>
     </row>
     <row r="144" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="124" t="s">
+      <c r="B144" s="98" t="s">
         <v>338</v>
       </c>
       <c r="C144" s="3">
@@ -7740,7 +7794,7 @@
       </c>
     </row>
     <row r="145" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="124" t="s">
+      <c r="B145" s="98" t="s">
         <v>339</v>
       </c>
       <c r="C145" s="3">
@@ -7768,7 +7822,7 @@
         <v>8000000</v>
       </c>
       <c r="K145" s="58">
-        <f t="shared" ref="K145:K205" si="33">I145-J145-F145</f>
+        <f t="shared" ref="K145:K208" si="33">I145-J145-F145</f>
         <v>3458000</v>
       </c>
       <c r="O145" s="9" t="s">
@@ -7776,7 +7830,7 @@
       </c>
     </row>
     <row r="146" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="124" t="s">
+      <c r="B146" s="98" t="s">
         <v>342</v>
       </c>
       <c r="C146" s="3">
@@ -7815,7 +7869,7 @@
       </c>
     </row>
     <row r="147" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="157" t="s">
+      <c r="B147" s="131" t="s">
         <v>344</v>
       </c>
       <c r="C147" s="3">
@@ -7851,7 +7905,7 @@
       </c>
     </row>
     <row r="148" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="124" t="s">
+      <c r="B148" s="98" t="s">
         <v>363</v>
       </c>
       <c r="C148" s="3">
@@ -7877,12 +7931,12 @@
         <f t="shared" si="33"/>
         <v>3400000</v>
       </c>
-      <c r="O148" s="109" t="s">
+      <c r="O148" s="156" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="149" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="124" t="s">
+      <c r="B149" s="98" t="s">
         <v>363</v>
       </c>
       <c r="C149" s="3">
@@ -7908,10 +7962,10 @@
         <f t="shared" si="33"/>
         <v>3400000</v>
       </c>
-      <c r="O149" s="111"/>
+      <c r="O149" s="162"/>
     </row>
     <row r="150" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="124" t="s">
+      <c r="B150" s="98" t="s">
         <v>363</v>
       </c>
       <c r="C150" s="3">
@@ -7937,10 +7991,10 @@
         <f t="shared" si="33"/>
         <v>3400000</v>
       </c>
-      <c r="O150" s="110"/>
+      <c r="O150" s="157"/>
     </row>
     <row r="151" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="124" t="s">
+      <c r="B151" s="98" t="s">
         <v>363</v>
       </c>
       <c r="C151" s="3">
@@ -7970,12 +8024,12 @@
         <f t="shared" si="33"/>
         <v>2681000</v>
       </c>
-      <c r="O151" s="109" t="s">
+      <c r="O151" s="156" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="152" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="124" t="s">
+      <c r="B152" s="98" t="s">
         <v>363</v>
       </c>
       <c r="C152" s="3">
@@ -8005,10 +8059,10 @@
         <f t="shared" si="33"/>
         <v>2681000</v>
       </c>
-      <c r="O152" s="111"/>
+      <c r="O152" s="162"/>
     </row>
     <row r="153" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="124" t="s">
+      <c r="B153" s="98" t="s">
         <v>364</v>
       </c>
       <c r="C153" s="3">
@@ -8034,10 +8088,10 @@
         <f t="shared" si="33"/>
         <v>-5519000</v>
       </c>
-      <c r="O153" s="111"/>
+      <c r="O153" s="162"/>
     </row>
     <row r="154" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="124" t="s">
+      <c r="B154" s="98" t="s">
         <v>366</v>
       </c>
       <c r="C154" s="3">
@@ -8069,10 +8123,10 @@
       <c r="L154" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="O154" s="110"/>
+      <c r="O154" s="157"/>
     </row>
     <row r="155" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="124" t="s">
+      <c r="B155" s="98" t="s">
         <v>348</v>
       </c>
       <c r="C155" s="3">
@@ -8108,7 +8162,7 @@
       </c>
     </row>
     <row r="156" spans="2:15" s="76" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="149" t="s">
+      <c r="B156" s="123" t="s">
         <v>350</v>
       </c>
       <c r="C156" s="75">
@@ -8141,7 +8195,7 @@
       </c>
     </row>
     <row r="157" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="124" t="s">
+      <c r="B157" s="98" t="s">
         <v>352</v>
       </c>
       <c r="C157" s="3">
@@ -8174,7 +8228,7 @@
       </c>
     </row>
     <row r="158" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="124" t="s">
+      <c r="B158" s="98" t="s">
         <v>354</v>
       </c>
       <c r="C158" s="3">
@@ -8210,7 +8264,7 @@
       </c>
     </row>
     <row r="159" spans="2:15" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="153" t="s">
+      <c r="B159" s="127" t="s">
         <v>356</v>
       </c>
       <c r="C159" s="24">
@@ -8243,12 +8297,12 @@
       <c r="L159" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="O159" s="118" t="s">
+      <c r="O159" s="166" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="160" spans="2:15" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="153" t="s">
+      <c r="B160" s="127" t="s">
         <v>321</v>
       </c>
       <c r="C160" s="24">
@@ -8282,10 +8336,10 @@
       <c r="L160" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="O160" s="119"/>
+      <c r="O160" s="167"/>
     </row>
     <row r="161" spans="2:16" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="153" t="s">
+      <c r="B161" s="127" t="s">
         <v>321</v>
       </c>
       <c r="C161" s="24">
@@ -8322,7 +8376,7 @@
       <c r="O161" s="92"/>
     </row>
     <row r="162" spans="2:16" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="153" t="s">
+      <c r="B162" s="127" t="s">
         <v>321</v>
       </c>
       <c r="C162" s="24">
@@ -8359,7 +8413,7 @@
       <c r="O162" s="92"/>
     </row>
     <row r="163" spans="2:16" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="153" t="s">
+      <c r="B163" s="127" t="s">
         <v>321</v>
       </c>
       <c r="C163" s="24">
@@ -8396,7 +8450,7 @@
       <c r="O163" s="92"/>
     </row>
     <row r="164" spans="2:16" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="153" t="s">
+      <c r="B164" s="127" t="s">
         <v>321</v>
       </c>
       <c r="C164" s="24">
@@ -8433,7 +8487,7 @@
       <c r="O164" s="92"/>
     </row>
     <row r="165" spans="2:16" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="153">
+      <c r="B165" s="127">
         <v>7410</v>
       </c>
       <c r="C165" s="24">
@@ -8470,7 +8524,7 @@
       </c>
     </row>
     <row r="166" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B166" s="124" t="s">
+      <c r="B166" s="98" t="s">
         <v>369</v>
       </c>
       <c r="C166" s="3">
@@ -8503,7 +8557,7 @@
       </c>
     </row>
     <row r="167" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="124" t="s">
+      <c r="B167" s="98" t="s">
         <v>359</v>
       </c>
       <c r="C167" s="3">
@@ -8539,7 +8593,7 @@
       </c>
     </row>
     <row r="168" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="124" t="s">
+      <c r="B168" s="98" t="s">
         <v>361</v>
       </c>
       <c r="C168" s="3">
@@ -8568,12 +8622,12 @@
         <f t="shared" si="33"/>
         <v>1608800</v>
       </c>
-      <c r="O168" s="109" t="s">
+      <c r="O168" s="156" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="169" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="124" t="s">
+      <c r="B169" s="98" t="s">
         <v>361</v>
       </c>
       <c r="C169" s="3">
@@ -8602,10 +8656,10 @@
         <f t="shared" si="33"/>
         <v>1608800</v>
       </c>
-      <c r="O169" s="111"/>
+      <c r="O169" s="162"/>
     </row>
     <row r="170" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="124" t="s">
+      <c r="B170" s="98" t="s">
         <v>361</v>
       </c>
       <c r="C170" s="3">
@@ -8634,10 +8688,10 @@
         <f t="shared" si="33"/>
         <v>1908800</v>
       </c>
-      <c r="O170" s="111"/>
+      <c r="O170" s="162"/>
     </row>
     <row r="171" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="124" t="s">
+      <c r="B171" s="98" t="s">
         <v>361</v>
       </c>
       <c r="C171" s="3">
@@ -8666,10 +8720,10 @@
         <f t="shared" si="33"/>
         <v>1908800</v>
       </c>
-      <c r="O171" s="111"/>
+      <c r="O171" s="162"/>
     </row>
     <row r="172" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="124" t="s">
+      <c r="B172" s="98" t="s">
         <v>361</v>
       </c>
       <c r="C172" s="3">
@@ -8698,10 +8752,10 @@
         <f t="shared" si="33"/>
         <v>1908800</v>
       </c>
-      <c r="O172" s="110"/>
+      <c r="O172" s="157"/>
     </row>
     <row r="173" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="124" t="s">
+      <c r="B173" s="98" t="s">
         <v>363</v>
       </c>
       <c r="C173" s="3">
@@ -8733,15 +8787,15 @@
         <f t="shared" si="33"/>
         <v>2242800</v>
       </c>
-      <c r="O173" s="109" t="s">
+      <c r="O173" s="156" t="s">
         <v>384</v>
       </c>
-      <c r="P173" s="101">
+      <c r="P173" s="144">
         <v>735</v>
       </c>
     </row>
     <row r="174" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="124" t="s">
+      <c r="B174" s="98" t="s">
         <v>363</v>
       </c>
       <c r="C174" s="3">
@@ -8773,11 +8827,11 @@
         <f t="shared" si="33"/>
         <v>1642800</v>
       </c>
-      <c r="O174" s="111"/>
-      <c r="P174" s="102"/>
-    </row>
-    <row r="175" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B175" s="124" t="s">
+      <c r="O174" s="162"/>
+      <c r="P174" s="145"/>
+    </row>
+    <row r="175" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="98" t="s">
         <v>365</v>
       </c>
       <c r="C175" s="3">
@@ -8799,15 +8853,18 @@
         <f t="shared" si="31"/>
         <v>3209000</v>
       </c>
+      <c r="I175" s="3">
+        <v>4000000</v>
+      </c>
       <c r="K175" s="3">
         <f t="shared" si="33"/>
-        <v>-2567200</v>
-      </c>
-      <c r="O175" s="111"/>
-      <c r="P175" s="102"/>
+        <v>1432800</v>
+      </c>
+      <c r="O175" s="162"/>
+      <c r="P175" s="145"/>
     </row>
     <row r="176" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="124" t="s">
+      <c r="B176" s="98" t="s">
         <v>366</v>
       </c>
       <c r="C176" s="3">
@@ -8836,11 +8893,11 @@
         <f t="shared" si="33"/>
         <v>1022800</v>
       </c>
-      <c r="O176" s="111"/>
-      <c r="P176" s="102"/>
+      <c r="O176" s="162"/>
+      <c r="P176" s="145"/>
     </row>
     <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="124" t="s">
+      <c r="B177" s="98" t="s">
         <v>367</v>
       </c>
       <c r="C177" s="3">
@@ -8869,38 +8926,44 @@
         <f t="shared" si="33"/>
         <v>4197800</v>
       </c>
-      <c r="O177" s="110"/>
-      <c r="P177" s="103"/>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B178" s="124" t="s">
+      <c r="O177" s="157"/>
+      <c r="P177" s="146"/>
+    </row>
+    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="98" t="s">
         <v>373</v>
       </c>
       <c r="C178" s="3">
         <v>5397000</v>
       </c>
+      <c r="D178" s="3">
+        <v>737000</v>
+      </c>
       <c r="F178" s="75">
         <f t="shared" si="30"/>
-        <v>5397000</v>
+        <v>6134000</v>
       </c>
       <c r="G178" s="58">
         <f t="shared" si="32"/>
-        <v>6476400</v>
+        <v>7360800</v>
       </c>
       <c r="H178" s="3">
         <f t="shared" si="31"/>
-        <v>6746250</v>
+        <v>7667500</v>
+      </c>
+      <c r="I178" s="3">
+        <v>7500000</v>
       </c>
       <c r="K178" s="3">
         <f t="shared" si="33"/>
-        <v>-5397000</v>
+        <v>1366000</v>
       </c>
       <c r="O178" s="9" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="179" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="124" t="s">
+      <c r="B179" s="98" t="s">
         <v>370</v>
       </c>
       <c r="C179" s="93">
@@ -8930,7 +8993,7 @@
       </c>
     </row>
     <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="124" t="s">
+      <c r="B180" s="98" t="s">
         <v>372</v>
       </c>
       <c r="C180" s="3">
@@ -8958,7 +9021,7 @@
     </row>
     <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="94"/>
-      <c r="B181" s="158" t="s">
+      <c r="B181" s="132" t="s">
         <v>379</v>
       </c>
       <c r="C181" s="95">
@@ -8992,16 +9055,16 @@
       <c r="L181" s="94"/>
       <c r="M181" s="94"/>
       <c r="N181" s="94"/>
-      <c r="O181" s="115" t="s">
+      <c r="O181" s="153" t="s">
         <v>378</v>
       </c>
-      <c r="P181" s="101">
+      <c r="P181" s="144">
         <v>640</v>
       </c>
     </row>
     <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="94"/>
-      <c r="B182" s="158" t="s">
+      <c r="B182" s="132" t="s">
         <v>379</v>
       </c>
       <c r="C182" s="95">
@@ -9035,12 +9098,12 @@
       <c r="L182" s="94"/>
       <c r="M182" s="94"/>
       <c r="N182" s="94"/>
-      <c r="O182" s="116"/>
-      <c r="P182" s="102"/>
+      <c r="O182" s="154"/>
+      <c r="P182" s="145"/>
     </row>
     <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="94"/>
-      <c r="B183" s="158" t="s">
+      <c r="B183" s="132" t="s">
         <v>379</v>
       </c>
       <c r="C183" s="95">
@@ -9074,12 +9137,12 @@
       <c r="L183" s="94"/>
       <c r="M183" s="94"/>
       <c r="N183" s="94"/>
-      <c r="O183" s="116"/>
-      <c r="P183" s="102"/>
+      <c r="O183" s="154"/>
+      <c r="P183" s="145"/>
     </row>
     <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="94"/>
-      <c r="B184" s="158" t="s">
+      <c r="B184" s="132" t="s">
         <v>379</v>
       </c>
       <c r="C184" s="95">
@@ -9113,12 +9176,12 @@
       <c r="L184" s="94"/>
       <c r="M184" s="94"/>
       <c r="N184" s="94"/>
-      <c r="O184" s="116"/>
-      <c r="P184" s="102"/>
+      <c r="O184" s="154"/>
+      <c r="P184" s="145"/>
     </row>
     <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="94"/>
-      <c r="B185" s="158">
+      <c r="B185" s="132">
         <v>7540</v>
       </c>
       <c r="C185" s="95">
@@ -9152,43 +9215,49 @@
       <c r="L185" s="94"/>
       <c r="M185" s="94"/>
       <c r="N185" s="94"/>
-      <c r="O185" s="117"/>
-      <c r="P185" s="103"/>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B186" s="124" t="s">
+      <c r="O185" s="155"/>
+      <c r="P185" s="146"/>
+    </row>
+    <row r="186" spans="1:16" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="132" t="s">
         <v>380</v>
       </c>
-      <c r="C186" s="3">
+      <c r="C186" s="95">
         <v>4150000</v>
       </c>
-      <c r="D186" s="3">
+      <c r="D186" s="95">
         <f>1842000/2</f>
         <v>921000</v>
       </c>
-      <c r="E186" s="95"/>
-      <c r="F186" s="75">
+      <c r="E186" s="95">
+        <v>800000</v>
+      </c>
+      <c r="F186" s="95">
         <f t="shared" si="30"/>
-        <v>5071000</v>
-      </c>
-      <c r="G186" s="58">
+        <v>5871000</v>
+      </c>
+      <c r="G186" s="138">
         <f t="shared" si="32"/>
-        <v>6085200</v>
-      </c>
-      <c r="H186" s="3">
+        <v>7045200</v>
+      </c>
+      <c r="H186" s="95">
         <f>(F186*25%)+F186</f>
-        <v>6338750</v>
-      </c>
-      <c r="K186" s="3">
+        <v>7338750</v>
+      </c>
+      <c r="I186" s="95">
+        <v>6700000</v>
+      </c>
+      <c r="J186" s="95"/>
+      <c r="K186" s="95">
         <f t="shared" si="33"/>
-        <v>-5071000</v>
-      </c>
-      <c r="O186" s="109" t="s">
+        <v>829000</v>
+      </c>
+      <c r="O186" s="156" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B187" s="124" t="s">
+    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="98" t="s">
         <v>380</v>
       </c>
       <c r="C187" s="3">
@@ -9210,211 +9279,244 @@
         <f t="shared" si="31"/>
         <v>6338750</v>
       </c>
+      <c r="I187" s="3">
+        <v>6500000</v>
+      </c>
       <c r="K187" s="3">
         <f t="shared" si="33"/>
-        <v>-5071000</v>
-      </c>
-      <c r="O187" s="110"/>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B188" s="124" t="s">
+        <v>1429000</v>
+      </c>
+      <c r="O187" s="157"/>
+    </row>
+    <row r="188" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="139" t="s">
         <v>382</v>
       </c>
-      <c r="C188" s="3">
+      <c r="C188" s="35">
         <v>7395000</v>
       </c>
-      <c r="D188" s="24">
+      <c r="D188" s="35">
         <v>875000</v>
       </c>
-      <c r="F188" s="75">
+      <c r="E188" s="35">
+        <v>500000</v>
+      </c>
+      <c r="F188" s="35">
         <f t="shared" si="30"/>
-        <v>8270000</v>
-      </c>
-      <c r="G188" s="58">
+        <v>8770000</v>
+      </c>
+      <c r="G188" s="140">
         <f t="shared" si="32"/>
-        <v>9924000</v>
-      </c>
-      <c r="H188" s="3">
+        <v>10524000</v>
+      </c>
+      <c r="H188" s="35">
         <f t="shared" si="31"/>
-        <v>10337500</v>
-      </c>
-      <c r="K188" s="3">
+        <v>10962500</v>
+      </c>
+      <c r="I188" s="35"/>
+      <c r="J188" s="35"/>
+      <c r="K188" s="35">
         <f t="shared" si="33"/>
-        <v>-8270000</v>
-      </c>
-      <c r="O188" s="9" t="s">
+        <v>-8770000</v>
+      </c>
+      <c r="O188" s="141" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="189" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="125" t="s">
+    <row r="189" spans="1:16" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B189" s="99" t="s">
         <v>387</v>
       </c>
       <c r="C189" s="39">
         <f t="shared" ref="C189:C193" si="51">P189*25000</f>
         <v>7250000</v>
       </c>
-      <c r="D189" s="7"/>
+      <c r="D189" s="7">
+        <f>3800000/5</f>
+        <v>760000</v>
+      </c>
       <c r="E189" s="7"/>
       <c r="F189" s="75">
         <f t="shared" si="30"/>
-        <v>7250000</v>
+        <v>8010000</v>
       </c>
       <c r="G189" s="58">
         <f t="shared" si="32"/>
-        <v>8700000</v>
+        <v>9612000</v>
       </c>
       <c r="H189" s="3">
         <f t="shared" si="31"/>
-        <v>9062500</v>
-      </c>
-      <c r="I189" s="7"/>
+        <v>10012500</v>
+      </c>
+      <c r="I189" s="7">
+        <v>14500000</v>
+      </c>
       <c r="J189" s="7"/>
       <c r="K189" s="3">
         <f t="shared" si="33"/>
-        <v>-7250000</v>
-      </c>
-      <c r="O189" s="97" t="s">
+        <v>6490000</v>
+      </c>
+      <c r="O189" s="147" t="s">
         <v>388</v>
       </c>
-      <c r="P189" s="160">
+      <c r="P189" s="134">
         <v>290</v>
       </c>
     </row>
-    <row r="190" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="125" t="s">
+    <row r="190" spans="1:16" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="99" t="s">
         <v>387</v>
       </c>
       <c r="C190" s="39">
         <f t="shared" si="51"/>
         <v>7250000</v>
       </c>
-      <c r="D190" s="7"/>
+      <c r="D190" s="7">
+        <f t="shared" ref="D190:D193" si="52">3800000/5</f>
+        <v>760000</v>
+      </c>
       <c r="E190" s="7"/>
       <c r="F190" s="75">
         <f t="shared" si="30"/>
-        <v>7250000</v>
+        <v>8010000</v>
       </c>
       <c r="G190" s="58">
         <f t="shared" si="32"/>
-        <v>8700000</v>
+        <v>9612000</v>
       </c>
       <c r="H190" s="3">
         <f t="shared" si="31"/>
-        <v>9062500</v>
-      </c>
-      <c r="I190" s="7"/>
+        <v>10012500</v>
+      </c>
+      <c r="I190" s="7">
+        <v>13000000</v>
+      </c>
       <c r="J190" s="7"/>
       <c r="K190" s="3">
         <f t="shared" si="33"/>
-        <v>-7250000</v>
-      </c>
-      <c r="O190" s="104"/>
-      <c r="P190" s="161">
+        <v>4990000</v>
+      </c>
+      <c r="O190" s="148"/>
+      <c r="P190" s="135">
         <v>290</v>
       </c>
     </row>
-    <row r="191" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="125" t="s">
+    <row r="191" spans="1:16" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="99" t="s">
         <v>386</v>
       </c>
       <c r="C191" s="39">
         <f t="shared" si="51"/>
         <v>2250000</v>
       </c>
-      <c r="D191" s="7"/>
+      <c r="D191" s="7">
+        <f t="shared" si="52"/>
+        <v>760000</v>
+      </c>
       <c r="E191" s="7"/>
       <c r="F191" s="75">
         <f t="shared" si="30"/>
-        <v>2250000</v>
+        <v>3010000</v>
       </c>
       <c r="G191" s="58">
         <f t="shared" si="32"/>
-        <v>2700000</v>
+        <v>3612000</v>
       </c>
       <c r="H191" s="3">
         <f t="shared" si="31"/>
-        <v>2812500</v>
-      </c>
-      <c r="I191" s="7"/>
+        <v>3762500</v>
+      </c>
+      <c r="I191" s="7">
+        <v>7500000</v>
+      </c>
       <c r="J191" s="7"/>
       <c r="K191" s="3">
         <f t="shared" si="33"/>
-        <v>-2250000</v>
-      </c>
-      <c r="O191" s="104"/>
-      <c r="P191" s="161">
+        <v>4490000</v>
+      </c>
+      <c r="O191" s="148"/>
+      <c r="P191" s="135">
         <v>90</v>
       </c>
     </row>
-    <row r="192" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="125" t="s">
+    <row r="192" spans="1:16" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="99" t="s">
         <v>386</v>
       </c>
       <c r="C192" s="39">
         <f t="shared" si="51"/>
         <v>2250000</v>
       </c>
-      <c r="D192" s="7"/>
+      <c r="D192" s="7">
+        <f t="shared" si="52"/>
+        <v>760000</v>
+      </c>
       <c r="E192" s="7"/>
       <c r="F192" s="75">
         <f t="shared" si="30"/>
-        <v>2250000</v>
+        <v>3010000</v>
       </c>
       <c r="G192" s="58">
         <f t="shared" si="32"/>
-        <v>2700000</v>
+        <v>3612000</v>
       </c>
       <c r="H192" s="3">
         <f t="shared" si="31"/>
-        <v>2812500</v>
-      </c>
-      <c r="I192" s="7"/>
+        <v>3762500</v>
+      </c>
+      <c r="I192" s="7">
+        <v>7500000</v>
+      </c>
       <c r="J192" s="7"/>
       <c r="K192" s="3">
         <f t="shared" si="33"/>
-        <v>-2250000</v>
-      </c>
-      <c r="O192" s="104"/>
-      <c r="P192" s="161">
+        <v>4490000</v>
+      </c>
+      <c r="O192" s="148"/>
+      <c r="P192" s="135">
         <v>90</v>
       </c>
     </row>
-    <row r="193" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="125" t="s">
+    <row r="193" spans="2:16" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B193" s="99" t="s">
         <v>416</v>
       </c>
       <c r="C193" s="39">
         <f t="shared" si="51"/>
         <v>1875000</v>
       </c>
-      <c r="D193" s="7"/>
+      <c r="D193" s="7">
+        <f t="shared" si="52"/>
+        <v>760000</v>
+      </c>
       <c r="E193" s="7"/>
       <c r="F193" s="75">
         <f t="shared" si="30"/>
-        <v>1875000</v>
+        <v>2635000</v>
       </c>
       <c r="G193" s="58">
         <f t="shared" si="32"/>
-        <v>2250000</v>
+        <v>3162000</v>
       </c>
       <c r="H193" s="3">
         <f t="shared" si="31"/>
-        <v>2343750</v>
-      </c>
-      <c r="I193" s="7"/>
+        <v>3293750</v>
+      </c>
+      <c r="I193" s="7">
+        <v>6000000</v>
+      </c>
       <c r="J193" s="7"/>
       <c r="K193" s="3">
         <f t="shared" si="33"/>
-        <v>-1875000</v>
-      </c>
-      <c r="O193" s="98"/>
-      <c r="P193" s="162">
+        <v>3365000</v>
+      </c>
+      <c r="O193" s="149"/>
+      <c r="P193" s="136">
         <v>75</v>
       </c>
     </row>
     <row r="194" spans="2:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="159" t="s">
+      <c r="B194" s="133" t="s">
         <v>391</v>
       </c>
       <c r="C194" s="39">
@@ -9425,26 +9527,28 @@
         <f>5575000/9</f>
         <v>619444.4444444445</v>
       </c>
-      <c r="E194" s="39"/>
+      <c r="E194" s="39">
+        <v>500000</v>
+      </c>
       <c r="F194" s="75">
         <f t="shared" si="30"/>
-        <v>2869444.4444444445</v>
+        <v>3369444.4444444445</v>
       </c>
       <c r="G194" s="58">
         <f t="shared" si="32"/>
-        <v>3443333.3333333335</v>
+        <v>4043333.3333333335</v>
       </c>
       <c r="H194" s="3">
         <f t="shared" si="31"/>
-        <v>3586805.5555555555</v>
+        <v>4211805.555555556</v>
       </c>
       <c r="I194" s="39"/>
       <c r="J194" s="39"/>
       <c r="K194" s="3">
         <f t="shared" si="33"/>
-        <v>-2869444.4444444445</v>
-      </c>
-      <c r="O194" s="105" t="s">
+        <v>-3369444.4444444445</v>
+      </c>
+      <c r="O194" s="150" t="s">
         <v>390</v>
       </c>
       <c r="P194" s="96">
@@ -9452,51 +9556,53 @@
       </c>
     </row>
     <row r="195" spans="2:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="159" t="s">
+      <c r="B195" s="133" t="s">
         <v>392</v>
       </c>
       <c r="C195" s="39">
-        <f t="shared" ref="C195:C204" si="52">P195*25000</f>
+        <f t="shared" ref="C195:C202" si="53">P195*25000</f>
         <v>2750000</v>
       </c>
       <c r="D195" s="39">
-        <f t="shared" ref="D195:D202" si="53">5575000/9</f>
+        <f t="shared" ref="D195:D202" si="54">5575000/9</f>
         <v>619444.4444444445</v>
       </c>
-      <c r="E195" s="39"/>
+      <c r="E195" s="39">
+        <v>1260000</v>
+      </c>
       <c r="F195" s="75">
         <f t="shared" si="30"/>
-        <v>3369444.4444444445</v>
+        <v>4629444.444444444</v>
       </c>
       <c r="G195" s="58">
         <f t="shared" si="32"/>
-        <v>4043333.3333333335</v>
+        <v>5555333.333333333</v>
       </c>
       <c r="H195" s="3">
         <f t="shared" si="31"/>
-        <v>4211805.555555556</v>
+        <v>5786805.555555555</v>
       </c>
       <c r="I195" s="39"/>
       <c r="J195" s="39"/>
       <c r="K195" s="3">
         <f t="shared" si="33"/>
-        <v>-3369444.4444444445</v>
-      </c>
-      <c r="O195" s="106"/>
+        <v>-4629444.444444444</v>
+      </c>
+      <c r="O195" s="151"/>
       <c r="P195" s="96">
         <v>110</v>
       </c>
     </row>
     <row r="196" spans="2:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="159" t="s">
+      <c r="B196" s="133" t="s">
         <v>393</v>
       </c>
       <c r="C196" s="39">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>4250000</v>
       </c>
       <c r="D196" s="39">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>619444.4444444445</v>
       </c>
       <c r="E196" s="39"/>
@@ -9518,21 +9624,21 @@
         <f t="shared" si="33"/>
         <v>-4869444.444444444</v>
       </c>
-      <c r="O196" s="106"/>
+      <c r="O196" s="151"/>
       <c r="P196" s="96">
         <v>170</v>
       </c>
     </row>
-    <row r="197" spans="2:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="159" t="s">
+    <row r="197" spans="2:16" s="40" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B197" s="133" t="s">
         <v>394</v>
       </c>
       <c r="C197" s="39">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>2250000</v>
       </c>
       <c r="D197" s="39">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>619444.4444444445</v>
       </c>
       <c r="E197" s="39"/>
@@ -9556,21 +9662,21 @@
         <f t="shared" si="33"/>
         <v>1630555.5555555555</v>
       </c>
-      <c r="O197" s="106"/>
+      <c r="O197" s="151"/>
       <c r="P197" s="96">
         <v>90</v>
       </c>
     </row>
     <row r="198" spans="2:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="159" t="s">
+      <c r="B198" s="133" t="s">
         <v>395</v>
       </c>
       <c r="C198" s="39">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>1625000</v>
       </c>
       <c r="D198" s="39">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>619444.4444444445</v>
       </c>
       <c r="E198" s="39"/>
@@ -9592,21 +9698,21 @@
         <f t="shared" si="33"/>
         <v>-2244444.4444444445</v>
       </c>
-      <c r="O198" s="106"/>
+      <c r="O198" s="151"/>
       <c r="P198" s="96">
         <v>65</v>
       </c>
     </row>
     <row r="199" spans="2:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="159" t="s">
+      <c r="B199" s="133" t="s">
         <v>399</v>
       </c>
       <c r="C199" s="39">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>1625000</v>
       </c>
       <c r="D199" s="39">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>619444.4444444445</v>
       </c>
       <c r="E199" s="39"/>
@@ -9628,62 +9734,64 @@
         <f t="shared" si="33"/>
         <v>-2244444.4444444445</v>
       </c>
-      <c r="O199" s="106"/>
+      <c r="O199" s="151"/>
       <c r="P199" s="96">
         <v>65</v>
       </c>
     </row>
     <row r="200" spans="2:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="159" t="s">
+      <c r="B200" s="133" t="s">
         <v>396</v>
       </c>
       <c r="C200" s="39">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>1875000</v>
       </c>
       <c r="D200" s="39">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>619444.4444444445</v>
       </c>
-      <c r="E200" s="39"/>
+      <c r="E200" s="39">
+        <v>850000</v>
+      </c>
       <c r="F200" s="75">
         <f t="shared" si="30"/>
-        <v>2494444.4444444445</v>
+        <v>3344444.4444444445</v>
       </c>
       <c r="G200" s="58">
         <f t="shared" si="32"/>
-        <v>2993333.3333333335</v>
+        <v>4013333.3333333335</v>
       </c>
       <c r="H200" s="3">
         <f t="shared" si="31"/>
-        <v>3118055.5555555555</v>
+        <v>4180555.5555555555</v>
       </c>
       <c r="I200" s="39"/>
       <c r="J200" s="39"/>
       <c r="K200" s="3">
         <f t="shared" si="33"/>
-        <v>-2494444.4444444445</v>
-      </c>
-      <c r="O200" s="106"/>
+        <v>-3344444.4444444445</v>
+      </c>
+      <c r="O200" s="151"/>
       <c r="P200" s="96">
         <v>75</v>
       </c>
     </row>
     <row r="201" spans="2:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="159" t="s">
+      <c r="B201" s="133" t="s">
         <v>397</v>
       </c>
       <c r="C201" s="39">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>2750000</v>
       </c>
       <c r="D201" s="39">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>619444.4444444445</v>
       </c>
       <c r="E201" s="39"/>
       <c r="F201" s="75">
-        <f t="shared" ref="F201:F227" si="54">C201+D201+E201</f>
+        <f t="shared" ref="F201:F243" si="55">C201+D201+E201</f>
         <v>3369444.4444444445</v>
       </c>
       <c r="G201" s="58">
@@ -9691,7 +9799,7 @@
         <v>4043333.3333333335</v>
       </c>
       <c r="H201" s="3">
-        <f t="shared" ref="H201:H203" si="55">(F201*25%)+F201</f>
+        <f t="shared" ref="H201:H243" si="56">(F201*25%)+F201</f>
         <v>4211805.555555556</v>
       </c>
       <c r="I201" s="39"/>
@@ -9700,349 +9808,516 @@
         <f t="shared" si="33"/>
         <v>-3369444.4444444445</v>
       </c>
-      <c r="O201" s="106"/>
+      <c r="O201" s="151"/>
       <c r="P201" s="96">
         <v>110</v>
       </c>
     </row>
     <row r="202" spans="2:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="159" t="s">
+      <c r="B202" s="133" t="s">
         <v>391</v>
       </c>
       <c r="C202" s="39">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>2000000</v>
       </c>
       <c r="D202" s="39">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>619444.4444444445</v>
       </c>
-      <c r="E202" s="39"/>
+      <c r="E202" s="39">
+        <v>500000</v>
+      </c>
       <c r="F202" s="75">
-        <f t="shared" si="54"/>
-        <v>2619444.4444444445</v>
+        <f t="shared" si="55"/>
+        <v>3119444.4444444445</v>
       </c>
       <c r="G202" s="58">
-        <f t="shared" ref="G202:G203" si="56">(F202*20%)+F202</f>
-        <v>3143333.3333333335</v>
+        <f t="shared" ref="G202:G243" si="57">(F202*20%)+F202</f>
+        <v>3743333.3333333335</v>
       </c>
       <c r="H202" s="3">
-        <f t="shared" si="55"/>
-        <v>3274305.5555555555</v>
+        <f t="shared" si="56"/>
+        <v>3899305.5555555555</v>
       </c>
       <c r="I202" s="39"/>
       <c r="J202" s="39"/>
       <c r="K202" s="3">
         <f t="shared" si="33"/>
-        <v>-2619444.4444444445</v>
-      </c>
-      <c r="O202" s="107"/>
+        <v>-3119444.4444444445</v>
+      </c>
+      <c r="O202" s="152"/>
       <c r="P202" s="96">
         <v>80</v>
       </c>
     </row>
-    <row r="203" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="125">
+    <row r="203" spans="2:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B203" s="139" t="s">
+        <v>417</v>
+      </c>
+      <c r="C203" s="35">
+        <f>P203*25000</f>
+        <v>10000000</v>
+      </c>
+      <c r="D203" s="35">
+        <f>1684000/2</f>
+        <v>842000</v>
+      </c>
+      <c r="E203" s="35">
+        <v>930000</v>
+      </c>
+      <c r="F203" s="35">
+        <f t="shared" si="55"/>
+        <v>11772000</v>
+      </c>
+      <c r="G203" s="140">
+        <f t="shared" si="57"/>
+        <v>14126400</v>
+      </c>
+      <c r="H203" s="35">
+        <f t="shared" si="56"/>
+        <v>14715000</v>
+      </c>
+      <c r="I203" s="35"/>
+      <c r="J203" s="35"/>
+      <c r="K203" s="35">
+        <f t="shared" si="33"/>
+        <v>-11772000</v>
+      </c>
+      <c r="O203" s="168" t="s">
+        <v>398</v>
+      </c>
+      <c r="P203" s="142">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="204" spans="2:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B204" s="139">
         <v>7620</v>
       </c>
-      <c r="C203" s="39">
-        <f>P203*25000</f>
-        <v>18750000</v>
-      </c>
-      <c r="D203" s="7"/>
-      <c r="E203" s="7"/>
-      <c r="F203" s="75">
-        <f t="shared" si="54"/>
-        <v>18750000</v>
-      </c>
-      <c r="G203" s="58">
+      <c r="C204" s="35">
+        <f>P204*25000</f>
+        <v>8750000</v>
+      </c>
+      <c r="D204" s="35">
+        <f>1684000/2</f>
+        <v>842000</v>
+      </c>
+      <c r="E204" s="35">
+        <v>1500000</v>
+      </c>
+      <c r="F204" s="35">
+        <f t="shared" si="55"/>
+        <v>11092000</v>
+      </c>
+      <c r="G204" s="140">
+        <f t="shared" si="57"/>
+        <v>13310400</v>
+      </c>
+      <c r="H204" s="35">
         <f t="shared" si="56"/>
-        <v>22500000</v>
-      </c>
-      <c r="H203" s="3">
-        <f t="shared" si="55"/>
-        <v>23437500</v>
-      </c>
-      <c r="I203" s="7"/>
-      <c r="J203" s="7"/>
-      <c r="K203" s="3">
+        <v>13865000</v>
+      </c>
+      <c r="I204" s="35"/>
+      <c r="J204" s="35"/>
+      <c r="K204" s="35">
         <f t="shared" si="33"/>
-        <v>-18750000</v>
-      </c>
-      <c r="O203" s="97" t="s">
-        <v>398</v>
-      </c>
-      <c r="P203" s="99">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="204" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="125">
-        <v>7620</v>
-      </c>
-      <c r="C204" s="39">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="D204" s="7"/>
-      <c r="E204" s="7"/>
-      <c r="F204" s="75">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="G204" s="7"/>
-      <c r="H204" s="7"/>
-      <c r="I204" s="7"/>
-      <c r="J204" s="7"/>
-      <c r="K204" s="3">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="O204" s="98"/>
-      <c r="P204" s="100"/>
-    </row>
-    <row r="205" spans="2:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="142">
+        <v>-11092000</v>
+      </c>
+      <c r="O204" s="169"/>
+      <c r="P204" s="143">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="205" spans="2:16" s="54" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B205" s="116">
         <v>7410</v>
       </c>
       <c r="C205" s="53">
         <f>90*25000</f>
         <v>2250000</v>
       </c>
-      <c r="D205" s="53"/>
+      <c r="D205" s="53">
+        <f>2833000/4</f>
+        <v>708250</v>
+      </c>
       <c r="E205" s="53"/>
       <c r="F205" s="75">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
+        <v>2958250</v>
+      </c>
+      <c r="G205" s="58">
+        <f t="shared" si="57"/>
+        <v>3549900</v>
+      </c>
+      <c r="H205" s="3">
+        <f t="shared" si="56"/>
+        <v>3697812.5</v>
+      </c>
+      <c r="I205" s="53">
+        <v>7000000</v>
+      </c>
+      <c r="J205" s="53"/>
+      <c r="K205" s="3">
+        <f t="shared" si="33"/>
+        <v>4041750</v>
+      </c>
+      <c r="O205" s="158" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="206" spans="2:16" s="54" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B206" s="116">
+        <v>7410</v>
+      </c>
+      <c r="C206" s="53">
+        <f t="shared" ref="C206:C207" si="58">90*25000</f>
         <v>2250000</v>
       </c>
-      <c r="G205" s="53"/>
-      <c r="H205" s="53"/>
-      <c r="I205" s="53"/>
-      <c r="J205" s="53"/>
-      <c r="K205" s="53">
-        <f t="shared" si="33"/>
-        <v>-2250000</v>
-      </c>
-      <c r="O205" s="120" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="206" spans="2:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="142">
-        <v>7410</v>
-      </c>
-      <c r="C206" s="53">
-        <f t="shared" ref="C206:C207" si="57">90*25000</f>
-        <v>2250000</v>
-      </c>
-      <c r="D206" s="53"/>
+      <c r="D206" s="53">
+        <f t="shared" ref="D206:D208" si="59">2833000/4</f>
+        <v>708250</v>
+      </c>
       <c r="E206" s="53"/>
       <c r="F206" s="75">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
+        <v>2958250</v>
+      </c>
+      <c r="G206" s="58">
+        <f t="shared" si="57"/>
+        <v>3549900</v>
+      </c>
+      <c r="H206" s="3">
+        <f t="shared" si="56"/>
+        <v>3697812.5</v>
+      </c>
+      <c r="I206" s="53">
+        <v>7000000</v>
+      </c>
+      <c r="J206" s="53"/>
+      <c r="K206" s="3">
+        <f t="shared" si="33"/>
+        <v>4041750</v>
+      </c>
+      <c r="O206" s="159"/>
+    </row>
+    <row r="207" spans="2:16" s="54" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B207" s="116">
+        <v>7410</v>
+      </c>
+      <c r="C207" s="53">
+        <f t="shared" si="58"/>
         <v>2250000</v>
       </c>
-      <c r="G206" s="53"/>
-      <c r="H206" s="53"/>
-      <c r="I206" s="53"/>
-      <c r="J206" s="53"/>
-      <c r="K206" s="53"/>
-      <c r="O206" s="121"/>
-    </row>
-    <row r="207" spans="2:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="142">
-        <v>7410</v>
-      </c>
-      <c r="C207" s="53">
-        <f t="shared" si="57"/>
-        <v>2250000</v>
-      </c>
-      <c r="D207" s="53"/>
+      <c r="D207" s="53">
+        <f t="shared" si="59"/>
+        <v>708250</v>
+      </c>
       <c r="E207" s="53"/>
       <c r="F207" s="75">
-        <f t="shared" si="54"/>
-        <v>2250000</v>
-      </c>
-      <c r="G207" s="53"/>
-      <c r="H207" s="53"/>
-      <c r="I207" s="53"/>
+        <f t="shared" si="55"/>
+        <v>2958250</v>
+      </c>
+      <c r="G207" s="58">
+        <f t="shared" si="57"/>
+        <v>3549900</v>
+      </c>
+      <c r="H207" s="3">
+        <f t="shared" si="56"/>
+        <v>3697812.5</v>
+      </c>
+      <c r="I207" s="53">
+        <v>7000000</v>
+      </c>
       <c r="J207" s="53"/>
-      <c r="K207" s="53"/>
-      <c r="O207" s="122"/>
-    </row>
-    <row r="208" spans="2:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="142">
+      <c r="K207" s="3">
+        <f t="shared" si="33"/>
+        <v>4041750</v>
+      </c>
+      <c r="O207" s="160"/>
+    </row>
+    <row r="208" spans="2:16" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B208" s="137">
         <v>7400</v>
       </c>
-      <c r="C208" s="53">
+      <c r="C208" s="83">
         <f>75*25000</f>
         <v>1875000</v>
       </c>
-      <c r="D208" s="53"/>
-      <c r="E208" s="53"/>
-      <c r="F208" s="75">
-        <f t="shared" si="54"/>
+      <c r="D208" s="53">
+        <f t="shared" si="59"/>
+        <v>708250</v>
+      </c>
+      <c r="E208" s="83"/>
+      <c r="F208" s="83">
+        <f t="shared" si="55"/>
+        <v>2583250</v>
+      </c>
+      <c r="G208" s="83">
+        <f t="shared" si="57"/>
+        <v>3099900</v>
+      </c>
+      <c r="H208" s="83">
+        <f t="shared" si="56"/>
+        <v>3229062.5</v>
+      </c>
+      <c r="I208" s="83"/>
+      <c r="J208" s="83"/>
+      <c r="K208" s="83">
+        <f t="shared" si="33"/>
+        <v>-2583250</v>
+      </c>
+      <c r="O208" s="158" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="209" spans="2:16" s="54" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B209" s="116">
+        <v>7400</v>
+      </c>
+      <c r="C209" s="53">
+        <f t="shared" ref="C209:C212" si="60">75*25000</f>
         <v>1875000</v>
       </c>
-      <c r="G208" s="53"/>
-      <c r="H208" s="53"/>
-      <c r="I208" s="53"/>
-      <c r="J208" s="53"/>
-      <c r="K208" s="53"/>
-      <c r="O208" s="120" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="209" spans="2:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="142">
-        <v>7400</v>
-      </c>
-      <c r="C209" s="53">
-        <f t="shared" ref="C209:C212" si="58">75*25000</f>
-        <v>1875000</v>
-      </c>
-      <c r="D209" s="53"/>
+      <c r="D209" s="53">
+        <f t="shared" ref="D209:D212" si="61">2810000/4</f>
+        <v>702500</v>
+      </c>
       <c r="E209" s="53"/>
       <c r="F209" s="75">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
+        <v>2577500</v>
+      </c>
+      <c r="G209" s="58">
+        <f t="shared" si="57"/>
+        <v>3093000</v>
+      </c>
+      <c r="H209" s="3">
+        <f t="shared" si="56"/>
+        <v>3221875</v>
+      </c>
+      <c r="I209" s="53">
+        <v>6000000</v>
+      </c>
+      <c r="J209" s="53"/>
+      <c r="K209" s="3">
+        <f t="shared" ref="K209:K248" si="62">I209-J209-F209</f>
+        <v>3422500</v>
+      </c>
+      <c r="O209" s="159"/>
+    </row>
+    <row r="210" spans="2:16" s="54" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B210" s="116">
+        <v>7400</v>
+      </c>
+      <c r="C210" s="53">
+        <f t="shared" si="60"/>
         <v>1875000</v>
       </c>
-      <c r="G209" s="53"/>
-      <c r="H209" s="53"/>
-      <c r="I209" s="53"/>
-      <c r="J209" s="53"/>
-      <c r="K209" s="53"/>
-      <c r="O209" s="121"/>
-    </row>
-    <row r="210" spans="2:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="142">
-        <v>7400</v>
-      </c>
-      <c r="C210" s="53">
-        <f t="shared" si="58"/>
-        <v>1875000</v>
-      </c>
-      <c r="D210" s="53"/>
+      <c r="D210" s="53">
+        <f t="shared" si="61"/>
+        <v>702500</v>
+      </c>
       <c r="E210" s="53"/>
       <c r="F210" s="75">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
+        <v>2577500</v>
+      </c>
+      <c r="G210" s="58">
+        <f t="shared" si="57"/>
+        <v>3093000</v>
+      </c>
+      <c r="H210" s="3">
+        <f t="shared" si="56"/>
+        <v>3221875</v>
+      </c>
+      <c r="I210" s="53">
+        <v>6000000</v>
+      </c>
+      <c r="J210" s="53"/>
+      <c r="K210" s="3">
+        <f t="shared" si="62"/>
+        <v>3422500</v>
+      </c>
+      <c r="O210" s="159"/>
+    </row>
+    <row r="211" spans="2:16" s="54" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B211" s="116">
+        <v>7400</v>
+      </c>
+      <c r="C211" s="53">
+        <f t="shared" si="60"/>
         <v>1875000</v>
       </c>
-      <c r="G210" s="53"/>
-      <c r="H210" s="53"/>
-      <c r="I210" s="53"/>
-      <c r="J210" s="53"/>
-      <c r="K210" s="53"/>
-      <c r="O210" s="121"/>
-    </row>
-    <row r="211" spans="2:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="142">
-        <v>7400</v>
-      </c>
-      <c r="C211" s="53">
-        <f t="shared" si="58"/>
-        <v>1875000</v>
-      </c>
-      <c r="D211" s="53"/>
+      <c r="D211" s="53">
+        <f t="shared" si="61"/>
+        <v>702500</v>
+      </c>
       <c r="E211" s="53"/>
       <c r="F211" s="75">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
+        <v>2577500</v>
+      </c>
+      <c r="G211" s="58">
+        <f t="shared" si="57"/>
+        <v>3093000</v>
+      </c>
+      <c r="H211" s="3">
+        <f t="shared" si="56"/>
+        <v>3221875</v>
+      </c>
+      <c r="I211" s="53">
+        <v>6000000</v>
+      </c>
+      <c r="J211" s="53"/>
+      <c r="K211" s="3">
+        <f t="shared" si="62"/>
+        <v>3422500</v>
+      </c>
+      <c r="O211" s="159"/>
+    </row>
+    <row r="212" spans="2:16" s="54" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B212" s="116">
+        <v>7400</v>
+      </c>
+      <c r="C212" s="53">
+        <f t="shared" si="60"/>
         <v>1875000</v>
       </c>
-      <c r="G211" s="53"/>
-      <c r="H211" s="53"/>
-      <c r="I211" s="53"/>
-      <c r="J211" s="53"/>
-      <c r="K211" s="53"/>
-      <c r="O211" s="121"/>
-    </row>
-    <row r="212" spans="2:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="142">
-        <v>7400</v>
-      </c>
-      <c r="C212" s="53">
-        <f t="shared" si="58"/>
-        <v>1875000</v>
-      </c>
-      <c r="D212" s="53"/>
+      <c r="D212" s="53">
+        <f t="shared" si="61"/>
+        <v>702500</v>
+      </c>
       <c r="E212" s="53"/>
       <c r="F212" s="75">
-        <f t="shared" si="54"/>
-        <v>1875000</v>
-      </c>
-      <c r="G212" s="53"/>
-      <c r="H212" s="53"/>
-      <c r="I212" s="53"/>
+        <f t="shared" si="55"/>
+        <v>2577500</v>
+      </c>
+      <c r="G212" s="58">
+        <f t="shared" si="57"/>
+        <v>3093000</v>
+      </c>
+      <c r="H212" s="3">
+        <f t="shared" si="56"/>
+        <v>3221875</v>
+      </c>
+      <c r="I212" s="53">
+        <v>6000000</v>
+      </c>
       <c r="J212" s="53"/>
-      <c r="K212" s="53"/>
-      <c r="O212" s="122"/>
+      <c r="K212" s="3">
+        <f t="shared" si="62"/>
+        <v>3422500</v>
+      </c>
+      <c r="O212" s="160"/>
     </row>
     <row r="213" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="125" t="s">
+      <c r="B213" s="99" t="s">
         <v>402</v>
       </c>
       <c r="C213" s="7">
         <f>375*25000</f>
         <v>9375000</v>
       </c>
-      <c r="D213" s="7"/>
+      <c r="D213" s="7">
+        <f>2625000/3</f>
+        <v>875000</v>
+      </c>
       <c r="E213" s="7"/>
       <c r="F213" s="75">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
+        <v>10250000</v>
+      </c>
+      <c r="G213" s="58">
+        <f t="shared" si="57"/>
+        <v>12300000</v>
+      </c>
+      <c r="H213" s="3">
+        <f t="shared" si="56"/>
+        <v>12812500</v>
+      </c>
+      <c r="I213" s="7">
+        <v>14300000</v>
+      </c>
+      <c r="J213" s="7"/>
+      <c r="K213" s="3">
+        <f t="shared" si="62"/>
+        <v>4050000</v>
+      </c>
+      <c r="O213" s="147" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="214" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B214" s="99" t="s">
+        <v>402</v>
+      </c>
+      <c r="C214" s="7">
+        <f t="shared" ref="C214:C215" si="63">375*25000</f>
         <v>9375000</v>
       </c>
-      <c r="G213" s="7"/>
-      <c r="H213" s="7"/>
-      <c r="I213" s="7"/>
-      <c r="J213" s="7"/>
-      <c r="K213" s="7"/>
-      <c r="O213" s="97" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="214" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="125" t="s">
-        <v>402</v>
-      </c>
-      <c r="C214" s="7">
-        <f t="shared" ref="C214:C215" si="59">375*25000</f>
-        <v>9375000</v>
-      </c>
-      <c r="D214" s="7"/>
+      <c r="D214" s="7">
+        <f t="shared" ref="D214:D215" si="64">2625000/3</f>
+        <v>875000</v>
+      </c>
       <c r="E214" s="7"/>
       <c r="F214" s="75">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
+        <v>10250000</v>
+      </c>
+      <c r="G214" s="58">
+        <f t="shared" si="57"/>
+        <v>12300000</v>
+      </c>
+      <c r="H214" s="3">
+        <f t="shared" si="56"/>
+        <v>12812500</v>
+      </c>
+      <c r="I214" s="7">
+        <v>12000000</v>
+      </c>
+      <c r="J214" s="7"/>
+      <c r="K214" s="3">
+        <f t="shared" si="62"/>
+        <v>1750000</v>
+      </c>
+      <c r="O214" s="148"/>
+    </row>
+    <row r="215" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B215" s="99" t="s">
+        <v>402</v>
+      </c>
+      <c r="C215" s="7">
+        <f t="shared" si="63"/>
         <v>9375000</v>
       </c>
-      <c r="G214" s="7"/>
-      <c r="H214" s="7"/>
-      <c r="I214" s="7"/>
-      <c r="J214" s="7"/>
-      <c r="K214" s="7"/>
-      <c r="O214" s="104"/>
-    </row>
-    <row r="215" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="125" t="s">
-        <v>402</v>
-      </c>
-      <c r="C215" s="7">
-        <f t="shared" si="59"/>
-        <v>9375000</v>
-      </c>
-      <c r="D215" s="7"/>
+      <c r="D215" s="7">
+        <f t="shared" si="64"/>
+        <v>875000</v>
+      </c>
       <c r="E215" s="7"/>
       <c r="F215" s="75">
-        <f t="shared" si="54"/>
-        <v>9375000</v>
-      </c>
-      <c r="G215" s="7"/>
-      <c r="H215" s="7"/>
+        <f t="shared" si="55"/>
+        <v>10250000</v>
+      </c>
+      <c r="G215" s="58">
+        <f t="shared" si="57"/>
+        <v>12300000</v>
+      </c>
+      <c r="H215" s="3">
+        <f t="shared" si="56"/>
+        <v>12812500</v>
+      </c>
       <c r="I215" s="7"/>
       <c r="J215" s="7"/>
-      <c r="K215" s="7"/>
-      <c r="O215" s="98"/>
+      <c r="K215" s="3">
+        <f t="shared" si="62"/>
+        <v>-10250000</v>
+      </c>
+      <c r="O215" s="149"/>
     </row>
     <row r="216" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B216" s="124" t="s">
+      <c r="B216" s="98" t="s">
         <v>404</v>
       </c>
       <c r="C216" s="3">
@@ -10050,15 +10325,27 @@
         <v>15000000</v>
       </c>
       <c r="F216" s="75">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>15000000</v>
+      </c>
+      <c r="G216" s="58">
+        <f t="shared" si="57"/>
+        <v>18000000</v>
+      </c>
+      <c r="H216" s="3">
+        <f t="shared" si="56"/>
+        <v>18750000</v>
+      </c>
+      <c r="K216" s="3">
+        <f t="shared" si="62"/>
+        <v>-15000000</v>
       </c>
       <c r="O216" s="9" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="217" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B217" s="124" t="s">
+      <c r="B217" s="98" t="s">
         <v>405</v>
       </c>
       <c r="C217" s="3">
@@ -10066,15 +10353,27 @@
         <v>12500000</v>
       </c>
       <c r="F217" s="75">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>12500000</v>
+      </c>
+      <c r="G217" s="58">
+        <f t="shared" si="57"/>
+        <v>15000000</v>
+      </c>
+      <c r="H217" s="3">
+        <f t="shared" si="56"/>
+        <v>15625000</v>
+      </c>
+      <c r="K217" s="3">
+        <f t="shared" si="62"/>
+        <v>-12500000</v>
       </c>
       <c r="O217" s="9" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="218" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B218" s="124">
+      <c r="B218" s="98">
         <v>7410</v>
       </c>
       <c r="C218" s="3">
@@ -10082,15 +10381,27 @@
         <v>5000000</v>
       </c>
       <c r="F218" s="75">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>5000000</v>
+      </c>
+      <c r="G218" s="58">
+        <f t="shared" si="57"/>
+        <v>6000000</v>
+      </c>
+      <c r="H218" s="3">
+        <f t="shared" si="56"/>
+        <v>6250000</v>
+      </c>
+      <c r="K218" s="3">
+        <f t="shared" si="62"/>
+        <v>-5000000</v>
       </c>
       <c r="O218" s="9" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="219" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="125" t="s">
+      <c r="B219" s="99" t="s">
         <v>409</v>
       </c>
       <c r="C219" s="7">
@@ -10100,14 +10411,23 @@
       <c r="D219" s="7"/>
       <c r="E219" s="7"/>
       <c r="F219" s="75">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>2225000</v>
       </c>
-      <c r="G219" s="7"/>
-      <c r="H219" s="7"/>
+      <c r="G219" s="58">
+        <f t="shared" si="57"/>
+        <v>2670000</v>
+      </c>
+      <c r="H219" s="3">
+        <f t="shared" si="56"/>
+        <v>2781250</v>
+      </c>
       <c r="I219" s="7"/>
       <c r="J219" s="7"/>
-      <c r="K219" s="7"/>
+      <c r="K219" s="3">
+        <f t="shared" si="62"/>
+        <v>-2225000</v>
+      </c>
       <c r="O219" s="10" t="s">
         <v>410</v>
       </c>
@@ -10116,25 +10436,34 @@
       </c>
     </row>
     <row r="220" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="125" t="s">
+      <c r="B220" s="99" t="s">
         <v>409</v>
       </c>
       <c r="C220" s="7">
-        <f t="shared" ref="C220:C227" si="60">P220*25000</f>
+        <f t="shared" ref="C220:C243" si="65">P220*25000</f>
         <v>2225000</v>
       </c>
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
       <c r="F220" s="75">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>2225000</v>
       </c>
-      <c r="G220" s="7"/>
-      <c r="H220" s="7"/>
+      <c r="G220" s="58">
+        <f t="shared" si="57"/>
+        <v>2670000</v>
+      </c>
+      <c r="H220" s="3">
+        <f t="shared" si="56"/>
+        <v>2781250</v>
+      </c>
       <c r="I220" s="7"/>
       <c r="J220" s="7"/>
-      <c r="K220" s="7"/>
-      <c r="O220" s="97" t="s">
+      <c r="K220" s="3">
+        <f t="shared" si="62"/>
+        <v>-2225000</v>
+      </c>
+      <c r="O220" s="147" t="s">
         <v>411</v>
       </c>
       <c r="P220" s="6">
@@ -10142,136 +10471,193 @@
       </c>
     </row>
     <row r="221" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="125">
+      <c r="B221" s="99">
         <v>7390</v>
       </c>
       <c r="C221" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>1750000</v>
       </c>
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
       <c r="F221" s="75">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>1750000</v>
       </c>
-      <c r="G221" s="7"/>
-      <c r="H221" s="7"/>
+      <c r="G221" s="58">
+        <f t="shared" si="57"/>
+        <v>2100000</v>
+      </c>
+      <c r="H221" s="3">
+        <f t="shared" si="56"/>
+        <v>2187500</v>
+      </c>
       <c r="I221" s="7"/>
       <c r="J221" s="7"/>
-      <c r="K221" s="7"/>
-      <c r="O221" s="104"/>
+      <c r="K221" s="3">
+        <f t="shared" si="62"/>
+        <v>-1750000</v>
+      </c>
+      <c r="O221" s="148"/>
       <c r="P221" s="6">
         <v>70</v>
       </c>
     </row>
     <row r="222" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="125">
+      <c r="B222" s="99">
         <v>7390</v>
       </c>
       <c r="C222" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>1750000</v>
       </c>
       <c r="D222" s="7"/>
       <c r="E222" s="7"/>
       <c r="F222" s="75">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>1750000</v>
       </c>
-      <c r="G222" s="7"/>
-      <c r="H222" s="7"/>
+      <c r="G222" s="58">
+        <f t="shared" si="57"/>
+        <v>2100000</v>
+      </c>
+      <c r="H222" s="3">
+        <f t="shared" si="56"/>
+        <v>2187500</v>
+      </c>
       <c r="I222" s="7"/>
       <c r="J222" s="7"/>
-      <c r="K222" s="7"/>
-      <c r="O222" s="104"/>
+      <c r="K222" s="3">
+        <f t="shared" si="62"/>
+        <v>-1750000</v>
+      </c>
+      <c r="O222" s="148"/>
       <c r="P222" s="6">
         <v>70</v>
       </c>
     </row>
     <row r="223" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="125">
+      <c r="B223" s="99">
         <v>7410</v>
       </c>
       <c r="C223" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>2500000</v>
       </c>
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
       <c r="F223" s="75">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>2500000</v>
       </c>
-      <c r="G223" s="7"/>
-      <c r="H223" s="7"/>
+      <c r="G223" s="58">
+        <f t="shared" si="57"/>
+        <v>3000000</v>
+      </c>
+      <c r="H223" s="3">
+        <f t="shared" si="56"/>
+        <v>3125000</v>
+      </c>
       <c r="I223" s="7"/>
       <c r="J223" s="7"/>
-      <c r="K223" s="7"/>
-      <c r="O223" s="104"/>
+      <c r="K223" s="3">
+        <f t="shared" si="62"/>
+        <v>-2500000</v>
+      </c>
+      <c r="O223" s="148"/>
       <c r="P223" s="6">
         <v>100</v>
       </c>
     </row>
     <row r="224" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="125">
+      <c r="B224" s="99">
         <v>7410</v>
       </c>
       <c r="C224" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>2500000</v>
       </c>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
       <c r="F224" s="75">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>2500000</v>
       </c>
-      <c r="G224" s="7"/>
-      <c r="H224" s="7"/>
+      <c r="G224" s="58">
+        <f t="shared" si="57"/>
+        <v>3000000</v>
+      </c>
+      <c r="H224" s="3">
+        <f t="shared" si="56"/>
+        <v>3125000</v>
+      </c>
       <c r="I224" s="7"/>
       <c r="J224" s="7"/>
-      <c r="K224" s="7"/>
-      <c r="O224" s="104"/>
+      <c r="K224" s="3">
+        <f t="shared" si="62"/>
+        <v>-2500000</v>
+      </c>
+      <c r="O224" s="148"/>
       <c r="P224" s="6">
         <v>100</v>
       </c>
     </row>
     <row r="225" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="125">
+      <c r="B225" s="99">
         <v>7410</v>
       </c>
       <c r="C225" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>2500000</v>
       </c>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
       <c r="F225" s="75">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>2500000</v>
       </c>
-      <c r="G225" s="7"/>
-      <c r="H225" s="7"/>
+      <c r="G225" s="58">
+        <f t="shared" si="57"/>
+        <v>3000000</v>
+      </c>
+      <c r="H225" s="3">
+        <f t="shared" si="56"/>
+        <v>3125000</v>
+      </c>
       <c r="I225" s="7"/>
       <c r="J225" s="7"/>
-      <c r="K225" s="7"/>
-      <c r="O225" s="98"/>
+      <c r="K225" s="3">
+        <f t="shared" si="62"/>
+        <v>-2500000</v>
+      </c>
+      <c r="O225" s="149"/>
       <c r="P225" s="6">
         <v>100</v>
       </c>
     </row>
     <row r="226" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B226" s="124" t="s">
+      <c r="B226" s="98" t="s">
         <v>412</v>
       </c>
       <c r="C226" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>7500000</v>
       </c>
       <c r="F226" s="75">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>7500000</v>
+      </c>
+      <c r="G226" s="58">
+        <f t="shared" si="57"/>
+        <v>9000000</v>
+      </c>
+      <c r="H226" s="3">
+        <f t="shared" si="56"/>
+        <v>9375000</v>
+      </c>
+      <c r="K226" s="3">
+        <f t="shared" si="62"/>
+        <v>-7500000</v>
       </c>
       <c r="O226" s="9" t="s">
         <v>413</v>
@@ -10281,16 +10667,28 @@
       </c>
     </row>
     <row r="227" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B227" s="124" t="s">
+      <c r="B227" s="98" t="s">
         <v>414</v>
       </c>
       <c r="C227" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>6250000</v>
       </c>
       <c r="F227" s="75">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>6250000</v>
+      </c>
+      <c r="G227" s="58">
+        <f t="shared" si="57"/>
+        <v>7500000</v>
+      </c>
+      <c r="H227" s="3">
+        <f t="shared" si="56"/>
+        <v>7812500</v>
+      </c>
+      <c r="K227" s="3">
+        <f t="shared" si="62"/>
+        <v>-6250000</v>
       </c>
       <c r="O227" s="9" t="s">
         <v>415</v>
@@ -10299,9 +10697,613 @@
         <v>250</v>
       </c>
     </row>
+    <row r="228" spans="2:16" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B228" s="102" t="s">
+        <v>418</v>
+      </c>
+      <c r="C228" s="21">
+        <f t="shared" si="65"/>
+        <v>2250000</v>
+      </c>
+      <c r="D228" s="21">
+        <f>3087000/5</f>
+        <v>617400</v>
+      </c>
+      <c r="E228" s="21">
+        <v>300000</v>
+      </c>
+      <c r="F228" s="75">
+        <f t="shared" si="55"/>
+        <v>3167400</v>
+      </c>
+      <c r="G228" s="58">
+        <f t="shared" si="57"/>
+        <v>3800880</v>
+      </c>
+      <c r="H228" s="3">
+        <f t="shared" si="56"/>
+        <v>3959250</v>
+      </c>
+      <c r="I228" s="21">
+        <v>5000000</v>
+      </c>
+      <c r="J228" s="21"/>
+      <c r="K228" s="21">
+        <f t="shared" si="62"/>
+        <v>1832600</v>
+      </c>
+      <c r="O228" s="171" t="s">
+        <v>426</v>
+      </c>
+      <c r="P228" s="172">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="229" spans="2:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B229" s="102" t="s">
+        <v>419</v>
+      </c>
+      <c r="C229" s="21">
+        <f t="shared" si="65"/>
+        <v>2500000</v>
+      </c>
+      <c r="D229" s="21">
+        <f t="shared" ref="D229:D232" si="66">3087000/5</f>
+        <v>617400</v>
+      </c>
+      <c r="E229" s="21"/>
+      <c r="F229" s="75">
+        <f t="shared" si="55"/>
+        <v>3117400</v>
+      </c>
+      <c r="G229" s="58">
+        <f t="shared" si="57"/>
+        <v>3740880</v>
+      </c>
+      <c r="H229" s="3">
+        <f t="shared" si="56"/>
+        <v>3896750</v>
+      </c>
+      <c r="I229" s="21"/>
+      <c r="J229" s="21"/>
+      <c r="K229" s="21">
+        <f t="shared" si="62"/>
+        <v>-3117400</v>
+      </c>
+      <c r="O229" s="173"/>
+      <c r="P229" s="172">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="230" spans="2:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B230" s="102" t="s">
+        <v>420</v>
+      </c>
+      <c r="C230" s="21">
+        <f t="shared" si="65"/>
+        <v>2500000</v>
+      </c>
+      <c r="D230" s="21">
+        <f t="shared" si="66"/>
+        <v>617400</v>
+      </c>
+      <c r="E230" s="21"/>
+      <c r="F230" s="75">
+        <f t="shared" si="55"/>
+        <v>3117400</v>
+      </c>
+      <c r="G230" s="58">
+        <f t="shared" si="57"/>
+        <v>3740880</v>
+      </c>
+      <c r="H230" s="3">
+        <f t="shared" si="56"/>
+        <v>3896750</v>
+      </c>
+      <c r="I230" s="21"/>
+      <c r="J230" s="21"/>
+      <c r="K230" s="21">
+        <f t="shared" si="62"/>
+        <v>-3117400</v>
+      </c>
+      <c r="O230" s="173"/>
+      <c r="P230" s="172">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="231" spans="2:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B231" s="102" t="s">
+        <v>419</v>
+      </c>
+      <c r="C231" s="21">
+        <f t="shared" si="65"/>
+        <v>2500000</v>
+      </c>
+      <c r="D231" s="21">
+        <f t="shared" si="66"/>
+        <v>617400</v>
+      </c>
+      <c r="E231" s="21"/>
+      <c r="F231" s="75">
+        <f t="shared" si="55"/>
+        <v>3117400</v>
+      </c>
+      <c r="G231" s="58">
+        <f t="shared" si="57"/>
+        <v>3740880</v>
+      </c>
+      <c r="H231" s="3">
+        <f t="shared" si="56"/>
+        <v>3896750</v>
+      </c>
+      <c r="I231" s="21"/>
+      <c r="J231" s="21"/>
+      <c r="K231" s="21">
+        <f t="shared" si="62"/>
+        <v>-3117400</v>
+      </c>
+      <c r="O231" s="173"/>
+      <c r="P231" s="172">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="232" spans="2:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B232" s="102" t="s">
+        <v>419</v>
+      </c>
+      <c r="C232" s="21">
+        <f t="shared" si="65"/>
+        <v>2500000</v>
+      </c>
+      <c r="D232" s="21">
+        <f t="shared" si="66"/>
+        <v>617400</v>
+      </c>
+      <c r="E232" s="21"/>
+      <c r="F232" s="75">
+        <f t="shared" si="55"/>
+        <v>3117400</v>
+      </c>
+      <c r="G232" s="58">
+        <f t="shared" si="57"/>
+        <v>3740880</v>
+      </c>
+      <c r="H232" s="3">
+        <f t="shared" si="56"/>
+        <v>3896750</v>
+      </c>
+      <c r="I232" s="21"/>
+      <c r="J232" s="21"/>
+      <c r="K232" s="21">
+        <f t="shared" si="62"/>
+        <v>-3117400</v>
+      </c>
+      <c r="O232" s="174"/>
+      <c r="P232" s="172">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="233" spans="2:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B233" s="116" t="s">
+        <v>419</v>
+      </c>
+      <c r="C233" s="53">
+        <f t="shared" si="65"/>
+        <v>2500000</v>
+      </c>
+      <c r="D233" s="53">
+        <f>4976000/8</f>
+        <v>622000</v>
+      </c>
+      <c r="E233" s="53"/>
+      <c r="F233" s="75">
+        <f t="shared" si="55"/>
+        <v>3122000</v>
+      </c>
+      <c r="G233" s="58">
+        <f t="shared" si="57"/>
+        <v>3746400</v>
+      </c>
+      <c r="H233" s="3">
+        <f t="shared" si="56"/>
+        <v>3902500</v>
+      </c>
+      <c r="I233" s="53"/>
+      <c r="J233" s="53"/>
+      <c r="K233" s="21">
+        <f t="shared" si="62"/>
+        <v>-3122000</v>
+      </c>
+      <c r="O233" s="158" t="s">
+        <v>427</v>
+      </c>
+      <c r="P233" s="170">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="234" spans="2:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B234" s="116" t="s">
+        <v>421</v>
+      </c>
+      <c r="C234" s="53">
+        <f t="shared" si="65"/>
+        <v>2250000</v>
+      </c>
+      <c r="D234" s="53">
+        <f t="shared" ref="D234:D240" si="67">4976000/8</f>
+        <v>622000</v>
+      </c>
+      <c r="E234" s="53"/>
+      <c r="F234" s="75">
+        <f t="shared" si="55"/>
+        <v>2872000</v>
+      </c>
+      <c r="G234" s="58">
+        <f t="shared" si="57"/>
+        <v>3446400</v>
+      </c>
+      <c r="H234" s="3">
+        <f t="shared" si="56"/>
+        <v>3590000</v>
+      </c>
+      <c r="I234" s="53"/>
+      <c r="J234" s="53"/>
+      <c r="K234" s="21">
+        <f t="shared" si="62"/>
+        <v>-2872000</v>
+      </c>
+      <c r="O234" s="159"/>
+      <c r="P234" s="170">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="235" spans="2:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B235" s="116" t="s">
+        <v>422</v>
+      </c>
+      <c r="C235" s="53">
+        <f t="shared" si="65"/>
+        <v>1250000</v>
+      </c>
+      <c r="D235" s="53">
+        <f t="shared" si="67"/>
+        <v>622000</v>
+      </c>
+      <c r="E235" s="53"/>
+      <c r="F235" s="75">
+        <f t="shared" si="55"/>
+        <v>1872000</v>
+      </c>
+      <c r="G235" s="58">
+        <f t="shared" si="57"/>
+        <v>2246400</v>
+      </c>
+      <c r="H235" s="3">
+        <f t="shared" si="56"/>
+        <v>2340000</v>
+      </c>
+      <c r="I235" s="53"/>
+      <c r="J235" s="53"/>
+      <c r="K235" s="21">
+        <f t="shared" si="62"/>
+        <v>-1872000</v>
+      </c>
+      <c r="O235" s="159"/>
+      <c r="P235" s="170">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="236" spans="2:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B236" s="116" t="s">
+        <v>423</v>
+      </c>
+      <c r="C236" s="53">
+        <f t="shared" si="65"/>
+        <v>2250000</v>
+      </c>
+      <c r="D236" s="53">
+        <f t="shared" si="67"/>
+        <v>622000</v>
+      </c>
+      <c r="E236" s="53"/>
+      <c r="F236" s="75">
+        <f t="shared" si="55"/>
+        <v>2872000</v>
+      </c>
+      <c r="G236" s="58">
+        <f t="shared" si="57"/>
+        <v>3446400</v>
+      </c>
+      <c r="H236" s="3">
+        <f t="shared" si="56"/>
+        <v>3590000</v>
+      </c>
+      <c r="I236" s="53"/>
+      <c r="J236" s="53"/>
+      <c r="K236" s="21">
+        <f t="shared" si="62"/>
+        <v>-2872000</v>
+      </c>
+      <c r="O236" s="159"/>
+      <c r="P236" s="170">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="237" spans="2:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B237" s="116" t="s">
+        <v>424</v>
+      </c>
+      <c r="C237" s="53">
+        <f t="shared" si="65"/>
+        <v>2500000</v>
+      </c>
+      <c r="D237" s="53">
+        <f t="shared" si="67"/>
+        <v>622000</v>
+      </c>
+      <c r="E237" s="53"/>
+      <c r="F237" s="75">
+        <f t="shared" si="55"/>
+        <v>3122000</v>
+      </c>
+      <c r="G237" s="58">
+        <f t="shared" si="57"/>
+        <v>3746400</v>
+      </c>
+      <c r="H237" s="3">
+        <f t="shared" si="56"/>
+        <v>3902500</v>
+      </c>
+      <c r="I237" s="53"/>
+      <c r="J237" s="53"/>
+      <c r="K237" s="21">
+        <f t="shared" si="62"/>
+        <v>-3122000</v>
+      </c>
+      <c r="O237" s="159"/>
+      <c r="P237" s="170">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="238" spans="2:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B238" s="116" t="s">
+        <v>423</v>
+      </c>
+      <c r="C238" s="53">
+        <f t="shared" si="65"/>
+        <v>2500000</v>
+      </c>
+      <c r="D238" s="53">
+        <f t="shared" si="67"/>
+        <v>622000</v>
+      </c>
+      <c r="E238" s="53"/>
+      <c r="F238" s="75">
+        <f t="shared" si="55"/>
+        <v>3122000</v>
+      </c>
+      <c r="G238" s="58">
+        <f t="shared" si="57"/>
+        <v>3746400</v>
+      </c>
+      <c r="H238" s="3">
+        <f t="shared" si="56"/>
+        <v>3902500</v>
+      </c>
+      <c r="I238" s="53"/>
+      <c r="J238" s="53"/>
+      <c r="K238" s="21">
+        <f t="shared" si="62"/>
+        <v>-3122000</v>
+      </c>
+      <c r="O238" s="159"/>
+      <c r="P238" s="170">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="239" spans="2:16" s="54" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B239" s="116" t="s">
+        <v>424</v>
+      </c>
+      <c r="C239" s="53">
+        <f t="shared" si="65"/>
+        <v>2500000</v>
+      </c>
+      <c r="D239" s="53">
+        <f t="shared" si="67"/>
+        <v>622000</v>
+      </c>
+      <c r="E239" s="53">
+        <v>500000</v>
+      </c>
+      <c r="F239" s="75">
+        <f t="shared" si="55"/>
+        <v>3622000</v>
+      </c>
+      <c r="G239" s="58">
+        <f t="shared" si="57"/>
+        <v>4346400</v>
+      </c>
+      <c r="H239" s="3">
+        <f t="shared" si="56"/>
+        <v>4527500</v>
+      </c>
+      <c r="I239" s="53">
+        <v>5000000</v>
+      </c>
+      <c r="J239" s="53"/>
+      <c r="K239" s="21">
+        <f t="shared" si="62"/>
+        <v>1378000</v>
+      </c>
+      <c r="O239" s="159"/>
+      <c r="P239" s="170">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="240" spans="2:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B240" s="116" t="s">
+        <v>425</v>
+      </c>
+      <c r="C240" s="53">
+        <f t="shared" si="65"/>
+        <v>2000000</v>
+      </c>
+      <c r="D240" s="53">
+        <f t="shared" si="67"/>
+        <v>622000</v>
+      </c>
+      <c r="E240" s="53"/>
+      <c r="F240" s="75">
+        <f t="shared" si="55"/>
+        <v>2622000</v>
+      </c>
+      <c r="G240" s="58">
+        <f t="shared" si="57"/>
+        <v>3146400</v>
+      </c>
+      <c r="H240" s="3">
+        <f t="shared" si="56"/>
+        <v>3277500</v>
+      </c>
+      <c r="I240" s="53">
+        <v>4250000</v>
+      </c>
+      <c r="J240" s="53"/>
+      <c r="K240" s="21">
+        <f t="shared" si="62"/>
+        <v>1628000</v>
+      </c>
+      <c r="O240" s="160"/>
+      <c r="P240" s="170">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="241" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B241" s="175" t="s">
+        <v>428</v>
+      </c>
+      <c r="C241" s="3">
+        <f t="shared" si="65"/>
+        <v>5750000</v>
+      </c>
+      <c r="F241" s="75">
+        <f t="shared" si="55"/>
+        <v>5750000</v>
+      </c>
+      <c r="G241" s="58">
+        <f t="shared" si="57"/>
+        <v>6900000</v>
+      </c>
+      <c r="H241" s="3">
+        <f t="shared" si="56"/>
+        <v>7187500</v>
+      </c>
+      <c r="K241" s="21">
+        <f t="shared" si="62"/>
+        <v>-5750000</v>
+      </c>
+      <c r="O241" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="P241" s="2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="242" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B242" s="98" t="s">
+        <v>431</v>
+      </c>
+      <c r="C242" s="3">
+        <f t="shared" si="65"/>
+        <v>6250000</v>
+      </c>
+      <c r="F242" s="3">
+        <f t="shared" si="55"/>
+        <v>6250000</v>
+      </c>
+      <c r="G242" s="58">
+        <f t="shared" si="57"/>
+        <v>7500000</v>
+      </c>
+      <c r="H242" s="3">
+        <f t="shared" si="56"/>
+        <v>7812500</v>
+      </c>
+      <c r="K242" s="21">
+        <f t="shared" si="62"/>
+        <v>-6250000</v>
+      </c>
+      <c r="O242" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="P242" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="243" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B243" s="98" t="s">
+        <v>432</v>
+      </c>
+      <c r="C243" s="3">
+        <f t="shared" si="65"/>
+        <v>7500000</v>
+      </c>
+      <c r="F243" s="3">
+        <f t="shared" si="55"/>
+        <v>7500000</v>
+      </c>
+      <c r="G243" s="3">
+        <f t="shared" si="57"/>
+        <v>9000000</v>
+      </c>
+      <c r="H243" s="3">
+        <f t="shared" si="56"/>
+        <v>9375000</v>
+      </c>
+      <c r="K243" s="21">
+        <f t="shared" si="62"/>
+        <v>-7500000</v>
+      </c>
+      <c r="P243" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="244" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K244" s="21">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K245" s="21">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K246" s="21">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K247" s="21">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K248" s="21">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="L1:L80" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <mergeCells count="21">
+  <mergeCells count="22">
+    <mergeCell ref="O228:O232"/>
+    <mergeCell ref="O233:O240"/>
     <mergeCell ref="O205:O207"/>
     <mergeCell ref="O208:O212"/>
     <mergeCell ref="O213:O215"/>
@@ -10316,7 +11318,6 @@
     <mergeCell ref="O151:O154"/>
     <mergeCell ref="O159:O160"/>
     <mergeCell ref="O203:O204"/>
-    <mergeCell ref="P203:P204"/>
     <mergeCell ref="P181:P185"/>
     <mergeCell ref="P173:P177"/>
     <mergeCell ref="O189:O193"/>
@@ -10326,12 +11327,12 @@
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="C2:G2 H2:N17 O2:O22 B2:B25 C3:E25 F3:G27 K3:K79 L18:N39 H18:J65 O26 D26:E38 F28 G28:G72 C29:F38 O29:O38 D39:F39 C40:F41 L40:O41 D42:F57 L42:N69 E58:F58 D59:F69 I66:J69 H66:H72 D71:F72 I71:J72 L71:N73 D73:J78 M74:N74 L75:N78 F102:F125">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>MOD(ROW(),2)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D178:D188">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10340,10 +11341,11 @@
     <hyperlink ref="O24" r:id="rId2" display="https://www.ebay.com/ship/trk/tracking-details?transid=0&amp;itemid=394522922692" xr:uid="{33A4F9FB-78A6-4311-9764-2BC4A4E1AFF3}"/>
     <hyperlink ref="B138" r:id="rId3" display="https://www.ebay.com/itm/325805882250" xr:uid="{70381CF5-FDCF-49BF-BF81-7CDD8074340C}"/>
     <hyperlink ref="B139" r:id="rId4" display="https://www.ebay.com/itm/126084941450" xr:uid="{DDDC8F78-B25D-417B-B17A-8B8B7F58B641}"/>
+    <hyperlink ref="B241" r:id="rId5" display="https://www.ebay.com/itm/166464698547" xr:uid="{2EC04E0D-09EE-4BA8-94EA-03A2C02B72EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/TDStore/NhapXuatLaptop.xlsx
+++ b/TDStore/NhapXuatLaptop.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06.TDStore\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5731B90-07F8-4E01-81E8-DADA521F4498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AF6D70-174D-4308-A7A1-6CADC5C813CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="440">
   <si>
     <t>ID máy</t>
   </si>
@@ -1331,6 +1331,27 @@
   </si>
   <si>
     <t>Dell Latitude 9420 i5-1145G7 2.6ghz 16gb Ram Iris Xe (No Bott.Cover, SSD, No OS)</t>
+  </si>
+  <si>
+    <t>7410 Thay A C D</t>
+  </si>
+  <si>
+    <t>7400 Chết main</t>
+  </si>
+  <si>
+    <t>7410 Cấn</t>
+  </si>
+  <si>
+    <t>9405511206217487107680</t>
+  </si>
+  <si>
+    <t>9405511206217487492717</t>
+  </si>
+  <si>
+    <t>7540 i7/32/1T</t>
+  </si>
+  <si>
+    <t>7530 i7/32/1T/Touch</t>
   </si>
 </sst>
 </file>
@@ -1426,7 +1447,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1523,6 +1544,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -1589,7 +1616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1876,13 +1903,29 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1894,41 +1937,14 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1954,22 +1970,40 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2113,7 +2147,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2418,11 +2452,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P248"/>
+  <dimension ref="A1:P249"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C218" sqref="C218"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B188" sqref="B188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5199,7 +5233,7 @@
       <c r="L72" s="68" t="s">
         <v>207</v>
       </c>
-      <c r="O72" s="161" t="s">
+      <c r="O72" s="156" t="s">
         <v>182</v>
       </c>
     </row>
@@ -5241,7 +5275,7 @@
       <c r="L73" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="O73" s="161"/>
+      <c r="O73" s="156"/>
     </row>
     <row r="74" spans="1:15" s="57" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="69">
@@ -5281,7 +5315,7 @@
       </c>
       <c r="M74" s="73"/>
       <c r="N74" s="73"/>
-      <c r="O74" s="161"/>
+      <c r="O74" s="156"/>
     </row>
     <row r="75" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="52">
@@ -6125,7 +6159,7 @@
       <c r="N96" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="O96" s="156" t="s">
+      <c r="O96" s="157" t="s">
         <v>232</v>
       </c>
     </row>
@@ -6155,7 +6189,7 @@
         <f t="shared" si="14"/>
         <v>-4698000</v>
       </c>
-      <c r="O97" s="157"/>
+      <c r="O97" s="158"/>
     </row>
     <row r="98" spans="2:15" s="84" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="124" t="s">
@@ -6646,7 +6680,7 @@
       <c r="N111" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="O111" s="156" t="s">
+      <c r="O111" s="157" t="s">
         <v>273</v>
       </c>
     </row>
@@ -6689,7 +6723,7 @@
       <c r="N112" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="O112" s="162"/>
+      <c r="O112" s="159"/>
     </row>
     <row r="113" spans="2:15" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B113" s="102" t="s">
@@ -6730,7 +6764,7 @@
       <c r="N113" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="O113" s="162"/>
+      <c r="O113" s="159"/>
     </row>
     <row r="114" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B114" s="98" t="s">
@@ -6760,7 +6794,7 @@
         <f t="shared" ref="K114" si="24">I114-J114-F114</f>
         <v>-4068000</v>
       </c>
-      <c r="O114" s="162"/>
+      <c r="O114" s="159"/>
     </row>
     <row r="115" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B115" s="98" t="s">
@@ -6795,7 +6829,7 @@
       <c r="L115" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O115" s="157"/>
+      <c r="O115" s="158"/>
     </row>
     <row r="116" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B116" s="98" t="s">
@@ -6899,7 +6933,7 @@
       <c r="L118" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="O118" s="163" t="s">
+      <c r="O118" s="160" t="s">
         <v>280</v>
       </c>
     </row>
@@ -6939,7 +6973,7 @@
       <c r="L119" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="O119" s="164"/>
+      <c r="O119" s="161"/>
     </row>
     <row r="120" spans="2:15" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B120" s="127" t="s">
@@ -6977,7 +7011,7 @@
       <c r="L120" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="O120" s="164"/>
+      <c r="O120" s="161"/>
     </row>
     <row r="121" spans="2:15" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B121" s="127" t="s">
@@ -7015,7 +7049,7 @@
       <c r="L121" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="O121" s="164"/>
+      <c r="O121" s="161"/>
     </row>
     <row r="122" spans="2:15" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B122" s="127" t="s">
@@ -7053,7 +7087,7 @@
       <c r="L122" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="O122" s="165"/>
+      <c r="O122" s="162"/>
     </row>
     <row r="123" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B123" s="98" t="s">
@@ -7266,7 +7300,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="129" spans="2:15" s="60" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:15" s="60" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B129" s="128" t="s">
         <v>327</v>
       </c>
@@ -7289,11 +7323,13 @@
         <f t="shared" si="12"/>
         <v>9382500</v>
       </c>
-      <c r="I129" s="58"/>
+      <c r="I129" s="58">
+        <v>7500000</v>
+      </c>
       <c r="J129" s="58"/>
       <c r="K129" s="58">
         <f t="shared" si="14"/>
-        <v>-7506000</v>
+        <v>-6000</v>
       </c>
       <c r="O129" s="61" t="s">
         <v>308</v>
@@ -7931,7 +7967,7 @@
         <f t="shared" si="33"/>
         <v>3400000</v>
       </c>
-      <c r="O148" s="156" t="s">
+      <c r="O148" s="157" t="s">
         <v>345</v>
       </c>
     </row>
@@ -7962,7 +7998,7 @@
         <f t="shared" si="33"/>
         <v>3400000</v>
       </c>
-      <c r="O149" s="162"/>
+      <c r="O149" s="159"/>
     </row>
     <row r="150" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B150" s="98" t="s">
@@ -7991,7 +8027,7 @@
         <f t="shared" si="33"/>
         <v>3400000</v>
       </c>
-      <c r="O150" s="157"/>
+      <c r="O150" s="158"/>
     </row>
     <row r="151" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B151" s="98" t="s">
@@ -8024,7 +8060,7 @@
         <f t="shared" si="33"/>
         <v>2681000</v>
       </c>
-      <c r="O151" s="156" t="s">
+      <c r="O151" s="157" t="s">
         <v>346</v>
       </c>
     </row>
@@ -8059,7 +8095,7 @@
         <f t="shared" si="33"/>
         <v>2681000</v>
       </c>
-      <c r="O152" s="162"/>
+      <c r="O152" s="159"/>
     </row>
     <row r="153" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B153" s="98" t="s">
@@ -8088,7 +8124,7 @@
         <f t="shared" si="33"/>
         <v>-5519000</v>
       </c>
-      <c r="O153" s="162"/>
+      <c r="O153" s="159"/>
     </row>
     <row r="154" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B154" s="98" t="s">
@@ -8123,7 +8159,7 @@
       <c r="L154" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="O154" s="157"/>
+      <c r="O154" s="158"/>
     </row>
     <row r="155" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B155" s="98" t="s">
@@ -8297,7 +8333,7 @@
       <c r="L159" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="O159" s="166" t="s">
+      <c r="O159" s="163" t="s">
         <v>355</v>
       </c>
     </row>
@@ -8336,7 +8372,7 @@
       <c r="L160" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="O160" s="167"/>
+      <c r="O160" s="164"/>
     </row>
     <row r="161" spans="2:16" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B161" s="127" t="s">
@@ -8622,7 +8658,7 @@
         <f t="shared" si="33"/>
         <v>1608800</v>
       </c>
-      <c r="O168" s="156" t="s">
+      <c r="O168" s="157" t="s">
         <v>362</v>
       </c>
     </row>
@@ -8656,7 +8692,7 @@
         <f t="shared" si="33"/>
         <v>1608800</v>
       </c>
-      <c r="O169" s="162"/>
+      <c r="O169" s="159"/>
     </row>
     <row r="170" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B170" s="98" t="s">
@@ -8688,7 +8724,7 @@
         <f t="shared" si="33"/>
         <v>1908800</v>
       </c>
-      <c r="O170" s="162"/>
+      <c r="O170" s="159"/>
     </row>
     <row r="171" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B171" s="98" t="s">
@@ -8720,7 +8756,7 @@
         <f t="shared" si="33"/>
         <v>1908800</v>
       </c>
-      <c r="O171" s="162"/>
+      <c r="O171" s="159"/>
     </row>
     <row r="172" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B172" s="98" t="s">
@@ -8752,7 +8788,7 @@
         <f t="shared" si="33"/>
         <v>1908800</v>
       </c>
-      <c r="O172" s="157"/>
+      <c r="O172" s="158"/>
     </row>
     <row r="173" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B173" s="98" t="s">
@@ -8787,10 +8823,10 @@
         <f t="shared" si="33"/>
         <v>2242800</v>
       </c>
-      <c r="O173" s="156" t="s">
+      <c r="O173" s="157" t="s">
         <v>384</v>
       </c>
-      <c r="P173" s="144">
+      <c r="P173" s="167">
         <v>735</v>
       </c>
     </row>
@@ -8827,8 +8863,8 @@
         <f t="shared" si="33"/>
         <v>1642800</v>
       </c>
-      <c r="O174" s="162"/>
-      <c r="P174" s="145"/>
+      <c r="O174" s="159"/>
+      <c r="P174" s="168"/>
     </row>
     <row r="175" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B175" s="98" t="s">
@@ -8860,8 +8896,8 @@
         <f t="shared" si="33"/>
         <v>1432800</v>
       </c>
-      <c r="O175" s="162"/>
-      <c r="P175" s="145"/>
+      <c r="O175" s="159"/>
+      <c r="P175" s="168"/>
     </row>
     <row r="176" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B176" s="98" t="s">
@@ -8893,8 +8929,8 @@
         <f t="shared" si="33"/>
         <v>1022800</v>
       </c>
-      <c r="O176" s="162"/>
-      <c r="P176" s="145"/>
+      <c r="O176" s="159"/>
+      <c r="P176" s="168"/>
     </row>
     <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B177" s="98" t="s">
@@ -8926,8 +8962,8 @@
         <f t="shared" si="33"/>
         <v>4197800</v>
       </c>
-      <c r="O177" s="157"/>
-      <c r="P177" s="146"/>
+      <c r="O177" s="158"/>
+      <c r="P177" s="169"/>
     </row>
     <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B178" s="98" t="s">
@@ -9055,10 +9091,10 @@
       <c r="L181" s="94"/>
       <c r="M181" s="94"/>
       <c r="N181" s="94"/>
-      <c r="O181" s="153" t="s">
+      <c r="O181" s="173" t="s">
         <v>378</v>
       </c>
-      <c r="P181" s="144">
+      <c r="P181" s="167">
         <v>640</v>
       </c>
     </row>
@@ -9098,8 +9134,8 @@
       <c r="L182" s="94"/>
       <c r="M182" s="94"/>
       <c r="N182" s="94"/>
-      <c r="O182" s="154"/>
-      <c r="P182" s="145"/>
+      <c r="O182" s="174"/>
+      <c r="P182" s="168"/>
     </row>
     <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="94"/>
@@ -9137,8 +9173,8 @@
       <c r="L183" s="94"/>
       <c r="M183" s="94"/>
       <c r="N183" s="94"/>
-      <c r="O183" s="154"/>
-      <c r="P183" s="145"/>
+      <c r="O183" s="174"/>
+      <c r="P183" s="168"/>
     </row>
     <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="94"/>
@@ -9176,8 +9212,8 @@
       <c r="L184" s="94"/>
       <c r="M184" s="94"/>
       <c r="N184" s="94"/>
-      <c r="O184" s="154"/>
-      <c r="P184" s="145"/>
+      <c r="O184" s="174"/>
+      <c r="P184" s="168"/>
     </row>
     <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="94"/>
@@ -9215,8 +9251,8 @@
       <c r="L185" s="94"/>
       <c r="M185" s="94"/>
       <c r="N185" s="94"/>
-      <c r="O185" s="155"/>
-      <c r="P185" s="146"/>
+      <c r="O185" s="175"/>
+      <c r="P185" s="169"/>
     </row>
     <row r="186" spans="1:16" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B186" s="132" t="s">
@@ -9252,7 +9288,7 @@
         <f t="shared" si="33"/>
         <v>829000</v>
       </c>
-      <c r="O186" s="156" t="s">
+      <c r="O186" s="157" t="s">
         <v>381</v>
       </c>
     </row>
@@ -9286,7 +9322,7 @@
         <f t="shared" si="33"/>
         <v>1429000</v>
       </c>
-      <c r="O187" s="157"/>
+      <c r="O187" s="158"/>
     </row>
     <row r="188" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B188" s="139" t="s">
@@ -9356,7 +9392,7 @@
         <f t="shared" si="33"/>
         <v>6490000</v>
       </c>
-      <c r="O189" s="147" t="s">
+      <c r="O189" s="153" t="s">
         <v>388</v>
       </c>
       <c r="P189" s="134">
@@ -9396,7 +9432,7 @@
         <f t="shared" si="33"/>
         <v>4990000</v>
       </c>
-      <c r="O190" s="148"/>
+      <c r="O190" s="154"/>
       <c r="P190" s="135">
         <v>290</v>
       </c>
@@ -9434,7 +9470,7 @@
         <f t="shared" si="33"/>
         <v>4490000</v>
       </c>
-      <c r="O191" s="148"/>
+      <c r="O191" s="154"/>
       <c r="P191" s="135">
         <v>90</v>
       </c>
@@ -9472,7 +9508,7 @@
         <f t="shared" si="33"/>
         <v>4490000</v>
       </c>
-      <c r="O192" s="148"/>
+      <c r="O192" s="154"/>
       <c r="P192" s="135">
         <v>90</v>
       </c>
@@ -9510,7 +9546,7 @@
         <f t="shared" si="33"/>
         <v>3365000</v>
       </c>
-      <c r="O193" s="149"/>
+      <c r="O193" s="155"/>
       <c r="P193" s="136">
         <v>75</v>
       </c>
@@ -9548,7 +9584,7 @@
         <f t="shared" si="33"/>
         <v>-3369444.4444444445</v>
       </c>
-      <c r="O194" s="150" t="s">
+      <c r="O194" s="170" t="s">
         <v>390</v>
       </c>
       <c r="P194" s="96">
@@ -9588,7 +9624,7 @@
         <f t="shared" si="33"/>
         <v>-4629444.444444444</v>
       </c>
-      <c r="O195" s="151"/>
+      <c r="O195" s="171"/>
       <c r="P195" s="96">
         <v>110</v>
       </c>
@@ -9624,7 +9660,7 @@
         <f t="shared" si="33"/>
         <v>-4869444.444444444</v>
       </c>
-      <c r="O196" s="151"/>
+      <c r="O196" s="171"/>
       <c r="P196" s="96">
         <v>170</v>
       </c>
@@ -9662,7 +9698,7 @@
         <f t="shared" si="33"/>
         <v>1630555.5555555555</v>
       </c>
-      <c r="O197" s="151"/>
+      <c r="O197" s="171"/>
       <c r="P197" s="96">
         <v>90</v>
       </c>
@@ -9698,7 +9734,7 @@
         <f t="shared" si="33"/>
         <v>-2244444.4444444445</v>
       </c>
-      <c r="O198" s="151"/>
+      <c r="O198" s="171"/>
       <c r="P198" s="96">
         <v>65</v>
       </c>
@@ -9734,12 +9770,12 @@
         <f t="shared" si="33"/>
         <v>-2244444.4444444445</v>
       </c>
-      <c r="O199" s="151"/>
+      <c r="O199" s="171"/>
       <c r="P199" s="96">
         <v>65</v>
       </c>
     </row>
-    <row r="200" spans="2:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:16" s="40" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B200" s="133" t="s">
         <v>396</v>
       </c>
@@ -9766,13 +9802,15 @@
         <f t="shared" si="31"/>
         <v>4180555.5555555555</v>
       </c>
-      <c r="I200" s="39"/>
+      <c r="I200" s="39">
+        <v>5500000</v>
+      </c>
       <c r="J200" s="39"/>
       <c r="K200" s="3">
         <f t="shared" si="33"/>
-        <v>-3344444.4444444445</v>
-      </c>
-      <c r="O200" s="151"/>
+        <v>2155555.5555555555</v>
+      </c>
+      <c r="O200" s="171"/>
       <c r="P200" s="96">
         <v>75</v>
       </c>
@@ -9791,7 +9829,7 @@
       </c>
       <c r="E201" s="39"/>
       <c r="F201" s="75">
-        <f t="shared" ref="F201:F243" si="55">C201+D201+E201</f>
+        <f t="shared" ref="F201:F244" si="55">C201+D201+E201</f>
         <v>3369444.4444444445</v>
       </c>
       <c r="G201" s="58">
@@ -9799,7 +9837,7 @@
         <v>4043333.3333333335</v>
       </c>
       <c r="H201" s="3">
-        <f t="shared" ref="H201:H243" si="56">(F201*25%)+F201</f>
+        <f t="shared" ref="H201:H244" si="56">(F201*25%)+F201</f>
         <v>4211805.555555556</v>
       </c>
       <c r="I201" s="39"/>
@@ -9808,7 +9846,7 @@
         <f t="shared" si="33"/>
         <v>-3369444.4444444445</v>
       </c>
-      <c r="O201" s="151"/>
+      <c r="O201" s="171"/>
       <c r="P201" s="96">
         <v>110</v>
       </c>
@@ -9833,7 +9871,7 @@
         <v>3119444.4444444445</v>
       </c>
       <c r="G202" s="58">
-        <f t="shared" ref="G202:G243" si="57">(F202*20%)+F202</f>
+        <f t="shared" ref="G202:G244" si="57">(F202*20%)+F202</f>
         <v>3743333.3333333335</v>
       </c>
       <c r="H202" s="3">
@@ -9846,7 +9884,7 @@
         <f t="shared" si="33"/>
         <v>-3119444.4444444445</v>
       </c>
-      <c r="O202" s="152"/>
+      <c r="O202" s="172"/>
       <c r="P202" s="96">
         <v>80</v>
       </c>
@@ -9884,7 +9922,7 @@
         <f t="shared" si="33"/>
         <v>-11772000</v>
       </c>
-      <c r="O203" s="168" t="s">
+      <c r="O203" s="165" t="s">
         <v>398</v>
       </c>
       <c r="P203" s="142">
@@ -9924,7 +9962,7 @@
         <f t="shared" si="33"/>
         <v>-11092000</v>
       </c>
-      <c r="O204" s="169"/>
+      <c r="O204" s="166"/>
       <c r="P204" s="143">
         <v>350</v>
       </c>
@@ -9962,7 +10000,7 @@
         <f t="shared" si="33"/>
         <v>4041750</v>
       </c>
-      <c r="O205" s="158" t="s">
+      <c r="O205" s="150" t="s">
         <v>400</v>
       </c>
     </row>
@@ -9975,7 +10013,7 @@
         <v>2250000</v>
       </c>
       <c r="D206" s="53">
-        <f t="shared" ref="D206:D208" si="59">2833000/4</f>
+        <f t="shared" ref="D206:D207" si="59">2833000/4</f>
         <v>708250</v>
       </c>
       <c r="E206" s="53"/>
@@ -9999,7 +10037,7 @@
         <f t="shared" si="33"/>
         <v>4041750</v>
       </c>
-      <c r="O206" s="159"/>
+      <c r="O206" s="151"/>
     </row>
     <row r="207" spans="2:16" s="54" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B207" s="116">
@@ -10034,18 +10072,18 @@
         <f t="shared" si="33"/>
         <v>4041750</v>
       </c>
-      <c r="O207" s="160"/>
+      <c r="O207" s="152"/>
     </row>
     <row r="208" spans="2:16" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="137">
-        <v>7400</v>
+      <c r="B208" s="137" t="s">
+        <v>434</v>
       </c>
       <c r="C208" s="83">
         <f>75*25000</f>
         <v>1875000</v>
       </c>
       <c r="D208" s="53">
-        <f t="shared" si="59"/>
+        <f>2833000/4</f>
         <v>708250</v>
       </c>
       <c r="E208" s="83"/>
@@ -10067,7 +10105,7 @@
         <f t="shared" si="33"/>
         <v>-2583250</v>
       </c>
-      <c r="O208" s="158" t="s">
+      <c r="O208" s="150" t="s">
         <v>401</v>
       </c>
     </row>
@@ -10104,7 +10142,7 @@
         <f t="shared" ref="K209:K248" si="62">I209-J209-F209</f>
         <v>3422500</v>
       </c>
-      <c r="O209" s="159"/>
+      <c r="O209" s="151"/>
     </row>
     <row r="210" spans="2:16" s="54" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B210" s="116">
@@ -10139,7 +10177,7 @@
         <f t="shared" si="62"/>
         <v>3422500</v>
       </c>
-      <c r="O210" s="159"/>
+      <c r="O210" s="151"/>
     </row>
     <row r="211" spans="2:16" s="54" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B211" s="116">
@@ -10174,7 +10212,7 @@
         <f t="shared" si="62"/>
         <v>3422500</v>
       </c>
-      <c r="O211" s="159"/>
+      <c r="O211" s="151"/>
     </row>
     <row r="212" spans="2:16" s="54" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B212" s="116">
@@ -10209,9 +10247,9 @@
         <f t="shared" si="62"/>
         <v>3422500</v>
       </c>
-      <c r="O212" s="160"/>
-    </row>
-    <row r="213" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O212" s="152"/>
+    </row>
+    <row r="213" spans="2:16" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B213" s="99" t="s">
         <v>402</v>
       </c>
@@ -10237,14 +10275,14 @@
         <v>12812500</v>
       </c>
       <c r="I213" s="7">
-        <v>14300000</v>
+        <v>13200000</v>
       </c>
       <c r="J213" s="7"/>
       <c r="K213" s="3">
         <f t="shared" si="62"/>
-        <v>4050000</v>
-      </c>
-      <c r="O213" s="147" t="s">
+        <v>2950000</v>
+      </c>
+      <c r="O213" s="153" t="s">
         <v>403</v>
       </c>
     </row>
@@ -10281,7 +10319,7 @@
         <f t="shared" si="62"/>
         <v>1750000</v>
       </c>
-      <c r="O214" s="148"/>
+      <c r="O214" s="154"/>
     </row>
     <row r="215" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B215" s="99" t="s">
@@ -10295,28 +10333,30 @@
         <f t="shared" si="64"/>
         <v>875000</v>
       </c>
-      <c r="E215" s="7"/>
+      <c r="E215" s="7">
+        <v>350000</v>
+      </c>
       <c r="F215" s="75">
         <f t="shared" si="55"/>
-        <v>10250000</v>
+        <v>10600000</v>
       </c>
       <c r="G215" s="58">
         <f t="shared" si="57"/>
-        <v>12300000</v>
+        <v>12720000</v>
       </c>
       <c r="H215" s="3">
         <f t="shared" si="56"/>
-        <v>12812500</v>
+        <v>13250000</v>
       </c>
       <c r="I215" s="7"/>
       <c r="J215" s="7"/>
       <c r="K215" s="3">
         <f t="shared" si="62"/>
-        <v>-10250000</v>
-      </c>
-      <c r="O215" s="149"/>
-    </row>
-    <row r="216" spans="2:16" x14ac:dyDescent="0.25">
+        <v>-10600000</v>
+      </c>
+      <c r="O215" s="155"/>
+    </row>
+    <row r="216" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B216" s="98" t="s">
         <v>404</v>
       </c>
@@ -10324,27 +10364,33 @@
         <f>600*25000</f>
         <v>15000000</v>
       </c>
+      <c r="D216" s="3">
+        <v>1128000</v>
+      </c>
       <c r="F216" s="75">
         <f t="shared" si="55"/>
-        <v>15000000</v>
+        <v>16128000</v>
       </c>
       <c r="G216" s="58">
         <f t="shared" si="57"/>
-        <v>18000000</v>
+        <v>19353600</v>
       </c>
       <c r="H216" s="3">
         <f t="shared" si="56"/>
-        <v>18750000</v>
+        <v>20160000</v>
+      </c>
+      <c r="I216" s="3">
+        <v>20500000</v>
       </c>
       <c r="K216" s="3">
         <f t="shared" si="62"/>
-        <v>-15000000</v>
+        <v>4372000</v>
       </c>
       <c r="O216" s="9" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="217" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B217" s="98" t="s">
         <v>405</v>
       </c>
@@ -10352,51 +10398,63 @@
         <f>500*25000</f>
         <v>12500000</v>
       </c>
+      <c r="D217" s="3">
+        <v>1220000</v>
+      </c>
       <c r="F217" s="75">
         <f t="shared" si="55"/>
-        <v>12500000</v>
+        <v>13720000</v>
       </c>
       <c r="G217" s="58">
         <f t="shared" si="57"/>
-        <v>15000000</v>
+        <v>16464000</v>
       </c>
       <c r="H217" s="3">
         <f t="shared" si="56"/>
-        <v>15625000</v>
+        <v>17150000</v>
+      </c>
+      <c r="I217" s="3">
+        <v>18500000</v>
       </c>
       <c r="K217" s="3">
         <f t="shared" si="62"/>
-        <v>-12500000</v>
+        <v>4780000</v>
       </c>
       <c r="O217" s="9" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="218" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B218" s="98">
-        <v>7410</v>
-      </c>
-      <c r="C218" s="3">
+    <row r="218" spans="2:16" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B218" s="124" t="s">
+        <v>433</v>
+      </c>
+      <c r="C218" s="83">
         <f>25000*200</f>
         <v>5000000</v>
       </c>
-      <c r="F218" s="75">
+      <c r="D218" s="83">
+        <v>898000</v>
+      </c>
+      <c r="E218" s="83"/>
+      <c r="F218" s="83">
         <f t="shared" si="55"/>
-        <v>5000000</v>
-      </c>
-      <c r="G218" s="58">
+        <v>5898000</v>
+      </c>
+      <c r="G218" s="176">
         <f t="shared" si="57"/>
-        <v>6000000</v>
-      </c>
-      <c r="H218" s="3">
+        <v>7077600</v>
+      </c>
+      <c r="H218" s="83">
         <f t="shared" si="56"/>
-        <v>6250000</v>
-      </c>
-      <c r="K218" s="3">
+        <v>7372500</v>
+      </c>
+      <c r="I218" s="83"/>
+      <c r="J218" s="83"/>
+      <c r="K218" s="83">
         <f t="shared" si="62"/>
-        <v>-5000000</v>
-      </c>
-      <c r="O218" s="9" t="s">
+        <v>-5898000</v>
+      </c>
+      <c r="O218" s="85" t="s">
         <v>408</v>
       </c>
     </row>
@@ -10408,25 +10466,30 @@
         <f>P219*25000</f>
         <v>2225000</v>
       </c>
-      <c r="D219" s="7"/>
-      <c r="E219" s="7"/>
+      <c r="D219" s="7">
+        <f>3363000/5</f>
+        <v>672600</v>
+      </c>
+      <c r="E219" s="7">
+        <v>1000000</v>
+      </c>
       <c r="F219" s="75">
         <f t="shared" si="55"/>
-        <v>2225000</v>
+        <v>3897600</v>
       </c>
       <c r="G219" s="58">
         <f t="shared" si="57"/>
-        <v>2670000</v>
+        <v>4677120</v>
       </c>
       <c r="H219" s="3">
         <f t="shared" si="56"/>
-        <v>2781250</v>
+        <v>4872000</v>
       </c>
       <c r="I219" s="7"/>
       <c r="J219" s="7"/>
       <c r="K219" s="3">
         <f t="shared" si="62"/>
-        <v>-2225000</v>
+        <v>-3897600</v>
       </c>
       <c r="O219" s="10" t="s">
         <v>410</v>
@@ -10440,30 +10503,33 @@
         <v>409</v>
       </c>
       <c r="C220" s="7">
-        <f t="shared" ref="C220:C243" si="65">P220*25000</f>
+        <f t="shared" ref="C220:C249" si="65">P220*25000</f>
         <v>2225000</v>
       </c>
-      <c r="D220" s="7"/>
+      <c r="D220" s="7">
+        <f t="shared" ref="D220:D225" si="66">3363000/5</f>
+        <v>672600</v>
+      </c>
       <c r="E220" s="7"/>
       <c r="F220" s="75">
         <f t="shared" si="55"/>
-        <v>2225000</v>
+        <v>2897600</v>
       </c>
       <c r="G220" s="58">
         <f t="shared" si="57"/>
-        <v>2670000</v>
+        <v>3477120</v>
       </c>
       <c r="H220" s="3">
         <f t="shared" si="56"/>
-        <v>2781250</v>
+        <v>3622000</v>
       </c>
       <c r="I220" s="7"/>
       <c r="J220" s="7"/>
       <c r="K220" s="3">
         <f t="shared" si="62"/>
-        <v>-2225000</v>
-      </c>
-      <c r="O220" s="147" t="s">
+        <v>-2897600</v>
+      </c>
+      <c r="O220" s="153" t="s">
         <v>411</v>
       </c>
       <c r="P220" s="6">
@@ -10478,27 +10544,34 @@
         <f t="shared" si="65"/>
         <v>1750000</v>
       </c>
-      <c r="D221" s="7"/>
-      <c r="E221" s="7"/>
+      <c r="D221" s="7">
+        <f t="shared" si="66"/>
+        <v>672600</v>
+      </c>
+      <c r="E221" s="7">
+        <v>150000</v>
+      </c>
       <c r="F221" s="75">
         <f t="shared" si="55"/>
-        <v>1750000</v>
+        <v>2572600</v>
       </c>
       <c r="G221" s="58">
         <f t="shared" si="57"/>
-        <v>2100000</v>
+        <v>3087120</v>
       </c>
       <c r="H221" s="3">
         <f t="shared" si="56"/>
-        <v>2187500</v>
-      </c>
-      <c r="I221" s="7"/>
+        <v>3215750</v>
+      </c>
+      <c r="I221" s="7">
+        <v>4500000</v>
+      </c>
       <c r="J221" s="7"/>
       <c r="K221" s="3">
         <f t="shared" si="62"/>
-        <v>-1750000</v>
-      </c>
-      <c r="O221" s="148"/>
+        <v>1927400</v>
+      </c>
+      <c r="O221" s="154"/>
       <c r="P221" s="6">
         <v>70</v>
       </c>
@@ -10511,65 +10584,75 @@
         <f t="shared" si="65"/>
         <v>1750000</v>
       </c>
-      <c r="D222" s="7"/>
-      <c r="E222" s="7"/>
+      <c r="D222" s="7">
+        <f t="shared" si="66"/>
+        <v>672600</v>
+      </c>
+      <c r="E222" s="7">
+        <v>150000</v>
+      </c>
       <c r="F222" s="75">
         <f t="shared" si="55"/>
-        <v>1750000</v>
+        <v>2572600</v>
       </c>
       <c r="G222" s="58">
         <f t="shared" si="57"/>
-        <v>2100000</v>
+        <v>3087120</v>
       </c>
       <c r="H222" s="3">
         <f t="shared" si="56"/>
-        <v>2187500</v>
-      </c>
-      <c r="I222" s="7"/>
+        <v>3215750</v>
+      </c>
+      <c r="I222" s="7">
+        <v>4500000</v>
+      </c>
       <c r="J222" s="7"/>
       <c r="K222" s="3">
         <f t="shared" si="62"/>
-        <v>-1750000</v>
-      </c>
-      <c r="O222" s="148"/>
+        <v>1927400</v>
+      </c>
+      <c r="O222" s="154"/>
       <c r="P222" s="6">
         <v>70</v>
       </c>
     </row>
-    <row r="223" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="99">
-        <v>7410</v>
-      </c>
-      <c r="C223" s="7">
+    <row r="223" spans="2:16" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B223" s="127" t="s">
+        <v>435</v>
+      </c>
+      <c r="C223" s="24">
         <f t="shared" si="65"/>
         <v>2500000</v>
       </c>
-      <c r="D223" s="7"/>
-      <c r="E223" s="7"/>
-      <c r="F223" s="75">
+      <c r="D223" s="24">
+        <f t="shared" si="66"/>
+        <v>672600</v>
+      </c>
+      <c r="E223" s="24"/>
+      <c r="F223" s="24">
         <f t="shared" si="55"/>
-        <v>2500000</v>
-      </c>
-      <c r="G223" s="58">
+        <v>3172600</v>
+      </c>
+      <c r="G223" s="91">
         <f t="shared" si="57"/>
-        <v>3000000</v>
-      </c>
-      <c r="H223" s="3">
+        <v>3807120</v>
+      </c>
+      <c r="H223" s="24">
         <f t="shared" si="56"/>
-        <v>3125000</v>
-      </c>
-      <c r="I223" s="7"/>
-      <c r="J223" s="7"/>
-      <c r="K223" s="3">
+        <v>3965750</v>
+      </c>
+      <c r="I223" s="24"/>
+      <c r="J223" s="24"/>
+      <c r="K223" s="24">
         <f t="shared" si="62"/>
-        <v>-2500000</v>
-      </c>
-      <c r="O223" s="148"/>
-      <c r="P223" s="6">
+        <v>-3172600</v>
+      </c>
+      <c r="O223" s="154"/>
+      <c r="P223" s="25">
         <v>100</v>
       </c>
     </row>
-    <row r="224" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:16" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B224" s="99">
         <v>7410</v>
       </c>
@@ -10577,32 +10660,39 @@
         <f t="shared" si="65"/>
         <v>2500000</v>
       </c>
-      <c r="D224" s="7"/>
-      <c r="E224" s="7"/>
+      <c r="D224" s="7">
+        <f t="shared" si="66"/>
+        <v>672600</v>
+      </c>
+      <c r="E224" s="7">
+        <v>300000</v>
+      </c>
       <c r="F224" s="75">
         <f t="shared" si="55"/>
-        <v>2500000</v>
+        <v>3472600</v>
       </c>
       <c r="G224" s="58">
         <f t="shared" si="57"/>
-        <v>3000000</v>
+        <v>4167120</v>
       </c>
       <c r="H224" s="3">
         <f t="shared" si="56"/>
-        <v>3125000</v>
-      </c>
-      <c r="I224" s="7"/>
+        <v>4340750</v>
+      </c>
+      <c r="I224" s="7">
+        <v>6700000</v>
+      </c>
       <c r="J224" s="7"/>
       <c r="K224" s="3">
         <f t="shared" si="62"/>
-        <v>-2500000</v>
-      </c>
-      <c r="O224" s="148"/>
+        <v>3227400</v>
+      </c>
+      <c r="O224" s="154"/>
       <c r="P224" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="225" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:16" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B225" s="99">
         <v>7410</v>
       </c>
@@ -10610,27 +10700,34 @@
         <f t="shared" si="65"/>
         <v>2500000</v>
       </c>
-      <c r="D225" s="7"/>
-      <c r="E225" s="7"/>
+      <c r="D225" s="7">
+        <f t="shared" si="66"/>
+        <v>672600</v>
+      </c>
+      <c r="E225" s="7">
+        <v>300000</v>
+      </c>
       <c r="F225" s="75">
         <f t="shared" si="55"/>
-        <v>2500000</v>
+        <v>3472600</v>
       </c>
       <c r="G225" s="58">
         <f t="shared" si="57"/>
-        <v>3000000</v>
+        <v>4167120</v>
       </c>
       <c r="H225" s="3">
         <f t="shared" si="56"/>
-        <v>3125000</v>
-      </c>
-      <c r="I225" s="7"/>
+        <v>4340750</v>
+      </c>
+      <c r="I225" s="7">
+        <v>7200000</v>
+      </c>
       <c r="J225" s="7"/>
       <c r="K225" s="3">
         <f t="shared" si="62"/>
-        <v>-2500000</v>
-      </c>
-      <c r="O225" s="149"/>
+        <v>3727400</v>
+      </c>
+      <c r="O225" s="155"/>
       <c r="P225" s="6">
         <v>100</v>
       </c>
@@ -10643,21 +10740,27 @@
         <f t="shared" si="65"/>
         <v>7500000</v>
       </c>
+      <c r="D226" s="3">
+        <v>645000</v>
+      </c>
+      <c r="E226" s="3">
+        <v>1520000</v>
+      </c>
       <c r="F226" s="75">
         <f t="shared" si="55"/>
-        <v>7500000</v>
+        <v>9665000</v>
       </c>
       <c r="G226" s="58">
         <f t="shared" si="57"/>
-        <v>9000000</v>
+        <v>11598000</v>
       </c>
       <c r="H226" s="3">
         <f t="shared" si="56"/>
-        <v>9375000</v>
+        <v>12081250</v>
       </c>
       <c r="K226" s="3">
         <f t="shared" si="62"/>
-        <v>-7500000</v>
+        <v>-9665000</v>
       </c>
       <c r="O226" s="9" t="s">
         <v>413</v>
@@ -10666,7 +10769,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="227" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B227" s="98" t="s">
         <v>414</v>
       </c>
@@ -10674,21 +10777,30 @@
         <f t="shared" si="65"/>
         <v>6250000</v>
       </c>
+      <c r="D227" s="3">
+        <v>668000</v>
+      </c>
+      <c r="E227" s="3">
+        <v>600000</v>
+      </c>
       <c r="F227" s="75">
         <f t="shared" si="55"/>
-        <v>6250000</v>
+        <v>7518000</v>
       </c>
       <c r="G227" s="58">
         <f t="shared" si="57"/>
-        <v>7500000</v>
+        <v>9021600</v>
       </c>
       <c r="H227" s="3">
         <f t="shared" si="56"/>
-        <v>7812500</v>
+        <v>9397500</v>
+      </c>
+      <c r="I227" s="3">
+        <v>8500000</v>
       </c>
       <c r="K227" s="3">
         <f t="shared" si="62"/>
-        <v>-6250000</v>
+        <v>982000</v>
       </c>
       <c r="O227" s="9" t="s">
         <v>415</v>
@@ -10732,10 +10844,10 @@
         <f t="shared" si="62"/>
         <v>1832600</v>
       </c>
-      <c r="O228" s="171" t="s">
+      <c r="O228" s="147" t="s">
         <v>426</v>
       </c>
-      <c r="P228" s="172">
+      <c r="P228" s="145">
         <v>90</v>
       </c>
     </row>
@@ -10748,30 +10860,34 @@
         <v>2500000</v>
       </c>
       <c r="D229" s="21">
-        <f t="shared" ref="D229:D232" si="66">3087000/5</f>
+        <f t="shared" ref="D229:D232" si="67">3087000/5</f>
         <v>617400</v>
       </c>
-      <c r="E229" s="21"/>
+      <c r="E229" s="21">
+        <v>930000</v>
+      </c>
       <c r="F229" s="75">
-        <f t="shared" si="55"/>
-        <v>3117400</v>
+        <f>C229+D229+E229</f>
+        <v>4047400</v>
       </c>
       <c r="G229" s="58">
         <f t="shared" si="57"/>
-        <v>3740880</v>
+        <v>4856880</v>
       </c>
       <c r="H229" s="3">
         <f t="shared" si="56"/>
-        <v>3896750</v>
-      </c>
-      <c r="I229" s="21"/>
+        <v>5059250</v>
+      </c>
+      <c r="I229" s="21">
+        <v>5000000</v>
+      </c>
       <c r="J229" s="21"/>
       <c r="K229" s="21">
-        <f t="shared" si="62"/>
-        <v>-3117400</v>
-      </c>
-      <c r="O229" s="173"/>
-      <c r="P229" s="172">
+        <f>I229-J229-F229</f>
+        <v>952600</v>
+      </c>
+      <c r="O229" s="148"/>
+      <c r="P229" s="145">
         <v>100</v>
       </c>
     </row>
@@ -10784,30 +10900,34 @@
         <v>2500000</v>
       </c>
       <c r="D230" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>617400</v>
       </c>
-      <c r="E230" s="21"/>
+      <c r="E230" s="21">
+        <v>930000</v>
+      </c>
       <c r="F230" s="75">
-        <f t="shared" si="55"/>
-        <v>3117400</v>
+        <f>C230+D230+E230</f>
+        <v>4047400</v>
       </c>
       <c r="G230" s="58">
         <f t="shared" si="57"/>
-        <v>3740880</v>
+        <v>4856880</v>
       </c>
       <c r="H230" s="3">
         <f t="shared" si="56"/>
-        <v>3896750</v>
-      </c>
-      <c r="I230" s="21"/>
+        <v>5059250</v>
+      </c>
+      <c r="I230" s="21">
+        <v>5000000</v>
+      </c>
       <c r="J230" s="21"/>
       <c r="K230" s="21">
-        <f t="shared" si="62"/>
-        <v>-3117400</v>
-      </c>
-      <c r="O230" s="173"/>
-      <c r="P230" s="172">
+        <f>I230-J230-F230</f>
+        <v>952600</v>
+      </c>
+      <c r="O230" s="148"/>
+      <c r="P230" s="145">
         <v>100</v>
       </c>
     </row>
@@ -10820,30 +10940,34 @@
         <v>2500000</v>
       </c>
       <c r="D231" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>617400</v>
       </c>
-      <c r="E231" s="21"/>
+      <c r="E231" s="21">
+        <v>930000</v>
+      </c>
       <c r="F231" s="75">
-        <f t="shared" si="55"/>
-        <v>3117400</v>
+        <f>C231+D231+E231</f>
+        <v>4047400</v>
       </c>
       <c r="G231" s="58">
         <f t="shared" si="57"/>
-        <v>3740880</v>
+        <v>4856880</v>
       </c>
       <c r="H231" s="3">
         <f t="shared" si="56"/>
-        <v>3896750</v>
-      </c>
-      <c r="I231" s="21"/>
+        <v>5059250</v>
+      </c>
+      <c r="I231" s="21">
+        <v>5000000</v>
+      </c>
       <c r="J231" s="21"/>
       <c r="K231" s="21">
-        <f t="shared" si="62"/>
-        <v>-3117400</v>
-      </c>
-      <c r="O231" s="173"/>
-      <c r="P231" s="172">
+        <f>I231-J231-F231</f>
+        <v>952600</v>
+      </c>
+      <c r="O231" s="148"/>
+      <c r="P231" s="145">
         <v>100</v>
       </c>
     </row>
@@ -10856,30 +10980,34 @@
         <v>2500000</v>
       </c>
       <c r="D232" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>617400</v>
       </c>
-      <c r="E232" s="21"/>
+      <c r="E232" s="21">
+        <v>930000</v>
+      </c>
       <c r="F232" s="75">
-        <f t="shared" si="55"/>
-        <v>3117400</v>
+        <f>C232+D232+E232</f>
+        <v>4047400</v>
       </c>
       <c r="G232" s="58">
         <f t="shared" si="57"/>
-        <v>3740880</v>
+        <v>4856880</v>
       </c>
       <c r="H232" s="3">
         <f t="shared" si="56"/>
-        <v>3896750</v>
-      </c>
-      <c r="I232" s="21"/>
+        <v>5059250</v>
+      </c>
+      <c r="I232" s="21">
+        <v>5000000</v>
+      </c>
       <c r="J232" s="21"/>
       <c r="K232" s="21">
-        <f t="shared" si="62"/>
-        <v>-3117400</v>
-      </c>
-      <c r="O232" s="174"/>
-      <c r="P232" s="172">
+        <f>I232-J232-F232</f>
+        <v>952600</v>
+      </c>
+      <c r="O232" s="149"/>
+      <c r="P232" s="145">
         <v>100</v>
       </c>
     </row>
@@ -10914,10 +11042,10 @@
         <f t="shared" si="62"/>
         <v>-3122000</v>
       </c>
-      <c r="O233" s="158" t="s">
+      <c r="O233" s="150" t="s">
         <v>427</v>
       </c>
-      <c r="P233" s="170">
+      <c r="P233" s="144">
         <v>100</v>
       </c>
     </row>
@@ -10930,7 +11058,7 @@
         <v>2250000</v>
       </c>
       <c r="D234" s="53">
-        <f t="shared" ref="D234:D240" si="67">4976000/8</f>
+        <f t="shared" ref="D234:D240" si="68">4976000/8</f>
         <v>622000</v>
       </c>
       <c r="E234" s="53"/>
@@ -10938,10 +11066,7 @@
         <f t="shared" si="55"/>
         <v>2872000</v>
       </c>
-      <c r="G234" s="58">
-        <f t="shared" si="57"/>
-        <v>3446400</v>
-      </c>
+      <c r="G234" s="58"/>
       <c r="H234" s="3">
         <f t="shared" si="56"/>
         <v>3590000</v>
@@ -10952,8 +11077,8 @@
         <f t="shared" si="62"/>
         <v>-2872000</v>
       </c>
-      <c r="O234" s="159"/>
-      <c r="P234" s="170">
+      <c r="O234" s="151"/>
+      <c r="P234" s="144">
         <v>90</v>
       </c>
     </row>
@@ -10966,7 +11091,7 @@
         <v>1250000</v>
       </c>
       <c r="D235" s="53">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>622000</v>
       </c>
       <c r="E235" s="53"/>
@@ -10988,8 +11113,8 @@
         <f t="shared" si="62"/>
         <v>-1872000</v>
       </c>
-      <c r="O235" s="159"/>
-      <c r="P235" s="170">
+      <c r="O235" s="151"/>
+      <c r="P235" s="144">
         <v>50</v>
       </c>
     </row>
@@ -11002,7 +11127,7 @@
         <v>2250000</v>
       </c>
       <c r="D236" s="53">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>622000</v>
       </c>
       <c r="E236" s="53"/>
@@ -11024,8 +11149,8 @@
         <f t="shared" si="62"/>
         <v>-2872000</v>
       </c>
-      <c r="O236" s="159"/>
-      <c r="P236" s="170">
+      <c r="O236" s="151"/>
+      <c r="P236" s="144">
         <v>90</v>
       </c>
     </row>
@@ -11038,7 +11163,7 @@
         <v>2500000</v>
       </c>
       <c r="D237" s="53">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>622000</v>
       </c>
       <c r="E237" s="53"/>
@@ -11060,8 +11185,8 @@
         <f t="shared" si="62"/>
         <v>-3122000</v>
       </c>
-      <c r="O237" s="159"/>
-      <c r="P237" s="170">
+      <c r="O237" s="151"/>
+      <c r="P237" s="144">
         <v>100</v>
       </c>
     </row>
@@ -11074,7 +11199,7 @@
         <v>2500000</v>
       </c>
       <c r="D238" s="53">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>622000</v>
       </c>
       <c r="E238" s="53"/>
@@ -11096,8 +11221,8 @@
         <f t="shared" si="62"/>
         <v>-3122000</v>
       </c>
-      <c r="O238" s="159"/>
-      <c r="P238" s="170">
+      <c r="O238" s="151"/>
+      <c r="P238" s="144">
         <v>100</v>
       </c>
     </row>
@@ -11110,7 +11235,7 @@
         <v>2500000</v>
       </c>
       <c r="D239" s="53">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>622000</v>
       </c>
       <c r="E239" s="53">
@@ -11136,12 +11261,12 @@
         <f t="shared" si="62"/>
         <v>1378000</v>
       </c>
-      <c r="O239" s="159"/>
-      <c r="P239" s="170">
+      <c r="O239" s="151"/>
+      <c r="P239" s="144">
         <v>100</v>
       </c>
     </row>
-    <row r="240" spans="2:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:16" s="54" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B240" s="116" t="s">
         <v>425</v>
       </c>
@@ -11150,21 +11275,23 @@
         <v>2000000</v>
       </c>
       <c r="D240" s="53">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>622000</v>
       </c>
-      <c r="E240" s="53"/>
+      <c r="E240" s="53">
+        <v>150000</v>
+      </c>
       <c r="F240" s="75">
         <f t="shared" si="55"/>
-        <v>2622000</v>
+        <v>2772000</v>
       </c>
       <c r="G240" s="58">
         <f t="shared" si="57"/>
-        <v>3146400</v>
+        <v>3326400</v>
       </c>
       <c r="H240" s="3">
         <f t="shared" si="56"/>
-        <v>3277500</v>
+        <v>3465000</v>
       </c>
       <c r="I240" s="53">
         <v>4250000</v>
@@ -11172,15 +11299,15 @@
       <c r="J240" s="53"/>
       <c r="K240" s="21">
         <f t="shared" si="62"/>
-        <v>1628000</v>
-      </c>
-      <c r="O240" s="160"/>
-      <c r="P240" s="170">
+        <v>1478000</v>
+      </c>
+      <c r="O240" s="152"/>
+      <c r="P240" s="144">
         <v>80</v>
       </c>
     </row>
     <row r="241" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B241" s="175" t="s">
+      <c r="B241" s="146" t="s">
         <v>428</v>
       </c>
       <c r="C241" s="3">
@@ -11269,45 +11396,170 @@
         <v>300</v>
       </c>
     </row>
-    <row r="244" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="K244" s="21">
+    <row r="244" spans="2:16" s="179" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B244" s="177">
+        <v>7400</v>
+      </c>
+      <c r="C244" s="178">
+        <f t="shared" si="65"/>
+        <v>2125000</v>
+      </c>
+      <c r="D244" s="178"/>
+      <c r="E244" s="178"/>
+      <c r="F244" s="178">
+        <f t="shared" si="55"/>
+        <v>2125000</v>
+      </c>
+      <c r="G244" s="178">
+        <f t="shared" si="57"/>
+        <v>2550000</v>
+      </c>
+      <c r="H244" s="178">
+        <f t="shared" si="56"/>
+        <v>2656250</v>
+      </c>
+      <c r="I244" s="178"/>
+      <c r="J244" s="178"/>
+      <c r="K244" s="178">
+        <f t="shared" si="62"/>
+        <v>-2125000</v>
+      </c>
+      <c r="O244" s="180" t="s">
+        <v>436</v>
+      </c>
+      <c r="P244" s="179">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="245" spans="2:16" s="179" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B245" s="177">
+        <v>7400</v>
+      </c>
+      <c r="C245" s="178">
+        <f t="shared" si="65"/>
+        <v>2125000</v>
+      </c>
+      <c r="D245" s="178"/>
+      <c r="E245" s="178"/>
+      <c r="F245" s="178"/>
+      <c r="G245" s="178"/>
+      <c r="H245" s="178"/>
+      <c r="I245" s="178"/>
+      <c r="J245" s="178"/>
+      <c r="K245" s="178">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="K245" s="21">
+      <c r="O245" s="180" t="s">
+        <v>437</v>
+      </c>
+      <c r="P245" s="179">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="246" spans="2:16" s="179" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B246" s="177">
+        <v>7400</v>
+      </c>
+      <c r="C246" s="178">
+        <f t="shared" si="65"/>
+        <v>2125000</v>
+      </c>
+      <c r="D246" s="178"/>
+      <c r="E246" s="178"/>
+      <c r="F246" s="178"/>
+      <c r="G246" s="178"/>
+      <c r="H246" s="178"/>
+      <c r="I246" s="178"/>
+      <c r="J246" s="178"/>
+      <c r="K246" s="178">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="K246" s="21">
+      <c r="O246" s="180"/>
+      <c r="P246" s="179">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="247" spans="2:16" s="179" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B247" s="177">
+        <v>7400</v>
+      </c>
+      <c r="C247" s="178">
+        <f t="shared" si="65"/>
+        <v>2125000</v>
+      </c>
+      <c r="D247" s="178"/>
+      <c r="E247" s="178"/>
+      <c r="F247" s="178"/>
+      <c r="G247" s="178"/>
+      <c r="H247" s="178"/>
+      <c r="I247" s="178"/>
+      <c r="J247" s="178"/>
+      <c r="K247" s="178">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="K247" s="21">
+      <c r="O247" s="180"/>
+      <c r="P247" s="179">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="248" spans="2:16" s="179" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B248" s="177" t="s">
+        <v>438</v>
+      </c>
+      <c r="C248" s="178">
+        <f t="shared" si="65"/>
+        <v>6000000</v>
+      </c>
+      <c r="D248" s="178"/>
+      <c r="E248" s="178"/>
+      <c r="F248" s="178"/>
+      <c r="G248" s="178"/>
+      <c r="H248" s="178"/>
+      <c r="I248" s="178"/>
+      <c r="J248" s="178"/>
+      <c r="K248" s="178">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="K248" s="21">
-        <f t="shared" si="62"/>
-        <v>0</v>
+      <c r="O248" s="180"/>
+      <c r="P248" s="179">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="249" spans="2:16" s="179" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B249" s="177" t="s">
+        <v>439</v>
+      </c>
+      <c r="C249" s="178">
+        <f t="shared" si="65"/>
+        <v>6000000</v>
+      </c>
+      <c r="D249" s="178"/>
+      <c r="E249" s="178"/>
+      <c r="F249" s="178"/>
+      <c r="G249" s="178"/>
+      <c r="H249" s="178"/>
+      <c r="I249" s="178"/>
+      <c r="J249" s="178"/>
+      <c r="K249" s="178"/>
+      <c r="O249" s="180"/>
+      <c r="P249" s="179">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="L1:L80" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="22">
-    <mergeCell ref="O228:O232"/>
-    <mergeCell ref="O233:O240"/>
-    <mergeCell ref="O205:O207"/>
-    <mergeCell ref="O208:O212"/>
-    <mergeCell ref="O213:O215"/>
-    <mergeCell ref="O220:O225"/>
+    <mergeCell ref="O203:O204"/>
+    <mergeCell ref="P181:P185"/>
+    <mergeCell ref="P173:P177"/>
+    <mergeCell ref="O189:O193"/>
+    <mergeCell ref="O194:O202"/>
+    <mergeCell ref="O181:O185"/>
+    <mergeCell ref="O186:O187"/>
     <mergeCell ref="O72:O74"/>
     <mergeCell ref="O96:O97"/>
     <mergeCell ref="O111:O115"/>
@@ -11317,13 +11569,12 @@
     <mergeCell ref="O148:O150"/>
     <mergeCell ref="O151:O154"/>
     <mergeCell ref="O159:O160"/>
-    <mergeCell ref="O203:O204"/>
-    <mergeCell ref="P181:P185"/>
-    <mergeCell ref="P173:P177"/>
-    <mergeCell ref="O189:O193"/>
-    <mergeCell ref="O194:O202"/>
-    <mergeCell ref="O181:O185"/>
-    <mergeCell ref="O186:O187"/>
+    <mergeCell ref="O228:O232"/>
+    <mergeCell ref="O233:O240"/>
+    <mergeCell ref="O205:O207"/>
+    <mergeCell ref="O208:O212"/>
+    <mergeCell ref="O213:O215"/>
+    <mergeCell ref="O220:O225"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="C2:G2 H2:N17 O2:O22 B2:B25 C3:E25 F3:G27 K3:K79 L18:N39 H18:J65 O26 D26:E38 F28 G28:G72 C29:F38 O29:O38 D39:F39 C40:F41 L40:O41 D42:F57 L42:N69 E58:F58 D59:F69 I66:J69 H66:H72 D71:F72 I71:J72 L71:N73 D73:J78 M74:N74 L75:N78 F102:F125">

--- a/TDStore/NhapXuatLaptop.xlsx
+++ b/TDStore/NhapXuatLaptop.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06.TDStore\04.Private\TDStore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10.NewPC\01.TDStore\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6FCA1C-6999-49CF-A3E0-BE1F95820CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EBCCFA-E9B3-413D-ADEA-CA88EE1EAE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1950,6 +1950,68 @@
     <xf numFmtId="3" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1963,15 +2025,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1992,59 +2045,6 @@
     <xf numFmtId="49" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2496,8 +2496,8 @@
   <dimension ref="A1:O267"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N262" sqref="N262"/>
+      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K236" sqref="K236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2582,14 +2582,14 @@
         <v>6700000</v>
       </c>
       <c r="G2" s="3">
-        <f>(F2*25%)+F2</f>
+        <f t="shared" ref="G2:G65" si="0">(F2*25%)+F2</f>
         <v>8375000</v>
       </c>
       <c r="H2" s="3">
         <v>7600000</v>
       </c>
       <c r="J2" s="3">
-        <f>H2-I2-F2</f>
+        <f t="shared" ref="J2:J65" si="1">H2-I2-F2</f>
         <v>900000</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -2610,11 +2610,11 @@
         <v>6500000</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" ref="F3:F43" si="0">C3+D3+E3</f>
+        <f t="shared" ref="F3:F43" si="2">C3+D3+E3</f>
         <v>6500000</v>
       </c>
       <c r="G3" s="3">
-        <f>(F3*25%)+F3</f>
+        <f t="shared" si="0"/>
         <v>8125000</v>
       </c>
       <c r="H3" s="3">
@@ -2624,7 +2624,7 @@
         <v>5000</v>
       </c>
       <c r="J3" s="3">
-        <f>H3-I3-F3</f>
+        <f t="shared" si="1"/>
         <v>745000</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -2642,18 +2642,18 @@
         <v>4900000</v>
       </c>
       <c r="F4" s="3">
+        <f t="shared" si="2"/>
+        <v>4900000</v>
+      </c>
+      <c r="G4" s="3">
         <f t="shared" si="0"/>
-        <v>4900000</v>
-      </c>
-      <c r="G4" s="3">
-        <f>(F4*25%)+F4</f>
         <v>6125000</v>
       </c>
       <c r="H4" s="3">
         <v>5400000</v>
       </c>
       <c r="J4" s="3">
-        <f>H4-I4-F4</f>
+        <f t="shared" si="1"/>
         <v>500000</v>
       </c>
       <c r="K4" s="2" t="s">
@@ -2674,11 +2674,11 @@
         <v>6700000</v>
       </c>
       <c r="F5" s="3">
+        <f t="shared" si="2"/>
+        <v>6700000</v>
+      </c>
+      <c r="G5" s="3">
         <f t="shared" si="0"/>
-        <v>6700000</v>
-      </c>
-      <c r="G5" s="3">
-        <f>(F5*25%)+F5</f>
         <v>8375000</v>
       </c>
       <c r="H5" s="3">
@@ -2688,7 +2688,7 @@
         <v>420000</v>
       </c>
       <c r="J5" s="3">
-        <f>H5-I5-F5</f>
+        <f t="shared" si="1"/>
         <v>480000</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -2709,18 +2709,18 @@
         <v>7150000</v>
       </c>
       <c r="F6" s="3">
+        <f t="shared" si="2"/>
+        <v>7150000</v>
+      </c>
+      <c r="G6" s="3">
         <f t="shared" si="0"/>
-        <v>7150000</v>
-      </c>
-      <c r="G6" s="3">
-        <f>(F6*25%)+F6</f>
         <v>8937500</v>
       </c>
       <c r="H6" s="3">
         <v>7500000</v>
       </c>
       <c r="J6" s="3">
-        <f>H6-I6-F6</f>
+        <f t="shared" si="1"/>
         <v>350000</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -2741,11 +2741,11 @@
         <v>7500000</v>
       </c>
       <c r="F7" s="3">
+        <f t="shared" si="2"/>
+        <v>7500000</v>
+      </c>
+      <c r="G7" s="3">
         <f t="shared" si="0"/>
-        <v>7500000</v>
-      </c>
-      <c r="G7" s="3">
-        <f>(F7*25%)+F7</f>
         <v>9375000</v>
       </c>
       <c r="H7" s="3">
@@ -2755,7 +2755,7 @@
         <v>10000</v>
       </c>
       <c r="J7" s="3">
-        <f>H7-I7-F7</f>
+        <f t="shared" si="1"/>
         <v>-10000</v>
       </c>
       <c r="K7" s="2" t="s">
@@ -2776,11 +2776,11 @@
         <v>6700000</v>
       </c>
       <c r="F8" s="3">
+        <f t="shared" si="2"/>
+        <v>6700000</v>
+      </c>
+      <c r="G8" s="3">
         <f t="shared" si="0"/>
-        <v>6700000</v>
-      </c>
-      <c r="G8" s="3">
-        <f>(F8*25%)+F8</f>
         <v>8375000</v>
       </c>
       <c r="H8" s="3">
@@ -2790,7 +2790,7 @@
         <v>10000</v>
       </c>
       <c r="J8" s="3">
-        <f>H8-I8-F8</f>
+        <f t="shared" si="1"/>
         <v>640000</v>
       </c>
       <c r="K8" s="2" t="s">
@@ -2808,18 +2808,18 @@
         <v>11500000</v>
       </c>
       <c r="F9" s="3">
+        <f t="shared" si="2"/>
+        <v>11500000</v>
+      </c>
+      <c r="G9" s="3">
         <f t="shared" si="0"/>
-        <v>11500000</v>
-      </c>
-      <c r="G9" s="3">
-        <f>(F9*25%)+F9</f>
         <v>14375000</v>
       </c>
       <c r="H9" s="3">
         <v>12000000</v>
       </c>
       <c r="J9" s="3">
-        <f>H9-I9-F9</f>
+        <f t="shared" si="1"/>
         <v>500000</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -2840,18 +2840,18 @@
         <v>6500000</v>
       </c>
       <c r="F10" s="3">
+        <f t="shared" si="2"/>
+        <v>6500000</v>
+      </c>
+      <c r="G10" s="3">
         <f t="shared" si="0"/>
-        <v>6500000</v>
-      </c>
-      <c r="G10" s="3">
-        <f>(F10*25%)+F10</f>
         <v>8125000</v>
       </c>
       <c r="H10" s="3">
         <v>7500000</v>
       </c>
       <c r="J10" s="3">
-        <f>H10-I10-F10</f>
+        <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
       <c r="K10" s="2" t="s">
@@ -2869,11 +2869,11 @@
         <v>6500000</v>
       </c>
       <c r="F11" s="3">
+        <f t="shared" si="2"/>
+        <v>6500000</v>
+      </c>
+      <c r="G11" s="3">
         <f t="shared" si="0"/>
-        <v>6500000</v>
-      </c>
-      <c r="G11" s="3">
-        <f>(F11*25%)+F11</f>
         <v>8125000</v>
       </c>
       <c r="H11" s="3">
@@ -2883,7 +2883,7 @@
         <v>100000</v>
       </c>
       <c r="J11" s="3">
-        <f>H11-I11-F11</f>
+        <f t="shared" si="1"/>
         <v>300000</v>
       </c>
       <c r="K11" s="2" t="s">
@@ -2904,11 +2904,11 @@
         <v>5000000</v>
       </c>
       <c r="F12" s="3">
+        <f t="shared" si="2"/>
+        <v>5000000</v>
+      </c>
+      <c r="G12" s="3">
         <f t="shared" si="0"/>
-        <v>5000000</v>
-      </c>
-      <c r="G12" s="3">
-        <f>(F12*25%)+F12</f>
         <v>6250000</v>
       </c>
       <c r="H12" s="3">
@@ -2918,7 +2918,7 @@
         <v>5000</v>
       </c>
       <c r="J12" s="3">
-        <f>H12-I12-F12</f>
+        <f t="shared" si="1"/>
         <v>795000</v>
       </c>
       <c r="K12" s="2" t="s">
@@ -2939,18 +2939,18 @@
         <v>5500000</v>
       </c>
       <c r="F13" s="3">
+        <f t="shared" si="2"/>
+        <v>5500000</v>
+      </c>
+      <c r="G13" s="3">
         <f t="shared" si="0"/>
-        <v>5500000</v>
-      </c>
-      <c r="G13" s="3">
-        <f>(F13*25%)+F13</f>
         <v>6875000</v>
       </c>
       <c r="H13" s="3">
         <v>6300000</v>
       </c>
       <c r="J13" s="3">
-        <f>H13-I13-F13</f>
+        <f t="shared" si="1"/>
         <v>800000</v>
       </c>
       <c r="K13" s="2" t="s">
@@ -2971,18 +2971,18 @@
         <v>5500000</v>
       </c>
       <c r="F14" s="3">
+        <f t="shared" si="2"/>
+        <v>5500000</v>
+      </c>
+      <c r="G14" s="3">
         <f t="shared" si="0"/>
-        <v>5500000</v>
-      </c>
-      <c r="G14" s="3">
-        <f>(F14*25%)+F14</f>
         <v>6875000</v>
       </c>
       <c r="H14" s="3">
         <v>6600000</v>
       </c>
       <c r="J14" s="3">
-        <f>H14-I14-F14</f>
+        <f t="shared" si="1"/>
         <v>1100000</v>
       </c>
       <c r="K14" s="2" t="s">
@@ -3000,18 +3000,18 @@
         <v>5700000</v>
       </c>
       <c r="F15" s="3">
+        <f t="shared" si="2"/>
+        <v>5700000</v>
+      </c>
+      <c r="G15" s="3">
         <f t="shared" si="0"/>
-        <v>5700000</v>
-      </c>
-      <c r="G15" s="3">
-        <f>(F15*25%)+F15</f>
         <v>7125000</v>
       </c>
       <c r="H15" s="3">
         <v>6200000</v>
       </c>
       <c r="J15" s="3">
-        <f>H15-I15-F15</f>
+        <f t="shared" si="1"/>
         <v>500000</v>
       </c>
       <c r="K15" s="2" t="s">
@@ -3032,18 +3032,18 @@
         <v>8000000</v>
       </c>
       <c r="F16" s="3">
+        <f t="shared" si="2"/>
+        <v>8000000</v>
+      </c>
+      <c r="G16" s="3">
         <f t="shared" si="0"/>
-        <v>8000000</v>
-      </c>
-      <c r="G16" s="3">
-        <f>(F16*25%)+F16</f>
         <v>10000000</v>
       </c>
       <c r="H16" s="3">
         <v>10500000</v>
       </c>
       <c r="J16" s="3">
-        <f>H16-I16-F16</f>
+        <f t="shared" si="1"/>
         <v>2500000</v>
       </c>
       <c r="K16" s="2" t="s">
@@ -3064,18 +3064,18 @@
         <v>1142570</v>
       </c>
       <c r="F17" s="3">
+        <f t="shared" si="2"/>
+        <v>10835587</v>
+      </c>
+      <c r="G17" s="3">
         <f t="shared" si="0"/>
-        <v>10835587</v>
-      </c>
-      <c r="G17" s="3">
-        <f>(F17*25%)+F17</f>
         <v>13544483.75</v>
       </c>
       <c r="H17" s="3">
         <v>14000000</v>
       </c>
       <c r="J17" s="3">
-        <f>H17-I17-F17</f>
+        <f t="shared" si="1"/>
         <v>3164413</v>
       </c>
       <c r="K17" s="2" t="s">
@@ -3093,18 +3093,18 @@
         <v>5000000</v>
       </c>
       <c r="F18" s="3">
+        <f t="shared" si="2"/>
+        <v>5000000</v>
+      </c>
+      <c r="G18" s="3">
         <f t="shared" si="0"/>
-        <v>5000000</v>
-      </c>
-      <c r="G18" s="3">
-        <f>(F18*25%)+F18</f>
         <v>6250000</v>
       </c>
       <c r="H18" s="3">
         <v>5500000</v>
       </c>
       <c r="J18" s="3">
-        <f>H18-I18-F18</f>
+        <f t="shared" si="1"/>
         <v>500000</v>
       </c>
       <c r="K18" s="2" t="s">
@@ -3128,18 +3128,18 @@
         <v>4500000</v>
       </c>
       <c r="F19" s="3">
+        <f t="shared" si="2"/>
+        <v>4500000</v>
+      </c>
+      <c r="G19" s="3">
         <f t="shared" si="0"/>
-        <v>4500000</v>
-      </c>
-      <c r="G19" s="3">
-        <f>(F19*25%)+F19</f>
         <v>5625000</v>
       </c>
       <c r="H19" s="3">
         <v>5500000</v>
       </c>
       <c r="J19" s="3">
-        <f>H19-I19-F19</f>
+        <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
       <c r="K19" s="2" t="s">
@@ -3164,11 +3164,11 @@
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="3">
+        <f t="shared" si="2"/>
+        <v>7983890</v>
+      </c>
+      <c r="G20" s="7">
         <f t="shared" si="0"/>
-        <v>7983890</v>
-      </c>
-      <c r="G20" s="7">
-        <f>(F20*25%)+F20</f>
         <v>9979862.5</v>
       </c>
       <c r="H20" s="7">
@@ -3178,7 +3178,7 @@
         <v>50000</v>
       </c>
       <c r="J20" s="3">
-        <f>H20-I20-F20</f>
+        <f t="shared" si="1"/>
         <v>1466110</v>
       </c>
       <c r="K20" s="2" t="s">
@@ -3207,11 +3207,11 @@
         <v>300000</v>
       </c>
       <c r="F21" s="3">
+        <f t="shared" si="2"/>
+        <v>9248805</v>
+      </c>
+      <c r="G21" s="3">
         <f t="shared" si="0"/>
-        <v>9248805</v>
-      </c>
-      <c r="G21" s="3">
-        <f>(F21*25%)+F21</f>
         <v>11561006.25</v>
       </c>
       <c r="H21" s="3">
@@ -3221,7 +3221,7 @@
         <v>1500000</v>
       </c>
       <c r="J21" s="3">
-        <f>H21-I21-F21</f>
+        <f t="shared" si="1"/>
         <v>1251195</v>
       </c>
       <c r="K21" s="2" t="s">
@@ -3245,11 +3245,11 @@
         <v>1000000</v>
       </c>
       <c r="F22" s="3">
+        <f t="shared" si="2"/>
+        <v>10561005</v>
+      </c>
+      <c r="G22" s="3">
         <f t="shared" si="0"/>
-        <v>10561005</v>
-      </c>
-      <c r="G22" s="3">
-        <f>(F22*25%)+F22</f>
         <v>13201256.25</v>
       </c>
       <c r="H22" s="3">
@@ -3259,7 +3259,7 @@
         <v>900000</v>
       </c>
       <c r="J22" s="3">
-        <f>H22-I22-F22</f>
+        <f t="shared" si="1"/>
         <v>538995</v>
       </c>
       <c r="K22" s="2" t="s">
@@ -3288,7 +3288,7 @@
         <v>5707073</v>
       </c>
       <c r="G23" s="15">
-        <f>(F23*25%)+F23</f>
+        <f t="shared" si="0"/>
         <v>7133841.25</v>
       </c>
       <c r="H23" s="15">
@@ -3296,7 +3296,7 @@
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="15">
-        <f>H23-I23-F23</f>
+        <f t="shared" si="1"/>
         <v>2492927</v>
       </c>
       <c r="K23" s="16" t="s">
@@ -3324,11 +3324,11 @@
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15">
+        <f t="shared" si="2"/>
+        <v>4356172</v>
+      </c>
+      <c r="G24" s="15">
         <f t="shared" si="0"/>
-        <v>4356172</v>
-      </c>
-      <c r="G24" s="15">
-        <f>(F24*25%)+F24</f>
         <v>5445215</v>
       </c>
       <c r="H24" s="15">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="I24" s="15"/>
       <c r="J24" s="15">
-        <f>H24-I24-F24</f>
+        <f t="shared" si="1"/>
         <v>2043828</v>
       </c>
       <c r="K24" s="16" t="s">
@@ -3363,11 +3363,11 @@
         <v>490000</v>
       </c>
       <c r="F25" s="15">
+        <f t="shared" si="2"/>
+        <v>6058148</v>
+      </c>
+      <c r="G25" s="15">
         <f t="shared" si="0"/>
-        <v>6058148</v>
-      </c>
-      <c r="G25" s="15">
-        <f>(F25*25%)+F25</f>
         <v>7572685</v>
       </c>
       <c r="H25" s="15">
@@ -3375,7 +3375,7 @@
       </c>
       <c r="I25" s="15"/>
       <c r="J25" s="15">
-        <f>H25-I25-F25</f>
+        <f t="shared" si="1"/>
         <v>1941852</v>
       </c>
       <c r="K25" s="16" t="s">
@@ -3403,11 +3403,11 @@
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="15">
+        <f t="shared" si="2"/>
+        <v>4876801</v>
+      </c>
+      <c r="G26" s="15">
         <f t="shared" si="0"/>
-        <v>4876801</v>
-      </c>
-      <c r="G26" s="15">
-        <f>(F26*25%)+F26</f>
         <v>6096001.25</v>
       </c>
       <c r="H26" s="15">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="I26" s="15"/>
       <c r="J26" s="15">
-        <f>H26-I26-F26</f>
+        <f t="shared" si="1"/>
         <v>3073199</v>
       </c>
       <c r="K26" s="16" t="s">
@@ -3442,11 +3442,11 @@
         <v>200000</v>
       </c>
       <c r="F27" s="15">
+        <f t="shared" si="2"/>
+        <v>7787888</v>
+      </c>
+      <c r="G27" s="15">
         <f t="shared" si="0"/>
-        <v>7787888</v>
-      </c>
-      <c r="G27" s="15">
-        <f>(F27*25%)+F27</f>
         <v>9734860</v>
       </c>
       <c r="H27" s="15">
@@ -3454,7 +3454,7 @@
       </c>
       <c r="I27" s="15"/>
       <c r="J27" s="15">
-        <f>H27-I27-F27</f>
+        <f t="shared" si="1"/>
         <v>1712112</v>
       </c>
       <c r="K27" s="16" t="s">
@@ -3484,11 +3484,11 @@
         <v>650000</v>
       </c>
       <c r="F28" s="21">
+        <f t="shared" si="2"/>
+        <v>9387859</v>
+      </c>
+      <c r="G28" s="21">
         <f t="shared" si="0"/>
-        <v>9387859</v>
-      </c>
-      <c r="G28" s="21">
-        <f>(F28*25%)+F28</f>
         <v>11734823.75</v>
       </c>
       <c r="H28" s="21">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="I28" s="21"/>
       <c r="J28" s="21">
-        <f>H28-I28-F28</f>
+        <f t="shared" si="1"/>
         <v>1112141</v>
       </c>
       <c r="K28" s="22" t="s">
@@ -3525,11 +3525,11 @@
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15">
+        <f t="shared" si="2"/>
+        <v>5850950</v>
+      </c>
+      <c r="G29" s="15">
         <f t="shared" si="0"/>
-        <v>5850950</v>
-      </c>
-      <c r="G29" s="15">
-        <f>(F29*25%)+F29</f>
         <v>7313687.5</v>
       </c>
       <c r="H29" s="15">
@@ -3537,7 +3537,7 @@
       </c>
       <c r="I29" s="15"/>
       <c r="J29" s="15">
-        <f>H29-I29-F29</f>
+        <f t="shared" si="1"/>
         <v>2649050</v>
       </c>
       <c r="K29" s="16" t="s">
@@ -3562,11 +3562,11 @@
       </c>
       <c r="E30" s="24"/>
       <c r="F30" s="24">
+        <f t="shared" si="2"/>
+        <v>9167935</v>
+      </c>
+      <c r="G30" s="24">
         <f t="shared" si="0"/>
-        <v>9167935</v>
-      </c>
-      <c r="G30" s="24">
-        <f>(F30*25%)+F30</f>
         <v>11459918.75</v>
       </c>
       <c r="H30" s="24">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="I30" s="24"/>
       <c r="J30" s="24">
-        <f>H30-I30-F30</f>
+        <f t="shared" si="1"/>
         <v>-167935</v>
       </c>
       <c r="K30" s="25" t="s">
@@ -3601,11 +3601,11 @@
         <v>-1000000</v>
       </c>
       <c r="F31" s="15">
+        <f t="shared" si="2"/>
+        <v>4322422</v>
+      </c>
+      <c r="G31" s="15">
         <f t="shared" si="0"/>
-        <v>4322422</v>
-      </c>
-      <c r="G31" s="15">
-        <f>(F31*25%)+F31</f>
         <v>5403027.5</v>
       </c>
       <c r="H31" s="15">
@@ -3613,7 +3613,7 @@
       </c>
       <c r="I31" s="15"/>
       <c r="J31" s="15">
-        <f>H31-I31-F31</f>
+        <f t="shared" si="1"/>
         <v>1177578</v>
       </c>
       <c r="K31" s="16" t="s">
@@ -3640,11 +3640,11 @@
         <v>300000</v>
       </c>
       <c r="F32" s="58">
+        <f t="shared" si="2"/>
+        <v>7784048</v>
+      </c>
+      <c r="G32" s="58">
         <f t="shared" si="0"/>
-        <v>7784048</v>
-      </c>
-      <c r="G32" s="58">
-        <f>(F32*25%)+F32</f>
         <v>9730060</v>
       </c>
       <c r="H32" s="58">
@@ -3652,7 +3652,7 @@
       </c>
       <c r="I32" s="58"/>
       <c r="J32" s="58">
-        <f>H32-I32-F32</f>
+        <f t="shared" si="1"/>
         <v>715952</v>
       </c>
       <c r="K32" s="59" t="s">
@@ -3678,18 +3678,18 @@
         <v>2000000</v>
       </c>
       <c r="F33" s="3">
+        <f t="shared" si="2"/>
+        <v>5558942</v>
+      </c>
+      <c r="G33" s="3">
         <f t="shared" si="0"/>
-        <v>5558942</v>
-      </c>
-      <c r="G33" s="3">
-        <f>(F33*25%)+F33</f>
         <v>6948677.5</v>
       </c>
       <c r="H33" s="3">
         <v>6000000</v>
       </c>
       <c r="J33" s="3">
-        <f>H33-I33-F33</f>
+        <f t="shared" si="1"/>
         <v>441058</v>
       </c>
       <c r="N33" s="9" t="s">
@@ -3710,18 +3710,18 @@
         <v>850000</v>
       </c>
       <c r="F34" s="3">
+        <f t="shared" si="2"/>
+        <v>10149103</v>
+      </c>
+      <c r="G34" s="3">
         <f t="shared" si="0"/>
-        <v>10149103</v>
-      </c>
-      <c r="G34" s="3">
-        <f>(F34*25%)+F34</f>
         <v>12686378.75</v>
       </c>
       <c r="H34" s="3">
         <v>11000000</v>
       </c>
       <c r="J34" s="3">
-        <f>H34-I34-F34</f>
+        <f t="shared" si="1"/>
         <v>850897</v>
       </c>
       <c r="N34" s="9" t="s">
@@ -3742,18 +3742,18 @@
         <v>1100000</v>
       </c>
       <c r="F35" s="3">
+        <f t="shared" si="2"/>
+        <v>8949892</v>
+      </c>
+      <c r="G35" s="3">
         <f t="shared" si="0"/>
-        <v>8949892</v>
-      </c>
-      <c r="G35" s="3">
-        <f>(F35*25%)+F35</f>
         <v>11187365</v>
       </c>
       <c r="H35" s="3">
         <v>9000000</v>
       </c>
       <c r="J35" s="3">
-        <f>H35-I35-F35</f>
+        <f t="shared" si="1"/>
         <v>50108</v>
       </c>
       <c r="N35" s="9" t="s">
@@ -3774,18 +3774,18 @@
         <v>850000</v>
       </c>
       <c r="F36" s="3">
+        <f t="shared" si="2"/>
+        <v>4822000</v>
+      </c>
+      <c r="G36" s="3">
         <f t="shared" si="0"/>
-        <v>4822000</v>
-      </c>
-      <c r="G36" s="3">
-        <f>(F36*25%)+F36</f>
         <v>6027500</v>
       </c>
       <c r="H36" s="3">
         <v>7000000</v>
       </c>
       <c r="J36" s="3">
-        <f>H36-I36-F36</f>
+        <f t="shared" si="1"/>
         <v>2178000</v>
       </c>
       <c r="K36" s="2" t="s">
@@ -3809,18 +3809,18 @@
         <v>850000</v>
       </c>
       <c r="F37" s="3">
+        <f t="shared" si="2"/>
+        <v>9317000</v>
+      </c>
+      <c r="G37" s="3">
         <f t="shared" si="0"/>
-        <v>9317000</v>
-      </c>
-      <c r="G37" s="3">
-        <f>(F37*25%)+F37</f>
         <v>11646250</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>104</v>
       </c>
       <c r="J37" s="3" t="e">
-        <f>H37-I37-F37</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="N37" s="9" t="s">
@@ -3842,11 +3842,11 @@
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14">
+        <f t="shared" si="2"/>
+        <v>4548000</v>
+      </c>
+      <c r="G38" s="3">
         <f t="shared" si="0"/>
-        <v>4548000</v>
-      </c>
-      <c r="G38" s="3">
-        <f>(F38*25%)+F38</f>
         <v>5685000</v>
       </c>
       <c r="H38" s="14">
@@ -3854,7 +3854,7 @@
       </c>
       <c r="I38" s="14"/>
       <c r="J38" s="3">
-        <f>H38-I38-F38</f>
+        <f t="shared" si="1"/>
         <v>1252000</v>
       </c>
       <c r="N38" s="12" t="s">
@@ -3875,18 +3875,18 @@
         <v>850000</v>
       </c>
       <c r="F39" s="3">
+        <f t="shared" si="2"/>
+        <v>5410000</v>
+      </c>
+      <c r="G39" s="3">
         <f t="shared" si="0"/>
-        <v>5410000</v>
-      </c>
-      <c r="G39" s="3">
-        <f>(F39*25%)+F39</f>
         <v>6762500</v>
       </c>
       <c r="H39" s="3">
         <v>7000000</v>
       </c>
       <c r="J39" s="3">
-        <f>H39-I39-F39</f>
+        <f t="shared" si="1"/>
         <v>1590000</v>
       </c>
       <c r="K39" s="2" t="s">
@@ -3910,18 +3910,18 @@
         <v>850000</v>
       </c>
       <c r="F40" s="3">
+        <f t="shared" si="2"/>
+        <v>7006000</v>
+      </c>
+      <c r="G40" s="3">
         <f t="shared" si="0"/>
-        <v>7006000</v>
-      </c>
-      <c r="G40" s="3">
-        <f>(F40*25%)+F40</f>
         <v>8757500</v>
       </c>
       <c r="H40" s="3">
         <v>8500000</v>
       </c>
       <c r="J40" s="3">
-        <f>H40-I40-F40</f>
+        <f t="shared" si="1"/>
         <v>1494000</v>
       </c>
       <c r="N40" s="9" t="s">
@@ -3942,18 +3942,18 @@
         <v>1450000</v>
       </c>
       <c r="F41" s="3">
+        <f t="shared" si="2"/>
+        <v>5576000</v>
+      </c>
+      <c r="G41" s="3">
         <f t="shared" si="0"/>
-        <v>5576000</v>
-      </c>
-      <c r="G41" s="3">
-        <f>(F41*25%)+F41</f>
         <v>6970000</v>
       </c>
       <c r="H41" s="3">
         <v>7500000</v>
       </c>
       <c r="J41" s="3">
-        <f>H41-I41-F41</f>
+        <f t="shared" si="1"/>
         <v>1924000</v>
       </c>
       <c r="N41" s="9" t="s">
@@ -3974,18 +3974,18 @@
         <v>850000</v>
       </c>
       <c r="F42" s="3">
+        <f t="shared" si="2"/>
+        <v>4042000</v>
+      </c>
+      <c r="G42" s="3">
         <f t="shared" si="0"/>
-        <v>4042000</v>
-      </c>
-      <c r="G42" s="3">
-        <f>(F42*25%)+F42</f>
         <v>5052500</v>
       </c>
       <c r="H42" s="3">
         <v>5500000</v>
       </c>
       <c r="J42" s="3">
-        <f>H42-I42-F42</f>
+        <f t="shared" si="1"/>
         <v>1458000</v>
       </c>
       <c r="N42" s="12" t="s">
@@ -4006,18 +4006,18 @@
         <v>850000</v>
       </c>
       <c r="F43" s="3">
+        <f t="shared" si="2"/>
+        <v>6915000</v>
+      </c>
+      <c r="G43" s="3">
         <f t="shared" si="0"/>
-        <v>6915000</v>
-      </c>
-      <c r="G43" s="3">
-        <f>(F43*25%)+F43</f>
         <v>8643750</v>
       </c>
       <c r="H43" s="3">
         <v>8500000</v>
       </c>
       <c r="J43" s="3">
-        <f>H43-I43-F43</f>
+        <f t="shared" si="1"/>
         <v>1585000</v>
       </c>
       <c r="K43" s="2" t="s">
@@ -4045,14 +4045,14 @@
         <v>4118000</v>
       </c>
       <c r="G44" s="3">
-        <f>(F44*25%)+F44</f>
+        <f t="shared" si="0"/>
         <v>5147500</v>
       </c>
       <c r="H44" s="3">
         <v>5000000</v>
       </c>
       <c r="J44" s="3">
-        <f>H44-I44-F44</f>
+        <f t="shared" si="1"/>
         <v>882000</v>
       </c>
       <c r="K44" s="2" t="s">
@@ -4079,18 +4079,18 @@
         <v>800000</v>
       </c>
       <c r="F45" s="3">
-        <f t="shared" ref="F45:F72" si="1">C45+D45+E45</f>
+        <f t="shared" ref="F45:F72" si="3">C45+D45+E45</f>
         <v>4667000</v>
       </c>
       <c r="G45" s="3">
-        <f>(F45*25%)+F45</f>
+        <f t="shared" si="0"/>
         <v>5833750</v>
       </c>
       <c r="H45" s="3">
         <v>7500000</v>
       </c>
       <c r="J45" s="3">
-        <f>H45-I45-F45</f>
+        <f t="shared" si="1"/>
         <v>2833000</v>
       </c>
       <c r="K45" s="2" t="s">
@@ -4114,18 +4114,18 @@
         <v>896000</v>
       </c>
       <c r="F46" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4528000</v>
       </c>
       <c r="G46" s="3">
-        <f>(F46*25%)+F46</f>
+        <f t="shared" si="0"/>
         <v>5660000</v>
       </c>
       <c r="H46" s="3">
         <v>5800000</v>
       </c>
       <c r="J46" s="3">
-        <f>H46-I46-F46</f>
+        <f t="shared" si="1"/>
         <v>1272000</v>
       </c>
       <c r="K46" s="2" t="s">
@@ -4152,18 +4152,18 @@
         <v>450000</v>
       </c>
       <c r="F47" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5105000</v>
       </c>
       <c r="G47" s="3">
-        <f>(F47*25%)+F47</f>
+        <f t="shared" si="0"/>
         <v>6381250</v>
       </c>
       <c r="H47" s="3">
         <v>6000000</v>
       </c>
       <c r="J47" s="3">
-        <f>H47-I47-F47</f>
+        <f t="shared" si="1"/>
         <v>895000</v>
       </c>
       <c r="K47" s="2" t="s">
@@ -4190,18 +4190,18 @@
         <v>150000</v>
       </c>
       <c r="F48" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7211000</v>
       </c>
       <c r="G48" s="3">
-        <f>(F48*25%)+F48</f>
+        <f t="shared" si="0"/>
         <v>9013750</v>
       </c>
       <c r="H48" s="3">
         <v>8400000</v>
       </c>
       <c r="J48" s="3">
-        <f>H48-I48-F48</f>
+        <f t="shared" si="1"/>
         <v>1189000</v>
       </c>
       <c r="K48" s="2" t="s">
@@ -4228,18 +4228,18 @@
         <v>300000</v>
       </c>
       <c r="F49" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5270000</v>
       </c>
       <c r="G49" s="3">
-        <f>(F49*25%)+F49</f>
+        <f t="shared" si="0"/>
         <v>6587500</v>
       </c>
       <c r="H49" s="3">
         <v>6200000</v>
       </c>
       <c r="J49" s="3">
-        <f>H49-I49-F49</f>
+        <f t="shared" si="1"/>
         <v>930000</v>
       </c>
       <c r="K49" s="2" t="s">
@@ -4266,18 +4266,18 @@
         <v>200000</v>
       </c>
       <c r="F50" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4731000</v>
       </c>
       <c r="G50" s="3">
-        <f>(F50*25%)+F50</f>
+        <f t="shared" si="0"/>
         <v>5913750</v>
       </c>
       <c r="H50" s="3">
         <v>6500000</v>
       </c>
       <c r="J50" s="3">
-        <f>H50-I50-F50</f>
+        <f t="shared" si="1"/>
         <v>1769000</v>
       </c>
       <c r="K50" s="2" t="s">
@@ -4301,15 +4301,15 @@
         <v>698500</v>
       </c>
       <c r="F51" s="3">
+        <f t="shared" si="3"/>
+        <v>5258500</v>
+      </c>
+      <c r="G51" s="3">
+        <f t="shared" si="0"/>
+        <v>6573125</v>
+      </c>
+      <c r="J51" s="3">
         <f t="shared" si="1"/>
-        <v>5258500</v>
-      </c>
-      <c r="G51" s="3">
-        <f>(F51*25%)+F51</f>
-        <v>6573125</v>
-      </c>
-      <c r="J51" s="3">
-        <f>H51-I51-F51</f>
         <v>-5258500</v>
       </c>
       <c r="N51" s="12" t="s">
@@ -4333,11 +4333,11 @@
         <v>200000</v>
       </c>
       <c r="F52" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5745000</v>
       </c>
       <c r="G52" s="58">
-        <f>(F52*25%)+F52</f>
+        <f t="shared" si="0"/>
         <v>7181250</v>
       </c>
       <c r="H52" s="58">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I52" s="58"/>
       <c r="J52" s="58">
-        <f>H52-I52-F52</f>
+        <f t="shared" si="1"/>
         <v>855000</v>
       </c>
       <c r="K52" s="59"/>
@@ -4372,11 +4372,11 @@
         <v>200000</v>
       </c>
       <c r="F53" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4295000</v>
       </c>
       <c r="G53" s="42">
-        <f>(F53*25%)+F53</f>
+        <f t="shared" si="0"/>
         <v>5368750</v>
       </c>
       <c r="H53" s="42">
@@ -4384,7 +4384,7 @@
       </c>
       <c r="I53" s="42"/>
       <c r="J53" s="42">
-        <f>H53-I53-F53</f>
+        <f t="shared" si="1"/>
         <v>705000</v>
       </c>
       <c r="K53" s="43" t="s">
@@ -4408,18 +4408,18 @@
         <v>739000</v>
       </c>
       <c r="F54" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4888000</v>
       </c>
       <c r="G54" s="3">
-        <f>(F54*25%)+F54</f>
+        <f t="shared" si="0"/>
         <v>6110000</v>
       </c>
       <c r="H54" s="3">
         <v>6000000</v>
       </c>
       <c r="J54" s="3">
-        <f>H54-I54-F54</f>
+        <f t="shared" si="1"/>
         <v>1112000</v>
       </c>
       <c r="K54" s="2" t="s">
@@ -4446,18 +4446,18 @@
         <v>650000</v>
       </c>
       <c r="F55" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5361500</v>
       </c>
       <c r="G55" s="3">
-        <f>(F55*25%)+F55</f>
+        <f t="shared" si="0"/>
         <v>6701875</v>
       </c>
       <c r="H55" s="3">
         <v>6750000</v>
       </c>
       <c r="J55" s="3">
-        <f>H55-I55-F55</f>
+        <f t="shared" si="1"/>
         <v>1388500</v>
       </c>
       <c r="K55" s="2" t="s">
@@ -4484,11 +4484,11 @@
         <v>900000</v>
       </c>
       <c r="F56" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3693000</v>
       </c>
       <c r="G56" s="42">
-        <f>(F56*25%)+F56</f>
+        <f t="shared" si="0"/>
         <v>4616250</v>
       </c>
       <c r="H56" s="42">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="I56" s="42"/>
       <c r="J56" s="42">
-        <f>H56-I56-F56</f>
+        <f t="shared" si="1"/>
         <v>1307000</v>
       </c>
       <c r="K56" s="43" t="s">
@@ -4523,18 +4523,18 @@
         <v>800000</v>
       </c>
       <c r="F57" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5322000</v>
       </c>
       <c r="G57" s="3">
-        <f>(F57*25%)+F57</f>
+        <f t="shared" si="0"/>
         <v>6652500</v>
       </c>
       <c r="H57" s="3">
         <v>6300000</v>
       </c>
       <c r="J57" s="3">
-        <f>H57-I57-F57</f>
+        <f t="shared" si="1"/>
         <v>978000</v>
       </c>
       <c r="K57" s="2" t="s">
@@ -4561,18 +4561,18 @@
         <v>771500</v>
       </c>
       <c r="F58" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7212500</v>
       </c>
       <c r="G58" s="3">
-        <f>(F58*25%)+F58</f>
+        <f t="shared" si="0"/>
         <v>9015625</v>
       </c>
       <c r="H58" s="3">
         <v>9300000</v>
       </c>
       <c r="J58" s="3">
-        <f>H58-I58-F58</f>
+        <f t="shared" si="1"/>
         <v>2087500</v>
       </c>
       <c r="K58" s="2" t="s">
@@ -4597,11 +4597,11 @@
       </c>
       <c r="E59" s="39"/>
       <c r="F59" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8359000</v>
       </c>
       <c r="G59" s="39">
-        <f>(F59*25%)+F59</f>
+        <f t="shared" si="0"/>
         <v>10448750</v>
       </c>
       <c r="H59" s="39" t="s">
@@ -4609,7 +4609,7 @@
       </c>
       <c r="I59" s="39"/>
       <c r="J59" s="39" t="e">
-        <f>H59-I59-F59</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="K59" s="40" t="s">
@@ -4636,18 +4636,18 @@
         <v>300000</v>
       </c>
       <c r="F60" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2863500</v>
       </c>
       <c r="G60" s="3">
-        <f>(F60*25%)+F60</f>
+        <f t="shared" si="0"/>
         <v>3579375</v>
       </c>
       <c r="H60" s="3">
         <v>4500000</v>
       </c>
       <c r="J60" s="3">
-        <f>H60-I60-F60</f>
+        <f t="shared" si="1"/>
         <v>1636500</v>
       </c>
       <c r="N60" s="12" t="s">
@@ -4671,11 +4671,11 @@
         <v>200000</v>
       </c>
       <c r="F61" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7513000</v>
       </c>
       <c r="G61" s="35">
-        <f>(F61*25%)+F61</f>
+        <f t="shared" si="0"/>
         <v>9391250</v>
       </c>
       <c r="H61" s="35">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="I61" s="35"/>
       <c r="J61" s="35">
-        <f>H61-I61-F61</f>
+        <f t="shared" si="1"/>
         <v>987000</v>
       </c>
       <c r="N61" s="37" t="s">
@@ -4707,18 +4707,18 @@
         <v>1000000</v>
       </c>
       <c r="F62" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5461000</v>
       </c>
       <c r="G62" s="3">
-        <f>(F62*25%)+F62</f>
+        <f t="shared" si="0"/>
         <v>6826250</v>
       </c>
       <c r="H62" s="3">
         <v>6000000</v>
       </c>
       <c r="J62" s="3">
-        <f>H62-I62-F62</f>
+        <f t="shared" si="1"/>
         <v>539000</v>
       </c>
       <c r="K62" s="2" t="s">
@@ -4745,18 +4745,18 @@
         <v>300000</v>
       </c>
       <c r="F63" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5080500</v>
       </c>
       <c r="G63" s="3">
-        <f>(F63*25%)+F63</f>
+        <f t="shared" si="0"/>
         <v>6350625</v>
       </c>
       <c r="H63" s="3">
         <v>5700000</v>
       </c>
       <c r="J63" s="3">
-        <f>H63-I63-F63</f>
+        <f t="shared" si="1"/>
         <v>619500</v>
       </c>
       <c r="K63" s="2" t="s">
@@ -4783,11 +4783,11 @@
         <v>200000</v>
       </c>
       <c r="F64" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7450000</v>
       </c>
       <c r="G64" s="24">
-        <f>(F64*25%)+F64</f>
+        <f t="shared" si="0"/>
         <v>9312500</v>
       </c>
       <c r="H64" s="24">
@@ -4795,7 +4795,7 @@
       </c>
       <c r="I64" s="24"/>
       <c r="J64" s="24">
-        <f>H64-I64-F64</f>
+        <f t="shared" si="1"/>
         <v>1050000</v>
       </c>
       <c r="N64" s="33" t="s">
@@ -4819,18 +4819,18 @@
         <v>150000</v>
       </c>
       <c r="F65" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3704000</v>
       </c>
       <c r="G65" s="3">
-        <f>(F65*25%)+F65</f>
+        <f t="shared" si="0"/>
         <v>4630000</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>212</v>
       </c>
       <c r="J65" s="3" t="e">
-        <f>H65-I65-F65</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="K65" s="2" t="s">
@@ -4854,15 +4854,15 @@
         <v>71750</v>
       </c>
       <c r="F66" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2511750</v>
       </c>
       <c r="G66" s="3">
-        <f>(F66*25%)+F66</f>
+        <f t="shared" ref="G66:G129" si="4">(F66*25%)+F66</f>
         <v>3139687.5</v>
       </c>
       <c r="J66" s="3">
-        <f>H66-I66-F66</f>
+        <f t="shared" ref="J66:J129" si="5">H66-I66-F66</f>
         <v>-2511750</v>
       </c>
       <c r="N66" s="12" t="s">
@@ -4886,11 +4886,11 @@
         <v>200000</v>
       </c>
       <c r="F67" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4311000</v>
       </c>
       <c r="G67" s="42">
-        <f>(F67*25%)+F67</f>
+        <f t="shared" si="4"/>
         <v>5388750</v>
       </c>
       <c r="H67" s="42" t="s">
@@ -4898,7 +4898,7 @@
       </c>
       <c r="I67" s="42"/>
       <c r="J67" s="3" t="e">
-        <f>H67-I67-F67</f>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="N67" s="44" t="s">
@@ -4919,18 +4919,18 @@
         <v>719000</v>
       </c>
       <c r="F68" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4230000</v>
       </c>
       <c r="G68" s="3">
-        <f>(F68*25%)+F68</f>
+        <f t="shared" si="4"/>
         <v>5287500</v>
       </c>
       <c r="H68" s="3">
         <v>5800000</v>
       </c>
       <c r="J68" s="3">
-        <f>H68-I68-F68</f>
+        <f t="shared" si="5"/>
         <v>1570000</v>
       </c>
       <c r="K68" s="2" t="s">
@@ -4957,18 +4957,18 @@
         <v>350000</v>
       </c>
       <c r="F69" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8252500</v>
       </c>
       <c r="G69" s="3">
-        <f>(F69*25%)+F69</f>
+        <f t="shared" si="4"/>
         <v>10315625</v>
       </c>
       <c r="H69" s="3">
         <v>10700000</v>
       </c>
       <c r="J69" s="3">
-        <f>H69-I69-F69</f>
+        <f t="shared" si="5"/>
         <v>2447500</v>
       </c>
       <c r="N69" s="12" t="s">
@@ -4990,11 +4990,11 @@
       </c>
       <c r="E70" s="53"/>
       <c r="F70" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3785500</v>
       </c>
       <c r="G70" s="53">
-        <f>(F70*25%)+F70</f>
+        <f t="shared" si="4"/>
         <v>4731875</v>
       </c>
       <c r="H70" s="53">
@@ -5002,7 +5002,7 @@
       </c>
       <c r="I70" s="53"/>
       <c r="J70" s="3">
-        <f>H70-I70-F70</f>
+        <f t="shared" si="5"/>
         <v>214500</v>
       </c>
       <c r="K70" s="54" t="s">
@@ -5031,18 +5031,18 @@
         <v>350000</v>
       </c>
       <c r="F71" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5594500</v>
       </c>
       <c r="G71" s="3">
-        <f>(F71*25%)+F71</f>
+        <f t="shared" si="4"/>
         <v>6993125</v>
       </c>
       <c r="H71" s="3">
         <v>8000000</v>
       </c>
       <c r="J71" s="3">
-        <f>H71-I71-F71</f>
+        <f t="shared" si="5"/>
         <v>2405500</v>
       </c>
       <c r="K71" s="2" t="s">
@@ -5067,11 +5067,11 @@
       </c>
       <c r="E72" s="65"/>
       <c r="F72" s="65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4100000</v>
       </c>
       <c r="G72" s="65">
-        <f>(F72*25%)+F72</f>
+        <f t="shared" si="4"/>
         <v>5125000</v>
       </c>
       <c r="H72" s="65">
@@ -5079,13 +5079,13 @@
       </c>
       <c r="I72" s="65"/>
       <c r="J72" s="3">
-        <f>H72-I72-F72</f>
+        <f t="shared" si="5"/>
         <v>1400000</v>
       </c>
       <c r="K72" s="66" t="s">
         <v>206</v>
       </c>
-      <c r="N72" s="162" t="s">
+      <c r="N72" s="159" t="s">
         <v>181</v>
       </c>
     </row>
@@ -5106,24 +5106,24 @@
         <v>450000</v>
       </c>
       <c r="F73" s="3">
-        <f t="shared" ref="F73:F136" si="2">C73+D73+E73</f>
+        <f t="shared" ref="F73:F136" si="6">C73+D73+E73</f>
         <v>4550000</v>
       </c>
       <c r="G73" s="3">
-        <f>(F73*25%)+F73</f>
+        <f t="shared" si="4"/>
         <v>5687500</v>
       </c>
       <c r="H73" s="3">
         <v>8000000</v>
       </c>
       <c r="J73" s="3">
-        <f>H73-I73-F73</f>
+        <f t="shared" si="5"/>
         <v>3450000</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="N73" s="162"/>
+      <c r="N73" s="159"/>
     </row>
     <row r="74" spans="1:14" s="57" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="67">
@@ -5142,11 +5142,11 @@
         <v>150000</v>
       </c>
       <c r="F74" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4250000</v>
       </c>
       <c r="G74" s="69">
-        <f>(F74*25%)+F74</f>
+        <f t="shared" si="4"/>
         <v>5312500</v>
       </c>
       <c r="H74" s="69">
@@ -5154,12 +5154,12 @@
       </c>
       <c r="I74" s="69"/>
       <c r="J74" s="3">
-        <f>H74-I74-F74</f>
+        <f t="shared" si="5"/>
         <v>750000</v>
       </c>
       <c r="L74" s="71"/>
       <c r="M74" s="71"/>
-      <c r="N74" s="162"/>
+      <c r="N74" s="159"/>
     </row>
     <row r="75" spans="1:14" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="52">
@@ -5175,18 +5175,18 @@
         <v>780000</v>
       </c>
       <c r="F75" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7754748</v>
       </c>
       <c r="G75" s="3">
-        <f>(F75*25%)+F75</f>
+        <f t="shared" si="4"/>
         <v>9693435</v>
       </c>
       <c r="H75" s="3">
         <v>10800000</v>
       </c>
       <c r="J75" s="3">
-        <f>H75-I75-F75</f>
+        <f t="shared" si="5"/>
         <v>3045252</v>
       </c>
       <c r="K75" s="2" t="s">
@@ -5210,15 +5210,15 @@
         <v>51250</v>
       </c>
       <c r="F76" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2239250</v>
       </c>
       <c r="G76" s="3">
-        <f>(F76*25%)+F76</f>
+        <f t="shared" si="4"/>
         <v>2799062.5</v>
       </c>
       <c r="J76" s="3">
-        <f>H76-I76-F76</f>
+        <f t="shared" si="5"/>
         <v>-2239250</v>
       </c>
       <c r="N76" s="12" t="s">
@@ -5242,18 +5242,18 @@
         <v>600000</v>
       </c>
       <c r="F77" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7066000</v>
       </c>
       <c r="G77" s="3">
-        <f>(F77*25%)+F77</f>
+        <f t="shared" si="4"/>
         <v>8832500</v>
       </c>
       <c r="H77" s="3">
         <v>9000000</v>
       </c>
       <c r="J77" s="3">
-        <f>H77-I77-F77</f>
+        <f t="shared" si="5"/>
         <v>1934000</v>
       </c>
       <c r="K77" s="2" t="s">
@@ -5284,14 +5284,14 @@
         <v>6665500</v>
       </c>
       <c r="G78" s="3">
-        <f>(F78*25%)+F78</f>
+        <f t="shared" si="4"/>
         <v>8331875</v>
       </c>
       <c r="H78" s="3">
         <v>7250000</v>
       </c>
       <c r="J78" s="3">
-        <f>H78-I78-F78</f>
+        <f t="shared" si="5"/>
         <v>584500</v>
       </c>
       <c r="K78" s="2" t="s">
@@ -5318,15 +5318,15 @@
         <v>52000</v>
       </c>
       <c r="F79" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2560000</v>
       </c>
       <c r="G79" s="3">
-        <f>(F79*25%)+F79</f>
+        <f t="shared" si="4"/>
         <v>3200000</v>
       </c>
       <c r="J79" s="3">
-        <f>H79-I79-F79</f>
+        <f t="shared" si="5"/>
         <v>-2560000</v>
       </c>
       <c r="N79" s="9" t="s">
@@ -5350,18 +5350,18 @@
         <v>350000</v>
       </c>
       <c r="F80" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8479999</v>
       </c>
       <c r="G80" s="3">
-        <f>(F80*25%)+F80</f>
+        <f t="shared" si="4"/>
         <v>10599998.75</v>
       </c>
       <c r="H80" s="3">
         <v>10800000</v>
       </c>
       <c r="J80" s="3">
-        <f>H80-I80-F80</f>
+        <f t="shared" si="5"/>
         <v>2320001</v>
       </c>
       <c r="K80" s="2" t="s">
@@ -5388,18 +5388,18 @@
         <v>350000</v>
       </c>
       <c r="F81" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8458500</v>
       </c>
       <c r="G81" s="3">
-        <f>(F81*25%)+F81</f>
+        <f t="shared" si="4"/>
         <v>10573125</v>
       </c>
       <c r="H81" s="3">
         <v>10500000</v>
       </c>
       <c r="J81" s="3">
-        <f>H81-I81-F81</f>
+        <f t="shared" si="5"/>
         <v>2041500</v>
       </c>
       <c r="K81" s="2" t="s">
@@ -5423,18 +5423,18 @@
         <v>903500</v>
       </c>
       <c r="F82" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8191500</v>
       </c>
       <c r="G82" s="3">
-        <f>(F82*25%)+F82</f>
+        <f t="shared" si="4"/>
         <v>10239375</v>
       </c>
       <c r="H82" s="3">
         <v>10250000</v>
       </c>
       <c r="J82" s="3">
-        <f>H82-I82-F82</f>
+        <f t="shared" si="5"/>
         <v>2058500</v>
       </c>
       <c r="K82" s="2" t="s">
@@ -5458,18 +5458,18 @@
         <v>1047000</v>
       </c>
       <c r="F83" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5356000</v>
       </c>
       <c r="G83" s="3">
-        <f>(F83*25%)+F83</f>
+        <f t="shared" si="4"/>
         <v>6695000</v>
       </c>
       <c r="H83" s="3">
         <v>6300000</v>
       </c>
       <c r="J83" s="3">
-        <f>H83-I83-F83</f>
+        <f t="shared" si="5"/>
         <v>944000</v>
       </c>
       <c r="K83" s="2" t="s">
@@ -5493,15 +5493,15 @@
         <v>51250</v>
       </c>
       <c r="F84" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2650250</v>
       </c>
       <c r="G84" s="3">
-        <f>(F84*25%)+F84</f>
+        <f t="shared" si="4"/>
         <v>3312812.5</v>
       </c>
       <c r="J84" s="3">
-        <f>H84-I84-F84</f>
+        <f t="shared" si="5"/>
         <v>-2650250</v>
       </c>
       <c r="N84" s="9" t="s">
@@ -5525,18 +5525,18 @@
         <v>700000</v>
       </c>
       <c r="F85" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5605000</v>
       </c>
       <c r="G85" s="3">
-        <f>(F85*25%)+F85</f>
+        <f t="shared" si="4"/>
         <v>7006250</v>
       </c>
       <c r="H85" s="3">
         <v>7000000</v>
       </c>
       <c r="J85" s="3">
-        <f>H85-I85-F85</f>
+        <f t="shared" si="5"/>
         <v>1395000</v>
       </c>
       <c r="K85" s="2" t="s">
@@ -5566,18 +5566,18 @@
         <v>900000</v>
       </c>
       <c r="F86" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5629500</v>
       </c>
       <c r="G86" s="3">
-        <f>(F86*25%)+F86</f>
+        <f t="shared" si="4"/>
         <v>7036875</v>
       </c>
       <c r="H86" s="3">
         <v>7000000</v>
       </c>
       <c r="J86" s="3">
-        <f>H86-I86-F86</f>
+        <f t="shared" si="5"/>
         <v>1370500</v>
       </c>
       <c r="K86" s="2" t="s">
@@ -5601,18 +5601,18 @@
         <v>821500</v>
       </c>
       <c r="F87" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6407500</v>
       </c>
       <c r="G87" s="3">
-        <f>(F87*25%)+F87</f>
+        <f t="shared" si="4"/>
         <v>8009375</v>
       </c>
       <c r="H87" s="3">
         <v>10600000</v>
       </c>
       <c r="J87" s="3">
-        <f>H87-I87-F87</f>
+        <f t="shared" si="5"/>
         <v>4192500</v>
       </c>
       <c r="K87" s="2" t="s">
@@ -5637,15 +5637,15 @@
         <v>750000</v>
       </c>
       <c r="F88" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6210000</v>
       </c>
       <c r="G88" s="3">
-        <f>(F88*25%)+F88</f>
+        <f t="shared" si="4"/>
         <v>7762500</v>
       </c>
       <c r="J88" s="3">
-        <f>H88-I88-F88</f>
+        <f t="shared" si="5"/>
         <v>-6210000</v>
       </c>
       <c r="M88" s="2" t="s">
@@ -5669,18 +5669,18 @@
         <v>750000</v>
       </c>
       <c r="F89" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5951000</v>
       </c>
       <c r="G89" s="3">
-        <f>(F89*25%)+F89</f>
+        <f t="shared" si="4"/>
         <v>7438750</v>
       </c>
       <c r="H89" s="3">
         <v>8350000</v>
       </c>
       <c r="J89" s="3">
-        <f>H89-I89-F89</f>
+        <f t="shared" si="5"/>
         <v>2399000</v>
       </c>
       <c r="K89" s="2" t="s">
@@ -5707,18 +5707,18 @@
         <v>950000</v>
       </c>
       <c r="F90" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7065000</v>
       </c>
       <c r="G90" s="3">
-        <f>(F90*25%)+F90</f>
+        <f t="shared" si="4"/>
         <v>8831250</v>
       </c>
       <c r="H90" s="3">
         <v>10000000</v>
       </c>
       <c r="J90" s="3">
-        <f>H90-I90-F90</f>
+        <f t="shared" si="5"/>
         <v>2935000</v>
       </c>
       <c r="M90" s="2" t="s">
@@ -5739,17 +5739,17 @@
       <c r="D91" s="73"/>
       <c r="E91" s="73"/>
       <c r="F91" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>157</v>
       </c>
       <c r="G91" s="73">
-        <f>(F91*25%)+F91</f>
+        <f t="shared" si="4"/>
         <v>196.25</v>
       </c>
       <c r="H91" s="73"/>
       <c r="I91" s="73"/>
       <c r="J91" s="73">
-        <f>H91-I91-F91</f>
+        <f t="shared" si="5"/>
         <v>-157</v>
       </c>
       <c r="N91" s="75" t="s">
@@ -5770,18 +5770,18 @@
         <v>250000</v>
       </c>
       <c r="F92" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4392800</v>
       </c>
       <c r="G92" s="3">
-        <f>(F92*25%)+F92</f>
+        <f t="shared" si="4"/>
         <v>5491000</v>
       </c>
       <c r="H92" s="3">
         <v>3000000</v>
       </c>
       <c r="J92" s="3">
-        <f>H92-I92-F92</f>
+        <f t="shared" si="5"/>
         <v>-1392800</v>
       </c>
       <c r="K92" s="2" t="s">
@@ -5805,18 +5805,18 @@
         <v>850000</v>
       </c>
       <c r="F93" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6881000</v>
       </c>
       <c r="G93" s="3">
-        <f>(F93*25%)+F93</f>
+        <f t="shared" si="4"/>
         <v>8601250</v>
       </c>
       <c r="H93" s="3">
         <v>8500000</v>
       </c>
       <c r="J93" s="3">
-        <f>H93-I93-F93</f>
+        <f t="shared" si="5"/>
         <v>1619000</v>
       </c>
       <c r="K93" s="2" t="s">
@@ -5836,17 +5836,17 @@
       <c r="D94" s="73"/>
       <c r="E94" s="73"/>
       <c r="F94" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>229</v>
       </c>
       <c r="G94" s="73">
-        <f>(F94*25%)+F94</f>
+        <f t="shared" si="4"/>
         <v>286.25</v>
       </c>
       <c r="H94" s="73"/>
       <c r="I94" s="73"/>
       <c r="J94" s="73">
-        <f>H94-I94-F94</f>
+        <f t="shared" si="5"/>
         <v>-229</v>
       </c>
       <c r="N94" s="75" t="s">
@@ -5863,17 +5863,17 @@
       <c r="D95" s="73"/>
       <c r="E95" s="73"/>
       <c r="F95" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>280</v>
       </c>
       <c r="G95" s="73">
-        <f>(F95*25%)+F95</f>
+        <f t="shared" si="4"/>
         <v>350</v>
       </c>
       <c r="H95" s="73"/>
       <c r="I95" s="73"/>
       <c r="J95" s="73">
-        <f>H95-I95-F95</f>
+        <f t="shared" si="5"/>
         <v>-280</v>
       </c>
       <c r="N95" s="75" t="s">
@@ -5894,11 +5894,11 @@
         <v>350000</v>
       </c>
       <c r="F96" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5353000</v>
       </c>
       <c r="G96" s="21">
-        <f>(F96*25%)+F96</f>
+        <f t="shared" si="4"/>
         <v>6691250</v>
       </c>
       <c r="H96" s="21">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="I96" s="21"/>
       <c r="J96" s="21">
-        <f>H96-I96-F96</f>
+        <f t="shared" si="5"/>
         <v>1347000</v>
       </c>
       <c r="K96" s="22" t="s">
@@ -5930,15 +5930,15 @@
         <v>985000</v>
       </c>
       <c r="F97" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4698000</v>
       </c>
       <c r="G97" s="3">
-        <f>(F97*25%)+F97</f>
+        <f t="shared" si="4"/>
         <v>5872500</v>
       </c>
       <c r="J97" s="3">
-        <f>H97-I97-F97</f>
+        <f t="shared" si="5"/>
         <v>-4698000</v>
       </c>
       <c r="N97" s="161"/>
@@ -5957,17 +5957,17 @@
         <v>1604000</v>
       </c>
       <c r="F98" s="81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8433000</v>
       </c>
       <c r="G98" s="81">
-        <f>(F98*25%)+F98</f>
+        <f t="shared" si="4"/>
         <v>10541250</v>
       </c>
       <c r="H98" s="81"/>
       <c r="I98" s="81"/>
       <c r="J98" s="81">
-        <f>H98-I98-F98</f>
+        <f t="shared" si="5"/>
         <v>-8433000</v>
       </c>
       <c r="N98" s="83" t="s">
@@ -5985,18 +5985,18 @@
         <v>986000</v>
       </c>
       <c r="F99" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4406000</v>
       </c>
       <c r="G99" s="3">
-        <f>(F99*25%)+F99</f>
+        <f t="shared" si="4"/>
         <v>5507500</v>
       </c>
       <c r="H99" s="3">
         <v>5800000</v>
       </c>
       <c r="J99" s="3">
-        <f>H99-I99-F99</f>
+        <f t="shared" si="5"/>
         <v>1394000</v>
       </c>
       <c r="K99" s="2" t="s">
@@ -6014,15 +6014,15 @@
         <v>3315000</v>
       </c>
       <c r="F100" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3315000</v>
       </c>
       <c r="G100" s="3">
-        <f>(F100*25%)+F100</f>
+        <f t="shared" si="4"/>
         <v>4143750</v>
       </c>
       <c r="J100" s="3">
-        <f>H100-I100-F100</f>
+        <f t="shared" si="5"/>
         <v>-3315000</v>
       </c>
     </row>
@@ -6036,17 +6036,17 @@
       <c r="D101" s="73"/>
       <c r="E101" s="73"/>
       <c r="F101" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>219</v>
       </c>
       <c r="G101" s="73">
-        <f>(F101*25%)+F101</f>
+        <f t="shared" si="4"/>
         <v>273.75</v>
       </c>
       <c r="H101" s="73"/>
       <c r="I101" s="73"/>
       <c r="J101" s="73">
-        <f>H101-I101-F101</f>
+        <f t="shared" si="5"/>
         <v>-219</v>
       </c>
       <c r="N101" s="63" t="s">
@@ -6064,18 +6064,18 @@
         <v>699000</v>
       </c>
       <c r="F102" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4848000</v>
       </c>
       <c r="G102" s="3">
-        <f>(F102*25%)+F102</f>
+        <f t="shared" si="4"/>
         <v>6060000</v>
       </c>
       <c r="H102" s="3">
         <v>8000000</v>
       </c>
       <c r="J102" s="3">
-        <f>H102-I102-F102</f>
+        <f t="shared" si="5"/>
         <v>3152000</v>
       </c>
       <c r="M102" s="2" t="s">
@@ -6093,17 +6093,17 @@
       <c r="D103" s="73"/>
       <c r="E103" s="73"/>
       <c r="F103" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G103" s="3">
-        <f>(F103*25%)+F103</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H103" s="73"/>
       <c r="I103" s="73"/>
       <c r="J103" s="3">
-        <f>H103-I103-F103</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N103" s="76" t="s">
@@ -6124,18 +6124,18 @@
         <v>560000</v>
       </c>
       <c r="F104" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5117000</v>
       </c>
       <c r="G104" s="3">
-        <f>(F104*25%)+F104</f>
+        <f t="shared" si="4"/>
         <v>6396250</v>
       </c>
       <c r="H104" s="3">
         <v>7500000</v>
       </c>
       <c r="J104" s="3">
-        <f>H104-I104-F104</f>
+        <f t="shared" si="5"/>
         <v>2383000</v>
       </c>
       <c r="K104" s="2" t="s">
@@ -6156,18 +6156,18 @@
         <v>1067000</v>
       </c>
       <c r="F105" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9275000</v>
       </c>
       <c r="G105" s="3">
-        <f>(F105*25%)+F105</f>
+        <f t="shared" si="4"/>
         <v>11593750</v>
       </c>
       <c r="H105" s="3">
         <v>10400000</v>
       </c>
       <c r="J105" s="3">
-        <f>H105-I105-F105</f>
+        <f t="shared" si="5"/>
         <v>1125000</v>
       </c>
       <c r="N105" s="9" t="s">
@@ -6188,18 +6188,18 @@
         <v>350000</v>
       </c>
       <c r="F106" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5122000</v>
       </c>
       <c r="G106" s="3">
-        <f>(F106*25%)+F106</f>
+        <f t="shared" si="4"/>
         <v>6402500</v>
       </c>
       <c r="H106" s="3">
         <v>8000000</v>
       </c>
       <c r="J106" s="3">
-        <f>H106-I106-F106</f>
+        <f t="shared" si="5"/>
         <v>2878000</v>
       </c>
       <c r="K106" s="2" t="s">
@@ -6221,17 +6221,17 @@
       </c>
       <c r="E107" s="84"/>
       <c r="F107" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6218000</v>
       </c>
       <c r="G107" s="84">
-        <f>(F107*25%)+F107</f>
+        <f t="shared" si="4"/>
         <v>7772500</v>
       </c>
       <c r="H107" s="84"/>
       <c r="I107" s="84"/>
       <c r="J107" s="84">
-        <f>H107-I107-F107</f>
+        <f t="shared" si="5"/>
         <v>-6218000</v>
       </c>
       <c r="N107" s="86" t="s">
@@ -6249,18 +6249,18 @@
         <v>842000</v>
       </c>
       <c r="F108" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7922000</v>
       </c>
       <c r="G108" s="3">
-        <f>(F108*25%)+F108</f>
+        <f t="shared" si="4"/>
         <v>9902500</v>
       </c>
       <c r="H108" s="3">
         <v>10000000</v>
       </c>
       <c r="J108" s="3">
-        <f>H108-I108-F108</f>
+        <f t="shared" si="5"/>
         <v>2078000</v>
       </c>
       <c r="K108" s="2" t="s">
@@ -6284,11 +6284,11 @@
         <v>430000</v>
       </c>
       <c r="F109" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5411000</v>
       </c>
       <c r="G109" s="21">
-        <f>(F109*25%)+F109</f>
+        <f t="shared" si="4"/>
         <v>6763750</v>
       </c>
       <c r="H109" s="21">
@@ -6296,7 +6296,7 @@
       </c>
       <c r="I109" s="21"/>
       <c r="J109" s="21">
-        <f>H109-I109-F109</f>
+        <f t="shared" si="5"/>
         <v>739000</v>
       </c>
       <c r="K109" s="22" t="s">
@@ -6320,18 +6320,18 @@
         <v>945000</v>
       </c>
       <c r="F110" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8025000</v>
       </c>
       <c r="G110" s="3">
-        <f>(F110*25%)+F110</f>
+        <f t="shared" si="4"/>
         <v>10031250</v>
       </c>
       <c r="H110" s="3">
         <v>10500000</v>
       </c>
       <c r="J110" s="3">
-        <f>H110-I110-F110</f>
+        <f t="shared" si="5"/>
         <v>2475000</v>
       </c>
       <c r="K110" s="2" t="s">
@@ -6355,11 +6355,11 @@
       </c>
       <c r="E111" s="21"/>
       <c r="F111" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4068000</v>
       </c>
       <c r="G111" s="21">
-        <f>(F111*25%)+F111</f>
+        <f t="shared" si="4"/>
         <v>5085000</v>
       </c>
       <c r="H111" s="21">
@@ -6367,7 +6367,7 @@
       </c>
       <c r="I111" s="21"/>
       <c r="J111" s="21">
-        <f>H111-I111-F111</f>
+        <f t="shared" si="5"/>
         <v>1232000</v>
       </c>
       <c r="K111" s="22" t="s">
@@ -6385,20 +6385,20 @@
         <v>271</v>
       </c>
       <c r="C112" s="21">
-        <f t="shared" ref="C112:C114" si="3">13776000/4</f>
+        <f t="shared" ref="C112:C114" si="7">13776000/4</f>
         <v>3444000</v>
       </c>
       <c r="D112" s="21">
-        <f t="shared" ref="D112:D115" si="4">3120000/5</f>
+        <f t="shared" ref="D112:D115" si="8">3120000/5</f>
         <v>624000</v>
       </c>
       <c r="E112" s="21"/>
       <c r="F112" s="21">
-        <f t="shared" ref="F112:F113" si="5">C112+D112+E112</f>
+        <f t="shared" ref="F112:F113" si="9">C112+D112+E112</f>
         <v>4068000</v>
       </c>
       <c r="G112" s="21">
-        <f>(F112*25%)+F112</f>
+        <f t="shared" si="4"/>
         <v>5085000</v>
       </c>
       <c r="H112" s="21">
@@ -6406,7 +6406,7 @@
       </c>
       <c r="I112" s="21"/>
       <c r="J112" s="21">
-        <f>H112-I112-F112</f>
+        <f t="shared" si="5"/>
         <v>1232000</v>
       </c>
       <c r="K112" s="22" t="s">
@@ -6415,27 +6415,27 @@
       <c r="M112" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="N112" s="163"/>
+      <c r="N112" s="162"/>
     </row>
     <row r="113" spans="2:14" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B113" s="99" t="s">
         <v>271</v>
       </c>
       <c r="C113" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3444000</v>
       </c>
       <c r="D113" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>624000</v>
       </c>
       <c r="E113" s="21"/>
       <c r="F113" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4068000</v>
       </c>
       <c r="G113" s="21">
-        <f>(F113*25%)+F113</f>
+        <f t="shared" si="4"/>
         <v>5085000</v>
       </c>
       <c r="H113" s="21">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="I113" s="21"/>
       <c r="J113" s="21">
-        <f>H113-I113-F113</f>
+        <f t="shared" si="5"/>
         <v>1232000</v>
       </c>
       <c r="K113" s="22" t="s">
@@ -6452,33 +6452,33 @@
       <c r="M113" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="N113" s="163"/>
+      <c r="N113" s="162"/>
     </row>
     <row r="114" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B114" s="95" t="s">
         <v>271</v>
       </c>
       <c r="C114" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3444000</v>
       </c>
       <c r="D114" s="21">
+        <f t="shared" si="8"/>
+        <v>624000</v>
+      </c>
+      <c r="F114" s="3">
+        <f t="shared" ref="F114" si="10">C114+D114+E114</f>
+        <v>4068000</v>
+      </c>
+      <c r="G114" s="3">
         <f t="shared" si="4"/>
-        <v>624000</v>
-      </c>
-      <c r="F114" s="3">
-        <f t="shared" ref="F114" si="6">C114+D114+E114</f>
-        <v>4068000</v>
-      </c>
-      <c r="G114" s="3">
-        <f>(F114*25%)+F114</f>
         <v>5085000</v>
       </c>
       <c r="J114" s="3">
-        <f>H114-I114-F114</f>
+        <f t="shared" si="5"/>
         <v>-4068000</v>
       </c>
-      <c r="N114" s="163"/>
+      <c r="N114" s="162"/>
     </row>
     <row r="115" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B115" s="95" t="s">
@@ -6488,22 +6488,22 @@
         <v>5166000</v>
       </c>
       <c r="D115" s="21">
+        <f t="shared" si="8"/>
+        <v>624000</v>
+      </c>
+      <c r="F115" s="3">
+        <f t="shared" si="6"/>
+        <v>5790000</v>
+      </c>
+      <c r="G115" s="3">
         <f t="shared" si="4"/>
-        <v>624000</v>
-      </c>
-      <c r="F115" s="3">
-        <f t="shared" si="2"/>
-        <v>5790000</v>
-      </c>
-      <c r="G115" s="3">
-        <f>(F115*25%)+F115</f>
         <v>7237500</v>
       </c>
       <c r="H115" s="3">
         <v>6400000</v>
       </c>
       <c r="J115" s="3">
-        <f>H115-I115-F115</f>
+        <f t="shared" si="5"/>
         <v>610000</v>
       </c>
       <c r="K115" s="2" t="s">
@@ -6519,15 +6519,15 @@
         <v>3465000</v>
       </c>
       <c r="F116" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3465000</v>
       </c>
       <c r="G116" s="3">
-        <f>(F116*25%)+F116</f>
+        <f t="shared" si="4"/>
         <v>4331250</v>
       </c>
       <c r="J116" s="3">
-        <f>H116-I116-F116</f>
+        <f t="shared" si="5"/>
         <v>-3465000</v>
       </c>
       <c r="N116" s="9" t="s">
@@ -6548,18 +6548,18 @@
         <v>350000</v>
       </c>
       <c r="F117" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8996000</v>
       </c>
       <c r="G117" s="3">
-        <f>(F117*25%)+F117</f>
+        <f t="shared" si="4"/>
         <v>11245000</v>
       </c>
       <c r="H117" s="3">
         <v>10500000</v>
       </c>
       <c r="J117" s="3">
-        <f>H117-I117-F117</f>
+        <f t="shared" si="5"/>
         <v>1504000</v>
       </c>
       <c r="K117" s="2" t="s">
@@ -6583,11 +6583,11 @@
       </c>
       <c r="E118" s="24"/>
       <c r="F118" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4322000</v>
       </c>
       <c r="G118" s="3">
-        <f>(F118*25%)+F118</f>
+        <f t="shared" si="4"/>
         <v>5402500</v>
       </c>
       <c r="H118" s="24">
@@ -6595,13 +6595,13 @@
       </c>
       <c r="I118" s="24"/>
       <c r="J118" s="3">
-        <f>H118-I118-F118</f>
+        <f t="shared" si="5"/>
         <v>1478000</v>
       </c>
       <c r="K118" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="N118" s="164" t="s">
+      <c r="N118" s="163" t="s">
         <v>279</v>
       </c>
     </row>
@@ -6610,20 +6610,20 @@
         <v>278</v>
       </c>
       <c r="C119" s="24">
-        <f t="shared" ref="C119:C122" si="7">13570000/4</f>
+        <f t="shared" ref="C119:C122" si="11">13570000/4</f>
         <v>3392500</v>
       </c>
       <c r="D119" s="80">
-        <f t="shared" ref="D119:D122" si="8">3718000/4</f>
+        <f t="shared" ref="D119:D122" si="12">3718000/4</f>
         <v>929500</v>
       </c>
       <c r="E119" s="24"/>
       <c r="F119" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4322000</v>
       </c>
       <c r="G119" s="3">
-        <f>(F119*25%)+F119</f>
+        <f t="shared" si="4"/>
         <v>5402500</v>
       </c>
       <c r="H119" s="24">
@@ -6631,33 +6631,33 @@
       </c>
       <c r="I119" s="24"/>
       <c r="J119" s="3">
-        <f>H119-I119-F119</f>
+        <f t="shared" si="5"/>
         <v>1478000</v>
       </c>
       <c r="K119" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="N119" s="165"/>
+      <c r="N119" s="164"/>
     </row>
     <row r="120" spans="2:14" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B120" s="124" t="s">
         <v>278</v>
       </c>
       <c r="C120" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3392500</v>
       </c>
       <c r="D120" s="80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>929500</v>
       </c>
       <c r="E120" s="24"/>
       <c r="F120" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4322000</v>
       </c>
       <c r="G120" s="3">
-        <f>(F120*25%)+F120</f>
+        <f t="shared" si="4"/>
         <v>5402500</v>
       </c>
       <c r="H120" s="24">
@@ -6665,33 +6665,33 @@
       </c>
       <c r="I120" s="24"/>
       <c r="J120" s="3">
-        <f>H120-I120-F120</f>
+        <f t="shared" si="5"/>
         <v>1478000</v>
       </c>
       <c r="K120" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="N120" s="165"/>
+      <c r="N120" s="164"/>
     </row>
     <row r="121" spans="2:14" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B121" s="124" t="s">
         <v>278</v>
       </c>
       <c r="C121" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3392500</v>
       </c>
       <c r="D121" s="80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>929500</v>
       </c>
       <c r="E121" s="24"/>
       <c r="F121" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4322000</v>
       </c>
       <c r="G121" s="3">
-        <f>(F121*25%)+F121</f>
+        <f t="shared" si="4"/>
         <v>5402500</v>
       </c>
       <c r="H121" s="24">
@@ -6699,33 +6699,33 @@
       </c>
       <c r="I121" s="24"/>
       <c r="J121" s="3">
-        <f>H121-I121-F121</f>
+        <f t="shared" si="5"/>
         <v>1478000</v>
       </c>
       <c r="K121" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="N121" s="165"/>
+      <c r="N121" s="164"/>
     </row>
     <row r="122" spans="2:14" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B122" s="124" t="s">
         <v>278</v>
       </c>
       <c r="C122" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3392500</v>
       </c>
       <c r="D122" s="80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>929500</v>
       </c>
       <c r="E122" s="24"/>
       <c r="F122" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4322000</v>
       </c>
       <c r="G122" s="3">
-        <f>(F122*25%)+F122</f>
+        <f t="shared" si="4"/>
         <v>5402500</v>
       </c>
       <c r="H122" s="24">
@@ -6733,13 +6733,13 @@
       </c>
       <c r="I122" s="24"/>
       <c r="J122" s="3">
-        <f>H122-I122-F122</f>
+        <f t="shared" si="5"/>
         <v>1178000</v>
       </c>
       <c r="K122" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="N122" s="166"/>
+      <c r="N122" s="165"/>
     </row>
     <row r="123" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B123" s="95" t="s">
@@ -6752,18 +6752,18 @@
         <v>801000</v>
       </c>
       <c r="F123" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7881000</v>
       </c>
       <c r="G123" s="3">
-        <f>(F123*25%)+F123</f>
+        <f t="shared" si="4"/>
         <v>9851250</v>
       </c>
       <c r="H123" s="3">
         <v>9500000</v>
       </c>
       <c r="J123" s="3">
-        <f>H123-I123-F123</f>
+        <f t="shared" si="5"/>
         <v>1619000</v>
       </c>
       <c r="K123" s="2" t="s">
@@ -6787,11 +6787,11 @@
         <v>350000</v>
       </c>
       <c r="F124" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7831000</v>
       </c>
       <c r="G124" s="24">
-        <f>(F124*25%)+F124</f>
+        <f t="shared" si="4"/>
         <v>9788750</v>
       </c>
       <c r="H124" s="24">
@@ -6799,7 +6799,7 @@
       </c>
       <c r="I124" s="24"/>
       <c r="J124" s="24">
-        <f>H124-I124-F124</f>
+        <f t="shared" si="5"/>
         <v>1669000</v>
       </c>
       <c r="N124" s="26" t="s">
@@ -6818,11 +6818,11 @@
       </c>
       <c r="E125" s="24"/>
       <c r="F125" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8309000</v>
       </c>
       <c r="G125" s="24">
-        <f>(F125*25%)+F125</f>
+        <f t="shared" si="4"/>
         <v>10386250</v>
       </c>
       <c r="H125" s="24">
@@ -6830,7 +6830,7 @@
       </c>
       <c r="I125" s="24"/>
       <c r="J125" s="24">
-        <f>H125-I125-F125</f>
+        <f t="shared" si="5"/>
         <v>1491000</v>
       </c>
       <c r="K125" s="25" t="s">
@@ -6851,18 +6851,18 @@
         <v>781000</v>
       </c>
       <c r="F126" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8557000</v>
       </c>
       <c r="G126" s="3">
-        <f>(F126*25%)+F126</f>
+        <f t="shared" si="4"/>
         <v>10696250</v>
       </c>
       <c r="H126" s="3">
         <v>10500000</v>
       </c>
       <c r="J126" s="3">
-        <f>H126-I126-F126</f>
+        <f t="shared" si="5"/>
         <v>1943000</v>
       </c>
       <c r="K126" s="2" t="s">
@@ -6885,15 +6885,15 @@
         <v>791000</v>
       </c>
       <c r="F127" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4871000</v>
       </c>
       <c r="G127" s="3">
-        <f>(F127*25%)+F127</f>
+        <f t="shared" si="4"/>
         <v>6088750</v>
       </c>
       <c r="J127" s="3">
-        <f>H127-I127-F127</f>
+        <f t="shared" si="5"/>
         <v>-4871000</v>
       </c>
       <c r="N127" s="9" t="s">
@@ -6913,15 +6913,15 @@
         <v>791000</v>
       </c>
       <c r="F128" s="3">
-        <f t="shared" ref="F128" si="9">C128+D128+E128</f>
+        <f t="shared" ref="F128" si="13">C128+D128+E128</f>
         <v>4871000</v>
       </c>
       <c r="G128" s="3">
-        <f>(F128*25%)+F128</f>
+        <f t="shared" si="4"/>
         <v>6088750</v>
       </c>
       <c r="J128" s="3">
-        <f>H128-I128-F128</f>
+        <f t="shared" si="5"/>
         <v>-4871000</v>
       </c>
       <c r="N128" s="9" t="s">
@@ -6940,11 +6940,11 @@
       </c>
       <c r="E129" s="58"/>
       <c r="F129" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7506000</v>
       </c>
       <c r="G129" s="58">
-        <f>(F129*25%)+F129</f>
+        <f t="shared" si="4"/>
         <v>9382500</v>
       </c>
       <c r="H129" s="58">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="I129" s="58"/>
       <c r="J129" s="58">
-        <f>H129-I129-F129</f>
+        <f t="shared" si="5"/>
         <v>-6000</v>
       </c>
       <c r="N129" s="60" t="s">
@@ -6970,16 +6970,16 @@
         <v>842000</v>
       </c>
       <c r="F130" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4842000</v>
       </c>
       <c r="G130" s="58">
-        <f>(F130*25%)+F130</f>
+        <f t="shared" ref="G130:G193" si="14">(F130*25%)+F130</f>
         <v>6052500</v>
       </c>
       <c r="H130" s="58"/>
       <c r="J130" s="58">
-        <f>H130-I130-F130</f>
+        <f t="shared" ref="J130:J193" si="15">H130-I130-F130</f>
         <v>-4842000</v>
       </c>
       <c r="K130" s="2" t="s">
@@ -7000,16 +7000,16 @@
         <v>842000</v>
       </c>
       <c r="F131" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5992000</v>
       </c>
       <c r="G131" s="58">
-        <f>(F131*25%)+F131</f>
+        <f t="shared" si="14"/>
         <v>7490000</v>
       </c>
       <c r="H131" s="58"/>
       <c r="J131" s="58">
-        <f>H131-I131-F131</f>
+        <f t="shared" si="15"/>
         <v>-5992000</v>
       </c>
       <c r="N131" s="9" t="s">
@@ -7029,16 +7029,16 @@
         <v>739500</v>
       </c>
       <c r="F132" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4989500</v>
       </c>
       <c r="G132" s="58">
-        <f>(F132*25%)+F132</f>
+        <f t="shared" si="14"/>
         <v>6236875</v>
       </c>
       <c r="H132" s="58"/>
       <c r="J132" s="58">
-        <f>H132-I132-F132</f>
+        <f t="shared" si="15"/>
         <v>-4989500</v>
       </c>
       <c r="N132" s="9" t="s">
@@ -7058,16 +7058,16 @@
         <v>739500</v>
       </c>
       <c r="F133" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4989500</v>
       </c>
       <c r="G133" s="58">
-        <f>(F133*25%)+F133</f>
+        <f t="shared" si="14"/>
         <v>6236875</v>
       </c>
       <c r="H133" s="58"/>
       <c r="J133" s="58">
-        <f>H133-I133-F133</f>
+        <f t="shared" si="15"/>
         <v>-4989500</v>
       </c>
       <c r="N133" s="9" t="s">
@@ -7085,16 +7085,16 @@
         <v>739000</v>
       </c>
       <c r="F134" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6239000</v>
       </c>
       <c r="G134" s="58">
-        <f>(F134*25%)+F134</f>
+        <f t="shared" si="14"/>
         <v>7798750</v>
       </c>
       <c r="H134" s="58"/>
       <c r="J134" s="58">
-        <f>H134-I134-F134</f>
+        <f t="shared" si="15"/>
         <v>-6239000</v>
       </c>
       <c r="N134" s="9" t="s">
@@ -7112,16 +7112,16 @@
         <v>842000</v>
       </c>
       <c r="F135" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6592000</v>
       </c>
       <c r="G135" s="58">
-        <f>(F135*25%)+F135</f>
+        <f t="shared" si="14"/>
         <v>8240000</v>
       </c>
       <c r="H135" s="58"/>
       <c r="J135" s="58">
-        <f>H135-I135-F135</f>
+        <f t="shared" si="15"/>
         <v>-6592000</v>
       </c>
       <c r="N135" s="9" t="s">
@@ -7133,16 +7133,16 @@
         <v>320</v>
       </c>
       <c r="F136" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G136" s="58">
-        <f>(F136*25%)+F136</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H136" s="58"/>
       <c r="J136" s="58">
-        <f>H136-I136-F136</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N136" s="9" t="s">
@@ -7154,16 +7154,16 @@
         <v>320</v>
       </c>
       <c r="F137" s="58">
-        <f t="shared" ref="F137:F200" si="10">C137+D137+E137</f>
+        <f t="shared" ref="F137:F200" si="16">C137+D137+E137</f>
         <v>0</v>
       </c>
       <c r="G137" s="58">
-        <f>(F137*25%)+F137</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H137" s="58"/>
       <c r="J137" s="58">
-        <f>H137-I137-F137</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N137" s="9" t="s">
@@ -7184,16 +7184,16 @@
         <v>250000</v>
       </c>
       <c r="F138" s="58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>4712000</v>
       </c>
       <c r="G138" s="58">
-        <f>(F138*25%)+F138</f>
+        <f t="shared" si="14"/>
         <v>5890000</v>
       </c>
       <c r="H138" s="58"/>
       <c r="J138" s="58">
-        <f>H138-I138-F138</f>
+        <f t="shared" si="15"/>
         <v>-4712000</v>
       </c>
       <c r="K138" s="2" t="s">
@@ -7214,18 +7214,18 @@
         <v>801000</v>
       </c>
       <c r="F139" s="58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6633000</v>
       </c>
       <c r="G139" s="58">
-        <f>(F139*25%)+F139</f>
+        <f t="shared" si="14"/>
         <v>8291250</v>
       </c>
       <c r="H139" s="58">
         <v>10000000</v>
       </c>
       <c r="J139" s="58">
-        <f>H139-I139-F139</f>
+        <f t="shared" si="15"/>
         <v>3367000</v>
       </c>
       <c r="K139" s="2" t="s">
@@ -7249,18 +7249,18 @@
         <v>350000</v>
       </c>
       <c r="F140" s="58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>8392000</v>
       </c>
       <c r="G140" s="58">
-        <f>(F140*25%)+F140</f>
+        <f t="shared" si="14"/>
         <v>10490000</v>
       </c>
       <c r="H140" s="58">
         <v>14000000</v>
       </c>
       <c r="J140" s="58">
-        <f>H140-I140-F140</f>
+        <f t="shared" si="15"/>
         <v>5608000</v>
       </c>
       <c r="K140" s="2" t="s">
@@ -7281,16 +7281,16 @@
         <v>801000</v>
       </c>
       <c r="F141" s="58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>7521000</v>
       </c>
       <c r="G141" s="58">
-        <f>(F141*25%)+F141</f>
+        <f t="shared" si="14"/>
         <v>9401250</v>
       </c>
       <c r="H141" s="58"/>
       <c r="J141" s="58">
-        <f>H141-I141-F141</f>
+        <f t="shared" si="15"/>
         <v>-7521000</v>
       </c>
       <c r="N141" s="9" t="s">
@@ -7311,18 +7311,18 @@
         <v>550000</v>
       </c>
       <c r="F142" s="58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>11252000</v>
       </c>
       <c r="G142" s="58">
-        <f>(F142*25%)+F142</f>
+        <f t="shared" si="14"/>
         <v>14065000</v>
       </c>
       <c r="H142" s="58">
         <v>13000000</v>
       </c>
       <c r="J142" s="58">
-        <f>H142-I142-F142</f>
+        <f t="shared" si="15"/>
         <v>1748000</v>
       </c>
       <c r="K142" s="2" t="s">
@@ -7343,18 +7343,18 @@
         <v>904000</v>
       </c>
       <c r="F143" s="58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>10504000</v>
       </c>
       <c r="G143" s="58">
-        <f>(F143*25%)+F143</f>
+        <f t="shared" si="14"/>
         <v>13130000</v>
       </c>
       <c r="H143" s="58">
         <v>13300000</v>
       </c>
       <c r="J143" s="58">
-        <f>H143-I143-F143</f>
+        <f t="shared" si="15"/>
         <v>2796000</v>
       </c>
       <c r="K143" s="2" t="s">
@@ -7375,18 +7375,18 @@
         <v>700000</v>
       </c>
       <c r="F144" s="58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6460000</v>
       </c>
       <c r="G144" s="58">
-        <f>(F144*25%)+F144</f>
+        <f t="shared" si="14"/>
         <v>8075000</v>
       </c>
       <c r="H144" s="3">
         <v>10500000</v>
       </c>
       <c r="J144" s="58">
-        <f>H144-I144-F144</f>
+        <f t="shared" si="15"/>
         <v>4040000</v>
       </c>
       <c r="N144" s="9" t="s">
@@ -7407,18 +7407,18 @@
         <v>550000</v>
       </c>
       <c r="F145" s="58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>4542000</v>
       </c>
       <c r="G145" s="58">
-        <f>(F145*25%)+F145</f>
+        <f t="shared" si="14"/>
         <v>5677500</v>
       </c>
       <c r="H145" s="3">
         <v>8000000</v>
       </c>
       <c r="J145" s="58">
-        <f>H145-I145-F145</f>
+        <f t="shared" si="15"/>
         <v>3458000</v>
       </c>
       <c r="N145" s="9" t="s">
@@ -7439,18 +7439,18 @@
         <v>880000</v>
       </c>
       <c r="F146" s="58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>9223000</v>
       </c>
       <c r="G146" s="58">
-        <f>(F146*25%)+F146</f>
+        <f t="shared" si="14"/>
         <v>11528750</v>
       </c>
       <c r="H146" s="3">
         <v>14000000</v>
       </c>
       <c r="J146" s="58">
-        <f>H146-I146-F146</f>
+        <f t="shared" si="15"/>
         <v>4777000</v>
       </c>
       <c r="K146" s="2" t="s">
@@ -7471,18 +7471,18 @@
         <v>883000</v>
       </c>
       <c r="F147" s="58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>10123000</v>
       </c>
       <c r="G147" s="58">
-        <f>(F147*25%)+F147</f>
+        <f t="shared" si="14"/>
         <v>12653750</v>
       </c>
       <c r="H147" s="3">
         <v>11000000</v>
       </c>
       <c r="J147" s="58">
-        <f>H147-I147-F147</f>
+        <f t="shared" si="15"/>
         <v>877000</v>
       </c>
       <c r="K147" s="2" t="s">
@@ -7501,18 +7501,18 @@
         <v>2400000</v>
       </c>
       <c r="F148" s="58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2400000</v>
       </c>
       <c r="G148" s="58">
-        <f>(F148*25%)+F148</f>
+        <f t="shared" si="14"/>
         <v>3000000</v>
       </c>
       <c r="H148" s="3">
         <v>5800000</v>
       </c>
       <c r="J148" s="58">
-        <f>H148-I148-F148</f>
+        <f t="shared" si="15"/>
         <v>3400000</v>
       </c>
       <c r="N148" s="160" t="s">
@@ -7524,47 +7524,47 @@
         <v>362</v>
       </c>
       <c r="C149" s="3">
-        <f t="shared" ref="C149:C152" si="11">12000000/5</f>
+        <f t="shared" ref="C149:C152" si="17">12000000/5</f>
         <v>2400000</v>
       </c>
       <c r="F149" s="58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2400000</v>
       </c>
       <c r="G149" s="58">
-        <f>(F149*25%)+F149</f>
+        <f t="shared" si="14"/>
         <v>3000000</v>
       </c>
       <c r="H149" s="3">
         <v>5800000</v>
       </c>
       <c r="J149" s="58">
-        <f>H149-I149-F149</f>
+        <f t="shared" si="15"/>
         <v>3400000</v>
       </c>
-      <c r="N149" s="163"/>
+      <c r="N149" s="162"/>
     </row>
     <row r="150" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B150" s="95" t="s">
         <v>362</v>
       </c>
       <c r="C150" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>2400000</v>
       </c>
       <c r="F150" s="58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2400000</v>
       </c>
       <c r="G150" s="58">
-        <f>(F150*25%)+F150</f>
+        <f t="shared" si="14"/>
         <v>3000000</v>
       </c>
       <c r="H150" s="3">
         <v>5800000</v>
       </c>
       <c r="J150" s="58">
-        <f>H150-I150-F150</f>
+        <f t="shared" si="15"/>
         <v>3400000</v>
       </c>
       <c r="N150" s="161"/>
@@ -7574,7 +7574,7 @@
         <v>362</v>
       </c>
       <c r="C151" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>2400000</v>
       </c>
       <c r="D151" s="3">
@@ -7582,18 +7582,18 @@
         <v>719000</v>
       </c>
       <c r="F151" s="58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>3119000</v>
       </c>
       <c r="G151" s="58">
-        <f>(F151*25%)+F151</f>
+        <f t="shared" si="14"/>
         <v>3898750</v>
       </c>
       <c r="H151" s="3">
         <v>5800000</v>
       </c>
       <c r="J151" s="58">
-        <f>H151-I151-F151</f>
+        <f t="shared" si="15"/>
         <v>2681000</v>
       </c>
       <c r="N151" s="160" t="s">
@@ -7605,7 +7605,7 @@
         <v>362</v>
       </c>
       <c r="C152" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>2400000</v>
       </c>
       <c r="D152" s="3">
@@ -7613,21 +7613,21 @@
         <v>719000</v>
       </c>
       <c r="F152" s="58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>3119000</v>
       </c>
       <c r="G152" s="58">
-        <f>(F152*25%)+F152</f>
+        <f t="shared" si="14"/>
         <v>3898750</v>
       </c>
       <c r="H152" s="3">
         <v>5800000</v>
       </c>
       <c r="J152" s="58">
-        <f>H152-I152-F152</f>
+        <f t="shared" si="15"/>
         <v>2681000</v>
       </c>
-      <c r="N152" s="163"/>
+      <c r="N152" s="162"/>
     </row>
     <row r="153" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B153" s="95" t="s">
@@ -7641,18 +7641,18 @@
         <v>719000</v>
       </c>
       <c r="F153" s="58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>5519000</v>
       </c>
       <c r="G153" s="58">
-        <f>(F153*25%)+F153</f>
+        <f t="shared" si="14"/>
         <v>6898750</v>
       </c>
       <c r="J153" s="58">
-        <f>H153-I153-F153</f>
+        <f t="shared" si="15"/>
         <v>-5519000</v>
       </c>
-      <c r="N153" s="163"/>
+      <c r="N153" s="162"/>
     </row>
     <row r="154" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B154" s="95" t="s">
@@ -7666,18 +7666,18 @@
         <v>719000</v>
       </c>
       <c r="F154" s="58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>7919000</v>
       </c>
       <c r="G154" s="58">
-        <f>(F154*25%)+F154</f>
+        <f t="shared" si="14"/>
         <v>9898750</v>
       </c>
       <c r="H154" s="3">
         <v>13000000</v>
       </c>
       <c r="J154" s="58">
-        <f>H154-I154-F154</f>
+        <f t="shared" si="15"/>
         <v>5081000</v>
       </c>
       <c r="K154" s="2" t="s">
@@ -7696,18 +7696,18 @@
         <v>698000</v>
       </c>
       <c r="F155" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2642000</v>
       </c>
       <c r="G155" s="58">
-        <f>(F155*25%)+F155</f>
+        <f t="shared" si="14"/>
         <v>3302500</v>
       </c>
       <c r="H155" s="3">
         <v>4000000</v>
       </c>
       <c r="J155" s="3">
-        <f>H155-I155-F155</f>
+        <f t="shared" si="15"/>
         <v>1358000</v>
       </c>
       <c r="K155" s="2" t="s">
@@ -7729,17 +7729,17 @@
       </c>
       <c r="E156" s="73"/>
       <c r="F156" s="73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>8561569</v>
       </c>
       <c r="G156" s="88">
-        <f>(F156*25%)+F156</f>
+        <f t="shared" si="14"/>
         <v>10701961.25</v>
       </c>
       <c r="H156" s="73"/>
       <c r="I156" s="73"/>
       <c r="J156" s="73">
-        <f>H156-I156-F156</f>
+        <f t="shared" si="15"/>
         <v>-8561569</v>
       </c>
       <c r="N156" s="75" t="s">
@@ -7757,18 +7757,18 @@
         <v>921000</v>
       </c>
       <c r="F157" s="73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>9201000</v>
       </c>
       <c r="G157" s="3">
-        <f>(F157*25%)+F157</f>
+        <f t="shared" si="14"/>
         <v>11501250</v>
       </c>
       <c r="H157" s="3">
         <v>10000000</v>
       </c>
       <c r="J157" s="3">
-        <f>H157-I157-F157</f>
+        <f t="shared" si="15"/>
         <v>799000</v>
       </c>
       <c r="N157" s="9" t="s">
@@ -7786,18 +7786,18 @@
         <v>875000</v>
       </c>
       <c r="F158" s="73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>4550000</v>
       </c>
       <c r="G158" s="3">
-        <f>(F158*25%)+F158</f>
+        <f t="shared" si="14"/>
         <v>5687500</v>
       </c>
       <c r="H158" s="3">
         <v>5700000</v>
       </c>
       <c r="J158" s="3">
-        <f>H158-I158-F158</f>
+        <f t="shared" si="15"/>
         <v>1150000</v>
       </c>
       <c r="K158" s="2" t="s">
@@ -7819,11 +7819,11 @@
       </c>
       <c r="E159" s="24"/>
       <c r="F159" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>9219000</v>
       </c>
       <c r="G159" s="24">
-        <f>(F159*25%)+F159</f>
+        <f t="shared" si="14"/>
         <v>11523750</v>
       </c>
       <c r="H159" s="24">
@@ -7831,13 +7831,13 @@
       </c>
       <c r="I159" s="24"/>
       <c r="J159" s="24">
-        <f>H159-I159-F159</f>
+        <f t="shared" si="15"/>
         <v>3281000</v>
       </c>
       <c r="K159" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="N159" s="167" t="s">
+      <c r="N159" s="166" t="s">
         <v>354</v>
       </c>
     </row>
@@ -7854,11 +7854,11 @@
       </c>
       <c r="E160" s="24"/>
       <c r="F160" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2979000</v>
       </c>
       <c r="G160" s="24">
-        <f>(F160*25%)+F160</f>
+        <f t="shared" si="14"/>
         <v>3723750</v>
       </c>
       <c r="H160" s="24">
@@ -7866,13 +7866,13 @@
       </c>
       <c r="I160" s="24"/>
       <c r="J160" s="24">
-        <f>H160-I160-F160</f>
+        <f t="shared" si="15"/>
         <v>3021000</v>
       </c>
       <c r="K160" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="N160" s="168"/>
+      <c r="N160" s="167"/>
     </row>
     <row r="161" spans="2:15" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B161" s="124" t="s">
@@ -7887,11 +7887,11 @@
       </c>
       <c r="E161" s="24"/>
       <c r="F161" s="24">
-        <f t="shared" ref="F161:F162" si="12">C161+D161+E161</f>
+        <f t="shared" ref="F161:F162" si="18">C161+D161+E161</f>
         <v>2979000</v>
       </c>
       <c r="G161" s="24">
-        <f>(F161*25%)+F161</f>
+        <f t="shared" si="14"/>
         <v>3723750</v>
       </c>
       <c r="H161" s="24">
@@ -7899,7 +7899,7 @@
       </c>
       <c r="I161" s="24"/>
       <c r="J161" s="24">
-        <f>H161-I161-F161</f>
+        <f t="shared" si="15"/>
         <v>3021000</v>
       </c>
       <c r="K161" s="25" t="s">
@@ -7912,7 +7912,7 @@
         <v>320</v>
       </c>
       <c r="C162" s="24">
-        <f t="shared" ref="C162:C164" si="13">10800000/5</f>
+        <f t="shared" ref="C162:C164" si="19">10800000/5</f>
         <v>2160000</v>
       </c>
       <c r="D162" s="24">
@@ -7920,11 +7920,11 @@
       </c>
       <c r="E162" s="24"/>
       <c r="F162" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2979000</v>
       </c>
       <c r="G162" s="24">
-        <f>(F162*25%)+F162</f>
+        <f t="shared" si="14"/>
         <v>3723750</v>
       </c>
       <c r="H162" s="24">
@@ -7932,7 +7932,7 @@
       </c>
       <c r="I162" s="24"/>
       <c r="J162" s="24">
-        <f>H162-I162-F162</f>
+        <f t="shared" si="15"/>
         <v>3021000</v>
       </c>
       <c r="K162" s="25" t="s">
@@ -7945,7 +7945,7 @@
         <v>320</v>
       </c>
       <c r="C163" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2160000</v>
       </c>
       <c r="D163" s="24">
@@ -7953,11 +7953,11 @@
       </c>
       <c r="E163" s="24"/>
       <c r="F163" s="24">
-        <f t="shared" ref="F163" si="14">C163+D163+E163</f>
+        <f t="shared" ref="F163" si="20">C163+D163+E163</f>
         <v>2979000</v>
       </c>
       <c r="G163" s="24">
-        <f>(F163*25%)+F163</f>
+        <f t="shared" si="14"/>
         <v>3723750</v>
       </c>
       <c r="H163" s="24">
@@ -7965,7 +7965,7 @@
       </c>
       <c r="I163" s="24"/>
       <c r="J163" s="24">
-        <f>H163-I163-F163</f>
+        <f t="shared" si="15"/>
         <v>3021000</v>
       </c>
       <c r="K163" s="25" t="s">
@@ -7978,7 +7978,7 @@
         <v>320</v>
       </c>
       <c r="C164" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2160000</v>
       </c>
       <c r="D164" s="24">
@@ -7986,11 +7986,11 @@
       </c>
       <c r="E164" s="24"/>
       <c r="F164" s="24">
-        <f t="shared" ref="F164" si="15">C164+D164+E164</f>
+        <f t="shared" ref="F164" si="21">C164+D164+E164</f>
         <v>2979000</v>
       </c>
       <c r="G164" s="24">
-        <f>(F164*25%)+F164</f>
+        <f t="shared" si="14"/>
         <v>3723750</v>
       </c>
       <c r="H164" s="24">
@@ -7998,7 +7998,7 @@
       </c>
       <c r="I164" s="24"/>
       <c r="J164" s="24">
-        <f>H164-I164-F164</f>
+        <f t="shared" si="15"/>
         <v>3021000</v>
       </c>
       <c r="K164" s="25" t="s">
@@ -8020,11 +8020,11 @@
         <v>300000</v>
       </c>
       <c r="F165" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>3759000</v>
       </c>
       <c r="G165" s="24">
-        <f>(F165*25%)+F165</f>
+        <f t="shared" si="14"/>
         <v>4698750</v>
       </c>
       <c r="H165" s="24">
@@ -8032,7 +8032,7 @@
       </c>
       <c r="I165" s="24"/>
       <c r="J165" s="24">
-        <f>H165-I165-F165</f>
+        <f t="shared" si="15"/>
         <v>3041000</v>
       </c>
       <c r="N165" s="26" t="s">
@@ -8053,15 +8053,15 @@
         <v>2700000</v>
       </c>
       <c r="F166" s="73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>9860000</v>
       </c>
       <c r="G166" s="3">
-        <f>(F166*25%)+F166</f>
+        <f t="shared" si="14"/>
         <v>12325000</v>
       </c>
       <c r="J166" s="3">
-        <f>H166-I166-F166</f>
+        <f t="shared" si="15"/>
         <v>-9860000</v>
       </c>
       <c r="N166" s="9" t="s">
@@ -8083,14 +8083,14 @@
         <v>8225000</v>
       </c>
       <c r="G167" s="3">
-        <f>(F167*25%)+F167</f>
+        <f t="shared" si="14"/>
         <v>10281250</v>
       </c>
       <c r="H167" s="3">
         <v>10400000</v>
       </c>
       <c r="J167" s="3">
-        <f>H167-I167-F167</f>
+        <f t="shared" si="15"/>
         <v>2175000</v>
       </c>
       <c r="K167" s="2" t="s">
@@ -8112,18 +8112,18 @@
         <v>631200</v>
       </c>
       <c r="F168" s="73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2591200</v>
       </c>
       <c r="G168" s="3">
-        <f>(F168*25%)+F168</f>
+        <f t="shared" si="14"/>
         <v>3239000</v>
       </c>
       <c r="H168" s="3">
         <v>4200000</v>
       </c>
       <c r="J168" s="3">
-        <f>H168-I168-F168</f>
+        <f t="shared" si="15"/>
         <v>1608800</v>
       </c>
       <c r="N168" s="160" t="s">
@@ -8138,25 +8138,25 @@
         <v>1960000</v>
       </c>
       <c r="D169" s="13">
-        <f t="shared" ref="D169:D172" si="16">3156000/5</f>
+        <f t="shared" ref="D169:D172" si="22">3156000/5</f>
         <v>631200</v>
       </c>
       <c r="F169" s="73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2591200</v>
       </c>
       <c r="G169" s="3">
-        <f>(F169*25%)+F169</f>
+        <f t="shared" si="14"/>
         <v>3239000</v>
       </c>
       <c r="H169" s="3">
         <v>4200000</v>
       </c>
       <c r="J169" s="3">
-        <f>H169-I169-F169</f>
+        <f t="shared" si="15"/>
         <v>1608800</v>
       </c>
-      <c r="N169" s="163"/>
+      <c r="N169" s="162"/>
     </row>
     <row r="170" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B170" s="95" t="s">
@@ -8166,25 +8166,25 @@
         <v>1960000</v>
       </c>
       <c r="D170" s="13">
+        <f t="shared" si="22"/>
+        <v>631200</v>
+      </c>
+      <c r="F170" s="73">
         <f t="shared" si="16"/>
-        <v>631200</v>
-      </c>
-      <c r="F170" s="73">
-        <f t="shared" si="10"/>
         <v>2591200</v>
       </c>
       <c r="G170" s="3">
-        <f>(F170*25%)+F170</f>
+        <f t="shared" si="14"/>
         <v>3239000</v>
       </c>
       <c r="H170" s="3">
         <v>4500000</v>
       </c>
       <c r="J170" s="3">
-        <f>H170-I170-F170</f>
+        <f t="shared" si="15"/>
         <v>1908800</v>
       </c>
-      <c r="N170" s="163"/>
+      <c r="N170" s="162"/>
     </row>
     <row r="171" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B171" s="95" t="s">
@@ -8194,25 +8194,25 @@
         <v>1960000</v>
       </c>
       <c r="D171" s="13">
+        <f t="shared" si="22"/>
+        <v>631200</v>
+      </c>
+      <c r="F171" s="73">
         <f t="shared" si="16"/>
-        <v>631200</v>
-      </c>
-      <c r="F171" s="73">
-        <f t="shared" si="10"/>
         <v>2591200</v>
       </c>
       <c r="G171" s="3">
-        <f>(F171*25%)+F171</f>
+        <f t="shared" si="14"/>
         <v>3239000</v>
       </c>
       <c r="H171" s="3">
         <v>4500000</v>
       </c>
       <c r="J171" s="3">
-        <f>H171-I171-F171</f>
+        <f t="shared" si="15"/>
         <v>1908800</v>
       </c>
-      <c r="N171" s="163"/>
+      <c r="N171" s="162"/>
     </row>
     <row r="172" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B172" s="95" t="s">
@@ -8222,22 +8222,22 @@
         <v>1960000</v>
       </c>
       <c r="D172" s="13">
+        <f t="shared" si="22"/>
+        <v>631200</v>
+      </c>
+      <c r="F172" s="73">
         <f t="shared" si="16"/>
-        <v>631200</v>
-      </c>
-      <c r="F172" s="73">
-        <f t="shared" si="10"/>
         <v>2591200</v>
       </c>
       <c r="G172" s="3">
-        <f>(F172*25%)+F172</f>
+        <f t="shared" si="14"/>
         <v>3239000</v>
       </c>
       <c r="H172" s="3">
         <v>4500000</v>
       </c>
       <c r="J172" s="3">
-        <f>H172-I172-F172</f>
+        <f t="shared" si="15"/>
         <v>1908800</v>
       </c>
       <c r="N172" s="161"/>
@@ -8250,31 +8250,31 @@
         <v>2205000</v>
       </c>
       <c r="D173" s="81">
-        <f t="shared" ref="D173:D175" si="17">4261000/5</f>
+        <f t="shared" ref="D173:D175" si="23">4261000/5</f>
         <v>852200</v>
       </c>
       <c r="E173" s="3">
         <v>200000</v>
       </c>
       <c r="F173" s="73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>3257200</v>
       </c>
       <c r="G173" s="3">
-        <f>(F173*25%)+F173</f>
+        <f t="shared" si="14"/>
         <v>4071500</v>
       </c>
       <c r="H173" s="3">
         <v>5500000</v>
       </c>
       <c r="J173" s="3">
-        <f>H173-I173-F173</f>
+        <f t="shared" si="15"/>
         <v>2242800</v>
       </c>
       <c r="N173" s="160" t="s">
         <v>383</v>
       </c>
-      <c r="O173" s="148">
+      <c r="O173" s="170">
         <v>735</v>
       </c>
     </row>
@@ -8286,29 +8286,29 @@
         <v>2205000</v>
       </c>
       <c r="D174" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>852200</v>
       </c>
       <c r="E174" s="3">
         <v>800000</v>
       </c>
       <c r="F174" s="73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>3857200</v>
       </c>
       <c r="G174" s="3">
-        <f>(F174*25%)+F174</f>
+        <f t="shared" si="14"/>
         <v>4821500</v>
       </c>
       <c r="H174" s="3">
         <v>5500000</v>
       </c>
       <c r="J174" s="3">
-        <f>H174-I174-F174</f>
+        <f t="shared" si="15"/>
         <v>1642800</v>
       </c>
-      <c r="N174" s="163"/>
-      <c r="O174" s="149"/>
+      <c r="N174" s="162"/>
+      <c r="O174" s="171"/>
     </row>
     <row r="175" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B175" s="95" t="s">
@@ -8318,7 +8318,7 @@
         <v>1715000</v>
       </c>
       <c r="D175" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>852200</v>
       </c>
       <c r="F175" s="73">
@@ -8326,18 +8326,18 @@
         <v>2567200</v>
       </c>
       <c r="G175" s="3">
-        <f>(F175*25%)+F175</f>
+        <f t="shared" si="14"/>
         <v>3209000</v>
       </c>
       <c r="H175" s="3">
         <v>4000000</v>
       </c>
       <c r="J175" s="3">
-        <f>H175-I175-F175</f>
+        <f t="shared" si="15"/>
         <v>1432800</v>
       </c>
-      <c r="N175" s="163"/>
-      <c r="O175" s="149"/>
+      <c r="N175" s="162"/>
+      <c r="O175" s="171"/>
     </row>
     <row r="176" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B176" s="95" t="s">
@@ -8351,22 +8351,22 @@
         <v>852200</v>
       </c>
       <c r="F176" s="73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6977200</v>
       </c>
       <c r="G176" s="3">
-        <f>(F176*25%)+F176</f>
+        <f t="shared" si="14"/>
         <v>8721500</v>
       </c>
       <c r="H176" s="3">
         <v>8000000</v>
       </c>
       <c r="J176" s="3">
-        <f>H176-I176-F176</f>
+        <f t="shared" si="15"/>
         <v>1022800</v>
       </c>
-      <c r="N176" s="163"/>
-      <c r="O176" s="149"/>
+      <c r="N176" s="162"/>
+      <c r="O176" s="171"/>
     </row>
     <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B177" s="95" t="s">
@@ -8380,22 +8380,22 @@
         <v>852200</v>
       </c>
       <c r="F177" s="73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>8202200</v>
       </c>
       <c r="G177" s="3">
-        <f>(F177*25%)+F177</f>
+        <f t="shared" si="14"/>
         <v>10252750</v>
       </c>
       <c r="H177" s="3">
         <v>12400000</v>
       </c>
       <c r="J177" s="3">
-        <f>H177-I177-F177</f>
+        <f t="shared" si="15"/>
         <v>4197800</v>
       </c>
       <c r="N177" s="161"/>
-      <c r="O177" s="150"/>
+      <c r="O177" s="172"/>
     </row>
     <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B178" s="95" t="s">
@@ -8408,18 +8408,18 @@
         <v>737000</v>
       </c>
       <c r="F178" s="73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6134000</v>
       </c>
       <c r="G178" s="3">
-        <f>(F178*25%)+F178</f>
+        <f t="shared" si="14"/>
         <v>7667500</v>
       </c>
       <c r="H178" s="3">
         <v>7500000</v>
       </c>
       <c r="J178" s="3">
-        <f>H178-I178-F178</f>
+        <f t="shared" si="15"/>
         <v>1366000</v>
       </c>
       <c r="N178" s="9" t="s">
@@ -8437,15 +8437,15 @@
         <v>23000</v>
       </c>
       <c r="F179" s="73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1234798</v>
       </c>
       <c r="G179" s="3">
-        <f>(F179*25%)+F179</f>
+        <f t="shared" si="14"/>
         <v>1543497.5</v>
       </c>
       <c r="J179" s="3">
-        <f>H179-I179-F179</f>
+        <f t="shared" si="15"/>
         <v>-1234798</v>
       </c>
       <c r="N179" s="9" t="s">
@@ -8463,15 +8463,15 @@
         <v>92000</v>
       </c>
       <c r="F180" s="73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2612000</v>
       </c>
       <c r="G180" s="3">
-        <f>(F180*25%)+F180</f>
+        <f t="shared" si="14"/>
         <v>3265000</v>
       </c>
       <c r="J180" s="3">
-        <f>H180-I180-F180</f>
+        <f t="shared" si="15"/>
         <v>-2612000</v>
       </c>
     </row>
@@ -8489,11 +8489,11 @@
       </c>
       <c r="E181" s="92"/>
       <c r="F181" s="73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2903400</v>
       </c>
       <c r="G181" s="3">
-        <f>(F181*25%)+F181</f>
+        <f t="shared" si="14"/>
         <v>3629250</v>
       </c>
       <c r="H181" s="92">
@@ -8501,16 +8501,16 @@
       </c>
       <c r="I181" s="92"/>
       <c r="J181" s="3">
-        <f>H181-I181-F181</f>
+        <f t="shared" si="15"/>
         <v>1596600</v>
       </c>
       <c r="K181" s="91"/>
       <c r="L181" s="91"/>
       <c r="M181" s="91"/>
-      <c r="N181" s="157" t="s">
+      <c r="N181" s="176" t="s">
         <v>377</v>
       </c>
-      <c r="O181" s="148">
+      <c r="O181" s="170">
         <v>640</v>
       </c>
     </row>
@@ -8523,16 +8523,16 @@
         <v>2125000</v>
       </c>
       <c r="D182" s="92">
-        <f t="shared" ref="D182:D185" si="18">3892000/5</f>
+        <f t="shared" ref="D182:D185" si="24">3892000/5</f>
         <v>778400</v>
       </c>
       <c r="E182" s="92"/>
       <c r="F182" s="73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2903400</v>
       </c>
       <c r="G182" s="3">
-        <f>(F182*25%)+F182</f>
+        <f t="shared" si="14"/>
         <v>3629250</v>
       </c>
       <c r="H182" s="92">
@@ -8540,14 +8540,14 @@
       </c>
       <c r="I182" s="92"/>
       <c r="J182" s="3">
-        <f>H182-I182-F182</f>
+        <f t="shared" si="15"/>
         <v>1596600</v>
       </c>
       <c r="K182" s="91"/>
       <c r="L182" s="91"/>
       <c r="M182" s="91"/>
-      <c r="N182" s="158"/>
-      <c r="O182" s="149"/>
+      <c r="N182" s="177"/>
+      <c r="O182" s="171"/>
     </row>
     <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="91"/>
@@ -8558,16 +8558,16 @@
         <v>2125000</v>
       </c>
       <c r="D183" s="92">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>778400</v>
       </c>
       <c r="E183" s="92"/>
       <c r="F183" s="73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2903400</v>
       </c>
       <c r="G183" s="3">
-        <f>(F183*25%)+F183</f>
+        <f t="shared" si="14"/>
         <v>3629250</v>
       </c>
       <c r="H183" s="92">
@@ -8575,14 +8575,14 @@
       </c>
       <c r="I183" s="92"/>
       <c r="J183" s="3">
-        <f>H183-I183-F183</f>
+        <f t="shared" si="15"/>
         <v>1596600</v>
       </c>
       <c r="K183" s="91"/>
       <c r="L183" s="91"/>
       <c r="M183" s="91"/>
-      <c r="N183" s="158"/>
-      <c r="O183" s="149"/>
+      <c r="N183" s="177"/>
+      <c r="O183" s="171"/>
     </row>
     <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="91"/>
@@ -8593,16 +8593,16 @@
         <v>2125000</v>
       </c>
       <c r="D184" s="92">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>778400</v>
       </c>
       <c r="E184" s="92"/>
       <c r="F184" s="73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2903400</v>
       </c>
       <c r="G184" s="3">
-        <f>(F184*25%)+F184</f>
+        <f t="shared" si="14"/>
         <v>3629250</v>
       </c>
       <c r="H184" s="92">
@@ -8610,14 +8610,14 @@
       </c>
       <c r="I184" s="92"/>
       <c r="J184" s="3">
-        <f>H184-I184-F184</f>
+        <f t="shared" si="15"/>
         <v>1596600</v>
       </c>
       <c r="K184" s="91"/>
       <c r="L184" s="91"/>
       <c r="M184" s="91"/>
-      <c r="N184" s="158"/>
-      <c r="O184" s="149"/>
+      <c r="N184" s="177"/>
+      <c r="O184" s="171"/>
     </row>
     <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="91"/>
@@ -8628,16 +8628,16 @@
         <v>7500000</v>
       </c>
       <c r="D185" s="92">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>778400</v>
       </c>
       <c r="E185" s="92"/>
       <c r="F185" s="73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>8278400</v>
       </c>
       <c r="G185" s="3">
-        <f>(F185*25%)+F185</f>
+        <f t="shared" si="14"/>
         <v>10348000</v>
       </c>
       <c r="H185" s="92">
@@ -8645,14 +8645,14 @@
       </c>
       <c r="I185" s="92"/>
       <c r="J185" s="3">
-        <f>H185-I185-F185</f>
+        <f t="shared" si="15"/>
         <v>3471600</v>
       </c>
       <c r="K185" s="91"/>
       <c r="L185" s="91"/>
       <c r="M185" s="91"/>
-      <c r="N185" s="159"/>
-      <c r="O185" s="150"/>
+      <c r="N185" s="178"/>
+      <c r="O185" s="172"/>
     </row>
     <row r="186" spans="1:15" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B186" s="129" t="s">
@@ -8669,11 +8669,11 @@
         <v>800000</v>
       </c>
       <c r="F186" s="92">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>5871000</v>
       </c>
       <c r="G186" s="92">
-        <f>(F186*25%)+F186</f>
+        <f t="shared" si="14"/>
         <v>7338750</v>
       </c>
       <c r="H186" s="92">
@@ -8681,7 +8681,7 @@
       </c>
       <c r="I186" s="92"/>
       <c r="J186" s="92">
-        <f>H186-I186-F186</f>
+        <f t="shared" si="15"/>
         <v>829000</v>
       </c>
       <c r="N186" s="160" t="s">
@@ -8700,18 +8700,18 @@
         <v>921000</v>
       </c>
       <c r="F187" s="73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>5071000</v>
       </c>
       <c r="G187" s="3">
-        <f>(F187*25%)+F187</f>
+        <f t="shared" si="14"/>
         <v>6338750</v>
       </c>
       <c r="H187" s="3">
         <v>6500000</v>
       </c>
       <c r="J187" s="3">
-        <f>H187-I187-F187</f>
+        <f t="shared" si="15"/>
         <v>1429000</v>
       </c>
       <c r="N187" s="161"/>
@@ -8730,17 +8730,17 @@
         <v>500000</v>
       </c>
       <c r="F188" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>8770000</v>
       </c>
       <c r="G188" s="35">
-        <f>(F188*25%)+F188</f>
+        <f t="shared" si="14"/>
         <v>10962500</v>
       </c>
       <c r="H188" s="35"/>
       <c r="I188" s="35"/>
       <c r="J188" s="35">
-        <f>H188-I188-F188</f>
+        <f t="shared" si="15"/>
         <v>-8770000</v>
       </c>
       <c r="N188" s="136" t="s">
@@ -8752,7 +8752,7 @@
         <v>386</v>
       </c>
       <c r="C189" s="39">
-        <f t="shared" ref="C189:C193" si="19">O189*25000</f>
+        <f t="shared" ref="C189:C193" si="25">O189*25000</f>
         <v>7250000</v>
       </c>
       <c r="D189" s="7">
@@ -8761,11 +8761,11 @@
       </c>
       <c r="E189" s="7"/>
       <c r="F189" s="73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>8010000</v>
       </c>
       <c r="G189" s="3">
-        <f>(F189*25%)+F189</f>
+        <f t="shared" si="14"/>
         <v>10012500</v>
       </c>
       <c r="H189" s="7">
@@ -8773,10 +8773,10 @@
       </c>
       <c r="I189" s="7"/>
       <c r="J189" s="3">
-        <f>H189-I189-F189</f>
+        <f t="shared" si="15"/>
         <v>6490000</v>
       </c>
-      <c r="N189" s="151" t="s">
+      <c r="N189" s="156" t="s">
         <v>387</v>
       </c>
       <c r="O189" s="131">
@@ -8788,20 +8788,20 @@
         <v>386</v>
       </c>
       <c r="C190" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>7250000</v>
       </c>
       <c r="D190" s="7">
-        <f t="shared" ref="D190:D193" si="20">3800000/5</f>
+        <f t="shared" ref="D190:D193" si="26">3800000/5</f>
         <v>760000</v>
       </c>
       <c r="E190" s="7"/>
       <c r="F190" s="73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>8010000</v>
       </c>
       <c r="G190" s="3">
-        <f>(F190*25%)+F190</f>
+        <f t="shared" si="14"/>
         <v>10012500</v>
       </c>
       <c r="H190" s="7">
@@ -8809,10 +8809,10 @@
       </c>
       <c r="I190" s="7"/>
       <c r="J190" s="3">
-        <f>H190-I190-F190</f>
+        <f t="shared" si="15"/>
         <v>4990000</v>
       </c>
-      <c r="N190" s="152"/>
+      <c r="N190" s="157"/>
       <c r="O190" s="132">
         <v>290</v>
       </c>
@@ -8822,20 +8822,20 @@
         <v>385</v>
       </c>
       <c r="C191" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>2250000</v>
       </c>
       <c r="D191" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>760000</v>
       </c>
       <c r="E191" s="7"/>
       <c r="F191" s="73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>3010000</v>
       </c>
       <c r="G191" s="3">
-        <f>(F191*25%)+F191</f>
+        <f t="shared" si="14"/>
         <v>3762500</v>
       </c>
       <c r="H191" s="7">
@@ -8843,10 +8843,10 @@
       </c>
       <c r="I191" s="7"/>
       <c r="J191" s="3">
-        <f>H191-I191-F191</f>
+        <f t="shared" si="15"/>
         <v>4490000</v>
       </c>
-      <c r="N191" s="152"/>
+      <c r="N191" s="157"/>
       <c r="O191" s="132">
         <v>90</v>
       </c>
@@ -8856,20 +8856,20 @@
         <v>385</v>
       </c>
       <c r="C192" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>2250000</v>
       </c>
       <c r="D192" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>760000</v>
       </c>
       <c r="E192" s="7"/>
       <c r="F192" s="73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>3010000</v>
       </c>
       <c r="G192" s="3">
-        <f>(F192*25%)+F192</f>
+        <f t="shared" si="14"/>
         <v>3762500</v>
       </c>
       <c r="H192" s="7">
@@ -8877,10 +8877,10 @@
       </c>
       <c r="I192" s="7"/>
       <c r="J192" s="3">
-        <f>H192-I192-F192</f>
+        <f t="shared" si="15"/>
         <v>4490000</v>
       </c>
-      <c r="N192" s="152"/>
+      <c r="N192" s="157"/>
       <c r="O192" s="132">
         <v>90</v>
       </c>
@@ -8890,20 +8890,20 @@
         <v>415</v>
       </c>
       <c r="C193" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1875000</v>
       </c>
       <c r="D193" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>760000</v>
       </c>
       <c r="E193" s="7"/>
       <c r="F193" s="73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2635000</v>
       </c>
       <c r="G193" s="3">
-        <f>(F193*25%)+F193</f>
+        <f t="shared" si="14"/>
         <v>3293750</v>
       </c>
       <c r="H193" s="7">
@@ -8911,10 +8911,10 @@
       </c>
       <c r="I193" s="7"/>
       <c r="J193" s="3">
-        <f>H193-I193-F193</f>
+        <f t="shared" si="15"/>
         <v>3365000</v>
       </c>
-      <c r="N193" s="153"/>
+      <c r="N193" s="158"/>
       <c r="O193" s="133">
         <v>75</v>
       </c>
@@ -8935,20 +8935,20 @@
         <v>500000</v>
       </c>
       <c r="F194" s="73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>3369444.4444444445</v>
       </c>
       <c r="G194" s="3">
-        <f>(F194*25%)+F194</f>
+        <f t="shared" ref="G194:G257" si="27">(F194*25%)+F194</f>
         <v>4211805.555555556</v>
       </c>
       <c r="H194" s="39"/>
       <c r="I194" s="39"/>
       <c r="J194" s="3">
-        <f>H194-I194-F194</f>
+        <f t="shared" ref="J194:J257" si="28">H194-I194-F194</f>
         <v>-3369444.4444444445</v>
       </c>
-      <c r="N194" s="154" t="s">
+      <c r="N194" s="173" t="s">
         <v>389</v>
       </c>
       <c r="O194" s="93">
@@ -8960,31 +8960,31 @@
         <v>391</v>
       </c>
       <c r="C195" s="39">
-        <f t="shared" ref="C195:C202" si="21">O195*25000</f>
+        <f t="shared" ref="C195:C202" si="29">O195*25000</f>
         <v>2750000</v>
       </c>
       <c r="D195" s="39">
-        <f t="shared" ref="D195:D202" si="22">5575000/9</f>
+        <f t="shared" ref="D195:D202" si="30">5575000/9</f>
         <v>619444.4444444445</v>
       </c>
       <c r="E195" s="39">
         <v>1260000</v>
       </c>
       <c r="F195" s="73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>4629444.444444444</v>
       </c>
       <c r="G195" s="3">
-        <f>(F195*25%)+F195</f>
+        <f t="shared" si="27"/>
         <v>5786805.555555555</v>
       </c>
       <c r="H195" s="39"/>
       <c r="I195" s="39"/>
       <c r="J195" s="3">
-        <f>H195-I195-F195</f>
+        <f t="shared" si="28"/>
         <v>-4629444.444444444</v>
       </c>
-      <c r="N195" s="155"/>
+      <c r="N195" s="174"/>
       <c r="O195" s="93">
         <v>110</v>
       </c>
@@ -8994,29 +8994,29 @@
         <v>392</v>
       </c>
       <c r="C196" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>4250000</v>
       </c>
       <c r="D196" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>619444.4444444445</v>
       </c>
       <c r="E196" s="39"/>
       <c r="F196" s="73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>4869444.444444444</v>
       </c>
       <c r="G196" s="3">
-        <f>(F196*25%)+F196</f>
+        <f t="shared" si="27"/>
         <v>6086805.555555555</v>
       </c>
       <c r="H196" s="39"/>
       <c r="I196" s="39"/>
       <c r="J196" s="3">
-        <f>H196-I196-F196</f>
+        <f t="shared" si="28"/>
         <v>-4869444.444444444</v>
       </c>
-      <c r="N196" s="155"/>
+      <c r="N196" s="174"/>
       <c r="O196" s="93">
         <v>170</v>
       </c>
@@ -9026,20 +9026,20 @@
         <v>393</v>
       </c>
       <c r="C197" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>2250000</v>
       </c>
       <c r="D197" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>619444.4444444445</v>
       </c>
       <c r="E197" s="39"/>
       <c r="F197" s="73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2869444.4444444445</v>
       </c>
       <c r="G197" s="3">
-        <f>(F197*25%)+F197</f>
+        <f t="shared" si="27"/>
         <v>3586805.5555555555</v>
       </c>
       <c r="H197" s="39">
@@ -9047,10 +9047,10 @@
       </c>
       <c r="I197" s="39"/>
       <c r="J197" s="3">
-        <f>H197-I197-F197</f>
+        <f t="shared" si="28"/>
         <v>1630555.5555555555</v>
       </c>
-      <c r="N197" s="155"/>
+      <c r="N197" s="174"/>
       <c r="O197" s="93">
         <v>90</v>
       </c>
@@ -9060,29 +9060,29 @@
         <v>394</v>
       </c>
       <c r="C198" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>1625000</v>
       </c>
       <c r="D198" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>619444.4444444445</v>
       </c>
       <c r="E198" s="39"/>
       <c r="F198" s="73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2244444.4444444445</v>
       </c>
       <c r="G198" s="3">
-        <f>(F198*25%)+F198</f>
+        <f t="shared" si="27"/>
         <v>2805555.5555555555</v>
       </c>
       <c r="H198" s="39"/>
       <c r="I198" s="39"/>
       <c r="J198" s="3">
-        <f>H198-I198-F198</f>
+        <f t="shared" si="28"/>
         <v>-2244444.4444444445</v>
       </c>
-      <c r="N198" s="155"/>
+      <c r="N198" s="174"/>
       <c r="O198" s="93">
         <v>65</v>
       </c>
@@ -9092,29 +9092,29 @@
         <v>398</v>
       </c>
       <c r="C199" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>1625000</v>
       </c>
       <c r="D199" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>619444.4444444445</v>
       </c>
       <c r="E199" s="39"/>
       <c r="F199" s="73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2244444.4444444445</v>
       </c>
       <c r="G199" s="3">
-        <f>(F199*25%)+F199</f>
+        <f t="shared" si="27"/>
         <v>2805555.5555555555</v>
       </c>
       <c r="H199" s="39"/>
       <c r="I199" s="39"/>
       <c r="J199" s="3">
-        <f>H199-I199-F199</f>
+        <f t="shared" si="28"/>
         <v>-2244444.4444444445</v>
       </c>
-      <c r="N199" s="155"/>
+      <c r="N199" s="174"/>
       <c r="O199" s="93">
         <v>65</v>
       </c>
@@ -9124,22 +9124,22 @@
         <v>395</v>
       </c>
       <c r="C200" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>1875000</v>
       </c>
       <c r="D200" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>619444.4444444445</v>
       </c>
       <c r="E200" s="39">
         <v>850000</v>
       </c>
       <c r="F200" s="73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>3344444.4444444445</v>
       </c>
       <c r="G200" s="3">
-        <f>(F200*25%)+F200</f>
+        <f t="shared" si="27"/>
         <v>4180555.5555555555</v>
       </c>
       <c r="H200" s="39">
@@ -9147,10 +9147,10 @@
       </c>
       <c r="I200" s="39"/>
       <c r="J200" s="3">
-        <f>H200-I200-F200</f>
+        <f t="shared" si="28"/>
         <v>2155555.5555555555</v>
       </c>
-      <c r="N200" s="155"/>
+      <c r="N200" s="174"/>
       <c r="O200" s="93">
         <v>75</v>
       </c>
@@ -9160,29 +9160,29 @@
         <v>396</v>
       </c>
       <c r="C201" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>2750000</v>
       </c>
       <c r="D201" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>619444.4444444445</v>
       </c>
       <c r="E201" s="39"/>
       <c r="F201" s="73">
-        <f t="shared" ref="F201:F250" si="23">C201+D201+E201</f>
+        <f t="shared" ref="F201:F250" si="31">C201+D201+E201</f>
         <v>3369444.4444444445</v>
       </c>
       <c r="G201" s="3">
-        <f>(F201*25%)+F201</f>
+        <f t="shared" si="27"/>
         <v>4211805.555555556</v>
       </c>
       <c r="H201" s="39"/>
       <c r="I201" s="39"/>
       <c r="J201" s="3">
-        <f>H201-I201-F201</f>
+        <f t="shared" si="28"/>
         <v>-3369444.4444444445</v>
       </c>
-      <c r="N201" s="155"/>
+      <c r="N201" s="174"/>
       <c r="O201" s="93">
         <v>110</v>
       </c>
@@ -9192,31 +9192,31 @@
         <v>390</v>
       </c>
       <c r="C202" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>2000000</v>
       </c>
       <c r="D202" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>619444.4444444445</v>
       </c>
       <c r="E202" s="39">
         <v>500000</v>
       </c>
       <c r="F202" s="73">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>3119444.4444444445</v>
       </c>
       <c r="G202" s="3">
-        <f>(F202*25%)+F202</f>
+        <f t="shared" si="27"/>
         <v>3899305.5555555555</v>
       </c>
       <c r="H202" s="39"/>
       <c r="I202" s="39"/>
       <c r="J202" s="3">
-        <f>H202-I202-F202</f>
+        <f t="shared" si="28"/>
         <v>-3119444.4444444445</v>
       </c>
-      <c r="N202" s="156"/>
+      <c r="N202" s="175"/>
       <c r="O202" s="93">
         <v>80</v>
       </c>
@@ -9237,20 +9237,20 @@
         <v>930000</v>
       </c>
       <c r="F203" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>11772000</v>
       </c>
       <c r="G203" s="35">
-        <f>(F203*25%)+F203</f>
+        <f t="shared" si="27"/>
         <v>14715000</v>
       </c>
       <c r="H203" s="35"/>
       <c r="I203" s="35"/>
       <c r="J203" s="35">
-        <f>H203-I203-F203</f>
+        <f t="shared" si="28"/>
         <v>-11772000</v>
       </c>
-      <c r="N203" s="146" t="s">
+      <c r="N203" s="168" t="s">
         <v>397</v>
       </c>
       <c r="O203" s="137">
@@ -9273,20 +9273,20 @@
         <v>1500000</v>
       </c>
       <c r="F204" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>11092000</v>
       </c>
       <c r="G204" s="35">
-        <f>(F204*25%)+F204</f>
+        <f t="shared" si="27"/>
         <v>13865000</v>
       </c>
       <c r="H204" s="35"/>
       <c r="I204" s="35"/>
       <c r="J204" s="35">
-        <f>H204-I204-F204</f>
+        <f t="shared" si="28"/>
         <v>-11092000</v>
       </c>
-      <c r="N204" s="147"/>
+      <c r="N204" s="169"/>
       <c r="O204" s="138">
         <v>350</v>
       </c>
@@ -9305,11 +9305,11 @@
       </c>
       <c r="E205" s="53"/>
       <c r="F205" s="73">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>2958250</v>
       </c>
       <c r="G205" s="3">
-        <f>(F205*25%)+F205</f>
+        <f t="shared" si="27"/>
         <v>3697812.5</v>
       </c>
       <c r="H205" s="53">
@@ -9317,10 +9317,10 @@
       </c>
       <c r="I205" s="53"/>
       <c r="J205" s="3">
-        <f>H205-I205-F205</f>
+        <f t="shared" si="28"/>
         <v>4041750</v>
       </c>
-      <c r="N205" s="172" t="s">
+      <c r="N205" s="153" t="s">
         <v>399</v>
       </c>
     </row>
@@ -9329,20 +9329,20 @@
         <v>7410</v>
       </c>
       <c r="C206" s="53">
-        <f t="shared" ref="C206:C207" si="24">90*25000</f>
+        <f t="shared" ref="C206:C207" si="32">90*25000</f>
         <v>2250000</v>
       </c>
       <c r="D206" s="53">
-        <f t="shared" ref="D206:D207" si="25">2833000/4</f>
+        <f t="shared" ref="D206:D207" si="33">2833000/4</f>
         <v>708250</v>
       </c>
       <c r="E206" s="53"/>
       <c r="F206" s="73">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>2958250</v>
       </c>
       <c r="G206" s="3">
-        <f>(F206*25%)+F206</f>
+        <f t="shared" si="27"/>
         <v>3697812.5</v>
       </c>
       <c r="H206" s="53">
@@ -9350,30 +9350,30 @@
       </c>
       <c r="I206" s="53"/>
       <c r="J206" s="3">
-        <f>H206-I206-F206</f>
+        <f t="shared" si="28"/>
         <v>4041750</v>
       </c>
-      <c r="N206" s="173"/>
+      <c r="N206" s="154"/>
     </row>
     <row r="207" spans="2:15" s="54" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B207" s="113">
         <v>7410</v>
       </c>
       <c r="C207" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>2250000</v>
       </c>
       <c r="D207" s="53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>708250</v>
       </c>
       <c r="E207" s="53"/>
       <c r="F207" s="73">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>2958250</v>
       </c>
       <c r="G207" s="3">
-        <f>(F207*25%)+F207</f>
+        <f t="shared" si="27"/>
         <v>3697812.5</v>
       </c>
       <c r="H207" s="53">
@@ -9381,10 +9381,10 @@
       </c>
       <c r="I207" s="53"/>
       <c r="J207" s="3">
-        <f>H207-I207-F207</f>
+        <f t="shared" si="28"/>
         <v>4041750</v>
       </c>
-      <c r="N207" s="174"/>
+      <c r="N207" s="155"/>
     </row>
     <row r="208" spans="2:15" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B208" s="134" t="s">
@@ -9400,20 +9400,20 @@
       </c>
       <c r="E208" s="81"/>
       <c r="F208" s="81">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>2583250</v>
       </c>
       <c r="G208" s="81">
-        <f>(F208*25%)+F208</f>
+        <f t="shared" si="27"/>
         <v>3229062.5</v>
       </c>
       <c r="H208" s="81"/>
       <c r="I208" s="81"/>
       <c r="J208" s="81">
-        <f>H208-I208-F208</f>
+        <f t="shared" si="28"/>
         <v>-2583250</v>
       </c>
-      <c r="N208" s="172" t="s">
+      <c r="N208" s="153" t="s">
         <v>400</v>
       </c>
     </row>
@@ -9422,20 +9422,20 @@
         <v>7400</v>
       </c>
       <c r="C209" s="53">
-        <f t="shared" ref="C209:C212" si="26">75*25000</f>
+        <f t="shared" ref="C209:C212" si="34">75*25000</f>
         <v>1875000</v>
       </c>
       <c r="D209" s="53">
-        <f t="shared" ref="D209:D212" si="27">2810000/4</f>
+        <f t="shared" ref="D209:D212" si="35">2810000/4</f>
         <v>702500</v>
       </c>
       <c r="E209" s="53"/>
       <c r="F209" s="73">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>2577500</v>
       </c>
       <c r="G209" s="3">
-        <f>(F209*25%)+F209</f>
+        <f t="shared" si="27"/>
         <v>3221875</v>
       </c>
       <c r="H209" s="53">
@@ -9443,30 +9443,30 @@
       </c>
       <c r="I209" s="53"/>
       <c r="J209" s="3">
-        <f>H209-I209-F209</f>
+        <f t="shared" si="28"/>
         <v>3422500</v>
       </c>
-      <c r="N209" s="173"/>
+      <c r="N209" s="154"/>
     </row>
     <row r="210" spans="2:15" s="54" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B210" s="113">
         <v>7400</v>
       </c>
       <c r="C210" s="53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>1875000</v>
       </c>
       <c r="D210" s="53">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>702500</v>
       </c>
       <c r="E210" s="53"/>
       <c r="F210" s="73">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>2577500</v>
       </c>
       <c r="G210" s="3">
-        <f>(F210*25%)+F210</f>
+        <f t="shared" si="27"/>
         <v>3221875</v>
       </c>
       <c r="H210" s="53">
@@ -9474,30 +9474,30 @@
       </c>
       <c r="I210" s="53"/>
       <c r="J210" s="3">
-        <f>H210-I210-F210</f>
+        <f t="shared" si="28"/>
         <v>3422500</v>
       </c>
-      <c r="N210" s="173"/>
+      <c r="N210" s="154"/>
     </row>
     <row r="211" spans="2:15" s="54" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B211" s="113">
         <v>7400</v>
       </c>
       <c r="C211" s="53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>1875000</v>
       </c>
       <c r="D211" s="53">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>702500</v>
       </c>
       <c r="E211" s="53"/>
       <c r="F211" s="73">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>2577500</v>
       </c>
       <c r="G211" s="3">
-        <f>(F211*25%)+F211</f>
+        <f t="shared" si="27"/>
         <v>3221875</v>
       </c>
       <c r="H211" s="53">
@@ -9505,30 +9505,30 @@
       </c>
       <c r="I211" s="53"/>
       <c r="J211" s="3">
-        <f>H211-I211-F211</f>
+        <f t="shared" si="28"/>
         <v>3422500</v>
       </c>
-      <c r="N211" s="173"/>
+      <c r="N211" s="154"/>
     </row>
     <row r="212" spans="2:15" s="54" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B212" s="113">
         <v>7400</v>
       </c>
       <c r="C212" s="53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>1875000</v>
       </c>
       <c r="D212" s="53">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>702500</v>
       </c>
       <c r="E212" s="53"/>
       <c r="F212" s="73">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>2577500</v>
       </c>
       <c r="G212" s="3">
-        <f>(F212*25%)+F212</f>
+        <f t="shared" si="27"/>
         <v>3221875</v>
       </c>
       <c r="H212" s="53">
@@ -9536,10 +9536,10 @@
       </c>
       <c r="I212" s="53"/>
       <c r="J212" s="3">
-        <f>H212-I212-F212</f>
+        <f t="shared" si="28"/>
         <v>3422500</v>
       </c>
-      <c r="N212" s="174"/>
+      <c r="N212" s="155"/>
     </row>
     <row r="213" spans="2:15" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B213" s="96" t="s">
@@ -9555,11 +9555,11 @@
       </c>
       <c r="E213" s="7"/>
       <c r="F213" s="73">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>10250000</v>
       </c>
       <c r="G213" s="3">
-        <f>(F213*25%)+F213</f>
+        <f t="shared" si="27"/>
         <v>12812500</v>
       </c>
       <c r="H213" s="7">
@@ -9567,10 +9567,10 @@
       </c>
       <c r="I213" s="7"/>
       <c r="J213" s="3">
-        <f>H213-I213-F213</f>
+        <f t="shared" si="28"/>
         <v>2750000</v>
       </c>
-      <c r="N213" s="151" t="s">
+      <c r="N213" s="156" t="s">
         <v>402</v>
       </c>
     </row>
@@ -9579,20 +9579,20 @@
         <v>401</v>
       </c>
       <c r="C214" s="7">
-        <f t="shared" ref="C214:C215" si="28">375*25000</f>
+        <f t="shared" ref="C214:C215" si="36">375*25000</f>
         <v>9375000</v>
       </c>
       <c r="D214" s="7">
-        <f t="shared" ref="D214:D215" si="29">2625000/3</f>
+        <f t="shared" ref="D214:D215" si="37">2625000/3</f>
         <v>875000</v>
       </c>
       <c r="E214" s="7"/>
       <c r="F214" s="73">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>10250000</v>
       </c>
       <c r="G214" s="3">
-        <f>(F214*25%)+F214</f>
+        <f t="shared" si="27"/>
         <v>12812500</v>
       </c>
       <c r="H214" s="7">
@@ -9600,41 +9600,41 @@
       </c>
       <c r="I214" s="7"/>
       <c r="J214" s="3">
-        <f>H214-I214-F214</f>
+        <f t="shared" si="28"/>
         <v>1750000</v>
       </c>
-      <c r="N214" s="152"/>
+      <c r="N214" s="157"/>
     </row>
     <row r="215" spans="2:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B215" s="96" t="s">
         <v>439</v>
       </c>
       <c r="C215" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>9375000</v>
       </c>
       <c r="D215" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>875000</v>
       </c>
       <c r="E215" s="7">
         <v>950000</v>
       </c>
       <c r="F215" s="73">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>11200000</v>
       </c>
       <c r="G215" s="3">
-        <f>(F215*25%)+F215</f>
+        <f t="shared" si="27"/>
         <v>14000000</v>
       </c>
       <c r="H215" s="7"/>
       <c r="I215" s="7"/>
       <c r="J215" s="3">
-        <f>H215-I215-F215</f>
+        <f t="shared" si="28"/>
         <v>-11200000</v>
       </c>
-      <c r="N215" s="153"/>
+      <c r="N215" s="158"/>
     </row>
     <row r="216" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B216" s="95" t="s">
@@ -9648,18 +9648,18 @@
         <v>1128000</v>
       </c>
       <c r="F216" s="73">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>16128000</v>
       </c>
       <c r="G216" s="3">
-        <f>(F216*25%)+F216</f>
+        <f t="shared" si="27"/>
         <v>20160000</v>
       </c>
       <c r="H216" s="3">
         <v>20500000</v>
       </c>
       <c r="J216" s="3">
-        <f>H216-I216-F216</f>
+        <f t="shared" si="28"/>
         <v>4372000</v>
       </c>
       <c r="N216" s="9" t="s">
@@ -9678,18 +9678,18 @@
         <v>1220000</v>
       </c>
       <c r="F217" s="73">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>13720000</v>
       </c>
       <c r="G217" s="3">
-        <f>(F217*25%)+F217</f>
+        <f t="shared" si="27"/>
         <v>17150000</v>
       </c>
       <c r="H217" s="3">
         <v>18500000</v>
       </c>
       <c r="J217" s="3">
-        <f>H217-I217-F217</f>
+        <f t="shared" si="28"/>
         <v>4780000</v>
       </c>
       <c r="N217" s="9" t="s">
@@ -9709,17 +9709,17 @@
       </c>
       <c r="E218" s="81"/>
       <c r="F218" s="81">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>5898000</v>
       </c>
       <c r="G218" s="81">
-        <f>(F218*25%)+F218</f>
+        <f t="shared" si="27"/>
         <v>7372500</v>
       </c>
       <c r="H218" s="81"/>
       <c r="I218" s="81"/>
       <c r="J218" s="81">
-        <f>H218-I218-F218</f>
+        <f t="shared" si="28"/>
         <v>-5898000</v>
       </c>
       <c r="N218" s="83" t="s">
@@ -9742,17 +9742,17 @@
         <v>1000000</v>
       </c>
       <c r="F219" s="73">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>3897600</v>
       </c>
       <c r="G219" s="3">
-        <f>(F219*25%)+F219</f>
+        <f t="shared" si="27"/>
         <v>4872000</v>
       </c>
       <c r="H219" s="7"/>
       <c r="I219" s="7"/>
       <c r="J219" s="3">
-        <f>H219-I219-F219</f>
+        <f t="shared" si="28"/>
         <v>-3897600</v>
       </c>
       <c r="N219" s="10" t="s">
@@ -9767,29 +9767,29 @@
         <v>408</v>
       </c>
       <c r="C220" s="7">
-        <f t="shared" ref="C220:C250" si="30">O220*25000</f>
+        <f t="shared" ref="C220:C250" si="38">O220*25000</f>
         <v>2225000</v>
       </c>
       <c r="D220" s="7">
-        <f t="shared" ref="D220:D225" si="31">3363000/5</f>
+        <f t="shared" ref="D220:D225" si="39">3363000/5</f>
         <v>672600</v>
       </c>
       <c r="E220" s="7"/>
       <c r="F220" s="73">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>2897600</v>
       </c>
       <c r="G220" s="3">
-        <f>(F220*25%)+F220</f>
+        <f t="shared" si="27"/>
         <v>3622000</v>
       </c>
       <c r="H220" s="7"/>
       <c r="I220" s="7"/>
       <c r="J220" s="3">
-        <f>H220-I220-F220</f>
+        <f t="shared" si="28"/>
         <v>-2897600</v>
       </c>
-      <c r="N220" s="151" t="s">
+      <c r="N220" s="156" t="s">
         <v>410</v>
       </c>
       <c r="O220" s="6">
@@ -9801,22 +9801,22 @@
         <v>7390</v>
       </c>
       <c r="C221" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>1750000</v>
       </c>
       <c r="D221" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>672600</v>
       </c>
       <c r="E221" s="7">
         <v>150000</v>
       </c>
       <c r="F221" s="73">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>2572600</v>
       </c>
       <c r="G221" s="3">
-        <f>(F221*25%)+F221</f>
+        <f t="shared" si="27"/>
         <v>3215750</v>
       </c>
       <c r="H221" s="7">
@@ -9824,10 +9824,10 @@
       </c>
       <c r="I221" s="7"/>
       <c r="J221" s="3">
-        <f>H221-I221-F221</f>
+        <f t="shared" si="28"/>
         <v>1927400</v>
       </c>
-      <c r="N221" s="152"/>
+      <c r="N221" s="157"/>
       <c r="O221" s="6">
         <v>70</v>
       </c>
@@ -9837,22 +9837,22 @@
         <v>7390</v>
       </c>
       <c r="C222" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>1750000</v>
       </c>
       <c r="D222" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>672600</v>
       </c>
       <c r="E222" s="7">
         <v>150000</v>
       </c>
       <c r="F222" s="73">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>2572600</v>
       </c>
       <c r="G222" s="3">
-        <f>(F222*25%)+F222</f>
+        <f t="shared" si="27"/>
         <v>3215750</v>
       </c>
       <c r="H222" s="7">
@@ -9860,10 +9860,10 @@
       </c>
       <c r="I222" s="7"/>
       <c r="J222" s="3">
-        <f>H222-I222-F222</f>
+        <f t="shared" si="28"/>
         <v>1927400</v>
       </c>
-      <c r="N222" s="152"/>
+      <c r="N222" s="157"/>
       <c r="O222" s="6">
         <v>70</v>
       </c>
@@ -9873,29 +9873,29 @@
         <v>434</v>
       </c>
       <c r="C223" s="24">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>2500000</v>
       </c>
       <c r="D223" s="24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>672600</v>
       </c>
       <c r="E223" s="24"/>
       <c r="F223" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>3172600</v>
       </c>
       <c r="G223" s="24">
-        <f>(F223*25%)+F223</f>
+        <f t="shared" si="27"/>
         <v>3965750</v>
       </c>
       <c r="H223" s="24"/>
       <c r="I223" s="24"/>
       <c r="J223" s="24">
-        <f>H223-I223-F223</f>
+        <f t="shared" si="28"/>
         <v>-3172600</v>
       </c>
-      <c r="N223" s="152"/>
+      <c r="N223" s="157"/>
       <c r="O223" s="25">
         <v>100</v>
       </c>
@@ -9905,22 +9905,22 @@
         <v>7410</v>
       </c>
       <c r="C224" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>2500000</v>
       </c>
       <c r="D224" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>672600</v>
       </c>
       <c r="E224" s="7">
         <v>300000</v>
       </c>
       <c r="F224" s="73">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>3472600</v>
       </c>
       <c r="G224" s="3">
-        <f>(F224*25%)+F224</f>
+        <f t="shared" si="27"/>
         <v>4340750</v>
       </c>
       <c r="H224" s="7">
@@ -9928,10 +9928,10 @@
       </c>
       <c r="I224" s="7"/>
       <c r="J224" s="3">
-        <f>H224-I224-F224</f>
+        <f t="shared" si="28"/>
         <v>3227400</v>
       </c>
-      <c r="N224" s="152"/>
+      <c r="N224" s="157"/>
       <c r="O224" s="6">
         <v>100</v>
       </c>
@@ -9941,22 +9941,22 @@
         <v>7410</v>
       </c>
       <c r="C225" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>2500000</v>
       </c>
       <c r="D225" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>672600</v>
       </c>
       <c r="E225" s="7">
         <v>300000</v>
       </c>
       <c r="F225" s="73">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>3472600</v>
       </c>
       <c r="G225" s="3">
-        <f>(F225*25%)+F225</f>
+        <f t="shared" si="27"/>
         <v>4340750</v>
       </c>
       <c r="H225" s="7">
@@ -9964,10 +9964,10 @@
       </c>
       <c r="I225" s="7"/>
       <c r="J225" s="3">
-        <f>H225-I225-F225</f>
+        <f t="shared" si="28"/>
         <v>3727400</v>
       </c>
-      <c r="N225" s="153"/>
+      <c r="N225" s="158"/>
       <c r="O225" s="6">
         <v>100</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>411</v>
       </c>
       <c r="C226" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>7500000</v>
       </c>
       <c r="D226" s="3">
@@ -9987,15 +9987,15 @@
         <v>1520000</v>
       </c>
       <c r="F226" s="73">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>9665000</v>
       </c>
       <c r="G226" s="3">
-        <f>(F226*25%)+F226</f>
+        <f t="shared" si="27"/>
         <v>12081250</v>
       </c>
       <c r="J226" s="3">
-        <f>H226-I226-F226</f>
+        <f t="shared" si="28"/>
         <v>-9665000</v>
       </c>
       <c r="N226" s="9" t="s">
@@ -10010,7 +10010,7 @@
         <v>413</v>
       </c>
       <c r="C227" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>6250000</v>
       </c>
       <c r="D227" s="3">
@@ -10020,18 +10020,18 @@
         <v>600000</v>
       </c>
       <c r="F227" s="73">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>7518000</v>
       </c>
       <c r="G227" s="3">
-        <f>(F227*25%)+F227</f>
+        <f t="shared" si="27"/>
         <v>9397500</v>
       </c>
       <c r="H227" s="3">
         <v>8500000</v>
       </c>
       <c r="J227" s="3">
-        <f>H227-I227-F227</f>
+        <f t="shared" si="28"/>
         <v>982000</v>
       </c>
       <c r="N227" s="9" t="s">
@@ -10046,7 +10046,7 @@
         <v>417</v>
       </c>
       <c r="C228" s="21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>2250000</v>
       </c>
       <c r="D228" s="21">
@@ -10057,11 +10057,11 @@
         <v>300000</v>
       </c>
       <c r="F228" s="73">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>3167400</v>
       </c>
       <c r="G228" s="3">
-        <f>(F228*25%)+F228</f>
+        <f t="shared" si="27"/>
         <v>3959250</v>
       </c>
       <c r="H228" s="21">
@@ -10069,10 +10069,10 @@
       </c>
       <c r="I228" s="21"/>
       <c r="J228" s="21">
-        <f>H228-I228-F228</f>
+        <f t="shared" si="28"/>
         <v>1832600</v>
       </c>
-      <c r="N228" s="169" t="s">
+      <c r="N228" s="150" t="s">
         <v>425</v>
       </c>
       <c r="O228" s="140">
@@ -10084,11 +10084,11 @@
         <v>418</v>
       </c>
       <c r="C229" s="21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>2500000</v>
       </c>
       <c r="D229" s="21">
-        <f t="shared" ref="D229:D232" si="32">3087000/5</f>
+        <f t="shared" ref="D229:D232" si="40">3087000/5</f>
         <v>617400</v>
       </c>
       <c r="E229" s="21">
@@ -10099,7 +10099,7 @@
         <v>4047400</v>
       </c>
       <c r="G229" s="3">
-        <f>(F229*25%)+F229</f>
+        <f t="shared" si="27"/>
         <v>5059250</v>
       </c>
       <c r="H229" s="21">
@@ -10107,10 +10107,10 @@
       </c>
       <c r="I229" s="21"/>
       <c r="J229" s="21">
-        <f>H229-I229-F229</f>
+        <f t="shared" si="28"/>
         <v>952600</v>
       </c>
-      <c r="N229" s="170"/>
+      <c r="N229" s="151"/>
       <c r="O229" s="140">
         <v>100</v>
       </c>
@@ -10120,11 +10120,11 @@
         <v>419</v>
       </c>
       <c r="C230" s="21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>2500000</v>
       </c>
       <c r="D230" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>617400</v>
       </c>
       <c r="E230" s="21">
@@ -10135,7 +10135,7 @@
         <v>4047400</v>
       </c>
       <c r="G230" s="3">
-        <f>(F230*25%)+F230</f>
+        <f t="shared" si="27"/>
         <v>5059250</v>
       </c>
       <c r="H230" s="21">
@@ -10143,10 +10143,10 @@
       </c>
       <c r="I230" s="21"/>
       <c r="J230" s="21">
-        <f>H230-I230-F230</f>
+        <f t="shared" si="28"/>
         <v>952600</v>
       </c>
-      <c r="N230" s="170"/>
+      <c r="N230" s="151"/>
       <c r="O230" s="140">
         <v>100</v>
       </c>
@@ -10156,11 +10156,11 @@
         <v>418</v>
       </c>
       <c r="C231" s="21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>2500000</v>
       </c>
       <c r="D231" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>617400</v>
       </c>
       <c r="E231" s="21">
@@ -10171,7 +10171,7 @@
         <v>4047400</v>
       </c>
       <c r="G231" s="3">
-        <f>(F231*25%)+F231</f>
+        <f t="shared" si="27"/>
         <v>5059250</v>
       </c>
       <c r="H231" s="21">
@@ -10179,10 +10179,10 @@
       </c>
       <c r="I231" s="21"/>
       <c r="J231" s="21">
-        <f>H231-I231-F231</f>
+        <f t="shared" si="28"/>
         <v>952600</v>
       </c>
-      <c r="N231" s="170"/>
+      <c r="N231" s="151"/>
       <c r="O231" s="140">
         <v>100</v>
       </c>
@@ -10192,11 +10192,11 @@
         <v>418</v>
       </c>
       <c r="C232" s="21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>2500000</v>
       </c>
       <c r="D232" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>617400</v>
       </c>
       <c r="E232" s="21">
@@ -10207,7 +10207,7 @@
         <v>4047400</v>
       </c>
       <c r="G232" s="3">
-        <f>(F232*25%)+F232</f>
+        <f t="shared" si="27"/>
         <v>5059250</v>
       </c>
       <c r="H232" s="21">
@@ -10215,10 +10215,10 @@
       </c>
       <c r="I232" s="21"/>
       <c r="J232" s="21">
-        <f>H232-I232-F232</f>
+        <f t="shared" si="28"/>
         <v>952600</v>
       </c>
-      <c r="N232" s="171"/>
+      <c r="N232" s="152"/>
       <c r="O232" s="140">
         <v>100</v>
       </c>
@@ -10228,7 +10228,7 @@
         <v>418</v>
       </c>
       <c r="C233" s="53">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>2500000</v>
       </c>
       <c r="D233" s="53">
@@ -10237,20 +10237,20 @@
       </c>
       <c r="E233" s="53"/>
       <c r="F233" s="73">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>3122000</v>
       </c>
       <c r="G233" s="3">
-        <f>(F233*25%)+F233</f>
+        <f t="shared" si="27"/>
         <v>3902500</v>
       </c>
       <c r="H233" s="53"/>
       <c r="I233" s="53"/>
       <c r="J233" s="21">
-        <f>H233-I233-F233</f>
+        <f t="shared" si="28"/>
         <v>-3122000</v>
       </c>
-      <c r="N233" s="172" t="s">
+      <c r="N233" s="153" t="s">
         <v>426</v>
       </c>
       <c r="O233" s="139">
@@ -10262,29 +10262,29 @@
         <v>420</v>
       </c>
       <c r="C234" s="53">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>2250000</v>
       </c>
       <c r="D234" s="53">
-        <f t="shared" ref="D234:D240" si="33">4976000/8</f>
+        <f t="shared" ref="D234:D240" si="41">4976000/8</f>
         <v>622000</v>
       </c>
       <c r="E234" s="53"/>
       <c r="F234" s="73">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>2872000</v>
       </c>
       <c r="G234" s="3">
-        <f>(F234*25%)+F234</f>
+        <f t="shared" si="27"/>
         <v>3590000</v>
       </c>
       <c r="H234" s="53"/>
       <c r="I234" s="53"/>
       <c r="J234" s="21">
-        <f>H234-I234-F234</f>
+        <f t="shared" si="28"/>
         <v>-2872000</v>
       </c>
-      <c r="N234" s="173"/>
+      <c r="N234" s="154"/>
       <c r="O234" s="139">
         <v>90</v>
       </c>
@@ -10294,29 +10294,29 @@
         <v>421</v>
       </c>
       <c r="C235" s="53">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>1250000</v>
       </c>
       <c r="D235" s="53">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>622000</v>
       </c>
       <c r="E235" s="53"/>
       <c r="F235" s="73">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>1872000</v>
       </c>
       <c r="G235" s="3">
-        <f>(F235*25%)+F235</f>
+        <f t="shared" si="27"/>
         <v>2340000</v>
       </c>
       <c r="H235" s="53"/>
       <c r="I235" s="53"/>
       <c r="J235" s="21">
-        <f>H235-I235-F235</f>
+        <f t="shared" si="28"/>
         <v>-1872000</v>
       </c>
-      <c r="N235" s="173"/>
+      <c r="N235" s="154"/>
       <c r="O235" s="139">
         <v>50</v>
       </c>
@@ -10326,29 +10326,29 @@
         <v>422</v>
       </c>
       <c r="C236" s="53">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>2250000</v>
       </c>
       <c r="D236" s="53">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>622000</v>
       </c>
       <c r="E236" s="53"/>
       <c r="F236" s="73">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>2872000</v>
       </c>
       <c r="G236" s="3">
-        <f>(F236*25%)+F236</f>
+        <f t="shared" si="27"/>
         <v>3590000</v>
       </c>
       <c r="H236" s="53"/>
       <c r="I236" s="53"/>
       <c r="J236" s="21">
-        <f>H236-I236-F236</f>
+        <f t="shared" si="28"/>
         <v>-2872000</v>
       </c>
-      <c r="N236" s="173"/>
+      <c r="N236" s="154"/>
       <c r="O236" s="139">
         <v>90</v>
       </c>
@@ -10358,29 +10358,29 @@
         <v>423</v>
       </c>
       <c r="C237" s="53">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>2500000</v>
       </c>
       <c r="D237" s="53">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>622000</v>
       </c>
       <c r="E237" s="53"/>
       <c r="F237" s="73">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>3122000</v>
       </c>
       <c r="G237" s="3">
-        <f>(F237*25%)+F237</f>
+        <f t="shared" si="27"/>
         <v>3902500</v>
       </c>
       <c r="H237" s="53"/>
       <c r="I237" s="53"/>
       <c r="J237" s="21">
-        <f>H237-I237-F237</f>
+        <f t="shared" si="28"/>
         <v>-3122000</v>
       </c>
-      <c r="N237" s="173"/>
+      <c r="N237" s="154"/>
       <c r="O237" s="139">
         <v>100</v>
       </c>
@@ -10390,29 +10390,29 @@
         <v>422</v>
       </c>
       <c r="C238" s="53">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>2500000</v>
       </c>
       <c r="D238" s="53">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>622000</v>
       </c>
       <c r="E238" s="53"/>
       <c r="F238" s="73">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>3122000</v>
       </c>
       <c r="G238" s="3">
-        <f>(F238*25%)+F238</f>
+        <f t="shared" si="27"/>
         <v>3902500</v>
       </c>
       <c r="H238" s="53"/>
       <c r="I238" s="53"/>
       <c r="J238" s="21">
-        <f>H238-I238-F238</f>
+        <f t="shared" si="28"/>
         <v>-3122000</v>
       </c>
-      <c r="N238" s="173"/>
+      <c r="N238" s="154"/>
       <c r="O238" s="139">
         <v>100</v>
       </c>
@@ -10422,22 +10422,22 @@
         <v>423</v>
       </c>
       <c r="C239" s="53">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>2500000</v>
       </c>
       <c r="D239" s="53">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>622000</v>
       </c>
       <c r="E239" s="53">
         <v>500000</v>
       </c>
       <c r="F239" s="73">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>3622000</v>
       </c>
       <c r="G239" s="3">
-        <f>(F239*25%)+F239</f>
+        <f t="shared" si="27"/>
         <v>4527500</v>
       </c>
       <c r="H239" s="53">
@@ -10445